--- a/speaking.xlsx
+++ b/speaking.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\csexton.HICKORYPD\Documents\GitHub\rubytest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\csexton.HICKORYPD\Documents\GitHub\rubyspanishxlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -975,11 +975,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1297,16 +1299,22 @@
   <dimension ref="A1:CJ40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomRight" activeCell="CV15" sqref="CV15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="8.85546875" customWidth="1"/>
-    <col min="2" max="88" width="21.5703125" customWidth="1"/>
+    <col min="2" max="28" width="21.5703125" customWidth="1"/>
+    <col min="29" max="30" width="21.5703125" style="4" customWidth="1"/>
+    <col min="31" max="55" width="21.5703125" customWidth="1"/>
+    <col min="56" max="57" width="21.5703125" style="4" customWidth="1"/>
+    <col min="58" max="82" width="21.5703125" customWidth="1"/>
+    <col min="83" max="84" width="21.5703125" style="4" customWidth="1"/>
+    <col min="85" max="88" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:88" customFormat="false" ht="15.75" customHeight="1">
@@ -1394,10 +1402,10 @@
       <c r="AB1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AC1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AD1" s="4" t="s">
         <v>29</v>
       </c>
       <c r="AE1" t="s">
@@ -1475,10 +1483,10 @@
       <c r="BC1" t="s">
         <v>27</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BD1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BE1" s="4" t="s">
         <v>33</v>
       </c>
       <c r="BF1" t="s">
@@ -1556,10 +1564,10 @@
       <c r="CD1" t="s">
         <v>27</v>
       </c>
-      <c r="CE1" t="s">
+      <c r="CE1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="CF1" t="s">
+      <c r="CF1" s="4" t="s">
         <v>37</v>
       </c>
       <c r="CG1" t="s">
@@ -1660,10 +1668,10 @@
       <c r="AB2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AC2" s="2" t="s">
+      <c r="AC2" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AD2" s="2" t="s">
+      <c r="AD2" s="5" t="s">
         <v>48</v>
       </c>
       <c r="AE2" s="2" t="s">
@@ -1741,10 +1749,10 @@
       <c r="BC2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="BD2" s="2">
+      <c r="BD2" s="5">
         <v>4</v>
       </c>
-      <c r="BE2" s="2" t="s">
+      <c r="BE2" s="5" t="s">
         <v>48</v>
       </c>
       <c r="BF2" s="2" t="s">
@@ -1822,10 +1830,10 @@
       <c r="CD2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="CE2" s="2">
+      <c r="CE2" s="5">
         <v>3</v>
       </c>
-      <c r="CF2" s="2" t="s">
+      <c r="CF2" s="5" t="s">
         <v>48</v>
       </c>
       <c r="CG2" s="2" t="s">
@@ -1926,10 +1934,10 @@
       <c r="AB3" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AC3" s="2" t="s">
+      <c r="AC3" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AD3" s="2" t="s">
+      <c r="AD3" s="5" t="s">
         <v>48</v>
       </c>
       <c r="AE3" s="2" t="s">
@@ -2007,10 +2015,10 @@
       <c r="BC3" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="BD3" s="2" t="s">
+      <c r="BD3" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="BE3" s="2">
+      <c r="BE3" s="5">
         <v>3</v>
       </c>
       <c r="BF3" s="2" t="s">
@@ -2088,10 +2096,10 @@
       <c r="CD3" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="CE3" s="2" t="s">
+      <c r="CE3" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="CF3" s="2">
+      <c r="CF3" s="5">
         <v>3</v>
       </c>
       <c r="CG3" s="2" t="s">
@@ -2192,10 +2200,10 @@
       <c r="AB4" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AC4" s="2" t="s">
+      <c r="AC4" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AD4" s="2" t="s">
+      <c r="AD4" s="5" t="s">
         <v>48</v>
       </c>
       <c r="AE4" s="2" t="s">
@@ -2273,10 +2281,10 @@
       <c r="BC4" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="BD4" s="2" t="s">
+      <c r="BD4" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="BE4" s="2" t="s">
+      <c r="BE4" s="5" t="s">
         <v>48</v>
       </c>
       <c r="BF4" s="2" t="s">
@@ -2354,10 +2362,10 @@
       <c r="CD4" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="CE4" s="2" t="s">
+      <c r="CE4" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="CF4" s="2" t="s">
+      <c r="CF4" s="5" t="s">
         <v>48</v>
       </c>
       <c r="CG4" s="2" t="s">
@@ -2458,10 +2466,10 @@
       <c r="AB5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AC5" s="2">
+      <c r="AC5" s="5">
         <v>0</v>
       </c>
-      <c r="AD5" s="2" t="s">
+      <c r="AD5" s="5" t="s">
         <v>48</v>
       </c>
       <c r="AE5" s="2" t="s">
@@ -2539,10 +2547,10 @@
       <c r="BC5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="BD5" s="2">
+      <c r="BD5" s="5">
         <v>0</v>
       </c>
-      <c r="BE5" s="2" t="s">
+      <c r="BE5" s="5" t="s">
         <v>48</v>
       </c>
       <c r="BF5" s="2" t="s">
@@ -2620,10 +2628,10 @@
       <c r="CD5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="CE5" s="2">
+      <c r="CE5" s="5">
         <v>1</v>
       </c>
-      <c r="CF5" s="2" t="s">
+      <c r="CF5" s="5" t="s">
         <v>48</v>
       </c>
       <c r="CG5" s="2" t="s">
@@ -2724,10 +2732,10 @@
       <c r="AB6" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AC6" s="2">
+      <c r="AC6" s="5">
         <v>4</v>
       </c>
-      <c r="AD6" s="2" t="s">
+      <c r="AD6" s="5" t="s">
         <v>48</v>
       </c>
       <c r="AE6" s="2" t="s">
@@ -2805,10 +2813,10 @@
       <c r="BC6" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="BD6" s="2">
+      <c r="BD6" s="5">
         <v>0</v>
       </c>
-      <c r="BE6" s="2">
+      <c r="BE6" s="5">
         <v>0</v>
       </c>
       <c r="BF6" s="2" t="s">
@@ -2886,10 +2894,10 @@
       <c r="CD6" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="CE6" s="2">
+      <c r="CE6" s="5">
         <v>0</v>
       </c>
-      <c r="CF6" s="2">
+      <c r="CF6" s="5">
         <v>0</v>
       </c>
       <c r="CG6" s="2" t="s">
@@ -2990,10 +2998,10 @@
       <c r="AB7" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AC7" s="2" t="s">
+      <c r="AC7" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AD7" s="2" t="s">
+      <c r="AD7" s="5" t="s">
         <v>48</v>
       </c>
       <c r="AE7" s="2" t="s">
@@ -3071,10 +3079,10 @@
       <c r="BC7" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="BD7" s="2">
+      <c r="BD7" s="5">
         <v>3</v>
       </c>
-      <c r="BE7" s="2">
+      <c r="BE7" s="5">
         <v>4</v>
       </c>
       <c r="BF7" s="2" t="s">
@@ -3152,10 +3160,10 @@
       <c r="CD7" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="CE7" s="2" t="s">
+      <c r="CE7" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="CF7" s="2" t="s">
+      <c r="CF7" s="5" t="s">
         <v>48</v>
       </c>
       <c r="CG7" s="2" t="s">
@@ -3256,10 +3264,10 @@
       <c r="AB8" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AC8" s="2" t="s">
+      <c r="AC8" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AD8" s="2" t="s">
+      <c r="AD8" s="5" t="s">
         <v>48</v>
       </c>
       <c r="AE8" s="2" t="s">
@@ -3337,10 +3345,10 @@
       <c r="BC8" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="BD8" s="2" t="s">
+      <c r="BD8" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="BE8" s="2" t="s">
+      <c r="BE8" s="5" t="s">
         <v>48</v>
       </c>
       <c r="BF8" s="2" t="s">
@@ -3418,10 +3426,10 @@
       <c r="CD8" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="CE8" s="2" t="s">
+      <c r="CE8" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="CF8" s="2" t="s">
+      <c r="CF8" s="5" t="s">
         <v>48</v>
       </c>
       <c r="CG8" s="2" t="s">
@@ -3522,10 +3530,10 @@
       <c r="AB9" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AC9" s="2" t="s">
+      <c r="AC9" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AD9" s="2" t="s">
+      <c r="AD9" s="5" t="s">
         <v>48</v>
       </c>
       <c r="AE9" s="2" t="s">
@@ -3603,10 +3611,10 @@
       <c r="BC9" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="BD9" s="2" t="s">
+      <c r="BD9" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="BE9" s="2" t="s">
+      <c r="BE9" s="5" t="s">
         <v>48</v>
       </c>
       <c r="BF9" s="2" t="s">
@@ -3684,10 +3692,10 @@
       <c r="CD9" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="CE9" s="2" t="s">
+      <c r="CE9" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="CF9" s="2" t="s">
+      <c r="CF9" s="5" t="s">
         <v>48</v>
       </c>
       <c r="CG9" s="2" t="s">
@@ -3788,10 +3796,10 @@
       <c r="AB10" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AC10" s="2" t="s">
+      <c r="AC10" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AD10" s="2" t="s">
+      <c r="AD10" s="5" t="s">
         <v>48</v>
       </c>
       <c r="AE10" s="2" t="s">
@@ -3869,10 +3877,10 @@
       <c r="BC10" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="BD10" s="2" t="s">
+      <c r="BD10" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="BE10" s="2" t="s">
+      <c r="BE10" s="5" t="s">
         <v>48</v>
       </c>
       <c r="BF10" s="2" t="s">
@@ -3950,10 +3958,10 @@
       <c r="CD10" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="CE10" s="2" t="s">
+      <c r="CE10" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="CF10" s="2" t="s">
+      <c r="CF10" s="5" t="s">
         <v>48</v>
       </c>
       <c r="CG10" s="2" t="s">
@@ -4054,10 +4062,10 @@
       <c r="AB11" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AC11" s="2">
+      <c r="AC11" s="5">
         <v>2</v>
       </c>
-      <c r="AD11" s="2" t="s">
+      <c r="AD11" s="5" t="s">
         <v>48</v>
       </c>
       <c r="AE11" s="2" t="s">
@@ -4135,10 +4143,10 @@
       <c r="BC11" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="BD11" s="2">
+      <c r="BD11" s="5">
         <v>1</v>
       </c>
-      <c r="BE11" s="2" t="s">
+      <c r="BE11" s="5" t="s">
         <v>48</v>
       </c>
       <c r="BF11" s="2" t="s">
@@ -4216,10 +4224,10 @@
       <c r="CD11" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="CE11" s="2">
+      <c r="CE11" s="5">
         <v>1</v>
       </c>
-      <c r="CF11" s="2" t="s">
+      <c r="CF11" s="5" t="s">
         <v>48</v>
       </c>
       <c r="CG11" s="2" t="s">
@@ -4320,10 +4328,10 @@
       <c r="AB12" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AC12" s="2">
+      <c r="AC12" s="5">
         <v>3</v>
       </c>
-      <c r="AD12" s="2">
+      <c r="AD12" s="5">
         <v>3</v>
       </c>
       <c r="AE12" s="2" t="s">
@@ -4401,10 +4409,10 @@
       <c r="BC12" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="BD12" s="2">
+      <c r="BD12" s="5">
         <v>3</v>
       </c>
-      <c r="BE12" s="2">
+      <c r="BE12" s="5">
         <v>4</v>
       </c>
       <c r="BF12" s="2" t="s">
@@ -4482,10 +4490,10 @@
       <c r="CD12" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="CE12" s="2">
+      <c r="CE12" s="5">
         <v>4</v>
       </c>
-      <c r="CF12" s="2">
+      <c r="CF12" s="5">
         <v>4</v>
       </c>
       <c r="CG12" s="2" t="s">
@@ -4586,10 +4594,10 @@
       <c r="AB13" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AC13" s="2" t="s">
+      <c r="AC13" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AD13" s="2" t="s">
+      <c r="AD13" s="5" t="s">
         <v>48</v>
       </c>
       <c r="AE13" s="2" t="s">
@@ -4667,10 +4675,10 @@
       <c r="BC13" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="BD13" s="2" t="s">
+      <c r="BD13" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="BE13" s="2" t="s">
+      <c r="BE13" s="5" t="s">
         <v>48</v>
       </c>
       <c r="BF13" s="2" t="s">
@@ -4748,10 +4756,10 @@
       <c r="CD13" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="CE13" s="2" t="s">
+      <c r="CE13" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="CF13" s="2" t="s">
+      <c r="CF13" s="5" t="s">
         <v>48</v>
       </c>
       <c r="CG13" s="2" t="s">
@@ -4852,10 +4860,10 @@
       <c r="AB14" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AC14" s="2">
+      <c r="AC14" s="5">
         <v>4</v>
       </c>
-      <c r="AD14" s="2" t="s">
+      <c r="AD14" s="5" t="s">
         <v>48</v>
       </c>
       <c r="AE14" s="2" t="s">
@@ -4933,10 +4941,10 @@
       <c r="BC14" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="BD14" s="2" t="s">
+      <c r="BD14" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="BE14" s="2" t="s">
+      <c r="BE14" s="5" t="s">
         <v>48</v>
       </c>
       <c r="BF14" s="2" t="s">
@@ -5014,10 +5022,10 @@
       <c r="CD14" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="CE14" s="2">
+      <c r="CE14" s="5">
         <v>1</v>
       </c>
-      <c r="CF14" s="2">
+      <c r="CF14" s="5">
         <v>4</v>
       </c>
       <c r="CG14" s="2" t="s">
@@ -5118,10 +5126,10 @@
       <c r="AB15" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AC15" s="2" t="s">
+      <c r="AC15" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AD15" s="2" t="s">
+      <c r="AD15" s="5" t="s">
         <v>48</v>
       </c>
       <c r="AE15" s="2" t="s">
@@ -5199,10 +5207,10 @@
       <c r="BC15" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="BD15" s="2" t="s">
+      <c r="BD15" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="BE15" s="2" t="s">
+      <c r="BE15" s="5" t="s">
         <v>48</v>
       </c>
       <c r="BF15" s="2" t="s">
@@ -5280,10 +5288,10 @@
       <c r="CD15" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="CE15" s="2" t="s">
+      <c r="CE15" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="CF15" s="2" t="s">
+      <c r="CF15" s="5" t="s">
         <v>48</v>
       </c>
       <c r="CG15" s="2" t="s">
@@ -5384,10 +5392,10 @@
       <c r="AB16" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AC16" s="2">
+      <c r="AC16" s="5">
         <v>3</v>
       </c>
-      <c r="AD16" s="2">
+      <c r="AD16" s="5">
         <v>1</v>
       </c>
       <c r="AE16" s="2" t="s">
@@ -5465,10 +5473,10 @@
       <c r="BC16" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="BD16" s="2">
+      <c r="BD16" s="5">
         <v>2</v>
       </c>
-      <c r="BE16" s="2">
+      <c r="BE16" s="5">
         <v>2</v>
       </c>
       <c r="BF16" s="2" t="s">
@@ -5546,10 +5554,10 @@
       <c r="CD16" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="CE16" s="2">
+      <c r="CE16" s="5">
         <v>2</v>
       </c>
-      <c r="CF16" s="2">
+      <c r="CF16" s="5">
         <v>2</v>
       </c>
       <c r="CG16" s="2" t="s">
@@ -5650,10 +5658,10 @@
       <c r="AB17" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AC17" s="2" t="s">
+      <c r="AC17" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AD17" s="2" t="s">
+      <c r="AD17" s="5" t="s">
         <v>48</v>
       </c>
       <c r="AE17" s="2" t="s">
@@ -5731,10 +5739,10 @@
       <c r="BC17" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="BD17" s="2">
+      <c r="BD17" s="5">
         <v>3</v>
       </c>
-      <c r="BE17" s="2" t="s">
+      <c r="BE17" s="5" t="s">
         <v>48</v>
       </c>
       <c r="BF17" s="2" t="s">
@@ -5812,10 +5820,10 @@
       <c r="CD17" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="CE17" s="2">
+      <c r="CE17" s="5">
         <v>3</v>
       </c>
-      <c r="CF17" s="2" t="s">
+      <c r="CF17" s="5" t="s">
         <v>48</v>
       </c>
       <c r="CG17" s="2" t="s">
@@ -5916,10 +5924,10 @@
       <c r="AB18" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AC18" s="2">
+      <c r="AC18" s="5">
         <v>4</v>
       </c>
-      <c r="AD18" s="2" t="s">
+      <c r="AD18" s="5" t="s">
         <v>48</v>
       </c>
       <c r="AE18" s="2" t="s">
@@ -5997,10 +6005,10 @@
       <c r="BC18" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="BD18" s="2" t="s">
+      <c r="BD18" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="BE18" s="2" t="s">
+      <c r="BE18" s="5" t="s">
         <v>48</v>
       </c>
       <c r="BF18" s="2" t="s">
@@ -6078,10 +6086,10 @@
       <c r="CD18" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="CE18" s="2">
+      <c r="CE18" s="5">
         <v>4</v>
       </c>
-      <c r="CF18" s="2" t="s">
+      <c r="CF18" s="5" t="s">
         <v>48</v>
       </c>
       <c r="CG18" s="2" t="s">
@@ -6182,10 +6190,10 @@
       <c r="AB19" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AC19" s="2" t="s">
+      <c r="AC19" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AD19" s="2" t="s">
+      <c r="AD19" s="5" t="s">
         <v>48</v>
       </c>
       <c r="AE19" s="2" t="s">
@@ -6263,10 +6271,10 @@
       <c r="BC19" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="BD19" s="2" t="s">
+      <c r="BD19" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="BE19" s="2" t="s">
+      <c r="BE19" s="5" t="s">
         <v>48</v>
       </c>
       <c r="BF19" s="2" t="s">
@@ -6344,10 +6352,10 @@
       <c r="CD19" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="CE19" s="2" t="s">
+      <c r="CE19" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="CF19" s="2" t="s">
+      <c r="CF19" s="5" t="s">
         <v>48</v>
       </c>
       <c r="CG19" s="2" t="s">
@@ -6448,10 +6456,10 @@
       <c r="AB20" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AC20" s="2">
+      <c r="AC20" s="5">
         <v>4</v>
       </c>
-      <c r="AD20" s="2" t="s">
+      <c r="AD20" s="5" t="s">
         <v>48</v>
       </c>
       <c r="AE20" s="2" t="s">
@@ -6529,10 +6537,10 @@
       <c r="BC20" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="BD20" s="2" t="s">
+      <c r="BD20" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="BE20" s="2" t="s">
+      <c r="BE20" s="5" t="s">
         <v>48</v>
       </c>
       <c r="BF20" s="2" t="s">
@@ -6610,10 +6618,10 @@
       <c r="CD20" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="CE20" s="2">
+      <c r="CE20" s="5">
         <v>4</v>
       </c>
-      <c r="CF20" s="2" t="s">
+      <c r="CF20" s="5" t="s">
         <v>48</v>
       </c>
       <c r="CG20" s="2" t="s">
@@ -6714,10 +6722,10 @@
       <c r="AB21" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AC21" s="2" t="s">
+      <c r="AC21" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AD21" s="2" t="s">
+      <c r="AD21" s="5" t="s">
         <v>48</v>
       </c>
       <c r="AE21" s="2" t="s">
@@ -6795,10 +6803,10 @@
       <c r="BC21" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="BD21" s="2" t="s">
+      <c r="BD21" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="BE21" s="2" t="s">
+      <c r="BE21" s="5" t="s">
         <v>48</v>
       </c>
       <c r="BF21" s="2" t="s">
@@ -6876,10 +6884,10 @@
       <c r="CD21" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="CE21" s="2" t="s">
+      <c r="CE21" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="CF21" s="2" t="s">
+      <c r="CF21" s="5" t="s">
         <v>48</v>
       </c>
       <c r="CG21" s="2" t="s">
@@ -6980,10 +6988,10 @@
       <c r="AB22" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AC22" s="2" t="s">
+      <c r="AC22" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AD22" s="2">
+      <c r="AD22" s="5">
         <v>2</v>
       </c>
       <c r="AE22" s="2" t="s">
@@ -7061,10 +7069,10 @@
       <c r="BC22" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="BD22" s="2" t="s">
+      <c r="BD22" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="BE22" s="2">
+      <c r="BE22" s="5">
         <v>4</v>
       </c>
       <c r="BF22" s="2" t="s">
@@ -7142,10 +7150,10 @@
       <c r="CD22" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="CE22" s="2" t="s">
+      <c r="CE22" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="CF22" s="2" t="s">
+      <c r="CF22" s="5" t="s">
         <v>48</v>
       </c>
       <c r="CG22" s="2" t="s">
@@ -7246,10 +7254,10 @@
       <c r="AB23" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AC23" s="2">
+      <c r="AC23" s="5">
         <v>4</v>
       </c>
-      <c r="AD23" s="2">
+      <c r="AD23" s="5">
         <v>4</v>
       </c>
       <c r="AE23" s="2" t="s">
@@ -7327,10 +7335,10 @@
       <c r="BC23" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="BD23" s="2">
+      <c r="BD23" s="5">
         <v>3</v>
       </c>
-      <c r="BE23" s="2">
+      <c r="BE23" s="5">
         <v>4</v>
       </c>
       <c r="BF23" s="2" t="s">
@@ -7408,10 +7416,10 @@
       <c r="CD23" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="CE23" s="2">
+      <c r="CE23" s="5">
         <v>4</v>
       </c>
-      <c r="CF23" s="2">
+      <c r="CF23" s="5">
         <v>3</v>
       </c>
       <c r="CG23" s="2" t="s">
@@ -7512,10 +7520,10 @@
       <c r="AB24" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AC24" s="2">
+      <c r="AC24" s="5">
         <v>3</v>
       </c>
-      <c r="AD24" s="2" t="s">
+      <c r="AD24" s="5" t="s">
         <v>48</v>
       </c>
       <c r="AE24" s="2" t="s">
@@ -7593,10 +7601,10 @@
       <c r="BC24" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="BD24" s="2">
+      <c r="BD24" s="5">
         <v>0</v>
       </c>
-      <c r="BE24" s="2" t="s">
+      <c r="BE24" s="5" t="s">
         <v>48</v>
       </c>
       <c r="BF24" s="2" t="s">
@@ -7674,10 +7682,10 @@
       <c r="CD24" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="CE24" s="2">
+      <c r="CE24" s="5">
         <v>4</v>
       </c>
-      <c r="CF24" s="2">
+      <c r="CF24" s="5">
         <v>4</v>
       </c>
       <c r="CG24" s="2" t="s">
@@ -7778,10 +7786,10 @@
       <c r="AB25" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AC25" s="2" t="s">
+      <c r="AC25" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AD25" s="2" t="s">
+      <c r="AD25" s="5" t="s">
         <v>48</v>
       </c>
       <c r="AE25" s="2" t="s">
@@ -7859,10 +7867,10 @@
       <c r="BC25" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="BD25" s="2">
+      <c r="BD25" s="5">
         <v>4</v>
       </c>
-      <c r="BE25" s="2">
+      <c r="BE25" s="5">
         <v>4</v>
       </c>
       <c r="BF25" s="2" t="s">
@@ -7940,10 +7948,10 @@
       <c r="CD25" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="CE25" s="2">
+      <c r="CE25" s="5">
         <v>4</v>
       </c>
-      <c r="CF25" s="2" t="s">
+      <c r="CF25" s="5" t="s">
         <v>48</v>
       </c>
       <c r="CG25" s="2" t="s">
@@ -8044,10 +8052,10 @@
       <c r="AB26" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AC26" s="2">
+      <c r="AC26" s="5">
         <v>3</v>
       </c>
-      <c r="AD26" s="2" t="s">
+      <c r="AD26" s="5" t="s">
         <v>48</v>
       </c>
       <c r="AE26" s="2" t="s">
@@ -8125,10 +8133,10 @@
       <c r="BC26" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="BD26" s="2">
+      <c r="BD26" s="5">
         <v>3</v>
       </c>
-      <c r="BE26" s="2" t="s">
+      <c r="BE26" s="5" t="s">
         <v>48</v>
       </c>
       <c r="BF26" s="2" t="s">
@@ -8206,10 +8214,10 @@
       <c r="CD26" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="CE26" s="2">
+      <c r="CE26" s="5">
         <v>4</v>
       </c>
-      <c r="CF26" s="2">
+      <c r="CF26" s="5">
         <v>4</v>
       </c>
       <c r="CG26" s="2" t="s">
@@ -8310,10 +8318,10 @@
       <c r="AB27" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AC27" s="2">
+      <c r="AC27" s="5">
         <v>4</v>
       </c>
-      <c r="AD27" s="2" t="s">
+      <c r="AD27" s="5" t="s">
         <v>48</v>
       </c>
       <c r="AE27" s="2" t="s">
@@ -8391,10 +8399,10 @@
       <c r="BC27" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="BD27" s="2">
+      <c r="BD27" s="5">
         <v>4</v>
       </c>
-      <c r="BE27" s="2" t="s">
+      <c r="BE27" s="5" t="s">
         <v>48</v>
       </c>
       <c r="BF27" s="2" t="s">
@@ -8472,10 +8480,10 @@
       <c r="CD27" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="CE27" s="2">
+      <c r="CE27" s="5">
         <v>4</v>
       </c>
-      <c r="CF27" s="2" t="s">
+      <c r="CF27" s="5" t="s">
         <v>48</v>
       </c>
       <c r="CG27" s="2" t="s">
@@ -8576,10 +8584,10 @@
       <c r="AB28" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AC28" s="2">
+      <c r="AC28" s="5">
         <v>4</v>
       </c>
-      <c r="AD28" s="2" t="s">
+      <c r="AD28" s="5" t="s">
         <v>48</v>
       </c>
       <c r="AE28" s="2" t="s">
@@ -8657,10 +8665,10 @@
       <c r="BC28" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="BD28" s="2">
+      <c r="BD28" s="5">
         <v>3</v>
       </c>
-      <c r="BE28" s="2">
+      <c r="BE28" s="5">
         <v>4</v>
       </c>
       <c r="BF28" s="2" t="s">
@@ -8738,10 +8746,10 @@
       <c r="CD28" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="CE28" s="2">
+      <c r="CE28" s="5">
         <v>3</v>
       </c>
-      <c r="CF28" s="2">
+      <c r="CF28" s="5">
         <v>4</v>
       </c>
       <c r="CG28" s="2" t="s">
@@ -8842,10 +8850,10 @@
       <c r="AB29" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AC29" s="2">
+      <c r="AC29" s="5">
         <v>4</v>
       </c>
-      <c r="AD29" s="2" t="s">
+      <c r="AD29" s="5" t="s">
         <v>48</v>
       </c>
       <c r="AE29" s="2" t="s">
@@ -8923,10 +8931,10 @@
       <c r="BC29" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="BD29" s="2">
+      <c r="BD29" s="5">
         <v>3</v>
       </c>
-      <c r="BE29" s="2" t="s">
+      <c r="BE29" s="5" t="s">
         <v>48</v>
       </c>
       <c r="BF29" s="2" t="s">
@@ -9004,10 +9012,10 @@
       <c r="CD29" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="CE29" s="2">
+      <c r="CE29" s="5">
         <v>3</v>
       </c>
-      <c r="CF29" s="2" t="s">
+      <c r="CF29" s="5" t="s">
         <v>48</v>
       </c>
       <c r="CG29" s="2" t="s">
@@ -9108,10 +9116,10 @@
       <c r="AB30" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AC30" s="2">
+      <c r="AC30" s="5">
         <v>0</v>
       </c>
-      <c r="AD30" s="2" t="s">
+      <c r="AD30" s="5" t="s">
         <v>48</v>
       </c>
       <c r="AE30" s="2" t="s">
@@ -9189,10 +9197,10 @@
       <c r="BC30" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="BD30" s="2">
+      <c r="BD30" s="5">
         <v>2</v>
       </c>
-      <c r="BE30" s="2" t="s">
+      <c r="BE30" s="5" t="s">
         <v>48</v>
       </c>
       <c r="BF30" s="2" t="s">
@@ -9270,10 +9278,10 @@
       <c r="CD30" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="CE30" s="2">
+      <c r="CE30" s="5">
         <v>3</v>
       </c>
-      <c r="CF30" s="2" t="s">
+      <c r="CF30" s="5" t="s">
         <v>48</v>
       </c>
       <c r="CG30" s="2" t="s">
@@ -9374,10 +9382,10 @@
       <c r="AB31" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AC31" s="2">
+      <c r="AC31" s="5">
         <v>3</v>
       </c>
-      <c r="AD31" s="2">
+      <c r="AD31" s="5">
         <v>4</v>
       </c>
       <c r="AE31" s="2" t="s">
@@ -9455,10 +9463,10 @@
       <c r="BC31" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="BD31" s="2">
+      <c r="BD31" s="5">
         <v>4</v>
       </c>
-      <c r="BE31" s="2">
+      <c r="BE31" s="5">
         <v>4</v>
       </c>
       <c r="BF31" s="2" t="s">
@@ -9536,10 +9544,10 @@
       <c r="CD31" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="CE31" s="2">
+      <c r="CE31" s="5">
         <v>3</v>
       </c>
-      <c r="CF31" s="2">
+      <c r="CF31" s="5">
         <v>4</v>
       </c>
       <c r="CG31" s="2" t="s">
@@ -9640,10 +9648,10 @@
       <c r="AB32" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AC32" s="2">
+      <c r="AC32" s="5">
         <v>3</v>
       </c>
-      <c r="AD32" s="2">
+      <c r="AD32" s="5">
         <v>3</v>
       </c>
       <c r="AE32" s="2" t="s">
@@ -9721,10 +9729,10 @@
       <c r="BC32" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="BD32" s="2">
+      <c r="BD32" s="5">
         <v>3</v>
       </c>
-      <c r="BE32" s="2">
+      <c r="BE32" s="5">
         <v>3</v>
       </c>
       <c r="BF32" s="2" t="s">
@@ -9802,10 +9810,10 @@
       <c r="CD32" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="CE32" s="2">
+      <c r="CE32" s="5">
         <v>3</v>
       </c>
-      <c r="CF32" s="2">
+      <c r="CF32" s="5">
         <v>3</v>
       </c>
       <c r="CG32" s="2" t="s">
@@ -9906,10 +9914,10 @@
       <c r="AB33" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AC33" s="2">
+      <c r="AC33" s="5">
         <v>3</v>
       </c>
-      <c r="AD33" s="2">
+      <c r="AD33" s="5">
         <v>4</v>
       </c>
       <c r="AE33" s="2" t="s">
@@ -9987,10 +9995,10 @@
       <c r="BC33" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="BD33" s="2">
+      <c r="BD33" s="5">
         <v>3</v>
       </c>
-      <c r="BE33" s="2">
+      <c r="BE33" s="5">
         <v>3</v>
       </c>
       <c r="BF33" s="2" t="s">
@@ -10068,10 +10076,10 @@
       <c r="CD33" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="CE33" s="2">
+      <c r="CE33" s="5">
         <v>3</v>
       </c>
-      <c r="CF33" s="2">
+      <c r="CF33" s="5">
         <v>4</v>
       </c>
       <c r="CG33" s="2" t="s">
@@ -10172,10 +10180,10 @@
       <c r="AB34" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AC34" s="2" t="s">
+      <c r="AC34" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AD34" s="2" t="s">
+      <c r="AD34" s="5" t="s">
         <v>48</v>
       </c>
       <c r="AE34" s="2" t="s">
@@ -10253,10 +10261,10 @@
       <c r="BC34" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="BD34" s="2" t="s">
+      <c r="BD34" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="BE34" s="2" t="s">
+      <c r="BE34" s="5" t="s">
         <v>48</v>
       </c>
       <c r="BF34" s="2" t="s">
@@ -10334,10 +10342,10 @@
       <c r="CD34" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="CE34" s="2" t="s">
+      <c r="CE34" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="CF34" s="2" t="s">
+      <c r="CF34" s="5" t="s">
         <v>48</v>
       </c>
       <c r="CG34" s="2" t="s">
@@ -10438,10 +10446,10 @@
       <c r="AB35" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AC35" s="2" t="s">
+      <c r="AC35" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AD35" s="2" t="s">
+      <c r="AD35" s="5" t="s">
         <v>48</v>
       </c>
       <c r="AE35" s="2" t="s">
@@ -10519,10 +10527,10 @@
       <c r="BC35" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="BD35" s="2">
+      <c r="BD35" s="5">
         <v>4</v>
       </c>
-      <c r="BE35" s="2">
+      <c r="BE35" s="5">
         <v>4</v>
       </c>
       <c r="BF35" s="2" t="s">
@@ -10600,10 +10608,10 @@
       <c r="CD35" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="CE35" s="2">
+      <c r="CE35" s="5">
         <v>4</v>
       </c>
-      <c r="CF35" s="2" t="s">
+      <c r="CF35" s="5" t="s">
         <v>48</v>
       </c>
       <c r="CG35" s="2" t="s">
@@ -10704,10 +10712,10 @@
       <c r="AB36" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AC36" s="2" t="s">
+      <c r="AC36" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AD36" s="2" t="s">
+      <c r="AD36" s="5" t="s">
         <v>48</v>
       </c>
       <c r="AE36" s="2" t="s">
@@ -10785,10 +10793,10 @@
       <c r="BC36" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="BD36" s="2" t="s">
+      <c r="BD36" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="BE36" s="2" t="s">
+      <c r="BE36" s="5" t="s">
         <v>48</v>
       </c>
       <c r="BF36" s="2" t="s">
@@ -10866,10 +10874,10 @@
       <c r="CD36" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="CE36" s="2" t="s">
+      <c r="CE36" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="CF36" s="2" t="s">
+      <c r="CF36" s="5" t="s">
         <v>48</v>
       </c>
       <c r="CG36" s="2" t="s">
@@ -10970,10 +10978,10 @@
       <c r="AB37" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AC37" s="2" t="s">
+      <c r="AC37" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AD37" s="2" t="s">
+      <c r="AD37" s="5" t="s">
         <v>48</v>
       </c>
       <c r="AE37" s="2" t="s">
@@ -11051,10 +11059,10 @@
       <c r="BC37" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="BD37" s="2">
+      <c r="BD37" s="5">
         <v>0</v>
       </c>
-      <c r="BE37" s="2" t="s">
+      <c r="BE37" s="5" t="s">
         <v>48</v>
       </c>
       <c r="BF37" s="2" t="s">
@@ -11132,10 +11140,10 @@
       <c r="CD37" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="CE37" s="2">
+      <c r="CE37" s="5">
         <v>0</v>
       </c>
-      <c r="CF37" s="2" t="s">
+      <c r="CF37" s="5" t="s">
         <v>48</v>
       </c>
       <c r="CG37" s="2" t="s">
@@ -11236,10 +11244,10 @@
       <c r="AB38" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AC38" s="5">
         <v>3</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AD38" s="5">
         <v>3</v>
       </c>
       <c r="AE38" s="2" t="s">
@@ -11317,10 +11325,10 @@
       <c r="BC38" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="BD38" s="2" t="s">
+      <c r="BD38" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="BE38" s="2" t="s">
+      <c r="BE38" s="5" t="s">
         <v>48</v>
       </c>
       <c r="BF38" s="2" t="s">
@@ -11398,10 +11406,10 @@
       <c r="CD38" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="CE38" s="2" t="s">
+      <c r="CE38" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="CF38" s="2" t="s">
+      <c r="CF38" s="5" t="s">
         <v>48</v>
       </c>
       <c r="CG38" s="2" t="s">
@@ -11502,10 +11510,10 @@
       <c r="AB39" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AC39" s="2">
+      <c r="AC39" s="5">
         <v>2</v>
       </c>
-      <c r="AD39" s="2">
+      <c r="AD39" s="5">
         <v>4</v>
       </c>
       <c r="AE39" s="2" t="s">
@@ -11583,10 +11591,10 @@
       <c r="BC39" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="BD39" s="2">
+      <c r="BD39" s="5">
         <v>2</v>
       </c>
-      <c r="BE39" s="2">
+      <c r="BE39" s="5">
         <v>4</v>
       </c>
       <c r="BF39" s="2" t="s">
@@ -11664,10 +11672,10 @@
       <c r="CD39" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="CE39" s="2">
+      <c r="CE39" s="5">
         <v>1</v>
       </c>
-      <c r="CF39" s="2">
+      <c r="CF39" s="5">
         <v>4</v>
       </c>
       <c r="CG39" s="2" t="s">
@@ -11768,10 +11776,10 @@
       <c r="AB40" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AC40" s="2">
+      <c r="AC40" s="5">
         <v>4</v>
       </c>
-      <c r="AD40" s="2">
+      <c r="AD40" s="5">
         <v>3</v>
       </c>
       <c r="AE40" s="2" t="s">
@@ -11849,10 +11857,10 @@
       <c r="BC40" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="BD40" s="2" t="s">
+      <c r="BD40" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="BE40" s="2" t="s">
+      <c r="BE40" s="5" t="s">
         <v>48</v>
       </c>
       <c r="BF40" s="2" t="s">
@@ -11930,10 +11938,10 @@
       <c r="CD40" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="CE40" s="2">
+      <c r="CE40" s="5">
         <v>0</v>
       </c>
-      <c r="CF40" s="2">
+      <c r="CF40" s="5">
         <v>0</v>
       </c>
       <c r="CG40" s="2" t="s">
@@ -11990,26 +11998,21 @@
     <hyperlink ref="C40" r:id="rId36"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId37"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
-  <dimension ref="B1:F25"/>
+  <dimension ref="B1:AN25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="E15" sqref="A1:AN25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col min="2" max="2" width="32.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.140625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="12.75"/>
   <sheetData>
-    <row r="1" spans="2:6" customFormat="false">
+    <row r="1" spans="2:40" customFormat="false">
       <c r="B1" s="0" t="str">
         <v>aaron.nesnow846@gaston.k12.nc.us</v>
       </c>
@@ -12025,399 +12028,2847 @@
       <c r="F1" s="0" t="str">
         <v>aleigha.letterman215@gaston.k12.nc.us</v>
       </c>
+      <c r="G1" s="0" t="str">
+        <v>aleigha.letterman215@gaston.k12.nc.us</v>
+      </c>
+      <c r="H1" s="0" t="str">
+        <v>anna.kleffnerspencer042@gaston.k12.nc.us</v>
+      </c>
+      <c r="I1" s="0" t="str">
+        <v>caleb.costner942@gaston.k12.nc.us</v>
+      </c>
+      <c r="J1" s="0" t="str">
+        <v>dalton.harmon921@gaston.k12.nc.us</v>
+      </c>
+      <c r="K1" s="0" t="str">
+        <v>douglas.farley537@gaston.k12.nc.us</v>
+      </c>
+      <c r="L1" s="0" t="str">
+        <v>elizabeth.suarez717@gaston.k12.nc.us</v>
+      </c>
+      <c r="M1" s="0" t="str">
+        <v>grace.deaton440@gaston.k12.nc.us</v>
+      </c>
+      <c r="N1" s="0" t="str">
+        <v>hannah.berckman208@gaston.k12.nc.us</v>
+      </c>
+      <c r="O1" s="0" t="str">
+        <v>hannah.cribby469@gaston.k12.nc.us</v>
+      </c>
+      <c r="P1" s="0" t="str">
+        <v>haylee.franckewitz955@gaston.k12.nc.us</v>
+      </c>
+      <c r="Q1" s="0" t="str">
+        <v>james.abee815@gaston.k12.nc.us</v>
+      </c>
+      <c r="R1" s="0" t="str">
+        <v>james.abee815@gaston.k12.nc.us</v>
+      </c>
+      <c r="S1" s="0" t="str">
+        <v>james.lynn958@gaston.k12.nc.us</v>
+      </c>
+      <c r="T1" s="0" t="str">
+        <v>jared.godwin616@gaston.k12.nc.us</v>
+      </c>
+      <c r="U1" s="0" t="str">
+        <v>jessica.kirby006@gaston.k12.nc.us</v>
+      </c>
+      <c r="V1" s="0" t="str">
+        <v>jessica.payne425@gaston.k12.nc.us</v>
+      </c>
+      <c r="W1" s="0" t="str">
+        <v>kalynne.helms096@gaston.k12.nc.us</v>
+      </c>
+      <c r="X1" s="0" t="str">
+        <v>karmen.scruggs776@gaston.k12.nc.us</v>
+      </c>
+      <c r="Y1" s="0" t="str">
+        <v>kayla.shannon027@gaston.k12.nc.us</v>
+      </c>
+      <c r="Z1" s="0" t="str">
+        <v>kayla.williamson843@gaston.k12.nc.us</v>
+      </c>
+      <c r="AA1" s="0" t="str">
+        <v>kimberly.queen686@gaston.k12.nc.us</v>
+      </c>
+      <c r="AB1" s="0" t="str">
+        <v>kyra.rhyne012@gaston.k12.nc.us</v>
+      </c>
+      <c r="AC1" s="0" t="str">
+        <v>kyra.rhyne012@gaston.k12.nc.us</v>
+      </c>
+      <c r="AD1" s="0" t="str">
+        <v>laurie.ricardo512@gaston.k12.nc.us</v>
+      </c>
+      <c r="AE1" s="0" t="str">
+        <v>ling.zhang885@gaston.k12.nc.us</v>
+      </c>
+      <c r="AF1" s="0" t="str">
+        <v>noah.wollin244@gaston.k12.nc.us</v>
+      </c>
+      <c r="AG1" s="0" t="str">
+        <v>olyvia.knight064@gaston.k12.nc.us</v>
+      </c>
+      <c r="AH1" s="0" t="str">
+        <v>parth.patel358@gaston.k12.nc.us</v>
+      </c>
+      <c r="AI1" s="0" t="str">
+        <v>piper.colangelo050@gaston.k12.nc.us</v>
+      </c>
+      <c r="AJ1" s="0" t="str">
+        <v>riley.kiefer729@gaston.k12.nc.us</v>
+      </c>
+      <c r="AK1" s="0" t="str">
+        <v>sarah.macon201@gaston.k12.nc.us</v>
+      </c>
+      <c r="AL1" s="0" t="str">
+        <v>scott.johnson192@gaston.k12.nc.us</v>
+      </c>
+      <c r="AM1" s="0" t="str">
+        <v>tiffany.weresow255@gaston.k12.nc.us</v>
+      </c>
+      <c r="AN1" s="0" t="str">
+        <v>weston.peavy213@gaston.k12.nc.us</v>
+      </c>
     </row>
-    <row r="2" spans="2:6" customFormat="false">
+    <row r="2" spans="2:40" customFormat="false">
       <c r="B2" s="0" t="str">
         <v>A-C</v>
       </c>
       <c r="C2" s="0" t="str">
-        <v/>
+        <v>ABC</v>
       </c>
       <c r="D2" s="0" t="str">
-        <v/>
+        <v>AB-</v>
       </c>
       <c r="E2" s="0" t="str">
-        <v/>
+        <v>---</v>
       </c>
       <c r="F2" s="0" t="str">
-        <v/>
+        <v>A-C</v>
+      </c>
+      <c r="G2" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="H2" s="0" t="str">
+        <v>-BC</v>
+      </c>
+      <c r="I2" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="J2" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="K2" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="L2" s="0" t="str">
+        <v>A--</v>
+      </c>
+      <c r="M2" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="N2" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="O2" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="P2" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="Q2" s="0" t="str">
+        <v>--C</v>
+      </c>
+      <c r="R2" s="0" t="str">
+        <v>--C</v>
+      </c>
+      <c r="S2" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="T2" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="U2" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="V2" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="W2" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="X2" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="Y2" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="Z2" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="AA2" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AB2" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="AC2" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="AD2" s="0" t="str">
+        <v>-B-</v>
+      </c>
+      <c r="AE2" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AF2" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AG2" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AH2" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AI2" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AJ2" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AK2" s="0" t="str">
+        <v>A--</v>
+      </c>
+      <c r="AL2" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AM2" s="0" t="str">
+        <v>A--</v>
+      </c>
+      <c r="AN2" s="0" t="str">
+        <v>A--</v>
       </c>
     </row>
-    <row r="3" spans="2:6" customFormat="false">
+    <row r="3" spans="2:40" customFormat="false">
       <c r="B3" s="0" t="str">
         <v>-B-</v>
       </c>
       <c r="C3" s="0" t="str">
-        <v/>
+        <v>ABC</v>
       </c>
       <c r="D3" s="0" t="str">
-        <v/>
+        <v>ABC</v>
       </c>
       <c r="E3" s="0" t="str">
-        <v/>
+        <v>---</v>
       </c>
       <c r="F3" s="0" t="str">
-        <v/>
+        <v>--C</v>
+      </c>
+      <c r="G3" s="0" t="str">
+        <v>--C</v>
+      </c>
+      <c r="H3" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="I3" s="0" t="str">
+        <v>--C</v>
+      </c>
+      <c r="J3" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="K3" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="L3" s="0" t="str">
+        <v>--C</v>
+      </c>
+      <c r="M3" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="N3" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="O3" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="P3" s="0" t="str">
+        <v>-B-</v>
+      </c>
+      <c r="Q3" s="0" t="str">
+        <v>A--</v>
+      </c>
+      <c r="R3" s="0" t="str">
+        <v>-B-</v>
+      </c>
+      <c r="S3" s="0" t="str">
+        <v>-BC</v>
+      </c>
+      <c r="T3" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="U3" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="V3" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="W3" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="X3" s="0" t="str">
+        <v>--C</v>
+      </c>
+      <c r="Y3" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="Z3" s="0" t="str">
+        <v>--C</v>
+      </c>
+      <c r="AA3" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="AB3" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="AC3" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AD3" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AE3" s="0" t="str">
+        <v>-B-</v>
+      </c>
+      <c r="AF3" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AG3" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AH3" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="AI3" s="0" t="str">
+        <v>-BC</v>
+      </c>
+      <c r="AJ3" s="0" t="str">
+        <v>A--</v>
+      </c>
+      <c r="AK3" s="0" t="str">
+        <v>A--</v>
+      </c>
+      <c r="AL3" s="0" t="str">
+        <v>-BC</v>
+      </c>
+      <c r="AM3" s="0" t="str">
+        <v>A--</v>
+      </c>
+      <c r="AN3" s="0" t="str">
+        <v>---</v>
       </c>
     </row>
-    <row r="4" spans="2:6" customFormat="false">
+    <row r="4" spans="2:40" customFormat="false">
       <c r="B4" s="0" t="str">
         <v>AB-</v>
       </c>
       <c r="C4" s="0" t="str">
-        <v/>
+        <v>A-C</v>
       </c>
       <c r="D4" s="0" t="str">
-        <v/>
+        <v>AB-</v>
       </c>
       <c r="E4" s="0" t="str">
-        <v/>
+        <v>ABC</v>
       </c>
       <c r="F4" s="0" t="str">
-        <v/>
+        <v>A-C</v>
+      </c>
+      <c r="G4" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="H4" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="I4" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="J4" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="K4" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="L4" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="M4" s="0" t="str">
+        <v>A--</v>
+      </c>
+      <c r="N4" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="O4" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="P4" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="Q4" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="R4" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="S4" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="T4" s="0" t="str">
+        <v>-BC</v>
+      </c>
+      <c r="U4" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="V4" s="0" t="str">
+        <v>-BC</v>
+      </c>
+      <c r="W4" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="X4" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="Y4" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="Z4" s="0" t="str">
+        <v>A--</v>
+      </c>
+      <c r="AA4" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AB4" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AC4" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AD4" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AE4" s="0" t="str">
+        <v>--C</v>
+      </c>
+      <c r="AF4" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AG4" s="0" t="str">
+        <v>A--</v>
+      </c>
+      <c r="AH4" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AI4" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AJ4" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AK4" s="0" t="str">
+        <v>-BC</v>
+      </c>
+      <c r="AL4" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AM4" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="AN4" s="0" t="str">
+        <v>AB-</v>
       </c>
     </row>
-    <row r="5" spans="2:6" customFormat="false">
+    <row r="5" spans="2:40" customFormat="false">
       <c r="B5" s="0" t="str">
         <v>AC</v>
       </c>
       <c r="C5" s="0" t="str">
-        <v/>
+        <v>AC</v>
       </c>
       <c r="D5" s="0" t="str">
-        <v/>
+        <v>AC</v>
       </c>
       <c r="E5" s="0" t="str">
-        <v/>
+        <v>-C</v>
       </c>
       <c r="F5" s="0" t="str">
-        <v/>
+        <v>-C</v>
+      </c>
+      <c r="G5" s="0" t="str">
+        <v>-C</v>
+      </c>
+      <c r="H5" s="0" t="str">
+        <v>AC</v>
+      </c>
+      <c r="I5" s="0" t="str">
+        <v>AC</v>
+      </c>
+      <c r="J5" s="0" t="str">
+        <v>AC</v>
+      </c>
+      <c r="K5" s="0" t="str">
+        <v>AC</v>
+      </c>
+      <c r="L5" s="0" t="str">
+        <v>--</v>
+      </c>
+      <c r="M5" s="0" t="str">
+        <v>A-</v>
+      </c>
+      <c r="N5" s="0" t="str">
+        <v>AC</v>
+      </c>
+      <c r="O5" s="0" t="str">
+        <v>--</v>
+      </c>
+      <c r="P5" s="0" t="str">
+        <v>--</v>
+      </c>
+      <c r="Q5" s="0" t="str">
+        <v>AC</v>
+      </c>
+      <c r="R5" s="0" t="str">
+        <v>A-</v>
+      </c>
+      <c r="S5" s="0" t="str">
+        <v>-C</v>
+      </c>
+      <c r="T5" s="0" t="str">
+        <v>AC</v>
+      </c>
+      <c r="U5" s="0" t="str">
+        <v>AC</v>
+      </c>
+      <c r="V5" s="0" t="str">
+        <v>-C</v>
+      </c>
+      <c r="W5" s="0" t="str">
+        <v>AC</v>
+      </c>
+      <c r="X5" s="0" t="str">
+        <v>A-</v>
+      </c>
+      <c r="Y5" s="0" t="str">
+        <v>AC</v>
+      </c>
+      <c r="Z5" s="0" t="str">
+        <v>A-</v>
+      </c>
+      <c r="AA5" s="0" t="str">
+        <v>AC</v>
+      </c>
+      <c r="AB5" s="0" t="str">
+        <v>AC</v>
+      </c>
+      <c r="AC5" s="0" t="str">
+        <v>AC</v>
+      </c>
+      <c r="AD5" s="0" t="str">
+        <v>AC</v>
+      </c>
+      <c r="AE5" s="0" t="str">
+        <v>AC</v>
+      </c>
+      <c r="AF5" s="0" t="str">
+        <v>AC</v>
+      </c>
+      <c r="AG5" s="0" t="str">
+        <v>AC</v>
+      </c>
+      <c r="AH5" s="0" t="str">
+        <v>-C</v>
+      </c>
+      <c r="AI5" s="0" t="str">
+        <v>AC</v>
+      </c>
+      <c r="AJ5" s="0" t="str">
+        <v>AC</v>
+      </c>
+      <c r="AK5" s="0" t="str">
+        <v>AC</v>
+      </c>
+      <c r="AL5" s="0" t="str">
+        <v>-C</v>
+      </c>
+      <c r="AM5" s="0" t="str">
+        <v>AC</v>
+      </c>
+      <c r="AN5" s="0" t="str">
+        <v>--</v>
       </c>
     </row>
-    <row r="6" spans="2:6" customFormat="false">
+    <row r="6" spans="2:40" customFormat="false">
       <c r="B6" s="0" t="str">
-        <v>C-C</v>
+        <v>A-C</v>
       </c>
       <c r="C6" s="0" t="str">
-        <v/>
+        <v>---</v>
       </c>
       <c r="D6" s="0" t="str">
-        <v/>
+        <v>-BC</v>
       </c>
       <c r="E6" s="0" t="str">
-        <v/>
+        <v>---</v>
       </c>
       <c r="F6" s="0" t="str">
-        <v/>
+        <v>--C</v>
+      </c>
+      <c r="G6" s="0" t="str">
+        <v>--C</v>
+      </c>
+      <c r="H6" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="I6" s="0" t="str">
+        <v>-B-</v>
+      </c>
+      <c r="J6" s="0" t="str">
+        <v>--C</v>
+      </c>
+      <c r="K6" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="L6" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="M6" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="N6" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="O6" s="0" t="str">
+        <v>-B-</v>
+      </c>
+      <c r="P6" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="Q6" s="0" t="str">
+        <v>-B-</v>
+      </c>
+      <c r="R6" s="0" t="str">
+        <v>--C</v>
+      </c>
+      <c r="S6" s="0" t="str">
+        <v>A--</v>
+      </c>
+      <c r="T6" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="U6" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="V6" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="W6" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="X6" s="0" t="str">
+        <v>--C</v>
+      </c>
+      <c r="Y6" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="Z6" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AA6" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AB6" s="0" t="str">
+        <v>-BC</v>
+      </c>
+      <c r="AC6" s="0" t="str">
+        <v>-B-</v>
+      </c>
+      <c r="AD6" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="AE6" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AF6" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AG6" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AH6" s="0" t="str">
+        <v>--C</v>
+      </c>
+      <c r="AI6" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AJ6" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AK6" s="0" t="str">
+        <v>-B-</v>
+      </c>
+      <c r="AL6" s="0" t="str">
+        <v>--C</v>
+      </c>
+      <c r="AM6" s="0" t="str">
+        <v>-BC</v>
+      </c>
+      <c r="AN6" s="0" t="str">
+        <v>---</v>
       </c>
     </row>
-    <row r="7" spans="2:6" customFormat="false">
+    <row r="7" spans="2:40" customFormat="false">
       <c r="B7" s="0" t="str">
-        <v>CC-</v>
+        <v>AB-</v>
       </c>
       <c r="C7" s="0" t="str">
-        <v/>
+        <v>ABC</v>
       </c>
       <c r="D7" s="0" t="str">
-        <v/>
+        <v>ABC</v>
       </c>
       <c r="E7" s="0" t="str">
-        <v/>
+        <v>---</v>
       </c>
       <c r="F7" s="0" t="str">
-        <v/>
+        <v>A-C</v>
+      </c>
+      <c r="G7" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="H7" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="I7" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="J7" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="K7" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="L7" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="M7" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="N7" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="O7" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="P7" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="Q7" s="0" t="str">
+        <v>--C</v>
+      </c>
+      <c r="R7" s="0" t="str">
+        <v>--C</v>
+      </c>
+      <c r="S7" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="T7" s="0" t="str">
+        <v>-BC</v>
+      </c>
+      <c r="U7" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="V7" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="W7" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="X7" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="Y7" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="Z7" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AA7" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AB7" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AC7" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AD7" s="0" t="str">
+        <v>-BC</v>
+      </c>
+      <c r="AE7" s="0" t="str">
+        <v>-B-</v>
+      </c>
+      <c r="AF7" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AG7" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AH7" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AI7" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AJ7" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AK7" s="0" t="str">
+        <v>A--</v>
+      </c>
+      <c r="AL7" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AM7" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="AN7" s="0" t="str">
+        <v>AB-</v>
       </c>
     </row>
-    <row r="8" spans="2:6" customFormat="false">
+    <row r="8" spans="2:40" customFormat="false">
       <c r="B8" s="0" t="str">
-        <v>C--</v>
+        <v>A--</v>
       </c>
       <c r="C8" s="0" t="str">
-        <v/>
+        <v>ABC</v>
       </c>
       <c r="D8" s="0" t="str">
-        <v/>
+        <v>AB-</v>
       </c>
       <c r="E8" s="0" t="str">
-        <v/>
+        <v>---</v>
       </c>
       <c r="F8" s="0" t="str">
-        <v/>
+        <v>--C</v>
+      </c>
+      <c r="G8" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="H8" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="I8" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="J8" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="K8" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="L8" s="0" t="str">
+        <v>-BC</v>
+      </c>
+      <c r="M8" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="N8" s="0" t="str">
+        <v>A--</v>
+      </c>
+      <c r="O8" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="P8" s="0" t="str">
+        <v>A--</v>
+      </c>
+      <c r="Q8" s="0" t="str">
+        <v>A--</v>
+      </c>
+      <c r="R8" s="0" t="str">
+        <v>-B-</v>
+      </c>
+      <c r="S8" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="T8" s="0" t="str">
+        <v>-B-</v>
+      </c>
+      <c r="U8" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="V8" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="W8" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="X8" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="Y8" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="Z8" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AA8" s="0" t="str">
+        <v>--C</v>
+      </c>
+      <c r="AB8" s="0" t="str">
+        <v>-BC</v>
+      </c>
+      <c r="AC8" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AD8" s="0" t="str">
+        <v>-B-</v>
+      </c>
+      <c r="AE8" s="0" t="str">
+        <v>A--</v>
+      </c>
+      <c r="AF8" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AG8" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AH8" s="0" t="str">
+        <v>A--</v>
+      </c>
+      <c r="AI8" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AJ8" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AK8" s="0" t="str">
+        <v>A--</v>
+      </c>
+      <c r="AL8" s="0" t="str">
+        <v>A--</v>
+      </c>
+      <c r="AM8" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="AN8" s="0" t="str">
+        <v>---</v>
       </c>
     </row>
-    <row r="9" spans="2:6" customFormat="false">
+    <row r="9" spans="2:40" customFormat="false">
       <c r="B9" s="0" t="str">
-        <v>CC</v>
+        <v>AB</v>
       </c>
       <c r="C9" s="0" t="str">
-        <v/>
+        <v>--</v>
       </c>
       <c r="D9" s="0" t="str">
-        <v/>
+        <v>AB</v>
       </c>
       <c r="E9" s="0" t="str">
-        <v/>
+        <v>AB</v>
       </c>
       <c r="F9" s="0" t="str">
-        <v/>
+        <v>A-</v>
+      </c>
+      <c r="G9" s="0" t="str">
+        <v>A-</v>
+      </c>
+      <c r="H9" s="0" t="str">
+        <v>A-</v>
+      </c>
+      <c r="I9" s="0" t="str">
+        <v>AB</v>
+      </c>
+      <c r="J9" s="0" t="str">
+        <v>AB</v>
+      </c>
+      <c r="K9" s="0" t="str">
+        <v>AB</v>
+      </c>
+      <c r="L9" s="0" t="str">
+        <v>-B</v>
+      </c>
+      <c r="M9" s="0" t="str">
+        <v>A-</v>
+      </c>
+      <c r="N9" s="0" t="str">
+        <v>AB</v>
+      </c>
+      <c r="O9" s="0" t="str">
+        <v>A-</v>
+      </c>
+      <c r="P9" s="0" t="str">
+        <v>--</v>
+      </c>
+      <c r="Q9" s="0" t="str">
+        <v>-B</v>
+      </c>
+      <c r="R9" s="0" t="str">
+        <v>--</v>
+      </c>
+      <c r="S9" s="0" t="str">
+        <v>AB</v>
+      </c>
+      <c r="T9" s="0" t="str">
+        <v>A-</v>
+      </c>
+      <c r="U9" s="0" t="str">
+        <v>--</v>
+      </c>
+      <c r="V9" s="0" t="str">
+        <v>--</v>
+      </c>
+      <c r="W9" s="0" t="str">
+        <v>-B</v>
+      </c>
+      <c r="X9" s="0" t="str">
+        <v>AB</v>
+      </c>
+      <c r="Y9" s="0" t="str">
+        <v>AB</v>
+      </c>
+      <c r="Z9" s="0" t="str">
+        <v>A-</v>
+      </c>
+      <c r="AA9" s="0" t="str">
+        <v>AB</v>
+      </c>
+      <c r="AB9" s="0" t="str">
+        <v>AB</v>
+      </c>
+      <c r="AC9" s="0" t="str">
+        <v>AB</v>
+      </c>
+      <c r="AD9" s="0" t="str">
+        <v>AB</v>
+      </c>
+      <c r="AE9" s="0" t="str">
+        <v>AB</v>
+      </c>
+      <c r="AF9" s="0" t="str">
+        <v>A-</v>
+      </c>
+      <c r="AG9" s="0" t="str">
+        <v>AB</v>
+      </c>
+      <c r="AH9" s="0" t="str">
+        <v>AB</v>
+      </c>
+      <c r="AI9" s="0" t="str">
+        <v>AB</v>
+      </c>
+      <c r="AJ9" s="0" t="str">
+        <v>--</v>
+      </c>
+      <c r="AK9" s="0" t="str">
+        <v>AB</v>
+      </c>
+      <c r="AL9" s="0" t="str">
+        <v>--</v>
+      </c>
+      <c r="AM9" s="0" t="str">
+        <v>AB</v>
+      </c>
+      <c r="AN9" s="0" t="str">
+        <v>-B</v>
       </c>
     </row>
-    <row r="10" spans="2:6" customFormat="false">
+    <row r="10" spans="2:40" customFormat="false">
       <c r="B10" s="0" t="str">
-        <v>C--</v>
+        <v>A--</v>
       </c>
       <c r="C10" s="0" t="str">
-        <v/>
+        <v>--C</v>
       </c>
       <c r="D10" s="0" t="str">
-        <v/>
+        <v>ABC</v>
       </c>
       <c r="E10" s="0" t="str">
-        <v/>
+        <v>AB-</v>
       </c>
       <c r="F10" s="0" t="str">
-        <v/>
+        <v>A-C</v>
+      </c>
+      <c r="G10" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="H10" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="I10" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="J10" s="0" t="str">
+        <v>-BC</v>
+      </c>
+      <c r="K10" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="L10" s="0" t="str">
+        <v>A--</v>
+      </c>
+      <c r="M10" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="N10" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="O10" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="P10" s="0" t="str">
+        <v>-BC</v>
+      </c>
+      <c r="Q10" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="R10" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="S10" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="T10" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="U10" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="V10" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="W10" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="X10" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="Y10" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="Z10" s="0" t="str">
+        <v>--C</v>
+      </c>
+      <c r="AA10" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AB10" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AC10" s="0" t="str">
+        <v>-BC</v>
+      </c>
+      <c r="AD10" s="0" t="str">
+        <v>-B-</v>
+      </c>
+      <c r="AE10" s="0" t="str">
+        <v>-B-</v>
+      </c>
+      <c r="AF10" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AG10" s="0" t="str">
+        <v>A--</v>
+      </c>
+      <c r="AH10" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AI10" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AJ10" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AK10" s="0" t="str">
+        <v>--C</v>
+      </c>
+      <c r="AL10" s="0" t="str">
+        <v>-BC</v>
+      </c>
+      <c r="AM10" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AN10" s="0" t="str">
+        <v>-B-</v>
       </c>
     </row>
-    <row r="11" spans="2:6" customFormat="false">
+    <row r="11" spans="2:40" customFormat="false">
       <c r="B11" s="0" t="str">
-        <v>CCC</v>
+        <v>ABC</v>
       </c>
       <c r="C11" s="0" t="str">
-        <v/>
+        <v>A-C</v>
       </c>
       <c r="D11" s="0" t="str">
-        <v/>
+        <v>AB-</v>
       </c>
       <c r="E11" s="0" t="str">
-        <v/>
+        <v>--C</v>
       </c>
       <c r="F11" s="0" t="str">
-        <v/>
+        <v>A-C</v>
+      </c>
+      <c r="G11" s="0" t="str">
+        <v>-BC</v>
+      </c>
+      <c r="H11" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="I11" s="0" t="str">
+        <v>-B-</v>
+      </c>
+      <c r="J11" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="K11" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="L11" s="0" t="str">
+        <v>-BC</v>
+      </c>
+      <c r="M11" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="N11" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="O11" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="P11" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="Q11" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="R11" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="S11" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="T11" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="U11" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="V11" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="W11" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="X11" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="Y11" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="Z11" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="AA11" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AB11" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AC11" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AD11" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AE11" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="AF11" s="0" t="str">
+        <v>-BC</v>
+      </c>
+      <c r="AG11" s="0" t="str">
+        <v>A--</v>
+      </c>
+      <c r="AH11" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AI11" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AJ11" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AK11" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AL11" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AM11" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="AN11" s="0" t="str">
+        <v>A--</v>
       </c>
     </row>
-    <row r="12" spans="2:6" customFormat="false">
+    <row r="12" spans="2:40" customFormat="false">
       <c r="B12" s="0" t="str">
         <v>--</v>
       </c>
       <c r="C12" s="0" t="str">
-        <v/>
+        <v>A-</v>
       </c>
       <c r="D12" s="0" t="str">
-        <v/>
+        <v>A-</v>
       </c>
       <c r="E12" s="0" t="str">
-        <v/>
+        <v>--</v>
       </c>
       <c r="F12" s="0" t="str">
-        <v/>
+        <v>--</v>
+      </c>
+      <c r="G12" s="0" t="str">
+        <v>--</v>
+      </c>
+      <c r="H12" s="0" t="str">
+        <v>--</v>
+      </c>
+      <c r="I12" s="0" t="str">
+        <v>-B</v>
+      </c>
+      <c r="J12" s="0" t="str">
+        <v>AB</v>
+      </c>
+      <c r="K12" s="0" t="str">
+        <v>--</v>
+      </c>
+      <c r="L12" s="0" t="str">
+        <v>--</v>
+      </c>
+      <c r="M12" s="0" t="str">
+        <v>--</v>
+      </c>
+      <c r="N12" s="0" t="str">
+        <v>--</v>
+      </c>
+      <c r="O12" s="0" t="str">
+        <v>--</v>
+      </c>
+      <c r="P12" s="0" t="str">
+        <v>--</v>
+      </c>
+      <c r="Q12" s="0" t="str">
+        <v>--</v>
+      </c>
+      <c r="R12" s="0" t="str">
+        <v>A-</v>
+      </c>
+      <c r="S12" s="0" t="str">
+        <v>A-</v>
+      </c>
+      <c r="T12" s="0" t="str">
+        <v>A-</v>
+      </c>
+      <c r="U12" s="0" t="str">
+        <v>AB</v>
+      </c>
+      <c r="V12" s="0" t="str">
+        <v>AB</v>
+      </c>
+      <c r="W12" s="0" t="str">
+        <v>--</v>
+      </c>
+      <c r="X12" s="0" t="str">
+        <v>--</v>
+      </c>
+      <c r="Y12" s="0" t="str">
+        <v>--</v>
+      </c>
+      <c r="Z12" s="0" t="str">
+        <v>--</v>
+      </c>
+      <c r="AA12" s="0" t="str">
+        <v>--</v>
+      </c>
+      <c r="AB12" s="0" t="str">
+        <v>A-</v>
+      </c>
+      <c r="AC12" s="0" t="str">
+        <v>--</v>
+      </c>
+      <c r="AD12" s="0" t="str">
+        <v>--</v>
+      </c>
+      <c r="AE12" s="0" t="str">
+        <v>--</v>
+      </c>
+      <c r="AF12" s="0" t="str">
+        <v>--</v>
+      </c>
+      <c r="AG12" s="0" t="str">
+        <v>AB</v>
+      </c>
+      <c r="AH12" s="0" t="str">
+        <v>--</v>
+      </c>
+      <c r="AI12" s="0" t="str">
+        <v>--</v>
+      </c>
+      <c r="AJ12" s="0" t="str">
+        <v>A-</v>
+      </c>
+      <c r="AK12" s="0" t="str">
+        <v>--</v>
+      </c>
+      <c r="AL12" s="0" t="str">
+        <v>--</v>
+      </c>
+      <c r="AM12" s="0" t="str">
+        <v>AB</v>
+      </c>
+      <c r="AN12" s="0" t="str">
+        <v>--</v>
       </c>
     </row>
-    <row r="13" spans="2:6" customFormat="false">
+    <row r="13" spans="2:40" customFormat="false">
       <c r="B13" s="0" t="str">
-        <v>C---</v>
+        <v>A---</v>
       </c>
       <c r="C13" s="0" t="str">
-        <v/>
+        <v>ABCC</v>
       </c>
       <c r="D13" s="0" t="str">
-        <v/>
+        <v>ABCC</v>
       </c>
       <c r="E13" s="0" t="str">
-        <v/>
+        <v>----</v>
       </c>
       <c r="F13" s="0" t="str">
-        <v/>
+        <v>A-CC</v>
+      </c>
+      <c r="G13" s="0" t="str">
+        <v>AB-C</v>
+      </c>
+      <c r="H13" s="0" t="str">
+        <v>-B-C</v>
+      </c>
+      <c r="I13" s="0" t="str">
+        <v>AB-C</v>
+      </c>
+      <c r="J13" s="0" t="str">
+        <v>ABCC</v>
+      </c>
+      <c r="K13" s="0" t="str">
+        <v>A--C</v>
+      </c>
+      <c r="L13" s="0" t="str">
+        <v>AB-C</v>
+      </c>
+      <c r="M13" s="0" t="str">
+        <v>A-CC</v>
+      </c>
+      <c r="N13" s="0" t="str">
+        <v>-B--</v>
+      </c>
+      <c r="O13" s="0" t="str">
+        <v>----</v>
+      </c>
+      <c r="P13" s="0" t="str">
+        <v>----</v>
+      </c>
+      <c r="Q13" s="0" t="str">
+        <v>A--C</v>
+      </c>
+      <c r="R13" s="0" t="str">
+        <v>-B--</v>
+      </c>
+      <c r="S13" s="0" t="str">
+        <v>AB-C</v>
+      </c>
+      <c r="T13" s="0" t="str">
+        <v>-B--</v>
+      </c>
+      <c r="U13" s="0" t="str">
+        <v>ABC-</v>
+      </c>
+      <c r="V13" s="0" t="str">
+        <v>ABCC</v>
+      </c>
+      <c r="W13" s="0" t="str">
+        <v>ABC-</v>
+      </c>
+      <c r="X13" s="0" t="str">
+        <v>----</v>
+      </c>
+      <c r="Y13" s="0" t="str">
+        <v>AB-C</v>
+      </c>
+      <c r="Z13" s="0" t="str">
+        <v>---C</v>
+      </c>
+      <c r="AA13" s="0" t="str">
+        <v>----</v>
+      </c>
+      <c r="AB13" s="0" t="str">
+        <v>-B--</v>
+      </c>
+      <c r="AC13" s="0" t="str">
+        <v>----</v>
+      </c>
+      <c r="AD13" s="0" t="str">
+        <v>----</v>
+      </c>
+      <c r="AE13" s="0" t="str">
+        <v>-B-C</v>
+      </c>
+      <c r="AF13" s="0" t="str">
+        <v>AB-C</v>
+      </c>
+      <c r="AG13" s="0" t="str">
+        <v>--C-</v>
+      </c>
+      <c r="AH13" s="0" t="str">
+        <v>A---</v>
+      </c>
+      <c r="AI13" s="0" t="str">
+        <v>A---</v>
+      </c>
+      <c r="AJ13" s="0" t="str">
+        <v>----</v>
+      </c>
+      <c r="AK13" s="0" t="str">
+        <v>----</v>
+      </c>
+      <c r="AL13" s="0" t="str">
+        <v>-BCC</v>
+      </c>
+      <c r="AM13" s="0" t="str">
+        <v>AB-C</v>
+      </c>
+      <c r="AN13" s="0" t="str">
+        <v>----</v>
       </c>
     </row>
-    <row r="14" spans="2:6" customFormat="false">
+    <row r="14" spans="2:40" customFormat="false">
       <c r="B14" s="0" t="str">
-        <v>CCC</v>
+        <v>ABC</v>
       </c>
       <c r="C14" s="0" t="str">
-        <v/>
+        <v>A-C</v>
       </c>
       <c r="D14" s="0" t="str">
-        <v/>
+        <v>A-C</v>
       </c>
       <c r="E14" s="0" t="str">
-        <v/>
+        <v>--C</v>
       </c>
       <c r="F14" s="0" t="str">
-        <v/>
+        <v>A-C</v>
+      </c>
+      <c r="G14" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="H14" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="I14" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="J14" s="0" t="str">
+        <v>--C</v>
+      </c>
+      <c r="K14" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="L14" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="M14" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="N14" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="O14" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="P14" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="Q14" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="R14" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="S14" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="T14" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="U14" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="V14" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="W14" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="X14" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="Y14" s="0" t="str">
+        <v>A--</v>
+      </c>
+      <c r="Z14" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AA14" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AB14" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AC14" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AD14" s="0" t="str">
+        <v>-BC</v>
+      </c>
+      <c r="AE14" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AF14" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AG14" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AH14" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AI14" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="AJ14" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AK14" s="0" t="str">
+        <v>A--</v>
+      </c>
+      <c r="AL14" s="0" t="str">
+        <v>-BC</v>
+      </c>
+      <c r="AM14" s="0" t="str">
+        <v>A--</v>
+      </c>
+      <c r="AN14" s="0" t="str">
+        <v>AB-</v>
       </c>
     </row>
-    <row r="15" spans="2:6" customFormat="false">
+    <row r="15" spans="2:40" customFormat="false">
       <c r="B15" s="0" t="str">
-        <v>CCC</v>
+        <v>ABC</v>
       </c>
       <c r="C15" s="0" t="str">
-        <v/>
+        <v>ABC</v>
       </c>
       <c r="D15" s="0" t="str">
-        <v/>
+        <v>ABC</v>
       </c>
       <c r="E15" s="0" t="str">
-        <v/>
+        <v>ABC</v>
       </c>
       <c r="F15" s="0" t="str">
-        <v/>
+        <v>A-C</v>
+      </c>
+      <c r="G15" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="H15" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="I15" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="J15" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="K15" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="L15" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="M15" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="N15" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="O15" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="P15" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="Q15" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="R15" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="S15" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="T15" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="U15" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="V15" s="0" t="str">
+        <v>-BC</v>
+      </c>
+      <c r="W15" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="X15" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="Y15" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="Z15" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AA15" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AB15" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AC15" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AD15" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="AE15" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AF15" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AG15" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AH15" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AI15" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AJ15" s="0" t="str">
+        <v>-BC</v>
+      </c>
+      <c r="AK15" s="0" t="str">
+        <v>-BC</v>
+      </c>
+      <c r="AL15" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="AM15" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AN15" s="0" t="str">
+        <v>AB-</v>
       </c>
     </row>
-    <row r="16" spans="2:6" customFormat="false">
+    <row r="16" spans="2:40" customFormat="false">
       <c r="B16" s="0" t="str">
-        <v>CCC</v>
+        <v>ABC</v>
       </c>
       <c r="C16" s="0" t="str">
-        <v/>
+        <v>A--</v>
       </c>
       <c r="D16" s="0" t="str">
-        <v/>
+        <v>ABC</v>
       </c>
       <c r="E16" s="0" t="str">
-        <v/>
+        <v>-B-</v>
       </c>
       <c r="F16" s="0" t="str">
-        <v/>
+        <v>A-C</v>
+      </c>
+      <c r="G16" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="H16" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="I16" s="0" t="str">
+        <v>-BC</v>
+      </c>
+      <c r="J16" s="0" t="str">
+        <v>--C</v>
+      </c>
+      <c r="K16" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="L16" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="M16" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="N16" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="O16" s="0" t="str">
+        <v>--C</v>
+      </c>
+      <c r="P16" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="Q16" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="R16" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="S16" s="0" t="str">
+        <v>-BC</v>
+      </c>
+      <c r="T16" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="U16" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="V16" s="0" t="str">
+        <v>--C</v>
+      </c>
+      <c r="W16" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="X16" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="Y16" s="0" t="str">
+        <v>-BC</v>
+      </c>
+      <c r="Z16" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="AA16" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AB16" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AC16" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AD16" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AE16" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AF16" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AG16" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="AH16" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AI16" s="0" t="str">
+        <v>A--</v>
+      </c>
+      <c r="AJ16" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AK16" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AL16" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AM16" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AN16" s="0" t="str">
+        <v>---</v>
       </c>
     </row>
-    <row r="17" spans="2:6" customFormat="false">
+    <row r="17" spans="2:40" customFormat="false">
       <c r="B17" s="0" t="str">
-        <v>CCC</v>
+        <v>ABC</v>
       </c>
       <c r="C17" s="0" t="str">
-        <v/>
+        <v>A--</v>
       </c>
       <c r="D17" s="0" t="str">
-        <v/>
+        <v>AB-</v>
       </c>
       <c r="E17" s="0" t="str">
-        <v/>
+        <v>---</v>
       </c>
       <c r="F17" s="0" t="str">
-        <v/>
+        <v>--C</v>
+      </c>
+      <c r="G17" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="H17" s="0" t="str">
+        <v>-BC</v>
+      </c>
+      <c r="I17" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="J17" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="K17" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="L17" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="M17" s="0" t="str">
+        <v>--C</v>
+      </c>
+      <c r="N17" s="0" t="str">
+        <v>A--</v>
+      </c>
+      <c r="O17" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="P17" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="Q17" s="0" t="str">
+        <v>A--</v>
+      </c>
+      <c r="R17" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="S17" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="T17" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="U17" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="V17" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="W17" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="X17" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="Y17" s="0" t="str">
+        <v>-B-</v>
+      </c>
+      <c r="Z17" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AA17" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="AB17" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AC17" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AD17" s="0" t="str">
+        <v>--C</v>
+      </c>
+      <c r="AE17" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AF17" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AG17" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AH17" s="0" t="str">
+        <v>-B-</v>
+      </c>
+      <c r="AI17" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="AJ17" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AK17" s="0" t="str">
+        <v>A--</v>
+      </c>
+      <c r="AL17" s="0" t="str">
+        <v>-BC</v>
+      </c>
+      <c r="AM17" s="0" t="str">
+        <v>A--</v>
+      </c>
+      <c r="AN17" s="0" t="str">
+        <v>-B-</v>
       </c>
     </row>
-    <row r="18" spans="2:6" customFormat="false">
+    <row r="18" spans="2:40" customFormat="false">
       <c r="B18" s="0" t="str">
         <v>---</v>
       </c>
       <c r="C18" s="0" t="str">
-        <v/>
+        <v>-B-</v>
       </c>
       <c r="D18" s="0" t="str">
-        <v/>
+        <v>--C</v>
       </c>
       <c r="E18" s="0" t="str">
-        <v/>
+        <v>---</v>
       </c>
       <c r="F18" s="0" t="str">
-        <v/>
+        <v>--C</v>
+      </c>
+      <c r="G18" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="H18" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="I18" s="0" t="str">
+        <v>-B-</v>
+      </c>
+      <c r="J18" s="0" t="str">
+        <v>-B-</v>
+      </c>
+      <c r="K18" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="L18" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="M18" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="N18" s="0" t="str">
+        <v>-B-</v>
+      </c>
+      <c r="O18" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="P18" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="Q18" s="0" t="str">
+        <v>-B-</v>
+      </c>
+      <c r="R18" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="S18" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="T18" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="U18" s="0" t="str">
+        <v>--C</v>
+      </c>
+      <c r="V18" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="W18" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="X18" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="Y18" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="Z18" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AA18" s="0" t="str">
+        <v>--C</v>
+      </c>
+      <c r="AB18" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AC18" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AD18" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AE18" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="AF18" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="AG18" s="0" t="str">
+        <v>-B-</v>
+      </c>
+      <c r="AH18" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="AI18" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AJ18" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="AK18" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AL18" s="0" t="str">
+        <v>-BC</v>
+      </c>
+      <c r="AM18" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AN18" s="0" t="str">
+        <v>---</v>
       </c>
     </row>
-    <row r="19" spans="2:6" customFormat="false">
+    <row r="19" spans="2:40" customFormat="false">
       <c r="B19" s="0" t="str">
         <v>---</v>
       </c>
       <c r="C19" s="0" t="str">
-        <v/>
+        <v>-B-</v>
       </c>
       <c r="D19" s="0" t="str">
-        <v/>
+        <v>A--</v>
       </c>
       <c r="E19" s="0" t="str">
-        <v/>
+        <v>---</v>
       </c>
       <c r="F19" s="0" t="str">
-        <v/>
+        <v>--C</v>
+      </c>
+      <c r="G19" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="H19" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="I19" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="J19" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="K19" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="L19" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="M19" s="0" t="str">
+        <v>-B-</v>
+      </c>
+      <c r="N19" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="O19" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="P19" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="Q19" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="R19" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="S19" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="T19" s="0" t="str">
+        <v>-B-</v>
+      </c>
+      <c r="U19" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="V19" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="W19" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="X19" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="Y19" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="Z19" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AA19" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AB19" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AC19" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AD19" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AE19" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AF19" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AG19" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AH19" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AI19" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AJ19" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AK19" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AL19" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AM19" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AN19" s="0" t="str">
+        <v>AB-</v>
       </c>
     </row>
-    <row r="20" spans="2:6" customFormat="false">
+    <row r="20" spans="2:40" customFormat="false">
       <c r="B20" s="0" t="str">
         <v>---</v>
       </c>
       <c r="C20" s="0" t="str">
-        <v/>
+        <v>-B-</v>
       </c>
       <c r="D20" s="0" t="str">
-        <v/>
+        <v>A--</v>
       </c>
       <c r="E20" s="0" t="str">
-        <v/>
+        <v>---</v>
       </c>
       <c r="F20" s="0" t="str">
-        <v/>
+        <v>--C</v>
+      </c>
+      <c r="G20" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="H20" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="I20" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="J20" s="0" t="str">
+        <v>--C</v>
+      </c>
+      <c r="K20" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="L20" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="M20" s="0" t="str">
+        <v>-B-</v>
+      </c>
+      <c r="N20" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="O20" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="P20" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="Q20" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="R20" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="S20" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="T20" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="U20" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="V20" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="W20" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="X20" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="Y20" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="Z20" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AA20" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AB20" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AC20" s="0" t="str">
+        <v>A--</v>
+      </c>
+      <c r="AD20" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AE20" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AF20" s="0" t="str">
+        <v>--C</v>
+      </c>
+      <c r="AG20" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AH20" s="0" t="str">
+        <v>-B-</v>
+      </c>
+      <c r="AI20" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AJ20" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AK20" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AL20" s="0" t="str">
+        <v>--C</v>
+      </c>
+      <c r="AM20" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AN20" s="0" t="str">
+        <v>-B-</v>
       </c>
     </row>
-    <row r="21" spans="2:6" customFormat="false">
+    <row r="21" spans="2:40" customFormat="false">
       <c r="B21" s="0" t="str">
         <v>---</v>
       </c>
       <c r="C21" s="0" t="str">
-        <v/>
+        <v>-B-</v>
       </c>
       <c r="D21" s="0" t="str">
-        <v/>
+        <v>A--</v>
       </c>
       <c r="E21" s="0" t="str">
-        <v/>
+        <v>---</v>
       </c>
       <c r="F21" s="0" t="str">
-        <v/>
+        <v>--C</v>
+      </c>
+      <c r="G21" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="H21" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="I21" s="0" t="str">
+        <v>A--</v>
+      </c>
+      <c r="J21" s="0" t="str">
+        <v>A--</v>
+      </c>
+      <c r="K21" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="L21" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="M21" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="N21" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="O21" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="P21" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="Q21" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="R21" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="S21" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="T21" s="0" t="str">
+        <v>-BC</v>
+      </c>
+      <c r="U21" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="V21" s="0" t="str">
+        <v>A--</v>
+      </c>
+      <c r="W21" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="X21" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="Y21" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="Z21" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AA21" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AB21" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AC21" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AD21" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AE21" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AF21" s="0" t="str">
+        <v>A--</v>
+      </c>
+      <c r="AG21" s="0" t="str">
+        <v>-B-</v>
+      </c>
+      <c r="AH21" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AI21" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AJ21" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AK21" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AL21" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AM21" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AN21" s="0" t="str">
+        <v>---</v>
       </c>
     </row>
-    <row r="22" spans="2:6" customFormat="false">
+    <row r="22" spans="2:40" customFormat="false">
       <c r="B22" s="0" t="str">
-        <v>CC-</v>
+        <v>AB-</v>
       </c>
       <c r="C22" s="0" t="str">
-        <v/>
+        <v>-B-</v>
       </c>
       <c r="D22" s="0" t="str">
-        <v/>
+        <v>A--</v>
       </c>
       <c r="E22" s="0" t="str">
-        <v/>
+        <v>A--</v>
       </c>
       <c r="F22" s="0" t="str">
-        <v/>
+        <v>--C</v>
+      </c>
+      <c r="G22" s="0" t="str">
+        <v>-BC</v>
+      </c>
+      <c r="H22" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="I22" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="J22" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="K22" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="L22" s="0" t="str">
+        <v>-BC</v>
+      </c>
+      <c r="M22" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="N22" s="0" t="str">
+        <v>--C</v>
+      </c>
+      <c r="O22" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="P22" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="Q22" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="R22" s="0" t="str">
+        <v>-B-</v>
+      </c>
+      <c r="S22" s="0" t="str">
+        <v>-B-</v>
+      </c>
+      <c r="T22" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="U22" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="V22" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="W22" s="0" t="str">
+        <v>-BC</v>
+      </c>
+      <c r="X22" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="Y22" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="Z22" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="AA22" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AB22" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AC22" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AD22" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="AE22" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AF22" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AG22" s="0" t="str">
+        <v>A--</v>
+      </c>
+      <c r="AH22" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="AI22" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AJ22" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AK22" s="0" t="str">
+        <v>--C</v>
+      </c>
+      <c r="AL22" s="0" t="str">
+        <v>--C</v>
+      </c>
+      <c r="AM22" s="0" t="str">
+        <v>--C</v>
+      </c>
+      <c r="AN22" s="0" t="str">
+        <v>---</v>
       </c>
     </row>
-    <row r="23" spans="2:6" customFormat="false">
+    <row r="23" spans="2:40" customFormat="false">
       <c r="B23" s="0" t="str">
         <v>--C</v>
       </c>
       <c r="C23" s="0" t="str">
-        <v/>
+        <v>---</v>
       </c>
       <c r="D23" s="0" t="str">
-        <v/>
+        <v>A--</v>
       </c>
       <c r="E23" s="0" t="str">
-        <v/>
+        <v>---</v>
       </c>
       <c r="F23" s="0" t="str">
-        <v/>
+        <v>--C</v>
+      </c>
+      <c r="G23" s="0" t="str">
+        <v>--C</v>
+      </c>
+      <c r="H23" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="I23" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="J23" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="K23" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="L23" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="M23" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="N23" s="0" t="str">
+        <v>-BC</v>
+      </c>
+      <c r="O23" s="0" t="str">
+        <v>--C</v>
+      </c>
+      <c r="P23" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="Q23" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="R23" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="S23" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="T23" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="U23" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="V23" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="W23" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="X23" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="Y23" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="Z23" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AA23" s="0" t="str">
+        <v>--C</v>
+      </c>
+      <c r="AB23" s="0" t="str">
+        <v>-BC</v>
+      </c>
+      <c r="AC23" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="AD23" s="0" t="str">
+        <v>-BC</v>
+      </c>
+      <c r="AE23" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AF23" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AG23" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AH23" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AI23" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AJ23" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AK23" s="0" t="str">
+        <v>A--</v>
+      </c>
+      <c r="AL23" s="0" t="str">
+        <v>-BC</v>
+      </c>
+      <c r="AM23" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AN23" s="0" t="str">
+        <v>-B-</v>
       </c>
     </row>
-    <row r="24" spans="2:6" customFormat="false">
+    <row r="24" spans="2:40" customFormat="false">
       <c r="B24" s="0" t="str">
         <v>---</v>
       </c>
       <c r="C24" s="0" t="str">
-        <v/>
+        <v>---</v>
       </c>
       <c r="D24" s="0" t="str">
-        <v/>
+        <v>ABC</v>
       </c>
       <c r="E24" s="0" t="str">
-        <v/>
+        <v>ABC</v>
       </c>
       <c r="F24" s="0" t="str">
-        <v/>
+        <v>A-C</v>
+      </c>
+      <c r="G24" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="H24" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="I24" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="J24" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="K24" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="L24" s="0" t="str">
+        <v>-B-</v>
+      </c>
+      <c r="M24" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="N24" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="O24" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="P24" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="Q24" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="R24" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="S24" s="0" t="str">
+        <v>-BC</v>
+      </c>
+      <c r="T24" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="U24" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="V24" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="W24" s="0" t="str">
+        <v>--C</v>
+      </c>
+      <c r="X24" s="0" t="str">
+        <v>-B-</v>
+      </c>
+      <c r="Y24" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="Z24" s="0" t="str">
+        <v>--C</v>
+      </c>
+      <c r="AA24" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AB24" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AC24" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AD24" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AE24" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AF24" s="0" t="str">
+        <v>-BC</v>
+      </c>
+      <c r="AG24" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AH24" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AI24" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AJ24" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AK24" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AL24" s="0" t="str">
+        <v>-BC</v>
+      </c>
+      <c r="AM24" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="AN24" s="0" t="str">
+        <v>---</v>
       </c>
     </row>
-    <row r="25" spans="2:6" customFormat="false">
+    <row r="25" spans="2:40" customFormat="false">
       <c r="B25" s="0" t="str">
         <v/>
       </c>
@@ -12431,6 +14882,108 @@
         <v/>
       </c>
       <c r="F25" s="0" t="str">
+        <v/>
+      </c>
+      <c r="G25" s="0" t="str">
+        <v/>
+      </c>
+      <c r="H25" s="0" t="str">
+        <v/>
+      </c>
+      <c r="I25" s="0" t="str">
+        <v/>
+      </c>
+      <c r="J25" s="0" t="str">
+        <v/>
+      </c>
+      <c r="K25" s="0" t="str">
+        <v/>
+      </c>
+      <c r="L25" s="0" t="str">
+        <v/>
+      </c>
+      <c r="M25" s="0" t="str">
+        <v/>
+      </c>
+      <c r="N25" s="0" t="str">
+        <v/>
+      </c>
+      <c r="O25" s="0" t="str">
+        <v/>
+      </c>
+      <c r="P25" s="0" t="str">
+        <v/>
+      </c>
+      <c r="Q25" s="0" t="str">
+        <v/>
+      </c>
+      <c r="R25" s="0" t="str">
+        <v/>
+      </c>
+      <c r="S25" s="0" t="str">
+        <v/>
+      </c>
+      <c r="T25" s="0" t="str">
+        <v/>
+      </c>
+      <c r="U25" s="0" t="str">
+        <v/>
+      </c>
+      <c r="V25" s="0" t="str">
+        <v/>
+      </c>
+      <c r="W25" s="0" t="str">
+        <v/>
+      </c>
+      <c r="X25" s="0" t="str">
+        <v/>
+      </c>
+      <c r="Y25" s="0" t="str">
+        <v/>
+      </c>
+      <c r="Z25" s="0" t="str">
+        <v/>
+      </c>
+      <c r="AA25" s="0" t="str">
+        <v/>
+      </c>
+      <c r="AB25" s="0" t="str">
+        <v/>
+      </c>
+      <c r="AC25" s="0" t="str">
+        <v/>
+      </c>
+      <c r="AD25" s="0" t="str">
+        <v/>
+      </c>
+      <c r="AE25" s="0" t="str">
+        <v/>
+      </c>
+      <c r="AF25" s="0" t="str">
+        <v/>
+      </c>
+      <c r="AG25" s="0" t="str">
+        <v/>
+      </c>
+      <c r="AH25" s="0" t="str">
+        <v/>
+      </c>
+      <c r="AI25" s="0" t="str">
+        <v/>
+      </c>
+      <c r="AJ25" s="0" t="str">
+        <v/>
+      </c>
+      <c r="AK25" s="0" t="str">
+        <v/>
+      </c>
+      <c r="AL25" s="0" t="str">
+        <v/>
+      </c>
+      <c r="AM25" s="0" t="str">
+        <v/>
+      </c>
+      <c r="AN25" s="0" t="str">
         <v/>
       </c>
     </row>

--- a/speaking.xlsx
+++ b/speaking.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\csexton.HICKORYPD\Documents\GitHub\rubyspanishxlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\csexton.HICKORYPD\Documents\GitHub\rubytest\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -975,13 +975,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1299,22 +1297,16 @@
   <dimension ref="A1:CJ40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="CV15" sqref="CV15"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="8.85546875" customWidth="1"/>
-    <col min="2" max="28" width="21.5703125" customWidth="1"/>
-    <col min="29" max="30" width="21.5703125" style="4" customWidth="1"/>
-    <col min="31" max="55" width="21.5703125" customWidth="1"/>
-    <col min="56" max="57" width="21.5703125" style="4" customWidth="1"/>
-    <col min="58" max="82" width="21.5703125" customWidth="1"/>
-    <col min="83" max="84" width="21.5703125" style="4" customWidth="1"/>
-    <col min="85" max="88" width="21.5703125" customWidth="1"/>
+    <col min="2" max="88" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:88" customFormat="false" ht="15.75" customHeight="1">
@@ -1402,10 +1394,10 @@
       <c r="AB1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AC1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="4" t="s">
+      <c r="AD1" t="s">
         <v>29</v>
       </c>
       <c r="AE1" t="s">
@@ -1483,10 +1475,10 @@
       <c r="BC1" t="s">
         <v>27</v>
       </c>
-      <c r="BD1" s="4" t="s">
+      <c r="BD1" t="s">
         <v>32</v>
       </c>
-      <c r="BE1" s="4" t="s">
+      <c r="BE1" t="s">
         <v>33</v>
       </c>
       <c r="BF1" t="s">
@@ -1564,10 +1556,10 @@
       <c r="CD1" t="s">
         <v>27</v>
       </c>
-      <c r="CE1" s="4" t="s">
+      <c r="CE1" t="s">
         <v>36</v>
       </c>
-      <c r="CF1" s="4" t="s">
+      <c r="CF1" t="s">
         <v>37</v>
       </c>
       <c r="CG1" t="s">
@@ -1668,10 +1660,10 @@
       <c r="AB2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AC2" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD2" s="5" t="s">
+      <c r="AC2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD2" s="2" t="s">
         <v>48</v>
       </c>
       <c r="AE2" s="2" t="s">
@@ -1749,10 +1741,10 @@
       <c r="BC2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="BD2" s="5">
+      <c r="BD2" s="2">
         <v>4</v>
       </c>
-      <c r="BE2" s="5" t="s">
+      <c r="BE2" s="2" t="s">
         <v>48</v>
       </c>
       <c r="BF2" s="2" t="s">
@@ -1830,10 +1822,10 @@
       <c r="CD2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="CE2" s="5">
+      <c r="CE2" s="2">
         <v>3</v>
       </c>
-      <c r="CF2" s="5" t="s">
+      <c r="CF2" s="2" t="s">
         <v>48</v>
       </c>
       <c r="CG2" s="2" t="s">
@@ -1934,10 +1926,10 @@
       <c r="AB3" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AC3" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD3" s="5" t="s">
+      <c r="AC3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD3" s="2" t="s">
         <v>48</v>
       </c>
       <c r="AE3" s="2" t="s">
@@ -2015,10 +2007,10 @@
       <c r="BC3" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="BD3" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="BE3" s="5">
+      <c r="BD3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="BE3" s="2">
         <v>3</v>
       </c>
       <c r="BF3" s="2" t="s">
@@ -2096,10 +2088,10 @@
       <c r="CD3" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="CE3" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="CF3" s="5">
+      <c r="CE3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="CF3" s="2">
         <v>3</v>
       </c>
       <c r="CG3" s="2" t="s">
@@ -2200,10 +2192,10 @@
       <c r="AB4" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AC4" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD4" s="5" t="s">
+      <c r="AC4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD4" s="2" t="s">
         <v>48</v>
       </c>
       <c r="AE4" s="2" t="s">
@@ -2281,10 +2273,10 @@
       <c r="BC4" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="BD4" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="BE4" s="5" t="s">
+      <c r="BD4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="BE4" s="2" t="s">
         <v>48</v>
       </c>
       <c r="BF4" s="2" t="s">
@@ -2362,10 +2354,10 @@
       <c r="CD4" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="CE4" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="CF4" s="5" t="s">
+      <c r="CE4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="CF4" s="2" t="s">
         <v>48</v>
       </c>
       <c r="CG4" s="2" t="s">
@@ -2466,10 +2458,10 @@
       <c r="AB5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AC5" s="5">
+      <c r="AC5" s="2">
         <v>0</v>
       </c>
-      <c r="AD5" s="5" t="s">
+      <c r="AD5" s="2" t="s">
         <v>48</v>
       </c>
       <c r="AE5" s="2" t="s">
@@ -2547,10 +2539,10 @@
       <c r="BC5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="BD5" s="5">
+      <c r="BD5" s="2">
         <v>0</v>
       </c>
-      <c r="BE5" s="5" t="s">
+      <c r="BE5" s="2" t="s">
         <v>48</v>
       </c>
       <c r="BF5" s="2" t="s">
@@ -2628,10 +2620,10 @@
       <c r="CD5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="CE5" s="5">
+      <c r="CE5" s="2">
         <v>1</v>
       </c>
-      <c r="CF5" s="5" t="s">
+      <c r="CF5" s="2" t="s">
         <v>48</v>
       </c>
       <c r="CG5" s="2" t="s">
@@ -2732,10 +2724,10 @@
       <c r="AB6" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AC6" s="5">
+      <c r="AC6" s="2">
         <v>4</v>
       </c>
-      <c r="AD6" s="5" t="s">
+      <c r="AD6" s="2" t="s">
         <v>48</v>
       </c>
       <c r="AE6" s="2" t="s">
@@ -2813,10 +2805,10 @@
       <c r="BC6" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="BD6" s="5">
+      <c r="BD6" s="2">
         <v>0</v>
       </c>
-      <c r="BE6" s="5">
+      <c r="BE6" s="2">
         <v>0</v>
       </c>
       <c r="BF6" s="2" t="s">
@@ -2894,10 +2886,10 @@
       <c r="CD6" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="CE6" s="5">
+      <c r="CE6" s="2">
         <v>0</v>
       </c>
-      <c r="CF6" s="5">
+      <c r="CF6" s="2">
         <v>0</v>
       </c>
       <c r="CG6" s="2" t="s">
@@ -2998,10 +2990,10 @@
       <c r="AB7" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AC7" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD7" s="5" t="s">
+      <c r="AC7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD7" s="2" t="s">
         <v>48</v>
       </c>
       <c r="AE7" s="2" t="s">
@@ -3079,10 +3071,10 @@
       <c r="BC7" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="BD7" s="5">
+      <c r="BD7" s="2">
         <v>3</v>
       </c>
-      <c r="BE7" s="5">
+      <c r="BE7" s="2">
         <v>4</v>
       </c>
       <c r="BF7" s="2" t="s">
@@ -3160,10 +3152,10 @@
       <c r="CD7" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="CE7" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="CF7" s="5" t="s">
+      <c r="CE7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="CF7" s="2" t="s">
         <v>48</v>
       </c>
       <c r="CG7" s="2" t="s">
@@ -3264,10 +3256,10 @@
       <c r="AB8" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AC8" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD8" s="5" t="s">
+      <c r="AC8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD8" s="2" t="s">
         <v>48</v>
       </c>
       <c r="AE8" s="2" t="s">
@@ -3345,10 +3337,10 @@
       <c r="BC8" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="BD8" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="BE8" s="5" t="s">
+      <c r="BD8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="BE8" s="2" t="s">
         <v>48</v>
       </c>
       <c r="BF8" s="2" t="s">
@@ -3426,10 +3418,10 @@
       <c r="CD8" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="CE8" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="CF8" s="5" t="s">
+      <c r="CE8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="CF8" s="2" t="s">
         <v>48</v>
       </c>
       <c r="CG8" s="2" t="s">
@@ -3530,10 +3522,10 @@
       <c r="AB9" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AC9" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD9" s="5" t="s">
+      <c r="AC9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD9" s="2" t="s">
         <v>48</v>
       </c>
       <c r="AE9" s="2" t="s">
@@ -3611,10 +3603,10 @@
       <c r="BC9" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="BD9" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="BE9" s="5" t="s">
+      <c r="BD9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="BE9" s="2" t="s">
         <v>48</v>
       </c>
       <c r="BF9" s="2" t="s">
@@ -3692,10 +3684,10 @@
       <c r="CD9" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="CE9" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="CF9" s="5" t="s">
+      <c r="CE9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="CF9" s="2" t="s">
         <v>48</v>
       </c>
       <c r="CG9" s="2" t="s">
@@ -3796,10 +3788,10 @@
       <c r="AB10" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AC10" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD10" s="5" t="s">
+      <c r="AC10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD10" s="2" t="s">
         <v>48</v>
       </c>
       <c r="AE10" s="2" t="s">
@@ -3877,10 +3869,10 @@
       <c r="BC10" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="BD10" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="BE10" s="5" t="s">
+      <c r="BD10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="BE10" s="2" t="s">
         <v>48</v>
       </c>
       <c r="BF10" s="2" t="s">
@@ -3958,10 +3950,10 @@
       <c r="CD10" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="CE10" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="CF10" s="5" t="s">
+      <c r="CE10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="CF10" s="2" t="s">
         <v>48</v>
       </c>
       <c r="CG10" s="2" t="s">
@@ -4062,10 +4054,10 @@
       <c r="AB11" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AC11" s="5">
+      <c r="AC11" s="2">
         <v>2</v>
       </c>
-      <c r="AD11" s="5" t="s">
+      <c r="AD11" s="2" t="s">
         <v>48</v>
       </c>
       <c r="AE11" s="2" t="s">
@@ -4143,10 +4135,10 @@
       <c r="BC11" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="BD11" s="5">
+      <c r="BD11" s="2">
         <v>1</v>
       </c>
-      <c r="BE11" s="5" t="s">
+      <c r="BE11" s="2" t="s">
         <v>48</v>
       </c>
       <c r="BF11" s="2" t="s">
@@ -4224,10 +4216,10 @@
       <c r="CD11" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="CE11" s="5">
+      <c r="CE11" s="2">
         <v>1</v>
       </c>
-      <c r="CF11" s="5" t="s">
+      <c r="CF11" s="2" t="s">
         <v>48</v>
       </c>
       <c r="CG11" s="2" t="s">
@@ -4328,10 +4320,10 @@
       <c r="AB12" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AC12" s="5">
+      <c r="AC12" s="2">
         <v>3</v>
       </c>
-      <c r="AD12" s="5">
+      <c r="AD12" s="2">
         <v>3</v>
       </c>
       <c r="AE12" s="2" t="s">
@@ -4409,10 +4401,10 @@
       <c r="BC12" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="BD12" s="5">
+      <c r="BD12" s="2">
         <v>3</v>
       </c>
-      <c r="BE12" s="5">
+      <c r="BE12" s="2">
         <v>4</v>
       </c>
       <c r="BF12" s="2" t="s">
@@ -4490,10 +4482,10 @@
       <c r="CD12" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="CE12" s="5">
+      <c r="CE12" s="2">
         <v>4</v>
       </c>
-      <c r="CF12" s="5">
+      <c r="CF12" s="2">
         <v>4</v>
       </c>
       <c r="CG12" s="2" t="s">
@@ -4594,10 +4586,10 @@
       <c r="AB13" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AC13" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD13" s="5" t="s">
+      <c r="AC13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD13" s="2" t="s">
         <v>48</v>
       </c>
       <c r="AE13" s="2" t="s">
@@ -4675,10 +4667,10 @@
       <c r="BC13" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="BD13" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="BE13" s="5" t="s">
+      <c r="BD13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="BE13" s="2" t="s">
         <v>48</v>
       </c>
       <c r="BF13" s="2" t="s">
@@ -4756,10 +4748,10 @@
       <c r="CD13" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="CE13" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="CF13" s="5" t="s">
+      <c r="CE13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="CF13" s="2" t="s">
         <v>48</v>
       </c>
       <c r="CG13" s="2" t="s">
@@ -4860,10 +4852,10 @@
       <c r="AB14" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AC14" s="5">
+      <c r="AC14" s="2">
         <v>4</v>
       </c>
-      <c r="AD14" s="5" t="s">
+      <c r="AD14" s="2" t="s">
         <v>48</v>
       </c>
       <c r="AE14" s="2" t="s">
@@ -4941,10 +4933,10 @@
       <c r="BC14" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="BD14" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="BE14" s="5" t="s">
+      <c r="BD14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="BE14" s="2" t="s">
         <v>48</v>
       </c>
       <c r="BF14" s="2" t="s">
@@ -5022,10 +5014,10 @@
       <c r="CD14" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="CE14" s="5">
+      <c r="CE14" s="2">
         <v>1</v>
       </c>
-      <c r="CF14" s="5">
+      <c r="CF14" s="2">
         <v>4</v>
       </c>
       <c r="CG14" s="2" t="s">
@@ -5126,10 +5118,10 @@
       <c r="AB15" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AC15" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD15" s="5" t="s">
+      <c r="AC15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD15" s="2" t="s">
         <v>48</v>
       </c>
       <c r="AE15" s="2" t="s">
@@ -5207,10 +5199,10 @@
       <c r="BC15" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="BD15" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="BE15" s="5" t="s">
+      <c r="BD15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="BE15" s="2" t="s">
         <v>48</v>
       </c>
       <c r="BF15" s="2" t="s">
@@ -5288,10 +5280,10 @@
       <c r="CD15" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="CE15" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="CF15" s="5" t="s">
+      <c r="CE15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="CF15" s="2" t="s">
         <v>48</v>
       </c>
       <c r="CG15" s="2" t="s">
@@ -5392,10 +5384,10 @@
       <c r="AB16" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AC16" s="5">
+      <c r="AC16" s="2">
         <v>3</v>
       </c>
-      <c r="AD16" s="5">
+      <c r="AD16" s="2">
         <v>1</v>
       </c>
       <c r="AE16" s="2" t="s">
@@ -5473,10 +5465,10 @@
       <c r="BC16" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="BD16" s="5">
+      <c r="BD16" s="2">
         <v>2</v>
       </c>
-      <c r="BE16" s="5">
+      <c r="BE16" s="2">
         <v>2</v>
       </c>
       <c r="BF16" s="2" t="s">
@@ -5554,10 +5546,10 @@
       <c r="CD16" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="CE16" s="5">
+      <c r="CE16" s="2">
         <v>2</v>
       </c>
-      <c r="CF16" s="5">
+      <c r="CF16" s="2">
         <v>2</v>
       </c>
       <c r="CG16" s="2" t="s">
@@ -5658,10 +5650,10 @@
       <c r="AB17" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AC17" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD17" s="5" t="s">
+      <c r="AC17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD17" s="2" t="s">
         <v>48</v>
       </c>
       <c r="AE17" s="2" t="s">
@@ -5739,10 +5731,10 @@
       <c r="BC17" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="BD17" s="5">
+      <c r="BD17" s="2">
         <v>3</v>
       </c>
-      <c r="BE17" s="5" t="s">
+      <c r="BE17" s="2" t="s">
         <v>48</v>
       </c>
       <c r="BF17" s="2" t="s">
@@ -5820,10 +5812,10 @@
       <c r="CD17" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="CE17" s="5">
+      <c r="CE17" s="2">
         <v>3</v>
       </c>
-      <c r="CF17" s="5" t="s">
+      <c r="CF17" s="2" t="s">
         <v>48</v>
       </c>
       <c r="CG17" s="2" t="s">
@@ -5924,10 +5916,10 @@
       <c r="AB18" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AC18" s="5">
+      <c r="AC18" s="2">
         <v>4</v>
       </c>
-      <c r="AD18" s="5" t="s">
+      <c r="AD18" s="2" t="s">
         <v>48</v>
       </c>
       <c r="AE18" s="2" t="s">
@@ -6005,10 +5997,10 @@
       <c r="BC18" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="BD18" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="BE18" s="5" t="s">
+      <c r="BD18" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="BE18" s="2" t="s">
         <v>48</v>
       </c>
       <c r="BF18" s="2" t="s">
@@ -6086,10 +6078,10 @@
       <c r="CD18" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="CE18" s="5">
+      <c r="CE18" s="2">
         <v>4</v>
       </c>
-      <c r="CF18" s="5" t="s">
+      <c r="CF18" s="2" t="s">
         <v>48</v>
       </c>
       <c r="CG18" s="2" t="s">
@@ -6190,10 +6182,10 @@
       <c r="AB19" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AC19" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD19" s="5" t="s">
+      <c r="AC19" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD19" s="2" t="s">
         <v>48</v>
       </c>
       <c r="AE19" s="2" t="s">
@@ -6271,10 +6263,10 @@
       <c r="BC19" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="BD19" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="BE19" s="5" t="s">
+      <c r="BD19" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="BE19" s="2" t="s">
         <v>48</v>
       </c>
       <c r="BF19" s="2" t="s">
@@ -6352,10 +6344,10 @@
       <c r="CD19" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="CE19" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="CF19" s="5" t="s">
+      <c r="CE19" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="CF19" s="2" t="s">
         <v>48</v>
       </c>
       <c r="CG19" s="2" t="s">
@@ -6456,10 +6448,10 @@
       <c r="AB20" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AC20" s="5">
+      <c r="AC20" s="2">
         <v>4</v>
       </c>
-      <c r="AD20" s="5" t="s">
+      <c r="AD20" s="2" t="s">
         <v>48</v>
       </c>
       <c r="AE20" s="2" t="s">
@@ -6537,10 +6529,10 @@
       <c r="BC20" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="BD20" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="BE20" s="5" t="s">
+      <c r="BD20" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="BE20" s="2" t="s">
         <v>48</v>
       </c>
       <c r="BF20" s="2" t="s">
@@ -6618,10 +6610,10 @@
       <c r="CD20" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="CE20" s="5">
+      <c r="CE20" s="2">
         <v>4</v>
       </c>
-      <c r="CF20" s="5" t="s">
+      <c r="CF20" s="2" t="s">
         <v>48</v>
       </c>
       <c r="CG20" s="2" t="s">
@@ -6722,10 +6714,10 @@
       <c r="AB21" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AC21" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD21" s="5" t="s">
+      <c r="AC21" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD21" s="2" t="s">
         <v>48</v>
       </c>
       <c r="AE21" s="2" t="s">
@@ -6803,10 +6795,10 @@
       <c r="BC21" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="BD21" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="BE21" s="5" t="s">
+      <c r="BD21" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="BE21" s="2" t="s">
         <v>48</v>
       </c>
       <c r="BF21" s="2" t="s">
@@ -6884,10 +6876,10 @@
       <c r="CD21" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="CE21" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="CF21" s="5" t="s">
+      <c r="CE21" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="CF21" s="2" t="s">
         <v>48</v>
       </c>
       <c r="CG21" s="2" t="s">
@@ -6988,10 +6980,10 @@
       <c r="AB22" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AC22" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD22" s="5">
+      <c r="AC22" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD22" s="2">
         <v>2</v>
       </c>
       <c r="AE22" s="2" t="s">
@@ -7069,10 +7061,10 @@
       <c r="BC22" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="BD22" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="BE22" s="5">
+      <c r="BD22" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="BE22" s="2">
         <v>4</v>
       </c>
       <c r="BF22" s="2" t="s">
@@ -7150,10 +7142,10 @@
       <c r="CD22" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="CE22" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="CF22" s="5" t="s">
+      <c r="CE22" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="CF22" s="2" t="s">
         <v>48</v>
       </c>
       <c r="CG22" s="2" t="s">
@@ -7254,10 +7246,10 @@
       <c r="AB23" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AC23" s="5">
+      <c r="AC23" s="2">
         <v>4</v>
       </c>
-      <c r="AD23" s="5">
+      <c r="AD23" s="2">
         <v>4</v>
       </c>
       <c r="AE23" s="2" t="s">
@@ -7335,10 +7327,10 @@
       <c r="BC23" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="BD23" s="5">
+      <c r="BD23" s="2">
         <v>3</v>
       </c>
-      <c r="BE23" s="5">
+      <c r="BE23" s="2">
         <v>4</v>
       </c>
       <c r="BF23" s="2" t="s">
@@ -7416,10 +7408,10 @@
       <c r="CD23" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="CE23" s="5">
+      <c r="CE23" s="2">
         <v>4</v>
       </c>
-      <c r="CF23" s="5">
+      <c r="CF23" s="2">
         <v>3</v>
       </c>
       <c r="CG23" s="2" t="s">
@@ -7520,10 +7512,10 @@
       <c r="AB24" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AC24" s="5">
+      <c r="AC24" s="2">
         <v>3</v>
       </c>
-      <c r="AD24" s="5" t="s">
+      <c r="AD24" s="2" t="s">
         <v>48</v>
       </c>
       <c r="AE24" s="2" t="s">
@@ -7601,10 +7593,10 @@
       <c r="BC24" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="BD24" s="5">
+      <c r="BD24" s="2">
         <v>0</v>
       </c>
-      <c r="BE24" s="5" t="s">
+      <c r="BE24" s="2" t="s">
         <v>48</v>
       </c>
       <c r="BF24" s="2" t="s">
@@ -7682,10 +7674,10 @@
       <c r="CD24" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="CE24" s="5">
+      <c r="CE24" s="2">
         <v>4</v>
       </c>
-      <c r="CF24" s="5">
+      <c r="CF24" s="2">
         <v>4</v>
       </c>
       <c r="CG24" s="2" t="s">
@@ -7786,10 +7778,10 @@
       <c r="AB25" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AC25" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD25" s="5" t="s">
+      <c r="AC25" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD25" s="2" t="s">
         <v>48</v>
       </c>
       <c r="AE25" s="2" t="s">
@@ -7867,10 +7859,10 @@
       <c r="BC25" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="BD25" s="5">
+      <c r="BD25" s="2">
         <v>4</v>
       </c>
-      <c r="BE25" s="5">
+      <c r="BE25" s="2">
         <v>4</v>
       </c>
       <c r="BF25" s="2" t="s">
@@ -7948,10 +7940,10 @@
       <c r="CD25" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="CE25" s="5">
+      <c r="CE25" s="2">
         <v>4</v>
       </c>
-      <c r="CF25" s="5" t="s">
+      <c r="CF25" s="2" t="s">
         <v>48</v>
       </c>
       <c r="CG25" s="2" t="s">
@@ -8052,10 +8044,10 @@
       <c r="AB26" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AC26" s="5">
+      <c r="AC26" s="2">
         <v>3</v>
       </c>
-      <c r="AD26" s="5" t="s">
+      <c r="AD26" s="2" t="s">
         <v>48</v>
       </c>
       <c r="AE26" s="2" t="s">
@@ -8133,10 +8125,10 @@
       <c r="BC26" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="BD26" s="5">
+      <c r="BD26" s="2">
         <v>3</v>
       </c>
-      <c r="BE26" s="5" t="s">
+      <c r="BE26" s="2" t="s">
         <v>48</v>
       </c>
       <c r="BF26" s="2" t="s">
@@ -8214,10 +8206,10 @@
       <c r="CD26" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="CE26" s="5">
+      <c r="CE26" s="2">
         <v>4</v>
       </c>
-      <c r="CF26" s="5">
+      <c r="CF26" s="2">
         <v>4</v>
       </c>
       <c r="CG26" s="2" t="s">
@@ -8318,10 +8310,10 @@
       <c r="AB27" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AC27" s="5">
+      <c r="AC27" s="2">
         <v>4</v>
       </c>
-      <c r="AD27" s="5" t="s">
+      <c r="AD27" s="2" t="s">
         <v>48</v>
       </c>
       <c r="AE27" s="2" t="s">
@@ -8399,10 +8391,10 @@
       <c r="BC27" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="BD27" s="5">
+      <c r="BD27" s="2">
         <v>4</v>
       </c>
-      <c r="BE27" s="5" t="s">
+      <c r="BE27" s="2" t="s">
         <v>48</v>
       </c>
       <c r="BF27" s="2" t="s">
@@ -8480,10 +8472,10 @@
       <c r="CD27" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="CE27" s="5">
+      <c r="CE27" s="2">
         <v>4</v>
       </c>
-      <c r="CF27" s="5" t="s">
+      <c r="CF27" s="2" t="s">
         <v>48</v>
       </c>
       <c r="CG27" s="2" t="s">
@@ -8584,10 +8576,10 @@
       <c r="AB28" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AC28" s="5">
+      <c r="AC28" s="2">
         <v>4</v>
       </c>
-      <c r="AD28" s="5" t="s">
+      <c r="AD28" s="2" t="s">
         <v>48</v>
       </c>
       <c r="AE28" s="2" t="s">
@@ -8665,10 +8657,10 @@
       <c r="BC28" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="BD28" s="5">
+      <c r="BD28" s="2">
         <v>3</v>
       </c>
-      <c r="BE28" s="5">
+      <c r="BE28" s="2">
         <v>4</v>
       </c>
       <c r="BF28" s="2" t="s">
@@ -8746,10 +8738,10 @@
       <c r="CD28" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="CE28" s="5">
+      <c r="CE28" s="2">
         <v>3</v>
       </c>
-      <c r="CF28" s="5">
+      <c r="CF28" s="2">
         <v>4</v>
       </c>
       <c r="CG28" s="2" t="s">
@@ -8850,10 +8842,10 @@
       <c r="AB29" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AC29" s="5">
+      <c r="AC29" s="2">
         <v>4</v>
       </c>
-      <c r="AD29" s="5" t="s">
+      <c r="AD29" s="2" t="s">
         <v>48</v>
       </c>
       <c r="AE29" s="2" t="s">
@@ -8931,10 +8923,10 @@
       <c r="BC29" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="BD29" s="5">
+      <c r="BD29" s="2">
         <v>3</v>
       </c>
-      <c r="BE29" s="5" t="s">
+      <c r="BE29" s="2" t="s">
         <v>48</v>
       </c>
       <c r="BF29" s="2" t="s">
@@ -9012,10 +9004,10 @@
       <c r="CD29" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="CE29" s="5">
+      <c r="CE29" s="2">
         <v>3</v>
       </c>
-      <c r="CF29" s="5" t="s">
+      <c r="CF29" s="2" t="s">
         <v>48</v>
       </c>
       <c r="CG29" s="2" t="s">
@@ -9116,10 +9108,10 @@
       <c r="AB30" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AC30" s="5">
+      <c r="AC30" s="2">
         <v>0</v>
       </c>
-      <c r="AD30" s="5" t="s">
+      <c r="AD30" s="2" t="s">
         <v>48</v>
       </c>
       <c r="AE30" s="2" t="s">
@@ -9197,10 +9189,10 @@
       <c r="BC30" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="BD30" s="5">
+      <c r="BD30" s="2">
         <v>2</v>
       </c>
-      <c r="BE30" s="5" t="s">
+      <c r="BE30" s="2" t="s">
         <v>48</v>
       </c>
       <c r="BF30" s="2" t="s">
@@ -9278,10 +9270,10 @@
       <c r="CD30" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="CE30" s="5">
+      <c r="CE30" s="2">
         <v>3</v>
       </c>
-      <c r="CF30" s="5" t="s">
+      <c r="CF30" s="2" t="s">
         <v>48</v>
       </c>
       <c r="CG30" s="2" t="s">
@@ -9382,10 +9374,10 @@
       <c r="AB31" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AC31" s="5">
+      <c r="AC31" s="2">
         <v>3</v>
       </c>
-      <c r="AD31" s="5">
+      <c r="AD31" s="2">
         <v>4</v>
       </c>
       <c r="AE31" s="2" t="s">
@@ -9463,10 +9455,10 @@
       <c r="BC31" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="BD31" s="5">
+      <c r="BD31" s="2">
         <v>4</v>
       </c>
-      <c r="BE31" s="5">
+      <c r="BE31" s="2">
         <v>4</v>
       </c>
       <c r="BF31" s="2" t="s">
@@ -9544,10 +9536,10 @@
       <c r="CD31" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="CE31" s="5">
+      <c r="CE31" s="2">
         <v>3</v>
       </c>
-      <c r="CF31" s="5">
+      <c r="CF31" s="2">
         <v>4</v>
       </c>
       <c r="CG31" s="2" t="s">
@@ -9648,10 +9640,10 @@
       <c r="AB32" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AC32" s="5">
+      <c r="AC32" s="2">
         <v>3</v>
       </c>
-      <c r="AD32" s="5">
+      <c r="AD32" s="2">
         <v>3</v>
       </c>
       <c r="AE32" s="2" t="s">
@@ -9729,10 +9721,10 @@
       <c r="BC32" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="BD32" s="5">
+      <c r="BD32" s="2">
         <v>3</v>
       </c>
-      <c r="BE32" s="5">
+      <c r="BE32" s="2">
         <v>3</v>
       </c>
       <c r="BF32" s="2" t="s">
@@ -9810,10 +9802,10 @@
       <c r="CD32" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="CE32" s="5">
+      <c r="CE32" s="2">
         <v>3</v>
       </c>
-      <c r="CF32" s="5">
+      <c r="CF32" s="2">
         <v>3</v>
       </c>
       <c r="CG32" s="2" t="s">
@@ -9914,10 +9906,10 @@
       <c r="AB33" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AC33" s="5">
+      <c r="AC33" s="2">
         <v>3</v>
       </c>
-      <c r="AD33" s="5">
+      <c r="AD33" s="2">
         <v>4</v>
       </c>
       <c r="AE33" s="2" t="s">
@@ -9995,10 +9987,10 @@
       <c r="BC33" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="BD33" s="5">
+      <c r="BD33" s="2">
         <v>3</v>
       </c>
-      <c r="BE33" s="5">
+      <c r="BE33" s="2">
         <v>3</v>
       </c>
       <c r="BF33" s="2" t="s">
@@ -10076,10 +10068,10 @@
       <c r="CD33" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="CE33" s="5">
+      <c r="CE33" s="2">
         <v>3</v>
       </c>
-      <c r="CF33" s="5">
+      <c r="CF33" s="2">
         <v>4</v>
       </c>
       <c r="CG33" s="2" t="s">
@@ -10180,10 +10172,10 @@
       <c r="AB34" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AC34" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD34" s="5" t="s">
+      <c r="AC34" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD34" s="2" t="s">
         <v>48</v>
       </c>
       <c r="AE34" s="2" t="s">
@@ -10261,10 +10253,10 @@
       <c r="BC34" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="BD34" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="BE34" s="5" t="s">
+      <c r="BD34" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="BE34" s="2" t="s">
         <v>48</v>
       </c>
       <c r="BF34" s="2" t="s">
@@ -10342,10 +10334,10 @@
       <c r="CD34" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="CE34" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="CF34" s="5" t="s">
+      <c r="CE34" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="CF34" s="2" t="s">
         <v>48</v>
       </c>
       <c r="CG34" s="2" t="s">
@@ -10446,10 +10438,10 @@
       <c r="AB35" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AC35" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD35" s="5" t="s">
+      <c r="AC35" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD35" s="2" t="s">
         <v>48</v>
       </c>
       <c r="AE35" s="2" t="s">
@@ -10527,10 +10519,10 @@
       <c r="BC35" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="BD35" s="5">
+      <c r="BD35" s="2">
         <v>4</v>
       </c>
-      <c r="BE35" s="5">
+      <c r="BE35" s="2">
         <v>4</v>
       </c>
       <c r="BF35" s="2" t="s">
@@ -10608,10 +10600,10 @@
       <c r="CD35" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="CE35" s="5">
+      <c r="CE35" s="2">
         <v>4</v>
       </c>
-      <c r="CF35" s="5" t="s">
+      <c r="CF35" s="2" t="s">
         <v>48</v>
       </c>
       <c r="CG35" s="2" t="s">
@@ -10712,10 +10704,10 @@
       <c r="AB36" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AC36" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD36" s="5" t="s">
+      <c r="AC36" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD36" s="2" t="s">
         <v>48</v>
       </c>
       <c r="AE36" s="2" t="s">
@@ -10793,10 +10785,10 @@
       <c r="BC36" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="BD36" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="BE36" s="5" t="s">
+      <c r="BD36" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="BE36" s="2" t="s">
         <v>48</v>
       </c>
       <c r="BF36" s="2" t="s">
@@ -10874,10 +10866,10 @@
       <c r="CD36" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="CE36" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="CF36" s="5" t="s">
+      <c r="CE36" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="CF36" s="2" t="s">
         <v>48</v>
       </c>
       <c r="CG36" s="2" t="s">
@@ -10978,10 +10970,10 @@
       <c r="AB37" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AC37" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD37" s="5" t="s">
+      <c r="AC37" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD37" s="2" t="s">
         <v>48</v>
       </c>
       <c r="AE37" s="2" t="s">
@@ -11059,10 +11051,10 @@
       <c r="BC37" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="BD37" s="5">
+      <c r="BD37" s="2">
         <v>0</v>
       </c>
-      <c r="BE37" s="5" t="s">
+      <c r="BE37" s="2" t="s">
         <v>48</v>
       </c>
       <c r="BF37" s="2" t="s">
@@ -11140,10 +11132,10 @@
       <c r="CD37" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="CE37" s="5">
+      <c r="CE37" s="2">
         <v>0</v>
       </c>
-      <c r="CF37" s="5" t="s">
+      <c r="CF37" s="2" t="s">
         <v>48</v>
       </c>
       <c r="CG37" s="2" t="s">
@@ -11244,10 +11236,10 @@
       <c r="AB38" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AC38" s="5">
+      <c r="AC38" s="2">
         <v>3</v>
       </c>
-      <c r="AD38" s="5">
+      <c r="AD38" s="2">
         <v>3</v>
       </c>
       <c r="AE38" s="2" t="s">
@@ -11325,10 +11317,10 @@
       <c r="BC38" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="BD38" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="BE38" s="5" t="s">
+      <c r="BD38" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="BE38" s="2" t="s">
         <v>48</v>
       </c>
       <c r="BF38" s="2" t="s">
@@ -11406,10 +11398,10 @@
       <c r="CD38" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="CE38" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="CF38" s="5" t="s">
+      <c r="CE38" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="CF38" s="2" t="s">
         <v>48</v>
       </c>
       <c r="CG38" s="2" t="s">
@@ -11510,10 +11502,10 @@
       <c r="AB39" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AC39" s="5">
+      <c r="AC39" s="2">
         <v>2</v>
       </c>
-      <c r="AD39" s="5">
+      <c r="AD39" s="2">
         <v>4</v>
       </c>
       <c r="AE39" s="2" t="s">
@@ -11591,10 +11583,10 @@
       <c r="BC39" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="BD39" s="5">
+      <c r="BD39" s="2">
         <v>2</v>
       </c>
-      <c r="BE39" s="5">
+      <c r="BE39" s="2">
         <v>4</v>
       </c>
       <c r="BF39" s="2" t="s">
@@ -11672,10 +11664,10 @@
       <c r="CD39" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="CE39" s="5">
+      <c r="CE39" s="2">
         <v>1</v>
       </c>
-      <c r="CF39" s="5">
+      <c r="CF39" s="2">
         <v>4</v>
       </c>
       <c r="CG39" s="2" t="s">
@@ -11776,10 +11768,10 @@
       <c r="AB40" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AC40" s="5">
+      <c r="AC40" s="2">
         <v>4</v>
       </c>
-      <c r="AD40" s="5">
+      <c r="AD40" s="2">
         <v>3</v>
       </c>
       <c r="AE40" s="2" t="s">
@@ -11857,10 +11849,10 @@
       <c r="BC40" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="BD40" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="BE40" s="5" t="s">
+      <c r="BD40" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="BE40" s="2" t="s">
         <v>48</v>
       </c>
       <c r="BF40" s="2" t="s">
@@ -11938,10 +11930,10 @@
       <c r="CD40" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="CE40" s="5">
+      <c r="CE40" s="2">
         <v>0</v>
       </c>
-      <c r="CF40" s="5">
+      <c r="CF40" s="2">
         <v>0</v>
       </c>
       <c r="CG40" s="2" t="s">
@@ -11998,21 +11990,26 @@
     <hyperlink ref="C40" r:id="rId36"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId37"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
-  <dimension ref="B1:AN25"/>
+  <dimension ref="B1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="A1:AN25"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="2" max="2" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:40" customFormat="false">
+    <row r="1" spans="2:6" customFormat="false">
       <c r="B1" s="0" t="str">
         <v>aaron.nesnow846@gaston.k12.nc.us</v>
       </c>
@@ -12028,2847 +12025,399 @@
       <c r="F1" s="0" t="str">
         <v>aleigha.letterman215@gaston.k12.nc.us</v>
       </c>
-      <c r="G1" s="0" t="str">
-        <v>aleigha.letterman215@gaston.k12.nc.us</v>
-      </c>
-      <c r="H1" s="0" t="str">
-        <v>anna.kleffnerspencer042@gaston.k12.nc.us</v>
-      </c>
-      <c r="I1" s="0" t="str">
-        <v>caleb.costner942@gaston.k12.nc.us</v>
-      </c>
-      <c r="J1" s="0" t="str">
-        <v>dalton.harmon921@gaston.k12.nc.us</v>
-      </c>
-      <c r="K1" s="0" t="str">
-        <v>douglas.farley537@gaston.k12.nc.us</v>
-      </c>
-      <c r="L1" s="0" t="str">
-        <v>elizabeth.suarez717@gaston.k12.nc.us</v>
-      </c>
-      <c r="M1" s="0" t="str">
-        <v>grace.deaton440@gaston.k12.nc.us</v>
-      </c>
-      <c r="N1" s="0" t="str">
-        <v>hannah.berckman208@gaston.k12.nc.us</v>
-      </c>
-      <c r="O1" s="0" t="str">
-        <v>hannah.cribby469@gaston.k12.nc.us</v>
-      </c>
-      <c r="P1" s="0" t="str">
-        <v>haylee.franckewitz955@gaston.k12.nc.us</v>
-      </c>
-      <c r="Q1" s="0" t="str">
-        <v>james.abee815@gaston.k12.nc.us</v>
-      </c>
-      <c r="R1" s="0" t="str">
-        <v>james.abee815@gaston.k12.nc.us</v>
-      </c>
-      <c r="S1" s="0" t="str">
-        <v>james.lynn958@gaston.k12.nc.us</v>
-      </c>
-      <c r="T1" s="0" t="str">
-        <v>jared.godwin616@gaston.k12.nc.us</v>
-      </c>
-      <c r="U1" s="0" t="str">
-        <v>jessica.kirby006@gaston.k12.nc.us</v>
-      </c>
-      <c r="V1" s="0" t="str">
-        <v>jessica.payne425@gaston.k12.nc.us</v>
-      </c>
-      <c r="W1" s="0" t="str">
-        <v>kalynne.helms096@gaston.k12.nc.us</v>
-      </c>
-      <c r="X1" s="0" t="str">
-        <v>karmen.scruggs776@gaston.k12.nc.us</v>
-      </c>
-      <c r="Y1" s="0" t="str">
-        <v>kayla.shannon027@gaston.k12.nc.us</v>
-      </c>
-      <c r="Z1" s="0" t="str">
-        <v>kayla.williamson843@gaston.k12.nc.us</v>
-      </c>
-      <c r="AA1" s="0" t="str">
-        <v>kimberly.queen686@gaston.k12.nc.us</v>
-      </c>
-      <c r="AB1" s="0" t="str">
-        <v>kyra.rhyne012@gaston.k12.nc.us</v>
-      </c>
-      <c r="AC1" s="0" t="str">
-        <v>kyra.rhyne012@gaston.k12.nc.us</v>
-      </c>
-      <c r="AD1" s="0" t="str">
-        <v>laurie.ricardo512@gaston.k12.nc.us</v>
-      </c>
-      <c r="AE1" s="0" t="str">
-        <v>ling.zhang885@gaston.k12.nc.us</v>
-      </c>
-      <c r="AF1" s="0" t="str">
-        <v>noah.wollin244@gaston.k12.nc.us</v>
-      </c>
-      <c r="AG1" s="0" t="str">
-        <v>olyvia.knight064@gaston.k12.nc.us</v>
-      </c>
-      <c r="AH1" s="0" t="str">
-        <v>parth.patel358@gaston.k12.nc.us</v>
-      </c>
-      <c r="AI1" s="0" t="str">
-        <v>piper.colangelo050@gaston.k12.nc.us</v>
-      </c>
-      <c r="AJ1" s="0" t="str">
-        <v>riley.kiefer729@gaston.k12.nc.us</v>
-      </c>
-      <c r="AK1" s="0" t="str">
-        <v>sarah.macon201@gaston.k12.nc.us</v>
-      </c>
-      <c r="AL1" s="0" t="str">
-        <v>scott.johnson192@gaston.k12.nc.us</v>
-      </c>
-      <c r="AM1" s="0" t="str">
-        <v>tiffany.weresow255@gaston.k12.nc.us</v>
-      </c>
-      <c r="AN1" s="0" t="str">
-        <v>weston.peavy213@gaston.k12.nc.us</v>
-      </c>
     </row>
-    <row r="2" spans="2:40" customFormat="false">
+    <row r="2" spans="2:6" customFormat="false">
       <c r="B2" s="0" t="str">
         <v>A-C</v>
       </c>
       <c r="C2" s="0" t="str">
-        <v>ABC</v>
+        <v/>
       </c>
       <c r="D2" s="0" t="str">
-        <v>AB-</v>
+        <v/>
       </c>
       <c r="E2" s="0" t="str">
-        <v>---</v>
+        <v/>
       </c>
       <c r="F2" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="G2" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="H2" s="0" t="str">
-        <v>-BC</v>
-      </c>
-      <c r="I2" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="J2" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="K2" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="L2" s="0" t="str">
-        <v>A--</v>
-      </c>
-      <c r="M2" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="N2" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="O2" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="P2" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="Q2" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="R2" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="S2" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="T2" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="U2" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="V2" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="W2" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="X2" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="Y2" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="Z2" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="AA2" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AB2" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="AC2" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="AD2" s="0" t="str">
-        <v>-B-</v>
-      </c>
-      <c r="AE2" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AF2" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AG2" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AH2" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AI2" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AJ2" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AK2" s="0" t="str">
-        <v>A--</v>
-      </c>
-      <c r="AL2" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AM2" s="0" t="str">
-        <v>A--</v>
-      </c>
-      <c r="AN2" s="0" t="str">
-        <v>A--</v>
+        <v/>
       </c>
     </row>
-    <row r="3" spans="2:40" customFormat="false">
+    <row r="3" spans="2:6" customFormat="false">
       <c r="B3" s="0" t="str">
         <v>-B-</v>
       </c>
       <c r="C3" s="0" t="str">
-        <v>ABC</v>
+        <v/>
       </c>
       <c r="D3" s="0" t="str">
-        <v>ABC</v>
+        <v/>
       </c>
       <c r="E3" s="0" t="str">
-        <v>---</v>
+        <v/>
       </c>
       <c r="F3" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="G3" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="H3" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="I3" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="J3" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="K3" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="L3" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="M3" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="N3" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="O3" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="P3" s="0" t="str">
-        <v>-B-</v>
-      </c>
-      <c r="Q3" s="0" t="str">
-        <v>A--</v>
-      </c>
-      <c r="R3" s="0" t="str">
-        <v>-B-</v>
-      </c>
-      <c r="S3" s="0" t="str">
-        <v>-BC</v>
-      </c>
-      <c r="T3" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="U3" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="V3" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="W3" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="X3" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="Y3" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="Z3" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="AA3" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="AB3" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="AC3" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AD3" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AE3" s="0" t="str">
-        <v>-B-</v>
-      </c>
-      <c r="AF3" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AG3" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AH3" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="AI3" s="0" t="str">
-        <v>-BC</v>
-      </c>
-      <c r="AJ3" s="0" t="str">
-        <v>A--</v>
-      </c>
-      <c r="AK3" s="0" t="str">
-        <v>A--</v>
-      </c>
-      <c r="AL3" s="0" t="str">
-        <v>-BC</v>
-      </c>
-      <c r="AM3" s="0" t="str">
-        <v>A--</v>
-      </c>
-      <c r="AN3" s="0" t="str">
-        <v>---</v>
+        <v/>
       </c>
     </row>
-    <row r="4" spans="2:40" customFormat="false">
+    <row r="4" spans="2:6" customFormat="false">
       <c r="B4" s="0" t="str">
         <v>AB-</v>
       </c>
       <c r="C4" s="0" t="str">
-        <v>A-C</v>
+        <v/>
       </c>
       <c r="D4" s="0" t="str">
-        <v>AB-</v>
+        <v/>
       </c>
       <c r="E4" s="0" t="str">
-        <v>ABC</v>
+        <v/>
       </c>
       <c r="F4" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="G4" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="H4" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="I4" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="J4" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="K4" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="L4" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="M4" s="0" t="str">
-        <v>A--</v>
-      </c>
-      <c r="N4" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="O4" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="P4" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="Q4" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="R4" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="S4" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="T4" s="0" t="str">
-        <v>-BC</v>
-      </c>
-      <c r="U4" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="V4" s="0" t="str">
-        <v>-BC</v>
-      </c>
-      <c r="W4" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="X4" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="Y4" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="Z4" s="0" t="str">
-        <v>A--</v>
-      </c>
-      <c r="AA4" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AB4" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AC4" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AD4" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AE4" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="AF4" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AG4" s="0" t="str">
-        <v>A--</v>
-      </c>
-      <c r="AH4" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AI4" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AJ4" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AK4" s="0" t="str">
-        <v>-BC</v>
-      </c>
-      <c r="AL4" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AM4" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="AN4" s="0" t="str">
-        <v>AB-</v>
+        <v/>
       </c>
     </row>
-    <row r="5" spans="2:40" customFormat="false">
+    <row r="5" spans="2:6" customFormat="false">
       <c r="B5" s="0" t="str">
         <v>AC</v>
       </c>
       <c r="C5" s="0" t="str">
-        <v>AC</v>
+        <v/>
       </c>
       <c r="D5" s="0" t="str">
-        <v>AC</v>
+        <v/>
       </c>
       <c r="E5" s="0" t="str">
-        <v>-C</v>
+        <v/>
       </c>
       <c r="F5" s="0" t="str">
-        <v>-C</v>
-      </c>
-      <c r="G5" s="0" t="str">
-        <v>-C</v>
-      </c>
-      <c r="H5" s="0" t="str">
-        <v>AC</v>
-      </c>
-      <c r="I5" s="0" t="str">
-        <v>AC</v>
-      </c>
-      <c r="J5" s="0" t="str">
-        <v>AC</v>
-      </c>
-      <c r="K5" s="0" t="str">
-        <v>AC</v>
-      </c>
-      <c r="L5" s="0" t="str">
-        <v>--</v>
-      </c>
-      <c r="M5" s="0" t="str">
-        <v>A-</v>
-      </c>
-      <c r="N5" s="0" t="str">
-        <v>AC</v>
-      </c>
-      <c r="O5" s="0" t="str">
-        <v>--</v>
-      </c>
-      <c r="P5" s="0" t="str">
-        <v>--</v>
-      </c>
-      <c r="Q5" s="0" t="str">
-        <v>AC</v>
-      </c>
-      <c r="R5" s="0" t="str">
-        <v>A-</v>
-      </c>
-      <c r="S5" s="0" t="str">
-        <v>-C</v>
-      </c>
-      <c r="T5" s="0" t="str">
-        <v>AC</v>
-      </c>
-      <c r="U5" s="0" t="str">
-        <v>AC</v>
-      </c>
-      <c r="V5" s="0" t="str">
-        <v>-C</v>
-      </c>
-      <c r="W5" s="0" t="str">
-        <v>AC</v>
-      </c>
-      <c r="X5" s="0" t="str">
-        <v>A-</v>
-      </c>
-      <c r="Y5" s="0" t="str">
-        <v>AC</v>
-      </c>
-      <c r="Z5" s="0" t="str">
-        <v>A-</v>
-      </c>
-      <c r="AA5" s="0" t="str">
-        <v>AC</v>
-      </c>
-      <c r="AB5" s="0" t="str">
-        <v>AC</v>
-      </c>
-      <c r="AC5" s="0" t="str">
-        <v>AC</v>
-      </c>
-      <c r="AD5" s="0" t="str">
-        <v>AC</v>
-      </c>
-      <c r="AE5" s="0" t="str">
-        <v>AC</v>
-      </c>
-      <c r="AF5" s="0" t="str">
-        <v>AC</v>
-      </c>
-      <c r="AG5" s="0" t="str">
-        <v>AC</v>
-      </c>
-      <c r="AH5" s="0" t="str">
-        <v>-C</v>
-      </c>
-      <c r="AI5" s="0" t="str">
-        <v>AC</v>
-      </c>
-      <c r="AJ5" s="0" t="str">
-        <v>AC</v>
-      </c>
-      <c r="AK5" s="0" t="str">
-        <v>AC</v>
-      </c>
-      <c r="AL5" s="0" t="str">
-        <v>-C</v>
-      </c>
-      <c r="AM5" s="0" t="str">
-        <v>AC</v>
-      </c>
-      <c r="AN5" s="0" t="str">
-        <v>--</v>
+        <v/>
       </c>
     </row>
-    <row r="6" spans="2:40" customFormat="false">
+    <row r="6" spans="2:6" customFormat="false">
       <c r="B6" s="0" t="str">
-        <v>A-C</v>
+        <v>C-C</v>
       </c>
       <c r="C6" s="0" t="str">
-        <v>---</v>
+        <v/>
       </c>
       <c r="D6" s="0" t="str">
-        <v>-BC</v>
+        <v/>
       </c>
       <c r="E6" s="0" t="str">
-        <v>---</v>
+        <v/>
       </c>
       <c r="F6" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="G6" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="H6" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="I6" s="0" t="str">
-        <v>-B-</v>
-      </c>
-      <c r="J6" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="K6" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="L6" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="M6" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="N6" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="O6" s="0" t="str">
-        <v>-B-</v>
-      </c>
-      <c r="P6" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="Q6" s="0" t="str">
-        <v>-B-</v>
-      </c>
-      <c r="R6" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="S6" s="0" t="str">
-        <v>A--</v>
-      </c>
-      <c r="T6" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="U6" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="V6" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="W6" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="X6" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="Y6" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="Z6" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AA6" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AB6" s="0" t="str">
-        <v>-BC</v>
-      </c>
-      <c r="AC6" s="0" t="str">
-        <v>-B-</v>
-      </c>
-      <c r="AD6" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="AE6" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AF6" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AG6" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AH6" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="AI6" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AJ6" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AK6" s="0" t="str">
-        <v>-B-</v>
-      </c>
-      <c r="AL6" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="AM6" s="0" t="str">
-        <v>-BC</v>
-      </c>
-      <c r="AN6" s="0" t="str">
-        <v>---</v>
+        <v/>
       </c>
     </row>
-    <row r="7" spans="2:40" customFormat="false">
+    <row r="7" spans="2:6" customFormat="false">
       <c r="B7" s="0" t="str">
-        <v>AB-</v>
+        <v>CC-</v>
       </c>
       <c r="C7" s="0" t="str">
-        <v>ABC</v>
+        <v/>
       </c>
       <c r="D7" s="0" t="str">
-        <v>ABC</v>
+        <v/>
       </c>
       <c r="E7" s="0" t="str">
-        <v>---</v>
+        <v/>
       </c>
       <c r="F7" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="G7" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="H7" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="I7" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="J7" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="K7" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="L7" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="M7" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="N7" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="O7" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="P7" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="Q7" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="R7" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="S7" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="T7" s="0" t="str">
-        <v>-BC</v>
-      </c>
-      <c r="U7" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="V7" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="W7" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="X7" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="Y7" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="Z7" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AA7" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AB7" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AC7" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AD7" s="0" t="str">
-        <v>-BC</v>
-      </c>
-      <c r="AE7" s="0" t="str">
-        <v>-B-</v>
-      </c>
-      <c r="AF7" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AG7" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AH7" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AI7" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AJ7" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AK7" s="0" t="str">
-        <v>A--</v>
-      </c>
-      <c r="AL7" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AM7" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="AN7" s="0" t="str">
-        <v>AB-</v>
+        <v/>
       </c>
     </row>
-    <row r="8" spans="2:40" customFormat="false">
+    <row r="8" spans="2:6" customFormat="false">
       <c r="B8" s="0" t="str">
-        <v>A--</v>
+        <v>C--</v>
       </c>
       <c r="C8" s="0" t="str">
-        <v>ABC</v>
+        <v/>
       </c>
       <c r="D8" s="0" t="str">
-        <v>AB-</v>
+        <v/>
       </c>
       <c r="E8" s="0" t="str">
-        <v>---</v>
+        <v/>
       </c>
       <c r="F8" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="G8" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="H8" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="I8" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="J8" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="K8" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="L8" s="0" t="str">
-        <v>-BC</v>
-      </c>
-      <c r="M8" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="N8" s="0" t="str">
-        <v>A--</v>
-      </c>
-      <c r="O8" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="P8" s="0" t="str">
-        <v>A--</v>
-      </c>
-      <c r="Q8" s="0" t="str">
-        <v>A--</v>
-      </c>
-      <c r="R8" s="0" t="str">
-        <v>-B-</v>
-      </c>
-      <c r="S8" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="T8" s="0" t="str">
-        <v>-B-</v>
-      </c>
-      <c r="U8" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="V8" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="W8" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="X8" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="Y8" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="Z8" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AA8" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="AB8" s="0" t="str">
-        <v>-BC</v>
-      </c>
-      <c r="AC8" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AD8" s="0" t="str">
-        <v>-B-</v>
-      </c>
-      <c r="AE8" s="0" t="str">
-        <v>A--</v>
-      </c>
-      <c r="AF8" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AG8" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AH8" s="0" t="str">
-        <v>A--</v>
-      </c>
-      <c r="AI8" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AJ8" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AK8" s="0" t="str">
-        <v>A--</v>
-      </c>
-      <c r="AL8" s="0" t="str">
-        <v>A--</v>
-      </c>
-      <c r="AM8" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="AN8" s="0" t="str">
-        <v>---</v>
+        <v/>
       </c>
     </row>
-    <row r="9" spans="2:40" customFormat="false">
+    <row r="9" spans="2:6" customFormat="false">
       <c r="B9" s="0" t="str">
-        <v>AB</v>
+        <v>CC</v>
       </c>
       <c r="C9" s="0" t="str">
-        <v>--</v>
+        <v/>
       </c>
       <c r="D9" s="0" t="str">
-        <v>AB</v>
+        <v/>
       </c>
       <c r="E9" s="0" t="str">
-        <v>AB</v>
+        <v/>
       </c>
       <c r="F9" s="0" t="str">
-        <v>A-</v>
-      </c>
-      <c r="G9" s="0" t="str">
-        <v>A-</v>
-      </c>
-      <c r="H9" s="0" t="str">
-        <v>A-</v>
-      </c>
-      <c r="I9" s="0" t="str">
-        <v>AB</v>
-      </c>
-      <c r="J9" s="0" t="str">
-        <v>AB</v>
-      </c>
-      <c r="K9" s="0" t="str">
-        <v>AB</v>
-      </c>
-      <c r="L9" s="0" t="str">
-        <v>-B</v>
-      </c>
-      <c r="M9" s="0" t="str">
-        <v>A-</v>
-      </c>
-      <c r="N9" s="0" t="str">
-        <v>AB</v>
-      </c>
-      <c r="O9" s="0" t="str">
-        <v>A-</v>
-      </c>
-      <c r="P9" s="0" t="str">
-        <v>--</v>
-      </c>
-      <c r="Q9" s="0" t="str">
-        <v>-B</v>
-      </c>
-      <c r="R9" s="0" t="str">
-        <v>--</v>
-      </c>
-      <c r="S9" s="0" t="str">
-        <v>AB</v>
-      </c>
-      <c r="T9" s="0" t="str">
-        <v>A-</v>
-      </c>
-      <c r="U9" s="0" t="str">
-        <v>--</v>
-      </c>
-      <c r="V9" s="0" t="str">
-        <v>--</v>
-      </c>
-      <c r="W9" s="0" t="str">
-        <v>-B</v>
-      </c>
-      <c r="X9" s="0" t="str">
-        <v>AB</v>
-      </c>
-      <c r="Y9" s="0" t="str">
-        <v>AB</v>
-      </c>
-      <c r="Z9" s="0" t="str">
-        <v>A-</v>
-      </c>
-      <c r="AA9" s="0" t="str">
-        <v>AB</v>
-      </c>
-      <c r="AB9" s="0" t="str">
-        <v>AB</v>
-      </c>
-      <c r="AC9" s="0" t="str">
-        <v>AB</v>
-      </c>
-      <c r="AD9" s="0" t="str">
-        <v>AB</v>
-      </c>
-      <c r="AE9" s="0" t="str">
-        <v>AB</v>
-      </c>
-      <c r="AF9" s="0" t="str">
-        <v>A-</v>
-      </c>
-      <c r="AG9" s="0" t="str">
-        <v>AB</v>
-      </c>
-      <c r="AH9" s="0" t="str">
-        <v>AB</v>
-      </c>
-      <c r="AI9" s="0" t="str">
-        <v>AB</v>
-      </c>
-      <c r="AJ9" s="0" t="str">
-        <v>--</v>
-      </c>
-      <c r="AK9" s="0" t="str">
-        <v>AB</v>
-      </c>
-      <c r="AL9" s="0" t="str">
-        <v>--</v>
-      </c>
-      <c r="AM9" s="0" t="str">
-        <v>AB</v>
-      </c>
-      <c r="AN9" s="0" t="str">
-        <v>-B</v>
+        <v/>
       </c>
     </row>
-    <row r="10" spans="2:40" customFormat="false">
+    <row r="10" spans="2:6" customFormat="false">
       <c r="B10" s="0" t="str">
-        <v>A--</v>
+        <v>C--</v>
       </c>
       <c r="C10" s="0" t="str">
-        <v>--C</v>
+        <v/>
       </c>
       <c r="D10" s="0" t="str">
-        <v>ABC</v>
+        <v/>
       </c>
       <c r="E10" s="0" t="str">
-        <v>AB-</v>
+        <v/>
       </c>
       <c r="F10" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="G10" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="H10" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="I10" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="J10" s="0" t="str">
-        <v>-BC</v>
-      </c>
-      <c r="K10" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="L10" s="0" t="str">
-        <v>A--</v>
-      </c>
-      <c r="M10" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="N10" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="O10" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="P10" s="0" t="str">
-        <v>-BC</v>
-      </c>
-      <c r="Q10" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="R10" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="S10" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="T10" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="U10" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="V10" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="W10" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="X10" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="Y10" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="Z10" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="AA10" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AB10" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AC10" s="0" t="str">
-        <v>-BC</v>
-      </c>
-      <c r="AD10" s="0" t="str">
-        <v>-B-</v>
-      </c>
-      <c r="AE10" s="0" t="str">
-        <v>-B-</v>
-      </c>
-      <c r="AF10" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AG10" s="0" t="str">
-        <v>A--</v>
-      </c>
-      <c r="AH10" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AI10" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AJ10" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AK10" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="AL10" s="0" t="str">
-        <v>-BC</v>
-      </c>
-      <c r="AM10" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AN10" s="0" t="str">
-        <v>-B-</v>
+        <v/>
       </c>
     </row>
-    <row r="11" spans="2:40" customFormat="false">
+    <row r="11" spans="2:6" customFormat="false">
       <c r="B11" s="0" t="str">
-        <v>ABC</v>
+        <v>CCC</v>
       </c>
       <c r="C11" s="0" t="str">
-        <v>A-C</v>
+        <v/>
       </c>
       <c r="D11" s="0" t="str">
-        <v>AB-</v>
+        <v/>
       </c>
       <c r="E11" s="0" t="str">
-        <v>--C</v>
+        <v/>
       </c>
       <c r="F11" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="G11" s="0" t="str">
-        <v>-BC</v>
-      </c>
-      <c r="H11" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="I11" s="0" t="str">
-        <v>-B-</v>
-      </c>
-      <c r="J11" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="K11" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="L11" s="0" t="str">
-        <v>-BC</v>
-      </c>
-      <c r="M11" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="N11" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="O11" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="P11" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="Q11" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="R11" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="S11" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="T11" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="U11" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="V11" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="W11" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="X11" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="Y11" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="Z11" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="AA11" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AB11" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AC11" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AD11" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AE11" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="AF11" s="0" t="str">
-        <v>-BC</v>
-      </c>
-      <c r="AG11" s="0" t="str">
-        <v>A--</v>
-      </c>
-      <c r="AH11" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AI11" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AJ11" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AK11" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AL11" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AM11" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="AN11" s="0" t="str">
-        <v>A--</v>
+        <v/>
       </c>
     </row>
-    <row r="12" spans="2:40" customFormat="false">
+    <row r="12" spans="2:6" customFormat="false">
       <c r="B12" s="0" t="str">
         <v>--</v>
       </c>
       <c r="C12" s="0" t="str">
-        <v>A-</v>
+        <v/>
       </c>
       <c r="D12" s="0" t="str">
-        <v>A-</v>
+        <v/>
       </c>
       <c r="E12" s="0" t="str">
-        <v>--</v>
+        <v/>
       </c>
       <c r="F12" s="0" t="str">
-        <v>--</v>
-      </c>
-      <c r="G12" s="0" t="str">
-        <v>--</v>
-      </c>
-      <c r="H12" s="0" t="str">
-        <v>--</v>
-      </c>
-      <c r="I12" s="0" t="str">
-        <v>-B</v>
-      </c>
-      <c r="J12" s="0" t="str">
-        <v>AB</v>
-      </c>
-      <c r="K12" s="0" t="str">
-        <v>--</v>
-      </c>
-      <c r="L12" s="0" t="str">
-        <v>--</v>
-      </c>
-      <c r="M12" s="0" t="str">
-        <v>--</v>
-      </c>
-      <c r="N12" s="0" t="str">
-        <v>--</v>
-      </c>
-      <c r="O12" s="0" t="str">
-        <v>--</v>
-      </c>
-      <c r="P12" s="0" t="str">
-        <v>--</v>
-      </c>
-      <c r="Q12" s="0" t="str">
-        <v>--</v>
-      </c>
-      <c r="R12" s="0" t="str">
-        <v>A-</v>
-      </c>
-      <c r="S12" s="0" t="str">
-        <v>A-</v>
-      </c>
-      <c r="T12" s="0" t="str">
-        <v>A-</v>
-      </c>
-      <c r="U12" s="0" t="str">
-        <v>AB</v>
-      </c>
-      <c r="V12" s="0" t="str">
-        <v>AB</v>
-      </c>
-      <c r="W12" s="0" t="str">
-        <v>--</v>
-      </c>
-      <c r="X12" s="0" t="str">
-        <v>--</v>
-      </c>
-      <c r="Y12" s="0" t="str">
-        <v>--</v>
-      </c>
-      <c r="Z12" s="0" t="str">
-        <v>--</v>
-      </c>
-      <c r="AA12" s="0" t="str">
-        <v>--</v>
-      </c>
-      <c r="AB12" s="0" t="str">
-        <v>A-</v>
-      </c>
-      <c r="AC12" s="0" t="str">
-        <v>--</v>
-      </c>
-      <c r="AD12" s="0" t="str">
-        <v>--</v>
-      </c>
-      <c r="AE12" s="0" t="str">
-        <v>--</v>
-      </c>
-      <c r="AF12" s="0" t="str">
-        <v>--</v>
-      </c>
-      <c r="AG12" s="0" t="str">
-        <v>AB</v>
-      </c>
-      <c r="AH12" s="0" t="str">
-        <v>--</v>
-      </c>
-      <c r="AI12" s="0" t="str">
-        <v>--</v>
-      </c>
-      <c r="AJ12" s="0" t="str">
-        <v>A-</v>
-      </c>
-      <c r="AK12" s="0" t="str">
-        <v>--</v>
-      </c>
-      <c r="AL12" s="0" t="str">
-        <v>--</v>
-      </c>
-      <c r="AM12" s="0" t="str">
-        <v>AB</v>
-      </c>
-      <c r="AN12" s="0" t="str">
-        <v>--</v>
+        <v/>
       </c>
     </row>
-    <row r="13" spans="2:40" customFormat="false">
+    <row r="13" spans="2:6" customFormat="false">
       <c r="B13" s="0" t="str">
-        <v>A---</v>
+        <v>C---</v>
       </c>
       <c r="C13" s="0" t="str">
-        <v>ABCC</v>
+        <v/>
       </c>
       <c r="D13" s="0" t="str">
-        <v>ABCC</v>
+        <v/>
       </c>
       <c r="E13" s="0" t="str">
-        <v>----</v>
+        <v/>
       </c>
       <c r="F13" s="0" t="str">
-        <v>A-CC</v>
-      </c>
-      <c r="G13" s="0" t="str">
-        <v>AB-C</v>
-      </c>
-      <c r="H13" s="0" t="str">
-        <v>-B-C</v>
-      </c>
-      <c r="I13" s="0" t="str">
-        <v>AB-C</v>
-      </c>
-      <c r="J13" s="0" t="str">
-        <v>ABCC</v>
-      </c>
-      <c r="K13" s="0" t="str">
-        <v>A--C</v>
-      </c>
-      <c r="L13" s="0" t="str">
-        <v>AB-C</v>
-      </c>
-      <c r="M13" s="0" t="str">
-        <v>A-CC</v>
-      </c>
-      <c r="N13" s="0" t="str">
-        <v>-B--</v>
-      </c>
-      <c r="O13" s="0" t="str">
-        <v>----</v>
-      </c>
-      <c r="P13" s="0" t="str">
-        <v>----</v>
-      </c>
-      <c r="Q13" s="0" t="str">
-        <v>A--C</v>
-      </c>
-      <c r="R13" s="0" t="str">
-        <v>-B--</v>
-      </c>
-      <c r="S13" s="0" t="str">
-        <v>AB-C</v>
-      </c>
-      <c r="T13" s="0" t="str">
-        <v>-B--</v>
-      </c>
-      <c r="U13" s="0" t="str">
-        <v>ABC-</v>
-      </c>
-      <c r="V13" s="0" t="str">
-        <v>ABCC</v>
-      </c>
-      <c r="W13" s="0" t="str">
-        <v>ABC-</v>
-      </c>
-      <c r="X13" s="0" t="str">
-        <v>----</v>
-      </c>
-      <c r="Y13" s="0" t="str">
-        <v>AB-C</v>
-      </c>
-      <c r="Z13" s="0" t="str">
-        <v>---C</v>
-      </c>
-      <c r="AA13" s="0" t="str">
-        <v>----</v>
-      </c>
-      <c r="AB13" s="0" t="str">
-        <v>-B--</v>
-      </c>
-      <c r="AC13" s="0" t="str">
-        <v>----</v>
-      </c>
-      <c r="AD13" s="0" t="str">
-        <v>----</v>
-      </c>
-      <c r="AE13" s="0" t="str">
-        <v>-B-C</v>
-      </c>
-      <c r="AF13" s="0" t="str">
-        <v>AB-C</v>
-      </c>
-      <c r="AG13" s="0" t="str">
-        <v>--C-</v>
-      </c>
-      <c r="AH13" s="0" t="str">
-        <v>A---</v>
-      </c>
-      <c r="AI13" s="0" t="str">
-        <v>A---</v>
-      </c>
-      <c r="AJ13" s="0" t="str">
-        <v>----</v>
-      </c>
-      <c r="AK13" s="0" t="str">
-        <v>----</v>
-      </c>
-      <c r="AL13" s="0" t="str">
-        <v>-BCC</v>
-      </c>
-      <c r="AM13" s="0" t="str">
-        <v>AB-C</v>
-      </c>
-      <c r="AN13" s="0" t="str">
-        <v>----</v>
+        <v/>
       </c>
     </row>
-    <row r="14" spans="2:40" customFormat="false">
+    <row r="14" spans="2:6" customFormat="false">
       <c r="B14" s="0" t="str">
-        <v>ABC</v>
+        <v>CCC</v>
       </c>
       <c r="C14" s="0" t="str">
-        <v>A-C</v>
+        <v/>
       </c>
       <c r="D14" s="0" t="str">
-        <v>A-C</v>
+        <v/>
       </c>
       <c r="E14" s="0" t="str">
-        <v>--C</v>
+        <v/>
       </c>
       <c r="F14" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="G14" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="H14" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="I14" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="J14" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="K14" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="L14" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="M14" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="N14" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="O14" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="P14" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="Q14" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="R14" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="S14" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="T14" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="U14" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="V14" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="W14" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="X14" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="Y14" s="0" t="str">
-        <v>A--</v>
-      </c>
-      <c r="Z14" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AA14" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AB14" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AC14" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AD14" s="0" t="str">
-        <v>-BC</v>
-      </c>
-      <c r="AE14" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AF14" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AG14" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AH14" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AI14" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="AJ14" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AK14" s="0" t="str">
-        <v>A--</v>
-      </c>
-      <c r="AL14" s="0" t="str">
-        <v>-BC</v>
-      </c>
-      <c r="AM14" s="0" t="str">
-        <v>A--</v>
-      </c>
-      <c r="AN14" s="0" t="str">
-        <v>AB-</v>
+        <v/>
       </c>
     </row>
-    <row r="15" spans="2:40" customFormat="false">
+    <row r="15" spans="2:6" customFormat="false">
       <c r="B15" s="0" t="str">
-        <v>ABC</v>
+        <v>CCC</v>
       </c>
       <c r="C15" s="0" t="str">
-        <v>ABC</v>
+        <v/>
       </c>
       <c r="D15" s="0" t="str">
-        <v>ABC</v>
+        <v/>
       </c>
       <c r="E15" s="0" t="str">
-        <v>ABC</v>
+        <v/>
       </c>
       <c r="F15" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="G15" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="H15" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="I15" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="J15" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="K15" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="L15" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="M15" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="N15" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="O15" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="P15" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="Q15" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="R15" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="S15" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="T15" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="U15" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="V15" s="0" t="str">
-        <v>-BC</v>
-      </c>
-      <c r="W15" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="X15" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="Y15" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="Z15" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AA15" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AB15" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AC15" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AD15" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="AE15" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AF15" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AG15" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AH15" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AI15" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AJ15" s="0" t="str">
-        <v>-BC</v>
-      </c>
-      <c r="AK15" s="0" t="str">
-        <v>-BC</v>
-      </c>
-      <c r="AL15" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="AM15" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AN15" s="0" t="str">
-        <v>AB-</v>
+        <v/>
       </c>
     </row>
-    <row r="16" spans="2:40" customFormat="false">
+    <row r="16" spans="2:6" customFormat="false">
       <c r="B16" s="0" t="str">
-        <v>ABC</v>
+        <v>CCC</v>
       </c>
       <c r="C16" s="0" t="str">
-        <v>A--</v>
+        <v/>
       </c>
       <c r="D16" s="0" t="str">
-        <v>ABC</v>
+        <v/>
       </c>
       <c r="E16" s="0" t="str">
-        <v>-B-</v>
+        <v/>
       </c>
       <c r="F16" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="G16" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="H16" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="I16" s="0" t="str">
-        <v>-BC</v>
-      </c>
-      <c r="J16" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="K16" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="L16" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="M16" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="N16" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="O16" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="P16" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="Q16" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="R16" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="S16" s="0" t="str">
-        <v>-BC</v>
-      </c>
-      <c r="T16" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="U16" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="V16" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="W16" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="X16" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="Y16" s="0" t="str">
-        <v>-BC</v>
-      </c>
-      <c r="Z16" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="AA16" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AB16" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AC16" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AD16" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AE16" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AF16" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AG16" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="AH16" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AI16" s="0" t="str">
-        <v>A--</v>
-      </c>
-      <c r="AJ16" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AK16" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AL16" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AM16" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AN16" s="0" t="str">
-        <v>---</v>
+        <v/>
       </c>
     </row>
-    <row r="17" spans="2:40" customFormat="false">
+    <row r="17" spans="2:6" customFormat="false">
       <c r="B17" s="0" t="str">
-        <v>ABC</v>
+        <v>CCC</v>
       </c>
       <c r="C17" s="0" t="str">
-        <v>A--</v>
+        <v/>
       </c>
       <c r="D17" s="0" t="str">
-        <v>AB-</v>
+        <v/>
       </c>
       <c r="E17" s="0" t="str">
-        <v>---</v>
+        <v/>
       </c>
       <c r="F17" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="G17" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="H17" s="0" t="str">
-        <v>-BC</v>
-      </c>
-      <c r="I17" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="J17" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="K17" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="L17" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="M17" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="N17" s="0" t="str">
-        <v>A--</v>
-      </c>
-      <c r="O17" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="P17" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="Q17" s="0" t="str">
-        <v>A--</v>
-      </c>
-      <c r="R17" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="S17" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="T17" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="U17" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="V17" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="W17" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="X17" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="Y17" s="0" t="str">
-        <v>-B-</v>
-      </c>
-      <c r="Z17" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AA17" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="AB17" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AC17" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AD17" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="AE17" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AF17" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AG17" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AH17" s="0" t="str">
-        <v>-B-</v>
-      </c>
-      <c r="AI17" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="AJ17" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AK17" s="0" t="str">
-        <v>A--</v>
-      </c>
-      <c r="AL17" s="0" t="str">
-        <v>-BC</v>
-      </c>
-      <c r="AM17" s="0" t="str">
-        <v>A--</v>
-      </c>
-      <c r="AN17" s="0" t="str">
-        <v>-B-</v>
+        <v/>
       </c>
     </row>
-    <row r="18" spans="2:40" customFormat="false">
+    <row r="18" spans="2:6" customFormat="false">
       <c r="B18" s="0" t="str">
         <v>---</v>
       </c>
       <c r="C18" s="0" t="str">
-        <v>-B-</v>
+        <v/>
       </c>
       <c r="D18" s="0" t="str">
-        <v>--C</v>
+        <v/>
       </c>
       <c r="E18" s="0" t="str">
-        <v>---</v>
+        <v/>
       </c>
       <c r="F18" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="G18" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="H18" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="I18" s="0" t="str">
-        <v>-B-</v>
-      </c>
-      <c r="J18" s="0" t="str">
-        <v>-B-</v>
-      </c>
-      <c r="K18" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="L18" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="M18" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="N18" s="0" t="str">
-        <v>-B-</v>
-      </c>
-      <c r="O18" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="P18" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="Q18" s="0" t="str">
-        <v>-B-</v>
-      </c>
-      <c r="R18" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="S18" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="T18" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="U18" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="V18" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="W18" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="X18" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="Y18" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="Z18" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AA18" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="AB18" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AC18" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AD18" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AE18" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="AF18" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="AG18" s="0" t="str">
-        <v>-B-</v>
-      </c>
-      <c r="AH18" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="AI18" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AJ18" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="AK18" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AL18" s="0" t="str">
-        <v>-BC</v>
-      </c>
-      <c r="AM18" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AN18" s="0" t="str">
-        <v>---</v>
+        <v/>
       </c>
     </row>
-    <row r="19" spans="2:40" customFormat="false">
+    <row r="19" spans="2:6" customFormat="false">
       <c r="B19" s="0" t="str">
         <v>---</v>
       </c>
       <c r="C19" s="0" t="str">
-        <v>-B-</v>
+        <v/>
       </c>
       <c r="D19" s="0" t="str">
-        <v>A--</v>
+        <v/>
       </c>
       <c r="E19" s="0" t="str">
-        <v>---</v>
+        <v/>
       </c>
       <c r="F19" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="G19" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="H19" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="I19" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="J19" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="K19" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="L19" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="M19" s="0" t="str">
-        <v>-B-</v>
-      </c>
-      <c r="N19" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="O19" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="P19" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="Q19" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="R19" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="S19" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="T19" s="0" t="str">
-        <v>-B-</v>
-      </c>
-      <c r="U19" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="V19" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="W19" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="X19" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="Y19" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="Z19" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AA19" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AB19" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AC19" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AD19" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AE19" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AF19" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AG19" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AH19" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AI19" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AJ19" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AK19" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AL19" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AM19" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AN19" s="0" t="str">
-        <v>AB-</v>
+        <v/>
       </c>
     </row>
-    <row r="20" spans="2:40" customFormat="false">
+    <row r="20" spans="2:6" customFormat="false">
       <c r="B20" s="0" t="str">
         <v>---</v>
       </c>
       <c r="C20" s="0" t="str">
-        <v>-B-</v>
+        <v/>
       </c>
       <c r="D20" s="0" t="str">
-        <v>A--</v>
+        <v/>
       </c>
       <c r="E20" s="0" t="str">
-        <v>---</v>
+        <v/>
       </c>
       <c r="F20" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="G20" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="H20" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="I20" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="J20" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="K20" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="L20" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="M20" s="0" t="str">
-        <v>-B-</v>
-      </c>
-      <c r="N20" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="O20" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="P20" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="Q20" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="R20" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="S20" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="T20" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="U20" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="V20" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="W20" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="X20" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="Y20" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="Z20" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AA20" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AB20" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AC20" s="0" t="str">
-        <v>A--</v>
-      </c>
-      <c r="AD20" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AE20" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AF20" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="AG20" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AH20" s="0" t="str">
-        <v>-B-</v>
-      </c>
-      <c r="AI20" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AJ20" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AK20" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AL20" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="AM20" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AN20" s="0" t="str">
-        <v>-B-</v>
+        <v/>
       </c>
     </row>
-    <row r="21" spans="2:40" customFormat="false">
+    <row r="21" spans="2:6" customFormat="false">
       <c r="B21" s="0" t="str">
         <v>---</v>
       </c>
       <c r="C21" s="0" t="str">
-        <v>-B-</v>
+        <v/>
       </c>
       <c r="D21" s="0" t="str">
-        <v>A--</v>
+        <v/>
       </c>
       <c r="E21" s="0" t="str">
-        <v>---</v>
+        <v/>
       </c>
       <c r="F21" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="G21" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="H21" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="I21" s="0" t="str">
-        <v>A--</v>
-      </c>
-      <c r="J21" s="0" t="str">
-        <v>A--</v>
-      </c>
-      <c r="K21" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="L21" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="M21" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="N21" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="O21" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="P21" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="Q21" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="R21" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="S21" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="T21" s="0" t="str">
-        <v>-BC</v>
-      </c>
-      <c r="U21" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="V21" s="0" t="str">
-        <v>A--</v>
-      </c>
-      <c r="W21" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="X21" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="Y21" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="Z21" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AA21" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AB21" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AC21" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AD21" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AE21" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AF21" s="0" t="str">
-        <v>A--</v>
-      </c>
-      <c r="AG21" s="0" t="str">
-        <v>-B-</v>
-      </c>
-      <c r="AH21" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AI21" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AJ21" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AK21" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AL21" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AM21" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AN21" s="0" t="str">
-        <v>---</v>
+        <v/>
       </c>
     </row>
-    <row r="22" spans="2:40" customFormat="false">
+    <row r="22" spans="2:6" customFormat="false">
       <c r="B22" s="0" t="str">
-        <v>AB-</v>
+        <v>CC-</v>
       </c>
       <c r="C22" s="0" t="str">
-        <v>-B-</v>
+        <v/>
       </c>
       <c r="D22" s="0" t="str">
-        <v>A--</v>
+        <v/>
       </c>
       <c r="E22" s="0" t="str">
-        <v>A--</v>
+        <v/>
       </c>
       <c r="F22" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="G22" s="0" t="str">
-        <v>-BC</v>
-      </c>
-      <c r="H22" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="I22" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="J22" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="K22" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="L22" s="0" t="str">
-        <v>-BC</v>
-      </c>
-      <c r="M22" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="N22" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="O22" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="P22" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="Q22" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="R22" s="0" t="str">
-        <v>-B-</v>
-      </c>
-      <c r="S22" s="0" t="str">
-        <v>-B-</v>
-      </c>
-      <c r="T22" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="U22" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="V22" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="W22" s="0" t="str">
-        <v>-BC</v>
-      </c>
-      <c r="X22" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="Y22" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="Z22" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="AA22" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AB22" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AC22" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AD22" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="AE22" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AF22" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AG22" s="0" t="str">
-        <v>A--</v>
-      </c>
-      <c r="AH22" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="AI22" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AJ22" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AK22" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="AL22" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="AM22" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="AN22" s="0" t="str">
-        <v>---</v>
+        <v/>
       </c>
     </row>
-    <row r="23" spans="2:40" customFormat="false">
+    <row r="23" spans="2:6" customFormat="false">
       <c r="B23" s="0" t="str">
         <v>--C</v>
       </c>
       <c r="C23" s="0" t="str">
-        <v>---</v>
+        <v/>
       </c>
       <c r="D23" s="0" t="str">
-        <v>A--</v>
+        <v/>
       </c>
       <c r="E23" s="0" t="str">
-        <v>---</v>
+        <v/>
       </c>
       <c r="F23" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="G23" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="H23" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="I23" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="J23" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="K23" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="L23" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="M23" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="N23" s="0" t="str">
-        <v>-BC</v>
-      </c>
-      <c r="O23" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="P23" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="Q23" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="R23" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="S23" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="T23" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="U23" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="V23" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="W23" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="X23" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="Y23" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="Z23" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AA23" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="AB23" s="0" t="str">
-        <v>-BC</v>
-      </c>
-      <c r="AC23" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="AD23" s="0" t="str">
-        <v>-BC</v>
-      </c>
-      <c r="AE23" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AF23" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AG23" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AH23" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AI23" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AJ23" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AK23" s="0" t="str">
-        <v>A--</v>
-      </c>
-      <c r="AL23" s="0" t="str">
-        <v>-BC</v>
-      </c>
-      <c r="AM23" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AN23" s="0" t="str">
-        <v>-B-</v>
+        <v/>
       </c>
     </row>
-    <row r="24" spans="2:40" customFormat="false">
+    <row r="24" spans="2:6" customFormat="false">
       <c r="B24" s="0" t="str">
         <v>---</v>
       </c>
       <c r="C24" s="0" t="str">
-        <v>---</v>
+        <v/>
       </c>
       <c r="D24" s="0" t="str">
-        <v>ABC</v>
+        <v/>
       </c>
       <c r="E24" s="0" t="str">
-        <v>ABC</v>
+        <v/>
       </c>
       <c r="F24" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="G24" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="H24" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="I24" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="J24" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="K24" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="L24" s="0" t="str">
-        <v>-B-</v>
-      </c>
-      <c r="M24" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="N24" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="O24" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="P24" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="Q24" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="R24" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="S24" s="0" t="str">
-        <v>-BC</v>
-      </c>
-      <c r="T24" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="U24" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="V24" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="W24" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="X24" s="0" t="str">
-        <v>-B-</v>
-      </c>
-      <c r="Y24" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="Z24" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="AA24" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AB24" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AC24" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AD24" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AE24" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AF24" s="0" t="str">
-        <v>-BC</v>
-      </c>
-      <c r="AG24" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AH24" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AI24" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AJ24" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AK24" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AL24" s="0" t="str">
-        <v>-BC</v>
-      </c>
-      <c r="AM24" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="AN24" s="0" t="str">
-        <v>---</v>
+        <v/>
       </c>
     </row>
-    <row r="25" spans="2:40" customFormat="false">
+    <row r="25" spans="2:6" customFormat="false">
       <c r="B25" s="0" t="str">
         <v/>
       </c>
@@ -14882,108 +12431,6 @@
         <v/>
       </c>
       <c r="F25" s="0" t="str">
-        <v/>
-      </c>
-      <c r="G25" s="0" t="str">
-        <v/>
-      </c>
-      <c r="H25" s="0" t="str">
-        <v/>
-      </c>
-      <c r="I25" s="0" t="str">
-        <v/>
-      </c>
-      <c r="J25" s="0" t="str">
-        <v/>
-      </c>
-      <c r="K25" s="0" t="str">
-        <v/>
-      </c>
-      <c r="L25" s="0" t="str">
-        <v/>
-      </c>
-      <c r="M25" s="0" t="str">
-        <v/>
-      </c>
-      <c r="N25" s="0" t="str">
-        <v/>
-      </c>
-      <c r="O25" s="0" t="str">
-        <v/>
-      </c>
-      <c r="P25" s="0" t="str">
-        <v/>
-      </c>
-      <c r="Q25" s="0" t="str">
-        <v/>
-      </c>
-      <c r="R25" s="0" t="str">
-        <v/>
-      </c>
-      <c r="S25" s="0" t="str">
-        <v/>
-      </c>
-      <c r="T25" s="0" t="str">
-        <v/>
-      </c>
-      <c r="U25" s="0" t="str">
-        <v/>
-      </c>
-      <c r="V25" s="0" t="str">
-        <v/>
-      </c>
-      <c r="W25" s="0" t="str">
-        <v/>
-      </c>
-      <c r="X25" s="0" t="str">
-        <v/>
-      </c>
-      <c r="Y25" s="0" t="str">
-        <v/>
-      </c>
-      <c r="Z25" s="0" t="str">
-        <v/>
-      </c>
-      <c r="AA25" s="0" t="str">
-        <v/>
-      </c>
-      <c r="AB25" s="0" t="str">
-        <v/>
-      </c>
-      <c r="AC25" s="0" t="str">
-        <v/>
-      </c>
-      <c r="AD25" s="0" t="str">
-        <v/>
-      </c>
-      <c r="AE25" s="0" t="str">
-        <v/>
-      </c>
-      <c r="AF25" s="0" t="str">
-        <v/>
-      </c>
-      <c r="AG25" s="0" t="str">
-        <v/>
-      </c>
-      <c r="AH25" s="0" t="str">
-        <v/>
-      </c>
-      <c r="AI25" s="0" t="str">
-        <v/>
-      </c>
-      <c r="AJ25" s="0" t="str">
-        <v/>
-      </c>
-      <c r="AK25" s="0" t="str">
-        <v/>
-      </c>
-      <c r="AL25" s="0" t="str">
-        <v/>
-      </c>
-      <c r="AM25" s="0" t="str">
-        <v/>
-      </c>
-      <c r="AN25" s="0" t="str">
         <v/>
       </c>
     </row>

--- a/speaking.xlsx
+++ b/speaking.xlsx
@@ -11995,7 +11995,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
-  <dimension ref="B1:F25"/>
+  <dimension ref="B1:AN25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
@@ -12009,7 +12009,7 @@
     <col min="5" max="5" width="30.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" customFormat="false">
+    <row r="1" spans="2:40" customFormat="false">
       <c r="B1" s="0" t="str">
         <v>aaron.nesnow846@gaston.k12.nc.us</v>
       </c>
@@ -12025,399 +12025,2847 @@
       <c r="F1" s="0" t="str">
         <v>aleigha.letterman215@gaston.k12.nc.us</v>
       </c>
+      <c r="G1" s="0" t="str">
+        <v>aleigha.letterman215@gaston.k12.nc.us</v>
+      </c>
+      <c r="H1" s="0" t="str">
+        <v>anna.kleffnerspencer042@gaston.k12.nc.us</v>
+      </c>
+      <c r="I1" s="0" t="str">
+        <v>caleb.costner942@gaston.k12.nc.us</v>
+      </c>
+      <c r="J1" s="0" t="str">
+        <v>dalton.harmon921@gaston.k12.nc.us</v>
+      </c>
+      <c r="K1" s="0" t="str">
+        <v>douglas.farley537@gaston.k12.nc.us</v>
+      </c>
+      <c r="L1" s="0" t="str">
+        <v>elizabeth.suarez717@gaston.k12.nc.us</v>
+      </c>
+      <c r="M1" s="0" t="str">
+        <v>grace.deaton440@gaston.k12.nc.us</v>
+      </c>
+      <c r="N1" s="0" t="str">
+        <v>hannah.berckman208@gaston.k12.nc.us</v>
+      </c>
+      <c r="O1" s="0" t="str">
+        <v>hannah.cribby469@gaston.k12.nc.us</v>
+      </c>
+      <c r="P1" s="0" t="str">
+        <v>haylee.franckewitz955@gaston.k12.nc.us</v>
+      </c>
+      <c r="Q1" s="0" t="str">
+        <v>james.abee815@gaston.k12.nc.us</v>
+      </c>
+      <c r="R1" s="0" t="str">
+        <v>james.abee815@gaston.k12.nc.us</v>
+      </c>
+      <c r="S1" s="0" t="str">
+        <v>james.lynn958@gaston.k12.nc.us</v>
+      </c>
+      <c r="T1" s="0" t="str">
+        <v>jared.godwin616@gaston.k12.nc.us</v>
+      </c>
+      <c r="U1" s="0" t="str">
+        <v>jessica.kirby006@gaston.k12.nc.us</v>
+      </c>
+      <c r="V1" s="0" t="str">
+        <v>jessica.payne425@gaston.k12.nc.us</v>
+      </c>
+      <c r="W1" s="0" t="str">
+        <v>kalynne.helms096@gaston.k12.nc.us</v>
+      </c>
+      <c r="X1" s="0" t="str">
+        <v>karmen.scruggs776@gaston.k12.nc.us</v>
+      </c>
+      <c r="Y1" s="0" t="str">
+        <v>kayla.shannon027@gaston.k12.nc.us</v>
+      </c>
+      <c r="Z1" s="0" t="str">
+        <v>kayla.williamson843@gaston.k12.nc.us</v>
+      </c>
+      <c r="AA1" s="0" t="str">
+        <v>kimberly.queen686@gaston.k12.nc.us</v>
+      </c>
+      <c r="AB1" s="0" t="str">
+        <v>kyra.rhyne012@gaston.k12.nc.us</v>
+      </c>
+      <c r="AC1" s="0" t="str">
+        <v>kyra.rhyne012@gaston.k12.nc.us</v>
+      </c>
+      <c r="AD1" s="0" t="str">
+        <v>laurie.ricardo512@gaston.k12.nc.us</v>
+      </c>
+      <c r="AE1" s="0" t="str">
+        <v>ling.zhang885@gaston.k12.nc.us</v>
+      </c>
+      <c r="AF1" s="0" t="str">
+        <v>noah.wollin244@gaston.k12.nc.us</v>
+      </c>
+      <c r="AG1" s="0" t="str">
+        <v>olyvia.knight064@gaston.k12.nc.us</v>
+      </c>
+      <c r="AH1" s="0" t="str">
+        <v>parth.patel358@gaston.k12.nc.us</v>
+      </c>
+      <c r="AI1" s="0" t="str">
+        <v>piper.colangelo050@gaston.k12.nc.us</v>
+      </c>
+      <c r="AJ1" s="0" t="str">
+        <v>riley.kiefer729@gaston.k12.nc.us</v>
+      </c>
+      <c r="AK1" s="0" t="str">
+        <v>sarah.macon201@gaston.k12.nc.us</v>
+      </c>
+      <c r="AL1" s="0" t="str">
+        <v>scott.johnson192@gaston.k12.nc.us</v>
+      </c>
+      <c r="AM1" s="0" t="str">
+        <v>tiffany.weresow255@gaston.k12.nc.us</v>
+      </c>
+      <c r="AN1" s="0" t="str">
+        <v>weston.peavy213@gaston.k12.nc.us</v>
+      </c>
     </row>
-    <row r="2" spans="2:6" customFormat="false">
+    <row r="2" spans="2:40" customFormat="false">
       <c r="B2" s="0" t="str">
         <v>A-C</v>
       </c>
       <c r="C2" s="0" t="str">
-        <v/>
+        <v>ABC</v>
       </c>
       <c r="D2" s="0" t="str">
-        <v/>
+        <v>AB-</v>
       </c>
       <c r="E2" s="0" t="str">
-        <v/>
+        <v>---</v>
       </c>
       <c r="F2" s="0" t="str">
-        <v/>
+        <v>A-C</v>
+      </c>
+      <c r="G2" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="H2" s="0" t="str">
+        <v>-BC</v>
+      </c>
+      <c r="I2" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="J2" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="K2" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="L2" s="0" t="str">
+        <v>A--</v>
+      </c>
+      <c r="M2" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="N2" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="O2" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="P2" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="Q2" s="0" t="str">
+        <v>--C</v>
+      </c>
+      <c r="R2" s="0" t="str">
+        <v>--C</v>
+      </c>
+      <c r="S2" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="T2" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="U2" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="V2" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="W2" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="X2" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="Y2" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="Z2" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="AA2" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AB2" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="AC2" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="AD2" s="0" t="str">
+        <v>-B-</v>
+      </c>
+      <c r="AE2" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AF2" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AG2" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AH2" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AI2" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AJ2" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AK2" s="0" t="str">
+        <v>A--</v>
+      </c>
+      <c r="AL2" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AM2" s="0" t="str">
+        <v>A--</v>
+      </c>
+      <c r="AN2" s="0" t="str">
+        <v>A--</v>
       </c>
     </row>
-    <row r="3" spans="2:6" customFormat="false">
+    <row r="3" spans="2:40" customFormat="false">
       <c r="B3" s="0" t="str">
         <v>-B-</v>
       </c>
       <c r="C3" s="0" t="str">
-        <v/>
+        <v>ABC</v>
       </c>
       <c r="D3" s="0" t="str">
-        <v/>
+        <v>ABC</v>
       </c>
       <c r="E3" s="0" t="str">
-        <v/>
+        <v>---</v>
       </c>
       <c r="F3" s="0" t="str">
-        <v/>
+        <v>--C</v>
+      </c>
+      <c r="G3" s="0" t="str">
+        <v>--C</v>
+      </c>
+      <c r="H3" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="I3" s="0" t="str">
+        <v>--C</v>
+      </c>
+      <c r="J3" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="K3" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="L3" s="0" t="str">
+        <v>--C</v>
+      </c>
+      <c r="M3" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="N3" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="O3" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="P3" s="0" t="str">
+        <v>-B-</v>
+      </c>
+      <c r="Q3" s="0" t="str">
+        <v>A--</v>
+      </c>
+      <c r="R3" s="0" t="str">
+        <v>-B-</v>
+      </c>
+      <c r="S3" s="0" t="str">
+        <v>-BC</v>
+      </c>
+      <c r="T3" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="U3" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="V3" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="W3" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="X3" s="0" t="str">
+        <v>--C</v>
+      </c>
+      <c r="Y3" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="Z3" s="0" t="str">
+        <v>--C</v>
+      </c>
+      <c r="AA3" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="AB3" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="AC3" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AD3" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AE3" s="0" t="str">
+        <v>-B-</v>
+      </c>
+      <c r="AF3" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AG3" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AH3" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="AI3" s="0" t="str">
+        <v>-BC</v>
+      </c>
+      <c r="AJ3" s="0" t="str">
+        <v>A--</v>
+      </c>
+      <c r="AK3" s="0" t="str">
+        <v>A--</v>
+      </c>
+      <c r="AL3" s="0" t="str">
+        <v>-BC</v>
+      </c>
+      <c r="AM3" s="0" t="str">
+        <v>A--</v>
+      </c>
+      <c r="AN3" s="0" t="str">
+        <v>---</v>
       </c>
     </row>
-    <row r="4" spans="2:6" customFormat="false">
+    <row r="4" spans="2:40" customFormat="false">
       <c r="B4" s="0" t="str">
         <v>AB-</v>
       </c>
       <c r="C4" s="0" t="str">
-        <v/>
+        <v>A-C</v>
       </c>
       <c r="D4" s="0" t="str">
-        <v/>
+        <v>AB-</v>
       </c>
       <c r="E4" s="0" t="str">
-        <v/>
+        <v>ABC</v>
       </c>
       <c r="F4" s="0" t="str">
-        <v/>
+        <v>A-C</v>
+      </c>
+      <c r="G4" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="H4" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="I4" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="J4" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="K4" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="L4" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="M4" s="0" t="str">
+        <v>A--</v>
+      </c>
+      <c r="N4" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="O4" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="P4" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="Q4" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="R4" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="S4" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="T4" s="0" t="str">
+        <v>-BC</v>
+      </c>
+      <c r="U4" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="V4" s="0" t="str">
+        <v>-BC</v>
+      </c>
+      <c r="W4" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="X4" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="Y4" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="Z4" s="0" t="str">
+        <v>A--</v>
+      </c>
+      <c r="AA4" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AB4" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AC4" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AD4" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AE4" s="0" t="str">
+        <v>--C</v>
+      </c>
+      <c r="AF4" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AG4" s="0" t="str">
+        <v>A--</v>
+      </c>
+      <c r="AH4" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AI4" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AJ4" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AK4" s="0" t="str">
+        <v>-BC</v>
+      </c>
+      <c r="AL4" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AM4" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="AN4" s="0" t="str">
+        <v>AB-</v>
       </c>
     </row>
-    <row r="5" spans="2:6" customFormat="false">
+    <row r="5" spans="2:40" customFormat="false">
       <c r="B5" s="0" t="str">
         <v>AC</v>
       </c>
       <c r="C5" s="0" t="str">
-        <v/>
+        <v>AC</v>
       </c>
       <c r="D5" s="0" t="str">
-        <v/>
+        <v>AC</v>
       </c>
       <c r="E5" s="0" t="str">
-        <v/>
+        <v>-C</v>
       </c>
       <c r="F5" s="0" t="str">
-        <v/>
+        <v>-C</v>
+      </c>
+      <c r="G5" s="0" t="str">
+        <v>-C</v>
+      </c>
+      <c r="H5" s="0" t="str">
+        <v>AC</v>
+      </c>
+      <c r="I5" s="0" t="str">
+        <v>AC</v>
+      </c>
+      <c r="J5" s="0" t="str">
+        <v>AC</v>
+      </c>
+      <c r="K5" s="0" t="str">
+        <v>AC</v>
+      </c>
+      <c r="L5" s="0" t="str">
+        <v>--</v>
+      </c>
+      <c r="M5" s="0" t="str">
+        <v>A-</v>
+      </c>
+      <c r="N5" s="0" t="str">
+        <v>AC</v>
+      </c>
+      <c r="O5" s="0" t="str">
+        <v>--</v>
+      </c>
+      <c r="P5" s="0" t="str">
+        <v>--</v>
+      </c>
+      <c r="Q5" s="0" t="str">
+        <v>AC</v>
+      </c>
+      <c r="R5" s="0" t="str">
+        <v>A-</v>
+      </c>
+      <c r="S5" s="0" t="str">
+        <v>-C</v>
+      </c>
+      <c r="T5" s="0" t="str">
+        <v>AC</v>
+      </c>
+      <c r="U5" s="0" t="str">
+        <v>AC</v>
+      </c>
+      <c r="V5" s="0" t="str">
+        <v>-C</v>
+      </c>
+      <c r="W5" s="0" t="str">
+        <v>AC</v>
+      </c>
+      <c r="X5" s="0" t="str">
+        <v>A-</v>
+      </c>
+      <c r="Y5" s="0" t="str">
+        <v>AC</v>
+      </c>
+      <c r="Z5" s="0" t="str">
+        <v>A-</v>
+      </c>
+      <c r="AA5" s="0" t="str">
+        <v>AC</v>
+      </c>
+      <c r="AB5" s="0" t="str">
+        <v>AC</v>
+      </c>
+      <c r="AC5" s="0" t="str">
+        <v>AC</v>
+      </c>
+      <c r="AD5" s="0" t="str">
+        <v>AC</v>
+      </c>
+      <c r="AE5" s="0" t="str">
+        <v>AC</v>
+      </c>
+      <c r="AF5" s="0" t="str">
+        <v>AC</v>
+      </c>
+      <c r="AG5" s="0" t="str">
+        <v>AC</v>
+      </c>
+      <c r="AH5" s="0" t="str">
+        <v>-C</v>
+      </c>
+      <c r="AI5" s="0" t="str">
+        <v>AC</v>
+      </c>
+      <c r="AJ5" s="0" t="str">
+        <v>AC</v>
+      </c>
+      <c r="AK5" s="0" t="str">
+        <v>AC</v>
+      </c>
+      <c r="AL5" s="0" t="str">
+        <v>-C</v>
+      </c>
+      <c r="AM5" s="0" t="str">
+        <v>AC</v>
+      </c>
+      <c r="AN5" s="0" t="str">
+        <v>--</v>
       </c>
     </row>
-    <row r="6" spans="2:6" customFormat="false">
+    <row r="6" spans="2:40" customFormat="false">
       <c r="B6" s="0" t="str">
-        <v>C-C</v>
+        <v>A-C</v>
       </c>
       <c r="C6" s="0" t="str">
-        <v/>
+        <v>---</v>
       </c>
       <c r="D6" s="0" t="str">
-        <v/>
+        <v>-BC</v>
       </c>
       <c r="E6" s="0" t="str">
-        <v/>
+        <v>---</v>
       </c>
       <c r="F6" s="0" t="str">
-        <v/>
+        <v>--C</v>
+      </c>
+      <c r="G6" s="0" t="str">
+        <v>--C</v>
+      </c>
+      <c r="H6" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="I6" s="0" t="str">
+        <v>-B-</v>
+      </c>
+      <c r="J6" s="0" t="str">
+        <v>--C</v>
+      </c>
+      <c r="K6" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="L6" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="M6" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="N6" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="O6" s="0" t="str">
+        <v>-B-</v>
+      </c>
+      <c r="P6" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="Q6" s="0" t="str">
+        <v>-B-</v>
+      </c>
+      <c r="R6" s="0" t="str">
+        <v>--C</v>
+      </c>
+      <c r="S6" s="0" t="str">
+        <v>A--</v>
+      </c>
+      <c r="T6" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="U6" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="V6" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="W6" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="X6" s="0" t="str">
+        <v>--C</v>
+      </c>
+      <c r="Y6" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="Z6" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AA6" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AB6" s="0" t="str">
+        <v>-BC</v>
+      </c>
+      <c r="AC6" s="0" t="str">
+        <v>-B-</v>
+      </c>
+      <c r="AD6" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="AE6" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AF6" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AG6" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AH6" s="0" t="str">
+        <v>--C</v>
+      </c>
+      <c r="AI6" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AJ6" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AK6" s="0" t="str">
+        <v>-B-</v>
+      </c>
+      <c r="AL6" s="0" t="str">
+        <v>--C</v>
+      </c>
+      <c r="AM6" s="0" t="str">
+        <v>-BC</v>
+      </c>
+      <c r="AN6" s="0" t="str">
+        <v>---</v>
       </c>
     </row>
-    <row r="7" spans="2:6" customFormat="false">
+    <row r="7" spans="2:40" customFormat="false">
       <c r="B7" s="0" t="str">
-        <v>CC-</v>
+        <v>AB-</v>
       </c>
       <c r="C7" s="0" t="str">
-        <v/>
+        <v>ABC</v>
       </c>
       <c r="D7" s="0" t="str">
-        <v/>
+        <v>ABC</v>
       </c>
       <c r="E7" s="0" t="str">
-        <v/>
+        <v>---</v>
       </c>
       <c r="F7" s="0" t="str">
-        <v/>
+        <v>A-C</v>
+      </c>
+      <c r="G7" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="H7" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="I7" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="J7" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="K7" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="L7" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="M7" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="N7" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="O7" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="P7" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="Q7" s="0" t="str">
+        <v>--C</v>
+      </c>
+      <c r="R7" s="0" t="str">
+        <v>--C</v>
+      </c>
+      <c r="S7" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="T7" s="0" t="str">
+        <v>-BC</v>
+      </c>
+      <c r="U7" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="V7" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="W7" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="X7" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="Y7" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="Z7" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AA7" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AB7" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AC7" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AD7" s="0" t="str">
+        <v>-BC</v>
+      </c>
+      <c r="AE7" s="0" t="str">
+        <v>-B-</v>
+      </c>
+      <c r="AF7" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AG7" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AH7" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AI7" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AJ7" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AK7" s="0" t="str">
+        <v>A--</v>
+      </c>
+      <c r="AL7" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AM7" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="AN7" s="0" t="str">
+        <v>AB-</v>
       </c>
     </row>
-    <row r="8" spans="2:6" customFormat="false">
+    <row r="8" spans="2:40" customFormat="false">
       <c r="B8" s="0" t="str">
-        <v>C--</v>
+        <v>A--</v>
       </c>
       <c r="C8" s="0" t="str">
-        <v/>
+        <v>ABC</v>
       </c>
       <c r="D8" s="0" t="str">
-        <v/>
+        <v>AB-</v>
       </c>
       <c r="E8" s="0" t="str">
-        <v/>
+        <v>---</v>
       </c>
       <c r="F8" s="0" t="str">
-        <v/>
+        <v>--C</v>
+      </c>
+      <c r="G8" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="H8" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="I8" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="J8" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="K8" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="L8" s="0" t="str">
+        <v>-BC</v>
+      </c>
+      <c r="M8" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="N8" s="0" t="str">
+        <v>A--</v>
+      </c>
+      <c r="O8" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="P8" s="0" t="str">
+        <v>A--</v>
+      </c>
+      <c r="Q8" s="0" t="str">
+        <v>A--</v>
+      </c>
+      <c r="R8" s="0" t="str">
+        <v>-B-</v>
+      </c>
+      <c r="S8" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="T8" s="0" t="str">
+        <v>-B-</v>
+      </c>
+      <c r="U8" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="V8" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="W8" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="X8" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="Y8" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="Z8" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AA8" s="0" t="str">
+        <v>--C</v>
+      </c>
+      <c r="AB8" s="0" t="str">
+        <v>-BC</v>
+      </c>
+      <c r="AC8" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AD8" s="0" t="str">
+        <v>-B-</v>
+      </c>
+      <c r="AE8" s="0" t="str">
+        <v>A--</v>
+      </c>
+      <c r="AF8" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AG8" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AH8" s="0" t="str">
+        <v>A--</v>
+      </c>
+      <c r="AI8" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AJ8" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AK8" s="0" t="str">
+        <v>A--</v>
+      </c>
+      <c r="AL8" s="0" t="str">
+        <v>A--</v>
+      </c>
+      <c r="AM8" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="AN8" s="0" t="str">
+        <v>---</v>
       </c>
     </row>
-    <row r="9" spans="2:6" customFormat="false">
+    <row r="9" spans="2:40" customFormat="false">
       <c r="B9" s="0" t="str">
-        <v>CC</v>
+        <v>AB</v>
       </c>
       <c r="C9" s="0" t="str">
-        <v/>
+        <v>--</v>
       </c>
       <c r="D9" s="0" t="str">
-        <v/>
+        <v>AB</v>
       </c>
       <c r="E9" s="0" t="str">
-        <v/>
+        <v>AB</v>
       </c>
       <c r="F9" s="0" t="str">
-        <v/>
+        <v>A-</v>
+      </c>
+      <c r="G9" s="0" t="str">
+        <v>A-</v>
+      </c>
+      <c r="H9" s="0" t="str">
+        <v>A-</v>
+      </c>
+      <c r="I9" s="0" t="str">
+        <v>AB</v>
+      </c>
+      <c r="J9" s="0" t="str">
+        <v>AB</v>
+      </c>
+      <c r="K9" s="0" t="str">
+        <v>AB</v>
+      </c>
+      <c r="L9" s="0" t="str">
+        <v>-B</v>
+      </c>
+      <c r="M9" s="0" t="str">
+        <v>A-</v>
+      </c>
+      <c r="N9" s="0" t="str">
+        <v>AB</v>
+      </c>
+      <c r="O9" s="0" t="str">
+        <v>A-</v>
+      </c>
+      <c r="P9" s="0" t="str">
+        <v>--</v>
+      </c>
+      <c r="Q9" s="0" t="str">
+        <v>-B</v>
+      </c>
+      <c r="R9" s="0" t="str">
+        <v>--</v>
+      </c>
+      <c r="S9" s="0" t="str">
+        <v>AB</v>
+      </c>
+      <c r="T9" s="0" t="str">
+        <v>A-</v>
+      </c>
+      <c r="U9" s="0" t="str">
+        <v>--</v>
+      </c>
+      <c r="V9" s="0" t="str">
+        <v>--</v>
+      </c>
+      <c r="W9" s="0" t="str">
+        <v>-B</v>
+      </c>
+      <c r="X9" s="0" t="str">
+        <v>AB</v>
+      </c>
+      <c r="Y9" s="0" t="str">
+        <v>AB</v>
+      </c>
+      <c r="Z9" s="0" t="str">
+        <v>A-</v>
+      </c>
+      <c r="AA9" s="0" t="str">
+        <v>AB</v>
+      </c>
+      <c r="AB9" s="0" t="str">
+        <v>AB</v>
+      </c>
+      <c r="AC9" s="0" t="str">
+        <v>AB</v>
+      </c>
+      <c r="AD9" s="0" t="str">
+        <v>AB</v>
+      </c>
+      <c r="AE9" s="0" t="str">
+        <v>AB</v>
+      </c>
+      <c r="AF9" s="0" t="str">
+        <v>A-</v>
+      </c>
+      <c r="AG9" s="0" t="str">
+        <v>AB</v>
+      </c>
+      <c r="AH9" s="0" t="str">
+        <v>AB</v>
+      </c>
+      <c r="AI9" s="0" t="str">
+        <v>AB</v>
+      </c>
+      <c r="AJ9" s="0" t="str">
+        <v>--</v>
+      </c>
+      <c r="AK9" s="0" t="str">
+        <v>AB</v>
+      </c>
+      <c r="AL9" s="0" t="str">
+        <v>--</v>
+      </c>
+      <c r="AM9" s="0" t="str">
+        <v>AB</v>
+      </c>
+      <c r="AN9" s="0" t="str">
+        <v>-B</v>
       </c>
     </row>
-    <row r="10" spans="2:6" customFormat="false">
+    <row r="10" spans="2:40" customFormat="false">
       <c r="B10" s="0" t="str">
-        <v>C--</v>
+        <v>A--</v>
       </c>
       <c r="C10" s="0" t="str">
-        <v/>
+        <v>--C</v>
       </c>
       <c r="D10" s="0" t="str">
-        <v/>
+        <v>ABC</v>
       </c>
       <c r="E10" s="0" t="str">
-        <v/>
+        <v>AB-</v>
       </c>
       <c r="F10" s="0" t="str">
-        <v/>
+        <v>A-C</v>
+      </c>
+      <c r="G10" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="H10" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="I10" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="J10" s="0" t="str">
+        <v>-BC</v>
+      </c>
+      <c r="K10" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="L10" s="0" t="str">
+        <v>A--</v>
+      </c>
+      <c r="M10" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="N10" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="O10" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="P10" s="0" t="str">
+        <v>-BC</v>
+      </c>
+      <c r="Q10" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="R10" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="S10" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="T10" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="U10" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="V10" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="W10" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="X10" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="Y10" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="Z10" s="0" t="str">
+        <v>--C</v>
+      </c>
+      <c r="AA10" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AB10" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AC10" s="0" t="str">
+        <v>-BC</v>
+      </c>
+      <c r="AD10" s="0" t="str">
+        <v>-B-</v>
+      </c>
+      <c r="AE10" s="0" t="str">
+        <v>-B-</v>
+      </c>
+      <c r="AF10" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AG10" s="0" t="str">
+        <v>A--</v>
+      </c>
+      <c r="AH10" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AI10" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AJ10" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AK10" s="0" t="str">
+        <v>--C</v>
+      </c>
+      <c r="AL10" s="0" t="str">
+        <v>-BC</v>
+      </c>
+      <c r="AM10" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AN10" s="0" t="str">
+        <v>-B-</v>
       </c>
     </row>
-    <row r="11" spans="2:6" customFormat="false">
+    <row r="11" spans="2:40" customFormat="false">
       <c r="B11" s="0" t="str">
-        <v>CCC</v>
+        <v>ABC</v>
       </c>
       <c r="C11" s="0" t="str">
-        <v/>
+        <v>A-C</v>
       </c>
       <c r="D11" s="0" t="str">
-        <v/>
+        <v>AB-</v>
       </c>
       <c r="E11" s="0" t="str">
-        <v/>
+        <v>--C</v>
       </c>
       <c r="F11" s="0" t="str">
-        <v/>
+        <v>A-C</v>
+      </c>
+      <c r="G11" s="0" t="str">
+        <v>-BC</v>
+      </c>
+      <c r="H11" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="I11" s="0" t="str">
+        <v>-B-</v>
+      </c>
+      <c r="J11" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="K11" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="L11" s="0" t="str">
+        <v>-BC</v>
+      </c>
+      <c r="M11" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="N11" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="O11" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="P11" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="Q11" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="R11" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="S11" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="T11" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="U11" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="V11" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="W11" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="X11" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="Y11" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="Z11" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="AA11" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AB11" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AC11" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AD11" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AE11" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="AF11" s="0" t="str">
+        <v>-BC</v>
+      </c>
+      <c r="AG11" s="0" t="str">
+        <v>A--</v>
+      </c>
+      <c r="AH11" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AI11" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AJ11" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AK11" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AL11" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AM11" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="AN11" s="0" t="str">
+        <v>A--</v>
       </c>
     </row>
-    <row r="12" spans="2:6" customFormat="false">
+    <row r="12" spans="2:40" customFormat="false">
       <c r="B12" s="0" t="str">
         <v>--</v>
       </c>
       <c r="C12" s="0" t="str">
-        <v/>
+        <v>A-</v>
       </c>
       <c r="D12" s="0" t="str">
-        <v/>
+        <v>A-</v>
       </c>
       <c r="E12" s="0" t="str">
-        <v/>
+        <v>--</v>
       </c>
       <c r="F12" s="0" t="str">
-        <v/>
+        <v>--</v>
+      </c>
+      <c r="G12" s="0" t="str">
+        <v>--</v>
+      </c>
+      <c r="H12" s="0" t="str">
+        <v>--</v>
+      </c>
+      <c r="I12" s="0" t="str">
+        <v>-B</v>
+      </c>
+      <c r="J12" s="0" t="str">
+        <v>AB</v>
+      </c>
+      <c r="K12" s="0" t="str">
+        <v>--</v>
+      </c>
+      <c r="L12" s="0" t="str">
+        <v>--</v>
+      </c>
+      <c r="M12" s="0" t="str">
+        <v>--</v>
+      </c>
+      <c r="N12" s="0" t="str">
+        <v>--</v>
+      </c>
+      <c r="O12" s="0" t="str">
+        <v>--</v>
+      </c>
+      <c r="P12" s="0" t="str">
+        <v>--</v>
+      </c>
+      <c r="Q12" s="0" t="str">
+        <v>--</v>
+      </c>
+      <c r="R12" s="0" t="str">
+        <v>A-</v>
+      </c>
+      <c r="S12" s="0" t="str">
+        <v>A-</v>
+      </c>
+      <c r="T12" s="0" t="str">
+        <v>A-</v>
+      </c>
+      <c r="U12" s="0" t="str">
+        <v>AB</v>
+      </c>
+      <c r="V12" s="0" t="str">
+        <v>AB</v>
+      </c>
+      <c r="W12" s="0" t="str">
+        <v>--</v>
+      </c>
+      <c r="X12" s="0" t="str">
+        <v>--</v>
+      </c>
+      <c r="Y12" s="0" t="str">
+        <v>--</v>
+      </c>
+      <c r="Z12" s="0" t="str">
+        <v>--</v>
+      </c>
+      <c r="AA12" s="0" t="str">
+        <v>--</v>
+      </c>
+      <c r="AB12" s="0" t="str">
+        <v>A-</v>
+      </c>
+      <c r="AC12" s="0" t="str">
+        <v>--</v>
+      </c>
+      <c r="AD12" s="0" t="str">
+        <v>--</v>
+      </c>
+      <c r="AE12" s="0" t="str">
+        <v>--</v>
+      </c>
+      <c r="AF12" s="0" t="str">
+        <v>--</v>
+      </c>
+      <c r="AG12" s="0" t="str">
+        <v>AB</v>
+      </c>
+      <c r="AH12" s="0" t="str">
+        <v>--</v>
+      </c>
+      <c r="AI12" s="0" t="str">
+        <v>--</v>
+      </c>
+      <c r="AJ12" s="0" t="str">
+        <v>A-</v>
+      </c>
+      <c r="AK12" s="0" t="str">
+        <v>--</v>
+      </c>
+      <c r="AL12" s="0" t="str">
+        <v>--</v>
+      </c>
+      <c r="AM12" s="0" t="str">
+        <v>AB</v>
+      </c>
+      <c r="AN12" s="0" t="str">
+        <v>--</v>
       </c>
     </row>
-    <row r="13" spans="2:6" customFormat="false">
+    <row r="13" spans="2:40" customFormat="false">
       <c r="B13" s="0" t="str">
-        <v>C---</v>
+        <v>A---</v>
       </c>
       <c r="C13" s="0" t="str">
-        <v/>
+        <v>ABCC</v>
       </c>
       <c r="D13" s="0" t="str">
-        <v/>
+        <v>ABCC</v>
       </c>
       <c r="E13" s="0" t="str">
-        <v/>
+        <v>----</v>
       </c>
       <c r="F13" s="0" t="str">
-        <v/>
+        <v>A-CC</v>
+      </c>
+      <c r="G13" s="0" t="str">
+        <v>AB-C</v>
+      </c>
+      <c r="H13" s="0" t="str">
+        <v>-B-C</v>
+      </c>
+      <c r="I13" s="0" t="str">
+        <v>AB-C</v>
+      </c>
+      <c r="J13" s="0" t="str">
+        <v>ABCC</v>
+      </c>
+      <c r="K13" s="0" t="str">
+        <v>A--C</v>
+      </c>
+      <c r="L13" s="0" t="str">
+        <v>AB-C</v>
+      </c>
+      <c r="M13" s="0" t="str">
+        <v>A-CC</v>
+      </c>
+      <c r="N13" s="0" t="str">
+        <v>-B--</v>
+      </c>
+      <c r="O13" s="0" t="str">
+        <v>----</v>
+      </c>
+      <c r="P13" s="0" t="str">
+        <v>----</v>
+      </c>
+      <c r="Q13" s="0" t="str">
+        <v>A--C</v>
+      </c>
+      <c r="R13" s="0" t="str">
+        <v>-B--</v>
+      </c>
+      <c r="S13" s="0" t="str">
+        <v>AB-C</v>
+      </c>
+      <c r="T13" s="0" t="str">
+        <v>-B--</v>
+      </c>
+      <c r="U13" s="0" t="str">
+        <v>ABC-</v>
+      </c>
+      <c r="V13" s="0" t="str">
+        <v>ABCC</v>
+      </c>
+      <c r="W13" s="0" t="str">
+        <v>ABC-</v>
+      </c>
+      <c r="X13" s="0" t="str">
+        <v>----</v>
+      </c>
+      <c r="Y13" s="0" t="str">
+        <v>AB-C</v>
+      </c>
+      <c r="Z13" s="0" t="str">
+        <v>---C</v>
+      </c>
+      <c r="AA13" s="0" t="str">
+        <v>----</v>
+      </c>
+      <c r="AB13" s="0" t="str">
+        <v>-B--</v>
+      </c>
+      <c r="AC13" s="0" t="str">
+        <v>----</v>
+      </c>
+      <c r="AD13" s="0" t="str">
+        <v>----</v>
+      </c>
+      <c r="AE13" s="0" t="str">
+        <v>-B-C</v>
+      </c>
+      <c r="AF13" s="0" t="str">
+        <v>AB-C</v>
+      </c>
+      <c r="AG13" s="0" t="str">
+        <v>--C-</v>
+      </c>
+      <c r="AH13" s="0" t="str">
+        <v>A---</v>
+      </c>
+      <c r="AI13" s="0" t="str">
+        <v>A---</v>
+      </c>
+      <c r="AJ13" s="0" t="str">
+        <v>----</v>
+      </c>
+      <c r="AK13" s="0" t="str">
+        <v>----</v>
+      </c>
+      <c r="AL13" s="0" t="str">
+        <v>-BCC</v>
+      </c>
+      <c r="AM13" s="0" t="str">
+        <v>AB-C</v>
+      </c>
+      <c r="AN13" s="0" t="str">
+        <v>----</v>
       </c>
     </row>
-    <row r="14" spans="2:6" customFormat="false">
+    <row r="14" spans="2:40" customFormat="false">
       <c r="B14" s="0" t="str">
-        <v>CCC</v>
+        <v>ABC</v>
       </c>
       <c r="C14" s="0" t="str">
-        <v/>
+        <v>A-C</v>
       </c>
       <c r="D14" s="0" t="str">
-        <v/>
+        <v>A-C</v>
       </c>
       <c r="E14" s="0" t="str">
-        <v/>
+        <v>--C</v>
       </c>
       <c r="F14" s="0" t="str">
-        <v/>
+        <v>A-C</v>
+      </c>
+      <c r="G14" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="H14" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="I14" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="J14" s="0" t="str">
+        <v>--C</v>
+      </c>
+      <c r="K14" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="L14" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="M14" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="N14" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="O14" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="P14" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="Q14" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="R14" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="S14" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="T14" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="U14" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="V14" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="W14" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="X14" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="Y14" s="0" t="str">
+        <v>A--</v>
+      </c>
+      <c r="Z14" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AA14" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AB14" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AC14" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AD14" s="0" t="str">
+        <v>-BC</v>
+      </c>
+      <c r="AE14" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AF14" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AG14" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AH14" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AI14" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="AJ14" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AK14" s="0" t="str">
+        <v>A--</v>
+      </c>
+      <c r="AL14" s="0" t="str">
+        <v>-BC</v>
+      </c>
+      <c r="AM14" s="0" t="str">
+        <v>A--</v>
+      </c>
+      <c r="AN14" s="0" t="str">
+        <v>AB-</v>
       </c>
     </row>
-    <row r="15" spans="2:6" customFormat="false">
+    <row r="15" spans="2:40" customFormat="false">
       <c r="B15" s="0" t="str">
-        <v>CCC</v>
+        <v>ABC</v>
       </c>
       <c r="C15" s="0" t="str">
-        <v/>
+        <v>ABC</v>
       </c>
       <c r="D15" s="0" t="str">
-        <v/>
+        <v>ABC</v>
       </c>
       <c r="E15" s="0" t="str">
-        <v/>
+        <v>ABC</v>
       </c>
       <c r="F15" s="0" t="str">
-        <v/>
+        <v>A-C</v>
+      </c>
+      <c r="G15" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="H15" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="I15" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="J15" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="K15" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="L15" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="M15" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="N15" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="O15" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="P15" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="Q15" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="R15" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="S15" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="T15" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="U15" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="V15" s="0" t="str">
+        <v>-BC</v>
+      </c>
+      <c r="W15" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="X15" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="Y15" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="Z15" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AA15" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AB15" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AC15" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AD15" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="AE15" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AF15" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AG15" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AH15" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AI15" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AJ15" s="0" t="str">
+        <v>-BC</v>
+      </c>
+      <c r="AK15" s="0" t="str">
+        <v>-BC</v>
+      </c>
+      <c r="AL15" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="AM15" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AN15" s="0" t="str">
+        <v>AB-</v>
       </c>
     </row>
-    <row r="16" spans="2:6" customFormat="false">
+    <row r="16" spans="2:40" customFormat="false">
       <c r="B16" s="0" t="str">
-        <v>CCC</v>
+        <v>ABC</v>
       </c>
       <c r="C16" s="0" t="str">
-        <v/>
+        <v>A--</v>
       </c>
       <c r="D16" s="0" t="str">
-        <v/>
+        <v>ABC</v>
       </c>
       <c r="E16" s="0" t="str">
-        <v/>
+        <v>-B-</v>
       </c>
       <c r="F16" s="0" t="str">
-        <v/>
+        <v>A-C</v>
+      </c>
+      <c r="G16" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="H16" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="I16" s="0" t="str">
+        <v>-BC</v>
+      </c>
+      <c r="J16" s="0" t="str">
+        <v>--C</v>
+      </c>
+      <c r="K16" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="L16" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="M16" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="N16" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="O16" s="0" t="str">
+        <v>--C</v>
+      </c>
+      <c r="P16" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="Q16" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="R16" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="S16" s="0" t="str">
+        <v>-BC</v>
+      </c>
+      <c r="T16" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="U16" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="V16" s="0" t="str">
+        <v>--C</v>
+      </c>
+      <c r="W16" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="X16" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="Y16" s="0" t="str">
+        <v>-BC</v>
+      </c>
+      <c r="Z16" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="AA16" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AB16" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AC16" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AD16" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AE16" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AF16" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AG16" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="AH16" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AI16" s="0" t="str">
+        <v>A--</v>
+      </c>
+      <c r="AJ16" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AK16" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AL16" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AM16" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AN16" s="0" t="str">
+        <v>---</v>
       </c>
     </row>
-    <row r="17" spans="2:6" customFormat="false">
+    <row r="17" spans="2:40" customFormat="false">
       <c r="B17" s="0" t="str">
-        <v>CCC</v>
+        <v>ABC</v>
       </c>
       <c r="C17" s="0" t="str">
-        <v/>
+        <v>A--</v>
       </c>
       <c r="D17" s="0" t="str">
-        <v/>
+        <v>AB-</v>
       </c>
       <c r="E17" s="0" t="str">
-        <v/>
+        <v>---</v>
       </c>
       <c r="F17" s="0" t="str">
-        <v/>
+        <v>--C</v>
+      </c>
+      <c r="G17" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="H17" s="0" t="str">
+        <v>-BC</v>
+      </c>
+      <c r="I17" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="J17" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="K17" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="L17" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="M17" s="0" t="str">
+        <v>--C</v>
+      </c>
+      <c r="N17" s="0" t="str">
+        <v>A--</v>
+      </c>
+      <c r="O17" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="P17" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="Q17" s="0" t="str">
+        <v>A--</v>
+      </c>
+      <c r="R17" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="S17" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="T17" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="U17" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="V17" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="W17" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="X17" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="Y17" s="0" t="str">
+        <v>-B-</v>
+      </c>
+      <c r="Z17" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AA17" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="AB17" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AC17" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AD17" s="0" t="str">
+        <v>--C</v>
+      </c>
+      <c r="AE17" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AF17" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AG17" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AH17" s="0" t="str">
+        <v>-B-</v>
+      </c>
+      <c r="AI17" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="AJ17" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AK17" s="0" t="str">
+        <v>A--</v>
+      </c>
+      <c r="AL17" s="0" t="str">
+        <v>-BC</v>
+      </c>
+      <c r="AM17" s="0" t="str">
+        <v>A--</v>
+      </c>
+      <c r="AN17" s="0" t="str">
+        <v>-B-</v>
       </c>
     </row>
-    <row r="18" spans="2:6" customFormat="false">
+    <row r="18" spans="2:40" customFormat="false">
       <c r="B18" s="0" t="str">
         <v>---</v>
       </c>
       <c r="C18" s="0" t="str">
-        <v/>
+        <v>-B-</v>
       </c>
       <c r="D18" s="0" t="str">
-        <v/>
+        <v>--C</v>
       </c>
       <c r="E18" s="0" t="str">
-        <v/>
+        <v>---</v>
       </c>
       <c r="F18" s="0" t="str">
-        <v/>
+        <v>--C</v>
+      </c>
+      <c r="G18" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="H18" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="I18" s="0" t="str">
+        <v>-B-</v>
+      </c>
+      <c r="J18" s="0" t="str">
+        <v>-B-</v>
+      </c>
+      <c r="K18" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="L18" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="M18" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="N18" s="0" t="str">
+        <v>-B-</v>
+      </c>
+      <c r="O18" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="P18" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="Q18" s="0" t="str">
+        <v>-B-</v>
+      </c>
+      <c r="R18" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="S18" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="T18" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="U18" s="0" t="str">
+        <v>--C</v>
+      </c>
+      <c r="V18" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="W18" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="X18" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="Y18" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="Z18" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AA18" s="0" t="str">
+        <v>--C</v>
+      </c>
+      <c r="AB18" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AC18" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AD18" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AE18" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="AF18" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="AG18" s="0" t="str">
+        <v>-B-</v>
+      </c>
+      <c r="AH18" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="AI18" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AJ18" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="AK18" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AL18" s="0" t="str">
+        <v>-BC</v>
+      </c>
+      <c r="AM18" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AN18" s="0" t="str">
+        <v>---</v>
       </c>
     </row>
-    <row r="19" spans="2:6" customFormat="false">
+    <row r="19" spans="2:40" customFormat="false">
       <c r="B19" s="0" t="str">
         <v>---</v>
       </c>
       <c r="C19" s="0" t="str">
-        <v/>
+        <v>-B-</v>
       </c>
       <c r="D19" s="0" t="str">
-        <v/>
+        <v>A--</v>
       </c>
       <c r="E19" s="0" t="str">
-        <v/>
+        <v>---</v>
       </c>
       <c r="F19" s="0" t="str">
-        <v/>
+        <v>--C</v>
+      </c>
+      <c r="G19" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="H19" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="I19" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="J19" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="K19" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="L19" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="M19" s="0" t="str">
+        <v>-B-</v>
+      </c>
+      <c r="N19" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="O19" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="P19" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="Q19" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="R19" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="S19" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="T19" s="0" t="str">
+        <v>-B-</v>
+      </c>
+      <c r="U19" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="V19" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="W19" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="X19" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="Y19" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="Z19" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AA19" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AB19" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AC19" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AD19" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AE19" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AF19" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AG19" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AH19" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AI19" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AJ19" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AK19" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AL19" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AM19" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AN19" s="0" t="str">
+        <v>AB-</v>
       </c>
     </row>
-    <row r="20" spans="2:6" customFormat="false">
+    <row r="20" spans="2:40" customFormat="false">
       <c r="B20" s="0" t="str">
         <v>---</v>
       </c>
       <c r="C20" s="0" t="str">
-        <v/>
+        <v>-B-</v>
       </c>
       <c r="D20" s="0" t="str">
-        <v/>
+        <v>A--</v>
       </c>
       <c r="E20" s="0" t="str">
-        <v/>
+        <v>---</v>
       </c>
       <c r="F20" s="0" t="str">
-        <v/>
+        <v>--C</v>
+      </c>
+      <c r="G20" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="H20" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="I20" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="J20" s="0" t="str">
+        <v>--C</v>
+      </c>
+      <c r="K20" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="L20" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="M20" s="0" t="str">
+        <v>-B-</v>
+      </c>
+      <c r="N20" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="O20" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="P20" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="Q20" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="R20" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="S20" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="T20" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="U20" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="V20" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="W20" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="X20" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="Y20" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="Z20" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AA20" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AB20" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AC20" s="0" t="str">
+        <v>A--</v>
+      </c>
+      <c r="AD20" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AE20" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AF20" s="0" t="str">
+        <v>--C</v>
+      </c>
+      <c r="AG20" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AH20" s="0" t="str">
+        <v>-B-</v>
+      </c>
+      <c r="AI20" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AJ20" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AK20" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AL20" s="0" t="str">
+        <v>--C</v>
+      </c>
+      <c r="AM20" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AN20" s="0" t="str">
+        <v>-B-</v>
       </c>
     </row>
-    <row r="21" spans="2:6" customFormat="false">
+    <row r="21" spans="2:40" customFormat="false">
       <c r="B21" s="0" t="str">
         <v>---</v>
       </c>
       <c r="C21" s="0" t="str">
-        <v/>
+        <v>-B-</v>
       </c>
       <c r="D21" s="0" t="str">
-        <v/>
+        <v>A--</v>
       </c>
       <c r="E21" s="0" t="str">
-        <v/>
+        <v>---</v>
       </c>
       <c r="F21" s="0" t="str">
-        <v/>
+        <v>--C</v>
+      </c>
+      <c r="G21" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="H21" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="I21" s="0" t="str">
+        <v>A--</v>
+      </c>
+      <c r="J21" s="0" t="str">
+        <v>A--</v>
+      </c>
+      <c r="K21" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="L21" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="M21" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="N21" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="O21" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="P21" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="Q21" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="R21" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="S21" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="T21" s="0" t="str">
+        <v>-BC</v>
+      </c>
+      <c r="U21" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="V21" s="0" t="str">
+        <v>A--</v>
+      </c>
+      <c r="W21" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="X21" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="Y21" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="Z21" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AA21" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AB21" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AC21" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AD21" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AE21" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AF21" s="0" t="str">
+        <v>A--</v>
+      </c>
+      <c r="AG21" s="0" t="str">
+        <v>-B-</v>
+      </c>
+      <c r="AH21" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AI21" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AJ21" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AK21" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AL21" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AM21" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AN21" s="0" t="str">
+        <v>---</v>
       </c>
     </row>
-    <row r="22" spans="2:6" customFormat="false">
+    <row r="22" spans="2:40" customFormat="false">
       <c r="B22" s="0" t="str">
-        <v>CC-</v>
+        <v>AB-</v>
       </c>
       <c r="C22" s="0" t="str">
-        <v/>
+        <v>-B-</v>
       </c>
       <c r="D22" s="0" t="str">
-        <v/>
+        <v>A--</v>
       </c>
       <c r="E22" s="0" t="str">
-        <v/>
+        <v>A--</v>
       </c>
       <c r="F22" s="0" t="str">
-        <v/>
+        <v>--C</v>
+      </c>
+      <c r="G22" s="0" t="str">
+        <v>-BC</v>
+      </c>
+      <c r="H22" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="I22" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="J22" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="K22" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="L22" s="0" t="str">
+        <v>-BC</v>
+      </c>
+      <c r="M22" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="N22" s="0" t="str">
+        <v>--C</v>
+      </c>
+      <c r="O22" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="P22" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="Q22" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="R22" s="0" t="str">
+        <v>-B-</v>
+      </c>
+      <c r="S22" s="0" t="str">
+        <v>-B-</v>
+      </c>
+      <c r="T22" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="U22" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="V22" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="W22" s="0" t="str">
+        <v>-BC</v>
+      </c>
+      <c r="X22" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="Y22" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="Z22" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="AA22" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AB22" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AC22" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AD22" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="AE22" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AF22" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AG22" s="0" t="str">
+        <v>A--</v>
+      </c>
+      <c r="AH22" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="AI22" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AJ22" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AK22" s="0" t="str">
+        <v>--C</v>
+      </c>
+      <c r="AL22" s="0" t="str">
+        <v>--C</v>
+      </c>
+      <c r="AM22" s="0" t="str">
+        <v>--C</v>
+      </c>
+      <c r="AN22" s="0" t="str">
+        <v>---</v>
       </c>
     </row>
-    <row r="23" spans="2:6" customFormat="false">
+    <row r="23" spans="2:40" customFormat="false">
       <c r="B23" s="0" t="str">
         <v>--C</v>
       </c>
       <c r="C23" s="0" t="str">
-        <v/>
+        <v>---</v>
       </c>
       <c r="D23" s="0" t="str">
-        <v/>
+        <v>A--</v>
       </c>
       <c r="E23" s="0" t="str">
-        <v/>
+        <v>---</v>
       </c>
       <c r="F23" s="0" t="str">
-        <v/>
+        <v>--C</v>
+      </c>
+      <c r="G23" s="0" t="str">
+        <v>--C</v>
+      </c>
+      <c r="H23" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="I23" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="J23" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="K23" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="L23" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="M23" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="N23" s="0" t="str">
+        <v>-BC</v>
+      </c>
+      <c r="O23" s="0" t="str">
+        <v>--C</v>
+      </c>
+      <c r="P23" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="Q23" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="R23" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="S23" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="T23" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="U23" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="V23" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="W23" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="X23" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="Y23" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="Z23" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AA23" s="0" t="str">
+        <v>--C</v>
+      </c>
+      <c r="AB23" s="0" t="str">
+        <v>-BC</v>
+      </c>
+      <c r="AC23" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="AD23" s="0" t="str">
+        <v>-BC</v>
+      </c>
+      <c r="AE23" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AF23" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AG23" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AH23" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AI23" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AJ23" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AK23" s="0" t="str">
+        <v>A--</v>
+      </c>
+      <c r="AL23" s="0" t="str">
+        <v>-BC</v>
+      </c>
+      <c r="AM23" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AN23" s="0" t="str">
+        <v>-B-</v>
       </c>
     </row>
-    <row r="24" spans="2:6" customFormat="false">
+    <row r="24" spans="2:40" customFormat="false">
       <c r="B24" s="0" t="str">
         <v>---</v>
       </c>
       <c r="C24" s="0" t="str">
-        <v/>
+        <v>---</v>
       </c>
       <c r="D24" s="0" t="str">
-        <v/>
+        <v>ABC</v>
       </c>
       <c r="E24" s="0" t="str">
-        <v/>
+        <v>ABC</v>
       </c>
       <c r="F24" s="0" t="str">
-        <v/>
+        <v>A-C</v>
+      </c>
+      <c r="G24" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="H24" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="I24" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="J24" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="K24" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="L24" s="0" t="str">
+        <v>-B-</v>
+      </c>
+      <c r="M24" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="N24" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="O24" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="P24" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="Q24" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="R24" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="S24" s="0" t="str">
+        <v>-BC</v>
+      </c>
+      <c r="T24" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="U24" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="V24" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="W24" s="0" t="str">
+        <v>--C</v>
+      </c>
+      <c r="X24" s="0" t="str">
+        <v>-B-</v>
+      </c>
+      <c r="Y24" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="Z24" s="0" t="str">
+        <v>--C</v>
+      </c>
+      <c r="AA24" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AB24" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AC24" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AD24" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AE24" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AF24" s="0" t="str">
+        <v>-BC</v>
+      </c>
+      <c r="AG24" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AH24" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AI24" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AJ24" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AK24" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AL24" s="0" t="str">
+        <v>-BC</v>
+      </c>
+      <c r="AM24" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="AN24" s="0" t="str">
+        <v>---</v>
       </c>
     </row>
-    <row r="25" spans="2:6" customFormat="false">
+    <row r="25" spans="2:40" customFormat="false">
       <c r="B25" s="0" t="str">
         <v/>
       </c>
@@ -12431,6 +14879,108 @@
         <v/>
       </c>
       <c r="F25" s="0" t="str">
+        <v/>
+      </c>
+      <c r="G25" s="0" t="str">
+        <v/>
+      </c>
+      <c r="H25" s="0" t="str">
+        <v/>
+      </c>
+      <c r="I25" s="0" t="str">
+        <v/>
+      </c>
+      <c r="J25" s="0" t="str">
+        <v/>
+      </c>
+      <c r="K25" s="0" t="str">
+        <v/>
+      </c>
+      <c r="L25" s="0" t="str">
+        <v/>
+      </c>
+      <c r="M25" s="0" t="str">
+        <v/>
+      </c>
+      <c r="N25" s="0" t="str">
+        <v/>
+      </c>
+      <c r="O25" s="0" t="str">
+        <v/>
+      </c>
+      <c r="P25" s="0" t="str">
+        <v/>
+      </c>
+      <c r="Q25" s="0" t="str">
+        <v/>
+      </c>
+      <c r="R25" s="0" t="str">
+        <v/>
+      </c>
+      <c r="S25" s="0" t="str">
+        <v/>
+      </c>
+      <c r="T25" s="0" t="str">
+        <v/>
+      </c>
+      <c r="U25" s="0" t="str">
+        <v/>
+      </c>
+      <c r="V25" s="0" t="str">
+        <v/>
+      </c>
+      <c r="W25" s="0" t="str">
+        <v/>
+      </c>
+      <c r="X25" s="0" t="str">
+        <v/>
+      </c>
+      <c r="Y25" s="0" t="str">
+        <v/>
+      </c>
+      <c r="Z25" s="0" t="str">
+        <v/>
+      </c>
+      <c r="AA25" s="0" t="str">
+        <v/>
+      </c>
+      <c r="AB25" s="0" t="str">
+        <v/>
+      </c>
+      <c r="AC25" s="0" t="str">
+        <v/>
+      </c>
+      <c r="AD25" s="0" t="str">
+        <v/>
+      </c>
+      <c r="AE25" s="0" t="str">
+        <v/>
+      </c>
+      <c r="AF25" s="0" t="str">
+        <v/>
+      </c>
+      <c r="AG25" s="0" t="str">
+        <v/>
+      </c>
+      <c r="AH25" s="0" t="str">
+        <v/>
+      </c>
+      <c r="AI25" s="0" t="str">
+        <v/>
+      </c>
+      <c r="AJ25" s="0" t="str">
+        <v/>
+      </c>
+      <c r="AK25" s="0" t="str">
+        <v/>
+      </c>
+      <c r="AL25" s="0" t="str">
+        <v/>
+      </c>
+      <c r="AM25" s="0" t="str">
+        <v/>
+      </c>
+      <c r="AN25" s="0" t="str">
         <v/>
       </c>
     </row>

--- a/speaking.xlsx
+++ b/speaking.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17766"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\csexton.HICKORYPD\Documents\GitHub\rubytest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\csexton.HICKORYPD\Documents\GitHub\rubyspanishxlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Form Responses 1" sheetId="1" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId5"/>
+    <sheet name="Form Responses 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Form Responses 1'!$A$1:$CJ$40</definedName>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="302" count="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4350" uniqueCount="329">
   <si>
     <t>Timestamp</t>
   </si>
@@ -929,30 +929,111 @@
   </si>
   <si>
     <t>Be able to have the courage to speak.</t>
+  </si>
+  <si>
+    <t>A-C</t>
+  </si>
+  <si>
+    <t>ABC</t>
+  </si>
+  <si>
+    <t>AB-</t>
+  </si>
+  <si>
+    <t>---</t>
+  </si>
+  <si>
+    <t>-BC</t>
+  </si>
+  <si>
+    <t>A--</t>
+  </si>
+  <si>
+    <t>--C</t>
+  </si>
+  <si>
+    <t>-B-</t>
+  </si>
+  <si>
+    <t>AC</t>
+  </si>
+  <si>
+    <t>-C</t>
+  </si>
+  <si>
+    <t>--</t>
+  </si>
+  <si>
+    <t>A-</t>
+  </si>
+  <si>
+    <t>AB</t>
+  </si>
+  <si>
+    <t>-B</t>
+  </si>
+  <si>
+    <t>A---</t>
+  </si>
+  <si>
+    <t>ABCC</t>
+  </si>
+  <si>
+    <t>----</t>
+  </si>
+  <si>
+    <t>A-CC</t>
+  </si>
+  <si>
+    <t>AB-C</t>
+  </si>
+  <si>
+    <t>-B-C</t>
+  </si>
+  <si>
+    <t>A--C</t>
+  </si>
+  <si>
+    <t>-B--</t>
+  </si>
+  <si>
+    <t>ABC-</t>
+  </si>
+  <si>
+    <t>---C</t>
+  </si>
+  <si>
+    <t>--C-</t>
+  </si>
+  <si>
+    <t>-BCC</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
-      <color rgb="FF000000"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
-      <sz val="10"/>
     </font>
     <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
       <name val="Arial"/>
-      <color rgb="FF0000FF"/>
-      <sz val="10"/>
-      <u val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -985,7 +1066,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16" count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1153,53 +1234,53 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
                 <a:tint val="67000"/>
-                <a:satMod val="105000"/>
-                <a:lumMod val="110000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
                 <a:tint val="73000"/>
-                <a:satMod val="103000"/>
-                <a:lumMod val="105000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
                 <a:tint val="81000"/>
-                <a:satMod val="109000"/>
-                <a:lumMod val="105000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="94000"/>
                 <a:satMod val="103000"/>
                 <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="100000"/>
                 <a:satMod val="110000"/>
                 <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
                 <a:shade val="78000"/>
-                <a:satMod val="120000"/>
-                <a:lumMod val="99000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -1234,7 +1315,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="false">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1257,16 +1338,16 @@
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="93000"/>
+                <a:satMod val="150000"/>
                 <a:shade val="98000"/>
-                <a:satMod val="150000"/>
                 <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
                 <a:tint val="98000"/>
+                <a:satMod val="130000"/>
                 <a:shade val="90000"/>
-                <a:satMod val="130000"/>
                 <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
@@ -1277,7 +1358,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -1293,7 +1374,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CJ40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1303,13 +1384,13 @@
       <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.85546875" customWidth="1"/>
     <col min="2" max="88" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:88" customFormat="false" ht="15.75" customHeight="1">
+    <row r="1" spans="1:88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1575,7 +1656,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:88" customFormat="false" ht="15.75" customHeight="1">
+    <row r="2" spans="1:88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>42775.709293587963</v>
       </c>
@@ -1841,7 +1922,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:88" customFormat="false" ht="15.75" customHeight="1">
+    <row r="3" spans="1:88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>42774.651042094905</v>
       </c>
@@ -2107,7 +2188,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:88" customFormat="false" ht="15.75" customHeight="1">
+    <row r="4" spans="1:88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>42774.650523738426</v>
       </c>
@@ -2373,7 +2454,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:88" customFormat="false" ht="15.75" customHeight="1">
+    <row r="5" spans="1:88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>42774.652556516201</v>
       </c>
@@ -2639,7 +2720,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:88" customFormat="false" ht="15.75" customHeight="1">
+    <row r="6" spans="1:88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>42774.653896550924</v>
       </c>
@@ -2905,7 +2986,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:88" customFormat="false" ht="15.75" customHeight="1">
+    <row r="7" spans="1:88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>42775.502814594904</v>
       </c>
@@ -3171,7 +3252,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:88" customFormat="false" ht="15.75" customHeight="1">
+    <row r="8" spans="1:88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>42774.433026203704</v>
       </c>
@@ -3437,7 +3518,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:88" customFormat="false" ht="15.75" customHeight="1">
+    <row r="9" spans="1:88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>42774.431579351847</v>
       </c>
@@ -3703,7 +3784,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="10" spans="1:88" customFormat="false" ht="15.75" customHeight="1">
+    <row r="10" spans="1:88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>42774.652178321761</v>
       </c>
@@ -3969,7 +4050,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="11" spans="1:88" customFormat="false" ht="15.75" customHeight="1">
+    <row r="11" spans="1:88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>42774.435710474536</v>
       </c>
@@ -4235,7 +4316,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="12" spans="1:88" customFormat="false" ht="15.75" customHeight="1">
+    <row r="12" spans="1:88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>42774.652534039356</v>
       </c>
@@ -4501,7 +4582,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="13" spans="1:88" customFormat="false" ht="15.75" customHeight="1">
+    <row r="13" spans="1:88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>42774.644888703704</v>
       </c>
@@ -4767,7 +4848,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="14" spans="1:88" customFormat="false" ht="15.75" customHeight="1">
+    <row r="14" spans="1:88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>42774.656161921295</v>
       </c>
@@ -5033,7 +5114,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="15" spans="1:88" customFormat="false" ht="15.75" customHeight="1">
+    <row r="15" spans="1:88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>42774.430878020838</v>
       </c>
@@ -5299,7 +5380,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="16" spans="1:88" customFormat="false" ht="15.75" customHeight="1">
+    <row r="16" spans="1:88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>42774.434479872682</v>
       </c>
@@ -5565,7 +5646,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="17" spans="1:88" customFormat="false" ht="15.75" customHeight="1">
+    <row r="17" spans="1:88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>42774.4337896875</v>
       </c>
@@ -5831,7 +5912,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="18" spans="1:88" customFormat="false" ht="15.75" customHeight="1">
+    <row r="18" spans="1:88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>42775.84897619213</v>
       </c>
@@ -6097,7 +6178,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="19" spans="1:88" customFormat="false" ht="15.75" customHeight="1">
+    <row r="19" spans="1:88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>42774.435684155091</v>
       </c>
@@ -6363,7 +6444,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="20" spans="1:88" customFormat="false" ht="15.75" customHeight="1">
+    <row r="20" spans="1:88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>42774.896054467594</v>
       </c>
@@ -6629,7 +6710,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="21" spans="1:88" customFormat="false" ht="15.75" customHeight="1">
+    <row r="21" spans="1:88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>42774.428690381945</v>
       </c>
@@ -6895,7 +6976,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="22" spans="1:88" customFormat="false" ht="15.75" customHeight="1">
+    <row r="22" spans="1:88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>42774.432840856476</v>
       </c>
@@ -7161,7 +7242,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="23" spans="1:88" customFormat="false" ht="15.75" customHeight="1">
+    <row r="23" spans="1:88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>42774.655336307871</v>
       </c>
@@ -7427,7 +7508,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="24" spans="1:88" customFormat="false" ht="15.75" customHeight="1">
+    <row r="24" spans="1:88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>42774.655682997683</v>
       </c>
@@ -7693,7 +7774,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="25" spans="1:88" customFormat="false" ht="15.75" customHeight="1">
+    <row r="25" spans="1:88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>42774.429644444448</v>
       </c>
@@ -7959,7 +8040,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="26" spans="1:88" customFormat="false" ht="15.75" customHeight="1">
+    <row r="26" spans="1:88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>42774.432750127315</v>
       </c>
@@ -8225,7 +8306,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="27" spans="1:88" customFormat="false" ht="15.75" customHeight="1">
+    <row r="27" spans="1:88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>42774.434694444441</v>
       </c>
@@ -8491,7 +8572,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="28" spans="1:88" customFormat="false" ht="15.75" customHeight="1">
+    <row r="28" spans="1:88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>42774.656553958332</v>
       </c>
@@ -8757,7 +8838,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="29" spans="1:88" customFormat="false" ht="15.75" customHeight="1">
+    <row r="29" spans="1:88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>42775.859371574072</v>
       </c>
@@ -9023,7 +9104,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="30" spans="1:88" customFormat="false" ht="15.75" customHeight="1">
+    <row r="30" spans="1:88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>42774.430246319447</v>
       </c>
@@ -9289,7 +9370,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="31" spans="1:88" customFormat="false" ht="15.75" customHeight="1">
+    <row r="31" spans="1:88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>42774.652473101851</v>
       </c>
@@ -9555,7 +9636,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="32" spans="1:88" customFormat="false" ht="15.75" customHeight="1">
+    <row r="32" spans="1:88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>42774.436065706017</v>
       </c>
@@ -9821,7 +9902,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="33" spans="1:88" customFormat="false" ht="15.75" customHeight="1">
+    <row r="33" spans="1:88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>42774.656680208333</v>
       </c>
@@ -10087,7 +10168,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="34" spans="1:88" customFormat="false" ht="15.75" customHeight="1">
+    <row r="34" spans="1:88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>42774.434223865741</v>
       </c>
@@ -10353,7 +10434,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="35" spans="1:88" customFormat="false" ht="15.75" customHeight="1">
+    <row r="35" spans="1:88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>42774.431040243056</v>
       </c>
@@ -10619,7 +10700,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="36" spans="1:88" customFormat="false" ht="15.75" customHeight="1">
+    <row r="36" spans="1:88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>42774.659224513889</v>
       </c>
@@ -10885,7 +10966,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="37" spans="1:88" customFormat="false" ht="15.75" customHeight="1">
+    <row r="37" spans="1:88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>42774.43202980324</v>
       </c>
@@ -11151,7 +11232,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="38" spans="1:88" customFormat="false" ht="15.75" customHeight="1">
+    <row r="38" spans="1:88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>42774.434366805552</v>
       </c>
@@ -11417,7 +11498,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="39" spans="1:88" customFormat="false" ht="15.75" customHeight="1">
+    <row r="39" spans="1:88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>42774.428849467593</v>
       </c>
@@ -11683,7 +11764,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="40" spans="1:88" customFormat="false" ht="12.75">
+    <row r="40" spans="1:88" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>42774.656473368057</v>
       </c>
@@ -11994,2994 +12075,2988 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AN25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="U30" sqref="U30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col min="2" max="2" width="32.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.140625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="4.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="2:40" customFormat="false">
-      <c r="B1" s="0" t="str">
-        <v>aaron.nesnow846@gaston.k12.nc.us</v>
-      </c>
-      <c r="C1" s="0" t="str">
-        <v>adison.costner856@gaston.k12.nc.us</v>
-      </c>
-      <c r="D1" s="0" t="str">
-        <v>alana.williams574@gaston.k12.nc.us</v>
-      </c>
-      <c r="E1" s="0" t="str">
-        <v>alanie.odell901@gaston.k12.nc.us</v>
-      </c>
-      <c r="F1" s="0" t="str">
-        <v>aleigha.letterman215@gaston.k12.nc.us</v>
-      </c>
-      <c r="G1" s="0" t="str">
-        <v>aleigha.letterman215@gaston.k12.nc.us</v>
-      </c>
-      <c r="H1" s="0" t="str">
-        <v>anna.kleffnerspencer042@gaston.k12.nc.us</v>
-      </c>
-      <c r="I1" s="0" t="str">
-        <v>caleb.costner942@gaston.k12.nc.us</v>
-      </c>
-      <c r="J1" s="0" t="str">
-        <v>dalton.harmon921@gaston.k12.nc.us</v>
-      </c>
-      <c r="K1" s="0" t="str">
-        <v>douglas.farley537@gaston.k12.nc.us</v>
-      </c>
-      <c r="L1" s="0" t="str">
-        <v>elizabeth.suarez717@gaston.k12.nc.us</v>
-      </c>
-      <c r="M1" s="0" t="str">
-        <v>grace.deaton440@gaston.k12.nc.us</v>
-      </c>
-      <c r="N1" s="0" t="str">
-        <v>hannah.berckman208@gaston.k12.nc.us</v>
-      </c>
-      <c r="O1" s="0" t="str">
-        <v>hannah.cribby469@gaston.k12.nc.us</v>
-      </c>
-      <c r="P1" s="0" t="str">
-        <v>haylee.franckewitz955@gaston.k12.nc.us</v>
-      </c>
-      <c r="Q1" s="0" t="str">
-        <v>james.abee815@gaston.k12.nc.us</v>
-      </c>
-      <c r="R1" s="0" t="str">
-        <v>james.abee815@gaston.k12.nc.us</v>
-      </c>
-      <c r="S1" s="0" t="str">
-        <v>james.lynn958@gaston.k12.nc.us</v>
-      </c>
-      <c r="T1" s="0" t="str">
-        <v>jared.godwin616@gaston.k12.nc.us</v>
-      </c>
-      <c r="U1" s="0" t="str">
-        <v>jessica.kirby006@gaston.k12.nc.us</v>
-      </c>
-      <c r="V1" s="0" t="str">
-        <v>jessica.payne425@gaston.k12.nc.us</v>
-      </c>
-      <c r="W1" s="0" t="str">
-        <v>kalynne.helms096@gaston.k12.nc.us</v>
-      </c>
-      <c r="X1" s="0" t="str">
-        <v>karmen.scruggs776@gaston.k12.nc.us</v>
-      </c>
-      <c r="Y1" s="0" t="str">
-        <v>kayla.shannon027@gaston.k12.nc.us</v>
-      </c>
-      <c r="Z1" s="0" t="str">
-        <v>kayla.williamson843@gaston.k12.nc.us</v>
-      </c>
-      <c r="AA1" s="0" t="str">
-        <v>kimberly.queen686@gaston.k12.nc.us</v>
-      </c>
-      <c r="AB1" s="0" t="str">
-        <v>kyra.rhyne012@gaston.k12.nc.us</v>
-      </c>
-      <c r="AC1" s="0" t="str">
-        <v>kyra.rhyne012@gaston.k12.nc.us</v>
-      </c>
-      <c r="AD1" s="0" t="str">
-        <v>laurie.ricardo512@gaston.k12.nc.us</v>
-      </c>
-      <c r="AE1" s="0" t="str">
-        <v>ling.zhang885@gaston.k12.nc.us</v>
-      </c>
-      <c r="AF1" s="0" t="str">
-        <v>noah.wollin244@gaston.k12.nc.us</v>
-      </c>
-      <c r="AG1" s="0" t="str">
-        <v>olyvia.knight064@gaston.k12.nc.us</v>
-      </c>
-      <c r="AH1" s="0" t="str">
-        <v>parth.patel358@gaston.k12.nc.us</v>
-      </c>
-      <c r="AI1" s="0" t="str">
-        <v>piper.colangelo050@gaston.k12.nc.us</v>
-      </c>
-      <c r="AJ1" s="0" t="str">
-        <v>riley.kiefer729@gaston.k12.nc.us</v>
-      </c>
-      <c r="AK1" s="0" t="str">
-        <v>sarah.macon201@gaston.k12.nc.us</v>
-      </c>
-      <c r="AL1" s="0" t="str">
-        <v>scott.johnson192@gaston.k12.nc.us</v>
-      </c>
-      <c r="AM1" s="0" t="str">
-        <v>tiffany.weresow255@gaston.k12.nc.us</v>
-      </c>
-      <c r="AN1" s="0" t="str">
-        <v>weston.peavy213@gaston.k12.nc.us</v>
+    <row r="1" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J1" t="s">
+        <v>104</v>
+      </c>
+      <c r="K1" t="s">
+        <v>111</v>
+      </c>
+      <c r="L1" t="s">
+        <v>118</v>
+      </c>
+      <c r="M1" t="s">
+        <v>125</v>
+      </c>
+      <c r="N1" t="s">
+        <v>132</v>
+      </c>
+      <c r="O1" t="s">
+        <v>139</v>
+      </c>
+      <c r="P1" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>150</v>
+      </c>
+      <c r="R1" t="s">
+        <v>150</v>
+      </c>
+      <c r="S1" t="s">
+        <v>162</v>
+      </c>
+      <c r="T1" t="s">
+        <v>169</v>
+      </c>
+      <c r="U1" t="s">
+        <v>175</v>
+      </c>
+      <c r="V1" t="s">
+        <v>180</v>
+      </c>
+      <c r="W1" t="s">
+        <v>187</v>
+      </c>
+      <c r="X1" t="s">
+        <v>193</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>200</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>207</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>214</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>221</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>221</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>231</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>238</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>245</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>251</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>257</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>264</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>270</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>277</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>283</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>289</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>295</v>
       </c>
     </row>
-    <row r="2" spans="2:40" customFormat="false">
-      <c r="B2" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="C2" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="D2" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="E2" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="F2" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="G2" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="H2" s="0" t="str">
-        <v>-BC</v>
-      </c>
-      <c r="I2" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="J2" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="K2" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="L2" s="0" t="str">
-        <v>A--</v>
-      </c>
-      <c r="M2" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="N2" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="O2" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="P2" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="Q2" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="R2" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="S2" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="T2" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="U2" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="V2" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="W2" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="X2" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="Y2" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="Z2" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="AA2" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AB2" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="AC2" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="AD2" s="0" t="str">
-        <v>-B-</v>
-      </c>
-      <c r="AE2" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AF2" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AG2" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AH2" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AI2" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AJ2" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AK2" s="0" t="str">
-        <v>A--</v>
-      </c>
-      <c r="AL2" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AM2" s="0" t="str">
-        <v>A--</v>
-      </c>
-      <c r="AN2" s="0" t="str">
-        <v>A--</v>
+    <row r="2" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C2" t="s">
+        <v>303</v>
+      </c>
+      <c r="D2" t="s">
+        <v>304</v>
+      </c>
+      <c r="E2" t="s">
+        <v>305</v>
+      </c>
+      <c r="F2" t="s">
+        <v>302</v>
+      </c>
+      <c r="G2" t="s">
+        <v>303</v>
+      </c>
+      <c r="H2" t="s">
+        <v>306</v>
+      </c>
+      <c r="I2" t="s">
+        <v>304</v>
+      </c>
+      <c r="J2" t="s">
+        <v>302</v>
+      </c>
+      <c r="K2" t="s">
+        <v>304</v>
+      </c>
+      <c r="L2" t="s">
+        <v>307</v>
+      </c>
+      <c r="M2" t="s">
+        <v>304</v>
+      </c>
+      <c r="N2" t="s">
+        <v>304</v>
+      </c>
+      <c r="O2" t="s">
+        <v>303</v>
+      </c>
+      <c r="P2" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>308</v>
+      </c>
+      <c r="R2" t="s">
+        <v>308</v>
+      </c>
+      <c r="S2" t="s">
+        <v>303</v>
+      </c>
+      <c r="T2" t="s">
+        <v>303</v>
+      </c>
+      <c r="U2" t="s">
+        <v>304</v>
+      </c>
+      <c r="V2" t="s">
+        <v>303</v>
+      </c>
+      <c r="W2" t="s">
+        <v>303</v>
+      </c>
+      <c r="X2" t="s">
+        <v>305</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>303</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>304</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>305</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>302</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>302</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>309</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>303</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>303</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>305</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>303</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>303</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>305</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>307</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>303</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>307</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>307</v>
       </c>
     </row>
-    <row r="3" spans="2:40" customFormat="false">
-      <c r="B3" s="0" t="str">
-        <v>-B-</v>
-      </c>
-      <c r="C3" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="D3" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="E3" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="F3" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="G3" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="H3" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="I3" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="J3" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="K3" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="L3" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="M3" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="N3" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="O3" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="P3" s="0" t="str">
-        <v>-B-</v>
-      </c>
-      <c r="Q3" s="0" t="str">
-        <v>A--</v>
-      </c>
-      <c r="R3" s="0" t="str">
-        <v>-B-</v>
-      </c>
-      <c r="S3" s="0" t="str">
-        <v>-BC</v>
-      </c>
-      <c r="T3" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="U3" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="V3" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="W3" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="X3" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="Y3" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="Z3" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="AA3" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="AB3" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="AC3" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AD3" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AE3" s="0" t="str">
-        <v>-B-</v>
-      </c>
-      <c r="AF3" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AG3" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AH3" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="AI3" s="0" t="str">
-        <v>-BC</v>
-      </c>
-      <c r="AJ3" s="0" t="str">
-        <v>A--</v>
-      </c>
-      <c r="AK3" s="0" t="str">
-        <v>A--</v>
-      </c>
-      <c r="AL3" s="0" t="str">
-        <v>-BC</v>
-      </c>
-      <c r="AM3" s="0" t="str">
-        <v>A--</v>
-      </c>
-      <c r="AN3" s="0" t="str">
-        <v>---</v>
+    <row r="3" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>309</v>
+      </c>
+      <c r="C3" t="s">
+        <v>303</v>
+      </c>
+      <c r="D3" t="s">
+        <v>303</v>
+      </c>
+      <c r="E3" t="s">
+        <v>305</v>
+      </c>
+      <c r="F3" t="s">
+        <v>308</v>
+      </c>
+      <c r="G3" t="s">
+        <v>308</v>
+      </c>
+      <c r="H3" t="s">
+        <v>303</v>
+      </c>
+      <c r="I3" t="s">
+        <v>308</v>
+      </c>
+      <c r="J3" t="s">
+        <v>303</v>
+      </c>
+      <c r="K3" t="s">
+        <v>305</v>
+      </c>
+      <c r="L3" t="s">
+        <v>308</v>
+      </c>
+      <c r="M3" t="s">
+        <v>303</v>
+      </c>
+      <c r="N3" t="s">
+        <v>305</v>
+      </c>
+      <c r="O3" t="s">
+        <v>302</v>
+      </c>
+      <c r="P3" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>307</v>
+      </c>
+      <c r="R3" t="s">
+        <v>309</v>
+      </c>
+      <c r="S3" t="s">
+        <v>306</v>
+      </c>
+      <c r="T3" t="s">
+        <v>305</v>
+      </c>
+      <c r="U3" t="s">
+        <v>305</v>
+      </c>
+      <c r="V3" t="s">
+        <v>303</v>
+      </c>
+      <c r="W3" t="s">
+        <v>303</v>
+      </c>
+      <c r="X3" t="s">
+        <v>308</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>303</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>308</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>302</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>302</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>305</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>305</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>309</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>305</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>303</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>304</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>306</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>307</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>307</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>306</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>307</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>305</v>
       </c>
     </row>
-    <row r="4" spans="2:40" customFormat="false">
-      <c r="B4" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="C4" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="D4" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="E4" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="F4" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="G4" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="H4" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="I4" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="J4" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="K4" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="L4" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="M4" s="0" t="str">
-        <v>A--</v>
-      </c>
-      <c r="N4" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="O4" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="P4" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="Q4" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="R4" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="S4" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="T4" s="0" t="str">
-        <v>-BC</v>
-      </c>
-      <c r="U4" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="V4" s="0" t="str">
-        <v>-BC</v>
-      </c>
-      <c r="W4" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="X4" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="Y4" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="Z4" s="0" t="str">
-        <v>A--</v>
-      </c>
-      <c r="AA4" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AB4" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AC4" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AD4" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AE4" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="AF4" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AG4" s="0" t="str">
-        <v>A--</v>
-      </c>
-      <c r="AH4" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AI4" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AJ4" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AK4" s="0" t="str">
-        <v>-BC</v>
-      </c>
-      <c r="AL4" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AM4" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="AN4" s="0" t="str">
-        <v>AB-</v>
+    <row r="4" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C4" t="s">
+        <v>302</v>
+      </c>
+      <c r="D4" t="s">
+        <v>304</v>
+      </c>
+      <c r="E4" t="s">
+        <v>303</v>
+      </c>
+      <c r="F4" t="s">
+        <v>302</v>
+      </c>
+      <c r="G4" t="s">
+        <v>303</v>
+      </c>
+      <c r="H4" t="s">
+        <v>303</v>
+      </c>
+      <c r="I4" t="s">
+        <v>304</v>
+      </c>
+      <c r="J4" t="s">
+        <v>302</v>
+      </c>
+      <c r="K4" t="s">
+        <v>303</v>
+      </c>
+      <c r="L4" t="s">
+        <v>303</v>
+      </c>
+      <c r="M4" t="s">
+        <v>307</v>
+      </c>
+      <c r="N4" t="s">
+        <v>303</v>
+      </c>
+      <c r="O4" t="s">
+        <v>303</v>
+      </c>
+      <c r="P4" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>303</v>
+      </c>
+      <c r="R4" t="s">
+        <v>304</v>
+      </c>
+      <c r="S4" t="s">
+        <v>303</v>
+      </c>
+      <c r="T4" t="s">
+        <v>306</v>
+      </c>
+      <c r="U4" t="s">
+        <v>303</v>
+      </c>
+      <c r="V4" t="s">
+        <v>306</v>
+      </c>
+      <c r="W4" t="s">
+        <v>303</v>
+      </c>
+      <c r="X4" t="s">
+        <v>304</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>303</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>307</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>303</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>303</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>303</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>303</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>308</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>303</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>307</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>303</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>303</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>303</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>306</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>303</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>302</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>304</v>
       </c>
     </row>
-    <row r="5" spans="2:40" customFormat="false">
-      <c r="B5" s="0" t="str">
-        <v>AC</v>
-      </c>
-      <c r="C5" s="0" t="str">
-        <v>AC</v>
-      </c>
-      <c r="D5" s="0" t="str">
-        <v>AC</v>
-      </c>
-      <c r="E5" s="0" t="str">
-        <v>-C</v>
-      </c>
-      <c r="F5" s="0" t="str">
-        <v>-C</v>
-      </c>
-      <c r="G5" s="0" t="str">
-        <v>-C</v>
-      </c>
-      <c r="H5" s="0" t="str">
-        <v>AC</v>
-      </c>
-      <c r="I5" s="0" t="str">
-        <v>AC</v>
-      </c>
-      <c r="J5" s="0" t="str">
-        <v>AC</v>
-      </c>
-      <c r="K5" s="0" t="str">
-        <v>AC</v>
-      </c>
-      <c r="L5" s="0" t="str">
-        <v>--</v>
-      </c>
-      <c r="M5" s="0" t="str">
-        <v>A-</v>
-      </c>
-      <c r="N5" s="0" t="str">
-        <v>AC</v>
-      </c>
-      <c r="O5" s="0" t="str">
-        <v>--</v>
-      </c>
-      <c r="P5" s="0" t="str">
-        <v>--</v>
-      </c>
-      <c r="Q5" s="0" t="str">
-        <v>AC</v>
-      </c>
-      <c r="R5" s="0" t="str">
-        <v>A-</v>
-      </c>
-      <c r="S5" s="0" t="str">
-        <v>-C</v>
-      </c>
-      <c r="T5" s="0" t="str">
-        <v>AC</v>
-      </c>
-      <c r="U5" s="0" t="str">
-        <v>AC</v>
-      </c>
-      <c r="V5" s="0" t="str">
-        <v>-C</v>
-      </c>
-      <c r="W5" s="0" t="str">
-        <v>AC</v>
-      </c>
-      <c r="X5" s="0" t="str">
-        <v>A-</v>
-      </c>
-      <c r="Y5" s="0" t="str">
-        <v>AC</v>
-      </c>
-      <c r="Z5" s="0" t="str">
-        <v>A-</v>
-      </c>
-      <c r="AA5" s="0" t="str">
-        <v>AC</v>
-      </c>
-      <c r="AB5" s="0" t="str">
-        <v>AC</v>
-      </c>
-      <c r="AC5" s="0" t="str">
-        <v>AC</v>
-      </c>
-      <c r="AD5" s="0" t="str">
-        <v>AC</v>
-      </c>
-      <c r="AE5" s="0" t="str">
-        <v>AC</v>
-      </c>
-      <c r="AF5" s="0" t="str">
-        <v>AC</v>
-      </c>
-      <c r="AG5" s="0" t="str">
-        <v>AC</v>
-      </c>
-      <c r="AH5" s="0" t="str">
-        <v>-C</v>
-      </c>
-      <c r="AI5" s="0" t="str">
-        <v>AC</v>
-      </c>
-      <c r="AJ5" s="0" t="str">
-        <v>AC</v>
-      </c>
-      <c r="AK5" s="0" t="str">
-        <v>AC</v>
-      </c>
-      <c r="AL5" s="0" t="str">
-        <v>-C</v>
-      </c>
-      <c r="AM5" s="0" t="str">
-        <v>AC</v>
-      </c>
-      <c r="AN5" s="0" t="str">
-        <v>--</v>
+    <row r="5" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>310</v>
+      </c>
+      <c r="C5" t="s">
+        <v>310</v>
+      </c>
+      <c r="D5" t="s">
+        <v>310</v>
+      </c>
+      <c r="E5" t="s">
+        <v>311</v>
+      </c>
+      <c r="F5" t="s">
+        <v>311</v>
+      </c>
+      <c r="G5" t="s">
+        <v>311</v>
+      </c>
+      <c r="H5" t="s">
+        <v>310</v>
+      </c>
+      <c r="I5" t="s">
+        <v>310</v>
+      </c>
+      <c r="J5" t="s">
+        <v>310</v>
+      </c>
+      <c r="K5" t="s">
+        <v>310</v>
+      </c>
+      <c r="L5" t="s">
+        <v>312</v>
+      </c>
+      <c r="M5" t="s">
+        <v>313</v>
+      </c>
+      <c r="N5" t="s">
+        <v>310</v>
+      </c>
+      <c r="O5" t="s">
+        <v>312</v>
+      </c>
+      <c r="P5" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>310</v>
+      </c>
+      <c r="R5" t="s">
+        <v>313</v>
+      </c>
+      <c r="S5" t="s">
+        <v>311</v>
+      </c>
+      <c r="T5" t="s">
+        <v>310</v>
+      </c>
+      <c r="U5" t="s">
+        <v>310</v>
+      </c>
+      <c r="V5" t="s">
+        <v>311</v>
+      </c>
+      <c r="W5" t="s">
+        <v>310</v>
+      </c>
+      <c r="X5" t="s">
+        <v>313</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>310</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>313</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>310</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>310</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>310</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>310</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>310</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>310</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>310</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>311</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>310</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>310</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>310</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>311</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>310</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>312</v>
       </c>
     </row>
-    <row r="6" spans="2:40" customFormat="false">
-      <c r="B6" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="C6" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="D6" s="0" t="str">
-        <v>-BC</v>
-      </c>
-      <c r="E6" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="F6" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="G6" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="H6" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="I6" s="0" t="str">
-        <v>-B-</v>
-      </c>
-      <c r="J6" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="K6" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="L6" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="M6" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="N6" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="O6" s="0" t="str">
-        <v>-B-</v>
-      </c>
-      <c r="P6" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="Q6" s="0" t="str">
-        <v>-B-</v>
-      </c>
-      <c r="R6" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="S6" s="0" t="str">
-        <v>A--</v>
-      </c>
-      <c r="T6" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="U6" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="V6" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="W6" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="X6" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="Y6" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="Z6" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AA6" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AB6" s="0" t="str">
-        <v>-BC</v>
-      </c>
-      <c r="AC6" s="0" t="str">
-        <v>-B-</v>
-      </c>
-      <c r="AD6" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="AE6" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AF6" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AG6" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AH6" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="AI6" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AJ6" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AK6" s="0" t="str">
-        <v>-B-</v>
-      </c>
-      <c r="AL6" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="AM6" s="0" t="str">
-        <v>-BC</v>
-      </c>
-      <c r="AN6" s="0" t="str">
-        <v>---</v>
+    <row r="6" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>302</v>
+      </c>
+      <c r="C6" t="s">
+        <v>305</v>
+      </c>
+      <c r="D6" t="s">
+        <v>306</v>
+      </c>
+      <c r="E6" t="s">
+        <v>305</v>
+      </c>
+      <c r="F6" t="s">
+        <v>308</v>
+      </c>
+      <c r="G6" t="s">
+        <v>308</v>
+      </c>
+      <c r="H6" t="s">
+        <v>302</v>
+      </c>
+      <c r="I6" t="s">
+        <v>309</v>
+      </c>
+      <c r="J6" t="s">
+        <v>308</v>
+      </c>
+      <c r="K6" t="s">
+        <v>305</v>
+      </c>
+      <c r="L6" t="s">
+        <v>305</v>
+      </c>
+      <c r="M6" t="s">
+        <v>305</v>
+      </c>
+      <c r="N6" t="s">
+        <v>305</v>
+      </c>
+      <c r="O6" t="s">
+        <v>309</v>
+      </c>
+      <c r="P6" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>309</v>
+      </c>
+      <c r="R6" t="s">
+        <v>308</v>
+      </c>
+      <c r="S6" t="s">
+        <v>307</v>
+      </c>
+      <c r="T6" t="s">
+        <v>302</v>
+      </c>
+      <c r="U6" t="s">
+        <v>305</v>
+      </c>
+      <c r="V6" t="s">
+        <v>305</v>
+      </c>
+      <c r="W6" t="s">
+        <v>303</v>
+      </c>
+      <c r="X6" t="s">
+        <v>308</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>302</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>305</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>303</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>306</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>309</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>302</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>305</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>305</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>305</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>308</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>305</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>305</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>309</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>308</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>306</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>305</v>
       </c>
     </row>
-    <row r="7" spans="2:40" customFormat="false">
-      <c r="B7" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="C7" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="D7" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="E7" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="F7" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="G7" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="H7" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="I7" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="J7" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="K7" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="L7" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="M7" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="N7" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="O7" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="P7" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="Q7" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="R7" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="S7" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="T7" s="0" t="str">
-        <v>-BC</v>
-      </c>
-      <c r="U7" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="V7" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="W7" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="X7" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="Y7" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="Z7" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AA7" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AB7" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AC7" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AD7" s="0" t="str">
-        <v>-BC</v>
-      </c>
-      <c r="AE7" s="0" t="str">
-        <v>-B-</v>
-      </c>
-      <c r="AF7" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AG7" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AH7" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AI7" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AJ7" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AK7" s="0" t="str">
-        <v>A--</v>
-      </c>
-      <c r="AL7" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AM7" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="AN7" s="0" t="str">
-        <v>AB-</v>
+    <row r="7" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>304</v>
+      </c>
+      <c r="C7" t="s">
+        <v>303</v>
+      </c>
+      <c r="D7" t="s">
+        <v>303</v>
+      </c>
+      <c r="E7" t="s">
+        <v>305</v>
+      </c>
+      <c r="F7" t="s">
+        <v>302</v>
+      </c>
+      <c r="G7" t="s">
+        <v>302</v>
+      </c>
+      <c r="H7" t="s">
+        <v>303</v>
+      </c>
+      <c r="I7" t="s">
+        <v>303</v>
+      </c>
+      <c r="J7" t="s">
+        <v>303</v>
+      </c>
+      <c r="K7" t="s">
+        <v>305</v>
+      </c>
+      <c r="L7" t="s">
+        <v>302</v>
+      </c>
+      <c r="M7" t="s">
+        <v>303</v>
+      </c>
+      <c r="N7" t="s">
+        <v>304</v>
+      </c>
+      <c r="O7" t="s">
+        <v>303</v>
+      </c>
+      <c r="P7" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>308</v>
+      </c>
+      <c r="R7" t="s">
+        <v>308</v>
+      </c>
+      <c r="S7" t="s">
+        <v>303</v>
+      </c>
+      <c r="T7" t="s">
+        <v>306</v>
+      </c>
+      <c r="U7" t="s">
+        <v>303</v>
+      </c>
+      <c r="V7" t="s">
+        <v>303</v>
+      </c>
+      <c r="W7" t="s">
+        <v>303</v>
+      </c>
+      <c r="X7" t="s">
+        <v>302</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>304</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>303</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>305</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>303</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>303</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>306</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>309</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>303</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>303</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>303</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>303</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>305</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>307</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>303</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>304</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>304</v>
       </c>
     </row>
-    <row r="8" spans="2:40" customFormat="false">
-      <c r="B8" s="0" t="str">
-        <v>A--</v>
-      </c>
-      <c r="C8" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="D8" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="E8" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="F8" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="G8" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="H8" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="I8" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="J8" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="K8" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="L8" s="0" t="str">
-        <v>-BC</v>
-      </c>
-      <c r="M8" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="N8" s="0" t="str">
-        <v>A--</v>
-      </c>
-      <c r="O8" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="P8" s="0" t="str">
-        <v>A--</v>
-      </c>
-      <c r="Q8" s="0" t="str">
-        <v>A--</v>
-      </c>
-      <c r="R8" s="0" t="str">
-        <v>-B-</v>
-      </c>
-      <c r="S8" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="T8" s="0" t="str">
-        <v>-B-</v>
-      </c>
-      <c r="U8" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="V8" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="W8" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="X8" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="Y8" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="Z8" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AA8" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="AB8" s="0" t="str">
-        <v>-BC</v>
-      </c>
-      <c r="AC8" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AD8" s="0" t="str">
-        <v>-B-</v>
-      </c>
-      <c r="AE8" s="0" t="str">
-        <v>A--</v>
-      </c>
-      <c r="AF8" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AG8" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AH8" s="0" t="str">
-        <v>A--</v>
-      </c>
-      <c r="AI8" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AJ8" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AK8" s="0" t="str">
-        <v>A--</v>
-      </c>
-      <c r="AL8" s="0" t="str">
-        <v>A--</v>
-      </c>
-      <c r="AM8" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="AN8" s="0" t="str">
-        <v>---</v>
+    <row r="8" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>307</v>
+      </c>
+      <c r="C8" t="s">
+        <v>303</v>
+      </c>
+      <c r="D8" t="s">
+        <v>304</v>
+      </c>
+      <c r="E8" t="s">
+        <v>305</v>
+      </c>
+      <c r="F8" t="s">
+        <v>308</v>
+      </c>
+      <c r="G8" t="s">
+        <v>304</v>
+      </c>
+      <c r="H8" t="s">
+        <v>303</v>
+      </c>
+      <c r="I8" t="s">
+        <v>304</v>
+      </c>
+      <c r="J8" t="s">
+        <v>302</v>
+      </c>
+      <c r="K8" t="s">
+        <v>305</v>
+      </c>
+      <c r="L8" t="s">
+        <v>306</v>
+      </c>
+      <c r="M8" t="s">
+        <v>304</v>
+      </c>
+      <c r="N8" t="s">
+        <v>307</v>
+      </c>
+      <c r="O8" t="s">
+        <v>303</v>
+      </c>
+      <c r="P8" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>307</v>
+      </c>
+      <c r="R8" t="s">
+        <v>309</v>
+      </c>
+      <c r="S8" t="s">
+        <v>303</v>
+      </c>
+      <c r="T8" t="s">
+        <v>309</v>
+      </c>
+      <c r="U8" t="s">
+        <v>303</v>
+      </c>
+      <c r="V8" t="s">
+        <v>303</v>
+      </c>
+      <c r="W8" t="s">
+        <v>303</v>
+      </c>
+      <c r="X8" t="s">
+        <v>305</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>303</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>305</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>308</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>306</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>305</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>309</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>307</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>303</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>303</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>307</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>305</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>305</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>307</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>307</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>304</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>305</v>
       </c>
     </row>
-    <row r="9" spans="2:40" customFormat="false">
-      <c r="B9" s="0" t="str">
-        <v>AB</v>
-      </c>
-      <c r="C9" s="0" t="str">
-        <v>--</v>
-      </c>
-      <c r="D9" s="0" t="str">
-        <v>AB</v>
-      </c>
-      <c r="E9" s="0" t="str">
-        <v>AB</v>
-      </c>
-      <c r="F9" s="0" t="str">
-        <v>A-</v>
-      </c>
-      <c r="G9" s="0" t="str">
-        <v>A-</v>
-      </c>
-      <c r="H9" s="0" t="str">
-        <v>A-</v>
-      </c>
-      <c r="I9" s="0" t="str">
-        <v>AB</v>
-      </c>
-      <c r="J9" s="0" t="str">
-        <v>AB</v>
-      </c>
-      <c r="K9" s="0" t="str">
-        <v>AB</v>
-      </c>
-      <c r="L9" s="0" t="str">
-        <v>-B</v>
-      </c>
-      <c r="M9" s="0" t="str">
-        <v>A-</v>
-      </c>
-      <c r="N9" s="0" t="str">
-        <v>AB</v>
-      </c>
-      <c r="O9" s="0" t="str">
-        <v>A-</v>
-      </c>
-      <c r="P9" s="0" t="str">
-        <v>--</v>
-      </c>
-      <c r="Q9" s="0" t="str">
-        <v>-B</v>
-      </c>
-      <c r="R9" s="0" t="str">
-        <v>--</v>
-      </c>
-      <c r="S9" s="0" t="str">
-        <v>AB</v>
-      </c>
-      <c r="T9" s="0" t="str">
-        <v>A-</v>
-      </c>
-      <c r="U9" s="0" t="str">
-        <v>--</v>
-      </c>
-      <c r="V9" s="0" t="str">
-        <v>--</v>
-      </c>
-      <c r="W9" s="0" t="str">
-        <v>-B</v>
-      </c>
-      <c r="X9" s="0" t="str">
-        <v>AB</v>
-      </c>
-      <c r="Y9" s="0" t="str">
-        <v>AB</v>
-      </c>
-      <c r="Z9" s="0" t="str">
-        <v>A-</v>
-      </c>
-      <c r="AA9" s="0" t="str">
-        <v>AB</v>
-      </c>
-      <c r="AB9" s="0" t="str">
-        <v>AB</v>
-      </c>
-      <c r="AC9" s="0" t="str">
-        <v>AB</v>
-      </c>
-      <c r="AD9" s="0" t="str">
-        <v>AB</v>
-      </c>
-      <c r="AE9" s="0" t="str">
-        <v>AB</v>
-      </c>
-      <c r="AF9" s="0" t="str">
-        <v>A-</v>
-      </c>
-      <c r="AG9" s="0" t="str">
-        <v>AB</v>
-      </c>
-      <c r="AH9" s="0" t="str">
-        <v>AB</v>
-      </c>
-      <c r="AI9" s="0" t="str">
-        <v>AB</v>
-      </c>
-      <c r="AJ9" s="0" t="str">
-        <v>--</v>
-      </c>
-      <c r="AK9" s="0" t="str">
-        <v>AB</v>
-      </c>
-      <c r="AL9" s="0" t="str">
-        <v>--</v>
-      </c>
-      <c r="AM9" s="0" t="str">
-        <v>AB</v>
-      </c>
-      <c r="AN9" s="0" t="str">
-        <v>-B</v>
+    <row r="9" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>314</v>
+      </c>
+      <c r="C9" t="s">
+        <v>312</v>
+      </c>
+      <c r="D9" t="s">
+        <v>314</v>
+      </c>
+      <c r="E9" t="s">
+        <v>314</v>
+      </c>
+      <c r="F9" t="s">
+        <v>313</v>
+      </c>
+      <c r="G9" t="s">
+        <v>313</v>
+      </c>
+      <c r="H9" t="s">
+        <v>313</v>
+      </c>
+      <c r="I9" t="s">
+        <v>314</v>
+      </c>
+      <c r="J9" t="s">
+        <v>314</v>
+      </c>
+      <c r="K9" t="s">
+        <v>314</v>
+      </c>
+      <c r="L9" t="s">
+        <v>315</v>
+      </c>
+      <c r="M9" t="s">
+        <v>313</v>
+      </c>
+      <c r="N9" t="s">
+        <v>314</v>
+      </c>
+      <c r="O9" t="s">
+        <v>313</v>
+      </c>
+      <c r="P9" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>315</v>
+      </c>
+      <c r="R9" t="s">
+        <v>312</v>
+      </c>
+      <c r="S9" t="s">
+        <v>314</v>
+      </c>
+      <c r="T9" t="s">
+        <v>313</v>
+      </c>
+      <c r="U9" t="s">
+        <v>312</v>
+      </c>
+      <c r="V9" t="s">
+        <v>312</v>
+      </c>
+      <c r="W9" t="s">
+        <v>315</v>
+      </c>
+      <c r="X9" t="s">
+        <v>314</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>314</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>313</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>314</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>314</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>314</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>314</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>314</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>313</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>314</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>314</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>314</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>312</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>314</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>312</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>314</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>315</v>
       </c>
     </row>
-    <row r="10" spans="2:40" customFormat="false">
-      <c r="B10" s="0" t="str">
-        <v>A--</v>
-      </c>
-      <c r="C10" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="D10" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="E10" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="F10" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="G10" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="H10" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="I10" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="J10" s="0" t="str">
-        <v>-BC</v>
-      </c>
-      <c r="K10" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="L10" s="0" t="str">
-        <v>A--</v>
-      </c>
-      <c r="M10" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="N10" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="O10" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="P10" s="0" t="str">
-        <v>-BC</v>
-      </c>
-      <c r="Q10" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="R10" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="S10" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="T10" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="U10" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="V10" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="W10" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="X10" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="Y10" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="Z10" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="AA10" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AB10" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AC10" s="0" t="str">
-        <v>-BC</v>
-      </c>
-      <c r="AD10" s="0" t="str">
-        <v>-B-</v>
-      </c>
-      <c r="AE10" s="0" t="str">
-        <v>-B-</v>
-      </c>
-      <c r="AF10" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AG10" s="0" t="str">
-        <v>A--</v>
-      </c>
-      <c r="AH10" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AI10" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AJ10" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AK10" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="AL10" s="0" t="str">
-        <v>-BC</v>
-      </c>
-      <c r="AM10" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AN10" s="0" t="str">
-        <v>-B-</v>
+    <row r="10" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>307</v>
+      </c>
+      <c r="C10" t="s">
+        <v>308</v>
+      </c>
+      <c r="D10" t="s">
+        <v>303</v>
+      </c>
+      <c r="E10" t="s">
+        <v>304</v>
+      </c>
+      <c r="F10" t="s">
+        <v>302</v>
+      </c>
+      <c r="G10" t="s">
+        <v>302</v>
+      </c>
+      <c r="H10" t="s">
+        <v>303</v>
+      </c>
+      <c r="I10" t="s">
+        <v>305</v>
+      </c>
+      <c r="J10" t="s">
+        <v>306</v>
+      </c>
+      <c r="K10" t="s">
+        <v>304</v>
+      </c>
+      <c r="L10" t="s">
+        <v>307</v>
+      </c>
+      <c r="M10" t="s">
+        <v>302</v>
+      </c>
+      <c r="N10" t="s">
+        <v>305</v>
+      </c>
+      <c r="O10" t="s">
+        <v>302</v>
+      </c>
+      <c r="P10" t="s">
+        <v>306</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>303</v>
+      </c>
+      <c r="R10" t="s">
+        <v>303</v>
+      </c>
+      <c r="S10" t="s">
+        <v>305</v>
+      </c>
+      <c r="T10" t="s">
+        <v>305</v>
+      </c>
+      <c r="U10" t="s">
+        <v>302</v>
+      </c>
+      <c r="V10" t="s">
+        <v>302</v>
+      </c>
+      <c r="W10" t="s">
+        <v>303</v>
+      </c>
+      <c r="X10" t="s">
+        <v>303</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>303</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>308</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>303</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>303</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>306</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>309</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>309</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>305</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>307</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>305</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>305</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>303</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>308</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>306</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>303</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>309</v>
       </c>
     </row>
-    <row r="11" spans="2:40" customFormat="false">
-      <c r="B11" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="C11" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="D11" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="E11" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="F11" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="G11" s="0" t="str">
-        <v>-BC</v>
-      </c>
-      <c r="H11" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="I11" s="0" t="str">
-        <v>-B-</v>
-      </c>
-      <c r="J11" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="K11" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="L11" s="0" t="str">
-        <v>-BC</v>
-      </c>
-      <c r="M11" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="N11" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="O11" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="P11" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="Q11" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="R11" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="S11" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="T11" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="U11" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="V11" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="W11" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="X11" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="Y11" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="Z11" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="AA11" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AB11" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AC11" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AD11" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AE11" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="AF11" s="0" t="str">
-        <v>-BC</v>
-      </c>
-      <c r="AG11" s="0" t="str">
-        <v>A--</v>
-      </c>
-      <c r="AH11" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AI11" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AJ11" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AK11" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AL11" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AM11" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="AN11" s="0" t="str">
-        <v>A--</v>
+    <row r="11" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>303</v>
+      </c>
+      <c r="C11" t="s">
+        <v>302</v>
+      </c>
+      <c r="D11" t="s">
+        <v>304</v>
+      </c>
+      <c r="E11" t="s">
+        <v>308</v>
+      </c>
+      <c r="F11" t="s">
+        <v>302</v>
+      </c>
+      <c r="G11" t="s">
+        <v>306</v>
+      </c>
+      <c r="H11" t="s">
+        <v>303</v>
+      </c>
+      <c r="I11" t="s">
+        <v>309</v>
+      </c>
+      <c r="J11" t="s">
+        <v>302</v>
+      </c>
+      <c r="K11" t="s">
+        <v>303</v>
+      </c>
+      <c r="L11" t="s">
+        <v>306</v>
+      </c>
+      <c r="M11" t="s">
+        <v>304</v>
+      </c>
+      <c r="N11" t="s">
+        <v>304</v>
+      </c>
+      <c r="O11" t="s">
+        <v>303</v>
+      </c>
+      <c r="P11" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>303</v>
+      </c>
+      <c r="R11" t="s">
+        <v>304</v>
+      </c>
+      <c r="S11" t="s">
+        <v>303</v>
+      </c>
+      <c r="T11" t="s">
+        <v>303</v>
+      </c>
+      <c r="U11" t="s">
+        <v>303</v>
+      </c>
+      <c r="V11" t="s">
+        <v>303</v>
+      </c>
+      <c r="W11" t="s">
+        <v>303</v>
+      </c>
+      <c r="X11" t="s">
+        <v>304</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>302</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>304</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>303</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>303</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>303</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>303</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>302</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>306</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>307</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>305</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>303</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>303</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>303</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>303</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>302</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>307</v>
       </c>
     </row>
-    <row r="12" spans="2:40" customFormat="false">
-      <c r="B12" s="0" t="str">
-        <v>--</v>
-      </c>
-      <c r="C12" s="0" t="str">
-        <v>A-</v>
-      </c>
-      <c r="D12" s="0" t="str">
-        <v>A-</v>
-      </c>
-      <c r="E12" s="0" t="str">
-        <v>--</v>
-      </c>
-      <c r="F12" s="0" t="str">
-        <v>--</v>
-      </c>
-      <c r="G12" s="0" t="str">
-        <v>--</v>
-      </c>
-      <c r="H12" s="0" t="str">
-        <v>--</v>
-      </c>
-      <c r="I12" s="0" t="str">
-        <v>-B</v>
-      </c>
-      <c r="J12" s="0" t="str">
-        <v>AB</v>
-      </c>
-      <c r="K12" s="0" t="str">
-        <v>--</v>
-      </c>
-      <c r="L12" s="0" t="str">
-        <v>--</v>
-      </c>
-      <c r="M12" s="0" t="str">
-        <v>--</v>
-      </c>
-      <c r="N12" s="0" t="str">
-        <v>--</v>
-      </c>
-      <c r="O12" s="0" t="str">
-        <v>--</v>
-      </c>
-      <c r="P12" s="0" t="str">
-        <v>--</v>
-      </c>
-      <c r="Q12" s="0" t="str">
-        <v>--</v>
-      </c>
-      <c r="R12" s="0" t="str">
-        <v>A-</v>
-      </c>
-      <c r="S12" s="0" t="str">
-        <v>A-</v>
-      </c>
-      <c r="T12" s="0" t="str">
-        <v>A-</v>
-      </c>
-      <c r="U12" s="0" t="str">
-        <v>AB</v>
-      </c>
-      <c r="V12" s="0" t="str">
-        <v>AB</v>
-      </c>
-      <c r="W12" s="0" t="str">
-        <v>--</v>
-      </c>
-      <c r="X12" s="0" t="str">
-        <v>--</v>
-      </c>
-      <c r="Y12" s="0" t="str">
-        <v>--</v>
-      </c>
-      <c r="Z12" s="0" t="str">
-        <v>--</v>
-      </c>
-      <c r="AA12" s="0" t="str">
-        <v>--</v>
-      </c>
-      <c r="AB12" s="0" t="str">
-        <v>A-</v>
-      </c>
-      <c r="AC12" s="0" t="str">
-        <v>--</v>
-      </c>
-      <c r="AD12" s="0" t="str">
-        <v>--</v>
-      </c>
-      <c r="AE12" s="0" t="str">
-        <v>--</v>
-      </c>
-      <c r="AF12" s="0" t="str">
-        <v>--</v>
-      </c>
-      <c r="AG12" s="0" t="str">
-        <v>AB</v>
-      </c>
-      <c r="AH12" s="0" t="str">
-        <v>--</v>
-      </c>
-      <c r="AI12" s="0" t="str">
-        <v>--</v>
-      </c>
-      <c r="AJ12" s="0" t="str">
-        <v>A-</v>
-      </c>
-      <c r="AK12" s="0" t="str">
-        <v>--</v>
-      </c>
-      <c r="AL12" s="0" t="str">
-        <v>--</v>
-      </c>
-      <c r="AM12" s="0" t="str">
-        <v>AB</v>
-      </c>
-      <c r="AN12" s="0" t="str">
-        <v>--</v>
+    <row r="12" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>312</v>
+      </c>
+      <c r="C12" t="s">
+        <v>313</v>
+      </c>
+      <c r="D12" t="s">
+        <v>313</v>
+      </c>
+      <c r="E12" t="s">
+        <v>312</v>
+      </c>
+      <c r="F12" t="s">
+        <v>312</v>
+      </c>
+      <c r="G12" t="s">
+        <v>312</v>
+      </c>
+      <c r="H12" t="s">
+        <v>312</v>
+      </c>
+      <c r="I12" t="s">
+        <v>315</v>
+      </c>
+      <c r="J12" t="s">
+        <v>314</v>
+      </c>
+      <c r="K12" t="s">
+        <v>312</v>
+      </c>
+      <c r="L12" t="s">
+        <v>312</v>
+      </c>
+      <c r="M12" t="s">
+        <v>312</v>
+      </c>
+      <c r="N12" t="s">
+        <v>312</v>
+      </c>
+      <c r="O12" t="s">
+        <v>312</v>
+      </c>
+      <c r="P12" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>312</v>
+      </c>
+      <c r="R12" t="s">
+        <v>313</v>
+      </c>
+      <c r="S12" t="s">
+        <v>313</v>
+      </c>
+      <c r="T12" t="s">
+        <v>313</v>
+      </c>
+      <c r="U12" t="s">
+        <v>314</v>
+      </c>
+      <c r="V12" t="s">
+        <v>314</v>
+      </c>
+      <c r="W12" t="s">
+        <v>312</v>
+      </c>
+      <c r="X12" t="s">
+        <v>312</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>312</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>312</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>312</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>313</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>312</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>312</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>312</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>312</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>314</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>312</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>312</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>313</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>312</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>312</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>314</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>312</v>
       </c>
     </row>
-    <row r="13" spans="2:40" customFormat="false">
-      <c r="B13" s="0" t="str">
-        <v>A---</v>
-      </c>
-      <c r="C13" s="0" t="str">
-        <v>ABCC</v>
-      </c>
-      <c r="D13" s="0" t="str">
-        <v>ABCC</v>
-      </c>
-      <c r="E13" s="0" t="str">
-        <v>----</v>
-      </c>
-      <c r="F13" s="0" t="str">
-        <v>A-CC</v>
-      </c>
-      <c r="G13" s="0" t="str">
-        <v>AB-C</v>
-      </c>
-      <c r="H13" s="0" t="str">
-        <v>-B-C</v>
-      </c>
-      <c r="I13" s="0" t="str">
-        <v>AB-C</v>
-      </c>
-      <c r="J13" s="0" t="str">
-        <v>ABCC</v>
-      </c>
-      <c r="K13" s="0" t="str">
-        <v>A--C</v>
-      </c>
-      <c r="L13" s="0" t="str">
-        <v>AB-C</v>
-      </c>
-      <c r="M13" s="0" t="str">
-        <v>A-CC</v>
-      </c>
-      <c r="N13" s="0" t="str">
-        <v>-B--</v>
-      </c>
-      <c r="O13" s="0" t="str">
-        <v>----</v>
-      </c>
-      <c r="P13" s="0" t="str">
-        <v>----</v>
-      </c>
-      <c r="Q13" s="0" t="str">
-        <v>A--C</v>
-      </c>
-      <c r="R13" s="0" t="str">
-        <v>-B--</v>
-      </c>
-      <c r="S13" s="0" t="str">
-        <v>AB-C</v>
-      </c>
-      <c r="T13" s="0" t="str">
-        <v>-B--</v>
-      </c>
-      <c r="U13" s="0" t="str">
-        <v>ABC-</v>
-      </c>
-      <c r="V13" s="0" t="str">
-        <v>ABCC</v>
-      </c>
-      <c r="W13" s="0" t="str">
-        <v>ABC-</v>
-      </c>
-      <c r="X13" s="0" t="str">
-        <v>----</v>
-      </c>
-      <c r="Y13" s="0" t="str">
-        <v>AB-C</v>
-      </c>
-      <c r="Z13" s="0" t="str">
-        <v>---C</v>
-      </c>
-      <c r="AA13" s="0" t="str">
-        <v>----</v>
-      </c>
-      <c r="AB13" s="0" t="str">
-        <v>-B--</v>
-      </c>
-      <c r="AC13" s="0" t="str">
-        <v>----</v>
-      </c>
-      <c r="AD13" s="0" t="str">
-        <v>----</v>
-      </c>
-      <c r="AE13" s="0" t="str">
-        <v>-B-C</v>
-      </c>
-      <c r="AF13" s="0" t="str">
-        <v>AB-C</v>
-      </c>
-      <c r="AG13" s="0" t="str">
-        <v>--C-</v>
-      </c>
-      <c r="AH13" s="0" t="str">
-        <v>A---</v>
-      </c>
-      <c r="AI13" s="0" t="str">
-        <v>A---</v>
-      </c>
-      <c r="AJ13" s="0" t="str">
-        <v>----</v>
-      </c>
-      <c r="AK13" s="0" t="str">
-        <v>----</v>
-      </c>
-      <c r="AL13" s="0" t="str">
-        <v>-BCC</v>
-      </c>
-      <c r="AM13" s="0" t="str">
-        <v>AB-C</v>
-      </c>
-      <c r="AN13" s="0" t="str">
-        <v>----</v>
+    <row r="13" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>316</v>
+      </c>
+      <c r="C13" t="s">
+        <v>317</v>
+      </c>
+      <c r="D13" t="s">
+        <v>317</v>
+      </c>
+      <c r="E13" t="s">
+        <v>318</v>
+      </c>
+      <c r="F13" t="s">
+        <v>319</v>
+      </c>
+      <c r="G13" t="s">
+        <v>320</v>
+      </c>
+      <c r="H13" t="s">
+        <v>321</v>
+      </c>
+      <c r="I13" t="s">
+        <v>320</v>
+      </c>
+      <c r="J13" t="s">
+        <v>317</v>
+      </c>
+      <c r="K13" t="s">
+        <v>322</v>
+      </c>
+      <c r="L13" t="s">
+        <v>320</v>
+      </c>
+      <c r="M13" t="s">
+        <v>319</v>
+      </c>
+      <c r="N13" t="s">
+        <v>323</v>
+      </c>
+      <c r="O13" t="s">
+        <v>318</v>
+      </c>
+      <c r="P13" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>322</v>
+      </c>
+      <c r="R13" t="s">
+        <v>323</v>
+      </c>
+      <c r="S13" t="s">
+        <v>320</v>
+      </c>
+      <c r="T13" t="s">
+        <v>323</v>
+      </c>
+      <c r="U13" t="s">
+        <v>324</v>
+      </c>
+      <c r="V13" t="s">
+        <v>317</v>
+      </c>
+      <c r="W13" t="s">
+        <v>324</v>
+      </c>
+      <c r="X13" t="s">
+        <v>318</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>320</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>325</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>318</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>323</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>318</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>318</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>321</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>320</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>326</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>316</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>316</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>318</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>318</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>327</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>320</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>318</v>
       </c>
     </row>
-    <row r="14" spans="2:40" customFormat="false">
-      <c r="B14" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="C14" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="D14" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="E14" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="F14" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="G14" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="H14" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="I14" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="J14" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="K14" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="L14" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="M14" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="N14" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="O14" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="P14" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="Q14" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="R14" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="S14" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="T14" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="U14" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="V14" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="W14" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="X14" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="Y14" s="0" t="str">
-        <v>A--</v>
-      </c>
-      <c r="Z14" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AA14" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AB14" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AC14" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AD14" s="0" t="str">
-        <v>-BC</v>
-      </c>
-      <c r="AE14" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AF14" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AG14" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AH14" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AI14" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="AJ14" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AK14" s="0" t="str">
-        <v>A--</v>
-      </c>
-      <c r="AL14" s="0" t="str">
-        <v>-BC</v>
-      </c>
-      <c r="AM14" s="0" t="str">
-        <v>A--</v>
-      </c>
-      <c r="AN14" s="0" t="str">
-        <v>AB-</v>
+    <row r="14" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>303</v>
+      </c>
+      <c r="C14" t="s">
+        <v>302</v>
+      </c>
+      <c r="D14" t="s">
+        <v>302</v>
+      </c>
+      <c r="E14" t="s">
+        <v>308</v>
+      </c>
+      <c r="F14" t="s">
+        <v>302</v>
+      </c>
+      <c r="G14" t="s">
+        <v>304</v>
+      </c>
+      <c r="H14" t="s">
+        <v>304</v>
+      </c>
+      <c r="I14" t="s">
+        <v>302</v>
+      </c>
+      <c r="J14" t="s">
+        <v>308</v>
+      </c>
+      <c r="K14" t="s">
+        <v>305</v>
+      </c>
+      <c r="L14" t="s">
+        <v>302</v>
+      </c>
+      <c r="M14" t="s">
+        <v>303</v>
+      </c>
+      <c r="N14" t="s">
+        <v>303</v>
+      </c>
+      <c r="O14" t="s">
+        <v>303</v>
+      </c>
+      <c r="P14" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>304</v>
+      </c>
+      <c r="R14" t="s">
+        <v>303</v>
+      </c>
+      <c r="S14" t="s">
+        <v>303</v>
+      </c>
+      <c r="T14" t="s">
+        <v>305</v>
+      </c>
+      <c r="U14" t="s">
+        <v>304</v>
+      </c>
+      <c r="V14" t="s">
+        <v>303</v>
+      </c>
+      <c r="W14" t="s">
+        <v>304</v>
+      </c>
+      <c r="X14" t="s">
+        <v>302</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>307</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>305</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>303</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>303</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>303</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>306</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>303</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>303</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>303</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>305</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>304</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>305</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>307</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>306</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>307</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>304</v>
       </c>
     </row>
-    <row r="15" spans="2:40" customFormat="false">
-      <c r="B15" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="C15" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="D15" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="E15" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="F15" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="G15" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="H15" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="I15" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="J15" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="K15" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="L15" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="M15" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="N15" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="O15" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="P15" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="Q15" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="R15" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="S15" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="T15" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="U15" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="V15" s="0" t="str">
-        <v>-BC</v>
-      </c>
-      <c r="W15" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="X15" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="Y15" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="Z15" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AA15" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AB15" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AC15" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AD15" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="AE15" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AF15" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AG15" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AH15" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AI15" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AJ15" s="0" t="str">
-        <v>-BC</v>
-      </c>
-      <c r="AK15" s="0" t="str">
-        <v>-BC</v>
-      </c>
-      <c r="AL15" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="AM15" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AN15" s="0" t="str">
-        <v>AB-</v>
+    <row r="15" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>303</v>
+      </c>
+      <c r="C15" t="s">
+        <v>303</v>
+      </c>
+      <c r="D15" t="s">
+        <v>303</v>
+      </c>
+      <c r="E15" t="s">
+        <v>303</v>
+      </c>
+      <c r="F15" t="s">
+        <v>302</v>
+      </c>
+      <c r="G15" t="s">
+        <v>303</v>
+      </c>
+      <c r="H15" t="s">
+        <v>303</v>
+      </c>
+      <c r="I15" t="s">
+        <v>303</v>
+      </c>
+      <c r="J15" t="s">
+        <v>303</v>
+      </c>
+      <c r="K15" t="s">
+        <v>303</v>
+      </c>
+      <c r="L15" t="s">
+        <v>302</v>
+      </c>
+      <c r="M15" t="s">
+        <v>303</v>
+      </c>
+      <c r="N15" t="s">
+        <v>303</v>
+      </c>
+      <c r="O15" t="s">
+        <v>303</v>
+      </c>
+      <c r="P15" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>303</v>
+      </c>
+      <c r="R15" t="s">
+        <v>303</v>
+      </c>
+      <c r="S15" t="s">
+        <v>303</v>
+      </c>
+      <c r="T15" t="s">
+        <v>302</v>
+      </c>
+      <c r="U15" t="s">
+        <v>303</v>
+      </c>
+      <c r="V15" t="s">
+        <v>306</v>
+      </c>
+      <c r="W15" t="s">
+        <v>303</v>
+      </c>
+      <c r="X15" t="s">
+        <v>303</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>302</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>303</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>303</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>303</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>303</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>302</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>303</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>303</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>303</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>303</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>303</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>306</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>306</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>302</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>303</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>304</v>
       </c>
     </row>
-    <row r="16" spans="2:40" customFormat="false">
-      <c r="B16" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="C16" s="0" t="str">
-        <v>A--</v>
-      </c>
-      <c r="D16" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="E16" s="0" t="str">
-        <v>-B-</v>
-      </c>
-      <c r="F16" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="G16" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="H16" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="I16" s="0" t="str">
-        <v>-BC</v>
-      </c>
-      <c r="J16" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="K16" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="L16" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="M16" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="N16" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="O16" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="P16" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="Q16" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="R16" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="S16" s="0" t="str">
-        <v>-BC</v>
-      </c>
-      <c r="T16" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="U16" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="V16" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="W16" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="X16" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="Y16" s="0" t="str">
-        <v>-BC</v>
-      </c>
-      <c r="Z16" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="AA16" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AB16" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AC16" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AD16" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AE16" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AF16" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AG16" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="AH16" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AI16" s="0" t="str">
-        <v>A--</v>
-      </c>
-      <c r="AJ16" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AK16" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AL16" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AM16" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AN16" s="0" t="str">
-        <v>---</v>
+    <row r="16" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>303</v>
+      </c>
+      <c r="C16" t="s">
+        <v>307</v>
+      </c>
+      <c r="D16" t="s">
+        <v>303</v>
+      </c>
+      <c r="E16" t="s">
+        <v>309</v>
+      </c>
+      <c r="F16" t="s">
+        <v>302</v>
+      </c>
+      <c r="G16" t="s">
+        <v>303</v>
+      </c>
+      <c r="H16" t="s">
+        <v>303</v>
+      </c>
+      <c r="I16" t="s">
+        <v>306</v>
+      </c>
+      <c r="J16" t="s">
+        <v>308</v>
+      </c>
+      <c r="K16" t="s">
+        <v>303</v>
+      </c>
+      <c r="L16" t="s">
+        <v>303</v>
+      </c>
+      <c r="M16" t="s">
+        <v>304</v>
+      </c>
+      <c r="N16" t="s">
+        <v>303</v>
+      </c>
+      <c r="O16" t="s">
+        <v>308</v>
+      </c>
+      <c r="P16" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>305</v>
+      </c>
+      <c r="R16" t="s">
+        <v>305</v>
+      </c>
+      <c r="S16" t="s">
+        <v>306</v>
+      </c>
+      <c r="T16" t="s">
+        <v>304</v>
+      </c>
+      <c r="U16" t="s">
+        <v>305</v>
+      </c>
+      <c r="V16" t="s">
+        <v>308</v>
+      </c>
+      <c r="W16" t="s">
+        <v>303</v>
+      </c>
+      <c r="X16" t="s">
+        <v>304</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>306</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>304</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>303</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>303</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>303</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>303</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>303</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>305</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>304</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>305</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>307</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>303</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>303</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>303</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>303</v>
+      </c>
+      <c r="AN16" t="s">
+        <v>305</v>
       </c>
     </row>
-    <row r="17" spans="2:40" customFormat="false">
-      <c r="B17" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="C17" s="0" t="str">
-        <v>A--</v>
-      </c>
-      <c r="D17" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="E17" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="F17" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="G17" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="H17" s="0" t="str">
-        <v>-BC</v>
-      </c>
-      <c r="I17" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="J17" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="K17" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="L17" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="M17" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="N17" s="0" t="str">
-        <v>A--</v>
-      </c>
-      <c r="O17" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="P17" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="Q17" s="0" t="str">
-        <v>A--</v>
-      </c>
-      <c r="R17" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="S17" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="T17" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="U17" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="V17" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="W17" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="X17" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="Y17" s="0" t="str">
-        <v>-B-</v>
-      </c>
-      <c r="Z17" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AA17" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="AB17" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AC17" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AD17" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="AE17" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AF17" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AG17" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AH17" s="0" t="str">
-        <v>-B-</v>
-      </c>
-      <c r="AI17" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="AJ17" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AK17" s="0" t="str">
-        <v>A--</v>
-      </c>
-      <c r="AL17" s="0" t="str">
-        <v>-BC</v>
-      </c>
-      <c r="AM17" s="0" t="str">
-        <v>A--</v>
-      </c>
-      <c r="AN17" s="0" t="str">
-        <v>-B-</v>
+    <row r="17" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>303</v>
+      </c>
+      <c r="C17" t="s">
+        <v>307</v>
+      </c>
+      <c r="D17" t="s">
+        <v>304</v>
+      </c>
+      <c r="E17" t="s">
+        <v>305</v>
+      </c>
+      <c r="F17" t="s">
+        <v>308</v>
+      </c>
+      <c r="G17" t="s">
+        <v>305</v>
+      </c>
+      <c r="H17" t="s">
+        <v>306</v>
+      </c>
+      <c r="I17" t="s">
+        <v>303</v>
+      </c>
+      <c r="J17" t="s">
+        <v>305</v>
+      </c>
+      <c r="K17" t="s">
+        <v>305</v>
+      </c>
+      <c r="L17" t="s">
+        <v>305</v>
+      </c>
+      <c r="M17" t="s">
+        <v>308</v>
+      </c>
+      <c r="N17" t="s">
+        <v>307</v>
+      </c>
+      <c r="O17" t="s">
+        <v>304</v>
+      </c>
+      <c r="P17" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>307</v>
+      </c>
+      <c r="R17" t="s">
+        <v>304</v>
+      </c>
+      <c r="S17" t="s">
+        <v>304</v>
+      </c>
+      <c r="T17" t="s">
+        <v>304</v>
+      </c>
+      <c r="U17" t="s">
+        <v>304</v>
+      </c>
+      <c r="V17" t="s">
+        <v>303</v>
+      </c>
+      <c r="W17" t="s">
+        <v>305</v>
+      </c>
+      <c r="X17" t="s">
+        <v>302</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>309</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>303</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>304</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>305</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>305</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>308</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>305</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>305</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>305</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>309</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>302</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>305</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>307</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>306</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>307</v>
+      </c>
+      <c r="AN17" t="s">
+        <v>309</v>
       </c>
     </row>
-    <row r="18" spans="2:40" customFormat="false">
-      <c r="B18" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="C18" s="0" t="str">
-        <v>-B-</v>
-      </c>
-      <c r="D18" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="E18" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="F18" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="G18" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="H18" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="I18" s="0" t="str">
-        <v>-B-</v>
-      </c>
-      <c r="J18" s="0" t="str">
-        <v>-B-</v>
-      </c>
-      <c r="K18" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="L18" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="M18" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="N18" s="0" t="str">
-        <v>-B-</v>
-      </c>
-      <c r="O18" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="P18" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="Q18" s="0" t="str">
-        <v>-B-</v>
-      </c>
-      <c r="R18" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="S18" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="T18" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="U18" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="V18" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="W18" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="X18" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="Y18" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="Z18" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AA18" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="AB18" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AC18" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AD18" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AE18" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="AF18" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="AG18" s="0" t="str">
-        <v>-B-</v>
-      </c>
-      <c r="AH18" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="AI18" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AJ18" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="AK18" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AL18" s="0" t="str">
-        <v>-BC</v>
-      </c>
-      <c r="AM18" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AN18" s="0" t="str">
-        <v>---</v>
+    <row r="18" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>305</v>
+      </c>
+      <c r="C18" t="s">
+        <v>309</v>
+      </c>
+      <c r="D18" t="s">
+        <v>308</v>
+      </c>
+      <c r="E18" t="s">
+        <v>305</v>
+      </c>
+      <c r="F18" t="s">
+        <v>308</v>
+      </c>
+      <c r="G18" t="s">
+        <v>305</v>
+      </c>
+      <c r="H18" t="s">
+        <v>304</v>
+      </c>
+      <c r="I18" t="s">
+        <v>309</v>
+      </c>
+      <c r="J18" t="s">
+        <v>309</v>
+      </c>
+      <c r="K18" t="s">
+        <v>305</v>
+      </c>
+      <c r="L18" t="s">
+        <v>305</v>
+      </c>
+      <c r="M18" t="s">
+        <v>305</v>
+      </c>
+      <c r="N18" t="s">
+        <v>309</v>
+      </c>
+      <c r="O18" t="s">
+        <v>305</v>
+      </c>
+      <c r="P18" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>309</v>
+      </c>
+      <c r="R18" t="s">
+        <v>302</v>
+      </c>
+      <c r="S18" t="s">
+        <v>305</v>
+      </c>
+      <c r="T18" t="s">
+        <v>305</v>
+      </c>
+      <c r="U18" t="s">
+        <v>308</v>
+      </c>
+      <c r="V18" t="s">
+        <v>305</v>
+      </c>
+      <c r="W18" t="s">
+        <v>305</v>
+      </c>
+      <c r="X18" t="s">
+        <v>305</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>305</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>305</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>308</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>305</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>305</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>305</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>304</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>302</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>309</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>304</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>305</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>302</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>305</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>306</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>303</v>
+      </c>
+      <c r="AN18" t="s">
+        <v>305</v>
       </c>
     </row>
-    <row r="19" spans="2:40" customFormat="false">
-      <c r="B19" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="C19" s="0" t="str">
-        <v>-B-</v>
-      </c>
-      <c r="D19" s="0" t="str">
-        <v>A--</v>
-      </c>
-      <c r="E19" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="F19" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="G19" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="H19" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="I19" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="J19" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="K19" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="L19" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="M19" s="0" t="str">
-        <v>-B-</v>
-      </c>
-      <c r="N19" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="O19" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="P19" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="Q19" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="R19" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="S19" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="T19" s="0" t="str">
-        <v>-B-</v>
-      </c>
-      <c r="U19" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="V19" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="W19" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="X19" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="Y19" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="Z19" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AA19" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AB19" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AC19" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AD19" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AE19" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AF19" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AG19" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AH19" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AI19" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AJ19" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AK19" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AL19" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AM19" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AN19" s="0" t="str">
-        <v>AB-</v>
+    <row r="19" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>305</v>
+      </c>
+      <c r="C19" t="s">
+        <v>309</v>
+      </c>
+      <c r="D19" t="s">
+        <v>307</v>
+      </c>
+      <c r="E19" t="s">
+        <v>305</v>
+      </c>
+      <c r="F19" t="s">
+        <v>308</v>
+      </c>
+      <c r="G19" t="s">
+        <v>305</v>
+      </c>
+      <c r="H19" t="s">
+        <v>305</v>
+      </c>
+      <c r="I19" t="s">
+        <v>305</v>
+      </c>
+      <c r="J19" t="s">
+        <v>305</v>
+      </c>
+      <c r="K19" t="s">
+        <v>305</v>
+      </c>
+      <c r="L19" t="s">
+        <v>305</v>
+      </c>
+      <c r="M19" t="s">
+        <v>309</v>
+      </c>
+      <c r="N19" t="s">
+        <v>305</v>
+      </c>
+      <c r="O19" t="s">
+        <v>305</v>
+      </c>
+      <c r="P19" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>305</v>
+      </c>
+      <c r="R19" t="s">
+        <v>305</v>
+      </c>
+      <c r="S19" t="s">
+        <v>305</v>
+      </c>
+      <c r="T19" t="s">
+        <v>309</v>
+      </c>
+      <c r="U19" t="s">
+        <v>305</v>
+      </c>
+      <c r="V19" t="s">
+        <v>305</v>
+      </c>
+      <c r="W19" t="s">
+        <v>305</v>
+      </c>
+      <c r="X19" t="s">
+        <v>305</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>305</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>305</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>305</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>305</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>305</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>305</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>305</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>305</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>305</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>305</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>305</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>305</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>305</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>305</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>305</v>
+      </c>
+      <c r="AN19" t="s">
+        <v>304</v>
       </c>
     </row>
-    <row r="20" spans="2:40" customFormat="false">
-      <c r="B20" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="C20" s="0" t="str">
-        <v>-B-</v>
-      </c>
-      <c r="D20" s="0" t="str">
-        <v>A--</v>
-      </c>
-      <c r="E20" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="F20" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="G20" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="H20" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="I20" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="J20" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="K20" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="L20" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="M20" s="0" t="str">
-        <v>-B-</v>
-      </c>
-      <c r="N20" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="O20" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="P20" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="Q20" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="R20" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="S20" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="T20" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="U20" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="V20" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="W20" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="X20" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="Y20" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="Z20" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AA20" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AB20" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AC20" s="0" t="str">
-        <v>A--</v>
-      </c>
-      <c r="AD20" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AE20" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AF20" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="AG20" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AH20" s="0" t="str">
-        <v>-B-</v>
-      </c>
-      <c r="AI20" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AJ20" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AK20" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AL20" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="AM20" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AN20" s="0" t="str">
-        <v>-B-</v>
+    <row r="20" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>305</v>
+      </c>
+      <c r="C20" t="s">
+        <v>309</v>
+      </c>
+      <c r="D20" t="s">
+        <v>307</v>
+      </c>
+      <c r="E20" t="s">
+        <v>305</v>
+      </c>
+      <c r="F20" t="s">
+        <v>308</v>
+      </c>
+      <c r="G20" t="s">
+        <v>305</v>
+      </c>
+      <c r="H20" t="s">
+        <v>305</v>
+      </c>
+      <c r="I20" t="s">
+        <v>305</v>
+      </c>
+      <c r="J20" t="s">
+        <v>308</v>
+      </c>
+      <c r="K20" t="s">
+        <v>305</v>
+      </c>
+      <c r="L20" t="s">
+        <v>305</v>
+      </c>
+      <c r="M20" t="s">
+        <v>309</v>
+      </c>
+      <c r="N20" t="s">
+        <v>305</v>
+      </c>
+      <c r="O20" t="s">
+        <v>305</v>
+      </c>
+      <c r="P20" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>305</v>
+      </c>
+      <c r="R20" t="s">
+        <v>305</v>
+      </c>
+      <c r="S20" t="s">
+        <v>305</v>
+      </c>
+      <c r="T20" t="s">
+        <v>303</v>
+      </c>
+      <c r="U20" t="s">
+        <v>305</v>
+      </c>
+      <c r="V20" t="s">
+        <v>305</v>
+      </c>
+      <c r="W20" t="s">
+        <v>305</v>
+      </c>
+      <c r="X20" t="s">
+        <v>305</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>305</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>305</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>305</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>305</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>307</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>305</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>305</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>308</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>305</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>309</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>305</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>305</v>
+      </c>
+      <c r="AK20" t="s">
+        <v>305</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>308</v>
+      </c>
+      <c r="AM20" t="s">
+        <v>305</v>
+      </c>
+      <c r="AN20" t="s">
+        <v>309</v>
       </c>
     </row>
-    <row r="21" spans="2:40" customFormat="false">
-      <c r="B21" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="C21" s="0" t="str">
-        <v>-B-</v>
-      </c>
-      <c r="D21" s="0" t="str">
-        <v>A--</v>
-      </c>
-      <c r="E21" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="F21" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="G21" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="H21" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="I21" s="0" t="str">
-        <v>A--</v>
-      </c>
-      <c r="J21" s="0" t="str">
-        <v>A--</v>
-      </c>
-      <c r="K21" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="L21" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="M21" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="N21" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="O21" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="P21" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="Q21" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="R21" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="S21" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="T21" s="0" t="str">
-        <v>-BC</v>
-      </c>
-      <c r="U21" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="V21" s="0" t="str">
-        <v>A--</v>
-      </c>
-      <c r="W21" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="X21" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="Y21" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="Z21" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AA21" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AB21" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AC21" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AD21" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AE21" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AF21" s="0" t="str">
-        <v>A--</v>
-      </c>
-      <c r="AG21" s="0" t="str">
-        <v>-B-</v>
-      </c>
-      <c r="AH21" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AI21" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AJ21" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AK21" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AL21" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AM21" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AN21" s="0" t="str">
-        <v>---</v>
+    <row r="21" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>305</v>
+      </c>
+      <c r="C21" t="s">
+        <v>309</v>
+      </c>
+      <c r="D21" t="s">
+        <v>307</v>
+      </c>
+      <c r="E21" t="s">
+        <v>305</v>
+      </c>
+      <c r="F21" t="s">
+        <v>308</v>
+      </c>
+      <c r="G21" t="s">
+        <v>305</v>
+      </c>
+      <c r="H21" t="s">
+        <v>305</v>
+      </c>
+      <c r="I21" t="s">
+        <v>307</v>
+      </c>
+      <c r="J21" t="s">
+        <v>307</v>
+      </c>
+      <c r="K21" t="s">
+        <v>305</v>
+      </c>
+      <c r="L21" t="s">
+        <v>305</v>
+      </c>
+      <c r="M21" t="s">
+        <v>304</v>
+      </c>
+      <c r="N21" t="s">
+        <v>305</v>
+      </c>
+      <c r="O21" t="s">
+        <v>305</v>
+      </c>
+      <c r="P21" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>305</v>
+      </c>
+      <c r="R21" t="s">
+        <v>305</v>
+      </c>
+      <c r="S21" t="s">
+        <v>305</v>
+      </c>
+      <c r="T21" t="s">
+        <v>306</v>
+      </c>
+      <c r="U21" t="s">
+        <v>305</v>
+      </c>
+      <c r="V21" t="s">
+        <v>307</v>
+      </c>
+      <c r="W21" t="s">
+        <v>305</v>
+      </c>
+      <c r="X21" t="s">
+        <v>305</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>305</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>305</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>305</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>305</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>305</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>305</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>305</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>307</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>309</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>305</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>305</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>305</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>305</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>305</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>305</v>
+      </c>
+      <c r="AN21" t="s">
+        <v>305</v>
       </c>
     </row>
-    <row r="22" spans="2:40" customFormat="false">
-      <c r="B22" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="C22" s="0" t="str">
-        <v>-B-</v>
-      </c>
-      <c r="D22" s="0" t="str">
-        <v>A--</v>
-      </c>
-      <c r="E22" s="0" t="str">
-        <v>A--</v>
-      </c>
-      <c r="F22" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="G22" s="0" t="str">
-        <v>-BC</v>
-      </c>
-      <c r="H22" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="I22" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="J22" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="K22" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="L22" s="0" t="str">
-        <v>-BC</v>
-      </c>
-      <c r="M22" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="N22" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="O22" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="P22" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="Q22" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="R22" s="0" t="str">
-        <v>-B-</v>
-      </c>
-      <c r="S22" s="0" t="str">
-        <v>-B-</v>
-      </c>
-      <c r="T22" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="U22" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="V22" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="W22" s="0" t="str">
-        <v>-BC</v>
-      </c>
-      <c r="X22" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="Y22" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="Z22" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="AA22" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AB22" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AC22" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AD22" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="AE22" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AF22" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AG22" s="0" t="str">
-        <v>A--</v>
-      </c>
-      <c r="AH22" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="AI22" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AJ22" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AK22" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="AL22" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="AM22" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="AN22" s="0" t="str">
-        <v>---</v>
+    <row r="22" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>304</v>
+      </c>
+      <c r="C22" t="s">
+        <v>309</v>
+      </c>
+      <c r="D22" t="s">
+        <v>307</v>
+      </c>
+      <c r="E22" t="s">
+        <v>307</v>
+      </c>
+      <c r="F22" t="s">
+        <v>308</v>
+      </c>
+      <c r="G22" t="s">
+        <v>306</v>
+      </c>
+      <c r="H22" t="s">
+        <v>303</v>
+      </c>
+      <c r="I22" t="s">
+        <v>304</v>
+      </c>
+      <c r="J22" t="s">
+        <v>302</v>
+      </c>
+      <c r="K22" t="s">
+        <v>303</v>
+      </c>
+      <c r="L22" t="s">
+        <v>306</v>
+      </c>
+      <c r="M22" t="s">
+        <v>304</v>
+      </c>
+      <c r="N22" t="s">
+        <v>308</v>
+      </c>
+      <c r="O22" t="s">
+        <v>305</v>
+      </c>
+      <c r="P22" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>303</v>
+      </c>
+      <c r="R22" t="s">
+        <v>309</v>
+      </c>
+      <c r="S22" t="s">
+        <v>309</v>
+      </c>
+      <c r="T22" t="s">
+        <v>304</v>
+      </c>
+      <c r="U22" t="s">
+        <v>302</v>
+      </c>
+      <c r="V22" t="s">
+        <v>305</v>
+      </c>
+      <c r="W22" t="s">
+        <v>306</v>
+      </c>
+      <c r="X22" t="s">
+        <v>305</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>302</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>304</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>303</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>303</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>303</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>302</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>305</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>305</v>
+      </c>
+      <c r="AG22" t="s">
+        <v>307</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>304</v>
+      </c>
+      <c r="AI22" t="s">
+        <v>305</v>
+      </c>
+      <c r="AJ22" t="s">
+        <v>303</v>
+      </c>
+      <c r="AK22" t="s">
+        <v>308</v>
+      </c>
+      <c r="AL22" t="s">
+        <v>308</v>
+      </c>
+      <c r="AM22" t="s">
+        <v>308</v>
+      </c>
+      <c r="AN22" t="s">
+        <v>305</v>
       </c>
     </row>
-    <row r="23" spans="2:40" customFormat="false">
-      <c r="B23" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="C23" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="D23" s="0" t="str">
-        <v>A--</v>
-      </c>
-      <c r="E23" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="F23" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="G23" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="H23" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="I23" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="J23" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="K23" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="L23" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="M23" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="N23" s="0" t="str">
-        <v>-BC</v>
-      </c>
-      <c r="O23" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="P23" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="Q23" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="R23" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="S23" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="T23" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="U23" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="V23" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="W23" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="X23" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="Y23" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="Z23" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AA23" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="AB23" s="0" t="str">
-        <v>-BC</v>
-      </c>
-      <c r="AC23" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="AD23" s="0" t="str">
-        <v>-BC</v>
-      </c>
-      <c r="AE23" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AF23" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AG23" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AH23" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AI23" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AJ23" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AK23" s="0" t="str">
-        <v>A--</v>
-      </c>
-      <c r="AL23" s="0" t="str">
-        <v>-BC</v>
-      </c>
-      <c r="AM23" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AN23" s="0" t="str">
-        <v>-B-</v>
+    <row r="23" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>308</v>
+      </c>
+      <c r="C23" t="s">
+        <v>305</v>
+      </c>
+      <c r="D23" t="s">
+        <v>307</v>
+      </c>
+      <c r="E23" t="s">
+        <v>305</v>
+      </c>
+      <c r="F23" t="s">
+        <v>308</v>
+      </c>
+      <c r="G23" t="s">
+        <v>308</v>
+      </c>
+      <c r="H23" t="s">
+        <v>303</v>
+      </c>
+      <c r="I23" t="s">
+        <v>303</v>
+      </c>
+      <c r="J23" t="s">
+        <v>303</v>
+      </c>
+      <c r="K23" t="s">
+        <v>303</v>
+      </c>
+      <c r="L23" t="s">
+        <v>305</v>
+      </c>
+      <c r="M23" t="s">
+        <v>304</v>
+      </c>
+      <c r="N23" t="s">
+        <v>306</v>
+      </c>
+      <c r="O23" t="s">
+        <v>308</v>
+      </c>
+      <c r="P23" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>304</v>
+      </c>
+      <c r="R23" t="s">
+        <v>303</v>
+      </c>
+      <c r="S23" t="s">
+        <v>305</v>
+      </c>
+      <c r="T23" t="s">
+        <v>303</v>
+      </c>
+      <c r="U23" t="s">
+        <v>302</v>
+      </c>
+      <c r="V23" t="s">
+        <v>305</v>
+      </c>
+      <c r="W23" t="s">
+        <v>305</v>
+      </c>
+      <c r="X23" t="s">
+        <v>305</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>304</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>305</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>308</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>306</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>304</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>306</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>303</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>305</v>
+      </c>
+      <c r="AG23" t="s">
+        <v>303</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>303</v>
+      </c>
+      <c r="AI23" t="s">
+        <v>305</v>
+      </c>
+      <c r="AJ23" t="s">
+        <v>303</v>
+      </c>
+      <c r="AK23" t="s">
+        <v>307</v>
+      </c>
+      <c r="AL23" t="s">
+        <v>306</v>
+      </c>
+      <c r="AM23" t="s">
+        <v>303</v>
+      </c>
+      <c r="AN23" t="s">
+        <v>309</v>
       </c>
     </row>
-    <row r="24" spans="2:40" customFormat="false">
-      <c r="B24" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="C24" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="D24" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="E24" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="F24" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="G24" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="H24" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="I24" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="J24" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="K24" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="L24" s="0" t="str">
-        <v>-B-</v>
-      </c>
-      <c r="M24" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="N24" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="O24" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="P24" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="Q24" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="R24" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="S24" s="0" t="str">
-        <v>-BC</v>
-      </c>
-      <c r="T24" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="U24" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="V24" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="W24" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="X24" s="0" t="str">
-        <v>-B-</v>
-      </c>
-      <c r="Y24" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="Z24" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="AA24" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AB24" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AC24" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AD24" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AE24" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AF24" s="0" t="str">
-        <v>-BC</v>
-      </c>
-      <c r="AG24" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AH24" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AI24" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AJ24" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AK24" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AL24" s="0" t="str">
-        <v>-BC</v>
-      </c>
-      <c r="AM24" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="AN24" s="0" t="str">
-        <v>---</v>
+    <row r="24" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>305</v>
+      </c>
+      <c r="C24" t="s">
+        <v>305</v>
+      </c>
+      <c r="D24" t="s">
+        <v>303</v>
+      </c>
+      <c r="E24" t="s">
+        <v>303</v>
+      </c>
+      <c r="F24" t="s">
+        <v>302</v>
+      </c>
+      <c r="G24" t="s">
+        <v>303</v>
+      </c>
+      <c r="H24" t="s">
+        <v>305</v>
+      </c>
+      <c r="I24" t="s">
+        <v>305</v>
+      </c>
+      <c r="J24" t="s">
+        <v>303</v>
+      </c>
+      <c r="K24" t="s">
+        <v>303</v>
+      </c>
+      <c r="L24" t="s">
+        <v>309</v>
+      </c>
+      <c r="M24" t="s">
+        <v>305</v>
+      </c>
+      <c r="N24" t="s">
+        <v>303</v>
+      </c>
+      <c r="O24" t="s">
+        <v>303</v>
+      </c>
+      <c r="P24" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>305</v>
+      </c>
+      <c r="R24" t="s">
+        <v>305</v>
+      </c>
+      <c r="S24" t="s">
+        <v>306</v>
+      </c>
+      <c r="T24" t="s">
+        <v>305</v>
+      </c>
+      <c r="U24" t="s">
+        <v>305</v>
+      </c>
+      <c r="V24" t="s">
+        <v>305</v>
+      </c>
+      <c r="W24" t="s">
+        <v>308</v>
+      </c>
+      <c r="X24" t="s">
+        <v>309</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>305</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>308</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>303</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>303</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>303</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>303</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>303</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>306</v>
+      </c>
+      <c r="AG24" t="s">
+        <v>305</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>305</v>
+      </c>
+      <c r="AI24" t="s">
+        <v>305</v>
+      </c>
+      <c r="AJ24" t="s">
+        <v>303</v>
+      </c>
+      <c r="AK24" t="s">
+        <v>303</v>
+      </c>
+      <c r="AL24" t="s">
+        <v>306</v>
+      </c>
+      <c r="AM24" t="s">
+        <v>304</v>
+      </c>
+      <c r="AN24" t="s">
+        <v>305</v>
       </c>
     </row>
-    <row r="25" spans="2:40" customFormat="false">
-      <c r="B25" s="0" t="str">
-        <v/>
-      </c>
-      <c r="C25" s="0" t="str">
-        <v/>
-      </c>
-      <c r="D25" s="0" t="str">
-        <v/>
-      </c>
-      <c r="E25" s="0" t="str">
-        <v/>
-      </c>
-      <c r="F25" s="0" t="str">
-        <v/>
-      </c>
-      <c r="G25" s="0" t="str">
-        <v/>
-      </c>
-      <c r="H25" s="0" t="str">
-        <v/>
-      </c>
-      <c r="I25" s="0" t="str">
-        <v/>
-      </c>
-      <c r="J25" s="0" t="str">
-        <v/>
-      </c>
-      <c r="K25" s="0" t="str">
-        <v/>
-      </c>
-      <c r="L25" s="0" t="str">
-        <v/>
-      </c>
-      <c r="M25" s="0" t="str">
-        <v/>
-      </c>
-      <c r="N25" s="0" t="str">
-        <v/>
-      </c>
-      <c r="O25" s="0" t="str">
-        <v/>
-      </c>
-      <c r="P25" s="0" t="str">
-        <v/>
-      </c>
-      <c r="Q25" s="0" t="str">
-        <v/>
-      </c>
-      <c r="R25" s="0" t="str">
-        <v/>
-      </c>
-      <c r="S25" s="0" t="str">
-        <v/>
-      </c>
-      <c r="T25" s="0" t="str">
-        <v/>
-      </c>
-      <c r="U25" s="0" t="str">
-        <v/>
-      </c>
-      <c r="V25" s="0" t="str">
-        <v/>
-      </c>
-      <c r="W25" s="0" t="str">
-        <v/>
-      </c>
-      <c r="X25" s="0" t="str">
-        <v/>
-      </c>
-      <c r="Y25" s="0" t="str">
-        <v/>
-      </c>
-      <c r="Z25" s="0" t="str">
-        <v/>
-      </c>
-      <c r="AA25" s="0" t="str">
-        <v/>
-      </c>
-      <c r="AB25" s="0" t="str">
-        <v/>
-      </c>
-      <c r="AC25" s="0" t="str">
-        <v/>
-      </c>
-      <c r="AD25" s="0" t="str">
-        <v/>
-      </c>
-      <c r="AE25" s="0" t="str">
-        <v/>
-      </c>
-      <c r="AF25" s="0" t="str">
-        <v/>
-      </c>
-      <c r="AG25" s="0" t="str">
-        <v/>
-      </c>
-      <c r="AH25" s="0" t="str">
-        <v/>
-      </c>
-      <c r="AI25" s="0" t="str">
-        <v/>
-      </c>
-      <c r="AJ25" s="0" t="str">
-        <v/>
-      </c>
-      <c r="AK25" s="0" t="str">
-        <v/>
-      </c>
-      <c r="AL25" s="0" t="str">
-        <v/>
-      </c>
-      <c r="AM25" s="0" t="str">
-        <v/>
-      </c>
-      <c r="AN25" s="0" t="str">
-        <v/>
+    <row r="25" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>328</v>
+      </c>
+      <c r="C25" t="s">
+        <v>328</v>
+      </c>
+      <c r="D25" t="s">
+        <v>328</v>
+      </c>
+      <c r="E25" t="s">
+        <v>328</v>
+      </c>
+      <c r="F25" t="s">
+        <v>328</v>
+      </c>
+      <c r="G25" t="s">
+        <v>328</v>
+      </c>
+      <c r="H25" t="s">
+        <v>328</v>
+      </c>
+      <c r="I25" t="s">
+        <v>328</v>
+      </c>
+      <c r="J25" t="s">
+        <v>328</v>
+      </c>
+      <c r="K25" t="s">
+        <v>328</v>
+      </c>
+      <c r="L25" t="s">
+        <v>328</v>
+      </c>
+      <c r="M25" t="s">
+        <v>328</v>
+      </c>
+      <c r="N25" t="s">
+        <v>328</v>
+      </c>
+      <c r="O25" t="s">
+        <v>328</v>
+      </c>
+      <c r="P25" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>328</v>
+      </c>
+      <c r="R25" t="s">
+        <v>328</v>
+      </c>
+      <c r="S25" t="s">
+        <v>328</v>
+      </c>
+      <c r="T25" t="s">
+        <v>328</v>
+      </c>
+      <c r="U25" t="s">
+        <v>328</v>
+      </c>
+      <c r="V25" t="s">
+        <v>328</v>
+      </c>
+      <c r="W25" t="s">
+        <v>328</v>
+      </c>
+      <c r="X25" t="s">
+        <v>328</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>328</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>328</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>328</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>328</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>328</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>328</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>328</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>328</v>
+      </c>
+      <c r="AG25" t="s">
+        <v>328</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>328</v>
+      </c>
+      <c r="AI25" t="s">
+        <v>328</v>
+      </c>
+      <c r="AJ25" t="s">
+        <v>328</v>
+      </c>
+      <c r="AK25" t="s">
+        <v>328</v>
+      </c>
+      <c r="AL25" t="s">
+        <v>328</v>
+      </c>
+      <c r="AM25" t="s">
+        <v>328</v>
+      </c>
+      <c r="AN25" t="s">
+        <v>328</v>
       </c>
     </row>
   </sheetData>

--- a/speaking.xlsx
+++ b/speaking.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17766"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\csexton.HICKORYPD\Documents\GitHub\rubyspanishxlsx\"/>
     </mc:Choice>
@@ -12,8 +12,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Form Responses 1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Form Responses 1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Form Responses 1'!$A$1:$CJ$40</definedName>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4350" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="302" count="302">
   <si>
     <t>Timestamp</t>
   </si>
@@ -929,111 +929,30 @@
   </si>
   <si>
     <t>Be able to have the courage to speak.</t>
-  </si>
-  <si>
-    <t>A-C</t>
-  </si>
-  <si>
-    <t>ABC</t>
-  </si>
-  <si>
-    <t>AB-</t>
-  </si>
-  <si>
-    <t>---</t>
-  </si>
-  <si>
-    <t>-BC</t>
-  </si>
-  <si>
-    <t>A--</t>
-  </si>
-  <si>
-    <t>--C</t>
-  </si>
-  <si>
-    <t>-B-</t>
-  </si>
-  <si>
-    <t>AC</t>
-  </si>
-  <si>
-    <t>-C</t>
-  </si>
-  <si>
-    <t>--</t>
-  </si>
-  <si>
-    <t>A-</t>
-  </si>
-  <si>
-    <t>AB</t>
-  </si>
-  <si>
-    <t>-B</t>
-  </si>
-  <si>
-    <t>A---</t>
-  </si>
-  <si>
-    <t>ABCC</t>
-  </si>
-  <si>
-    <t>----</t>
-  </si>
-  <si>
-    <t>A-CC</t>
-  </si>
-  <si>
-    <t>AB-C</t>
-  </si>
-  <si>
-    <t>-B-C</t>
-  </si>
-  <si>
-    <t>A--C</t>
-  </si>
-  <si>
-    <t>-B--</t>
-  </si>
-  <si>
-    <t>ABC-</t>
-  </si>
-  <si>
-    <t>---C</t>
-  </si>
-  <si>
-    <t>--C-</t>
-  </si>
-  <si>
-    <t>-BCC</t>
-  </si>
-  <si>
-    <t/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
+      <name val="Arial"/>
+      <color rgb="FF000000"/>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
     </font>
     <font>
+      <name val="Arial"/>
       <sz val="10"/>
-      <name val="Arial"/>
     </font>
     <font>
-      <u/>
+      <name val="Arial"/>
+      <color rgb="FF0000FF"/>
       <sz val="10"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
+      <u val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1066,7 +985,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16" count="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1234,53 +1153,53 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
+                <a:tint val="67000"/>
+                <a:satMod val="105000"/>
                 <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
+                <a:tint val="73000"/>
+                <a:satMod val="103000"/>
                 <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
+                <a:tint val="81000"/>
+                <a:satMod val="109000"/>
                 <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
+                <a:tint val="94000"/>
                 <a:satMod val="103000"/>
                 <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
+                <a:shade val="100000"/>
                 <a:satMod val="110000"/>
                 <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
+                <a:shade val="78000"/>
+                <a:satMod val="120000"/>
                 <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -1315,7 +1234,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="false">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1338,16 +1257,16 @@
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="93000"/>
+                <a:shade val="98000"/>
                 <a:satMod val="150000"/>
-                <a:shade val="98000"/>
                 <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
                 <a:tint val="98000"/>
+                <a:shade val="90000"/>
                 <a:satMod val="130000"/>
-                <a:shade val="90000"/>
                 <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
@@ -1358,7 +1277,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -1374,7 +1293,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
   <dimension ref="A1:CJ40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1384,13 +1303,13 @@
       <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="8.85546875" customWidth="1"/>
     <col min="2" max="88" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:88" customFormat="false" ht="15.75" customHeight="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1656,7 +1575,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:88" customFormat="false" ht="15.75" customHeight="1">
       <c r="A2" s="1">
         <v>42775.709293587963</v>
       </c>
@@ -1922,7 +1841,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:88" customFormat="false" ht="15.75" customHeight="1">
       <c r="A3" s="1">
         <v>42774.651042094905</v>
       </c>
@@ -2188,7 +2107,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:88" customFormat="false" ht="15.75" customHeight="1">
       <c r="A4" s="1">
         <v>42774.650523738426</v>
       </c>
@@ -2454,7 +2373,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:88" customFormat="false" ht="15.75" customHeight="1">
       <c r="A5" s="1">
         <v>42774.652556516201</v>
       </c>
@@ -2720,7 +2639,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:88" customFormat="false" ht="15.75" customHeight="1">
       <c r="A6" s="1">
         <v>42774.653896550924</v>
       </c>
@@ -2986,7 +2905,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:88" customFormat="false" ht="15.75" customHeight="1">
       <c r="A7" s="1">
         <v>42775.502814594904</v>
       </c>
@@ -3252,7 +3171,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:88" customFormat="false" ht="15.75" customHeight="1">
       <c r="A8" s="1">
         <v>42774.433026203704</v>
       </c>
@@ -3518,7 +3437,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:88" customFormat="false" ht="15.75" customHeight="1">
       <c r="A9" s="1">
         <v>42774.431579351847</v>
       </c>
@@ -3784,7 +3703,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="10" spans="1:88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:88" customFormat="false" ht="15.75" customHeight="1">
       <c r="A10" s="1">
         <v>42774.652178321761</v>
       </c>
@@ -4050,7 +3969,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="11" spans="1:88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:88" customFormat="false" ht="15.75" customHeight="1">
       <c r="A11" s="1">
         <v>42774.435710474536</v>
       </c>
@@ -4316,7 +4235,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="12" spans="1:88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:88" customFormat="false" ht="15.75" customHeight="1">
       <c r="A12" s="1">
         <v>42774.652534039356</v>
       </c>
@@ -4582,7 +4501,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="13" spans="1:88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:88" customFormat="false" ht="15.75" customHeight="1">
       <c r="A13" s="1">
         <v>42774.644888703704</v>
       </c>
@@ -4848,7 +4767,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="14" spans="1:88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:88" customFormat="false" ht="15.75" customHeight="1">
       <c r="A14" s="1">
         <v>42774.656161921295</v>
       </c>
@@ -5114,7 +5033,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="15" spans="1:88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:88" customFormat="false" ht="15.75" customHeight="1">
       <c r="A15" s="1">
         <v>42774.430878020838</v>
       </c>
@@ -5380,7 +5299,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="16" spans="1:88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:88" customFormat="false" ht="15.75" customHeight="1">
       <c r="A16" s="1">
         <v>42774.434479872682</v>
       </c>
@@ -5646,7 +5565,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="17" spans="1:88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:88" customFormat="false" ht="15.75" customHeight="1">
       <c r="A17" s="1">
         <v>42774.4337896875</v>
       </c>
@@ -5912,7 +5831,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="18" spans="1:88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:88" customFormat="false" ht="15.75" customHeight="1">
       <c r="A18" s="1">
         <v>42775.84897619213</v>
       </c>
@@ -6178,7 +6097,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="19" spans="1:88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:88" customFormat="false" ht="15.75" customHeight="1">
       <c r="A19" s="1">
         <v>42774.435684155091</v>
       </c>
@@ -6444,7 +6363,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="20" spans="1:88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:88" customFormat="false" ht="15.75" customHeight="1">
       <c r="A20" s="1">
         <v>42774.896054467594</v>
       </c>
@@ -6710,7 +6629,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="21" spans="1:88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:88" customFormat="false" ht="15.75" customHeight="1">
       <c r="A21" s="1">
         <v>42774.428690381945</v>
       </c>
@@ -6976,7 +6895,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="22" spans="1:88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:88" customFormat="false" ht="15.75" customHeight="1">
       <c r="A22" s="1">
         <v>42774.432840856476</v>
       </c>
@@ -7242,7 +7161,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="23" spans="1:88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:88" customFormat="false" ht="15.75" customHeight="1">
       <c r="A23" s="1">
         <v>42774.655336307871</v>
       </c>
@@ -7508,7 +7427,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="24" spans="1:88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:88" customFormat="false" ht="15.75" customHeight="1">
       <c r="A24" s="1">
         <v>42774.655682997683</v>
       </c>
@@ -7774,7 +7693,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="25" spans="1:88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:88" customFormat="false" ht="15.75" customHeight="1">
       <c r="A25" s="1">
         <v>42774.429644444448</v>
       </c>
@@ -8040,7 +7959,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="26" spans="1:88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:88" customFormat="false" ht="15.75" customHeight="1">
       <c r="A26" s="1">
         <v>42774.432750127315</v>
       </c>
@@ -8306,7 +8225,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="27" spans="1:88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:88" customFormat="false" ht="15.75" customHeight="1">
       <c r="A27" s="1">
         <v>42774.434694444441</v>
       </c>
@@ -8572,7 +8491,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="28" spans="1:88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:88" customFormat="false" ht="15.75" customHeight="1">
       <c r="A28" s="1">
         <v>42774.656553958332</v>
       </c>
@@ -8838,7 +8757,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="29" spans="1:88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:88" customFormat="false" ht="15.75" customHeight="1">
       <c r="A29" s="1">
         <v>42775.859371574072</v>
       </c>
@@ -9104,7 +9023,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="30" spans="1:88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:88" customFormat="false" ht="15.75" customHeight="1">
       <c r="A30" s="1">
         <v>42774.430246319447</v>
       </c>
@@ -9370,7 +9289,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="31" spans="1:88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:88" customFormat="false" ht="15.75" customHeight="1">
       <c r="A31" s="1">
         <v>42774.652473101851</v>
       </c>
@@ -9636,7 +9555,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="32" spans="1:88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:88" customFormat="false" ht="15.75" customHeight="1">
       <c r="A32" s="1">
         <v>42774.436065706017</v>
       </c>
@@ -9902,7 +9821,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="33" spans="1:88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:88" customFormat="false" ht="15.75" customHeight="1">
       <c r="A33" s="1">
         <v>42774.656680208333</v>
       </c>
@@ -10168,7 +10087,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="34" spans="1:88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:88" customFormat="false" ht="15.75" customHeight="1">
       <c r="A34" s="1">
         <v>42774.434223865741</v>
       </c>
@@ -10434,7 +10353,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="35" spans="1:88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:88" customFormat="false" ht="15.75" customHeight="1">
       <c r="A35" s="1">
         <v>42774.431040243056</v>
       </c>
@@ -10700,7 +10619,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="36" spans="1:88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:88" customFormat="false" ht="15.75" customHeight="1">
       <c r="A36" s="1">
         <v>42774.659224513889</v>
       </c>
@@ -10966,7 +10885,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="37" spans="1:88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:88" customFormat="false" ht="15.75" customHeight="1">
       <c r="A37" s="1">
         <v>42774.43202980324</v>
       </c>
@@ -11232,7 +11151,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="38" spans="1:88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:88" customFormat="false" ht="15.75" customHeight="1">
       <c r="A38" s="1">
         <v>42774.434366805552</v>
       </c>
@@ -11498,7 +11417,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="39" spans="1:88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:88" customFormat="false" ht="15.75" customHeight="1">
       <c r="A39" s="1">
         <v>42774.428849467593</v>
       </c>
@@ -11764,7 +11683,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="40" spans="1:88" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:88" customFormat="false" ht="12.75">
       <c r="A40" s="1">
         <v>42774.656473368057</v>
       </c>
@@ -12075,2988 +11994,2869 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:AN25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
+  <dimension ref="B1:AN24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U30" sqref="U30"/>
+      <selection activeCell="A13" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="4.85546875" defaultRowHeight="12.75"/>
   <sheetData>
-    <row r="1" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H1" t="s">
-        <v>90</v>
-      </c>
-      <c r="I1" t="s">
-        <v>97</v>
-      </c>
-      <c r="J1" t="s">
-        <v>104</v>
-      </c>
-      <c r="K1" t="s">
-        <v>111</v>
-      </c>
-      <c r="L1" t="s">
-        <v>118</v>
-      </c>
-      <c r="M1" t="s">
-        <v>125</v>
-      </c>
-      <c r="N1" t="s">
-        <v>132</v>
-      </c>
-      <c r="O1" t="s">
-        <v>139</v>
-      </c>
-      <c r="P1" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>150</v>
-      </c>
-      <c r="R1" t="s">
-        <v>150</v>
-      </c>
-      <c r="S1" t="s">
-        <v>162</v>
-      </c>
-      <c r="T1" t="s">
-        <v>169</v>
-      </c>
-      <c r="U1" t="s">
-        <v>175</v>
-      </c>
-      <c r="V1" t="s">
-        <v>180</v>
-      </c>
-      <c r="W1" t="s">
-        <v>187</v>
-      </c>
-      <c r="X1" t="s">
-        <v>193</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>200</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>207</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>214</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>221</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>221</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>231</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>238</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>245</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>251</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>257</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>264</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>270</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>277</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>283</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>289</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>295</v>
+    <row r="1" spans="2:40" customFormat="false">
+      <c r="B1" s="0" t="str">
+        <v>aaron.nesnow846@gaston.k12.nc.us</v>
+      </c>
+      <c r="C1" s="0" t="str">
+        <v>adison.costner856@gaston.k12.nc.us</v>
+      </c>
+      <c r="D1" s="0" t="str">
+        <v>alana.williams574@gaston.k12.nc.us</v>
+      </c>
+      <c r="E1" s="0" t="str">
+        <v>alanie.odell901@gaston.k12.nc.us</v>
+      </c>
+      <c r="F1" s="0" t="str">
+        <v>aleigha.letterman215@gaston.k12.nc.us</v>
+      </c>
+      <c r="G1" s="0" t="str">
+        <v>aleigha.letterman215@gaston.k12.nc.us</v>
+      </c>
+      <c r="H1" s="0" t="str">
+        <v>anna.kleffnerspencer042@gaston.k12.nc.us</v>
+      </c>
+      <c r="I1" s="0" t="str">
+        <v>caleb.costner942@gaston.k12.nc.us</v>
+      </c>
+      <c r="J1" s="0" t="str">
+        <v>dalton.harmon921@gaston.k12.nc.us</v>
+      </c>
+      <c r="K1" s="0" t="str">
+        <v>douglas.farley537@gaston.k12.nc.us</v>
+      </c>
+      <c r="L1" s="0" t="str">
+        <v>elizabeth.suarez717@gaston.k12.nc.us</v>
+      </c>
+      <c r="M1" s="0" t="str">
+        <v>grace.deaton440@gaston.k12.nc.us</v>
+      </c>
+      <c r="N1" s="0" t="str">
+        <v>hannah.berckman208@gaston.k12.nc.us</v>
+      </c>
+      <c r="O1" s="0" t="str">
+        <v>hannah.cribby469@gaston.k12.nc.us</v>
+      </c>
+      <c r="P1" s="0" t="str">
+        <v>haylee.franckewitz955@gaston.k12.nc.us</v>
+      </c>
+      <c r="Q1" s="0" t="str">
+        <v>james.abee815@gaston.k12.nc.us</v>
+      </c>
+      <c r="R1" s="0" t="str">
+        <v>james.abee815@gaston.k12.nc.us</v>
+      </c>
+      <c r="S1" s="0" t="str">
+        <v>james.lynn958@gaston.k12.nc.us</v>
+      </c>
+      <c r="T1" s="0" t="str">
+        <v>jared.godwin616@gaston.k12.nc.us</v>
+      </c>
+      <c r="U1" s="0" t="str">
+        <v>jessica.kirby006@gaston.k12.nc.us</v>
+      </c>
+      <c r="V1" s="0" t="str">
+        <v>jessica.payne425@gaston.k12.nc.us</v>
+      </c>
+      <c r="W1" s="0" t="str">
+        <v>kalynne.helms096@gaston.k12.nc.us</v>
+      </c>
+      <c r="X1" s="0" t="str">
+        <v>karmen.scruggs776@gaston.k12.nc.us</v>
+      </c>
+      <c r="Y1" s="0" t="str">
+        <v>kayla.shannon027@gaston.k12.nc.us</v>
+      </c>
+      <c r="Z1" s="0" t="str">
+        <v>kayla.williamson843@gaston.k12.nc.us</v>
+      </c>
+      <c r="AA1" s="0" t="str">
+        <v>kimberly.queen686@gaston.k12.nc.us</v>
+      </c>
+      <c r="AB1" s="0" t="str">
+        <v>kyra.rhyne012@gaston.k12.nc.us</v>
+      </c>
+      <c r="AC1" s="0" t="str">
+        <v>kyra.rhyne012@gaston.k12.nc.us</v>
+      </c>
+      <c r="AD1" s="0" t="str">
+        <v>laurie.ricardo512@gaston.k12.nc.us</v>
+      </c>
+      <c r="AE1" s="0" t="str">
+        <v>ling.zhang885@gaston.k12.nc.us</v>
+      </c>
+      <c r="AF1" s="0" t="str">
+        <v>noah.wollin244@gaston.k12.nc.us</v>
+      </c>
+      <c r="AG1" s="0" t="str">
+        <v>olyvia.knight064@gaston.k12.nc.us</v>
+      </c>
+      <c r="AH1" s="0" t="str">
+        <v>parth.patel358@gaston.k12.nc.us</v>
+      </c>
+      <c r="AI1" s="0" t="str">
+        <v>piper.colangelo050@gaston.k12.nc.us</v>
+      </c>
+      <c r="AJ1" s="0" t="str">
+        <v>riley.kiefer729@gaston.k12.nc.us</v>
+      </c>
+      <c r="AK1" s="0" t="str">
+        <v>sarah.macon201@gaston.k12.nc.us</v>
+      </c>
+      <c r="AL1" s="0" t="str">
+        <v>scott.johnson192@gaston.k12.nc.us</v>
+      </c>
+      <c r="AM1" s="0" t="str">
+        <v>tiffany.weresow255@gaston.k12.nc.us</v>
+      </c>
+      <c r="AN1" s="0" t="str">
+        <v>weston.peavy213@gaston.k12.nc.us</v>
       </c>
     </row>
-    <row r="2" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
-        <v>302</v>
-      </c>
-      <c r="C2" t="s">
-        <v>303</v>
-      </c>
-      <c r="D2" t="s">
-        <v>304</v>
-      </c>
-      <c r="E2" t="s">
-        <v>305</v>
-      </c>
-      <c r="F2" t="s">
-        <v>302</v>
-      </c>
-      <c r="G2" t="s">
-        <v>303</v>
-      </c>
-      <c r="H2" t="s">
-        <v>306</v>
-      </c>
-      <c r="I2" t="s">
-        <v>304</v>
-      </c>
-      <c r="J2" t="s">
-        <v>302</v>
-      </c>
-      <c r="K2" t="s">
-        <v>304</v>
-      </c>
-      <c r="L2" t="s">
-        <v>307</v>
-      </c>
-      <c r="M2" t="s">
-        <v>304</v>
-      </c>
-      <c r="N2" t="s">
-        <v>304</v>
-      </c>
-      <c r="O2" t="s">
-        <v>303</v>
-      </c>
-      <c r="P2" t="s">
-        <v>305</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>308</v>
-      </c>
-      <c r="R2" t="s">
-        <v>308</v>
-      </c>
-      <c r="S2" t="s">
-        <v>303</v>
-      </c>
-      <c r="T2" t="s">
-        <v>303</v>
-      </c>
-      <c r="U2" t="s">
-        <v>304</v>
-      </c>
-      <c r="V2" t="s">
-        <v>303</v>
-      </c>
-      <c r="W2" t="s">
-        <v>303</v>
-      </c>
-      <c r="X2" t="s">
-        <v>305</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>303</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>304</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>305</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>302</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>302</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>309</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>303</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>303</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>305</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>303</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>303</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>305</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>307</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>303</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>307</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>307</v>
+    <row r="2" spans="2:40" customFormat="false">
+      <c r="B2" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="C2" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="D2" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="E2" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="F2" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="G2" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="H2" s="0" t="str">
+        <v>-BC</v>
+      </c>
+      <c r="I2" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="J2" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="K2" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="L2" s="0" t="str">
+        <v>A--</v>
+      </c>
+      <c r="M2" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="N2" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="O2" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="P2" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="Q2" s="0" t="str">
+        <v>--C</v>
+      </c>
+      <c r="R2" s="0" t="str">
+        <v>--C</v>
+      </c>
+      <c r="S2" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="T2" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="U2" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="V2" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="W2" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="X2" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="Y2" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="Z2" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="AA2" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AB2" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="AC2" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="AD2" s="0" t="str">
+        <v>-B-</v>
+      </c>
+      <c r="AE2" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AF2" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AG2" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AH2" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AI2" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AJ2" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AK2" s="0" t="str">
+        <v>A--</v>
+      </c>
+      <c r="AL2" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AM2" s="0" t="str">
+        <v>A--</v>
+      </c>
+      <c r="AN2" s="0" t="str">
+        <v>A--</v>
       </c>
     </row>
-    <row r="3" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>309</v>
-      </c>
-      <c r="C3" t="s">
-        <v>303</v>
-      </c>
-      <c r="D3" t="s">
-        <v>303</v>
-      </c>
-      <c r="E3" t="s">
-        <v>305</v>
-      </c>
-      <c r="F3" t="s">
-        <v>308</v>
-      </c>
-      <c r="G3" t="s">
-        <v>308</v>
-      </c>
-      <c r="H3" t="s">
-        <v>303</v>
-      </c>
-      <c r="I3" t="s">
-        <v>308</v>
-      </c>
-      <c r="J3" t="s">
-        <v>303</v>
-      </c>
-      <c r="K3" t="s">
-        <v>305</v>
-      </c>
-      <c r="L3" t="s">
-        <v>308</v>
-      </c>
-      <c r="M3" t="s">
-        <v>303</v>
-      </c>
-      <c r="N3" t="s">
-        <v>305</v>
-      </c>
-      <c r="O3" t="s">
-        <v>302</v>
-      </c>
-      <c r="P3" t="s">
-        <v>309</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>307</v>
-      </c>
-      <c r="R3" t="s">
-        <v>309</v>
-      </c>
-      <c r="S3" t="s">
-        <v>306</v>
-      </c>
-      <c r="T3" t="s">
-        <v>305</v>
-      </c>
-      <c r="U3" t="s">
-        <v>305</v>
-      </c>
-      <c r="V3" t="s">
-        <v>303</v>
-      </c>
-      <c r="W3" t="s">
-        <v>303</v>
-      </c>
-      <c r="X3" t="s">
-        <v>308</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>303</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>308</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>302</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>302</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>305</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>305</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>309</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>305</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>303</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>304</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>306</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>307</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>307</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>306</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>307</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>305</v>
+    <row r="3" spans="2:40" customFormat="false">
+      <c r="B3" s="0" t="str">
+        <v>-B-</v>
+      </c>
+      <c r="C3" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="D3" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="E3" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="F3" s="0" t="str">
+        <v>--C</v>
+      </c>
+      <c r="G3" s="0" t="str">
+        <v>--C</v>
+      </c>
+      <c r="H3" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="I3" s="0" t="str">
+        <v>--C</v>
+      </c>
+      <c r="J3" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="K3" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="L3" s="0" t="str">
+        <v>--C</v>
+      </c>
+      <c r="M3" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="N3" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="O3" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="P3" s="0" t="str">
+        <v>-B-</v>
+      </c>
+      <c r="Q3" s="0" t="str">
+        <v>A--</v>
+      </c>
+      <c r="R3" s="0" t="str">
+        <v>-B-</v>
+      </c>
+      <c r="S3" s="0" t="str">
+        <v>-BC</v>
+      </c>
+      <c r="T3" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="U3" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="V3" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="W3" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="X3" s="0" t="str">
+        <v>--C</v>
+      </c>
+      <c r="Y3" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="Z3" s="0" t="str">
+        <v>--C</v>
+      </c>
+      <c r="AA3" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="AB3" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="AC3" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AD3" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AE3" s="0" t="str">
+        <v>-B-</v>
+      </c>
+      <c r="AF3" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AG3" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AH3" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="AI3" s="0" t="str">
+        <v>-BC</v>
+      </c>
+      <c r="AJ3" s="0" t="str">
+        <v>A--</v>
+      </c>
+      <c r="AK3" s="0" t="str">
+        <v>A--</v>
+      </c>
+      <c r="AL3" s="0" t="str">
+        <v>-BC</v>
+      </c>
+      <c r="AM3" s="0" t="str">
+        <v>A--</v>
+      </c>
+      <c r="AN3" s="0" t="str">
+        <v>---</v>
       </c>
     </row>
-    <row r="4" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>304</v>
-      </c>
-      <c r="C4" t="s">
-        <v>302</v>
-      </c>
-      <c r="D4" t="s">
-        <v>304</v>
-      </c>
-      <c r="E4" t="s">
-        <v>303</v>
-      </c>
-      <c r="F4" t="s">
-        <v>302</v>
-      </c>
-      <c r="G4" t="s">
-        <v>303</v>
-      </c>
-      <c r="H4" t="s">
-        <v>303</v>
-      </c>
-      <c r="I4" t="s">
-        <v>304</v>
-      </c>
-      <c r="J4" t="s">
-        <v>302</v>
-      </c>
-      <c r="K4" t="s">
-        <v>303</v>
-      </c>
-      <c r="L4" t="s">
-        <v>303</v>
-      </c>
-      <c r="M4" t="s">
-        <v>307</v>
-      </c>
-      <c r="N4" t="s">
-        <v>303</v>
-      </c>
-      <c r="O4" t="s">
-        <v>303</v>
-      </c>
-      <c r="P4" t="s">
-        <v>302</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>303</v>
-      </c>
-      <c r="R4" t="s">
-        <v>304</v>
-      </c>
-      <c r="S4" t="s">
-        <v>303</v>
-      </c>
-      <c r="T4" t="s">
-        <v>306</v>
-      </c>
-      <c r="U4" t="s">
-        <v>303</v>
-      </c>
-      <c r="V4" t="s">
-        <v>306</v>
-      </c>
-      <c r="W4" t="s">
-        <v>303</v>
-      </c>
-      <c r="X4" t="s">
-        <v>304</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>303</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>307</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>303</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>303</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>303</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>303</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>308</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>303</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>307</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>303</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>303</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>303</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>306</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>303</v>
-      </c>
-      <c r="AM4" t="s">
-        <v>302</v>
-      </c>
-      <c r="AN4" t="s">
-        <v>304</v>
+    <row r="4" spans="2:40" customFormat="false">
+      <c r="B4" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="C4" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="D4" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="E4" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="F4" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="G4" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="H4" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="I4" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="J4" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="K4" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="L4" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="M4" s="0" t="str">
+        <v>A--</v>
+      </c>
+      <c r="N4" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="O4" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="P4" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="Q4" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="R4" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="S4" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="T4" s="0" t="str">
+        <v>-BC</v>
+      </c>
+      <c r="U4" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="V4" s="0" t="str">
+        <v>-BC</v>
+      </c>
+      <c r="W4" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="X4" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="Y4" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="Z4" s="0" t="str">
+        <v>A--</v>
+      </c>
+      <c r="AA4" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AB4" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AC4" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AD4" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AE4" s="0" t="str">
+        <v>--C</v>
+      </c>
+      <c r="AF4" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AG4" s="0" t="str">
+        <v>A--</v>
+      </c>
+      <c r="AH4" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AI4" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AJ4" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AK4" s="0" t="str">
+        <v>-BC</v>
+      </c>
+      <c r="AL4" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AM4" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="AN4" s="0" t="str">
+        <v>AB-</v>
       </c>
     </row>
-    <row r="5" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>310</v>
-      </c>
-      <c r="C5" t="s">
-        <v>310</v>
-      </c>
-      <c r="D5" t="s">
-        <v>310</v>
-      </c>
-      <c r="E5" t="s">
-        <v>311</v>
-      </c>
-      <c r="F5" t="s">
-        <v>311</v>
-      </c>
-      <c r="G5" t="s">
-        <v>311</v>
-      </c>
-      <c r="H5" t="s">
-        <v>310</v>
-      </c>
-      <c r="I5" t="s">
-        <v>310</v>
-      </c>
-      <c r="J5" t="s">
-        <v>310</v>
-      </c>
-      <c r="K5" t="s">
-        <v>310</v>
-      </c>
-      <c r="L5" t="s">
-        <v>312</v>
-      </c>
-      <c r="M5" t="s">
-        <v>313</v>
-      </c>
-      <c r="N5" t="s">
-        <v>310</v>
-      </c>
-      <c r="O5" t="s">
-        <v>312</v>
-      </c>
-      <c r="P5" t="s">
-        <v>312</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>310</v>
-      </c>
-      <c r="R5" t="s">
-        <v>313</v>
-      </c>
-      <c r="S5" t="s">
-        <v>311</v>
-      </c>
-      <c r="T5" t="s">
-        <v>310</v>
-      </c>
-      <c r="U5" t="s">
-        <v>310</v>
-      </c>
-      <c r="V5" t="s">
-        <v>311</v>
-      </c>
-      <c r="W5" t="s">
-        <v>310</v>
-      </c>
-      <c r="X5" t="s">
-        <v>313</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>310</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>313</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>310</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>310</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>310</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>310</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>310</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>310</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>310</v>
-      </c>
-      <c r="AH5" t="s">
-        <v>311</v>
-      </c>
-      <c r="AI5" t="s">
-        <v>310</v>
-      </c>
-      <c r="AJ5" t="s">
-        <v>310</v>
-      </c>
-      <c r="AK5" t="s">
-        <v>310</v>
-      </c>
-      <c r="AL5" t="s">
-        <v>311</v>
-      </c>
-      <c r="AM5" t="s">
-        <v>310</v>
-      </c>
-      <c r="AN5" t="s">
-        <v>312</v>
+    <row r="5" spans="2:40" customFormat="false">
+      <c r="B5" s="0" t="str">
+        <v>AC</v>
+      </c>
+      <c r="C5" s="0" t="str">
+        <v>AC</v>
+      </c>
+      <c r="D5" s="0" t="str">
+        <v>AC</v>
+      </c>
+      <c r="E5" s="0" t="str">
+        <v>-C</v>
+      </c>
+      <c r="F5" s="0" t="str">
+        <v>-C</v>
+      </c>
+      <c r="G5" s="0" t="str">
+        <v>-C</v>
+      </c>
+      <c r="H5" s="0" t="str">
+        <v>AC</v>
+      </c>
+      <c r="I5" s="0" t="str">
+        <v>AC</v>
+      </c>
+      <c r="J5" s="0" t="str">
+        <v>AC</v>
+      </c>
+      <c r="K5" s="0" t="str">
+        <v>AC</v>
+      </c>
+      <c r="L5" s="0" t="str">
+        <v>--</v>
+      </c>
+      <c r="M5" s="0" t="str">
+        <v>A-</v>
+      </c>
+      <c r="N5" s="0" t="str">
+        <v>AC</v>
+      </c>
+      <c r="O5" s="0" t="str">
+        <v>--</v>
+      </c>
+      <c r="P5" s="0" t="str">
+        <v>--</v>
+      </c>
+      <c r="Q5" s="0" t="str">
+        <v>AC</v>
+      </c>
+      <c r="R5" s="0" t="str">
+        <v>A-</v>
+      </c>
+      <c r="S5" s="0" t="str">
+        <v>-C</v>
+      </c>
+      <c r="T5" s="0" t="str">
+        <v>AC</v>
+      </c>
+      <c r="U5" s="0" t="str">
+        <v>AC</v>
+      </c>
+      <c r="V5" s="0" t="str">
+        <v>-C</v>
+      </c>
+      <c r="W5" s="0" t="str">
+        <v>AC</v>
+      </c>
+      <c r="X5" s="0" t="str">
+        <v>A-</v>
+      </c>
+      <c r="Y5" s="0" t="str">
+        <v>AC</v>
+      </c>
+      <c r="Z5" s="0" t="str">
+        <v>A-</v>
+      </c>
+      <c r="AA5" s="0" t="str">
+        <v>AC</v>
+      </c>
+      <c r="AB5" s="0" t="str">
+        <v>AC</v>
+      </c>
+      <c r="AC5" s="0" t="str">
+        <v>AC</v>
+      </c>
+      <c r="AD5" s="0" t="str">
+        <v>AC</v>
+      </c>
+      <c r="AE5" s="0" t="str">
+        <v>AC</v>
+      </c>
+      <c r="AF5" s="0" t="str">
+        <v>AC</v>
+      </c>
+      <c r="AG5" s="0" t="str">
+        <v>AC</v>
+      </c>
+      <c r="AH5" s="0" t="str">
+        <v>-C</v>
+      </c>
+      <c r="AI5" s="0" t="str">
+        <v>AC</v>
+      </c>
+      <c r="AJ5" s="0" t="str">
+        <v>AC</v>
+      </c>
+      <c r="AK5" s="0" t="str">
+        <v>AC</v>
+      </c>
+      <c r="AL5" s="0" t="str">
+        <v>-C</v>
+      </c>
+      <c r="AM5" s="0" t="str">
+        <v>AC</v>
+      </c>
+      <c r="AN5" s="0" t="str">
+        <v>--</v>
       </c>
     </row>
-    <row r="6" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>302</v>
-      </c>
-      <c r="C6" t="s">
-        <v>305</v>
-      </c>
-      <c r="D6" t="s">
-        <v>306</v>
-      </c>
-      <c r="E6" t="s">
-        <v>305</v>
-      </c>
-      <c r="F6" t="s">
-        <v>308</v>
-      </c>
-      <c r="G6" t="s">
-        <v>308</v>
-      </c>
-      <c r="H6" t="s">
-        <v>302</v>
-      </c>
-      <c r="I6" t="s">
-        <v>309</v>
-      </c>
-      <c r="J6" t="s">
-        <v>308</v>
-      </c>
-      <c r="K6" t="s">
-        <v>305</v>
-      </c>
-      <c r="L6" t="s">
-        <v>305</v>
-      </c>
-      <c r="M6" t="s">
-        <v>305</v>
-      </c>
-      <c r="N6" t="s">
-        <v>305</v>
-      </c>
-      <c r="O6" t="s">
-        <v>309</v>
-      </c>
-      <c r="P6" t="s">
-        <v>305</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>309</v>
-      </c>
-      <c r="R6" t="s">
-        <v>308</v>
-      </c>
-      <c r="S6" t="s">
-        <v>307</v>
-      </c>
-      <c r="T6" t="s">
-        <v>302</v>
-      </c>
-      <c r="U6" t="s">
-        <v>305</v>
-      </c>
-      <c r="V6" t="s">
-        <v>305</v>
-      </c>
-      <c r="W6" t="s">
-        <v>303</v>
-      </c>
-      <c r="X6" t="s">
-        <v>308</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>302</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>305</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>303</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>306</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>309</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>302</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>305</v>
-      </c>
-      <c r="AF6" t="s">
-        <v>305</v>
-      </c>
-      <c r="AG6" t="s">
-        <v>305</v>
-      </c>
-      <c r="AH6" t="s">
-        <v>308</v>
-      </c>
-      <c r="AI6" t="s">
-        <v>305</v>
-      </c>
-      <c r="AJ6" t="s">
-        <v>305</v>
-      </c>
-      <c r="AK6" t="s">
-        <v>309</v>
-      </c>
-      <c r="AL6" t="s">
-        <v>308</v>
-      </c>
-      <c r="AM6" t="s">
-        <v>306</v>
-      </c>
-      <c r="AN6" t="s">
-        <v>305</v>
+    <row r="6" spans="2:40" customFormat="false">
+      <c r="B6" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="C6" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="D6" s="0" t="str">
+        <v>-BC</v>
+      </c>
+      <c r="E6" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="F6" s="0" t="str">
+        <v>--C</v>
+      </c>
+      <c r="G6" s="0" t="str">
+        <v>--C</v>
+      </c>
+      <c r="H6" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="I6" s="0" t="str">
+        <v>-B-</v>
+      </c>
+      <c r="J6" s="0" t="str">
+        <v>--C</v>
+      </c>
+      <c r="K6" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="L6" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="M6" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="N6" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="O6" s="0" t="str">
+        <v>-B-</v>
+      </c>
+      <c r="P6" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="Q6" s="0" t="str">
+        <v>-B-</v>
+      </c>
+      <c r="R6" s="0" t="str">
+        <v>--C</v>
+      </c>
+      <c r="S6" s="0" t="str">
+        <v>A--</v>
+      </c>
+      <c r="T6" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="U6" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="V6" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="W6" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="X6" s="0" t="str">
+        <v>--C</v>
+      </c>
+      <c r="Y6" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="Z6" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AA6" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AB6" s="0" t="str">
+        <v>-BC</v>
+      </c>
+      <c r="AC6" s="0" t="str">
+        <v>-B-</v>
+      </c>
+      <c r="AD6" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="AE6" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AF6" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AG6" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AH6" s="0" t="str">
+        <v>--C</v>
+      </c>
+      <c r="AI6" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AJ6" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AK6" s="0" t="str">
+        <v>-B-</v>
+      </c>
+      <c r="AL6" s="0" t="str">
+        <v>--C</v>
+      </c>
+      <c r="AM6" s="0" t="str">
+        <v>-BC</v>
+      </c>
+      <c r="AN6" s="0" t="str">
+        <v>---</v>
       </c>
     </row>
-    <row r="7" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>304</v>
-      </c>
-      <c r="C7" t="s">
-        <v>303</v>
-      </c>
-      <c r="D7" t="s">
-        <v>303</v>
-      </c>
-      <c r="E7" t="s">
-        <v>305</v>
-      </c>
-      <c r="F7" t="s">
-        <v>302</v>
-      </c>
-      <c r="G7" t="s">
-        <v>302</v>
-      </c>
-      <c r="H7" t="s">
-        <v>303</v>
-      </c>
-      <c r="I7" t="s">
-        <v>303</v>
-      </c>
-      <c r="J7" t="s">
-        <v>303</v>
-      </c>
-      <c r="K7" t="s">
-        <v>305</v>
-      </c>
-      <c r="L7" t="s">
-        <v>302</v>
-      </c>
-      <c r="M7" t="s">
-        <v>303</v>
-      </c>
-      <c r="N7" t="s">
-        <v>304</v>
-      </c>
-      <c r="O7" t="s">
-        <v>303</v>
-      </c>
-      <c r="P7" t="s">
-        <v>305</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>308</v>
-      </c>
-      <c r="R7" t="s">
-        <v>308</v>
-      </c>
-      <c r="S7" t="s">
-        <v>303</v>
-      </c>
-      <c r="T7" t="s">
-        <v>306</v>
-      </c>
-      <c r="U7" t="s">
-        <v>303</v>
-      </c>
-      <c r="V7" t="s">
-        <v>303</v>
-      </c>
-      <c r="W7" t="s">
-        <v>303</v>
-      </c>
-      <c r="X7" t="s">
-        <v>302</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>304</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>303</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>305</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>303</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>303</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>306</v>
-      </c>
-      <c r="AE7" t="s">
-        <v>309</v>
-      </c>
-      <c r="AF7" t="s">
-        <v>303</v>
-      </c>
-      <c r="AG7" t="s">
-        <v>303</v>
-      </c>
-      <c r="AH7" t="s">
-        <v>303</v>
-      </c>
-      <c r="AI7" t="s">
-        <v>303</v>
-      </c>
-      <c r="AJ7" t="s">
-        <v>305</v>
-      </c>
-      <c r="AK7" t="s">
-        <v>307</v>
-      </c>
-      <c r="AL7" t="s">
-        <v>303</v>
-      </c>
-      <c r="AM7" t="s">
-        <v>304</v>
-      </c>
-      <c r="AN7" t="s">
-        <v>304</v>
+    <row r="7" spans="2:40" customFormat="false">
+      <c r="B7" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="C7" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="D7" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="E7" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="F7" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="G7" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="H7" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="I7" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="J7" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="K7" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="L7" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="M7" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="N7" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="O7" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="P7" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="Q7" s="0" t="str">
+        <v>--C</v>
+      </c>
+      <c r="R7" s="0" t="str">
+        <v>--C</v>
+      </c>
+      <c r="S7" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="T7" s="0" t="str">
+        <v>-BC</v>
+      </c>
+      <c r="U7" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="V7" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="W7" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="X7" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="Y7" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="Z7" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AA7" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AB7" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AC7" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AD7" s="0" t="str">
+        <v>-BC</v>
+      </c>
+      <c r="AE7" s="0" t="str">
+        <v>-B-</v>
+      </c>
+      <c r="AF7" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AG7" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AH7" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AI7" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AJ7" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AK7" s="0" t="str">
+        <v>A--</v>
+      </c>
+      <c r="AL7" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AM7" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="AN7" s="0" t="str">
+        <v>AB-</v>
       </c>
     </row>
-    <row r="8" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>307</v>
-      </c>
-      <c r="C8" t="s">
-        <v>303</v>
-      </c>
-      <c r="D8" t="s">
-        <v>304</v>
-      </c>
-      <c r="E8" t="s">
-        <v>305</v>
-      </c>
-      <c r="F8" t="s">
-        <v>308</v>
-      </c>
-      <c r="G8" t="s">
-        <v>304</v>
-      </c>
-      <c r="H8" t="s">
-        <v>303</v>
-      </c>
-      <c r="I8" t="s">
-        <v>304</v>
-      </c>
-      <c r="J8" t="s">
-        <v>302</v>
-      </c>
-      <c r="K8" t="s">
-        <v>305</v>
-      </c>
-      <c r="L8" t="s">
-        <v>306</v>
-      </c>
-      <c r="M8" t="s">
-        <v>304</v>
-      </c>
-      <c r="N8" t="s">
-        <v>307</v>
-      </c>
-      <c r="O8" t="s">
-        <v>303</v>
-      </c>
-      <c r="P8" t="s">
-        <v>307</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>307</v>
-      </c>
-      <c r="R8" t="s">
-        <v>309</v>
-      </c>
-      <c r="S8" t="s">
-        <v>303</v>
-      </c>
-      <c r="T8" t="s">
-        <v>309</v>
-      </c>
-      <c r="U8" t="s">
-        <v>303</v>
-      </c>
-      <c r="V8" t="s">
-        <v>303</v>
-      </c>
-      <c r="W8" t="s">
-        <v>303</v>
-      </c>
-      <c r="X8" t="s">
-        <v>305</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>303</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>305</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>308</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>306</v>
-      </c>
-      <c r="AC8" t="s">
-        <v>305</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>309</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>307</v>
-      </c>
-      <c r="AF8" t="s">
-        <v>303</v>
-      </c>
-      <c r="AG8" t="s">
-        <v>303</v>
-      </c>
-      <c r="AH8" t="s">
-        <v>307</v>
-      </c>
-      <c r="AI8" t="s">
-        <v>305</v>
-      </c>
-      <c r="AJ8" t="s">
-        <v>305</v>
-      </c>
-      <c r="AK8" t="s">
-        <v>307</v>
-      </c>
-      <c r="AL8" t="s">
-        <v>307</v>
-      </c>
-      <c r="AM8" t="s">
-        <v>304</v>
-      </c>
-      <c r="AN8" t="s">
-        <v>305</v>
+    <row r="8" spans="2:40" customFormat="false">
+      <c r="B8" s="0" t="str">
+        <v>A--</v>
+      </c>
+      <c r="C8" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="D8" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="E8" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="F8" s="0" t="str">
+        <v>--C</v>
+      </c>
+      <c r="G8" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="H8" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="I8" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="J8" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="K8" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="L8" s="0" t="str">
+        <v>-BC</v>
+      </c>
+      <c r="M8" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="N8" s="0" t="str">
+        <v>A--</v>
+      </c>
+      <c r="O8" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="P8" s="0" t="str">
+        <v>A--</v>
+      </c>
+      <c r="Q8" s="0" t="str">
+        <v>A--</v>
+      </c>
+      <c r="R8" s="0" t="str">
+        <v>-B-</v>
+      </c>
+      <c r="S8" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="T8" s="0" t="str">
+        <v>-B-</v>
+      </c>
+      <c r="U8" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="V8" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="W8" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="X8" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="Y8" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="Z8" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AA8" s="0" t="str">
+        <v>--C</v>
+      </c>
+      <c r="AB8" s="0" t="str">
+        <v>-BC</v>
+      </c>
+      <c r="AC8" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AD8" s="0" t="str">
+        <v>-B-</v>
+      </c>
+      <c r="AE8" s="0" t="str">
+        <v>A--</v>
+      </c>
+      <c r="AF8" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AG8" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AH8" s="0" t="str">
+        <v>A--</v>
+      </c>
+      <c r="AI8" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AJ8" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AK8" s="0" t="str">
+        <v>A--</v>
+      </c>
+      <c r="AL8" s="0" t="str">
+        <v>A--</v>
+      </c>
+      <c r="AM8" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="AN8" s="0" t="str">
+        <v>---</v>
       </c>
     </row>
-    <row r="9" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
-        <v>314</v>
-      </c>
-      <c r="C9" t="s">
-        <v>312</v>
-      </c>
-      <c r="D9" t="s">
-        <v>314</v>
-      </c>
-      <c r="E9" t="s">
-        <v>314</v>
-      </c>
-      <c r="F9" t="s">
-        <v>313</v>
-      </c>
-      <c r="G9" t="s">
-        <v>313</v>
-      </c>
-      <c r="H9" t="s">
-        <v>313</v>
-      </c>
-      <c r="I9" t="s">
-        <v>314</v>
-      </c>
-      <c r="J9" t="s">
-        <v>314</v>
-      </c>
-      <c r="K9" t="s">
-        <v>314</v>
-      </c>
-      <c r="L9" t="s">
-        <v>315</v>
-      </c>
-      <c r="M9" t="s">
-        <v>313</v>
-      </c>
-      <c r="N9" t="s">
-        <v>314</v>
-      </c>
-      <c r="O9" t="s">
-        <v>313</v>
-      </c>
-      <c r="P9" t="s">
-        <v>312</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>315</v>
-      </c>
-      <c r="R9" t="s">
-        <v>312</v>
-      </c>
-      <c r="S9" t="s">
-        <v>314</v>
-      </c>
-      <c r="T9" t="s">
-        <v>313</v>
-      </c>
-      <c r="U9" t="s">
-        <v>312</v>
-      </c>
-      <c r="V9" t="s">
-        <v>312</v>
-      </c>
-      <c r="W9" t="s">
-        <v>315</v>
-      </c>
-      <c r="X9" t="s">
-        <v>314</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>314</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>313</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>314</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>314</v>
-      </c>
-      <c r="AC9" t="s">
-        <v>314</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>314</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>314</v>
-      </c>
-      <c r="AF9" t="s">
-        <v>313</v>
-      </c>
-      <c r="AG9" t="s">
-        <v>314</v>
-      </c>
-      <c r="AH9" t="s">
-        <v>314</v>
-      </c>
-      <c r="AI9" t="s">
-        <v>314</v>
-      </c>
-      <c r="AJ9" t="s">
-        <v>312</v>
-      </c>
-      <c r="AK9" t="s">
-        <v>314</v>
-      </c>
-      <c r="AL9" t="s">
-        <v>312</v>
-      </c>
-      <c r="AM9" t="s">
-        <v>314</v>
-      </c>
-      <c r="AN9" t="s">
-        <v>315</v>
+    <row r="9" spans="2:40" customFormat="false">
+      <c r="B9" s="0" t="str">
+        <v>AB</v>
+      </c>
+      <c r="C9" s="0" t="str">
+        <v>--</v>
+      </c>
+      <c r="D9" s="0" t="str">
+        <v>AB</v>
+      </c>
+      <c r="E9" s="0" t="str">
+        <v>AB</v>
+      </c>
+      <c r="F9" s="0" t="str">
+        <v>A-</v>
+      </c>
+      <c r="G9" s="0" t="str">
+        <v>A-</v>
+      </c>
+      <c r="H9" s="0" t="str">
+        <v>A-</v>
+      </c>
+      <c r="I9" s="0" t="str">
+        <v>AB</v>
+      </c>
+      <c r="J9" s="0" t="str">
+        <v>AB</v>
+      </c>
+      <c r="K9" s="0" t="str">
+        <v>AB</v>
+      </c>
+      <c r="L9" s="0" t="str">
+        <v>-B</v>
+      </c>
+      <c r="M9" s="0" t="str">
+        <v>A-</v>
+      </c>
+      <c r="N9" s="0" t="str">
+        <v>AB</v>
+      </c>
+      <c r="O9" s="0" t="str">
+        <v>A-</v>
+      </c>
+      <c r="P9" s="0" t="str">
+        <v>--</v>
+      </c>
+      <c r="Q9" s="0" t="str">
+        <v>-B</v>
+      </c>
+      <c r="R9" s="0" t="str">
+        <v>--</v>
+      </c>
+      <c r="S9" s="0" t="str">
+        <v>AB</v>
+      </c>
+      <c r="T9" s="0" t="str">
+        <v>A-</v>
+      </c>
+      <c r="U9" s="0" t="str">
+        <v>--</v>
+      </c>
+      <c r="V9" s="0" t="str">
+        <v>--</v>
+      </c>
+      <c r="W9" s="0" t="str">
+        <v>-B</v>
+      </c>
+      <c r="X9" s="0" t="str">
+        <v>AB</v>
+      </c>
+      <c r="Y9" s="0" t="str">
+        <v>AB</v>
+      </c>
+      <c r="Z9" s="0" t="str">
+        <v>A-</v>
+      </c>
+      <c r="AA9" s="0" t="str">
+        <v>AB</v>
+      </c>
+      <c r="AB9" s="0" t="str">
+        <v>AB</v>
+      </c>
+      <c r="AC9" s="0" t="str">
+        <v>AB</v>
+      </c>
+      <c r="AD9" s="0" t="str">
+        <v>AB</v>
+      </c>
+      <c r="AE9" s="0" t="str">
+        <v>AB</v>
+      </c>
+      <c r="AF9" s="0" t="str">
+        <v>A-</v>
+      </c>
+      <c r="AG9" s="0" t="str">
+        <v>AB</v>
+      </c>
+      <c r="AH9" s="0" t="str">
+        <v>AB</v>
+      </c>
+      <c r="AI9" s="0" t="str">
+        <v>AB</v>
+      </c>
+      <c r="AJ9" s="0" t="str">
+        <v>--</v>
+      </c>
+      <c r="AK9" s="0" t="str">
+        <v>AB</v>
+      </c>
+      <c r="AL9" s="0" t="str">
+        <v>--</v>
+      </c>
+      <c r="AM9" s="0" t="str">
+        <v>AB</v>
+      </c>
+      <c r="AN9" s="0" t="str">
+        <v>-B</v>
       </c>
     </row>
-    <row r="10" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>307</v>
-      </c>
-      <c r="C10" t="s">
-        <v>308</v>
-      </c>
-      <c r="D10" t="s">
-        <v>303</v>
-      </c>
-      <c r="E10" t="s">
-        <v>304</v>
-      </c>
-      <c r="F10" t="s">
-        <v>302</v>
-      </c>
-      <c r="G10" t="s">
-        <v>302</v>
-      </c>
-      <c r="H10" t="s">
-        <v>303</v>
-      </c>
-      <c r="I10" t="s">
-        <v>305</v>
-      </c>
-      <c r="J10" t="s">
-        <v>306</v>
-      </c>
-      <c r="K10" t="s">
-        <v>304</v>
-      </c>
-      <c r="L10" t="s">
-        <v>307</v>
-      </c>
-      <c r="M10" t="s">
-        <v>302</v>
-      </c>
-      <c r="N10" t="s">
-        <v>305</v>
-      </c>
-      <c r="O10" t="s">
-        <v>302</v>
-      </c>
-      <c r="P10" t="s">
-        <v>306</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>303</v>
-      </c>
-      <c r="R10" t="s">
-        <v>303</v>
-      </c>
-      <c r="S10" t="s">
-        <v>305</v>
-      </c>
-      <c r="T10" t="s">
-        <v>305</v>
-      </c>
-      <c r="U10" t="s">
-        <v>302</v>
-      </c>
-      <c r="V10" t="s">
-        <v>302</v>
-      </c>
-      <c r="W10" t="s">
-        <v>303</v>
-      </c>
-      <c r="X10" t="s">
-        <v>303</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>303</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>308</v>
-      </c>
-      <c r="AA10" t="s">
-        <v>303</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>303</v>
-      </c>
-      <c r="AC10" t="s">
-        <v>306</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>309</v>
-      </c>
-      <c r="AE10" t="s">
-        <v>309</v>
-      </c>
-      <c r="AF10" t="s">
-        <v>305</v>
-      </c>
-      <c r="AG10" t="s">
-        <v>307</v>
-      </c>
-      <c r="AH10" t="s">
-        <v>305</v>
-      </c>
-      <c r="AI10" t="s">
-        <v>305</v>
-      </c>
-      <c r="AJ10" t="s">
-        <v>303</v>
-      </c>
-      <c r="AK10" t="s">
-        <v>308</v>
-      </c>
-      <c r="AL10" t="s">
-        <v>306</v>
-      </c>
-      <c r="AM10" t="s">
-        <v>303</v>
-      </c>
-      <c r="AN10" t="s">
-        <v>309</v>
+    <row r="10" spans="2:40" customFormat="false">
+      <c r="B10" s="0" t="str">
+        <v>A--</v>
+      </c>
+      <c r="C10" s="0" t="str">
+        <v>--C</v>
+      </c>
+      <c r="D10" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="E10" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="F10" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="G10" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="H10" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="I10" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="J10" s="0" t="str">
+        <v>-BC</v>
+      </c>
+      <c r="K10" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="L10" s="0" t="str">
+        <v>A--</v>
+      </c>
+      <c r="M10" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="N10" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="O10" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="P10" s="0" t="str">
+        <v>-BC</v>
+      </c>
+      <c r="Q10" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="R10" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="S10" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="T10" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="U10" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="V10" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="W10" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="X10" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="Y10" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="Z10" s="0" t="str">
+        <v>--C</v>
+      </c>
+      <c r="AA10" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AB10" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AC10" s="0" t="str">
+        <v>-BC</v>
+      </c>
+      <c r="AD10" s="0" t="str">
+        <v>-B-</v>
+      </c>
+      <c r="AE10" s="0" t="str">
+        <v>-B-</v>
+      </c>
+      <c r="AF10" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AG10" s="0" t="str">
+        <v>A--</v>
+      </c>
+      <c r="AH10" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AI10" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AJ10" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AK10" s="0" t="str">
+        <v>--C</v>
+      </c>
+      <c r="AL10" s="0" t="str">
+        <v>-BC</v>
+      </c>
+      <c r="AM10" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AN10" s="0" t="str">
+        <v>-B-</v>
       </c>
     </row>
-    <row r="11" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
-        <v>303</v>
-      </c>
-      <c r="C11" t="s">
-        <v>302</v>
-      </c>
-      <c r="D11" t="s">
-        <v>304</v>
-      </c>
-      <c r="E11" t="s">
-        <v>308</v>
-      </c>
-      <c r="F11" t="s">
-        <v>302</v>
-      </c>
-      <c r="G11" t="s">
-        <v>306</v>
-      </c>
-      <c r="H11" t="s">
-        <v>303</v>
-      </c>
-      <c r="I11" t="s">
-        <v>309</v>
-      </c>
-      <c r="J11" t="s">
-        <v>302</v>
-      </c>
-      <c r="K11" t="s">
-        <v>303</v>
-      </c>
-      <c r="L11" t="s">
-        <v>306</v>
-      </c>
-      <c r="M11" t="s">
-        <v>304</v>
-      </c>
-      <c r="N11" t="s">
-        <v>304</v>
-      </c>
-      <c r="O11" t="s">
-        <v>303</v>
-      </c>
-      <c r="P11" t="s">
-        <v>305</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>303</v>
-      </c>
-      <c r="R11" t="s">
-        <v>304</v>
-      </c>
-      <c r="S11" t="s">
-        <v>303</v>
-      </c>
-      <c r="T11" t="s">
-        <v>303</v>
-      </c>
-      <c r="U11" t="s">
-        <v>303</v>
-      </c>
-      <c r="V11" t="s">
-        <v>303</v>
-      </c>
-      <c r="W11" t="s">
-        <v>303</v>
-      </c>
-      <c r="X11" t="s">
-        <v>304</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>302</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>304</v>
-      </c>
-      <c r="AA11" t="s">
-        <v>303</v>
-      </c>
-      <c r="AB11" t="s">
-        <v>303</v>
-      </c>
-      <c r="AC11" t="s">
-        <v>303</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>303</v>
-      </c>
-      <c r="AE11" t="s">
-        <v>302</v>
-      </c>
-      <c r="AF11" t="s">
-        <v>306</v>
-      </c>
-      <c r="AG11" t="s">
-        <v>307</v>
-      </c>
-      <c r="AH11" t="s">
-        <v>305</v>
-      </c>
-      <c r="AI11" t="s">
-        <v>303</v>
-      </c>
-      <c r="AJ11" t="s">
-        <v>303</v>
-      </c>
-      <c r="AK11" t="s">
-        <v>303</v>
-      </c>
-      <c r="AL11" t="s">
-        <v>303</v>
-      </c>
-      <c r="AM11" t="s">
-        <v>302</v>
-      </c>
-      <c r="AN11" t="s">
-        <v>307</v>
+    <row r="11" spans="2:40" customFormat="false">
+      <c r="B11" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="C11" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="D11" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="E11" s="0" t="str">
+        <v>--C</v>
+      </c>
+      <c r="F11" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="G11" s="0" t="str">
+        <v>-BC</v>
+      </c>
+      <c r="H11" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="I11" s="0" t="str">
+        <v>-B-</v>
+      </c>
+      <c r="J11" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="K11" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="L11" s="0" t="str">
+        <v>-BC</v>
+      </c>
+      <c r="M11" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="N11" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="O11" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="P11" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="Q11" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="R11" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="S11" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="T11" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="U11" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="V11" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="W11" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="X11" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="Y11" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="Z11" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="AA11" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AB11" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AC11" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AD11" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AE11" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="AF11" s="0" t="str">
+        <v>-BC</v>
+      </c>
+      <c r="AG11" s="0" t="str">
+        <v>A--</v>
+      </c>
+      <c r="AH11" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AI11" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AJ11" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AK11" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AL11" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AM11" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="AN11" s="0" t="str">
+        <v>A--</v>
       </c>
     </row>
-    <row r="12" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
-        <v>312</v>
-      </c>
-      <c r="C12" t="s">
-        <v>313</v>
-      </c>
-      <c r="D12" t="s">
-        <v>313</v>
-      </c>
-      <c r="E12" t="s">
-        <v>312</v>
-      </c>
-      <c r="F12" t="s">
-        <v>312</v>
-      </c>
-      <c r="G12" t="s">
-        <v>312</v>
-      </c>
-      <c r="H12" t="s">
-        <v>312</v>
-      </c>
-      <c r="I12" t="s">
-        <v>315</v>
-      </c>
-      <c r="J12" t="s">
-        <v>314</v>
-      </c>
-      <c r="K12" t="s">
-        <v>312</v>
-      </c>
-      <c r="L12" t="s">
-        <v>312</v>
-      </c>
-      <c r="M12" t="s">
-        <v>312</v>
-      </c>
-      <c r="N12" t="s">
-        <v>312</v>
-      </c>
-      <c r="O12" t="s">
-        <v>312</v>
-      </c>
-      <c r="P12" t="s">
-        <v>312</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>312</v>
-      </c>
-      <c r="R12" t="s">
-        <v>313</v>
-      </c>
-      <c r="S12" t="s">
-        <v>313</v>
-      </c>
-      <c r="T12" t="s">
-        <v>313</v>
-      </c>
-      <c r="U12" t="s">
-        <v>314</v>
-      </c>
-      <c r="V12" t="s">
-        <v>314</v>
-      </c>
-      <c r="W12" t="s">
-        <v>312</v>
-      </c>
-      <c r="X12" t="s">
-        <v>312</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>312</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>312</v>
-      </c>
-      <c r="AA12" t="s">
-        <v>312</v>
-      </c>
-      <c r="AB12" t="s">
-        <v>313</v>
-      </c>
-      <c r="AC12" t="s">
-        <v>312</v>
-      </c>
-      <c r="AD12" t="s">
-        <v>312</v>
-      </c>
-      <c r="AE12" t="s">
-        <v>312</v>
-      </c>
-      <c r="AF12" t="s">
-        <v>312</v>
-      </c>
-      <c r="AG12" t="s">
-        <v>314</v>
-      </c>
-      <c r="AH12" t="s">
-        <v>312</v>
-      </c>
-      <c r="AI12" t="s">
-        <v>312</v>
-      </c>
-      <c r="AJ12" t="s">
-        <v>313</v>
-      </c>
-      <c r="AK12" t="s">
-        <v>312</v>
-      </c>
-      <c r="AL12" t="s">
-        <v>312</v>
-      </c>
-      <c r="AM12" t="s">
-        <v>314</v>
-      </c>
-      <c r="AN12" t="s">
-        <v>312</v>
+    <row r="12" spans="2:40" customFormat="false">
+      <c r="B12" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="C12" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="D12" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="E12" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="F12" s="0" t="str">
+        <v>--C</v>
+      </c>
+      <c r="G12" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="H12" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="I12" s="0" t="str">
+        <v>-B-</v>
+      </c>
+      <c r="J12" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="K12" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="L12" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="M12" s="0" t="str">
+        <v>--C</v>
+      </c>
+      <c r="N12" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="O12" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="P12" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="Q12" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="R12" s="0" t="str">
+        <v>A--</v>
+      </c>
+      <c r="S12" s="0" t="str">
+        <v>A--</v>
+      </c>
+      <c r="T12" s="0" t="str">
+        <v>A--</v>
+      </c>
+      <c r="U12" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="V12" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="W12" s="0" t="str">
+        <v>--C</v>
+      </c>
+      <c r="X12" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="Y12" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="Z12" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AA12" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AB12" s="0" t="str">
+        <v>A--</v>
+      </c>
+      <c r="AC12" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AD12" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AE12" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AF12" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AG12" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AH12" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AI12" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AJ12" s="0" t="str">
+        <v>A--</v>
+      </c>
+      <c r="AK12" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AL12" s="0" t="str">
+        <v>--C</v>
+      </c>
+      <c r="AM12" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="AN12" s="0" t="str">
+        <v>---</v>
       </c>
     </row>
-    <row r="13" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
-        <v>316</v>
-      </c>
-      <c r="C13" t="s">
-        <v>317</v>
-      </c>
-      <c r="D13" t="s">
-        <v>317</v>
-      </c>
-      <c r="E13" t="s">
-        <v>318</v>
-      </c>
-      <c r="F13" t="s">
-        <v>319</v>
-      </c>
-      <c r="G13" t="s">
-        <v>320</v>
-      </c>
-      <c r="H13" t="s">
-        <v>321</v>
-      </c>
-      <c r="I13" t="s">
-        <v>320</v>
-      </c>
-      <c r="J13" t="s">
-        <v>317</v>
-      </c>
-      <c r="K13" t="s">
-        <v>322</v>
-      </c>
-      <c r="L13" t="s">
-        <v>320</v>
-      </c>
-      <c r="M13" t="s">
-        <v>319</v>
-      </c>
-      <c r="N13" t="s">
-        <v>323</v>
-      </c>
-      <c r="O13" t="s">
-        <v>318</v>
-      </c>
-      <c r="P13" t="s">
-        <v>318</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>322</v>
-      </c>
-      <c r="R13" t="s">
-        <v>323</v>
-      </c>
-      <c r="S13" t="s">
-        <v>320</v>
-      </c>
-      <c r="T13" t="s">
-        <v>323</v>
-      </c>
-      <c r="U13" t="s">
-        <v>324</v>
-      </c>
-      <c r="V13" t="s">
-        <v>317</v>
-      </c>
-      <c r="W13" t="s">
-        <v>324</v>
-      </c>
-      <c r="X13" t="s">
-        <v>318</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>320</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>325</v>
-      </c>
-      <c r="AA13" t="s">
-        <v>318</v>
-      </c>
-      <c r="AB13" t="s">
-        <v>323</v>
-      </c>
-      <c r="AC13" t="s">
-        <v>318</v>
-      </c>
-      <c r="AD13" t="s">
-        <v>318</v>
-      </c>
-      <c r="AE13" t="s">
-        <v>321</v>
-      </c>
-      <c r="AF13" t="s">
-        <v>320</v>
-      </c>
-      <c r="AG13" t="s">
-        <v>326</v>
-      </c>
-      <c r="AH13" t="s">
-        <v>316</v>
-      </c>
-      <c r="AI13" t="s">
-        <v>316</v>
-      </c>
-      <c r="AJ13" t="s">
-        <v>318</v>
-      </c>
-      <c r="AK13" t="s">
-        <v>318</v>
-      </c>
-      <c r="AL13" t="s">
-        <v>327</v>
-      </c>
-      <c r="AM13" t="s">
-        <v>320</v>
-      </c>
-      <c r="AN13" t="s">
-        <v>318</v>
+    <row r="13" spans="2:40" customFormat="false">
+      <c r="B13" s="0" t="str">
+        <v>A--</v>
+      </c>
+      <c r="C13" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="D13" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="E13" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="F13" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="G13" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="H13" s="0" t="str">
+        <v>-BC</v>
+      </c>
+      <c r="I13" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="J13" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="K13" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="L13" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="M13" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="N13" s="0" t="str">
+        <v>-B-</v>
+      </c>
+      <c r="O13" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="P13" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="Q13" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="R13" s="0" t="str">
+        <v>-B-</v>
+      </c>
+      <c r="S13" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="T13" s="0" t="str">
+        <v>-B-</v>
+      </c>
+      <c r="U13" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="V13" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="W13" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="X13" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="Y13" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="Z13" s="0" t="str">
+        <v>--C</v>
+      </c>
+      <c r="AA13" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AB13" s="0" t="str">
+        <v>-B-</v>
+      </c>
+      <c r="AC13" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AD13" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AE13" s="0" t="str">
+        <v>-BC</v>
+      </c>
+      <c r="AF13" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AG13" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AH13" s="0" t="str">
+        <v>A--</v>
+      </c>
+      <c r="AI13" s="0" t="str">
+        <v>A--</v>
+      </c>
+      <c r="AJ13" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AK13" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AL13" s="0" t="str">
+        <v>-BC</v>
+      </c>
+      <c r="AM13" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AN13" s="0" t="str">
+        <v>---</v>
       </c>
     </row>
-    <row r="14" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
-        <v>303</v>
-      </c>
-      <c r="C14" t="s">
-        <v>302</v>
-      </c>
-      <c r="D14" t="s">
-        <v>302</v>
-      </c>
-      <c r="E14" t="s">
-        <v>308</v>
-      </c>
-      <c r="F14" t="s">
-        <v>302</v>
-      </c>
-      <c r="G14" t="s">
-        <v>304</v>
-      </c>
-      <c r="H14" t="s">
-        <v>304</v>
-      </c>
-      <c r="I14" t="s">
-        <v>302</v>
-      </c>
-      <c r="J14" t="s">
-        <v>308</v>
-      </c>
-      <c r="K14" t="s">
-        <v>305</v>
-      </c>
-      <c r="L14" t="s">
-        <v>302</v>
-      </c>
-      <c r="M14" t="s">
-        <v>303</v>
-      </c>
-      <c r="N14" t="s">
-        <v>303</v>
-      </c>
-      <c r="O14" t="s">
-        <v>303</v>
-      </c>
-      <c r="P14" t="s">
-        <v>303</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>304</v>
-      </c>
-      <c r="R14" t="s">
-        <v>303</v>
-      </c>
-      <c r="S14" t="s">
-        <v>303</v>
-      </c>
-      <c r="T14" t="s">
-        <v>305</v>
-      </c>
-      <c r="U14" t="s">
-        <v>304</v>
-      </c>
-      <c r="V14" t="s">
-        <v>303</v>
-      </c>
-      <c r="W14" t="s">
-        <v>304</v>
-      </c>
-      <c r="X14" t="s">
-        <v>302</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>307</v>
-      </c>
-      <c r="Z14" t="s">
-        <v>305</v>
-      </c>
-      <c r="AA14" t="s">
-        <v>303</v>
-      </c>
-      <c r="AB14" t="s">
-        <v>303</v>
-      </c>
-      <c r="AC14" t="s">
-        <v>303</v>
-      </c>
-      <c r="AD14" t="s">
-        <v>306</v>
-      </c>
-      <c r="AE14" t="s">
-        <v>303</v>
-      </c>
-      <c r="AF14" t="s">
-        <v>303</v>
-      </c>
-      <c r="AG14" t="s">
-        <v>303</v>
-      </c>
-      <c r="AH14" t="s">
-        <v>305</v>
-      </c>
-      <c r="AI14" t="s">
-        <v>304</v>
-      </c>
-      <c r="AJ14" t="s">
-        <v>305</v>
-      </c>
-      <c r="AK14" t="s">
-        <v>307</v>
-      </c>
-      <c r="AL14" t="s">
-        <v>306</v>
-      </c>
-      <c r="AM14" t="s">
-        <v>307</v>
-      </c>
-      <c r="AN14" t="s">
-        <v>304</v>
+    <row r="14" spans="2:40" customFormat="false">
+      <c r="B14" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="C14" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="D14" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="E14" s="0" t="str">
+        <v>--C</v>
+      </c>
+      <c r="F14" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="G14" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="H14" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="I14" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="J14" s="0" t="str">
+        <v>--C</v>
+      </c>
+      <c r="K14" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="L14" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="M14" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="N14" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="O14" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="P14" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="Q14" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="R14" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="S14" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="T14" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="U14" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="V14" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="W14" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="X14" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="Y14" s="0" t="str">
+        <v>A--</v>
+      </c>
+      <c r="Z14" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AA14" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AB14" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AC14" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AD14" s="0" t="str">
+        <v>-BC</v>
+      </c>
+      <c r="AE14" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AF14" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AG14" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AH14" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AI14" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="AJ14" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AK14" s="0" t="str">
+        <v>A--</v>
+      </c>
+      <c r="AL14" s="0" t="str">
+        <v>-BC</v>
+      </c>
+      <c r="AM14" s="0" t="str">
+        <v>A--</v>
+      </c>
+      <c r="AN14" s="0" t="str">
+        <v>AB-</v>
       </c>
     </row>
-    <row r="15" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
-        <v>303</v>
-      </c>
-      <c r="C15" t="s">
-        <v>303</v>
-      </c>
-      <c r="D15" t="s">
-        <v>303</v>
-      </c>
-      <c r="E15" t="s">
-        <v>303</v>
-      </c>
-      <c r="F15" t="s">
-        <v>302</v>
-      </c>
-      <c r="G15" t="s">
-        <v>303</v>
-      </c>
-      <c r="H15" t="s">
-        <v>303</v>
-      </c>
-      <c r="I15" t="s">
-        <v>303</v>
-      </c>
-      <c r="J15" t="s">
-        <v>303</v>
-      </c>
-      <c r="K15" t="s">
-        <v>303</v>
-      </c>
-      <c r="L15" t="s">
-        <v>302</v>
-      </c>
-      <c r="M15" t="s">
-        <v>303</v>
-      </c>
-      <c r="N15" t="s">
-        <v>303</v>
-      </c>
-      <c r="O15" t="s">
-        <v>303</v>
-      </c>
-      <c r="P15" t="s">
-        <v>305</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>303</v>
-      </c>
-      <c r="R15" t="s">
-        <v>303</v>
-      </c>
-      <c r="S15" t="s">
-        <v>303</v>
-      </c>
-      <c r="T15" t="s">
-        <v>302</v>
-      </c>
-      <c r="U15" t="s">
-        <v>303</v>
-      </c>
-      <c r="V15" t="s">
-        <v>306</v>
-      </c>
-      <c r="W15" t="s">
-        <v>303</v>
-      </c>
-      <c r="X15" t="s">
-        <v>303</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>302</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>303</v>
-      </c>
-      <c r="AA15" t="s">
-        <v>303</v>
-      </c>
-      <c r="AB15" t="s">
-        <v>303</v>
-      </c>
-      <c r="AC15" t="s">
-        <v>303</v>
-      </c>
-      <c r="AD15" t="s">
-        <v>302</v>
-      </c>
-      <c r="AE15" t="s">
-        <v>303</v>
-      </c>
-      <c r="AF15" t="s">
-        <v>303</v>
-      </c>
-      <c r="AG15" t="s">
-        <v>303</v>
-      </c>
-      <c r="AH15" t="s">
-        <v>303</v>
-      </c>
-      <c r="AI15" t="s">
-        <v>303</v>
-      </c>
-      <c r="AJ15" t="s">
-        <v>306</v>
-      </c>
-      <c r="AK15" t="s">
-        <v>306</v>
-      </c>
-      <c r="AL15" t="s">
-        <v>302</v>
-      </c>
-      <c r="AM15" t="s">
-        <v>303</v>
-      </c>
-      <c r="AN15" t="s">
-        <v>304</v>
+    <row r="15" spans="2:40" customFormat="false">
+      <c r="B15" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="C15" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="D15" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="E15" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="F15" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="G15" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="H15" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="I15" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="J15" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="K15" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="L15" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="M15" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="N15" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="O15" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="P15" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="Q15" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="R15" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="S15" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="T15" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="U15" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="V15" s="0" t="str">
+        <v>-BC</v>
+      </c>
+      <c r="W15" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="X15" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="Y15" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="Z15" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AA15" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AB15" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AC15" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AD15" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="AE15" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AF15" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AG15" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AH15" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AI15" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AJ15" s="0" t="str">
+        <v>-BC</v>
+      </c>
+      <c r="AK15" s="0" t="str">
+        <v>-BC</v>
+      </c>
+      <c r="AL15" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="AM15" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AN15" s="0" t="str">
+        <v>AB-</v>
       </c>
     </row>
-    <row r="16" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
-        <v>303</v>
-      </c>
-      <c r="C16" t="s">
-        <v>307</v>
-      </c>
-      <c r="D16" t="s">
-        <v>303</v>
-      </c>
-      <c r="E16" t="s">
-        <v>309</v>
-      </c>
-      <c r="F16" t="s">
-        <v>302</v>
-      </c>
-      <c r="G16" t="s">
-        <v>303</v>
-      </c>
-      <c r="H16" t="s">
-        <v>303</v>
-      </c>
-      <c r="I16" t="s">
-        <v>306</v>
-      </c>
-      <c r="J16" t="s">
-        <v>308</v>
-      </c>
-      <c r="K16" t="s">
-        <v>303</v>
-      </c>
-      <c r="L16" t="s">
-        <v>303</v>
-      </c>
-      <c r="M16" t="s">
-        <v>304</v>
-      </c>
-      <c r="N16" t="s">
-        <v>303</v>
-      </c>
-      <c r="O16" t="s">
-        <v>308</v>
-      </c>
-      <c r="P16" t="s">
-        <v>305</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>305</v>
-      </c>
-      <c r="R16" t="s">
-        <v>305</v>
-      </c>
-      <c r="S16" t="s">
-        <v>306</v>
-      </c>
-      <c r="T16" t="s">
-        <v>304</v>
-      </c>
-      <c r="U16" t="s">
-        <v>305</v>
-      </c>
-      <c r="V16" t="s">
-        <v>308</v>
-      </c>
-      <c r="W16" t="s">
-        <v>303</v>
-      </c>
-      <c r="X16" t="s">
-        <v>304</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>306</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>304</v>
-      </c>
-      <c r="AA16" t="s">
-        <v>303</v>
-      </c>
-      <c r="AB16" t="s">
-        <v>303</v>
-      </c>
-      <c r="AC16" t="s">
-        <v>303</v>
-      </c>
-      <c r="AD16" t="s">
-        <v>303</v>
-      </c>
-      <c r="AE16" t="s">
-        <v>303</v>
-      </c>
-      <c r="AF16" t="s">
-        <v>305</v>
-      </c>
-      <c r="AG16" t="s">
-        <v>304</v>
-      </c>
-      <c r="AH16" t="s">
-        <v>305</v>
-      </c>
-      <c r="AI16" t="s">
-        <v>307</v>
-      </c>
-      <c r="AJ16" t="s">
-        <v>303</v>
-      </c>
-      <c r="AK16" t="s">
-        <v>303</v>
-      </c>
-      <c r="AL16" t="s">
-        <v>303</v>
-      </c>
-      <c r="AM16" t="s">
-        <v>303</v>
-      </c>
-      <c r="AN16" t="s">
-        <v>305</v>
+    <row r="16" spans="2:40" customFormat="false">
+      <c r="B16" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="C16" s="0" t="str">
+        <v>A--</v>
+      </c>
+      <c r="D16" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="E16" s="0" t="str">
+        <v>-B-</v>
+      </c>
+      <c r="F16" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="G16" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="H16" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="I16" s="0" t="str">
+        <v>-BC</v>
+      </c>
+      <c r="J16" s="0" t="str">
+        <v>--C</v>
+      </c>
+      <c r="K16" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="L16" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="M16" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="N16" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="O16" s="0" t="str">
+        <v>--C</v>
+      </c>
+      <c r="P16" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="Q16" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="R16" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="S16" s="0" t="str">
+        <v>-BC</v>
+      </c>
+      <c r="T16" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="U16" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="V16" s="0" t="str">
+        <v>--C</v>
+      </c>
+      <c r="W16" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="X16" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="Y16" s="0" t="str">
+        <v>-BC</v>
+      </c>
+      <c r="Z16" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="AA16" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AB16" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AC16" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AD16" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AE16" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AF16" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AG16" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="AH16" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AI16" s="0" t="str">
+        <v>A--</v>
+      </c>
+      <c r="AJ16" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AK16" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AL16" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AM16" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AN16" s="0" t="str">
+        <v>---</v>
       </c>
     </row>
-    <row r="17" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
-        <v>303</v>
-      </c>
-      <c r="C17" t="s">
-        <v>307</v>
-      </c>
-      <c r="D17" t="s">
-        <v>304</v>
-      </c>
-      <c r="E17" t="s">
-        <v>305</v>
-      </c>
-      <c r="F17" t="s">
-        <v>308</v>
-      </c>
-      <c r="G17" t="s">
-        <v>305</v>
-      </c>
-      <c r="H17" t="s">
-        <v>306</v>
-      </c>
-      <c r="I17" t="s">
-        <v>303</v>
-      </c>
-      <c r="J17" t="s">
-        <v>305</v>
-      </c>
-      <c r="K17" t="s">
-        <v>305</v>
-      </c>
-      <c r="L17" t="s">
-        <v>305</v>
-      </c>
-      <c r="M17" t="s">
-        <v>308</v>
-      </c>
-      <c r="N17" t="s">
-        <v>307</v>
-      </c>
-      <c r="O17" t="s">
-        <v>304</v>
-      </c>
-      <c r="P17" t="s">
-        <v>303</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>307</v>
-      </c>
-      <c r="R17" t="s">
-        <v>304</v>
-      </c>
-      <c r="S17" t="s">
-        <v>304</v>
-      </c>
-      <c r="T17" t="s">
-        <v>304</v>
-      </c>
-      <c r="U17" t="s">
-        <v>304</v>
-      </c>
-      <c r="V17" t="s">
-        <v>303</v>
-      </c>
-      <c r="W17" t="s">
-        <v>305</v>
-      </c>
-      <c r="X17" t="s">
-        <v>302</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>309</v>
-      </c>
-      <c r="Z17" t="s">
-        <v>303</v>
-      </c>
-      <c r="AA17" t="s">
-        <v>304</v>
-      </c>
-      <c r="AB17" t="s">
-        <v>305</v>
-      </c>
-      <c r="AC17" t="s">
-        <v>305</v>
-      </c>
-      <c r="AD17" t="s">
-        <v>308</v>
-      </c>
-      <c r="AE17" t="s">
-        <v>305</v>
-      </c>
-      <c r="AF17" t="s">
-        <v>305</v>
-      </c>
-      <c r="AG17" t="s">
-        <v>305</v>
-      </c>
-      <c r="AH17" t="s">
-        <v>309</v>
-      </c>
-      <c r="AI17" t="s">
-        <v>302</v>
-      </c>
-      <c r="AJ17" t="s">
-        <v>305</v>
-      </c>
-      <c r="AK17" t="s">
-        <v>307</v>
-      </c>
-      <c r="AL17" t="s">
-        <v>306</v>
-      </c>
-      <c r="AM17" t="s">
-        <v>307</v>
-      </c>
-      <c r="AN17" t="s">
-        <v>309</v>
+    <row r="17" spans="2:40" customFormat="false">
+      <c r="B17" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="C17" s="0" t="str">
+        <v>A--</v>
+      </c>
+      <c r="D17" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="E17" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="F17" s="0" t="str">
+        <v>--C</v>
+      </c>
+      <c r="G17" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="H17" s="0" t="str">
+        <v>-BC</v>
+      </c>
+      <c r="I17" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="J17" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="K17" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="L17" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="M17" s="0" t="str">
+        <v>--C</v>
+      </c>
+      <c r="N17" s="0" t="str">
+        <v>A--</v>
+      </c>
+      <c r="O17" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="P17" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="Q17" s="0" t="str">
+        <v>A--</v>
+      </c>
+      <c r="R17" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="S17" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="T17" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="U17" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="V17" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="W17" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="X17" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="Y17" s="0" t="str">
+        <v>-B-</v>
+      </c>
+      <c r="Z17" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AA17" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="AB17" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AC17" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AD17" s="0" t="str">
+        <v>--C</v>
+      </c>
+      <c r="AE17" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AF17" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AG17" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AH17" s="0" t="str">
+        <v>-B-</v>
+      </c>
+      <c r="AI17" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="AJ17" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AK17" s="0" t="str">
+        <v>A--</v>
+      </c>
+      <c r="AL17" s="0" t="str">
+        <v>-BC</v>
+      </c>
+      <c r="AM17" s="0" t="str">
+        <v>A--</v>
+      </c>
+      <c r="AN17" s="0" t="str">
+        <v>-B-</v>
       </c>
     </row>
-    <row r="18" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
-        <v>305</v>
-      </c>
-      <c r="C18" t="s">
-        <v>309</v>
-      </c>
-      <c r="D18" t="s">
-        <v>308</v>
-      </c>
-      <c r="E18" t="s">
-        <v>305</v>
-      </c>
-      <c r="F18" t="s">
-        <v>308</v>
-      </c>
-      <c r="G18" t="s">
-        <v>305</v>
-      </c>
-      <c r="H18" t="s">
-        <v>304</v>
-      </c>
-      <c r="I18" t="s">
-        <v>309</v>
-      </c>
-      <c r="J18" t="s">
-        <v>309</v>
-      </c>
-      <c r="K18" t="s">
-        <v>305</v>
-      </c>
-      <c r="L18" t="s">
-        <v>305</v>
-      </c>
-      <c r="M18" t="s">
-        <v>305</v>
-      </c>
-      <c r="N18" t="s">
-        <v>309</v>
-      </c>
-      <c r="O18" t="s">
-        <v>305</v>
-      </c>
-      <c r="P18" t="s">
-        <v>305</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>309</v>
-      </c>
-      <c r="R18" t="s">
-        <v>302</v>
-      </c>
-      <c r="S18" t="s">
-        <v>305</v>
-      </c>
-      <c r="T18" t="s">
-        <v>305</v>
-      </c>
-      <c r="U18" t="s">
-        <v>308</v>
-      </c>
-      <c r="V18" t="s">
-        <v>305</v>
-      </c>
-      <c r="W18" t="s">
-        <v>305</v>
-      </c>
-      <c r="X18" t="s">
-        <v>305</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>305</v>
-      </c>
-      <c r="Z18" t="s">
-        <v>305</v>
-      </c>
-      <c r="AA18" t="s">
-        <v>308</v>
-      </c>
-      <c r="AB18" t="s">
-        <v>305</v>
-      </c>
-      <c r="AC18" t="s">
-        <v>305</v>
-      </c>
-      <c r="AD18" t="s">
-        <v>305</v>
-      </c>
-      <c r="AE18" t="s">
-        <v>304</v>
-      </c>
-      <c r="AF18" t="s">
-        <v>302</v>
-      </c>
-      <c r="AG18" t="s">
-        <v>309</v>
-      </c>
-      <c r="AH18" t="s">
-        <v>304</v>
-      </c>
-      <c r="AI18" t="s">
-        <v>305</v>
-      </c>
-      <c r="AJ18" t="s">
-        <v>302</v>
-      </c>
-      <c r="AK18" t="s">
-        <v>305</v>
-      </c>
-      <c r="AL18" t="s">
-        <v>306</v>
-      </c>
-      <c r="AM18" t="s">
-        <v>303</v>
-      </c>
-      <c r="AN18" t="s">
-        <v>305</v>
+    <row r="18" spans="2:40" customFormat="false">
+      <c r="B18" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="C18" s="0" t="str">
+        <v>-B-</v>
+      </c>
+      <c r="D18" s="0" t="str">
+        <v>--C</v>
+      </c>
+      <c r="E18" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="F18" s="0" t="str">
+        <v>--C</v>
+      </c>
+      <c r="G18" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="H18" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="I18" s="0" t="str">
+        <v>-B-</v>
+      </c>
+      <c r="J18" s="0" t="str">
+        <v>-B-</v>
+      </c>
+      <c r="K18" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="L18" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="M18" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="N18" s="0" t="str">
+        <v>-B-</v>
+      </c>
+      <c r="O18" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="P18" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="Q18" s="0" t="str">
+        <v>-B-</v>
+      </c>
+      <c r="R18" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="S18" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="T18" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="U18" s="0" t="str">
+        <v>--C</v>
+      </c>
+      <c r="V18" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="W18" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="X18" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="Y18" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="Z18" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AA18" s="0" t="str">
+        <v>--C</v>
+      </c>
+      <c r="AB18" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AC18" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AD18" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AE18" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="AF18" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="AG18" s="0" t="str">
+        <v>-B-</v>
+      </c>
+      <c r="AH18" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="AI18" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AJ18" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="AK18" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AL18" s="0" t="str">
+        <v>-BC</v>
+      </c>
+      <c r="AM18" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AN18" s="0" t="str">
+        <v>---</v>
       </c>
     </row>
-    <row r="19" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
-        <v>305</v>
-      </c>
-      <c r="C19" t="s">
-        <v>309</v>
-      </c>
-      <c r="D19" t="s">
-        <v>307</v>
-      </c>
-      <c r="E19" t="s">
-        <v>305</v>
-      </c>
-      <c r="F19" t="s">
-        <v>308</v>
-      </c>
-      <c r="G19" t="s">
-        <v>305</v>
-      </c>
-      <c r="H19" t="s">
-        <v>305</v>
-      </c>
-      <c r="I19" t="s">
-        <v>305</v>
-      </c>
-      <c r="J19" t="s">
-        <v>305</v>
-      </c>
-      <c r="K19" t="s">
-        <v>305</v>
-      </c>
-      <c r="L19" t="s">
-        <v>305</v>
-      </c>
-      <c r="M19" t="s">
-        <v>309</v>
-      </c>
-      <c r="N19" t="s">
-        <v>305</v>
-      </c>
-      <c r="O19" t="s">
-        <v>305</v>
-      </c>
-      <c r="P19" t="s">
-        <v>305</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>305</v>
-      </c>
-      <c r="R19" t="s">
-        <v>305</v>
-      </c>
-      <c r="S19" t="s">
-        <v>305</v>
-      </c>
-      <c r="T19" t="s">
-        <v>309</v>
-      </c>
-      <c r="U19" t="s">
-        <v>305</v>
-      </c>
-      <c r="V19" t="s">
-        <v>305</v>
-      </c>
-      <c r="W19" t="s">
-        <v>305</v>
-      </c>
-      <c r="X19" t="s">
-        <v>305</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>305</v>
-      </c>
-      <c r="Z19" t="s">
-        <v>305</v>
-      </c>
-      <c r="AA19" t="s">
-        <v>305</v>
-      </c>
-      <c r="AB19" t="s">
-        <v>305</v>
-      </c>
-      <c r="AC19" t="s">
-        <v>305</v>
-      </c>
-      <c r="AD19" t="s">
-        <v>305</v>
-      </c>
-      <c r="AE19" t="s">
-        <v>305</v>
-      </c>
-      <c r="AF19" t="s">
-        <v>305</v>
-      </c>
-      <c r="AG19" t="s">
-        <v>305</v>
-      </c>
-      <c r="AH19" t="s">
-        <v>305</v>
-      </c>
-      <c r="AI19" t="s">
-        <v>305</v>
-      </c>
-      <c r="AJ19" t="s">
-        <v>305</v>
-      </c>
-      <c r="AK19" t="s">
-        <v>305</v>
-      </c>
-      <c r="AL19" t="s">
-        <v>305</v>
-      </c>
-      <c r="AM19" t="s">
-        <v>305</v>
-      </c>
-      <c r="AN19" t="s">
-        <v>304</v>
+    <row r="19" spans="2:40" customFormat="false">
+      <c r="B19" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="C19" s="0" t="str">
+        <v>-B-</v>
+      </c>
+      <c r="D19" s="0" t="str">
+        <v>A--</v>
+      </c>
+      <c r="E19" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="F19" s="0" t="str">
+        <v>--C</v>
+      </c>
+      <c r="G19" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="H19" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="I19" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="J19" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="K19" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="L19" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="M19" s="0" t="str">
+        <v>-B-</v>
+      </c>
+      <c r="N19" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="O19" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="P19" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="Q19" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="R19" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="S19" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="T19" s="0" t="str">
+        <v>-B-</v>
+      </c>
+      <c r="U19" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="V19" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="W19" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="X19" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="Y19" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="Z19" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AA19" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AB19" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AC19" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AD19" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AE19" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AF19" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AG19" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AH19" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AI19" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AJ19" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AK19" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AL19" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AM19" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AN19" s="0" t="str">
+        <v>AB-</v>
       </c>
     </row>
-    <row r="20" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B20" t="s">
-        <v>305</v>
-      </c>
-      <c r="C20" t="s">
-        <v>309</v>
-      </c>
-      <c r="D20" t="s">
-        <v>307</v>
-      </c>
-      <c r="E20" t="s">
-        <v>305</v>
-      </c>
-      <c r="F20" t="s">
-        <v>308</v>
-      </c>
-      <c r="G20" t="s">
-        <v>305</v>
-      </c>
-      <c r="H20" t="s">
-        <v>305</v>
-      </c>
-      <c r="I20" t="s">
-        <v>305</v>
-      </c>
-      <c r="J20" t="s">
-        <v>308</v>
-      </c>
-      <c r="K20" t="s">
-        <v>305</v>
-      </c>
-      <c r="L20" t="s">
-        <v>305</v>
-      </c>
-      <c r="M20" t="s">
-        <v>309</v>
-      </c>
-      <c r="N20" t="s">
-        <v>305</v>
-      </c>
-      <c r="O20" t="s">
-        <v>305</v>
-      </c>
-      <c r="P20" t="s">
-        <v>305</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>305</v>
-      </c>
-      <c r="R20" t="s">
-        <v>305</v>
-      </c>
-      <c r="S20" t="s">
-        <v>305</v>
-      </c>
-      <c r="T20" t="s">
-        <v>303</v>
-      </c>
-      <c r="U20" t="s">
-        <v>305</v>
-      </c>
-      <c r="V20" t="s">
-        <v>305</v>
-      </c>
-      <c r="W20" t="s">
-        <v>305</v>
-      </c>
-      <c r="X20" t="s">
-        <v>305</v>
-      </c>
-      <c r="Y20" t="s">
-        <v>305</v>
-      </c>
-      <c r="Z20" t="s">
-        <v>305</v>
-      </c>
-      <c r="AA20" t="s">
-        <v>305</v>
-      </c>
-      <c r="AB20" t="s">
-        <v>305</v>
-      </c>
-      <c r="AC20" t="s">
-        <v>307</v>
-      </c>
-      <c r="AD20" t="s">
-        <v>305</v>
-      </c>
-      <c r="AE20" t="s">
-        <v>305</v>
-      </c>
-      <c r="AF20" t="s">
-        <v>308</v>
-      </c>
-      <c r="AG20" t="s">
-        <v>305</v>
-      </c>
-      <c r="AH20" t="s">
-        <v>309</v>
-      </c>
-      <c r="AI20" t="s">
-        <v>305</v>
-      </c>
-      <c r="AJ20" t="s">
-        <v>305</v>
-      </c>
-      <c r="AK20" t="s">
-        <v>305</v>
-      </c>
-      <c r="AL20" t="s">
-        <v>308</v>
-      </c>
-      <c r="AM20" t="s">
-        <v>305</v>
-      </c>
-      <c r="AN20" t="s">
-        <v>309</v>
+    <row r="20" spans="2:40" customFormat="false">
+      <c r="B20" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="C20" s="0" t="str">
+        <v>-B-</v>
+      </c>
+      <c r="D20" s="0" t="str">
+        <v>A--</v>
+      </c>
+      <c r="E20" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="F20" s="0" t="str">
+        <v>--C</v>
+      </c>
+      <c r="G20" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="H20" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="I20" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="J20" s="0" t="str">
+        <v>--C</v>
+      </c>
+      <c r="K20" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="L20" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="M20" s="0" t="str">
+        <v>-B-</v>
+      </c>
+      <c r="N20" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="O20" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="P20" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="Q20" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="R20" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="S20" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="T20" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="U20" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="V20" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="W20" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="X20" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="Y20" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="Z20" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AA20" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AB20" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AC20" s="0" t="str">
+        <v>A--</v>
+      </c>
+      <c r="AD20" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AE20" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AF20" s="0" t="str">
+        <v>--C</v>
+      </c>
+      <c r="AG20" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AH20" s="0" t="str">
+        <v>-B-</v>
+      </c>
+      <c r="AI20" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AJ20" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AK20" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AL20" s="0" t="str">
+        <v>--C</v>
+      </c>
+      <c r="AM20" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AN20" s="0" t="str">
+        <v>-B-</v>
       </c>
     </row>
-    <row r="21" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
-        <v>305</v>
-      </c>
-      <c r="C21" t="s">
-        <v>309</v>
-      </c>
-      <c r="D21" t="s">
-        <v>307</v>
-      </c>
-      <c r="E21" t="s">
-        <v>305</v>
-      </c>
-      <c r="F21" t="s">
-        <v>308</v>
-      </c>
-      <c r="G21" t="s">
-        <v>305</v>
-      </c>
-      <c r="H21" t="s">
-        <v>305</v>
-      </c>
-      <c r="I21" t="s">
-        <v>307</v>
-      </c>
-      <c r="J21" t="s">
-        <v>307</v>
-      </c>
-      <c r="K21" t="s">
-        <v>305</v>
-      </c>
-      <c r="L21" t="s">
-        <v>305</v>
-      </c>
-      <c r="M21" t="s">
-        <v>304</v>
-      </c>
-      <c r="N21" t="s">
-        <v>305</v>
-      </c>
-      <c r="O21" t="s">
-        <v>305</v>
-      </c>
-      <c r="P21" t="s">
-        <v>305</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>305</v>
-      </c>
-      <c r="R21" t="s">
-        <v>305</v>
-      </c>
-      <c r="S21" t="s">
-        <v>305</v>
-      </c>
-      <c r="T21" t="s">
-        <v>306</v>
-      </c>
-      <c r="U21" t="s">
-        <v>305</v>
-      </c>
-      <c r="V21" t="s">
-        <v>307</v>
-      </c>
-      <c r="W21" t="s">
-        <v>305</v>
-      </c>
-      <c r="X21" t="s">
-        <v>305</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>305</v>
-      </c>
-      <c r="Z21" t="s">
-        <v>305</v>
-      </c>
-      <c r="AA21" t="s">
-        <v>305</v>
-      </c>
-      <c r="AB21" t="s">
-        <v>305</v>
-      </c>
-      <c r="AC21" t="s">
-        <v>305</v>
-      </c>
-      <c r="AD21" t="s">
-        <v>305</v>
-      </c>
-      <c r="AE21" t="s">
-        <v>305</v>
-      </c>
-      <c r="AF21" t="s">
-        <v>307</v>
-      </c>
-      <c r="AG21" t="s">
-        <v>309</v>
-      </c>
-      <c r="AH21" t="s">
-        <v>305</v>
-      </c>
-      <c r="AI21" t="s">
-        <v>305</v>
-      </c>
-      <c r="AJ21" t="s">
-        <v>305</v>
-      </c>
-      <c r="AK21" t="s">
-        <v>305</v>
-      </c>
-      <c r="AL21" t="s">
-        <v>305</v>
-      </c>
-      <c r="AM21" t="s">
-        <v>305</v>
-      </c>
-      <c r="AN21" t="s">
-        <v>305</v>
+    <row r="21" spans="2:40" customFormat="false">
+      <c r="B21" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="C21" s="0" t="str">
+        <v>-B-</v>
+      </c>
+      <c r="D21" s="0" t="str">
+        <v>A--</v>
+      </c>
+      <c r="E21" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="F21" s="0" t="str">
+        <v>--C</v>
+      </c>
+      <c r="G21" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="H21" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="I21" s="0" t="str">
+        <v>A--</v>
+      </c>
+      <c r="J21" s="0" t="str">
+        <v>A--</v>
+      </c>
+      <c r="K21" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="L21" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="M21" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="N21" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="O21" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="P21" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="Q21" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="R21" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="S21" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="T21" s="0" t="str">
+        <v>-BC</v>
+      </c>
+      <c r="U21" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="V21" s="0" t="str">
+        <v>A--</v>
+      </c>
+      <c r="W21" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="X21" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="Y21" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="Z21" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AA21" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AB21" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AC21" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AD21" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AE21" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AF21" s="0" t="str">
+        <v>A--</v>
+      </c>
+      <c r="AG21" s="0" t="str">
+        <v>-B-</v>
+      </c>
+      <c r="AH21" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AI21" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AJ21" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AK21" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AL21" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AM21" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AN21" s="0" t="str">
+        <v>---</v>
       </c>
     </row>
-    <row r="22" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
-        <v>304</v>
-      </c>
-      <c r="C22" t="s">
-        <v>309</v>
-      </c>
-      <c r="D22" t="s">
-        <v>307</v>
-      </c>
-      <c r="E22" t="s">
-        <v>307</v>
-      </c>
-      <c r="F22" t="s">
-        <v>308</v>
-      </c>
-      <c r="G22" t="s">
-        <v>306</v>
-      </c>
-      <c r="H22" t="s">
-        <v>303</v>
-      </c>
-      <c r="I22" t="s">
-        <v>304</v>
-      </c>
-      <c r="J22" t="s">
-        <v>302</v>
-      </c>
-      <c r="K22" t="s">
-        <v>303</v>
-      </c>
-      <c r="L22" t="s">
-        <v>306</v>
-      </c>
-      <c r="M22" t="s">
-        <v>304</v>
-      </c>
-      <c r="N22" t="s">
-        <v>308</v>
-      </c>
-      <c r="O22" t="s">
-        <v>305</v>
-      </c>
-      <c r="P22" t="s">
-        <v>305</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>303</v>
-      </c>
-      <c r="R22" t="s">
-        <v>309</v>
-      </c>
-      <c r="S22" t="s">
-        <v>309</v>
-      </c>
-      <c r="T22" t="s">
-        <v>304</v>
-      </c>
-      <c r="U22" t="s">
-        <v>302</v>
-      </c>
-      <c r="V22" t="s">
-        <v>305</v>
-      </c>
-      <c r="W22" t="s">
-        <v>306</v>
-      </c>
-      <c r="X22" t="s">
-        <v>305</v>
-      </c>
-      <c r="Y22" t="s">
-        <v>302</v>
-      </c>
-      <c r="Z22" t="s">
-        <v>304</v>
-      </c>
-      <c r="AA22" t="s">
-        <v>303</v>
-      </c>
-      <c r="AB22" t="s">
-        <v>303</v>
-      </c>
-      <c r="AC22" t="s">
-        <v>303</v>
-      </c>
-      <c r="AD22" t="s">
-        <v>302</v>
-      </c>
-      <c r="AE22" t="s">
-        <v>305</v>
-      </c>
-      <c r="AF22" t="s">
-        <v>305</v>
-      </c>
-      <c r="AG22" t="s">
-        <v>307</v>
-      </c>
-      <c r="AH22" t="s">
-        <v>304</v>
-      </c>
-      <c r="AI22" t="s">
-        <v>305</v>
-      </c>
-      <c r="AJ22" t="s">
-        <v>303</v>
-      </c>
-      <c r="AK22" t="s">
-        <v>308</v>
-      </c>
-      <c r="AL22" t="s">
-        <v>308</v>
-      </c>
-      <c r="AM22" t="s">
-        <v>308</v>
-      </c>
-      <c r="AN22" t="s">
-        <v>305</v>
+    <row r="22" spans="2:40" customFormat="false">
+      <c r="B22" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="C22" s="0" t="str">
+        <v>-B-</v>
+      </c>
+      <c r="D22" s="0" t="str">
+        <v>A--</v>
+      </c>
+      <c r="E22" s="0" t="str">
+        <v>A--</v>
+      </c>
+      <c r="F22" s="0" t="str">
+        <v>--C</v>
+      </c>
+      <c r="G22" s="0" t="str">
+        <v>-BC</v>
+      </c>
+      <c r="H22" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="I22" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="J22" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="K22" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="L22" s="0" t="str">
+        <v>-BC</v>
+      </c>
+      <c r="M22" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="N22" s="0" t="str">
+        <v>--C</v>
+      </c>
+      <c r="O22" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="P22" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="Q22" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="R22" s="0" t="str">
+        <v>-B-</v>
+      </c>
+      <c r="S22" s="0" t="str">
+        <v>-B-</v>
+      </c>
+      <c r="T22" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="U22" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="V22" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="W22" s="0" t="str">
+        <v>-BC</v>
+      </c>
+      <c r="X22" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="Y22" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="Z22" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="AA22" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AB22" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AC22" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AD22" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="AE22" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AF22" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AG22" s="0" t="str">
+        <v>A--</v>
+      </c>
+      <c r="AH22" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="AI22" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AJ22" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AK22" s="0" t="str">
+        <v>--C</v>
+      </c>
+      <c r="AL22" s="0" t="str">
+        <v>--C</v>
+      </c>
+      <c r="AM22" s="0" t="str">
+        <v>--C</v>
+      </c>
+      <c r="AN22" s="0" t="str">
+        <v>---</v>
       </c>
     </row>
-    <row r="23" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
-        <v>308</v>
-      </c>
-      <c r="C23" t="s">
-        <v>305</v>
-      </c>
-      <c r="D23" t="s">
-        <v>307</v>
-      </c>
-      <c r="E23" t="s">
-        <v>305</v>
-      </c>
-      <c r="F23" t="s">
-        <v>308</v>
-      </c>
-      <c r="G23" t="s">
-        <v>308</v>
-      </c>
-      <c r="H23" t="s">
-        <v>303</v>
-      </c>
-      <c r="I23" t="s">
-        <v>303</v>
-      </c>
-      <c r="J23" t="s">
-        <v>303</v>
-      </c>
-      <c r="K23" t="s">
-        <v>303</v>
-      </c>
-      <c r="L23" t="s">
-        <v>305</v>
-      </c>
-      <c r="M23" t="s">
-        <v>304</v>
-      </c>
-      <c r="N23" t="s">
-        <v>306</v>
-      </c>
-      <c r="O23" t="s">
-        <v>308</v>
-      </c>
-      <c r="P23" t="s">
-        <v>305</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>304</v>
-      </c>
-      <c r="R23" t="s">
-        <v>303</v>
-      </c>
-      <c r="S23" t="s">
-        <v>305</v>
-      </c>
-      <c r="T23" t="s">
-        <v>303</v>
-      </c>
-      <c r="U23" t="s">
-        <v>302</v>
-      </c>
-      <c r="V23" t="s">
-        <v>305</v>
-      </c>
-      <c r="W23" t="s">
-        <v>305</v>
-      </c>
-      <c r="X23" t="s">
-        <v>305</v>
-      </c>
-      <c r="Y23" t="s">
-        <v>304</v>
-      </c>
-      <c r="Z23" t="s">
-        <v>305</v>
-      </c>
-      <c r="AA23" t="s">
-        <v>308</v>
-      </c>
-      <c r="AB23" t="s">
-        <v>306</v>
-      </c>
-      <c r="AC23" t="s">
-        <v>304</v>
-      </c>
-      <c r="AD23" t="s">
-        <v>306</v>
-      </c>
-      <c r="AE23" t="s">
-        <v>303</v>
-      </c>
-      <c r="AF23" t="s">
-        <v>305</v>
-      </c>
-      <c r="AG23" t="s">
-        <v>303</v>
-      </c>
-      <c r="AH23" t="s">
-        <v>303</v>
-      </c>
-      <c r="AI23" t="s">
-        <v>305</v>
-      </c>
-      <c r="AJ23" t="s">
-        <v>303</v>
-      </c>
-      <c r="AK23" t="s">
-        <v>307</v>
-      </c>
-      <c r="AL23" t="s">
-        <v>306</v>
-      </c>
-      <c r="AM23" t="s">
-        <v>303</v>
-      </c>
-      <c r="AN23" t="s">
-        <v>309</v>
+    <row r="23" spans="2:40" customFormat="false">
+      <c r="B23" s="0" t="str">
+        <v>--C</v>
+      </c>
+      <c r="C23" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="D23" s="0" t="str">
+        <v>A--</v>
+      </c>
+      <c r="E23" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="F23" s="0" t="str">
+        <v>--C</v>
+      </c>
+      <c r="G23" s="0" t="str">
+        <v>--C</v>
+      </c>
+      <c r="H23" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="I23" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="J23" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="K23" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="L23" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="M23" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="N23" s="0" t="str">
+        <v>-BC</v>
+      </c>
+      <c r="O23" s="0" t="str">
+        <v>--C</v>
+      </c>
+      <c r="P23" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="Q23" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="R23" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="S23" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="T23" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="U23" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="V23" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="W23" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="X23" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="Y23" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="Z23" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AA23" s="0" t="str">
+        <v>--C</v>
+      </c>
+      <c r="AB23" s="0" t="str">
+        <v>-BC</v>
+      </c>
+      <c r="AC23" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="AD23" s="0" t="str">
+        <v>-BC</v>
+      </c>
+      <c r="AE23" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AF23" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AG23" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AH23" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AI23" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AJ23" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AK23" s="0" t="str">
+        <v>A--</v>
+      </c>
+      <c r="AL23" s="0" t="str">
+        <v>-BC</v>
+      </c>
+      <c r="AM23" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AN23" s="0" t="str">
+        <v>-B-</v>
       </c>
     </row>
-    <row r="24" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
-        <v>305</v>
-      </c>
-      <c r="C24" t="s">
-        <v>305</v>
-      </c>
-      <c r="D24" t="s">
-        <v>303</v>
-      </c>
-      <c r="E24" t="s">
-        <v>303</v>
-      </c>
-      <c r="F24" t="s">
-        <v>302</v>
-      </c>
-      <c r="G24" t="s">
-        <v>303</v>
-      </c>
-      <c r="H24" t="s">
-        <v>305</v>
-      </c>
-      <c r="I24" t="s">
-        <v>305</v>
-      </c>
-      <c r="J24" t="s">
-        <v>303</v>
-      </c>
-      <c r="K24" t="s">
-        <v>303</v>
-      </c>
-      <c r="L24" t="s">
-        <v>309</v>
-      </c>
-      <c r="M24" t="s">
-        <v>305</v>
-      </c>
-      <c r="N24" t="s">
-        <v>303</v>
-      </c>
-      <c r="O24" t="s">
-        <v>303</v>
-      </c>
-      <c r="P24" t="s">
-        <v>305</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>305</v>
-      </c>
-      <c r="R24" t="s">
-        <v>305</v>
-      </c>
-      <c r="S24" t="s">
-        <v>306</v>
-      </c>
-      <c r="T24" t="s">
-        <v>305</v>
-      </c>
-      <c r="U24" t="s">
-        <v>305</v>
-      </c>
-      <c r="V24" t="s">
-        <v>305</v>
-      </c>
-      <c r="W24" t="s">
-        <v>308</v>
-      </c>
-      <c r="X24" t="s">
-        <v>309</v>
-      </c>
-      <c r="Y24" t="s">
-        <v>305</v>
-      </c>
-      <c r="Z24" t="s">
-        <v>308</v>
-      </c>
-      <c r="AA24" t="s">
-        <v>303</v>
-      </c>
-      <c r="AB24" t="s">
-        <v>303</v>
-      </c>
-      <c r="AC24" t="s">
-        <v>303</v>
-      </c>
-      <c r="AD24" t="s">
-        <v>303</v>
-      </c>
-      <c r="AE24" t="s">
-        <v>303</v>
-      </c>
-      <c r="AF24" t="s">
-        <v>306</v>
-      </c>
-      <c r="AG24" t="s">
-        <v>305</v>
-      </c>
-      <c r="AH24" t="s">
-        <v>305</v>
-      </c>
-      <c r="AI24" t="s">
-        <v>305</v>
-      </c>
-      <c r="AJ24" t="s">
-        <v>303</v>
-      </c>
-      <c r="AK24" t="s">
-        <v>303</v>
-      </c>
-      <c r="AL24" t="s">
-        <v>306</v>
-      </c>
-      <c r="AM24" t="s">
-        <v>304</v>
-      </c>
-      <c r="AN24" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="25" spans="2:40" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
-        <v>328</v>
-      </c>
-      <c r="C25" t="s">
-        <v>328</v>
-      </c>
-      <c r="D25" t="s">
-        <v>328</v>
-      </c>
-      <c r="E25" t="s">
-        <v>328</v>
-      </c>
-      <c r="F25" t="s">
-        <v>328</v>
-      </c>
-      <c r="G25" t="s">
-        <v>328</v>
-      </c>
-      <c r="H25" t="s">
-        <v>328</v>
-      </c>
-      <c r="I25" t="s">
-        <v>328</v>
-      </c>
-      <c r="J25" t="s">
-        <v>328</v>
-      </c>
-      <c r="K25" t="s">
-        <v>328</v>
-      </c>
-      <c r="L25" t="s">
-        <v>328</v>
-      </c>
-      <c r="M25" t="s">
-        <v>328</v>
-      </c>
-      <c r="N25" t="s">
-        <v>328</v>
-      </c>
-      <c r="O25" t="s">
-        <v>328</v>
-      </c>
-      <c r="P25" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>328</v>
-      </c>
-      <c r="R25" t="s">
-        <v>328</v>
-      </c>
-      <c r="S25" t="s">
-        <v>328</v>
-      </c>
-      <c r="T25" t="s">
-        <v>328</v>
-      </c>
-      <c r="U25" t="s">
-        <v>328</v>
-      </c>
-      <c r="V25" t="s">
-        <v>328</v>
-      </c>
-      <c r="W25" t="s">
-        <v>328</v>
-      </c>
-      <c r="X25" t="s">
-        <v>328</v>
-      </c>
-      <c r="Y25" t="s">
-        <v>328</v>
-      </c>
-      <c r="Z25" t="s">
-        <v>328</v>
-      </c>
-      <c r="AA25" t="s">
-        <v>328</v>
-      </c>
-      <c r="AB25" t="s">
-        <v>328</v>
-      </c>
-      <c r="AC25" t="s">
-        <v>328</v>
-      </c>
-      <c r="AD25" t="s">
-        <v>328</v>
-      </c>
-      <c r="AE25" t="s">
-        <v>328</v>
-      </c>
-      <c r="AF25" t="s">
-        <v>328</v>
-      </c>
-      <c r="AG25" t="s">
-        <v>328</v>
-      </c>
-      <c r="AH25" t="s">
-        <v>328</v>
-      </c>
-      <c r="AI25" t="s">
-        <v>328</v>
-      </c>
-      <c r="AJ25" t="s">
-        <v>328</v>
-      </c>
-      <c r="AK25" t="s">
-        <v>328</v>
-      </c>
-      <c r="AL25" t="s">
-        <v>328</v>
-      </c>
-      <c r="AM25" t="s">
-        <v>328</v>
-      </c>
-      <c r="AN25" t="s">
-        <v>328</v>
+    <row r="24" spans="2:40" customFormat="false">
+      <c r="B24" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="C24" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="D24" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="E24" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="F24" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="G24" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="H24" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="I24" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="J24" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="K24" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="L24" s="0" t="str">
+        <v>-B-</v>
+      </c>
+      <c r="M24" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="N24" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="O24" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="P24" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="Q24" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="R24" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="S24" s="0" t="str">
+        <v>-BC</v>
+      </c>
+      <c r="T24" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="U24" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="V24" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="W24" s="0" t="str">
+        <v>--C</v>
+      </c>
+      <c r="X24" s="0" t="str">
+        <v>-B-</v>
+      </c>
+      <c r="Y24" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="Z24" s="0" t="str">
+        <v>--C</v>
+      </c>
+      <c r="AA24" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AB24" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AC24" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AD24" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AE24" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AF24" s="0" t="str">
+        <v>-BC</v>
+      </c>
+      <c r="AG24" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AH24" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AI24" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AJ24" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AK24" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AL24" s="0" t="str">
+        <v>-BC</v>
+      </c>
+      <c r="AM24" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="AN24" s="0" t="str">
+        <v>---</v>
       </c>
     </row>
   </sheetData>

--- a/speaking.xlsx
+++ b/speaking.xlsx
@@ -12481,121 +12481,121 @@
     </row>
     <row r="5" spans="2:40" customFormat="false">
       <c r="B5" s="0" t="str">
-        <v>AC</v>
+        <v>ABC</v>
       </c>
       <c r="C5" s="0" t="str">
-        <v>AC</v>
+        <v>ABC</v>
       </c>
       <c r="D5" s="0" t="str">
-        <v>AC</v>
+        <v>ABC</v>
       </c>
       <c r="E5" s="0" t="str">
-        <v>-C</v>
+        <v>-BC</v>
       </c>
       <c r="F5" s="0" t="str">
-        <v>-C</v>
+        <v>--C</v>
       </c>
       <c r="G5" s="0" t="str">
-        <v>-C</v>
+        <v>-BC</v>
       </c>
       <c r="H5" s="0" t="str">
-        <v>AC</v>
+        <v>ABC</v>
       </c>
       <c r="I5" s="0" t="str">
-        <v>AC</v>
+        <v>A-C</v>
       </c>
       <c r="J5" s="0" t="str">
-        <v>AC</v>
+        <v>ABC</v>
       </c>
       <c r="K5" s="0" t="str">
-        <v>AC</v>
+        <v>ABC</v>
       </c>
       <c r="L5" s="0" t="str">
-        <v>--</v>
+        <v>-B-</v>
       </c>
       <c r="M5" s="0" t="str">
-        <v>A-</v>
+        <v>A--</v>
       </c>
       <c r="N5" s="0" t="str">
-        <v>AC</v>
+        <v>ABC</v>
       </c>
       <c r="O5" s="0" t="str">
-        <v>--</v>
+        <v>---</v>
       </c>
       <c r="P5" s="0" t="str">
-        <v>--</v>
+        <v>---</v>
       </c>
       <c r="Q5" s="0" t="str">
-        <v>AC</v>
+        <v>ABC</v>
       </c>
       <c r="R5" s="0" t="str">
-        <v>A-</v>
+        <v>AB-</v>
       </c>
       <c r="S5" s="0" t="str">
-        <v>-C</v>
+        <v>-BC</v>
       </c>
       <c r="T5" s="0" t="str">
-        <v>AC</v>
+        <v>ABC</v>
       </c>
       <c r="U5" s="0" t="str">
-        <v>AC</v>
+        <v>A-C</v>
       </c>
       <c r="V5" s="0" t="str">
-        <v>-C</v>
+        <v>-BC</v>
       </c>
       <c r="W5" s="0" t="str">
-        <v>AC</v>
+        <v>ABC</v>
       </c>
       <c r="X5" s="0" t="str">
-        <v>A-</v>
+        <v>AB-</v>
       </c>
       <c r="Y5" s="0" t="str">
-        <v>AC</v>
+        <v>ABC</v>
       </c>
       <c r="Z5" s="0" t="str">
-        <v>A-</v>
+        <v>AB-</v>
       </c>
       <c r="AA5" s="0" t="str">
-        <v>AC</v>
+        <v>ABC</v>
       </c>
       <c r="AB5" s="0" t="str">
-        <v>AC</v>
+        <v>ABC</v>
       </c>
       <c r="AC5" s="0" t="str">
-        <v>AC</v>
+        <v>ABC</v>
       </c>
       <c r="AD5" s="0" t="str">
-        <v>AC</v>
+        <v>ABC</v>
       </c>
       <c r="AE5" s="0" t="str">
-        <v>AC</v>
+        <v>ABC</v>
       </c>
       <c r="AF5" s="0" t="str">
-        <v>AC</v>
+        <v>ABC</v>
       </c>
       <c r="AG5" s="0" t="str">
-        <v>AC</v>
+        <v>A-C</v>
       </c>
       <c r="AH5" s="0" t="str">
-        <v>-C</v>
+        <v>--C</v>
       </c>
       <c r="AI5" s="0" t="str">
-        <v>AC</v>
+        <v>A-C</v>
       </c>
       <c r="AJ5" s="0" t="str">
-        <v>AC</v>
+        <v>ABC</v>
       </c>
       <c r="AK5" s="0" t="str">
-        <v>AC</v>
+        <v>ABC</v>
       </c>
       <c r="AL5" s="0" t="str">
-        <v>-C</v>
+        <v>-BC</v>
       </c>
       <c r="AM5" s="0" t="str">
-        <v>AC</v>
+        <v>ABC</v>
       </c>
       <c r="AN5" s="0" t="str">
-        <v>--</v>
+        <v>-B-</v>
       </c>
     </row>
     <row r="6" spans="2:40" customFormat="false">
@@ -12957,121 +12957,121 @@
     </row>
     <row r="9" spans="2:40" customFormat="false">
       <c r="B9" s="0" t="str">
-        <v>AB</v>
+        <v>AB-</v>
       </c>
       <c r="C9" s="0" t="str">
-        <v>--</v>
+        <v>---</v>
       </c>
       <c r="D9" s="0" t="str">
-        <v>AB</v>
+        <v>ABC</v>
       </c>
       <c r="E9" s="0" t="str">
-        <v>AB</v>
+        <v>ABC</v>
       </c>
       <c r="F9" s="0" t="str">
-        <v>A-</v>
+        <v>A-C</v>
       </c>
       <c r="G9" s="0" t="str">
-        <v>A-</v>
+        <v>A-C</v>
       </c>
       <c r="H9" s="0" t="str">
-        <v>A-</v>
+        <v>A-C</v>
       </c>
       <c r="I9" s="0" t="str">
-        <v>AB</v>
+        <v>ABC</v>
       </c>
       <c r="J9" s="0" t="str">
-        <v>AB</v>
+        <v>AB-</v>
       </c>
       <c r="K9" s="0" t="str">
-        <v>AB</v>
+        <v>AB-</v>
       </c>
       <c r="L9" s="0" t="str">
-        <v>-B</v>
+        <v>-BC</v>
       </c>
       <c r="M9" s="0" t="str">
-        <v>A-</v>
+        <v>A-C</v>
       </c>
       <c r="N9" s="0" t="str">
-        <v>AB</v>
+        <v>ABC</v>
       </c>
       <c r="O9" s="0" t="str">
-        <v>A-</v>
+        <v>A-C</v>
       </c>
       <c r="P9" s="0" t="str">
-        <v>--</v>
+        <v>---</v>
       </c>
       <c r="Q9" s="0" t="str">
-        <v>-B</v>
+        <v>-B-</v>
       </c>
       <c r="R9" s="0" t="str">
-        <v>--</v>
+        <v>--C</v>
       </c>
       <c r="S9" s="0" t="str">
-        <v>AB</v>
+        <v>ABC</v>
       </c>
       <c r="T9" s="0" t="str">
-        <v>A-</v>
+        <v>A-C</v>
       </c>
       <c r="U9" s="0" t="str">
-        <v>--</v>
+        <v>--C</v>
       </c>
       <c r="V9" s="0" t="str">
-        <v>--</v>
+        <v>--C</v>
       </c>
       <c r="W9" s="0" t="str">
-        <v>-B</v>
+        <v>-B-</v>
       </c>
       <c r="X9" s="0" t="str">
-        <v>AB</v>
+        <v>ABC</v>
       </c>
       <c r="Y9" s="0" t="str">
-        <v>AB</v>
+        <v>ABC</v>
       </c>
       <c r="Z9" s="0" t="str">
-        <v>A-</v>
+        <v>A-C</v>
       </c>
       <c r="AA9" s="0" t="str">
-        <v>AB</v>
+        <v>ABC</v>
       </c>
       <c r="AB9" s="0" t="str">
-        <v>AB</v>
+        <v>ABC</v>
       </c>
       <c r="AC9" s="0" t="str">
-        <v>AB</v>
+        <v>ABC</v>
       </c>
       <c r="AD9" s="0" t="str">
-        <v>AB</v>
+        <v>ABC</v>
       </c>
       <c r="AE9" s="0" t="str">
-        <v>AB</v>
+        <v>ABC</v>
       </c>
       <c r="AF9" s="0" t="str">
-        <v>A-</v>
+        <v>A-C</v>
       </c>
       <c r="AG9" s="0" t="str">
-        <v>AB</v>
+        <v>ABC</v>
       </c>
       <c r="AH9" s="0" t="str">
-        <v>AB</v>
+        <v>ABC</v>
       </c>
       <c r="AI9" s="0" t="str">
-        <v>AB</v>
+        <v>ABC</v>
       </c>
       <c r="AJ9" s="0" t="str">
-        <v>--</v>
+        <v>---</v>
       </c>
       <c r="AK9" s="0" t="str">
-        <v>AB</v>
+        <v>AB-</v>
       </c>
       <c r="AL9" s="0" t="str">
-        <v>--</v>
+        <v>--C</v>
       </c>
       <c r="AM9" s="0" t="str">
-        <v>AB</v>
+        <v>ABC</v>
       </c>
       <c r="AN9" s="0" t="str">
-        <v>-B</v>
+        <v>-B-</v>
       </c>
     </row>
     <row r="10" spans="2:40" customFormat="false">

--- a/speaking.xlsx
+++ b/speaking.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="Form Responses 1" sheetId="1" r:id="rId4"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="302" count="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="310" count="310">
   <si>
     <t>Timestamp</t>
   </si>
@@ -929,6 +929,30 @@
   </si>
   <si>
     <t>Be able to have the courage to speak.</t>
+  </si>
+  <si>
+    <t>A-C</t>
+  </si>
+  <si>
+    <t>ABC</t>
+  </si>
+  <si>
+    <t>AB-</t>
+  </si>
+  <si>
+    <t>---</t>
+  </si>
+  <si>
+    <t>-BC</t>
+  </si>
+  <si>
+    <t>A--</t>
+  </si>
+  <si>
+    <t>--C</t>
+  </si>
+  <si>
+    <t>-B-</t>
   </si>
 </sst>
 </file>
@@ -1296,11 +1320,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
   <dimension ref="A1:CJ40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomRight" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -11995,13 +12019,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
-  <dimension ref="B1:AN24"/>
+  <dimension ref="B1:AN25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="5.7109375" defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="27.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="2:40" customFormat="false">
       <c r="B1" s="0" t="str">
@@ -12124,394 +12151,403 @@
     </row>
     <row r="2" spans="2:40" customFormat="false">
       <c r="B2" s="0" t="str">
+        <v>Spanish II 1st</v>
+      </c>
+      <c r="C2" s="0" t="str">
+        <v>Spanish II 4th</v>
+      </c>
+      <c r="D2" s="0" t="str">
+        <v>Spanish II 4th</v>
+      </c>
+      <c r="E2" s="0" t="str">
+        <v>Spanish II 4th</v>
+      </c>
+      <c r="F2" s="0" t="str">
+        <v>Spanish II 4th</v>
+      </c>
+      <c r="G2" s="0" t="str">
+        <v>Spanish II 4th</v>
+      </c>
+      <c r="H2" s="0" t="str">
+        <v>Spanish II 1st</v>
+      </c>
+      <c r="I2" s="0" t="str">
+        <v>Spanish II 1st</v>
+      </c>
+      <c r="J2" s="0" t="str">
+        <v>Spanish II 4th</v>
+      </c>
+      <c r="K2" s="0" t="str">
+        <v>Spanish II 1st</v>
+      </c>
+      <c r="L2" s="0" t="str">
+        <v>Spanish II 4th</v>
+      </c>
+      <c r="M2" s="0" t="str">
+        <v>Spanish II 4th</v>
+      </c>
+      <c r="N2" s="0" t="str">
+        <v>Spanish II 4th</v>
+      </c>
+      <c r="O2" s="0" t="str">
+        <v>Spanish II 1st</v>
+      </c>
+      <c r="P2" s="0" t="str">
+        <v>Spanish II 1st</v>
+      </c>
+      <c r="Q2" s="0" t="str">
+        <v>Spanish II 1st</v>
+      </c>
+      <c r="R2" s="0" t="str">
+        <v>Spanish II 1st</v>
+      </c>
+      <c r="S2" s="0" t="str">
+        <v>Spanish II 1st</v>
+      </c>
+      <c r="T2" s="0" t="str">
+        <v>Spanish II 1st</v>
+      </c>
+      <c r="U2" s="0" t="str">
+        <v>Spanish II 1st</v>
+      </c>
+      <c r="V2" s="0" t="str">
+        <v>Spanish II 1st</v>
+      </c>
+      <c r="W2" s="0" t="str">
+        <v>Spanish II 4th</v>
+      </c>
+      <c r="X2" s="0" t="str">
+        <v>Spanish II 4th</v>
+      </c>
+      <c r="Y2" s="0" t="str">
+        <v>Spanish II 1st</v>
+      </c>
+      <c r="Z2" s="0" t="str">
+        <v>Spanish II 1st</v>
+      </c>
+      <c r="AA2" s="0" t="str">
+        <v>Spanish II 1st</v>
+      </c>
+      <c r="AB2" s="0" t="str">
+        <v>Spanish II 4th</v>
+      </c>
+      <c r="AC2" s="0" t="str">
+        <v>Spanish II 4th</v>
+      </c>
+      <c r="AD2" s="0" t="str">
+        <v>Spanish II 1st</v>
+      </c>
+      <c r="AE2" s="0" t="str">
+        <v>Spanish II 4th</v>
+      </c>
+      <c r="AF2" s="0" t="str">
+        <v>Spanish II 1st</v>
+      </c>
+      <c r="AG2" s="0" t="str">
+        <v>Spanish II 4th</v>
+      </c>
+      <c r="AH2" s="0" t="str">
+        <v>Spanish II 1st</v>
+      </c>
+      <c r="AI2" s="0" t="str">
+        <v>Spanish II 1st</v>
+      </c>
+      <c r="AJ2" s="0" t="str">
+        <v>Spanish II 4th</v>
+      </c>
+      <c r="AK2" s="0" t="str">
+        <v>Spanish II 1st</v>
+      </c>
+      <c r="AL2" s="0" t="str">
+        <v>Spanish II 1st</v>
+      </c>
+      <c r="AM2" s="0" t="str">
+        <v>Spanish II 1st</v>
+      </c>
+      <c r="AN2" s="0" t="str">
+        <v>Spanish II 4th</v>
+      </c>
+    </row>
+    <row r="3" spans="1:40" customFormat="false">
+      <c r="A3" s="0" t="str">
+        <v>NOVICE ask/respond to  predictable, formulaic questions</v>
+      </c>
+      <c r="B3" s="0" t="str">
         <v>A-C</v>
       </c>
-      <c r="C2" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="D2" s="0" t="str">
+      <c r="C3" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="D3" s="0" t="str">
         <v>AB-</v>
       </c>
-      <c r="E2" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="F2" s="0" t="str">
+      <c r="E3" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="F3" s="0" t="str">
         <v>A-C</v>
       </c>
-      <c r="G2" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="H2" s="0" t="str">
+      <c r="G3" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="H3" s="0" t="str">
         <v>-BC</v>
       </c>
-      <c r="I2" s="0" t="str">
+      <c r="I3" s="0" t="str">
         <v>AB-</v>
       </c>
-      <c r="J2" s="0" t="str">
+      <c r="J3" s="0" t="str">
         <v>A-C</v>
       </c>
-      <c r="K2" s="0" t="str">
+      <c r="K3" s="0" t="str">
         <v>AB-</v>
       </c>
-      <c r="L2" s="0" t="str">
+      <c r="L3" s="0" t="str">
         <v>A--</v>
       </c>
-      <c r="M2" s="0" t="str">
+      <c r="M3" s="0" t="str">
         <v>AB-</v>
       </c>
-      <c r="N2" s="0" t="str">
+      <c r="N3" s="0" t="str">
         <v>AB-</v>
       </c>
-      <c r="O2" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="P2" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="Q2" s="0" t="str">
+      <c r="O3" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="P3" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="Q3" s="0" t="str">
         <v>--C</v>
       </c>
-      <c r="R2" s="0" t="str">
+      <c r="R3" s="0" t="str">
         <v>--C</v>
       </c>
-      <c r="S2" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="T2" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="U2" s="0" t="str">
+      <c r="S3" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="T3" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="U3" s="0" t="str">
         <v>AB-</v>
       </c>
-      <c r="V2" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="W2" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="X2" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="Y2" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="Z2" s="0" t="str">
+      <c r="V3" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="W3" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="X3" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="Y3" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="Z3" s="0" t="str">
         <v>AB-</v>
       </c>
-      <c r="AA2" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AB2" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="AC2" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="AD2" s="0" t="str">
-        <v>-B-</v>
-      </c>
-      <c r="AE2" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AF2" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AG2" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AH2" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AI2" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AJ2" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AK2" s="0" t="str">
-        <v>A--</v>
-      </c>
-      <c r="AL2" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AM2" s="0" t="str">
-        <v>A--</v>
-      </c>
-      <c r="AN2" s="0" t="str">
-        <v>A--</v>
-      </c>
-    </row>
-    <row r="3" spans="2:40" customFormat="false">
-      <c r="B3" s="0" t="str">
-        <v>-B-</v>
-      </c>
-      <c r="C3" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="D3" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="E3" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="F3" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="G3" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="H3" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="I3" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="J3" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="K3" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="L3" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="M3" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="N3" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="O3" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="P3" s="0" t="str">
-        <v>-B-</v>
-      </c>
-      <c r="Q3" s="0" t="str">
-        <v>A--</v>
-      </c>
-      <c r="R3" s="0" t="str">
-        <v>-B-</v>
-      </c>
-      <c r="S3" s="0" t="str">
-        <v>-BC</v>
-      </c>
-      <c r="T3" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="U3" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="V3" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="W3" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="X3" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="Y3" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="Z3" s="0" t="str">
-        <v>--C</v>
-      </c>
       <c r="AA3" s="0" t="str">
-        <v>A-C</v>
+        <v>---</v>
       </c>
       <c r="AB3" s="0" t="str">
         <v>A-C</v>
       </c>
       <c r="AC3" s="0" t="str">
-        <v>---</v>
+        <v>A-C</v>
       </c>
       <c r="AD3" s="0" t="str">
-        <v>---</v>
+        <v>-B-</v>
       </c>
       <c r="AE3" s="0" t="str">
-        <v>-B-</v>
+        <v>ABC</v>
       </c>
       <c r="AF3" s="0" t="str">
-        <v>---</v>
+        <v>ABC</v>
       </c>
       <c r="AG3" s="0" t="str">
-        <v>ABC</v>
+        <v>---</v>
       </c>
       <c r="AH3" s="0" t="str">
-        <v>AB-</v>
+        <v>ABC</v>
       </c>
       <c r="AI3" s="0" t="str">
-        <v>-BC</v>
+        <v>ABC</v>
       </c>
       <c r="AJ3" s="0" t="str">
-        <v>A--</v>
+        <v>---</v>
       </c>
       <c r="AK3" s="0" t="str">
         <v>A--</v>
       </c>
       <c r="AL3" s="0" t="str">
-        <v>-BC</v>
+        <v>ABC</v>
       </c>
       <c r="AM3" s="0" t="str">
         <v>A--</v>
       </c>
       <c r="AN3" s="0" t="str">
-        <v>---</v>
+        <v>A--</v>
       </c>
     </row>
-    <row r="4" spans="2:40" customFormat="false">
+    <row r="4" spans="1:40" customFormat="false">
+      <c r="A4" s="0" t="str">
+        <v>NOVICE list, name, identify</v>
+      </c>
       <c r="B4" s="0" t="str">
+        <v>-B-</v>
+      </c>
+      <c r="C4" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="D4" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="E4" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="F4" s="0" t="str">
+        <v>--C</v>
+      </c>
+      <c r="G4" s="0" t="str">
+        <v>--C</v>
+      </c>
+      <c r="H4" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="I4" s="0" t="str">
+        <v>--C</v>
+      </c>
+      <c r="J4" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="K4" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="L4" s="0" t="str">
+        <v>--C</v>
+      </c>
+      <c r="M4" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="N4" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="O4" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="P4" s="0" t="str">
+        <v>-B-</v>
+      </c>
+      <c r="Q4" s="0" t="str">
+        <v>A--</v>
+      </c>
+      <c r="R4" s="0" t="str">
+        <v>-B-</v>
+      </c>
+      <c r="S4" s="0" t="str">
+        <v>-BC</v>
+      </c>
+      <c r="T4" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="U4" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="V4" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="W4" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="X4" s="0" t="str">
+        <v>--C</v>
+      </c>
+      <c r="Y4" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="Z4" s="0" t="str">
+        <v>--C</v>
+      </c>
+      <c r="AA4" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="AB4" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="AC4" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AD4" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AE4" s="0" t="str">
+        <v>-B-</v>
+      </c>
+      <c r="AF4" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AG4" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AH4" s="0" t="str">
         <v>AB-</v>
       </c>
-      <c r="C4" s="0" t="str">
+      <c r="AI4" s="0" t="str">
+        <v>-BC</v>
+      </c>
+      <c r="AJ4" s="0" t="str">
+        <v>A--</v>
+      </c>
+      <c r="AK4" s="0" t="str">
+        <v>A--</v>
+      </c>
+      <c r="AL4" s="0" t="str">
+        <v>-BC</v>
+      </c>
+      <c r="AM4" s="0" t="str">
+        <v>A--</v>
+      </c>
+      <c r="AN4" s="0" t="str">
+        <v>---</v>
+      </c>
+    </row>
+    <row r="5" spans="1:40" customFormat="false">
+      <c r="A5" s="0" t="str">
+        <v>INTERMEDIATE ask, answer variety of questions</v>
+      </c>
+      <c r="B5" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="C5" s="0" t="str">
         <v>A-C</v>
       </c>
-      <c r="D4" s="0" t="str">
+      <c r="D5" s="0" t="str">
         <v>AB-</v>
       </c>
-      <c r="E4" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="F4" s="0" t="str">
+      <c r="E5" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="F5" s="0" t="str">
         <v>A-C</v>
       </c>
-      <c r="G4" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="H4" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="I4" s="0" t="str">
+      <c r="G5" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="H5" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="I5" s="0" t="str">
         <v>AB-</v>
       </c>
-      <c r="J4" s="0" t="str">
+      <c r="J5" s="0" t="str">
         <v>A-C</v>
       </c>
-      <c r="K4" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="L4" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="M4" s="0" t="str">
-        <v>A--</v>
-      </c>
-      <c r="N4" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="O4" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="P4" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="Q4" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="R4" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="S4" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="T4" s="0" t="str">
-        <v>-BC</v>
-      </c>
-      <c r="U4" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="V4" s="0" t="str">
-        <v>-BC</v>
-      </c>
-      <c r="W4" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="X4" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="Y4" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="Z4" s="0" t="str">
-        <v>A--</v>
-      </c>
-      <c r="AA4" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AB4" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AC4" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AD4" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AE4" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="AF4" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AG4" s="0" t="str">
-        <v>A--</v>
-      </c>
-      <c r="AH4" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AI4" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AJ4" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AK4" s="0" t="str">
-        <v>-BC</v>
-      </c>
-      <c r="AL4" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AM4" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="AN4" s="0" t="str">
-        <v>AB-</v>
-      </c>
-    </row>
-    <row r="5" spans="2:40" customFormat="false">
-      <c r="B5" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="C5" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="D5" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="E5" s="0" t="str">
-        <v>-BC</v>
-      </c>
-      <c r="F5" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="G5" s="0" t="str">
-        <v>-BC</v>
-      </c>
-      <c r="H5" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="I5" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="J5" s="0" t="str">
-        <v>ABC</v>
-      </c>
       <c r="K5" s="0" t="str">
         <v>ABC</v>
       </c>
       <c r="L5" s="0" t="str">
-        <v>-B-</v>
+        <v>ABC</v>
       </c>
       <c r="M5" s="0" t="str">
         <v>A--</v>
@@ -12520,10 +12556,10 @@
         <v>ABC</v>
       </c>
       <c r="O5" s="0" t="str">
-        <v>---</v>
+        <v>ABC</v>
       </c>
       <c r="P5" s="0" t="str">
-        <v>---</v>
+        <v>A-C</v>
       </c>
       <c r="Q5" s="0" t="str">
         <v>ABC</v>
@@ -12532,13 +12568,13 @@
         <v>AB-</v>
       </c>
       <c r="S5" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="T5" s="0" t="str">
         <v>-BC</v>
       </c>
-      <c r="T5" s="0" t="str">
-        <v>ABC</v>
-      </c>
       <c r="U5" s="0" t="str">
-        <v>A-C</v>
+        <v>ABC</v>
       </c>
       <c r="V5" s="0" t="str">
         <v>-BC</v>
@@ -12553,380 +12589,389 @@
         <v>ABC</v>
       </c>
       <c r="Z5" s="0" t="str">
+        <v>A--</v>
+      </c>
+      <c r="AA5" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AB5" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AC5" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AD5" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AE5" s="0" t="str">
+        <v>--C</v>
+      </c>
+      <c r="AF5" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AG5" s="0" t="str">
+        <v>A--</v>
+      </c>
+      <c r="AH5" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AI5" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AJ5" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AK5" s="0" t="str">
+        <v>-BC</v>
+      </c>
+      <c r="AL5" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AM5" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="AN5" s="0" t="str">
         <v>AB-</v>
       </c>
-      <c r="AA5" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AB5" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AC5" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AD5" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AE5" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AF5" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AG5" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="AH5" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="AI5" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="AJ5" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AK5" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AL5" s="0" t="str">
+    </row>
+    <row r="6" spans="1:40" customFormat="false">
+      <c r="A6" s="0" t="str">
+        <v>INTERMEDIATE initiate, maintain, end conversation for basic needs/transactions</v>
+      </c>
+      <c r="B6" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="C6" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="D6" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="E6" s="0" t="str">
         <v>-BC</v>
-      </c>
-      <c r="AM5" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AN5" s="0" t="str">
-        <v>-B-</v>
-      </c>
-    </row>
-    <row r="6" spans="2:40" customFormat="false">
-      <c r="B6" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="C6" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="D6" s="0" t="str">
-        <v>-BC</v>
-      </c>
-      <c r="E6" s="0" t="str">
-        <v>---</v>
       </c>
       <c r="F6" s="0" t="str">
         <v>--C</v>
       </c>
       <c r="G6" s="0" t="str">
-        <v>--C</v>
+        <v>-BC</v>
       </c>
       <c r="H6" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="I6" s="0" t="str">
         <v>A-C</v>
       </c>
-      <c r="I6" s="0" t="str">
+      <c r="J6" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="K6" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="L6" s="0" t="str">
         <v>-B-</v>
       </c>
-      <c r="J6" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="K6" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="L6" s="0" t="str">
-        <v>---</v>
-      </c>
       <c r="M6" s="0" t="str">
-        <v>---</v>
+        <v>A--</v>
       </c>
       <c r="N6" s="0" t="str">
-        <v>---</v>
+        <v>ABC</v>
       </c>
       <c r="O6" s="0" t="str">
-        <v>-B-</v>
+        <v>---</v>
       </c>
       <c r="P6" s="0" t="str">
         <v>---</v>
       </c>
       <c r="Q6" s="0" t="str">
-        <v>-B-</v>
+        <v>ABC</v>
       </c>
       <c r="R6" s="0" t="str">
-        <v>--C</v>
+        <v>AB-</v>
       </c>
       <c r="S6" s="0" t="str">
-        <v>A--</v>
+        <v>-BC</v>
       </c>
       <c r="T6" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="U6" s="0" t="str">
         <v>A-C</v>
       </c>
-      <c r="U6" s="0" t="str">
-        <v>---</v>
-      </c>
       <c r="V6" s="0" t="str">
-        <v>---</v>
+        <v>-BC</v>
       </c>
       <c r="W6" s="0" t="str">
         <v>ABC</v>
       </c>
       <c r="X6" s="0" t="str">
-        <v>--C</v>
+        <v>AB-</v>
       </c>
       <c r="Y6" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="Z6" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="AA6" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AB6" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AC6" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AD6" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AE6" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AF6" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AG6" s="0" t="str">
         <v>A-C</v>
-      </c>
-      <c r="Z6" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AA6" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AB6" s="0" t="str">
-        <v>-BC</v>
-      </c>
-      <c r="AC6" s="0" t="str">
-        <v>-B-</v>
-      </c>
-      <c r="AD6" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="AE6" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AF6" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AG6" s="0" t="str">
-        <v>---</v>
       </c>
       <c r="AH6" s="0" t="str">
         <v>--C</v>
       </c>
       <c r="AI6" s="0" t="str">
-        <v>---</v>
+        <v>A-C</v>
       </c>
       <c r="AJ6" s="0" t="str">
-        <v>---</v>
+        <v>ABC</v>
       </c>
       <c r="AK6" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AL6" s="0" t="str">
+        <v>-BC</v>
+      </c>
+      <c r="AM6" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AN6" s="0" t="str">
         <v>-B-</v>
       </c>
-      <c r="AL6" s="0" t="str">
+    </row>
+    <row r="7" spans="1:40" customFormat="false">
+      <c r="A7" s="0" t="str">
+        <v>INTERMEDIATE communicate beyond "here &amp; now</v>
+      </c>
+      <c r="B7" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="C7" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="D7" s="0" t="str">
+        <v>-BC</v>
+      </c>
+      <c r="E7" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="F7" s="0" t="str">
         <v>--C</v>
       </c>
-      <c r="AM6" s="0" t="str">
-        <v>-BC</v>
-      </c>
-      <c r="AN6" s="0" t="str">
-        <v>---</v>
-      </c>
-    </row>
-    <row r="7" spans="2:40" customFormat="false">
-      <c r="B7" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="C7" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="D7" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="E7" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="F7" s="0" t="str">
+      <c r="G7" s="0" t="str">
+        <v>--C</v>
+      </c>
+      <c r="H7" s="0" t="str">
         <v>A-C</v>
       </c>
-      <c r="G7" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="H7" s="0" t="str">
-        <v>ABC</v>
-      </c>
       <c r="I7" s="0" t="str">
-        <v>ABC</v>
+        <v>-B-</v>
       </c>
       <c r="J7" s="0" t="str">
-        <v>ABC</v>
+        <v>--C</v>
       </c>
       <c r="K7" s="0" t="str">
         <v>---</v>
       </c>
       <c r="L7" s="0" t="str">
-        <v>A-C</v>
+        <v>---</v>
       </c>
       <c r="M7" s="0" t="str">
-        <v>ABC</v>
+        <v>---</v>
       </c>
       <c r="N7" s="0" t="str">
-        <v>AB-</v>
+        <v>---</v>
       </c>
       <c r="O7" s="0" t="str">
-        <v>ABC</v>
+        <v>-B-</v>
       </c>
       <c r="P7" s="0" t="str">
         <v>---</v>
       </c>
       <c r="Q7" s="0" t="str">
-        <v>--C</v>
+        <v>-B-</v>
       </c>
       <c r="R7" s="0" t="str">
         <v>--C</v>
       </c>
       <c r="S7" s="0" t="str">
-        <v>ABC</v>
+        <v>A--</v>
       </c>
       <c r="T7" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="U7" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="V7" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="W7" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="X7" s="0" t="str">
+        <v>--C</v>
+      </c>
+      <c r="Y7" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="Z7" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AA7" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AB7" s="0" t="str">
         <v>-BC</v>
       </c>
-      <c r="U7" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="V7" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="W7" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="X7" s="0" t="str">
+      <c r="AC7" s="0" t="str">
+        <v>-B-</v>
+      </c>
+      <c r="AD7" s="0" t="str">
         <v>A-C</v>
       </c>
-      <c r="Y7" s="0" t="str">
+      <c r="AE7" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AF7" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AG7" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AH7" s="0" t="str">
+        <v>--C</v>
+      </c>
+      <c r="AI7" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AJ7" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AK7" s="0" t="str">
+        <v>-B-</v>
+      </c>
+      <c r="AL7" s="0" t="str">
+        <v>--C</v>
+      </c>
+      <c r="AM7" s="0" t="str">
+        <v>-BC</v>
+      </c>
+      <c r="AN7" s="0" t="str">
+        <v>---</v>
+      </c>
+    </row>
+    <row r="8" spans="1:40" customFormat="false">
+      <c r="A8" s="0" t="str">
+        <v>NOVICE practiced words, phrases, sentences</v>
+      </c>
+      <c r="B8" s="0" t="str">
         <v>AB-</v>
       </c>
-      <c r="Z7" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AA7" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AB7" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AC7" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AD7" s="0" t="str">
+      <c r="C8" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="D8" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="E8" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="F8" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="G8" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="H8" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="I8" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="J8" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="K8" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="L8" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="M8" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="N8" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="O8" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="P8" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="Q8" s="0" t="str">
+        <v>--C</v>
+      </c>
+      <c r="R8" s="0" t="str">
+        <v>--C</v>
+      </c>
+      <c r="S8" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="T8" s="0" t="str">
         <v>-BC</v>
       </c>
-      <c r="AE7" s="0" t="str">
+      <c r="U8" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="V8" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="W8" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="X8" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="Y8" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="Z8" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AA8" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AB8" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AC8" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AD8" s="0" t="str">
+        <v>-BC</v>
+      </c>
+      <c r="AE8" s="0" t="str">
         <v>-B-</v>
       </c>
-      <c r="AF7" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AG7" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AH7" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AI7" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AJ7" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AK7" s="0" t="str">
-        <v>A--</v>
-      </c>
-      <c r="AL7" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AM7" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="AN7" s="0" t="str">
-        <v>AB-</v>
-      </c>
-    </row>
-    <row r="8" spans="2:40" customFormat="false">
-      <c r="B8" s="0" t="str">
-        <v>A--</v>
-      </c>
-      <c r="C8" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="D8" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="E8" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="F8" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="G8" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="H8" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="I8" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="J8" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="K8" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="L8" s="0" t="str">
-        <v>-BC</v>
-      </c>
-      <c r="M8" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="N8" s="0" t="str">
-        <v>A--</v>
-      </c>
-      <c r="O8" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="P8" s="0" t="str">
-        <v>A--</v>
-      </c>
-      <c r="Q8" s="0" t="str">
-        <v>A--</v>
-      </c>
-      <c r="R8" s="0" t="str">
-        <v>-B-</v>
-      </c>
-      <c r="S8" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="T8" s="0" t="str">
-        <v>-B-</v>
-      </c>
-      <c r="U8" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="V8" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="W8" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="X8" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="Y8" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="Z8" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AA8" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="AB8" s="0" t="str">
-        <v>-BC</v>
-      </c>
-      <c r="AC8" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AD8" s="0" t="str">
-        <v>-B-</v>
-      </c>
-      <c r="AE8" s="0" t="str">
-        <v>A--</v>
-      </c>
       <c r="AF8" s="0" t="str">
         <v>ABC</v>
       </c>
@@ -12934,10 +12979,10 @@
         <v>ABC</v>
       </c>
       <c r="AH8" s="0" t="str">
-        <v>A--</v>
+        <v>ABC</v>
       </c>
       <c r="AI8" s="0" t="str">
-        <v>---</v>
+        <v>ABC</v>
       </c>
       <c r="AJ8" s="0" t="str">
         <v>---</v>
@@ -12946,146 +12991,152 @@
         <v>A--</v>
       </c>
       <c r="AL8" s="0" t="str">
-        <v>A--</v>
+        <v>ABC</v>
       </c>
       <c r="AM8" s="0" t="str">
         <v>AB-</v>
       </c>
       <c r="AN8" s="0" t="str">
-        <v>---</v>
+        <v>AB-</v>
       </c>
     </row>
-    <row r="9" spans="2:40" customFormat="false">
+    <row r="9" spans="1:40" customFormat="false">
+      <c r="A9" s="0" t="str">
+        <v>NOVICE formulaic/memorized questions</v>
+      </c>
       <c r="B9" s="0" t="str">
+        <v>A--</v>
+      </c>
+      <c r="C9" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="D9" s="0" t="str">
         <v>AB-</v>
       </c>
-      <c r="C9" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="D9" s="0" t="str">
-        <v>ABC</v>
-      </c>
       <c r="E9" s="0" t="str">
-        <v>ABC</v>
+        <v>---</v>
       </c>
       <c r="F9" s="0" t="str">
+        <v>--C</v>
+      </c>
+      <c r="G9" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="H9" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="I9" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="J9" s="0" t="str">
         <v>A-C</v>
       </c>
-      <c r="G9" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="H9" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="I9" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="J9" s="0" t="str">
-        <v>AB-</v>
-      </c>
       <c r="K9" s="0" t="str">
-        <v>AB-</v>
+        <v>---</v>
       </c>
       <c r="L9" s="0" t="str">
         <v>-BC</v>
       </c>
       <c r="M9" s="0" t="str">
-        <v>A-C</v>
+        <v>AB-</v>
       </c>
       <c r="N9" s="0" t="str">
-        <v>ABC</v>
+        <v>A--</v>
       </c>
       <c r="O9" s="0" t="str">
-        <v>A-C</v>
+        <v>ABC</v>
       </c>
       <c r="P9" s="0" t="str">
-        <v>---</v>
+        <v>A--</v>
       </c>
       <c r="Q9" s="0" t="str">
+        <v>A--</v>
+      </c>
+      <c r="R9" s="0" t="str">
         <v>-B-</v>
       </c>
-      <c r="R9" s="0" t="str">
+      <c r="S9" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="T9" s="0" t="str">
+        <v>-B-</v>
+      </c>
+      <c r="U9" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="V9" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="W9" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="X9" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="Y9" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="Z9" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AA9" s="0" t="str">
         <v>--C</v>
       </c>
-      <c r="S9" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="T9" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="U9" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="V9" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="W9" s="0" t="str">
+      <c r="AB9" s="0" t="str">
+        <v>-BC</v>
+      </c>
+      <c r="AC9" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AD9" s="0" t="str">
         <v>-B-</v>
       </c>
-      <c r="X9" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="Y9" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="Z9" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="AA9" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AB9" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AC9" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AD9" s="0" t="str">
-        <v>ABC</v>
-      </c>
       <c r="AE9" s="0" t="str">
-        <v>ABC</v>
+        <v>A--</v>
       </c>
       <c r="AF9" s="0" t="str">
-        <v>A-C</v>
+        <v>ABC</v>
       </c>
       <c r="AG9" s="0" t="str">
         <v>ABC</v>
       </c>
       <c r="AH9" s="0" t="str">
-        <v>ABC</v>
+        <v>A--</v>
       </c>
       <c r="AI9" s="0" t="str">
-        <v>ABC</v>
+        <v>---</v>
       </c>
       <c r="AJ9" s="0" t="str">
         <v>---</v>
       </c>
       <c r="AK9" s="0" t="str">
+        <v>A--</v>
+      </c>
+      <c r="AL9" s="0" t="str">
+        <v>A--</v>
+      </c>
+      <c r="AM9" s="0" t="str">
         <v>AB-</v>
       </c>
-      <c r="AL9" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="AM9" s="0" t="str">
-        <v>ABC</v>
-      </c>
       <c r="AN9" s="0" t="str">
-        <v>-B-</v>
+        <v>---</v>
       </c>
     </row>
-    <row r="10" spans="2:40" customFormat="false">
+    <row r="10" spans="1:40" customFormat="false">
+      <c r="A10" s="0" t="str">
+        <v>INTERMEDIATE strings of sentences</v>
+      </c>
       <c r="B10" s="0" t="str">
-        <v>A--</v>
+        <v>AB-</v>
       </c>
       <c r="C10" s="0" t="str">
-        <v>--C</v>
+        <v>---</v>
       </c>
       <c r="D10" s="0" t="str">
         <v>ABC</v>
       </c>
       <c r="E10" s="0" t="str">
-        <v>AB-</v>
+        <v>ABC</v>
       </c>
       <c r="F10" s="0" t="str">
         <v>A-C</v>
@@ -13094,97 +13145,97 @@
         <v>A-C</v>
       </c>
       <c r="H10" s="0" t="str">
-        <v>ABC</v>
+        <v>A-C</v>
       </c>
       <c r="I10" s="0" t="str">
-        <v>---</v>
+        <v>ABC</v>
       </c>
       <c r="J10" s="0" t="str">
-        <v>-BC</v>
+        <v>AB-</v>
       </c>
       <c r="K10" s="0" t="str">
         <v>AB-</v>
       </c>
       <c r="L10" s="0" t="str">
-        <v>A--</v>
+        <v>-BC</v>
       </c>
       <c r="M10" s="0" t="str">
         <v>A-C</v>
       </c>
       <c r="N10" s="0" t="str">
-        <v>---</v>
+        <v>ABC</v>
       </c>
       <c r="O10" s="0" t="str">
         <v>A-C</v>
       </c>
       <c r="P10" s="0" t="str">
-        <v>-BC</v>
+        <v>---</v>
       </c>
       <c r="Q10" s="0" t="str">
-        <v>ABC</v>
+        <v>-B-</v>
       </c>
       <c r="R10" s="0" t="str">
-        <v>ABC</v>
+        <v>--C</v>
       </c>
       <c r="S10" s="0" t="str">
-        <v>---</v>
+        <v>ABC</v>
       </c>
       <c r="T10" s="0" t="str">
-        <v>---</v>
+        <v>A-C</v>
       </c>
       <c r="U10" s="0" t="str">
+        <v>--C</v>
+      </c>
+      <c r="V10" s="0" t="str">
+        <v>--C</v>
+      </c>
+      <c r="W10" s="0" t="str">
+        <v>-B-</v>
+      </c>
+      <c r="X10" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="Y10" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="Z10" s="0" t="str">
         <v>A-C</v>
       </c>
-      <c r="V10" s="0" t="str">
+      <c r="AA10" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AB10" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AC10" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AD10" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AE10" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AF10" s="0" t="str">
         <v>A-C</v>
       </c>
-      <c r="W10" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="X10" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="Y10" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="Z10" s="0" t="str">
+      <c r="AG10" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AH10" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AI10" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AJ10" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AK10" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="AL10" s="0" t="str">
         <v>--C</v>
-      </c>
-      <c r="AA10" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AB10" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AC10" s="0" t="str">
-        <v>-BC</v>
-      </c>
-      <c r="AD10" s="0" t="str">
-        <v>-B-</v>
-      </c>
-      <c r="AE10" s="0" t="str">
-        <v>-B-</v>
-      </c>
-      <c r="AF10" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AG10" s="0" t="str">
-        <v>A--</v>
-      </c>
-      <c r="AH10" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AI10" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AJ10" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AK10" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="AL10" s="0" t="str">
-        <v>-BC</v>
       </c>
       <c r="AM10" s="0" t="str">
         <v>ABC</v>
@@ -13193,99 +13244,102 @@
         <v>-B-</v>
       </c>
     </row>
-    <row r="11" spans="2:40" customFormat="false">
+    <row r="11" spans="1:40" customFormat="false">
+      <c r="A11" s="0" t="str">
+        <v>INTERMEDIATE connected sentences</v>
+      </c>
       <c r="B11" s="0" t="str">
-        <v>ABC</v>
+        <v>A--</v>
       </c>
       <c r="C11" s="0" t="str">
-        <v>A-C</v>
+        <v>--C</v>
       </c>
       <c r="D11" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="E11" s="0" t="str">
         <v>AB-</v>
-      </c>
-      <c r="E11" s="0" t="str">
-        <v>--C</v>
       </c>
       <c r="F11" s="0" t="str">
         <v>A-C</v>
       </c>
       <c r="G11" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="H11" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="I11" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="J11" s="0" t="str">
         <v>-BC</v>
       </c>
-      <c r="H11" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="I11" s="0" t="str">
+      <c r="K11" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="L11" s="0" t="str">
+        <v>A--</v>
+      </c>
+      <c r="M11" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="N11" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="O11" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="P11" s="0" t="str">
+        <v>-BC</v>
+      </c>
+      <c r="Q11" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="R11" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="S11" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="T11" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="U11" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="V11" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="W11" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="X11" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="Y11" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="Z11" s="0" t="str">
+        <v>--C</v>
+      </c>
+      <c r="AA11" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AB11" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AC11" s="0" t="str">
+        <v>-BC</v>
+      </c>
+      <c r="AD11" s="0" t="str">
         <v>-B-</v>
       </c>
-      <c r="J11" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="K11" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="L11" s="0" t="str">
-        <v>-BC</v>
-      </c>
-      <c r="M11" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="N11" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="O11" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="P11" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="Q11" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="R11" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="S11" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="T11" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="U11" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="V11" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="W11" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="X11" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="Y11" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="Z11" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="AA11" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AB11" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AC11" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AD11" s="0" t="str">
-        <v>ABC</v>
-      </c>
       <c r="AE11" s="0" t="str">
-        <v>A-C</v>
+        <v>-B-</v>
       </c>
       <c r="AF11" s="0" t="str">
-        <v>-BC</v>
+        <v>---</v>
       </c>
       <c r="AG11" s="0" t="str">
         <v>A--</v>
@@ -13294,319 +13348,328 @@
         <v>---</v>
       </c>
       <c r="AI11" s="0" t="str">
-        <v>ABC</v>
+        <v>---</v>
       </c>
       <c r="AJ11" s="0" t="str">
         <v>ABC</v>
       </c>
       <c r="AK11" s="0" t="str">
-        <v>ABC</v>
+        <v>--C</v>
       </c>
       <c r="AL11" s="0" t="str">
-        <v>ABC</v>
+        <v>-BC</v>
       </c>
       <c r="AM11" s="0" t="str">
-        <v>A-C</v>
+        <v>ABC</v>
       </c>
       <c r="AN11" s="0" t="str">
-        <v>A--</v>
+        <v>-B-</v>
       </c>
     </row>
-    <row r="12" spans="2:40" customFormat="false">
+    <row r="12" spans="1:40" customFormat="false">
+      <c r="A12" s="0" t="str">
+        <v>INTERMEDIATE ask questions to initiate/ sustain conversation</v>
+      </c>
       <c r="B12" s="0" t="str">
-        <v>---</v>
+        <v>ABC</v>
       </c>
       <c r="C12" s="0" t="str">
         <v>A-C</v>
       </c>
       <c r="D12" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="E12" s="0" t="str">
+        <v>--C</v>
+      </c>
+      <c r="F12" s="0" t="str">
         <v>A-C</v>
       </c>
-      <c r="E12" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="F12" s="0" t="str">
-        <v>--C</v>
-      </c>
       <c r="G12" s="0" t="str">
-        <v>---</v>
+        <v>-BC</v>
       </c>
       <c r="H12" s="0" t="str">
-        <v>---</v>
+        <v>ABC</v>
       </c>
       <c r="I12" s="0" t="str">
         <v>-B-</v>
       </c>
       <c r="J12" s="0" t="str">
-        <v>ABC</v>
+        <v>A-C</v>
       </c>
       <c r="K12" s="0" t="str">
-        <v>---</v>
+        <v>ABC</v>
       </c>
       <c r="L12" s="0" t="str">
-        <v>---</v>
+        <v>-BC</v>
       </c>
       <c r="M12" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="N12" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="O12" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="P12" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="Q12" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="R12" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="S12" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="T12" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="U12" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="V12" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="W12" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="X12" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="Y12" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="Z12" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="AA12" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AB12" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AC12" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AD12" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AE12" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="AF12" s="0" t="str">
+        <v>-BC</v>
+      </c>
+      <c r="AG12" s="0" t="str">
+        <v>A--</v>
+      </c>
+      <c r="AH12" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AI12" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AJ12" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AK12" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AL12" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AM12" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="AN12" s="0" t="str">
+        <v>A--</v>
+      </c>
+    </row>
+    <row r="13" spans="1:40" customFormat="false">
+      <c r="A13" s="0" t="str">
+        <v>NOVICE high-frequency</v>
+      </c>
+      <c r="B13" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="C13" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="D13" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="E13" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="F13" s="0" t="str">
         <v>--C</v>
       </c>
-      <c r="N12" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="O12" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="P12" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="Q12" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="R12" s="0" t="str">
+      <c r="G13" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="H13" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="I13" s="0" t="str">
+        <v>-B-</v>
+      </c>
+      <c r="J13" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="K13" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="L13" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="M13" s="0" t="str">
+        <v>--C</v>
+      </c>
+      <c r="N13" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="O13" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="P13" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="Q13" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="R13" s="0" t="str">
         <v>A--</v>
       </c>
-      <c r="S12" s="0" t="str">
+      <c r="S13" s="0" t="str">
         <v>A--</v>
       </c>
-      <c r="T12" s="0" t="str">
+      <c r="T13" s="0" t="str">
         <v>A--</v>
       </c>
-      <c r="U12" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="V12" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="W12" s="0" t="str">
+      <c r="U13" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="V13" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="W13" s="0" t="str">
         <v>--C</v>
       </c>
-      <c r="X12" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="Y12" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="Z12" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AA12" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AB12" s="0" t="str">
+      <c r="X13" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="Y13" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="Z13" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AA13" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AB13" s="0" t="str">
         <v>A--</v>
       </c>
-      <c r="AC12" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AD12" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AE12" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AF12" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AG12" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AH12" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AI12" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AJ12" s="0" t="str">
+      <c r="AC13" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AD13" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AE13" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AF13" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AG13" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AH13" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AI13" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AJ13" s="0" t="str">
         <v>A--</v>
       </c>
-      <c r="AK12" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AL12" s="0" t="str">
+      <c r="AK13" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AL13" s="0" t="str">
         <v>--C</v>
       </c>
-      <c r="AM12" s="0" t="str">
+      <c r="AM13" s="0" t="str">
         <v>AB-</v>
       </c>
-      <c r="AN12" s="0" t="str">
+      <c r="AN13" s="0" t="str">
         <v>---</v>
       </c>
     </row>
-    <row r="13" spans="2:40" customFormat="false">
-      <c r="B13" s="0" t="str">
+    <row r="14" spans="1:40" customFormat="false">
+      <c r="A14" s="0" t="str">
+        <v>NOVICE formulaic</v>
+      </c>
+      <c r="B14" s="0" t="str">
         <v>A--</v>
       </c>
-      <c r="C13" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="D13" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="E13" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="F13" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="G13" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="H13" s="0" t="str">
-        <v>-BC</v>
-      </c>
-      <c r="I13" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="J13" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="K13" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="L13" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="M13" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="N13" s="0" t="str">
-        <v>-B-</v>
-      </c>
-      <c r="O13" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="P13" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="Q13" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="R13" s="0" t="str">
-        <v>-B-</v>
-      </c>
-      <c r="S13" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="T13" s="0" t="str">
-        <v>-B-</v>
-      </c>
-      <c r="U13" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="V13" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="W13" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="X13" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="Y13" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="Z13" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="AA13" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AB13" s="0" t="str">
-        <v>-B-</v>
-      </c>
-      <c r="AC13" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AD13" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AE13" s="0" t="str">
-        <v>-BC</v>
-      </c>
-      <c r="AF13" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AG13" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AH13" s="0" t="str">
-        <v>A--</v>
-      </c>
-      <c r="AI13" s="0" t="str">
-        <v>A--</v>
-      </c>
-      <c r="AJ13" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AK13" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AL13" s="0" t="str">
-        <v>-BC</v>
-      </c>
-      <c r="AM13" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AN13" s="0" t="str">
-        <v>---</v>
-      </c>
-    </row>
-    <row r="14" spans="2:40" customFormat="false">
-      <c r="B14" s="0" t="str">
-        <v>ABC</v>
-      </c>
       <c r="C14" s="0" t="str">
-        <v>A-C</v>
+        <v>ABC</v>
       </c>
       <c r="D14" s="0" t="str">
-        <v>A-C</v>
+        <v>ABC</v>
       </c>
       <c r="E14" s="0" t="str">
-        <v>--C</v>
+        <v>---</v>
       </c>
       <c r="F14" s="0" t="str">
         <v>A-C</v>
       </c>
       <c r="G14" s="0" t="str">
-        <v>AB-</v>
+        <v>ABC</v>
       </c>
       <c r="H14" s="0" t="str">
-        <v>AB-</v>
+        <v>-BC</v>
       </c>
       <c r="I14" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="J14" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="K14" s="0" t="str">
         <v>A-C</v>
       </c>
-      <c r="J14" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="K14" s="0" t="str">
-        <v>---</v>
-      </c>
       <c r="L14" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="M14" s="0" t="str">
         <v>A-C</v>
       </c>
-      <c r="M14" s="0" t="str">
-        <v>ABC</v>
-      </c>
       <c r="N14" s="0" t="str">
-        <v>ABC</v>
+        <v>-B-</v>
       </c>
       <c r="O14" s="0" t="str">
-        <v>ABC</v>
+        <v>---</v>
       </c>
       <c r="P14" s="0" t="str">
-        <v>ABC</v>
+        <v>---</v>
       </c>
       <c r="Q14" s="0" t="str">
-        <v>AB-</v>
+        <v>A-C</v>
       </c>
       <c r="R14" s="0" t="str">
-        <v>ABC</v>
+        <v>-B-</v>
       </c>
       <c r="S14" s="0" t="str">
         <v>ABC</v>
       </c>
       <c r="T14" s="0" t="str">
-        <v>---</v>
+        <v>-B-</v>
       </c>
       <c r="U14" s="0" t="str">
         <v>AB-</v>
@@ -13618,87 +13681,90 @@
         <v>AB-</v>
       </c>
       <c r="X14" s="0" t="str">
-        <v>A-C</v>
+        <v>---</v>
       </c>
       <c r="Y14" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="Z14" s="0" t="str">
+        <v>--C</v>
+      </c>
+      <c r="AA14" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AB14" s="0" t="str">
+        <v>-B-</v>
+      </c>
+      <c r="AC14" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AD14" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AE14" s="0" t="str">
+        <v>-BC</v>
+      </c>
+      <c r="AF14" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AG14" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AH14" s="0" t="str">
         <v>A--</v>
       </c>
-      <c r="Z14" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AA14" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AB14" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AC14" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AD14" s="0" t="str">
-        <v>-BC</v>
-      </c>
-      <c r="AE14" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AF14" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AG14" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AH14" s="0" t="str">
-        <v>---</v>
-      </c>
       <c r="AI14" s="0" t="str">
-        <v>AB-</v>
+        <v>A--</v>
       </c>
       <c r="AJ14" s="0" t="str">
         <v>---</v>
       </c>
       <c r="AK14" s="0" t="str">
-        <v>A--</v>
+        <v>---</v>
       </c>
       <c r="AL14" s="0" t="str">
         <v>-BC</v>
       </c>
       <c r="AM14" s="0" t="str">
-        <v>A--</v>
+        <v>ABC</v>
       </c>
       <c r="AN14" s="0" t="str">
-        <v>AB-</v>
+        <v>---</v>
       </c>
     </row>
-    <row r="15" spans="2:40" customFormat="false">
+    <row r="15" spans="1:40" customFormat="false">
+      <c r="A15" s="0" t="str">
+        <v>NOVICE practiced</v>
+      </c>
       <c r="B15" s="0" t="str">
         <v>ABC</v>
       </c>
       <c r="C15" s="0" t="str">
-        <v>ABC</v>
+        <v>A-C</v>
       </c>
       <c r="D15" s="0" t="str">
-        <v>ABC</v>
+        <v>A-C</v>
       </c>
       <c r="E15" s="0" t="str">
-        <v>ABC</v>
+        <v>--C</v>
       </c>
       <c r="F15" s="0" t="str">
         <v>A-C</v>
       </c>
       <c r="G15" s="0" t="str">
-        <v>ABC</v>
+        <v>AB-</v>
       </c>
       <c r="H15" s="0" t="str">
-        <v>ABC</v>
+        <v>AB-</v>
       </c>
       <c r="I15" s="0" t="str">
-        <v>ABC</v>
+        <v>A-C</v>
       </c>
       <c r="J15" s="0" t="str">
-        <v>ABC</v>
+        <v>--C</v>
       </c>
       <c r="K15" s="0" t="str">
-        <v>ABC</v>
+        <v>---</v>
       </c>
       <c r="L15" s="0" t="str">
         <v>A-C</v>
@@ -13713,10 +13779,10 @@
         <v>ABC</v>
       </c>
       <c r="P15" s="0" t="str">
-        <v>---</v>
+        <v>ABC</v>
       </c>
       <c r="Q15" s="0" t="str">
-        <v>ABC</v>
+        <v>AB-</v>
       </c>
       <c r="R15" s="0" t="str">
         <v>ABC</v>
@@ -13725,38 +13791,38 @@
         <v>ABC</v>
       </c>
       <c r="T15" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="U15" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="V15" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="W15" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="X15" s="0" t="str">
         <v>A-C</v>
       </c>
-      <c r="U15" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="V15" s="0" t="str">
+      <c r="Y15" s="0" t="str">
+        <v>A--</v>
+      </c>
+      <c r="Z15" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AA15" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AB15" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AC15" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AD15" s="0" t="str">
         <v>-BC</v>
       </c>
-      <c r="W15" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="X15" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="Y15" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="Z15" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AA15" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AB15" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AC15" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AD15" s="0" t="str">
-        <v>A-C</v>
-      </c>
       <c r="AE15" s="0" t="str">
         <v>ABC</v>
       </c>
@@ -13767,39 +13833,42 @@
         <v>ABC</v>
       </c>
       <c r="AH15" s="0" t="str">
-        <v>ABC</v>
+        <v>---</v>
       </c>
       <c r="AI15" s="0" t="str">
-        <v>ABC</v>
+        <v>AB-</v>
       </c>
       <c r="AJ15" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AK15" s="0" t="str">
+        <v>A--</v>
+      </c>
+      <c r="AL15" s="0" t="str">
         <v>-BC</v>
       </c>
-      <c r="AK15" s="0" t="str">
-        <v>-BC</v>
-      </c>
-      <c r="AL15" s="0" t="str">
-        <v>A-C</v>
-      </c>
       <c r="AM15" s="0" t="str">
-        <v>ABC</v>
+        <v>A--</v>
       </c>
       <c r="AN15" s="0" t="str">
         <v>AB-</v>
       </c>
     </row>
-    <row r="16" spans="2:40" customFormat="false">
+    <row r="16" spans="1:40" customFormat="false">
+      <c r="A16" s="0" t="str">
+        <v>INTERMEDIATE familiar themes/topics</v>
+      </c>
       <c r="B16" s="0" t="str">
         <v>ABC</v>
       </c>
       <c r="C16" s="0" t="str">
-        <v>A--</v>
+        <v>ABC</v>
       </c>
       <c r="D16" s="0" t="str">
         <v>ABC</v>
       </c>
       <c r="E16" s="0" t="str">
-        <v>-B-</v>
+        <v>ABC</v>
       </c>
       <c r="F16" s="0" t="str">
         <v>A-C</v>
@@ -13811,103 +13880,106 @@
         <v>ABC</v>
       </c>
       <c r="I16" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="J16" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="K16" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="L16" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="M16" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="N16" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="O16" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="P16" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="Q16" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="R16" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="S16" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="T16" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="U16" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="V16" s="0" t="str">
         <v>-BC</v>
       </c>
-      <c r="J16" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="K16" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="L16" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="M16" s="0" t="str">
+      <c r="W16" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="X16" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="Y16" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="Z16" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AA16" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AB16" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AC16" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AD16" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="AE16" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AF16" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AG16" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AH16" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AI16" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AJ16" s="0" t="str">
+        <v>-BC</v>
+      </c>
+      <c r="AK16" s="0" t="str">
+        <v>-BC</v>
+      </c>
+      <c r="AL16" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="AM16" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AN16" s="0" t="str">
         <v>AB-</v>
       </c>
-      <c r="N16" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="O16" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="P16" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="Q16" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="R16" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="S16" s="0" t="str">
-        <v>-BC</v>
-      </c>
-      <c r="T16" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="U16" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="V16" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="W16" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="X16" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="Y16" s="0" t="str">
-        <v>-BC</v>
-      </c>
-      <c r="Z16" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="AA16" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AB16" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AC16" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AD16" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AE16" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AF16" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AG16" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="AH16" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AI16" s="0" t="str">
-        <v>A--</v>
-      </c>
-      <c r="AJ16" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AK16" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AL16" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AM16" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AN16" s="0" t="str">
-        <v>---</v>
-      </c>
     </row>
-    <row r="17" spans="2:40" customFormat="false">
+    <row r="17" spans="1:40" customFormat="false">
+      <c r="A17" s="0" t="str">
+        <v>INTERMEDIATE personalized</v>
+      </c>
       <c r="B17" s="0" t="str">
         <v>ABC</v>
       </c>
@@ -13915,126 +13987,129 @@
         <v>A--</v>
       </c>
       <c r="D17" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="E17" s="0" t="str">
+        <v>-B-</v>
+      </c>
+      <c r="F17" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="G17" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="H17" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="I17" s="0" t="str">
+        <v>-BC</v>
+      </c>
+      <c r="J17" s="0" t="str">
+        <v>--C</v>
+      </c>
+      <c r="K17" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="L17" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="M17" s="0" t="str">
         <v>AB-</v>
       </c>
-      <c r="E17" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="F17" s="0" t="str">
+      <c r="N17" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="O17" s="0" t="str">
         <v>--C</v>
       </c>
-      <c r="G17" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="H17" s="0" t="str">
+      <c r="P17" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="Q17" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="R17" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="S17" s="0" t="str">
         <v>-BC</v>
-      </c>
-      <c r="I17" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="J17" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="K17" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="L17" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="M17" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="N17" s="0" t="str">
-        <v>A--</v>
-      </c>
-      <c r="O17" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="P17" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="Q17" s="0" t="str">
-        <v>A--</v>
-      </c>
-      <c r="R17" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="S17" s="0" t="str">
-        <v>AB-</v>
       </c>
       <c r="T17" s="0" t="str">
         <v>AB-</v>
       </c>
       <c r="U17" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="V17" s="0" t="str">
+        <v>--C</v>
+      </c>
+      <c r="W17" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="X17" s="0" t="str">
         <v>AB-</v>
       </c>
-      <c r="V17" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="W17" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="X17" s="0" t="str">
-        <v>A-C</v>
-      </c>
       <c r="Y17" s="0" t="str">
-        <v>-B-</v>
+        <v>-BC</v>
       </c>
       <c r="Z17" s="0" t="str">
-        <v>ABC</v>
+        <v>AB-</v>
       </c>
       <c r="AA17" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AB17" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AC17" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AD17" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AE17" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AF17" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AG17" s="0" t="str">
         <v>AB-</v>
       </c>
-      <c r="AB17" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AC17" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AD17" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="AE17" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AF17" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AG17" s="0" t="str">
-        <v>---</v>
-      </c>
       <c r="AH17" s="0" t="str">
-        <v>-B-</v>
+        <v>---</v>
       </c>
       <c r="AI17" s="0" t="str">
-        <v>A-C</v>
+        <v>A--</v>
       </c>
       <c r="AJ17" s="0" t="str">
-        <v>---</v>
+        <v>ABC</v>
       </c>
       <c r="AK17" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AL17" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AM17" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AN17" s="0" t="str">
+        <v>---</v>
+      </c>
+    </row>
+    <row r="18" spans="1:40" customFormat="false">
+      <c r="A18" s="0" t="str">
+        <v>NOVICE imitate modeled words</v>
+      </c>
+      <c r="B18" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="C18" s="0" t="str">
         <v>A--</v>
       </c>
-      <c r="AL17" s="0" t="str">
-        <v>-BC</v>
-      </c>
-      <c r="AM17" s="0" t="str">
-        <v>A--</v>
-      </c>
-      <c r="AN17" s="0" t="str">
-        <v>-B-</v>
-      </c>
-    </row>
-    <row r="18" spans="2:40" customFormat="false">
-      <c r="B18" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="C18" s="0" t="str">
-        <v>-B-</v>
-      </c>
       <c r="D18" s="0" t="str">
-        <v>--C</v>
+        <v>AB-</v>
       </c>
       <c r="E18" s="0" t="str">
         <v>---</v>
@@ -14046,106 +14121,109 @@
         <v>---</v>
       </c>
       <c r="H18" s="0" t="str">
+        <v>-BC</v>
+      </c>
+      <c r="I18" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="J18" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="K18" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="L18" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="M18" s="0" t="str">
+        <v>--C</v>
+      </c>
+      <c r="N18" s="0" t="str">
+        <v>A--</v>
+      </c>
+      <c r="O18" s="0" t="str">
         <v>AB-</v>
       </c>
-      <c r="I18" s="0" t="str">
+      <c r="P18" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="Q18" s="0" t="str">
+        <v>A--</v>
+      </c>
+      <c r="R18" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="S18" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="T18" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="U18" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="V18" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="W18" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="X18" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="Y18" s="0" t="str">
         <v>-B-</v>
       </c>
-      <c r="J18" s="0" t="str">
+      <c r="Z18" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AA18" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="AB18" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AC18" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AD18" s="0" t="str">
+        <v>--C</v>
+      </c>
+      <c r="AE18" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AF18" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AG18" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AH18" s="0" t="str">
         <v>-B-</v>
       </c>
-      <c r="K18" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="L18" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="M18" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="N18" s="0" t="str">
-        <v>-B-</v>
-      </c>
-      <c r="O18" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="P18" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="Q18" s="0" t="str">
-        <v>-B-</v>
-      </c>
-      <c r="R18" s="0" t="str">
+      <c r="AI18" s="0" t="str">
         <v>A-C</v>
       </c>
-      <c r="S18" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="T18" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="U18" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="V18" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="W18" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="X18" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="Y18" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="Z18" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AA18" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="AB18" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AC18" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AD18" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AE18" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="AF18" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="AG18" s="0" t="str">
-        <v>-B-</v>
-      </c>
-      <c r="AH18" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="AI18" s="0" t="str">
-        <v>---</v>
-      </c>
       <c r="AJ18" s="0" t="str">
-        <v>A-C</v>
+        <v>---</v>
       </c>
       <c r="AK18" s="0" t="str">
-        <v>---</v>
+        <v>A--</v>
       </c>
       <c r="AL18" s="0" t="str">
         <v>-BC</v>
       </c>
       <c r="AM18" s="0" t="str">
-        <v>ABC</v>
+        <v>A--</v>
       </c>
       <c r="AN18" s="0" t="str">
-        <v>---</v>
+        <v>-B-</v>
       </c>
     </row>
-    <row r="19" spans="2:40" customFormat="false">
+    <row r="19" spans="1:40" customFormat="false">
+      <c r="A19" s="0" t="str">
+        <v>NOVICE use facial expressions, gestures</v>
+      </c>
       <c r="B19" s="0" t="str">
         <v>---</v>
       </c>
@@ -14153,7 +14231,7 @@
         <v>-B-</v>
       </c>
       <c r="D19" s="0" t="str">
-        <v>A--</v>
+        <v>--C</v>
       </c>
       <c r="E19" s="0" t="str">
         <v>---</v>
@@ -14165,13 +14243,13 @@
         <v>---</v>
       </c>
       <c r="H19" s="0" t="str">
-        <v>---</v>
+        <v>AB-</v>
       </c>
       <c r="I19" s="0" t="str">
-        <v>---</v>
+        <v>-B-</v>
       </c>
       <c r="J19" s="0" t="str">
-        <v>---</v>
+        <v>-B-</v>
       </c>
       <c r="K19" s="0" t="str">
         <v>---</v>
@@ -14180,11 +14258,11 @@
         <v>---</v>
       </c>
       <c r="M19" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="N19" s="0" t="str">
         <v>-B-</v>
       </c>
-      <c r="N19" s="0" t="str">
-        <v>---</v>
-      </c>
       <c r="O19" s="0" t="str">
         <v>---</v>
       </c>
@@ -14192,79 +14270,82 @@
         <v>---</v>
       </c>
       <c r="Q19" s="0" t="str">
-        <v>---</v>
+        <v>-B-</v>
       </c>
       <c r="R19" s="0" t="str">
-        <v>---</v>
+        <v>A-C</v>
       </c>
       <c r="S19" s="0" t="str">
         <v>---</v>
       </c>
       <c r="T19" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="U19" s="0" t="str">
+        <v>--C</v>
+      </c>
+      <c r="V19" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="W19" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="X19" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="Y19" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="Z19" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AA19" s="0" t="str">
+        <v>--C</v>
+      </c>
+      <c r="AB19" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AC19" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AD19" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AE19" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="AF19" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="AG19" s="0" t="str">
         <v>-B-</v>
       </c>
-      <c r="U19" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="V19" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="W19" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="X19" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="Y19" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="Z19" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AA19" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AB19" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AC19" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AD19" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AE19" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AF19" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AG19" s="0" t="str">
-        <v>---</v>
-      </c>
       <c r="AH19" s="0" t="str">
-        <v>---</v>
+        <v>AB-</v>
       </c>
       <c r="AI19" s="0" t="str">
         <v>---</v>
       </c>
       <c r="AJ19" s="0" t="str">
-        <v>---</v>
+        <v>A-C</v>
       </c>
       <c r="AK19" s="0" t="str">
         <v>---</v>
       </c>
       <c r="AL19" s="0" t="str">
-        <v>---</v>
+        <v>-BC</v>
       </c>
       <c r="AM19" s="0" t="str">
-        <v>---</v>
+        <v>ABC</v>
       </c>
       <c r="AN19" s="0" t="str">
-        <v>AB-</v>
+        <v>---</v>
       </c>
     </row>
-    <row r="20" spans="2:40" customFormat="false">
+    <row r="20" spans="1:40" customFormat="false">
+      <c r="A20" s="0" t="str">
+        <v>NOVICE resort to first language</v>
+      </c>
       <c r="B20" s="0" t="str">
         <v>---</v>
       </c>
@@ -14290,7 +14371,7 @@
         <v>---</v>
       </c>
       <c r="J20" s="0" t="str">
-        <v>--C</v>
+        <v>---</v>
       </c>
       <c r="K20" s="0" t="str">
         <v>---</v>
@@ -14320,7 +14401,7 @@
         <v>---</v>
       </c>
       <c r="T20" s="0" t="str">
-        <v>ABC</v>
+        <v>-B-</v>
       </c>
       <c r="U20" s="0" t="str">
         <v>---</v>
@@ -14347,7 +14428,7 @@
         <v>---</v>
       </c>
       <c r="AC20" s="0" t="str">
-        <v>A--</v>
+        <v>---</v>
       </c>
       <c r="AD20" s="0" t="str">
         <v>---</v>
@@ -14356,13 +14437,13 @@
         <v>---</v>
       </c>
       <c r="AF20" s="0" t="str">
-        <v>--C</v>
+        <v>---</v>
       </c>
       <c r="AG20" s="0" t="str">
         <v>---</v>
       </c>
       <c r="AH20" s="0" t="str">
-        <v>-B-</v>
+        <v>---</v>
       </c>
       <c r="AI20" s="0" t="str">
         <v>---</v>
@@ -14374,16 +14455,19 @@
         <v>---</v>
       </c>
       <c r="AL20" s="0" t="str">
-        <v>--C</v>
+        <v>---</v>
       </c>
       <c r="AM20" s="0" t="str">
         <v>---</v>
       </c>
       <c r="AN20" s="0" t="str">
-        <v>-B-</v>
+        <v>AB-</v>
       </c>
     </row>
-    <row r="21" spans="2:40" customFormat="false">
+    <row r="21" spans="1:40" customFormat="false">
+      <c r="A21" s="0" t="str">
+        <v>NOVICE repeat/request repetition</v>
+      </c>
       <c r="B21" s="0" t="str">
         <v>---</v>
       </c>
@@ -14406,68 +14490,68 @@
         <v>---</v>
       </c>
       <c r="I21" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="J21" s="0" t="str">
+        <v>--C</v>
+      </c>
+      <c r="K21" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="L21" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="M21" s="0" t="str">
+        <v>-B-</v>
+      </c>
+      <c r="N21" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="O21" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="P21" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="Q21" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="R21" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="S21" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="T21" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="U21" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="V21" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="W21" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="X21" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="Y21" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="Z21" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AA21" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AB21" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AC21" s="0" t="str">
         <v>A--</v>
       </c>
-      <c r="J21" s="0" t="str">
-        <v>A--</v>
-      </c>
-      <c r="K21" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="L21" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="M21" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="N21" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="O21" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="P21" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="Q21" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="R21" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="S21" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="T21" s="0" t="str">
-        <v>-BC</v>
-      </c>
-      <c r="U21" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="V21" s="0" t="str">
-        <v>A--</v>
-      </c>
-      <c r="W21" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="X21" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="Y21" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="Z21" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AA21" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AB21" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AC21" s="0" t="str">
-        <v>---</v>
-      </c>
       <c r="AD21" s="0" t="str">
         <v>---</v>
       </c>
@@ -14475,14 +14559,14 @@
         <v>---</v>
       </c>
       <c r="AF21" s="0" t="str">
-        <v>A--</v>
+        <v>--C</v>
       </c>
       <c r="AG21" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AH21" s="0" t="str">
         <v>-B-</v>
       </c>
-      <c r="AH21" s="0" t="str">
-        <v>---</v>
-      </c>
       <c r="AI21" s="0" t="str">
         <v>---</v>
       </c>
@@ -14493,18 +14577,21 @@
         <v>---</v>
       </c>
       <c r="AL21" s="0" t="str">
-        <v>---</v>
+        <v>--C</v>
       </c>
       <c r="AM21" s="0" t="str">
         <v>---</v>
       </c>
       <c r="AN21" s="0" t="str">
-        <v>---</v>
+        <v>-B-</v>
       </c>
     </row>
-    <row r="22" spans="2:40" customFormat="false">
+    <row r="22" spans="1:40" customFormat="false">
+      <c r="A22" s="0" t="str">
+        <v>NOVICE indicate lack of understanding</v>
+      </c>
       <c r="B22" s="0" t="str">
-        <v>AB-</v>
+        <v>---</v>
       </c>
       <c r="C22" s="0" t="str">
         <v>-B-</v>
@@ -14513,34 +14600,34 @@
         <v>A--</v>
       </c>
       <c r="E22" s="0" t="str">
-        <v>A--</v>
+        <v>---</v>
       </c>
       <c r="F22" s="0" t="str">
         <v>--C</v>
       </c>
       <c r="G22" s="0" t="str">
-        <v>-BC</v>
+        <v>---</v>
       </c>
       <c r="H22" s="0" t="str">
-        <v>ABC</v>
+        <v>---</v>
       </c>
       <c r="I22" s="0" t="str">
-        <v>AB-</v>
+        <v>A--</v>
       </c>
       <c r="J22" s="0" t="str">
-        <v>A-C</v>
+        <v>A--</v>
       </c>
       <c r="K22" s="0" t="str">
-        <v>ABC</v>
+        <v>---</v>
       </c>
       <c r="L22" s="0" t="str">
-        <v>-BC</v>
+        <v>---</v>
       </c>
       <c r="M22" s="0" t="str">
         <v>AB-</v>
       </c>
       <c r="N22" s="0" t="str">
-        <v>--C</v>
+        <v>---</v>
       </c>
       <c r="O22" s="0" t="str">
         <v>---</v>
@@ -14549,135 +14636,138 @@
         <v>---</v>
       </c>
       <c r="Q22" s="0" t="str">
-        <v>ABC</v>
+        <v>---</v>
       </c>
       <c r="R22" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="S22" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="T22" s="0" t="str">
+        <v>-BC</v>
+      </c>
+      <c r="U22" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="V22" s="0" t="str">
+        <v>A--</v>
+      </c>
+      <c r="W22" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="X22" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="Y22" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="Z22" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AA22" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AB22" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AC22" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AD22" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AE22" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AF22" s="0" t="str">
+        <v>A--</v>
+      </c>
+      <c r="AG22" s="0" t="str">
         <v>-B-</v>
       </c>
-      <c r="S22" s="0" t="str">
+      <c r="AH22" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AI22" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AJ22" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AK22" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AL22" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AM22" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AN22" s="0" t="str">
+        <v>---</v>
+      </c>
+    </row>
+    <row r="23" spans="1:40" customFormat="false">
+      <c r="A23" s="0" t="str">
+        <v>INTERMEDIATE ask questions, request clarification</v>
+      </c>
+      <c r="B23" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="C23" s="0" t="str">
         <v>-B-</v>
-      </c>
-      <c r="T22" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="U22" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="V22" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="W22" s="0" t="str">
-        <v>-BC</v>
-      </c>
-      <c r="X22" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="Y22" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="Z22" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="AA22" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AB22" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AC22" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AD22" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="AE22" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AF22" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AG22" s="0" t="str">
-        <v>A--</v>
-      </c>
-      <c r="AH22" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="AI22" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AJ22" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AK22" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="AL22" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="AM22" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="AN22" s="0" t="str">
-        <v>---</v>
-      </c>
-    </row>
-    <row r="23" spans="2:40" customFormat="false">
-      <c r="B23" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="C23" s="0" t="str">
-        <v>---</v>
       </c>
       <c r="D23" s="0" t="str">
         <v>A--</v>
       </c>
       <c r="E23" s="0" t="str">
-        <v>---</v>
+        <v>A--</v>
       </c>
       <c r="F23" s="0" t="str">
         <v>--C</v>
       </c>
       <c r="G23" s="0" t="str">
-        <v>--C</v>
+        <v>-BC</v>
       </c>
       <c r="H23" s="0" t="str">
         <v>ABC</v>
       </c>
       <c r="I23" s="0" t="str">
-        <v>ABC</v>
+        <v>AB-</v>
       </c>
       <c r="J23" s="0" t="str">
-        <v>ABC</v>
+        <v>A-C</v>
       </c>
       <c r="K23" s="0" t="str">
         <v>ABC</v>
       </c>
       <c r="L23" s="0" t="str">
-        <v>---</v>
+        <v>-BC</v>
       </c>
       <c r="M23" s="0" t="str">
         <v>AB-</v>
       </c>
       <c r="N23" s="0" t="str">
-        <v>-BC</v>
+        <v>--C</v>
       </c>
       <c r="O23" s="0" t="str">
-        <v>--C</v>
+        <v>---</v>
       </c>
       <c r="P23" s="0" t="str">
         <v>---</v>
       </c>
       <c r="Q23" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="R23" s="0" t="str">
+        <v>-B-</v>
+      </c>
+      <c r="S23" s="0" t="str">
+        <v>-B-</v>
+      </c>
+      <c r="T23" s="0" t="str">
         <v>AB-</v>
-      </c>
-      <c r="R23" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="S23" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="T23" s="0" t="str">
-        <v>ABC</v>
       </c>
       <c r="U23" s="0" t="str">
         <v>A-C</v>
@@ -14686,176 +14776,301 @@
         <v>---</v>
       </c>
       <c r="W23" s="0" t="str">
-        <v>---</v>
+        <v>-BC</v>
       </c>
       <c r="X23" s="0" t="str">
         <v>---</v>
       </c>
       <c r="Y23" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="Z23" s="0" t="str">
         <v>AB-</v>
       </c>
-      <c r="Z23" s="0" t="str">
-        <v>---</v>
-      </c>
       <c r="AA23" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AB23" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AC23" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AD23" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="AE23" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AF23" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AG23" s="0" t="str">
+        <v>A--</v>
+      </c>
+      <c r="AH23" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="AI23" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AJ23" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AK23" s="0" t="str">
         <v>--C</v>
       </c>
-      <c r="AB23" s="0" t="str">
+      <c r="AL23" s="0" t="str">
+        <v>--C</v>
+      </c>
+      <c r="AM23" s="0" t="str">
+        <v>--C</v>
+      </c>
+      <c r="AN23" s="0" t="str">
+        <v>---</v>
+      </c>
+    </row>
+    <row r="24" spans="1:40" customFormat="false">
+      <c r="A24" s="0" t="str">
+        <v>INTERMEDIATE self-correct or restate when not understood</v>
+      </c>
+      <c r="B24" s="0" t="str">
+        <v>--C</v>
+      </c>
+      <c r="C24" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="D24" s="0" t="str">
+        <v>A--</v>
+      </c>
+      <c r="E24" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="F24" s="0" t="str">
+        <v>--C</v>
+      </c>
+      <c r="G24" s="0" t="str">
+        <v>--C</v>
+      </c>
+      <c r="H24" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="I24" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="J24" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="K24" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="L24" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="M24" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="N24" s="0" t="str">
         <v>-BC</v>
       </c>
-      <c r="AC23" s="0" t="str">
+      <c r="O24" s="0" t="str">
+        <v>--C</v>
+      </c>
+      <c r="P24" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="Q24" s="0" t="str">
         <v>AB-</v>
       </c>
-      <c r="AD23" s="0" t="str">
+      <c r="R24" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="S24" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="T24" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="U24" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="V24" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="W24" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="X24" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="Y24" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="Z24" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AA24" s="0" t="str">
+        <v>--C</v>
+      </c>
+      <c r="AB24" s="0" t="str">
         <v>-BC</v>
       </c>
-      <c r="AE23" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AF23" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AG23" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AH23" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AI23" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AJ23" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AK23" s="0" t="str">
+      <c r="AC24" s="0" t="str">
+        <v>AB-</v>
+      </c>
+      <c r="AD24" s="0" t="str">
+        <v>-BC</v>
+      </c>
+      <c r="AE24" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AF24" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AG24" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AH24" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AI24" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AJ24" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AK24" s="0" t="str">
         <v>A--</v>
-      </c>
-      <c r="AL23" s="0" t="str">
-        <v>-BC</v>
-      </c>
-      <c r="AM23" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AN23" s="0" t="str">
-        <v>-B-</v>
-      </c>
-    </row>
-    <row r="24" spans="2:40" customFormat="false">
-      <c r="B24" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="C24" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="D24" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="E24" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="F24" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="G24" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="H24" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="I24" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="J24" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="K24" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="L24" s="0" t="str">
-        <v>-B-</v>
-      </c>
-      <c r="M24" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="N24" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="O24" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="P24" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="Q24" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="R24" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="S24" s="0" t="str">
-        <v>-BC</v>
-      </c>
-      <c r="T24" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="U24" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="V24" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="W24" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="X24" s="0" t="str">
-        <v>-B-</v>
-      </c>
-      <c r="Y24" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="Z24" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="AA24" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AB24" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AC24" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AD24" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AE24" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AF24" s="0" t="str">
-        <v>-BC</v>
-      </c>
-      <c r="AG24" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AH24" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AI24" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AJ24" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AK24" s="0" t="str">
-        <v>ABC</v>
       </c>
       <c r="AL24" s="0" t="str">
         <v>-BC</v>
       </c>
       <c r="AM24" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AN24" s="0" t="str">
+        <v>-B-</v>
+      </c>
+    </row>
+    <row r="25" spans="1:40" customFormat="false">
+      <c r="A25" s="0" t="str">
+        <v>INTERMEDIATE circumlocute</v>
+      </c>
+      <c r="B25" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="C25" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="D25" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="E25" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="F25" s="0" t="str">
+        <v>A-C</v>
+      </c>
+      <c r="G25" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="H25" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="I25" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="J25" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="K25" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="L25" s="0" t="str">
+        <v>-B-</v>
+      </c>
+      <c r="M25" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="N25" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="O25" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="P25" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="Q25" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="R25" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="S25" s="0" t="str">
+        <v>-BC</v>
+      </c>
+      <c r="T25" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="U25" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="V25" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="W25" s="0" t="str">
+        <v>--C</v>
+      </c>
+      <c r="X25" s="0" t="str">
+        <v>-B-</v>
+      </c>
+      <c r="Y25" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="Z25" s="0" t="str">
+        <v>--C</v>
+      </c>
+      <c r="AA25" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AB25" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AC25" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AD25" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AE25" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AF25" s="0" t="str">
+        <v>-BC</v>
+      </c>
+      <c r="AG25" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AH25" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AI25" s="0" t="str">
+        <v>---</v>
+      </c>
+      <c r="AJ25" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AK25" s="0" t="str">
+        <v>ABC</v>
+      </c>
+      <c r="AL25" s="0" t="str">
+        <v>-BC</v>
+      </c>
+      <c r="AM25" s="0" t="str">
         <v>AB-</v>
       </c>
-      <c r="AN24" s="0" t="str">
+      <c r="AN25" s="0" t="str">
         <v>---</v>
       </c>
     </row>

--- a/speaking.xlsx
+++ b/speaking.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Form Responses 1" sheetId="1" r:id="rId4"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="310" count="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="302" count="302">
   <si>
     <t>Timestamp</t>
   </si>
@@ -929,30 +929,6 @@
   </si>
   <si>
     <t>Be able to have the courage to speak.</t>
-  </si>
-  <si>
-    <t>A-C</t>
-  </si>
-  <si>
-    <t>ABC</t>
-  </si>
-  <si>
-    <t>AB-</t>
-  </si>
-  <si>
-    <t>---</t>
-  </si>
-  <si>
-    <t>-BC</t>
-  </si>
-  <si>
-    <t>A--</t>
-  </si>
-  <si>
-    <t>--C</t>
-  </si>
-  <si>
-    <t>-B-</t>
   </si>
 </sst>
 </file>
@@ -1320,7 +1296,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
   <dimension ref="A1:CJ40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -12019,10 +11995,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
-  <dimension ref="B1:AN25"/>
+  <dimension ref="A3:A25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.7109375" defaultRowHeight="12.75"/>
@@ -12030,3048 +12006,119 @@
     <col min="1" max="1" width="27.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:40" customFormat="false">
-      <c r="B1" s="0" t="str">
-        <v>aaron.nesnow846@gaston.k12.nc.us</v>
-      </c>
-      <c r="C1" s="0" t="str">
-        <v>adison.costner856@gaston.k12.nc.us</v>
-      </c>
-      <c r="D1" s="0" t="str">
-        <v>alana.williams574@gaston.k12.nc.us</v>
-      </c>
-      <c r="E1" s="0" t="str">
-        <v>alanie.odell901@gaston.k12.nc.us</v>
-      </c>
-      <c r="F1" s="0" t="str">
-        <v>aleigha.letterman215@gaston.k12.nc.us</v>
-      </c>
-      <c r="G1" s="0" t="str">
-        <v>aleigha.letterman215@gaston.k12.nc.us</v>
-      </c>
-      <c r="H1" s="0" t="str">
-        <v>anna.kleffnerspencer042@gaston.k12.nc.us</v>
-      </c>
-      <c r="I1" s="0" t="str">
-        <v>caleb.costner942@gaston.k12.nc.us</v>
-      </c>
-      <c r="J1" s="0" t="str">
-        <v>dalton.harmon921@gaston.k12.nc.us</v>
-      </c>
-      <c r="K1" s="0" t="str">
-        <v>douglas.farley537@gaston.k12.nc.us</v>
-      </c>
-      <c r="L1" s="0" t="str">
-        <v>elizabeth.suarez717@gaston.k12.nc.us</v>
-      </c>
-      <c r="M1" s="0" t="str">
-        <v>grace.deaton440@gaston.k12.nc.us</v>
-      </c>
-      <c r="N1" s="0" t="str">
-        <v>hannah.berckman208@gaston.k12.nc.us</v>
-      </c>
-      <c r="O1" s="0" t="str">
-        <v>hannah.cribby469@gaston.k12.nc.us</v>
-      </c>
-      <c r="P1" s="0" t="str">
-        <v>haylee.franckewitz955@gaston.k12.nc.us</v>
-      </c>
-      <c r="Q1" s="0" t="str">
-        <v>james.abee815@gaston.k12.nc.us</v>
-      </c>
-      <c r="R1" s="0" t="str">
-        <v>james.abee815@gaston.k12.nc.us</v>
-      </c>
-      <c r="S1" s="0" t="str">
-        <v>james.lynn958@gaston.k12.nc.us</v>
-      </c>
-      <c r="T1" s="0" t="str">
-        <v>jared.godwin616@gaston.k12.nc.us</v>
-      </c>
-      <c r="U1" s="0" t="str">
-        <v>jessica.kirby006@gaston.k12.nc.us</v>
-      </c>
-      <c r="V1" s="0" t="str">
-        <v>jessica.payne425@gaston.k12.nc.us</v>
-      </c>
-      <c r="W1" s="0" t="str">
-        <v>kalynne.helms096@gaston.k12.nc.us</v>
-      </c>
-      <c r="X1" s="0" t="str">
-        <v>karmen.scruggs776@gaston.k12.nc.us</v>
-      </c>
-      <c r="Y1" s="0" t="str">
-        <v>kayla.shannon027@gaston.k12.nc.us</v>
-      </c>
-      <c r="Z1" s="0" t="str">
-        <v>kayla.williamson843@gaston.k12.nc.us</v>
-      </c>
-      <c r="AA1" s="0" t="str">
-        <v>kimberly.queen686@gaston.k12.nc.us</v>
-      </c>
-      <c r="AB1" s="0" t="str">
-        <v>kyra.rhyne012@gaston.k12.nc.us</v>
-      </c>
-      <c r="AC1" s="0" t="str">
-        <v>kyra.rhyne012@gaston.k12.nc.us</v>
-      </c>
-      <c r="AD1" s="0" t="str">
-        <v>laurie.ricardo512@gaston.k12.nc.us</v>
-      </c>
-      <c r="AE1" s="0" t="str">
-        <v>ling.zhang885@gaston.k12.nc.us</v>
-      </c>
-      <c r="AF1" s="0" t="str">
-        <v>noah.wollin244@gaston.k12.nc.us</v>
-      </c>
-      <c r="AG1" s="0" t="str">
-        <v>olyvia.knight064@gaston.k12.nc.us</v>
-      </c>
-      <c r="AH1" s="0" t="str">
-        <v>parth.patel358@gaston.k12.nc.us</v>
-      </c>
-      <c r="AI1" s="0" t="str">
-        <v>piper.colangelo050@gaston.k12.nc.us</v>
-      </c>
-      <c r="AJ1" s="0" t="str">
-        <v>riley.kiefer729@gaston.k12.nc.us</v>
-      </c>
-      <c r="AK1" s="0" t="str">
-        <v>sarah.macon201@gaston.k12.nc.us</v>
-      </c>
-      <c r="AL1" s="0" t="str">
-        <v>scott.johnson192@gaston.k12.nc.us</v>
-      </c>
-      <c r="AM1" s="0" t="str">
-        <v>tiffany.weresow255@gaston.k12.nc.us</v>
-      </c>
-      <c r="AN1" s="0" t="str">
-        <v>weston.peavy213@gaston.k12.nc.us</v>
-      </c>
-    </row>
-    <row r="2" spans="2:40" customFormat="false">
-      <c r="B2" s="0" t="str">
-        <v>Spanish II 1st</v>
-      </c>
-      <c r="C2" s="0" t="str">
-        <v>Spanish II 4th</v>
-      </c>
-      <c r="D2" s="0" t="str">
-        <v>Spanish II 4th</v>
-      </c>
-      <c r="E2" s="0" t="str">
-        <v>Spanish II 4th</v>
-      </c>
-      <c r="F2" s="0" t="str">
-        <v>Spanish II 4th</v>
-      </c>
-      <c r="G2" s="0" t="str">
-        <v>Spanish II 4th</v>
-      </c>
-      <c r="H2" s="0" t="str">
-        <v>Spanish II 1st</v>
-      </c>
-      <c r="I2" s="0" t="str">
-        <v>Spanish II 1st</v>
-      </c>
-      <c r="J2" s="0" t="str">
-        <v>Spanish II 4th</v>
-      </c>
-      <c r="K2" s="0" t="str">
-        <v>Spanish II 1st</v>
-      </c>
-      <c r="L2" s="0" t="str">
-        <v>Spanish II 4th</v>
-      </c>
-      <c r="M2" s="0" t="str">
-        <v>Spanish II 4th</v>
-      </c>
-      <c r="N2" s="0" t="str">
-        <v>Spanish II 4th</v>
-      </c>
-      <c r="O2" s="0" t="str">
-        <v>Spanish II 1st</v>
-      </c>
-      <c r="P2" s="0" t="str">
-        <v>Spanish II 1st</v>
-      </c>
-      <c r="Q2" s="0" t="str">
-        <v>Spanish II 1st</v>
-      </c>
-      <c r="R2" s="0" t="str">
-        <v>Spanish II 1st</v>
-      </c>
-      <c r="S2" s="0" t="str">
-        <v>Spanish II 1st</v>
-      </c>
-      <c r="T2" s="0" t="str">
-        <v>Spanish II 1st</v>
-      </c>
-      <c r="U2" s="0" t="str">
-        <v>Spanish II 1st</v>
-      </c>
-      <c r="V2" s="0" t="str">
-        <v>Spanish II 1st</v>
-      </c>
-      <c r="W2" s="0" t="str">
-        <v>Spanish II 4th</v>
-      </c>
-      <c r="X2" s="0" t="str">
-        <v>Spanish II 4th</v>
-      </c>
-      <c r="Y2" s="0" t="str">
-        <v>Spanish II 1st</v>
-      </c>
-      <c r="Z2" s="0" t="str">
-        <v>Spanish II 1st</v>
-      </c>
-      <c r="AA2" s="0" t="str">
-        <v>Spanish II 1st</v>
-      </c>
-      <c r="AB2" s="0" t="str">
-        <v>Spanish II 4th</v>
-      </c>
-      <c r="AC2" s="0" t="str">
-        <v>Spanish II 4th</v>
-      </c>
-      <c r="AD2" s="0" t="str">
-        <v>Spanish II 1st</v>
-      </c>
-      <c r="AE2" s="0" t="str">
-        <v>Spanish II 4th</v>
-      </c>
-      <c r="AF2" s="0" t="str">
-        <v>Spanish II 1st</v>
-      </c>
-      <c r="AG2" s="0" t="str">
-        <v>Spanish II 4th</v>
-      </c>
-      <c r="AH2" s="0" t="str">
-        <v>Spanish II 1st</v>
-      </c>
-      <c r="AI2" s="0" t="str">
-        <v>Spanish II 1st</v>
-      </c>
-      <c r="AJ2" s="0" t="str">
-        <v>Spanish II 4th</v>
-      </c>
-      <c r="AK2" s="0" t="str">
-        <v>Spanish II 1st</v>
-      </c>
-      <c r="AL2" s="0" t="str">
-        <v>Spanish II 1st</v>
-      </c>
-      <c r="AM2" s="0" t="str">
-        <v>Spanish II 1st</v>
-      </c>
-      <c r="AN2" s="0" t="str">
-        <v>Spanish II 4th</v>
-      </c>
-    </row>
-    <row r="3" spans="1:40" customFormat="false">
+    <row r="3" spans="1:1" customFormat="false">
       <c r="A3" s="0" t="str">
         <v>NOVICE ask/respond to  predictable, formulaic questions</v>
       </c>
-      <c r="B3" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="C3" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="D3" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="E3" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="F3" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="G3" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="H3" s="0" t="str">
-        <v>-BC</v>
-      </c>
-      <c r="I3" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="J3" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="K3" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="L3" s="0" t="str">
-        <v>A--</v>
-      </c>
-      <c r="M3" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="N3" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="O3" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="P3" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="Q3" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="R3" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="S3" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="T3" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="U3" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="V3" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="W3" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="X3" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="Y3" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="Z3" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="AA3" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AB3" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="AC3" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="AD3" s="0" t="str">
-        <v>-B-</v>
-      </c>
-      <c r="AE3" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AF3" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AG3" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AH3" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AI3" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AJ3" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AK3" s="0" t="str">
-        <v>A--</v>
-      </c>
-      <c r="AL3" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AM3" s="0" t="str">
-        <v>A--</v>
-      </c>
-      <c r="AN3" s="0" t="str">
-        <v>A--</v>
-      </c>
     </row>
-    <row r="4" spans="1:40" customFormat="false">
+    <row r="4" spans="1:1" customFormat="false">
       <c r="A4" s="0" t="str">
         <v>NOVICE list, name, identify</v>
       </c>
-      <c r="B4" s="0" t="str">
-        <v>-B-</v>
-      </c>
-      <c r="C4" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="D4" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="E4" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="F4" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="G4" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="H4" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="I4" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="J4" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="K4" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="L4" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="M4" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="N4" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="O4" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="P4" s="0" t="str">
-        <v>-B-</v>
-      </c>
-      <c r="Q4" s="0" t="str">
-        <v>A--</v>
-      </c>
-      <c r="R4" s="0" t="str">
-        <v>-B-</v>
-      </c>
-      <c r="S4" s="0" t="str">
-        <v>-BC</v>
-      </c>
-      <c r="T4" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="U4" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="V4" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="W4" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="X4" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="Y4" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="Z4" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="AA4" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="AB4" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="AC4" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AD4" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AE4" s="0" t="str">
-        <v>-B-</v>
-      </c>
-      <c r="AF4" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AG4" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AH4" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="AI4" s="0" t="str">
-        <v>-BC</v>
-      </c>
-      <c r="AJ4" s="0" t="str">
-        <v>A--</v>
-      </c>
-      <c r="AK4" s="0" t="str">
-        <v>A--</v>
-      </c>
-      <c r="AL4" s="0" t="str">
-        <v>-BC</v>
-      </c>
-      <c r="AM4" s="0" t="str">
-        <v>A--</v>
-      </c>
-      <c r="AN4" s="0" t="str">
-        <v>---</v>
-      </c>
     </row>
-    <row r="5" spans="1:40" customFormat="false">
+    <row r="5" spans="1:1" customFormat="false">
       <c r="A5" s="0" t="str">
         <v>INTERMEDIATE ask, answer variety of questions</v>
       </c>
-      <c r="B5" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="C5" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="D5" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="E5" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="F5" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="G5" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="H5" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="I5" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="J5" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="K5" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="L5" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="M5" s="0" t="str">
-        <v>A--</v>
-      </c>
-      <c r="N5" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="O5" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="P5" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="Q5" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="R5" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="S5" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="T5" s="0" t="str">
-        <v>-BC</v>
-      </c>
-      <c r="U5" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="V5" s="0" t="str">
-        <v>-BC</v>
-      </c>
-      <c r="W5" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="X5" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="Y5" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="Z5" s="0" t="str">
-        <v>A--</v>
-      </c>
-      <c r="AA5" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AB5" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AC5" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AD5" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AE5" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="AF5" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AG5" s="0" t="str">
-        <v>A--</v>
-      </c>
-      <c r="AH5" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AI5" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AJ5" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AK5" s="0" t="str">
-        <v>-BC</v>
-      </c>
-      <c r="AL5" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AM5" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="AN5" s="0" t="str">
-        <v>AB-</v>
-      </c>
     </row>
-    <row r="6" spans="1:40" customFormat="false">
+    <row r="6" spans="1:1" customFormat="false">
       <c r="A6" s="0" t="str">
         <v>INTERMEDIATE initiate, maintain, end conversation for basic needs/transactions</v>
       </c>
-      <c r="B6" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="C6" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="D6" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="E6" s="0" t="str">
-        <v>-BC</v>
-      </c>
-      <c r="F6" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="G6" s="0" t="str">
-        <v>-BC</v>
-      </c>
-      <c r="H6" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="I6" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="J6" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="K6" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="L6" s="0" t="str">
-        <v>-B-</v>
-      </c>
-      <c r="M6" s="0" t="str">
-        <v>A--</v>
-      </c>
-      <c r="N6" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="O6" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="P6" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="Q6" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="R6" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="S6" s="0" t="str">
-        <v>-BC</v>
-      </c>
-      <c r="T6" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="U6" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="V6" s="0" t="str">
-        <v>-BC</v>
-      </c>
-      <c r="W6" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="X6" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="Y6" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="Z6" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="AA6" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AB6" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AC6" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AD6" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AE6" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AF6" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AG6" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="AH6" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="AI6" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="AJ6" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AK6" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AL6" s="0" t="str">
-        <v>-BC</v>
-      </c>
-      <c r="AM6" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AN6" s="0" t="str">
-        <v>-B-</v>
-      </c>
     </row>
-    <row r="7" spans="1:40" customFormat="false">
+    <row r="7" spans="1:1" customFormat="false">
       <c r="A7" s="0" t="str">
         <v>INTERMEDIATE communicate beyond "here &amp; now</v>
       </c>
-      <c r="B7" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="C7" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="D7" s="0" t="str">
-        <v>-BC</v>
-      </c>
-      <c r="E7" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="F7" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="G7" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="H7" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="I7" s="0" t="str">
-        <v>-B-</v>
-      </c>
-      <c r="J7" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="K7" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="L7" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="M7" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="N7" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="O7" s="0" t="str">
-        <v>-B-</v>
-      </c>
-      <c r="P7" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="Q7" s="0" t="str">
-        <v>-B-</v>
-      </c>
-      <c r="R7" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="S7" s="0" t="str">
-        <v>A--</v>
-      </c>
-      <c r="T7" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="U7" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="V7" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="W7" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="X7" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="Y7" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="Z7" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AA7" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AB7" s="0" t="str">
-        <v>-BC</v>
-      </c>
-      <c r="AC7" s="0" t="str">
-        <v>-B-</v>
-      </c>
-      <c r="AD7" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="AE7" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AF7" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AG7" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AH7" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="AI7" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AJ7" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AK7" s="0" t="str">
-        <v>-B-</v>
-      </c>
-      <c r="AL7" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="AM7" s="0" t="str">
-        <v>-BC</v>
-      </c>
-      <c r="AN7" s="0" t="str">
-        <v>---</v>
-      </c>
     </row>
-    <row r="8" spans="1:40" customFormat="false">
+    <row r="8" spans="1:1" customFormat="false">
       <c r="A8" s="0" t="str">
         <v>NOVICE practiced words, phrases, sentences</v>
       </c>
-      <c r="B8" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="C8" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="D8" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="E8" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="F8" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="G8" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="H8" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="I8" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="J8" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="K8" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="L8" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="M8" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="N8" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="O8" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="P8" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="Q8" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="R8" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="S8" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="T8" s="0" t="str">
-        <v>-BC</v>
-      </c>
-      <c r="U8" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="V8" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="W8" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="X8" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="Y8" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="Z8" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AA8" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AB8" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AC8" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AD8" s="0" t="str">
-        <v>-BC</v>
-      </c>
-      <c r="AE8" s="0" t="str">
-        <v>-B-</v>
-      </c>
-      <c r="AF8" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AG8" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AH8" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AI8" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AJ8" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AK8" s="0" t="str">
-        <v>A--</v>
-      </c>
-      <c r="AL8" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AM8" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="AN8" s="0" t="str">
-        <v>AB-</v>
-      </c>
     </row>
-    <row r="9" spans="1:40" customFormat="false">
+    <row r="9" spans="1:1" customFormat="false">
       <c r="A9" s="0" t="str">
         <v>NOVICE formulaic/memorized questions</v>
       </c>
-      <c r="B9" s="0" t="str">
-        <v>A--</v>
-      </c>
-      <c r="C9" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="D9" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="E9" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="F9" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="G9" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="H9" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="I9" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="J9" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="K9" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="L9" s="0" t="str">
-        <v>-BC</v>
-      </c>
-      <c r="M9" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="N9" s="0" t="str">
-        <v>A--</v>
-      </c>
-      <c r="O9" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="P9" s="0" t="str">
-        <v>A--</v>
-      </c>
-      <c r="Q9" s="0" t="str">
-        <v>A--</v>
-      </c>
-      <c r="R9" s="0" t="str">
-        <v>-B-</v>
-      </c>
-      <c r="S9" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="T9" s="0" t="str">
-        <v>-B-</v>
-      </c>
-      <c r="U9" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="V9" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="W9" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="X9" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="Y9" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="Z9" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AA9" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="AB9" s="0" t="str">
-        <v>-BC</v>
-      </c>
-      <c r="AC9" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AD9" s="0" t="str">
-        <v>-B-</v>
-      </c>
-      <c r="AE9" s="0" t="str">
-        <v>A--</v>
-      </c>
-      <c r="AF9" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AG9" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AH9" s="0" t="str">
-        <v>A--</v>
-      </c>
-      <c r="AI9" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AJ9" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AK9" s="0" t="str">
-        <v>A--</v>
-      </c>
-      <c r="AL9" s="0" t="str">
-        <v>A--</v>
-      </c>
-      <c r="AM9" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="AN9" s="0" t="str">
-        <v>---</v>
-      </c>
     </row>
-    <row r="10" spans="1:40" customFormat="false">
+    <row r="10" spans="1:1" customFormat="false">
       <c r="A10" s="0" t="str">
         <v>INTERMEDIATE strings of sentences</v>
       </c>
-      <c r="B10" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="C10" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="D10" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="E10" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="F10" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="G10" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="H10" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="I10" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="J10" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="K10" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="L10" s="0" t="str">
-        <v>-BC</v>
-      </c>
-      <c r="M10" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="N10" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="O10" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="P10" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="Q10" s="0" t="str">
-        <v>-B-</v>
-      </c>
-      <c r="R10" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="S10" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="T10" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="U10" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="V10" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="W10" s="0" t="str">
-        <v>-B-</v>
-      </c>
-      <c r="X10" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="Y10" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="Z10" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="AA10" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AB10" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AC10" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AD10" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AE10" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AF10" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="AG10" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AH10" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AI10" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AJ10" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AK10" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="AL10" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="AM10" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AN10" s="0" t="str">
-        <v>-B-</v>
-      </c>
     </row>
-    <row r="11" spans="1:40" customFormat="false">
+    <row r="11" spans="1:1" customFormat="false">
       <c r="A11" s="0" t="str">
         <v>INTERMEDIATE connected sentences</v>
       </c>
-      <c r="B11" s="0" t="str">
-        <v>A--</v>
-      </c>
-      <c r="C11" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="D11" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="E11" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="F11" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="G11" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="H11" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="I11" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="J11" s="0" t="str">
-        <v>-BC</v>
-      </c>
-      <c r="K11" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="L11" s="0" t="str">
-        <v>A--</v>
-      </c>
-      <c r="M11" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="N11" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="O11" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="P11" s="0" t="str">
-        <v>-BC</v>
-      </c>
-      <c r="Q11" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="R11" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="S11" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="T11" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="U11" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="V11" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="W11" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="X11" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="Y11" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="Z11" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="AA11" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AB11" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AC11" s="0" t="str">
-        <v>-BC</v>
-      </c>
-      <c r="AD11" s="0" t="str">
-        <v>-B-</v>
-      </c>
-      <c r="AE11" s="0" t="str">
-        <v>-B-</v>
-      </c>
-      <c r="AF11" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AG11" s="0" t="str">
-        <v>A--</v>
-      </c>
-      <c r="AH11" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AI11" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AJ11" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AK11" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="AL11" s="0" t="str">
-        <v>-BC</v>
-      </c>
-      <c r="AM11" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AN11" s="0" t="str">
-        <v>-B-</v>
-      </c>
     </row>
-    <row r="12" spans="1:40" customFormat="false">
+    <row r="12" spans="1:1" customFormat="false">
       <c r="A12" s="0" t="str">
         <v>INTERMEDIATE ask questions to initiate/ sustain conversation</v>
       </c>
-      <c r="B12" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="C12" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="D12" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="E12" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="F12" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="G12" s="0" t="str">
-        <v>-BC</v>
-      </c>
-      <c r="H12" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="I12" s="0" t="str">
-        <v>-B-</v>
-      </c>
-      <c r="J12" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="K12" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="L12" s="0" t="str">
-        <v>-BC</v>
-      </c>
-      <c r="M12" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="N12" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="O12" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="P12" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="Q12" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="R12" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="S12" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="T12" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="U12" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="V12" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="W12" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="X12" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="Y12" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="Z12" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="AA12" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AB12" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AC12" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AD12" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AE12" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="AF12" s="0" t="str">
-        <v>-BC</v>
-      </c>
-      <c r="AG12" s="0" t="str">
-        <v>A--</v>
-      </c>
-      <c r="AH12" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AI12" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AJ12" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AK12" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AL12" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AM12" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="AN12" s="0" t="str">
-        <v>A--</v>
-      </c>
     </row>
-    <row r="13" spans="1:40" customFormat="false">
+    <row r="13" spans="1:1" customFormat="false">
       <c r="A13" s="0" t="str">
         <v>NOVICE high-frequency</v>
       </c>
-      <c r="B13" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="C13" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="D13" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="E13" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="F13" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="G13" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="H13" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="I13" s="0" t="str">
-        <v>-B-</v>
-      </c>
-      <c r="J13" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="K13" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="L13" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="M13" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="N13" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="O13" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="P13" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="Q13" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="R13" s="0" t="str">
-        <v>A--</v>
-      </c>
-      <c r="S13" s="0" t="str">
-        <v>A--</v>
-      </c>
-      <c r="T13" s="0" t="str">
-        <v>A--</v>
-      </c>
-      <c r="U13" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="V13" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="W13" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="X13" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="Y13" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="Z13" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AA13" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AB13" s="0" t="str">
-        <v>A--</v>
-      </c>
-      <c r="AC13" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AD13" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AE13" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AF13" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AG13" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AH13" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AI13" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AJ13" s="0" t="str">
-        <v>A--</v>
-      </c>
-      <c r="AK13" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AL13" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="AM13" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="AN13" s="0" t="str">
-        <v>---</v>
-      </c>
     </row>
-    <row r="14" spans="1:40" customFormat="false">
+    <row r="14" spans="1:1" customFormat="false">
       <c r="A14" s="0" t="str">
         <v>NOVICE formulaic</v>
       </c>
-      <c r="B14" s="0" t="str">
-        <v>A--</v>
-      </c>
-      <c r="C14" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="D14" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="E14" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="F14" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="G14" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="H14" s="0" t="str">
-        <v>-BC</v>
-      </c>
-      <c r="I14" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="J14" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="K14" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="L14" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="M14" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="N14" s="0" t="str">
-        <v>-B-</v>
-      </c>
-      <c r="O14" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="P14" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="Q14" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="R14" s="0" t="str">
-        <v>-B-</v>
-      </c>
-      <c r="S14" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="T14" s="0" t="str">
-        <v>-B-</v>
-      </c>
-      <c r="U14" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="V14" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="W14" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="X14" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="Y14" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="Z14" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="AA14" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AB14" s="0" t="str">
-        <v>-B-</v>
-      </c>
-      <c r="AC14" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AD14" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AE14" s="0" t="str">
-        <v>-BC</v>
-      </c>
-      <c r="AF14" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AG14" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AH14" s="0" t="str">
-        <v>A--</v>
-      </c>
-      <c r="AI14" s="0" t="str">
-        <v>A--</v>
-      </c>
-      <c r="AJ14" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AK14" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AL14" s="0" t="str">
-        <v>-BC</v>
-      </c>
-      <c r="AM14" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AN14" s="0" t="str">
-        <v>---</v>
-      </c>
     </row>
-    <row r="15" spans="1:40" customFormat="false">
+    <row r="15" spans="1:1" customFormat="false">
       <c r="A15" s="0" t="str">
         <v>NOVICE practiced</v>
       </c>
-      <c r="B15" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="C15" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="D15" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="E15" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="F15" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="G15" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="H15" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="I15" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="J15" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="K15" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="L15" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="M15" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="N15" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="O15" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="P15" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="Q15" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="R15" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="S15" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="T15" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="U15" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="V15" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="W15" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="X15" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="Y15" s="0" t="str">
-        <v>A--</v>
-      </c>
-      <c r="Z15" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AA15" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AB15" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AC15" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AD15" s="0" t="str">
-        <v>-BC</v>
-      </c>
-      <c r="AE15" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AF15" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AG15" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AH15" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AI15" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="AJ15" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AK15" s="0" t="str">
-        <v>A--</v>
-      </c>
-      <c r="AL15" s="0" t="str">
-        <v>-BC</v>
-      </c>
-      <c r="AM15" s="0" t="str">
-        <v>A--</v>
-      </c>
-      <c r="AN15" s="0" t="str">
-        <v>AB-</v>
-      </c>
     </row>
-    <row r="16" spans="1:40" customFormat="false">
+    <row r="16" spans="1:1" customFormat="false">
       <c r="A16" s="0" t="str">
         <v>INTERMEDIATE familiar themes/topics</v>
       </c>
-      <c r="B16" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="C16" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="D16" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="E16" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="F16" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="G16" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="H16" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="I16" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="J16" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="K16" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="L16" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="M16" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="N16" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="O16" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="P16" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="Q16" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="R16" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="S16" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="T16" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="U16" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="V16" s="0" t="str">
-        <v>-BC</v>
-      </c>
-      <c r="W16" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="X16" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="Y16" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="Z16" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AA16" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AB16" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AC16" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AD16" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="AE16" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AF16" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AG16" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AH16" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AI16" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AJ16" s="0" t="str">
-        <v>-BC</v>
-      </c>
-      <c r="AK16" s="0" t="str">
-        <v>-BC</v>
-      </c>
-      <c r="AL16" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="AM16" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AN16" s="0" t="str">
-        <v>AB-</v>
-      </c>
     </row>
-    <row r="17" spans="1:40" customFormat="false">
+    <row r="17" spans="1:1" customFormat="false">
       <c r="A17" s="0" t="str">
         <v>INTERMEDIATE personalized</v>
       </c>
-      <c r="B17" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="C17" s="0" t="str">
-        <v>A--</v>
-      </c>
-      <c r="D17" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="E17" s="0" t="str">
-        <v>-B-</v>
-      </c>
-      <c r="F17" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="G17" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="H17" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="I17" s="0" t="str">
-        <v>-BC</v>
-      </c>
-      <c r="J17" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="K17" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="L17" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="M17" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="N17" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="O17" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="P17" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="Q17" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="R17" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="S17" s="0" t="str">
-        <v>-BC</v>
-      </c>
-      <c r="T17" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="U17" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="V17" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="W17" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="X17" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="Y17" s="0" t="str">
-        <v>-BC</v>
-      </c>
-      <c r="Z17" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="AA17" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AB17" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AC17" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AD17" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AE17" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AF17" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AG17" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="AH17" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AI17" s="0" t="str">
-        <v>A--</v>
-      </c>
-      <c r="AJ17" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AK17" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AL17" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AM17" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AN17" s="0" t="str">
-        <v>---</v>
-      </c>
     </row>
-    <row r="18" spans="1:40" customFormat="false">
+    <row r="18" spans="1:1" customFormat="false">
       <c r="A18" s="0" t="str">
         <v>NOVICE imitate modeled words</v>
       </c>
-      <c r="B18" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="C18" s="0" t="str">
-        <v>A--</v>
-      </c>
-      <c r="D18" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="E18" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="F18" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="G18" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="H18" s="0" t="str">
-        <v>-BC</v>
-      </c>
-      <c r="I18" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="J18" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="K18" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="L18" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="M18" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="N18" s="0" t="str">
-        <v>A--</v>
-      </c>
-      <c r="O18" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="P18" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="Q18" s="0" t="str">
-        <v>A--</v>
-      </c>
-      <c r="R18" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="S18" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="T18" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="U18" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="V18" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="W18" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="X18" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="Y18" s="0" t="str">
-        <v>-B-</v>
-      </c>
-      <c r="Z18" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AA18" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="AB18" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AC18" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AD18" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="AE18" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AF18" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AG18" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AH18" s="0" t="str">
-        <v>-B-</v>
-      </c>
-      <c r="AI18" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="AJ18" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AK18" s="0" t="str">
-        <v>A--</v>
-      </c>
-      <c r="AL18" s="0" t="str">
-        <v>-BC</v>
-      </c>
-      <c r="AM18" s="0" t="str">
-        <v>A--</v>
-      </c>
-      <c r="AN18" s="0" t="str">
-        <v>-B-</v>
-      </c>
     </row>
-    <row r="19" spans="1:40" customFormat="false">
+    <row r="19" spans="1:1" customFormat="false">
       <c r="A19" s="0" t="str">
         <v>NOVICE use facial expressions, gestures</v>
       </c>
-      <c r="B19" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="C19" s="0" t="str">
-        <v>-B-</v>
-      </c>
-      <c r="D19" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="E19" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="F19" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="G19" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="H19" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="I19" s="0" t="str">
-        <v>-B-</v>
-      </c>
-      <c r="J19" s="0" t="str">
-        <v>-B-</v>
-      </c>
-      <c r="K19" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="L19" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="M19" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="N19" s="0" t="str">
-        <v>-B-</v>
-      </c>
-      <c r="O19" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="P19" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="Q19" s="0" t="str">
-        <v>-B-</v>
-      </c>
-      <c r="R19" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="S19" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="T19" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="U19" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="V19" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="W19" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="X19" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="Y19" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="Z19" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AA19" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="AB19" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AC19" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AD19" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AE19" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="AF19" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="AG19" s="0" t="str">
-        <v>-B-</v>
-      </c>
-      <c r="AH19" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="AI19" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AJ19" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="AK19" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AL19" s="0" t="str">
-        <v>-BC</v>
-      </c>
-      <c r="AM19" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AN19" s="0" t="str">
-        <v>---</v>
-      </c>
     </row>
-    <row r="20" spans="1:40" customFormat="false">
+    <row r="20" spans="1:1" customFormat="false">
       <c r="A20" s="0" t="str">
         <v>NOVICE resort to first language</v>
       </c>
-      <c r="B20" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="C20" s="0" t="str">
-        <v>-B-</v>
-      </c>
-      <c r="D20" s="0" t="str">
-        <v>A--</v>
-      </c>
-      <c r="E20" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="F20" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="G20" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="H20" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="I20" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="J20" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="K20" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="L20" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="M20" s="0" t="str">
-        <v>-B-</v>
-      </c>
-      <c r="N20" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="O20" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="P20" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="Q20" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="R20" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="S20" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="T20" s="0" t="str">
-        <v>-B-</v>
-      </c>
-      <c r="U20" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="V20" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="W20" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="X20" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="Y20" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="Z20" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AA20" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AB20" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AC20" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AD20" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AE20" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AF20" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AG20" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AH20" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AI20" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AJ20" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AK20" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AL20" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AM20" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AN20" s="0" t="str">
-        <v>AB-</v>
-      </c>
     </row>
-    <row r="21" spans="1:40" customFormat="false">
+    <row r="21" spans="1:1" customFormat="false">
       <c r="A21" s="0" t="str">
         <v>NOVICE repeat/request repetition</v>
       </c>
-      <c r="B21" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="C21" s="0" t="str">
-        <v>-B-</v>
-      </c>
-      <c r="D21" s="0" t="str">
-        <v>A--</v>
-      </c>
-      <c r="E21" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="F21" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="G21" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="H21" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="I21" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="J21" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="K21" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="L21" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="M21" s="0" t="str">
-        <v>-B-</v>
-      </c>
-      <c r="N21" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="O21" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="P21" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="Q21" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="R21" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="S21" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="T21" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="U21" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="V21" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="W21" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="X21" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="Y21" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="Z21" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AA21" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AB21" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AC21" s="0" t="str">
-        <v>A--</v>
-      </c>
-      <c r="AD21" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AE21" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AF21" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="AG21" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AH21" s="0" t="str">
-        <v>-B-</v>
-      </c>
-      <c r="AI21" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AJ21" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AK21" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AL21" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="AM21" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AN21" s="0" t="str">
-        <v>-B-</v>
-      </c>
     </row>
-    <row r="22" spans="1:40" customFormat="false">
+    <row r="22" spans="1:1" customFormat="false">
       <c r="A22" s="0" t="str">
         <v>NOVICE indicate lack of understanding</v>
       </c>
-      <c r="B22" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="C22" s="0" t="str">
-        <v>-B-</v>
-      </c>
-      <c r="D22" s="0" t="str">
-        <v>A--</v>
-      </c>
-      <c r="E22" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="F22" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="G22" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="H22" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="I22" s="0" t="str">
-        <v>A--</v>
-      </c>
-      <c r="J22" s="0" t="str">
-        <v>A--</v>
-      </c>
-      <c r="K22" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="L22" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="M22" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="N22" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="O22" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="P22" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="Q22" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="R22" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="S22" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="T22" s="0" t="str">
-        <v>-BC</v>
-      </c>
-      <c r="U22" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="V22" s="0" t="str">
-        <v>A--</v>
-      </c>
-      <c r="W22" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="X22" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="Y22" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="Z22" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AA22" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AB22" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AC22" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AD22" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AE22" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AF22" s="0" t="str">
-        <v>A--</v>
-      </c>
-      <c r="AG22" s="0" t="str">
-        <v>-B-</v>
-      </c>
-      <c r="AH22" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AI22" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AJ22" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AK22" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AL22" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AM22" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AN22" s="0" t="str">
-        <v>---</v>
-      </c>
     </row>
-    <row r="23" spans="1:40" customFormat="false">
+    <row r="23" spans="1:1" customFormat="false">
       <c r="A23" s="0" t="str">
         <v>INTERMEDIATE ask questions, request clarification</v>
       </c>
-      <c r="B23" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="C23" s="0" t="str">
-        <v>-B-</v>
-      </c>
-      <c r="D23" s="0" t="str">
-        <v>A--</v>
-      </c>
-      <c r="E23" s="0" t="str">
-        <v>A--</v>
-      </c>
-      <c r="F23" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="G23" s="0" t="str">
-        <v>-BC</v>
-      </c>
-      <c r="H23" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="I23" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="J23" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="K23" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="L23" s="0" t="str">
-        <v>-BC</v>
-      </c>
-      <c r="M23" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="N23" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="O23" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="P23" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="Q23" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="R23" s="0" t="str">
-        <v>-B-</v>
-      </c>
-      <c r="S23" s="0" t="str">
-        <v>-B-</v>
-      </c>
-      <c r="T23" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="U23" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="V23" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="W23" s="0" t="str">
-        <v>-BC</v>
-      </c>
-      <c r="X23" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="Y23" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="Z23" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="AA23" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AB23" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AC23" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AD23" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="AE23" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AF23" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AG23" s="0" t="str">
-        <v>A--</v>
-      </c>
-      <c r="AH23" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="AI23" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AJ23" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AK23" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="AL23" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="AM23" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="AN23" s="0" t="str">
-        <v>---</v>
-      </c>
     </row>
-    <row r="24" spans="1:40" customFormat="false">
+    <row r="24" spans="1:1" customFormat="false">
       <c r="A24" s="0" t="str">
         <v>INTERMEDIATE self-correct or restate when not understood</v>
       </c>
-      <c r="B24" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="C24" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="D24" s="0" t="str">
-        <v>A--</v>
-      </c>
-      <c r="E24" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="F24" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="G24" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="H24" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="I24" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="J24" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="K24" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="L24" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="M24" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="N24" s="0" t="str">
-        <v>-BC</v>
-      </c>
-      <c r="O24" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="P24" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="Q24" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="R24" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="S24" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="T24" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="U24" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="V24" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="W24" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="X24" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="Y24" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="Z24" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AA24" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="AB24" s="0" t="str">
-        <v>-BC</v>
-      </c>
-      <c r="AC24" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="AD24" s="0" t="str">
-        <v>-BC</v>
-      </c>
-      <c r="AE24" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AF24" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AG24" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AH24" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AI24" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AJ24" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AK24" s="0" t="str">
-        <v>A--</v>
-      </c>
-      <c r="AL24" s="0" t="str">
-        <v>-BC</v>
-      </c>
-      <c r="AM24" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AN24" s="0" t="str">
-        <v>-B-</v>
-      </c>
     </row>
-    <row r="25" spans="1:40" customFormat="false">
+    <row r="25" spans="1:1" customFormat="false">
       <c r="A25" s="0" t="str">
         <v>INTERMEDIATE circumlocute</v>
-      </c>
-      <c r="B25" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="C25" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="D25" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="E25" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="F25" s="0" t="str">
-        <v>A-C</v>
-      </c>
-      <c r="G25" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="H25" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="I25" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="J25" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="K25" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="L25" s="0" t="str">
-        <v>-B-</v>
-      </c>
-      <c r="M25" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="N25" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="O25" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="P25" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="Q25" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="R25" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="S25" s="0" t="str">
-        <v>-BC</v>
-      </c>
-      <c r="T25" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="U25" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="V25" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="W25" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="X25" s="0" t="str">
-        <v>-B-</v>
-      </c>
-      <c r="Y25" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="Z25" s="0" t="str">
-        <v>--C</v>
-      </c>
-      <c r="AA25" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AB25" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AC25" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AD25" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AE25" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AF25" s="0" t="str">
-        <v>-BC</v>
-      </c>
-      <c r="AG25" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AH25" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AI25" s="0" t="str">
-        <v>---</v>
-      </c>
-      <c r="AJ25" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AK25" s="0" t="str">
-        <v>ABC</v>
-      </c>
-      <c r="AL25" s="0" t="str">
-        <v>-BC</v>
-      </c>
-      <c r="AM25" s="0" t="str">
-        <v>AB-</v>
-      </c>
-      <c r="AN25" s="0" t="str">
-        <v>---</v>
       </c>
     </row>
   </sheetData>

--- a/speaking.xlsx
+++ b/speaking.xlsx
@@ -11995,130 +11995,3179 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
-  <dimension ref="A3:A25"/>
+  <dimension ref="B1:AN26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="F21" sqref="A1:AN27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.7109375" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="27.5703125" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:1" customFormat="false">
-      <c r="A3" s="0" t="str">
+    <row r="1" spans="2:40" customFormat="false">
+      <c r="B1" s="0" t="str">
+        <v>aaron.nesnow846@gaston.k12.nc.us</v>
+      </c>
+      <c r="C1" s="0" t="str">
+        <v>adison.costner856@gaston.k12.nc.us</v>
+      </c>
+      <c r="D1" s="0" t="str">
+        <v>alana.williams574@gaston.k12.nc.us</v>
+      </c>
+      <c r="E1" s="0" t="str">
+        <v>alanie.odell901@gaston.k12.nc.us</v>
+      </c>
+      <c r="F1" s="0" t="str">
+        <v>aleigha.letterman215@gaston.k12.nc.us</v>
+      </c>
+      <c r="G1" s="0" t="str">
+        <v>aleigha.letterman215@gaston.k12.nc.us</v>
+      </c>
+      <c r="H1" s="0" t="str">
+        <v>anna.kleffnerspencer042@gaston.k12.nc.us</v>
+      </c>
+      <c r="I1" s="0" t="str">
+        <v>caleb.costner942@gaston.k12.nc.us</v>
+      </c>
+      <c r="J1" s="0" t="str">
+        <v>dalton.harmon921@gaston.k12.nc.us</v>
+      </c>
+      <c r="K1" s="0" t="str">
+        <v>douglas.farley537@gaston.k12.nc.us</v>
+      </c>
+      <c r="L1" s="0" t="str">
+        <v>elizabeth.suarez717@gaston.k12.nc.us</v>
+      </c>
+      <c r="M1" s="0" t="str">
+        <v>grace.deaton440@gaston.k12.nc.us</v>
+      </c>
+      <c r="N1" s="0" t="str">
+        <v>hannah.berckman208@gaston.k12.nc.us</v>
+      </c>
+      <c r="O1" s="0" t="str">
+        <v>hannah.cribby469@gaston.k12.nc.us</v>
+      </c>
+      <c r="P1" s="0" t="str">
+        <v>haylee.franckewitz955@gaston.k12.nc.us</v>
+      </c>
+      <c r="Q1" s="0" t="str">
+        <v>james.abee815@gaston.k12.nc.us</v>
+      </c>
+      <c r="R1" s="0" t="str">
+        <v>james.abee815@gaston.k12.nc.us</v>
+      </c>
+      <c r="S1" s="0" t="str">
+        <v>james.lynn958@gaston.k12.nc.us</v>
+      </c>
+      <c r="T1" s="0" t="str">
+        <v>jared.godwin616@gaston.k12.nc.us</v>
+      </c>
+      <c r="U1" s="0" t="str">
+        <v>jessica.kirby006@gaston.k12.nc.us</v>
+      </c>
+      <c r="V1" s="0" t="str">
+        <v>jessica.payne425@gaston.k12.nc.us</v>
+      </c>
+      <c r="W1" s="0" t="str">
+        <v>kalynne.helms096@gaston.k12.nc.us</v>
+      </c>
+      <c r="X1" s="0" t="str">
+        <v>karmen.scruggs776@gaston.k12.nc.us</v>
+      </c>
+      <c r="Y1" s="0" t="str">
+        <v>kayla.shannon027@gaston.k12.nc.us</v>
+      </c>
+      <c r="Z1" s="0" t="str">
+        <v>kayla.williamson843@gaston.k12.nc.us</v>
+      </c>
+      <c r="AA1" s="0" t="str">
+        <v>kimberly.queen686@gaston.k12.nc.us</v>
+      </c>
+      <c r="AB1" s="0" t="str">
+        <v>kyra.rhyne012@gaston.k12.nc.us</v>
+      </c>
+      <c r="AC1" s="0" t="str">
+        <v>kyra.rhyne012@gaston.k12.nc.us</v>
+      </c>
+      <c r="AD1" s="0" t="str">
+        <v>laurie.ricardo512@gaston.k12.nc.us</v>
+      </c>
+      <c r="AE1" s="0" t="str">
+        <v>ling.zhang885@gaston.k12.nc.us</v>
+      </c>
+      <c r="AF1" s="0" t="str">
+        <v>noah.wollin244@gaston.k12.nc.us</v>
+      </c>
+      <c r="AG1" s="0" t="str">
+        <v>olyvia.knight064@gaston.k12.nc.us</v>
+      </c>
+      <c r="AH1" s="0" t="str">
+        <v>parth.patel358@gaston.k12.nc.us</v>
+      </c>
+      <c r="AI1" s="0" t="str">
+        <v>piper.colangelo050@gaston.k12.nc.us</v>
+      </c>
+      <c r="AJ1" s="0" t="str">
+        <v>riley.kiefer729@gaston.k12.nc.us</v>
+      </c>
+      <c r="AK1" s="0" t="str">
+        <v>sarah.macon201@gaston.k12.nc.us</v>
+      </c>
+      <c r="AL1" s="0" t="str">
+        <v>scott.johnson192@gaston.k12.nc.us</v>
+      </c>
+      <c r="AM1" s="0" t="str">
+        <v>tiffany.weresow255@gaston.k12.nc.us</v>
+      </c>
+      <c r="AN1" s="0" t="str">
+        <v>weston.peavy213@gaston.k12.nc.us</v>
+      </c>
+    </row>
+    <row r="2" spans="2:40" customFormat="false">
+      <c r="B2" s="0" t="str">
+        <v>http://gecaaronnespanol.blogspot.com/p/speaking.html</v>
+      </c>
+      <c r="C2" s="0" t="str">
+        <v>http://gecadisonsespanol.blogspot.com/p/speaking.html</v>
+      </c>
+      <c r="D2" s="0" t="str">
+        <v>http://gecalanawespanol.blogspot.com/p/speaking.html</v>
+      </c>
+      <c r="E2" s="0" t="str">
+        <v>http://gecalanieoespanol.blogspot.com/p/speaking.html</v>
+      </c>
+      <c r="F2" s="0" t="str">
+        <v>http://gecaleighalespanol.blogspot.com/</v>
+      </c>
+      <c r="G2" s="0" t="str">
+        <v>http://gecaleighalespanol.blogspot.com/p/speaking.html?_sm_au_=iRV4H734DJR712BH</v>
+      </c>
+      <c r="H2" s="0" t="str">
+        <v>http://gecannaks.blogspot.com/p/speaking.html</v>
+      </c>
+      <c r="I2" s="0" t="str">
+        <v>http://geccalebcespanol.blogspot.com/p/speaking.html</v>
+      </c>
+      <c r="J2" s="0" t="str">
+        <v>http://gecdaltonhespanol.blogspot.com/p/speaking.html</v>
+      </c>
+      <c r="K2" s="0" t="str">
+        <v>http://gecdouglasfespanol.blogspot.com/p/speaking.html</v>
+      </c>
+      <c r="L2" s="0" t="str">
+        <v>http://gecelizabethsespanol.blogspot.com/p/speaking.html</v>
+      </c>
+      <c r="M2" s="0" t="str">
+        <v>http://gecgracedespanol.blogspot.com/p/speaking.html</v>
+      </c>
+      <c r="N2" s="0" t="str">
+        <v>http://gechannahbespanol.blogspot.com/p/speaking.html</v>
+      </c>
+      <c r="O2" s="0" t="str">
+        <v>http://gechannahcespanol.blogspot.com/p/speaking.html</v>
+      </c>
+      <c r="P2" s="0" t="str">
+        <v>notebook</v>
+      </c>
+      <c r="Q2" s="0" t="str">
+        <v xml:space="preserve">http://gecloganaespanol.blogspot.com/p/speaking.html </v>
+      </c>
+      <c r="R2" s="0" t="str">
+        <v>http://gecloganaespanol.blogspot.com/p/speaking.html</v>
+      </c>
+      <c r="S2" s="0" t="str">
+        <v>http://gecjameslespanol.blogspot.com/p/speaking.html</v>
+      </c>
+      <c r="T2" s="0" t="str">
+        <v>Clavo: fue</v>
+      </c>
+      <c r="U2" s="0" t="str">
+        <v>http://gecjessicakespanol.blogspot.com/</v>
+      </c>
+      <c r="V2" s="0" t="str">
+        <v>http://gecjessicapespanol.blogspot.com/2017/02/hablar-portfolio.html</v>
+      </c>
+      <c r="W2" s="0" t="str">
+        <v>http://geckalynnehespanol.blogspot.com/p/speaking.html</v>
+      </c>
+      <c r="X2" s="0" t="str">
+        <v>http://geckarmensespanol.blogspot.com/p/speaking.html</v>
+      </c>
+      <c r="Y2" s="0" t="str">
+        <v>https://geckshannon.blogspot.com/b/post-preview?token=ujT-H1oBAAA.cBZXbAHzfkhewsrLBQwjCzCTaf9-aCxkbnLXCIU4J90SukY8Z8vcHzRZ8qg1eH2_dcqow_gOF0bmtMAVSuDZNQ.x5nCMzkXswb3fjHitapT9A&amp;postId=5070485297239961755&amp;type=PAGE</v>
+      </c>
+      <c r="Z2" s="0" t="str">
+        <v>http://geckaylawespanol.blogspot.com/p/speaking.html</v>
+      </c>
+      <c r="AA2" s="0" t="str">
+        <v>paper</v>
+      </c>
+      <c r="AB2" s="0" t="str">
+        <v>http://geckyrarespanol.blogspot.com/p/speaking.html</v>
+      </c>
+      <c r="AC2" s="0" t="str">
+        <v>http://geckyrarespanol.blogspot.com/p/speaking.html</v>
+      </c>
+      <c r="AD2" s="0" t="str">
+        <v>http://geclaurier.blogspot.com/p/speaking.html</v>
+      </c>
+      <c r="AE2" s="0" t="str">
+        <v>http://geclingespanol.blogspot.com/p/speaking.html</v>
+      </c>
+      <c r="AF2" s="0" t="str">
+        <v>http://gecnoahwespanol.blogspot.com/p/speaking.html</v>
+      </c>
+      <c r="AG2" s="0" t="str">
+        <v>http://gecolyviakespanol.blogspot.com/p/speaking.html</v>
+      </c>
+      <c r="AH2" s="0" t="str">
+        <v>http://gecparthespanol.blogspot.com/p/speaking.html</v>
+      </c>
+      <c r="AI2" s="0" t="str">
+        <v>http://gecpipercespanol.blogspot.com/p/speaking.html</v>
+      </c>
+      <c r="AJ2" s="0" t="str">
+        <v>https://gecrileykespanol.blogspot.com/p/speaking.html</v>
+      </c>
+      <c r="AK2" s="0" t="str">
+        <v>http://gecsarahmespanol.blogspot.com/p/speaking.html</v>
+      </c>
+      <c r="AL2" s="0" t="str">
+        <v>http://gecchristopherjespanol.blogspot.com/p/speaking.html</v>
+      </c>
+      <c r="AM2" s="0" t="str">
+        <v>http://gectiffanywespanol.blogspot.com/p/speaking.html</v>
+      </c>
+      <c r="AN2" s="0" t="str">
+        <v>http://gecwestonpespanol.blogspot.com/p/speaking.html</v>
+      </c>
+    </row>
+    <row r="3" spans="2:40" customFormat="false">
+      <c r="B3" s="0" t="str">
+        <v>Spanish II 1st</v>
+      </c>
+      <c r="C3" s="0" t="str">
+        <v>Spanish II 4th</v>
+      </c>
+      <c r="D3" s="0" t="str">
+        <v>Spanish II 4th</v>
+      </c>
+      <c r="E3" s="0" t="str">
+        <v>Spanish II 4th</v>
+      </c>
+      <c r="F3" s="0" t="str">
+        <v>Spanish II 4th</v>
+      </c>
+      <c r="G3" s="0" t="str">
+        <v>Spanish II 4th</v>
+      </c>
+      <c r="H3" s="0" t="str">
+        <v>Spanish II 1st</v>
+      </c>
+      <c r="I3" s="0" t="str">
+        <v>Spanish II 1st</v>
+      </c>
+      <c r="J3" s="0" t="str">
+        <v>Spanish II 4th</v>
+      </c>
+      <c r="K3" s="0" t="str">
+        <v>Spanish II 1st</v>
+      </c>
+      <c r="L3" s="0" t="str">
+        <v>Spanish II 4th</v>
+      </c>
+      <c r="M3" s="0" t="str">
+        <v>Spanish II 4th</v>
+      </c>
+      <c r="N3" s="0" t="str">
+        <v>Spanish II 4th</v>
+      </c>
+      <c r="O3" s="0" t="str">
+        <v>Spanish II 1st</v>
+      </c>
+      <c r="P3" s="0" t="str">
+        <v>Spanish II 1st</v>
+      </c>
+      <c r="Q3" s="0" t="str">
+        <v>Spanish II 1st</v>
+      </c>
+      <c r="R3" s="0" t="str">
+        <v>Spanish II 1st</v>
+      </c>
+      <c r="S3" s="0" t="str">
+        <v>Spanish II 1st</v>
+      </c>
+      <c r="T3" s="0" t="str">
+        <v>Spanish II 1st</v>
+      </c>
+      <c r="U3" s="0" t="str">
+        <v>Spanish II 1st</v>
+      </c>
+      <c r="V3" s="0" t="str">
+        <v>Spanish II 1st</v>
+      </c>
+      <c r="W3" s="0" t="str">
+        <v>Spanish II 4th</v>
+      </c>
+      <c r="X3" s="0" t="str">
+        <v>Spanish II 4th</v>
+      </c>
+      <c r="Y3" s="0" t="str">
+        <v>Spanish II 1st</v>
+      </c>
+      <c r="Z3" s="0" t="str">
+        <v>Spanish II 1st</v>
+      </c>
+      <c r="AA3" s="0" t="str">
+        <v>Spanish II 1st</v>
+      </c>
+      <c r="AB3" s="0" t="str">
+        <v>Spanish II 4th</v>
+      </c>
+      <c r="AC3" s="0" t="str">
+        <v>Spanish II 4th</v>
+      </c>
+      <c r="AD3" s="0" t="str">
+        <v>Spanish II 1st</v>
+      </c>
+      <c r="AE3" s="0" t="str">
+        <v>Spanish II 4th</v>
+      </c>
+      <c r="AF3" s="0" t="str">
+        <v>Spanish II 1st</v>
+      </c>
+      <c r="AG3" s="0" t="str">
+        <v>Spanish II 4th</v>
+      </c>
+      <c r="AH3" s="0" t="str">
+        <v>Spanish II 1st</v>
+      </c>
+      <c r="AI3" s="0" t="str">
+        <v>Spanish II 1st</v>
+      </c>
+      <c r="AJ3" s="0" t="str">
+        <v>Spanish II 4th</v>
+      </c>
+      <c r="AK3" s="0" t="str">
+        <v>Spanish II 1st</v>
+      </c>
+      <c r="AL3" s="0" t="str">
+        <v>Spanish II 1st</v>
+      </c>
+      <c r="AM3" s="0" t="str">
+        <v>Spanish II 1st</v>
+      </c>
+      <c r="AN3" s="0" t="str">
+        <v>Spanish II 4th</v>
+      </c>
+    </row>
+    <row r="4" spans="1:40" customFormat="false">
+      <c r="A4" s="0" t="str">
         <v>NOVICE ask/respond to  predictable, formulaic questions</v>
       </c>
+      <c r="B4" s="0" t="str">
+        <v xml:space="preserve"> A-C</v>
+      </c>
+      <c r="C4" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="D4" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="E4" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="F4" s="0" t="str">
+        <v xml:space="preserve"> A-C</v>
+      </c>
+      <c r="G4" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="H4" s="0" t="str">
+        <v xml:space="preserve"> -B-</v>
+      </c>
+      <c r="I4" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="J4" s="0" t="str">
+        <v xml:space="preserve"> A-C</v>
+      </c>
+      <c r="K4" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="L4" s="0" t="str">
+        <v xml:space="preserve"> A-C</v>
+      </c>
+      <c r="M4" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="N4" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="O4" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="P4" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="Q4" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="R4" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="S4" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="T4" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="U4" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="V4" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="W4" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="X4" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="Y4" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="Z4" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="AA4" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="AB4" s="0" t="str">
+        <v xml:space="preserve"> A-C</v>
+      </c>
+      <c r="AC4" s="0" t="str">
+        <v xml:space="preserve"> A-C</v>
+      </c>
+      <c r="AD4" s="0" t="str">
+        <v xml:space="preserve"> -B-</v>
+      </c>
+      <c r="AE4" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="AF4" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="AG4" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="AH4" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="AI4" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="AJ4" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="AK4" s="0" t="str">
+        <v xml:space="preserve"> A-C</v>
+      </c>
+      <c r="AL4" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="AM4" s="0" t="str">
+        <v xml:space="preserve"> A-C</v>
+      </c>
+      <c r="AN4" s="0" t="str">
+        <v xml:space="preserve"> A-C</v>
+      </c>
     </row>
-    <row r="4" spans="1:1" customFormat="false">
-      <c r="A4" s="0" t="str">
+    <row r="5" spans="1:40" customFormat="false">
+      <c r="A5" s="0" t="str">
         <v>NOVICE list, name, identify</v>
       </c>
+      <c r="B5" s="0" t="str">
+        <v xml:space="preserve"> -B-</v>
+      </c>
+      <c r="C5" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="D5" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="E5" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="F5" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="G5" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="H5" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="I5" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="J5" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="K5" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="L5" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="M5" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="N5" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="O5" s="0" t="str">
+        <v xml:space="preserve"> A-C</v>
+      </c>
+      <c r="P5" s="0" t="str">
+        <v xml:space="preserve"> -B-</v>
+      </c>
+      <c r="Q5" s="0" t="str">
+        <v xml:space="preserve"> A-C</v>
+      </c>
+      <c r="R5" s="0" t="str">
+        <v xml:space="preserve"> -B-</v>
+      </c>
+      <c r="S5" s="0" t="str">
+        <v xml:space="preserve"> -B-</v>
+      </c>
+      <c r="T5" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="U5" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="V5" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="W5" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="X5" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="Y5" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="Z5" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="AA5" s="0" t="str">
+        <v xml:space="preserve"> A-C</v>
+      </c>
+      <c r="AB5" s="0" t="str">
+        <v xml:space="preserve"> A-C</v>
+      </c>
+      <c r="AC5" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="AD5" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="AE5" s="0" t="str">
+        <v xml:space="preserve"> -B-</v>
+      </c>
+      <c r="AF5" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="AG5" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="AH5" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="AI5" s="0" t="str">
+        <v xml:space="preserve"> -B-</v>
+      </c>
+      <c r="AJ5" s="0" t="str">
+        <v xml:space="preserve"> A-C</v>
+      </c>
+      <c r="AK5" s="0" t="str">
+        <v xml:space="preserve"> A-C</v>
+      </c>
+      <c r="AL5" s="0" t="str">
+        <v xml:space="preserve"> -B-</v>
+      </c>
+      <c r="AM5" s="0" t="str">
+        <v xml:space="preserve"> A-C</v>
+      </c>
+      <c r="AN5" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
     </row>
-    <row r="5" spans="1:1" customFormat="false">
-      <c r="A5" s="0" t="str">
+    <row r="6" spans="1:40" customFormat="false">
+      <c r="A6" s="0" t="str">
         <v>INTERMEDIATE ask, answer variety of questions</v>
       </c>
+      <c r="B6" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="C6" s="0" t="str">
+        <v xml:space="preserve"> A-C</v>
+      </c>
+      <c r="D6" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="E6" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="F6" s="0" t="str">
+        <v xml:space="preserve"> A-C</v>
+      </c>
+      <c r="G6" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="H6" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="I6" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="J6" s="0" t="str">
+        <v xml:space="preserve"> A-C</v>
+      </c>
+      <c r="K6" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="L6" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="M6" s="0" t="str">
+        <v xml:space="preserve"> A-C</v>
+      </c>
+      <c r="N6" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="O6" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="P6" s="0" t="str">
+        <v xml:space="preserve"> A-C</v>
+      </c>
+      <c r="Q6" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="R6" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="S6" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="T6" s="0" t="str">
+        <v xml:space="preserve"> -B-</v>
+      </c>
+      <c r="U6" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="V6" s="0" t="str">
+        <v xml:space="preserve"> -B-</v>
+      </c>
+      <c r="W6" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="X6" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="Y6" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="Z6" s="0" t="str">
+        <v xml:space="preserve"> A-C</v>
+      </c>
+      <c r="AA6" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="AB6" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="AC6" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="AD6" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="AE6" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="AF6" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="AG6" s="0" t="str">
+        <v xml:space="preserve"> A-C</v>
+      </c>
+      <c r="AH6" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="AI6" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="AJ6" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="AK6" s="0" t="str">
+        <v xml:space="preserve"> -B-</v>
+      </c>
+      <c r="AL6" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="AM6" s="0" t="str">
+        <v xml:space="preserve"> A-C</v>
+      </c>
+      <c r="AN6" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
     </row>
-    <row r="6" spans="1:1" customFormat="false">
-      <c r="A6" s="0" t="str">
+    <row r="7" spans="1:40" customFormat="false">
+      <c r="A7" s="0" t="str">
         <v>INTERMEDIATE initiate, maintain, end conversation for basic needs/transactions</v>
       </c>
+      <c r="B7" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="C7" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="D7" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="E7" s="0" t="str">
+        <v xml:space="preserve"> -B-</v>
+      </c>
+      <c r="F7" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="G7" s="0" t="str">
+        <v xml:space="preserve"> -B-</v>
+      </c>
+      <c r="H7" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="I7" s="0" t="str">
+        <v xml:space="preserve"> A-C</v>
+      </c>
+      <c r="J7" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="K7" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="L7" s="0" t="str">
+        <v xml:space="preserve"> -B-</v>
+      </c>
+      <c r="M7" s="0" t="str">
+        <v xml:space="preserve"> A-C</v>
+      </c>
+      <c r="N7" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="O7" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="P7" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="Q7" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="R7" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="S7" s="0" t="str">
+        <v xml:space="preserve"> -B-</v>
+      </c>
+      <c r="T7" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="U7" s="0" t="str">
+        <v xml:space="preserve"> A-C</v>
+      </c>
+      <c r="V7" s="0" t="str">
+        <v xml:space="preserve"> -B-</v>
+      </c>
+      <c r="W7" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="X7" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="Y7" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="Z7" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="AA7" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="AB7" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="AC7" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="AD7" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="AE7" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="AF7" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="AG7" s="0" t="str">
+        <v xml:space="preserve"> A-C</v>
+      </c>
+      <c r="AH7" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="AI7" s="0" t="str">
+        <v xml:space="preserve"> A-C</v>
+      </c>
+      <c r="AJ7" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="AK7" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="AL7" s="0" t="str">
+        <v xml:space="preserve"> -B-</v>
+      </c>
+      <c r="AM7" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="AN7" s="0" t="str">
+        <v xml:space="preserve"> -B-</v>
+      </c>
     </row>
-    <row r="7" spans="1:1" customFormat="false">
-      <c r="A7" s="0" t="str">
+    <row r="8" spans="1:40" customFormat="false">
+      <c r="A8" s="0" t="str">
         <v>INTERMEDIATE communicate beyond "here &amp; now</v>
       </c>
+      <c r="B8" s="0" t="str">
+        <v xml:space="preserve"> A-C</v>
+      </c>
+      <c r="C8" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="D8" s="0" t="str">
+        <v xml:space="preserve"> -B-</v>
+      </c>
+      <c r="E8" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="F8" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="G8" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="H8" s="0" t="str">
+        <v xml:space="preserve"> A-C</v>
+      </c>
+      <c r="I8" s="0" t="str">
+        <v xml:space="preserve"> -B-</v>
+      </c>
+      <c r="J8" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="K8" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="L8" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="M8" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="N8" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="O8" s="0" t="str">
+        <v xml:space="preserve"> -B-</v>
+      </c>
+      <c r="P8" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="Q8" s="0" t="str">
+        <v xml:space="preserve"> -B-</v>
+      </c>
+      <c r="R8" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="S8" s="0" t="str">
+        <v xml:space="preserve"> A-C</v>
+      </c>
+      <c r="T8" s="0" t="str">
+        <v xml:space="preserve"> A-C</v>
+      </c>
+      <c r="U8" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="V8" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="W8" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="X8" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="Y8" s="0" t="str">
+        <v xml:space="preserve"> A-C</v>
+      </c>
+      <c r="Z8" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="AA8" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="AB8" s="0" t="str">
+        <v xml:space="preserve"> -B-</v>
+      </c>
+      <c r="AC8" s="0" t="str">
+        <v xml:space="preserve"> -B-</v>
+      </c>
+      <c r="AD8" s="0" t="str">
+        <v xml:space="preserve"> A-C</v>
+      </c>
+      <c r="AE8" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="AF8" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="AG8" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="AH8" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="AI8" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="AJ8" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="AK8" s="0" t="str">
+        <v xml:space="preserve"> -B-</v>
+      </c>
+      <c r="AL8" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="AM8" s="0" t="str">
+        <v xml:space="preserve"> -B-</v>
+      </c>
+      <c r="AN8" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
     </row>
-    <row r="8" spans="1:1" customFormat="false">
-      <c r="A8" s="0" t="str">
+    <row r="9" spans="1:40" customFormat="false">
+      <c r="A9" s="0" t="str">
         <v>NOVICE practiced words, phrases, sentences</v>
       </c>
+      <c r="B9" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="C9" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="D9" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="E9" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="F9" s="0" t="str">
+        <v xml:space="preserve"> A-C</v>
+      </c>
+      <c r="G9" s="0" t="str">
+        <v xml:space="preserve"> A-C</v>
+      </c>
+      <c r="H9" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="I9" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="J9" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="K9" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="L9" s="0" t="str">
+        <v xml:space="preserve"> A-C</v>
+      </c>
+      <c r="M9" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="N9" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="O9" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="P9" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="Q9" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="R9" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="S9" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="T9" s="0" t="str">
+        <v xml:space="preserve"> -B-</v>
+      </c>
+      <c r="U9" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="V9" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="W9" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="X9" s="0" t="str">
+        <v xml:space="preserve"> A-C</v>
+      </c>
+      <c r="Y9" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="Z9" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="AA9" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="AB9" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="AC9" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="AD9" s="0" t="str">
+        <v xml:space="preserve"> -B-</v>
+      </c>
+      <c r="AE9" s="0" t="str">
+        <v xml:space="preserve"> -B-</v>
+      </c>
+      <c r="AF9" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="AG9" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="AH9" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="AI9" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="AJ9" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="AK9" s="0" t="str">
+        <v xml:space="preserve"> A-C</v>
+      </c>
+      <c r="AL9" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="AM9" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="AN9" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
     </row>
-    <row r="9" spans="1:1" customFormat="false">
-      <c r="A9" s="0" t="str">
+    <row r="10" spans="1:40" customFormat="false">
+      <c r="A10" s="0" t="str">
         <v>NOVICE formulaic/memorized questions</v>
       </c>
+      <c r="B10" s="0" t="str">
+        <v xml:space="preserve"> A-C</v>
+      </c>
+      <c r="C10" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="D10" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="E10" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="F10" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="G10" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="H10" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="I10" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="J10" s="0" t="str">
+        <v xml:space="preserve"> A-C</v>
+      </c>
+      <c r="K10" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="L10" s="0" t="str">
+        <v xml:space="preserve"> -B-</v>
+      </c>
+      <c r="M10" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="N10" s="0" t="str">
+        <v xml:space="preserve"> A-C</v>
+      </c>
+      <c r="O10" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="P10" s="0" t="str">
+        <v xml:space="preserve"> A-C</v>
+      </c>
+      <c r="Q10" s="0" t="str">
+        <v xml:space="preserve"> A-C</v>
+      </c>
+      <c r="R10" s="0" t="str">
+        <v xml:space="preserve"> -B-</v>
+      </c>
+      <c r="S10" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="T10" s="0" t="str">
+        <v xml:space="preserve"> -B-</v>
+      </c>
+      <c r="U10" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="V10" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="W10" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="X10" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="Y10" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="Z10" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="AA10" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="AB10" s="0" t="str">
+        <v xml:space="preserve"> -B-</v>
+      </c>
+      <c r="AC10" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="AD10" s="0" t="str">
+        <v xml:space="preserve"> -B-</v>
+      </c>
+      <c r="AE10" s="0" t="str">
+        <v xml:space="preserve"> A-C</v>
+      </c>
+      <c r="AF10" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="AG10" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="AH10" s="0" t="str">
+        <v xml:space="preserve"> A-C</v>
+      </c>
+      <c r="AI10" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="AJ10" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="AK10" s="0" t="str">
+        <v xml:space="preserve"> A-C</v>
+      </c>
+      <c r="AL10" s="0" t="str">
+        <v xml:space="preserve"> A-C</v>
+      </c>
+      <c r="AM10" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="AN10" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
     </row>
-    <row r="10" spans="1:1" customFormat="false">
-      <c r="A10" s="0" t="str">
+    <row r="11" spans="1:40" customFormat="false">
+      <c r="A11" s="0" t="str">
         <v>INTERMEDIATE strings of sentences</v>
       </c>
+      <c r="B11" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="C11" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="D11" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="E11" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="F11" s="0" t="str">
+        <v xml:space="preserve"> A-C</v>
+      </c>
+      <c r="G11" s="0" t="str">
+        <v xml:space="preserve"> A-C</v>
+      </c>
+      <c r="H11" s="0" t="str">
+        <v xml:space="preserve"> A-C</v>
+      </c>
+      <c r="I11" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="J11" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="K11" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="L11" s="0" t="str">
+        <v xml:space="preserve"> -B-</v>
+      </c>
+      <c r="M11" s="0" t="str">
+        <v xml:space="preserve"> A-C</v>
+      </c>
+      <c r="N11" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="O11" s="0" t="str">
+        <v xml:space="preserve"> A-C</v>
+      </c>
+      <c r="P11" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="Q11" s="0" t="str">
+        <v xml:space="preserve"> -B-</v>
+      </c>
+      <c r="R11" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="S11" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="T11" s="0" t="str">
+        <v xml:space="preserve"> A-C</v>
+      </c>
+      <c r="U11" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="V11" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="W11" s="0" t="str">
+        <v xml:space="preserve"> -B-</v>
+      </c>
+      <c r="X11" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="Y11" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="Z11" s="0" t="str">
+        <v xml:space="preserve"> A-C</v>
+      </c>
+      <c r="AA11" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="AB11" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="AC11" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="AD11" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="AE11" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="AF11" s="0" t="str">
+        <v xml:space="preserve"> A-C</v>
+      </c>
+      <c r="AG11" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="AH11" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="AI11" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="AJ11" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="AK11" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="AL11" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="AM11" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="AN11" s="0" t="str">
+        <v xml:space="preserve"> -B-</v>
+      </c>
     </row>
-    <row r="11" spans="1:1" customFormat="false">
-      <c r="A11" s="0" t="str">
+    <row r="12" spans="1:40" customFormat="false">
+      <c r="A12" s="0" t="str">
         <v>INTERMEDIATE connected sentences</v>
       </c>
+      <c r="B12" s="0" t="str">
+        <v xml:space="preserve"> A-C</v>
+      </c>
+      <c r="C12" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="D12" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="E12" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="F12" s="0" t="str">
+        <v xml:space="preserve"> A-C</v>
+      </c>
+      <c r="G12" s="0" t="str">
+        <v xml:space="preserve"> A-C</v>
+      </c>
+      <c r="H12" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="I12" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="J12" s="0" t="str">
+        <v xml:space="preserve"> -B-</v>
+      </c>
+      <c r="K12" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="L12" s="0" t="str">
+        <v xml:space="preserve"> A-C</v>
+      </c>
+      <c r="M12" s="0" t="str">
+        <v xml:space="preserve"> A-C</v>
+      </c>
+      <c r="N12" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="O12" s="0" t="str">
+        <v xml:space="preserve"> A-C</v>
+      </c>
+      <c r="P12" s="0" t="str">
+        <v xml:space="preserve"> -B-</v>
+      </c>
+      <c r="Q12" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="R12" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="S12" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="T12" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="U12" s="0" t="str">
+        <v xml:space="preserve"> A-C</v>
+      </c>
+      <c r="V12" s="0" t="str">
+        <v xml:space="preserve"> A-C</v>
+      </c>
+      <c r="W12" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="X12" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="Y12" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="Z12" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="AA12" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="AB12" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="AC12" s="0" t="str">
+        <v xml:space="preserve"> -B-</v>
+      </c>
+      <c r="AD12" s="0" t="str">
+        <v xml:space="preserve"> -B-</v>
+      </c>
+      <c r="AE12" s="0" t="str">
+        <v xml:space="preserve"> -B-</v>
+      </c>
+      <c r="AF12" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="AG12" s="0" t="str">
+        <v xml:space="preserve"> A-C</v>
+      </c>
+      <c r="AH12" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="AI12" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="AJ12" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="AK12" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="AL12" s="0" t="str">
+        <v xml:space="preserve"> -B-</v>
+      </c>
+      <c r="AM12" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="AN12" s="0" t="str">
+        <v xml:space="preserve"> -B-</v>
+      </c>
     </row>
-    <row r="12" spans="1:1" customFormat="false">
-      <c r="A12" s="0" t="str">
+    <row r="13" spans="1:40" customFormat="false">
+      <c r="A13" s="0" t="str">
         <v>INTERMEDIATE ask questions to initiate/ sustain conversation</v>
       </c>
+      <c r="B13" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="C13" s="0" t="str">
+        <v xml:space="preserve"> A-C</v>
+      </c>
+      <c r="D13" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="E13" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="F13" s="0" t="str">
+        <v xml:space="preserve"> A-C</v>
+      </c>
+      <c r="G13" s="0" t="str">
+        <v xml:space="preserve"> -B-</v>
+      </c>
+      <c r="H13" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="I13" s="0" t="str">
+        <v xml:space="preserve"> -B-</v>
+      </c>
+      <c r="J13" s="0" t="str">
+        <v xml:space="preserve"> A-C</v>
+      </c>
+      <c r="K13" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="L13" s="0" t="str">
+        <v xml:space="preserve"> -B-</v>
+      </c>
+      <c r="M13" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="N13" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="O13" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="P13" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="Q13" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="R13" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="S13" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="T13" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="U13" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="V13" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="W13" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="X13" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="Y13" s="0" t="str">
+        <v xml:space="preserve"> A-C</v>
+      </c>
+      <c r="Z13" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="AA13" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="AB13" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="AC13" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="AD13" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="AE13" s="0" t="str">
+        <v xml:space="preserve"> A-C</v>
+      </c>
+      <c r="AF13" s="0" t="str">
+        <v xml:space="preserve"> -B-</v>
+      </c>
+      <c r="AG13" s="0" t="str">
+        <v xml:space="preserve"> A-C</v>
+      </c>
+      <c r="AH13" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="AI13" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="AJ13" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="AK13" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="AL13" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="AM13" s="0" t="str">
+        <v xml:space="preserve"> A-C</v>
+      </c>
+      <c r="AN13" s="0" t="str">
+        <v xml:space="preserve"> A-C</v>
+      </c>
     </row>
-    <row r="13" spans="1:1" customFormat="false">
-      <c r="A13" s="0" t="str">
+    <row r="14" spans="1:40" customFormat="false">
+      <c r="A14" s="0" t="str">
         <v>NOVICE high-frequency</v>
       </c>
+      <c r="B14" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="C14" s="0" t="str">
+        <v xml:space="preserve"> A-C</v>
+      </c>
+      <c r="D14" s="0" t="str">
+        <v xml:space="preserve"> A-C</v>
+      </c>
+      <c r="E14" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="F14" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="G14" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="H14" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="I14" s="0" t="str">
+        <v xml:space="preserve"> -B-</v>
+      </c>
+      <c r="J14" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="K14" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="L14" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="M14" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="N14" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="O14" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="P14" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="Q14" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="R14" s="0" t="str">
+        <v xml:space="preserve"> A-C</v>
+      </c>
+      <c r="S14" s="0" t="str">
+        <v xml:space="preserve"> A-C</v>
+      </c>
+      <c r="T14" s="0" t="str">
+        <v xml:space="preserve"> A-C</v>
+      </c>
+      <c r="U14" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="V14" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="W14" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="X14" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="Y14" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="Z14" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="AA14" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="AB14" s="0" t="str">
+        <v xml:space="preserve"> A-C</v>
+      </c>
+      <c r="AC14" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="AD14" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="AE14" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="AF14" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="AG14" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="AH14" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="AI14" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="AJ14" s="0" t="str">
+        <v xml:space="preserve"> A-C</v>
+      </c>
+      <c r="AK14" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="AL14" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="AM14" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="AN14" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
     </row>
-    <row r="14" spans="1:1" customFormat="false">
-      <c r="A14" s="0" t="str">
+    <row r="15" spans="1:40" customFormat="false">
+      <c r="A15" s="0" t="str">
         <v>NOVICE formulaic</v>
       </c>
+      <c r="B15" s="0" t="str">
+        <v xml:space="preserve"> A-C</v>
+      </c>
+      <c r="C15" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="D15" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="E15" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="F15" s="0" t="str">
+        <v xml:space="preserve"> A-C</v>
+      </c>
+      <c r="G15" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="H15" s="0" t="str">
+        <v xml:space="preserve"> -B-</v>
+      </c>
+      <c r="I15" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="J15" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="K15" s="0" t="str">
+        <v xml:space="preserve"> A-C</v>
+      </c>
+      <c r="L15" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="M15" s="0" t="str">
+        <v xml:space="preserve"> A-C</v>
+      </c>
+      <c r="N15" s="0" t="str">
+        <v xml:space="preserve"> -B-</v>
+      </c>
+      <c r="O15" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="P15" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="Q15" s="0" t="str">
+        <v xml:space="preserve"> A-C</v>
+      </c>
+      <c r="R15" s="0" t="str">
+        <v xml:space="preserve"> -B-</v>
+      </c>
+      <c r="S15" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="T15" s="0" t="str">
+        <v xml:space="preserve"> -B-</v>
+      </c>
+      <c r="U15" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="V15" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="W15" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="X15" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="Y15" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="Z15" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="AA15" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="AB15" s="0" t="str">
+        <v xml:space="preserve"> -B-</v>
+      </c>
+      <c r="AC15" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="AD15" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="AE15" s="0" t="str">
+        <v xml:space="preserve"> -B-</v>
+      </c>
+      <c r="AF15" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="AG15" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="AH15" s="0" t="str">
+        <v xml:space="preserve"> A-C</v>
+      </c>
+      <c r="AI15" s="0" t="str">
+        <v xml:space="preserve"> A-C</v>
+      </c>
+      <c r="AJ15" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="AK15" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="AL15" s="0" t="str">
+        <v xml:space="preserve"> -B-</v>
+      </c>
+      <c r="AM15" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="AN15" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
     </row>
-    <row r="15" spans="1:1" customFormat="false">
-      <c r="A15" s="0" t="str">
+    <row r="16" spans="1:40" customFormat="false">
+      <c r="A16" s="0" t="str">
         <v>NOVICE practiced</v>
       </c>
+      <c r="B16" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="C16" s="0" t="str">
+        <v xml:space="preserve"> A-C</v>
+      </c>
+      <c r="D16" s="0" t="str">
+        <v xml:space="preserve"> A-C</v>
+      </c>
+      <c r="E16" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="F16" s="0" t="str">
+        <v xml:space="preserve"> A-C</v>
+      </c>
+      <c r="G16" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="H16" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="I16" s="0" t="str">
+        <v xml:space="preserve"> A-C</v>
+      </c>
+      <c r="J16" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="K16" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="L16" s="0" t="str">
+        <v xml:space="preserve"> A-C</v>
+      </c>
+      <c r="M16" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="N16" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="O16" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="P16" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="Q16" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="R16" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="S16" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="T16" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="U16" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="V16" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="W16" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="X16" s="0" t="str">
+        <v xml:space="preserve"> A-C</v>
+      </c>
+      <c r="Y16" s="0" t="str">
+        <v xml:space="preserve"> A-C</v>
+      </c>
+      <c r="Z16" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="AA16" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="AB16" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="AC16" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="AD16" s="0" t="str">
+        <v xml:space="preserve"> -B-</v>
+      </c>
+      <c r="AE16" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="AF16" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="AG16" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="AH16" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="AI16" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="AJ16" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="AK16" s="0" t="str">
+        <v xml:space="preserve"> A-C</v>
+      </c>
+      <c r="AL16" s="0" t="str">
+        <v xml:space="preserve"> -B-</v>
+      </c>
+      <c r="AM16" s="0" t="str">
+        <v xml:space="preserve"> A-C</v>
+      </c>
+      <c r="AN16" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
     </row>
-    <row r="16" spans="1:1" customFormat="false">
-      <c r="A16" s="0" t="str">
+    <row r="17" spans="1:40" customFormat="false">
+      <c r="A17" s="0" t="str">
         <v>INTERMEDIATE familiar themes/topics</v>
       </c>
+      <c r="B17" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="C17" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="D17" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="E17" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="F17" s="0" t="str">
+        <v xml:space="preserve"> A-C</v>
+      </c>
+      <c r="G17" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="H17" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="I17" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="J17" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="K17" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="L17" s="0" t="str">
+        <v xml:space="preserve"> A-C</v>
+      </c>
+      <c r="M17" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="N17" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="O17" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="P17" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="Q17" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="R17" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="S17" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="T17" s="0" t="str">
+        <v xml:space="preserve"> A-C</v>
+      </c>
+      <c r="U17" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="V17" s="0" t="str">
+        <v xml:space="preserve"> -B-</v>
+      </c>
+      <c r="W17" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="X17" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="Y17" s="0" t="str">
+        <v xml:space="preserve"> A-C</v>
+      </c>
+      <c r="Z17" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="AA17" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="AB17" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="AC17" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="AD17" s="0" t="str">
+        <v xml:space="preserve"> A-C</v>
+      </c>
+      <c r="AE17" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="AF17" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="AG17" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="AH17" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="AI17" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="AJ17" s="0" t="str">
+        <v xml:space="preserve"> -B-</v>
+      </c>
+      <c r="AK17" s="0" t="str">
+        <v xml:space="preserve"> -B-</v>
+      </c>
+      <c r="AL17" s="0" t="str">
+        <v xml:space="preserve"> A-C</v>
+      </c>
+      <c r="AM17" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="AN17" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
     </row>
-    <row r="17" spans="1:1" customFormat="false">
-      <c r="A17" s="0" t="str">
+    <row r="18" spans="1:40" customFormat="false">
+      <c r="A18" s="0" t="str">
         <v>INTERMEDIATE personalized</v>
       </c>
+      <c r="B18" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="C18" s="0" t="str">
+        <v xml:space="preserve"> A-C</v>
+      </c>
+      <c r="D18" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="E18" s="0" t="str">
+        <v xml:space="preserve"> -B-</v>
+      </c>
+      <c r="F18" s="0" t="str">
+        <v xml:space="preserve"> A-C</v>
+      </c>
+      <c r="G18" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="H18" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="I18" s="0" t="str">
+        <v xml:space="preserve"> -B-</v>
+      </c>
+      <c r="J18" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="K18" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="L18" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="M18" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="N18" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="O18" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="P18" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="Q18" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="R18" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="S18" s="0" t="str">
+        <v xml:space="preserve"> -B-</v>
+      </c>
+      <c r="T18" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="U18" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="V18" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="W18" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="X18" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="Y18" s="0" t="str">
+        <v xml:space="preserve"> -B-</v>
+      </c>
+      <c r="Z18" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="AA18" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="AB18" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="AC18" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="AD18" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="AE18" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="AF18" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="AG18" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="AH18" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="AI18" s="0" t="str">
+        <v xml:space="preserve"> A-C</v>
+      </c>
+      <c r="AJ18" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="AK18" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="AL18" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="AM18" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="AN18" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
     </row>
-    <row r="18" spans="1:1" customFormat="false">
-      <c r="A18" s="0" t="str">
+    <row r="19" spans="1:40" customFormat="false">
+      <c r="A19" s="0" t="str">
         <v>NOVICE imitate modeled words</v>
       </c>
+      <c r="B19" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="C19" s="0" t="str">
+        <v xml:space="preserve"> A-C</v>
+      </c>
+      <c r="D19" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="E19" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="F19" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="G19" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="H19" s="0" t="str">
+        <v xml:space="preserve"> -B-</v>
+      </c>
+      <c r="I19" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="J19" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="K19" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="L19" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="M19" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="N19" s="0" t="str">
+        <v xml:space="preserve"> A-C</v>
+      </c>
+      <c r="O19" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="P19" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="Q19" s="0" t="str">
+        <v xml:space="preserve"> A-C</v>
+      </c>
+      <c r="R19" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="S19" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="T19" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="U19" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="V19" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="W19" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="X19" s="0" t="str">
+        <v xml:space="preserve"> A-C</v>
+      </c>
+      <c r="Y19" s="0" t="str">
+        <v xml:space="preserve"> -B-</v>
+      </c>
+      <c r="Z19" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="AA19" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="AB19" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="AC19" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="AD19" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="AE19" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="AF19" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="AG19" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="AH19" s="0" t="str">
+        <v xml:space="preserve"> -B-</v>
+      </c>
+      <c r="AI19" s="0" t="str">
+        <v xml:space="preserve"> A-C</v>
+      </c>
+      <c r="AJ19" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="AK19" s="0" t="str">
+        <v xml:space="preserve"> A-C</v>
+      </c>
+      <c r="AL19" s="0" t="str">
+        <v xml:space="preserve"> -B-</v>
+      </c>
+      <c r="AM19" s="0" t="str">
+        <v xml:space="preserve"> A-C</v>
+      </c>
+      <c r="AN19" s="0" t="str">
+        <v xml:space="preserve"> -B-</v>
+      </c>
     </row>
-    <row r="19" spans="1:1" customFormat="false">
-      <c r="A19" s="0" t="str">
+    <row r="20" spans="1:40" customFormat="false">
+      <c r="A20" s="0" t="str">
         <v>NOVICE use facial expressions, gestures</v>
       </c>
+      <c r="B20" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="C20" s="0" t="str">
+        <v xml:space="preserve"> -B-</v>
+      </c>
+      <c r="D20" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="E20" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="F20" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="G20" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="H20" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="I20" s="0" t="str">
+        <v xml:space="preserve"> -B-</v>
+      </c>
+      <c r="J20" s="0" t="str">
+        <v xml:space="preserve"> -B-</v>
+      </c>
+      <c r="K20" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="L20" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="M20" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="N20" s="0" t="str">
+        <v xml:space="preserve"> -B-</v>
+      </c>
+      <c r="O20" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="P20" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="Q20" s="0" t="str">
+        <v xml:space="preserve"> -B-</v>
+      </c>
+      <c r="R20" s="0" t="str">
+        <v xml:space="preserve"> A-C</v>
+      </c>
+      <c r="S20" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="T20" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="U20" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="V20" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="W20" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="X20" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="Y20" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="Z20" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="AA20" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="AB20" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="AC20" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="AD20" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="AE20" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="AF20" s="0" t="str">
+        <v xml:space="preserve"> A-C</v>
+      </c>
+      <c r="AG20" s="0" t="str">
+        <v xml:space="preserve"> -B-</v>
+      </c>
+      <c r="AH20" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="AI20" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="AJ20" s="0" t="str">
+        <v xml:space="preserve"> A-C</v>
+      </c>
+      <c r="AK20" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="AL20" s="0" t="str">
+        <v xml:space="preserve"> -B-</v>
+      </c>
+      <c r="AM20" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="AN20" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
     </row>
-    <row r="20" spans="1:1" customFormat="false">
-      <c r="A20" s="0" t="str">
+    <row r="21" spans="1:40" customFormat="false">
+      <c r="A21" s="0" t="str">
         <v>NOVICE resort to first language</v>
       </c>
+      <c r="B21" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="C21" s="0" t="str">
+        <v xml:space="preserve"> -B-</v>
+      </c>
+      <c r="D21" s="0" t="str">
+        <v xml:space="preserve"> A-C</v>
+      </c>
+      <c r="E21" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="F21" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="G21" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="H21" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="I21" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="J21" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="K21" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="L21" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="M21" s="0" t="str">
+        <v xml:space="preserve"> -B-</v>
+      </c>
+      <c r="N21" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="O21" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="P21" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="Q21" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="R21" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="S21" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="T21" s="0" t="str">
+        <v xml:space="preserve"> -B-</v>
+      </c>
+      <c r="U21" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="V21" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="W21" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="X21" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="Y21" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="Z21" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="AA21" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="AB21" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="AC21" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="AD21" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="AE21" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="AF21" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="AG21" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="AH21" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="AI21" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="AJ21" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="AK21" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="AL21" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="AM21" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="AN21" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
     </row>
-    <row r="21" spans="1:1" customFormat="false">
-      <c r="A21" s="0" t="str">
+    <row r="22" spans="1:40" customFormat="false">
+      <c r="A22" s="0" t="str">
         <v>NOVICE repeat/request repetition</v>
       </c>
+      <c r="B22" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="C22" s="0" t="str">
+        <v xml:space="preserve"> -B-</v>
+      </c>
+      <c r="D22" s="0" t="str">
+        <v xml:space="preserve"> A-C</v>
+      </c>
+      <c r="E22" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="F22" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="G22" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="H22" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="I22" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="J22" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="K22" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="L22" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="M22" s="0" t="str">
+        <v xml:space="preserve"> -B-</v>
+      </c>
+      <c r="N22" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="O22" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="P22" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="Q22" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="R22" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="S22" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="T22" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="U22" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="V22" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="W22" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="X22" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="Y22" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="Z22" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="AA22" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="AB22" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="AC22" s="0" t="str">
+        <v xml:space="preserve"> A-C</v>
+      </c>
+      <c r="AD22" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="AE22" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="AF22" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="AG22" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="AH22" s="0" t="str">
+        <v xml:space="preserve"> -B-</v>
+      </c>
+      <c r="AI22" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="AJ22" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="AK22" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="AL22" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="AM22" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="AN22" s="0" t="str">
+        <v xml:space="preserve"> -B-</v>
+      </c>
     </row>
-    <row r="22" spans="1:1" customFormat="false">
-      <c r="A22" s="0" t="str">
+    <row r="23" spans="1:40" customFormat="false">
+      <c r="A23" s="0" t="str">
         <v>NOVICE indicate lack of understanding</v>
       </c>
+      <c r="B23" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="C23" s="0" t="str">
+        <v xml:space="preserve"> -B-</v>
+      </c>
+      <c r="D23" s="0" t="str">
+        <v xml:space="preserve"> A-C</v>
+      </c>
+      <c r="E23" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="F23" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="G23" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="H23" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="I23" s="0" t="str">
+        <v xml:space="preserve"> A-C</v>
+      </c>
+      <c r="J23" s="0" t="str">
+        <v xml:space="preserve"> A-C</v>
+      </c>
+      <c r="K23" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="L23" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="M23" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="N23" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="O23" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="P23" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="Q23" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="R23" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="S23" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="T23" s="0" t="str">
+        <v xml:space="preserve"> -B-</v>
+      </c>
+      <c r="U23" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="V23" s="0" t="str">
+        <v xml:space="preserve"> A-C</v>
+      </c>
+      <c r="W23" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="X23" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="Y23" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="Z23" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="AA23" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="AB23" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="AC23" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="AD23" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="AE23" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="AF23" s="0" t="str">
+        <v xml:space="preserve"> A-C</v>
+      </c>
+      <c r="AG23" s="0" t="str">
+        <v xml:space="preserve"> -B-</v>
+      </c>
+      <c r="AH23" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="AI23" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="AJ23" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="AK23" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="AL23" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="AM23" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="AN23" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
     </row>
-    <row r="23" spans="1:1" customFormat="false">
-      <c r="A23" s="0" t="str">
+    <row r="24" spans="1:40" customFormat="false">
+      <c r="A24" s="0" t="str">
         <v>INTERMEDIATE ask questions, request clarification</v>
       </c>
+      <c r="B24" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="C24" s="0" t="str">
+        <v xml:space="preserve"> -B-</v>
+      </c>
+      <c r="D24" s="0" t="str">
+        <v xml:space="preserve"> A-C</v>
+      </c>
+      <c r="E24" s="0" t="str">
+        <v xml:space="preserve"> A-C</v>
+      </c>
+      <c r="F24" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="G24" s="0" t="str">
+        <v xml:space="preserve"> -B-</v>
+      </c>
+      <c r="H24" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="I24" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="J24" s="0" t="str">
+        <v xml:space="preserve"> A-C</v>
+      </c>
+      <c r="K24" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="L24" s="0" t="str">
+        <v xml:space="preserve"> -B-</v>
+      </c>
+      <c r="M24" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="N24" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="O24" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="P24" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="Q24" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="R24" s="0" t="str">
+        <v xml:space="preserve"> -B-</v>
+      </c>
+      <c r="S24" s="0" t="str">
+        <v xml:space="preserve"> -B-</v>
+      </c>
+      <c r="T24" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="U24" s="0" t="str">
+        <v xml:space="preserve"> A-C</v>
+      </c>
+      <c r="V24" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="W24" s="0" t="str">
+        <v xml:space="preserve"> -B-</v>
+      </c>
+      <c r="X24" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="Y24" s="0" t="str">
+        <v xml:space="preserve"> A-C</v>
+      </c>
+      <c r="Z24" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="AA24" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="AB24" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="AC24" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="AD24" s="0" t="str">
+        <v xml:space="preserve"> A-C</v>
+      </c>
+      <c r="AE24" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="AF24" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="AG24" s="0" t="str">
+        <v xml:space="preserve"> A-C</v>
+      </c>
+      <c r="AH24" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="AI24" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="AJ24" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="AK24" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="AL24" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="AM24" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="AN24" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
     </row>
-    <row r="24" spans="1:1" customFormat="false">
-      <c r="A24" s="0" t="str">
+    <row r="25" spans="1:40" customFormat="false">
+      <c r="A25" s="0" t="str">
         <v>INTERMEDIATE self-correct or restate when not understood</v>
       </c>
+      <c r="B25" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="C25" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="D25" s="0" t="str">
+        <v xml:space="preserve"> A-C</v>
+      </c>
+      <c r="E25" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="F25" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="G25" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="H25" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="I25" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="J25" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="K25" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="L25" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="M25" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="N25" s="0" t="str">
+        <v xml:space="preserve"> -B-</v>
+      </c>
+      <c r="O25" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="P25" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="Q25" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="R25" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="S25" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="T25" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="U25" s="0" t="str">
+        <v xml:space="preserve"> A-C</v>
+      </c>
+      <c r="V25" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="W25" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="X25" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="Y25" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="Z25" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="AA25" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="AB25" s="0" t="str">
+        <v xml:space="preserve"> -B-</v>
+      </c>
+      <c r="AC25" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="AD25" s="0" t="str">
+        <v xml:space="preserve"> -B-</v>
+      </c>
+      <c r="AE25" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="AF25" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="AG25" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="AH25" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="AI25" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="AJ25" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="AK25" s="0" t="str">
+        <v xml:space="preserve"> A-C</v>
+      </c>
+      <c r="AL25" s="0" t="str">
+        <v xml:space="preserve"> -B-</v>
+      </c>
+      <c r="AM25" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="AN25" s="0" t="str">
+        <v xml:space="preserve"> -B-</v>
+      </c>
     </row>
-    <row r="25" spans="1:1" customFormat="false">
-      <c r="A25" s="0" t="str">
+    <row r="26" spans="1:40" customFormat="false">
+      <c r="A26" s="0" t="str">
         <v>INTERMEDIATE circumlocute</v>
+      </c>
+      <c r="B26" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="C26" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="D26" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="E26" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="F26" s="0" t="str">
+        <v xml:space="preserve"> A-C</v>
+      </c>
+      <c r="G26" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="H26" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="I26" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="J26" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="K26" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="L26" s="0" t="str">
+        <v xml:space="preserve"> -B-</v>
+      </c>
+      <c r="M26" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="N26" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="O26" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="P26" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="Q26" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="R26" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="S26" s="0" t="str">
+        <v xml:space="preserve"> -B-</v>
+      </c>
+      <c r="T26" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="U26" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="V26" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="W26" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="X26" s="0" t="str">
+        <v xml:space="preserve"> -B-</v>
+      </c>
+      <c r="Y26" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="Z26" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="AA26" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="AB26" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="AC26" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="AD26" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="AE26" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="AF26" s="0" t="str">
+        <v xml:space="preserve"> -B-</v>
+      </c>
+      <c r="AG26" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="AH26" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="AI26" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
+      </c>
+      <c r="AJ26" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="AK26" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="AL26" s="0" t="str">
+        <v xml:space="preserve"> -B-</v>
+      </c>
+      <c r="AM26" s="0" t="str">
+        <v xml:space="preserve"> ABC</v>
+      </c>
+      <c r="AN26" s="0" t="str">
+        <v xml:space="preserve"> ---</v>
       </c>
     </row>
   </sheetData>

--- a/speaking.xlsx
+++ b/speaking.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="302" count="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="306" count="306">
   <si>
     <t>Timestamp</t>
   </si>
@@ -929,6 +929,18 @@
   </si>
   <si>
     <t>Be able to have the courage to speak.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A-C</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ABC</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ---</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -B-</t>
   </si>
 </sst>
 </file>
@@ -938,7 +950,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <name val="Arial"/>
       <color rgb="FF000000"/>
@@ -951,6 +963,12 @@
     <font>
       <name val="Arial"/>
       <color rgb="FF0000FF"/>
+      <sz val="10"/>
+      <u val="1"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <color theme="10"/>
       <sz val="10"/>
       <u val="1"/>
     </font>
@@ -972,16 +990,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -11998,13 +12019,13 @@
   <dimension ref="B1:AN26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="A1:AN27"/>
+      <selection activeCell="AN3" sqref="AN3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.7109375" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="27.5703125" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+    <col min="1" max="1" width="69.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:40" customFormat="false">
@@ -12369,7 +12390,7 @@
         <v>NOVICE ask/respond to  predictable, formulaic questions</v>
       </c>
       <c r="B4" s="0" t="str">
-        <v xml:space="preserve"> A-C</v>
+        <v xml:space="preserve"> A C</v>
       </c>
       <c r="C4" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -12378,28 +12399,28 @@
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="E4" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="F4" s="0" t="str">
-        <v xml:space="preserve"> A-C</v>
+        <v xml:space="preserve"> A C</v>
       </c>
       <c r="G4" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="H4" s="0" t="str">
-        <v xml:space="preserve"> -B-</v>
+        <v xml:space="preserve">  B </v>
       </c>
       <c r="I4" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="J4" s="0" t="str">
-        <v xml:space="preserve"> A-C</v>
+        <v xml:space="preserve"> A C</v>
       </c>
       <c r="K4" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="L4" s="0" t="str">
-        <v xml:space="preserve"> A-C</v>
+        <v xml:space="preserve"> A C</v>
       </c>
       <c r="M4" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -12411,13 +12432,13 @@
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="P4" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="Q4" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="R4" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="S4" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -12435,7 +12456,7 @@
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="X4" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="Y4" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -12444,16 +12465,16 @@
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="AA4" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="AB4" s="0" t="str">
-        <v xml:space="preserve"> A-C</v>
+        <v xml:space="preserve"> A C</v>
       </c>
       <c r="AC4" s="0" t="str">
-        <v xml:space="preserve"> A-C</v>
+        <v xml:space="preserve"> A C</v>
       </c>
       <c r="AD4" s="0" t="str">
-        <v xml:space="preserve"> -B-</v>
+        <v xml:space="preserve">  B </v>
       </c>
       <c r="AE4" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -12462,7 +12483,7 @@
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="AG4" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="AH4" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -12471,19 +12492,19 @@
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="AJ4" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="AK4" s="0" t="str">
-        <v xml:space="preserve"> A-C</v>
+        <v xml:space="preserve"> A C</v>
       </c>
       <c r="AL4" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="AM4" s="0" t="str">
-        <v xml:space="preserve"> A-C</v>
+        <v xml:space="preserve"> A C</v>
       </c>
       <c r="AN4" s="0" t="str">
-        <v xml:space="preserve"> A-C</v>
+        <v xml:space="preserve"> A C</v>
       </c>
     </row>
     <row r="5" spans="1:40" customFormat="false">
@@ -12491,7 +12512,7 @@
         <v>NOVICE list, name, identify</v>
       </c>
       <c r="B5" s="0" t="str">
-        <v xml:space="preserve"> -B-</v>
+        <v xml:space="preserve">  B </v>
       </c>
       <c r="C5" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -12500,55 +12521,55 @@
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="E5" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="F5" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="G5" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="H5" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="I5" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="J5" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="K5" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="L5" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="M5" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="N5" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="O5" s="0" t="str">
-        <v xml:space="preserve"> A-C</v>
+        <v xml:space="preserve"> A C</v>
       </c>
       <c r="P5" s="0" t="str">
-        <v xml:space="preserve"> -B-</v>
+        <v xml:space="preserve">  B </v>
       </c>
       <c r="Q5" s="0" t="str">
-        <v xml:space="preserve"> A-C</v>
+        <v xml:space="preserve"> A C</v>
       </c>
       <c r="R5" s="0" t="str">
-        <v xml:space="preserve"> -B-</v>
+        <v xml:space="preserve">  B </v>
       </c>
       <c r="S5" s="0" t="str">
-        <v xml:space="preserve"> -B-</v>
+        <v xml:space="preserve">  B </v>
       </c>
       <c r="T5" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="U5" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="V5" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -12557,31 +12578,31 @@
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="X5" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="Y5" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="Z5" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="AA5" s="0" t="str">
-        <v xml:space="preserve"> A-C</v>
+        <v xml:space="preserve"> A C</v>
       </c>
       <c r="AB5" s="0" t="str">
-        <v xml:space="preserve"> A-C</v>
+        <v xml:space="preserve"> A C</v>
       </c>
       <c r="AC5" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="AD5" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="AE5" s="0" t="str">
-        <v xml:space="preserve"> -B-</v>
+        <v xml:space="preserve">  B </v>
       </c>
       <c r="AF5" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="AG5" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -12590,22 +12611,22 @@
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="AI5" s="0" t="str">
-        <v xml:space="preserve"> -B-</v>
+        <v xml:space="preserve">  B </v>
       </c>
       <c r="AJ5" s="0" t="str">
-        <v xml:space="preserve"> A-C</v>
+        <v xml:space="preserve"> A C</v>
       </c>
       <c r="AK5" s="0" t="str">
-        <v xml:space="preserve"> A-C</v>
+        <v xml:space="preserve"> A C</v>
       </c>
       <c r="AL5" s="0" t="str">
-        <v xml:space="preserve"> -B-</v>
+        <v xml:space="preserve">  B </v>
       </c>
       <c r="AM5" s="0" t="str">
-        <v xml:space="preserve"> A-C</v>
+        <v xml:space="preserve"> A C</v>
       </c>
       <c r="AN5" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
     </row>
     <row r="6" spans="1:40" customFormat="false">
@@ -12616,7 +12637,7 @@
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="C6" s="0" t="str">
-        <v xml:space="preserve"> A-C</v>
+        <v xml:space="preserve"> A C</v>
       </c>
       <c r="D6" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -12625,7 +12646,7 @@
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="F6" s="0" t="str">
-        <v xml:space="preserve"> A-C</v>
+        <v xml:space="preserve"> A C</v>
       </c>
       <c r="G6" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -12637,7 +12658,7 @@
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="J6" s="0" t="str">
-        <v xml:space="preserve"> A-C</v>
+        <v xml:space="preserve"> A C</v>
       </c>
       <c r="K6" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -12646,7 +12667,7 @@
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="M6" s="0" t="str">
-        <v xml:space="preserve"> A-C</v>
+        <v xml:space="preserve"> A C</v>
       </c>
       <c r="N6" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -12655,7 +12676,7 @@
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="P6" s="0" t="str">
-        <v xml:space="preserve"> A-C</v>
+        <v xml:space="preserve"> A C</v>
       </c>
       <c r="Q6" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -12667,13 +12688,13 @@
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="T6" s="0" t="str">
-        <v xml:space="preserve"> -B-</v>
+        <v xml:space="preserve">  B </v>
       </c>
       <c r="U6" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="V6" s="0" t="str">
-        <v xml:space="preserve"> -B-</v>
+        <v xml:space="preserve">  B </v>
       </c>
       <c r="W6" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -12685,7 +12706,7 @@
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="Z6" s="0" t="str">
-        <v xml:space="preserve"> A-C</v>
+        <v xml:space="preserve"> A C</v>
       </c>
       <c r="AA6" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -12700,13 +12721,13 @@
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="AE6" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="AF6" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="AG6" s="0" t="str">
-        <v xml:space="preserve"> A-C</v>
+        <v xml:space="preserve"> A C</v>
       </c>
       <c r="AH6" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -12718,13 +12739,13 @@
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="AK6" s="0" t="str">
-        <v xml:space="preserve"> -B-</v>
+        <v xml:space="preserve">  B </v>
       </c>
       <c r="AL6" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="AM6" s="0" t="str">
-        <v xml:space="preserve"> A-C</v>
+        <v xml:space="preserve"> A C</v>
       </c>
       <c r="AN6" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -12744,19 +12765,19 @@
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="E7" s="0" t="str">
-        <v xml:space="preserve"> -B-</v>
+        <v xml:space="preserve">  B </v>
       </c>
       <c r="F7" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="G7" s="0" t="str">
-        <v xml:space="preserve"> -B-</v>
+        <v xml:space="preserve">  B </v>
       </c>
       <c r="H7" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="I7" s="0" t="str">
-        <v xml:space="preserve"> A-C</v>
+        <v xml:space="preserve"> A C</v>
       </c>
       <c r="J7" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -12765,19 +12786,19 @@
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="L7" s="0" t="str">
-        <v xml:space="preserve"> -B-</v>
+        <v xml:space="preserve">  B </v>
       </c>
       <c r="M7" s="0" t="str">
-        <v xml:space="preserve"> A-C</v>
+        <v xml:space="preserve"> A C</v>
       </c>
       <c r="N7" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="O7" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="P7" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="Q7" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -12786,16 +12807,16 @@
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="S7" s="0" t="str">
-        <v xml:space="preserve"> -B-</v>
+        <v xml:space="preserve">  B </v>
       </c>
       <c r="T7" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="U7" s="0" t="str">
-        <v xml:space="preserve"> A-C</v>
+        <v xml:space="preserve"> A C</v>
       </c>
       <c r="V7" s="0" t="str">
-        <v xml:space="preserve"> -B-</v>
+        <v xml:space="preserve">  B </v>
       </c>
       <c r="W7" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -12828,13 +12849,13 @@
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="AG7" s="0" t="str">
-        <v xml:space="preserve"> A-C</v>
+        <v xml:space="preserve"> A C</v>
       </c>
       <c r="AH7" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="AI7" s="0" t="str">
-        <v xml:space="preserve"> A-C</v>
+        <v xml:space="preserve"> A C</v>
       </c>
       <c r="AJ7" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -12843,13 +12864,13 @@
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="AL7" s="0" t="str">
-        <v xml:space="preserve"> -B-</v>
+        <v xml:space="preserve">  B </v>
       </c>
       <c r="AM7" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="AN7" s="0" t="str">
-        <v xml:space="preserve"> -B-</v>
+        <v xml:space="preserve">  B </v>
       </c>
     </row>
     <row r="8" spans="1:40" customFormat="false">
@@ -12857,121 +12878,121 @@
         <v>INTERMEDIATE communicate beyond "here &amp; now</v>
       </c>
       <c r="B8" s="0" t="str">
-        <v xml:space="preserve"> A-C</v>
+        <v xml:space="preserve"> A C</v>
       </c>
       <c r="C8" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="D8" s="0" t="str">
-        <v xml:space="preserve"> -B-</v>
+        <v xml:space="preserve">  B </v>
       </c>
       <c r="E8" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="F8" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="G8" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="H8" s="0" t="str">
-        <v xml:space="preserve"> A-C</v>
+        <v xml:space="preserve"> A C</v>
       </c>
       <c r="I8" s="0" t="str">
-        <v xml:space="preserve"> -B-</v>
+        <v xml:space="preserve">  B </v>
       </c>
       <c r="J8" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="K8" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="L8" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="M8" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="N8" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="O8" s="0" t="str">
-        <v xml:space="preserve"> -B-</v>
+        <v xml:space="preserve">  B </v>
       </c>
       <c r="P8" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="Q8" s="0" t="str">
-        <v xml:space="preserve"> -B-</v>
+        <v xml:space="preserve">  B </v>
       </c>
       <c r="R8" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="S8" s="0" t="str">
-        <v xml:space="preserve"> A-C</v>
+        <v xml:space="preserve"> A C</v>
       </c>
       <c r="T8" s="0" t="str">
-        <v xml:space="preserve"> A-C</v>
+        <v xml:space="preserve"> A C</v>
       </c>
       <c r="U8" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="V8" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="W8" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="X8" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="Y8" s="0" t="str">
-        <v xml:space="preserve"> A-C</v>
+        <v xml:space="preserve"> A C</v>
       </c>
       <c r="Z8" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="AA8" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="AB8" s="0" t="str">
-        <v xml:space="preserve"> -B-</v>
+        <v xml:space="preserve">  B </v>
       </c>
       <c r="AC8" s="0" t="str">
-        <v xml:space="preserve"> -B-</v>
+        <v xml:space="preserve">  B </v>
       </c>
       <c r="AD8" s="0" t="str">
-        <v xml:space="preserve"> A-C</v>
+        <v xml:space="preserve"> A C</v>
       </c>
       <c r="AE8" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="AF8" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="AG8" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="AH8" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="AI8" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="AJ8" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="AK8" s="0" t="str">
-        <v xml:space="preserve"> -B-</v>
+        <v xml:space="preserve">  B </v>
       </c>
       <c r="AL8" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="AM8" s="0" t="str">
-        <v xml:space="preserve"> -B-</v>
+        <v xml:space="preserve">  B </v>
       </c>
       <c r="AN8" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
     </row>
     <row r="9" spans="1:40" customFormat="false">
@@ -12988,13 +13009,13 @@
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="E9" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="F9" s="0" t="str">
-        <v xml:space="preserve"> A-C</v>
+        <v xml:space="preserve"> A C</v>
       </c>
       <c r="G9" s="0" t="str">
-        <v xml:space="preserve"> A-C</v>
+        <v xml:space="preserve"> A C</v>
       </c>
       <c r="H9" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -13006,10 +13027,10 @@
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="K9" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="L9" s="0" t="str">
-        <v xml:space="preserve"> A-C</v>
+        <v xml:space="preserve"> A C</v>
       </c>
       <c r="M9" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -13021,19 +13042,19 @@
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="P9" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="Q9" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="R9" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="S9" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="T9" s="0" t="str">
-        <v xml:space="preserve"> -B-</v>
+        <v xml:space="preserve">  B </v>
       </c>
       <c r="U9" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -13045,7 +13066,7 @@
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="X9" s="0" t="str">
-        <v xml:space="preserve"> A-C</v>
+        <v xml:space="preserve"> A C</v>
       </c>
       <c r="Y9" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -13054,7 +13075,7 @@
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="AA9" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="AB9" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -13063,10 +13084,10 @@
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="AD9" s="0" t="str">
-        <v xml:space="preserve"> -B-</v>
+        <v xml:space="preserve">  B </v>
       </c>
       <c r="AE9" s="0" t="str">
-        <v xml:space="preserve"> -B-</v>
+        <v xml:space="preserve">  B </v>
       </c>
       <c r="AF9" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -13081,10 +13102,10 @@
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="AJ9" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="AK9" s="0" t="str">
-        <v xml:space="preserve"> A-C</v>
+        <v xml:space="preserve"> A C</v>
       </c>
       <c r="AL9" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -13101,7 +13122,7 @@
         <v>NOVICE formulaic/memorized questions</v>
       </c>
       <c r="B10" s="0" t="str">
-        <v xml:space="preserve"> A-C</v>
+        <v xml:space="preserve"> A C</v>
       </c>
       <c r="C10" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -13110,10 +13131,10 @@
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="E10" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="F10" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="G10" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -13125,37 +13146,37 @@
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="J10" s="0" t="str">
-        <v xml:space="preserve"> A-C</v>
+        <v xml:space="preserve"> A C</v>
       </c>
       <c r="K10" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="L10" s="0" t="str">
-        <v xml:space="preserve"> -B-</v>
+        <v xml:space="preserve">  B </v>
       </c>
       <c r="M10" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="N10" s="0" t="str">
-        <v xml:space="preserve"> A-C</v>
+        <v xml:space="preserve"> A C</v>
       </c>
       <c r="O10" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="P10" s="0" t="str">
-        <v xml:space="preserve"> A-C</v>
+        <v xml:space="preserve"> A C</v>
       </c>
       <c r="Q10" s="0" t="str">
-        <v xml:space="preserve"> A-C</v>
+        <v xml:space="preserve"> A C</v>
       </c>
       <c r="R10" s="0" t="str">
-        <v xml:space="preserve"> -B-</v>
+        <v xml:space="preserve">  B </v>
       </c>
       <c r="S10" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="T10" s="0" t="str">
-        <v xml:space="preserve"> -B-</v>
+        <v xml:space="preserve">  B </v>
       </c>
       <c r="U10" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -13167,28 +13188,28 @@
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="X10" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="Y10" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="Z10" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="AA10" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="AB10" s="0" t="str">
-        <v xml:space="preserve"> -B-</v>
+        <v xml:space="preserve">  B </v>
       </c>
       <c r="AC10" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="AD10" s="0" t="str">
-        <v xml:space="preserve"> -B-</v>
+        <v xml:space="preserve">  B </v>
       </c>
       <c r="AE10" s="0" t="str">
-        <v xml:space="preserve"> A-C</v>
+        <v xml:space="preserve"> A C</v>
       </c>
       <c r="AF10" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -13197,25 +13218,25 @@
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="AH10" s="0" t="str">
-        <v xml:space="preserve"> A-C</v>
+        <v xml:space="preserve"> A C</v>
       </c>
       <c r="AI10" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="AJ10" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="AK10" s="0" t="str">
-        <v xml:space="preserve"> A-C</v>
+        <v xml:space="preserve"> A C</v>
       </c>
       <c r="AL10" s="0" t="str">
-        <v xml:space="preserve"> A-C</v>
+        <v xml:space="preserve"> A C</v>
       </c>
       <c r="AM10" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="AN10" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
     </row>
     <row r="11" spans="1:40" customFormat="false">
@@ -13226,7 +13247,7 @@
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="C11" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="D11" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -13235,13 +13256,13 @@
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="F11" s="0" t="str">
-        <v xml:space="preserve"> A-C</v>
+        <v xml:space="preserve"> A C</v>
       </c>
       <c r="G11" s="0" t="str">
-        <v xml:space="preserve"> A-C</v>
+        <v xml:space="preserve"> A C</v>
       </c>
       <c r="H11" s="0" t="str">
-        <v xml:space="preserve"> A-C</v>
+        <v xml:space="preserve"> A C</v>
       </c>
       <c r="I11" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -13253,40 +13274,40 @@
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="L11" s="0" t="str">
-        <v xml:space="preserve"> -B-</v>
+        <v xml:space="preserve">  B </v>
       </c>
       <c r="M11" s="0" t="str">
-        <v xml:space="preserve"> A-C</v>
+        <v xml:space="preserve"> A C</v>
       </c>
       <c r="N11" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="O11" s="0" t="str">
-        <v xml:space="preserve"> A-C</v>
+        <v xml:space="preserve"> A C</v>
       </c>
       <c r="P11" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="Q11" s="0" t="str">
-        <v xml:space="preserve"> -B-</v>
+        <v xml:space="preserve">  B </v>
       </c>
       <c r="R11" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="S11" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="T11" s="0" t="str">
-        <v xml:space="preserve"> A-C</v>
+        <v xml:space="preserve"> A C</v>
       </c>
       <c r="U11" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="V11" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="W11" s="0" t="str">
-        <v xml:space="preserve"> -B-</v>
+        <v xml:space="preserve">  B </v>
       </c>
       <c r="X11" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -13295,7 +13316,7 @@
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="Z11" s="0" t="str">
-        <v xml:space="preserve"> A-C</v>
+        <v xml:space="preserve"> A C</v>
       </c>
       <c r="AA11" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -13313,7 +13334,7 @@
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="AF11" s="0" t="str">
-        <v xml:space="preserve"> A-C</v>
+        <v xml:space="preserve"> A C</v>
       </c>
       <c r="AG11" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -13325,19 +13346,19 @@
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="AJ11" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="AK11" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="AL11" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="AM11" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="AN11" s="0" t="str">
-        <v xml:space="preserve"> -B-</v>
+        <v xml:space="preserve">  B </v>
       </c>
     </row>
     <row r="12" spans="1:40" customFormat="false">
@@ -13345,10 +13366,10 @@
         <v>INTERMEDIATE connected sentences</v>
       </c>
       <c r="B12" s="0" t="str">
-        <v xml:space="preserve"> A-C</v>
+        <v xml:space="preserve"> A C</v>
       </c>
       <c r="C12" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="D12" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -13357,37 +13378,37 @@
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="F12" s="0" t="str">
-        <v xml:space="preserve"> A-C</v>
+        <v xml:space="preserve"> A C</v>
       </c>
       <c r="G12" s="0" t="str">
-        <v xml:space="preserve"> A-C</v>
+        <v xml:space="preserve"> A C</v>
       </c>
       <c r="H12" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="I12" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="J12" s="0" t="str">
-        <v xml:space="preserve"> -B-</v>
+        <v xml:space="preserve">  B </v>
       </c>
       <c r="K12" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="L12" s="0" t="str">
-        <v xml:space="preserve"> A-C</v>
+        <v xml:space="preserve"> A C</v>
       </c>
       <c r="M12" s="0" t="str">
-        <v xml:space="preserve"> A-C</v>
+        <v xml:space="preserve"> A C</v>
       </c>
       <c r="N12" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="O12" s="0" t="str">
-        <v xml:space="preserve"> A-C</v>
+        <v xml:space="preserve"> A C</v>
       </c>
       <c r="P12" s="0" t="str">
-        <v xml:space="preserve"> -B-</v>
+        <v xml:space="preserve">  B </v>
       </c>
       <c r="Q12" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -13396,16 +13417,16 @@
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="S12" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="T12" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="U12" s="0" t="str">
-        <v xml:space="preserve"> A-C</v>
+        <v xml:space="preserve"> A C</v>
       </c>
       <c r="V12" s="0" t="str">
-        <v xml:space="preserve"> A-C</v>
+        <v xml:space="preserve"> A C</v>
       </c>
       <c r="W12" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -13417,7 +13438,7 @@
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="Z12" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="AA12" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -13426,40 +13447,40 @@
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="AC12" s="0" t="str">
-        <v xml:space="preserve"> -B-</v>
+        <v xml:space="preserve">  B </v>
       </c>
       <c r="AD12" s="0" t="str">
-        <v xml:space="preserve"> -B-</v>
+        <v xml:space="preserve">  B </v>
       </c>
       <c r="AE12" s="0" t="str">
-        <v xml:space="preserve"> -B-</v>
+        <v xml:space="preserve">  B </v>
       </c>
       <c r="AF12" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="AG12" s="0" t="str">
-        <v xml:space="preserve"> A-C</v>
+        <v xml:space="preserve"> A C</v>
       </c>
       <c r="AH12" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="AI12" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="AJ12" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="AK12" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="AL12" s="0" t="str">
-        <v xml:space="preserve"> -B-</v>
+        <v xml:space="preserve">  B </v>
       </c>
       <c r="AM12" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="AN12" s="0" t="str">
-        <v xml:space="preserve"> -B-</v>
+        <v xml:space="preserve">  B </v>
       </c>
     </row>
     <row r="13" spans="1:40" customFormat="false">
@@ -13470,34 +13491,34 @@
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="C13" s="0" t="str">
-        <v xml:space="preserve"> A-C</v>
+        <v xml:space="preserve"> A C</v>
       </c>
       <c r="D13" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="E13" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="F13" s="0" t="str">
-        <v xml:space="preserve"> A-C</v>
+        <v xml:space="preserve"> A C</v>
       </c>
       <c r="G13" s="0" t="str">
-        <v xml:space="preserve"> -B-</v>
+        <v xml:space="preserve">  B </v>
       </c>
       <c r="H13" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="I13" s="0" t="str">
-        <v xml:space="preserve"> -B-</v>
+        <v xml:space="preserve">  B </v>
       </c>
       <c r="J13" s="0" t="str">
-        <v xml:space="preserve"> A-C</v>
+        <v xml:space="preserve"> A C</v>
       </c>
       <c r="K13" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="L13" s="0" t="str">
-        <v xml:space="preserve"> -B-</v>
+        <v xml:space="preserve">  B </v>
       </c>
       <c r="M13" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -13509,7 +13530,7 @@
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="P13" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="Q13" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -13536,7 +13557,7 @@
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="Y13" s="0" t="str">
-        <v xml:space="preserve"> A-C</v>
+        <v xml:space="preserve"> A C</v>
       </c>
       <c r="Z13" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -13554,16 +13575,16 @@
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="AE13" s="0" t="str">
-        <v xml:space="preserve"> A-C</v>
+        <v xml:space="preserve"> A C</v>
       </c>
       <c r="AF13" s="0" t="str">
-        <v xml:space="preserve"> -B-</v>
+        <v xml:space="preserve">  B </v>
       </c>
       <c r="AG13" s="0" t="str">
-        <v xml:space="preserve"> A-C</v>
+        <v xml:space="preserve"> A C</v>
       </c>
       <c r="AH13" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="AI13" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -13578,10 +13599,10 @@
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="AM13" s="0" t="str">
-        <v xml:space="preserve"> A-C</v>
+        <v xml:space="preserve"> A C</v>
       </c>
       <c r="AN13" s="0" t="str">
-        <v xml:space="preserve"> A-C</v>
+        <v xml:space="preserve"> A C</v>
       </c>
     </row>
     <row r="14" spans="1:40" customFormat="false">
@@ -13589,61 +13610,61 @@
         <v>NOVICE high-frequency</v>
       </c>
       <c r="B14" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="C14" s="0" t="str">
-        <v xml:space="preserve"> A-C</v>
+        <v xml:space="preserve"> A C</v>
       </c>
       <c r="D14" s="0" t="str">
-        <v xml:space="preserve"> A-C</v>
+        <v xml:space="preserve"> A C</v>
       </c>
       <c r="E14" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="F14" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="G14" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="H14" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="I14" s="0" t="str">
-        <v xml:space="preserve"> -B-</v>
+        <v xml:space="preserve">  B </v>
       </c>
       <c r="J14" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="K14" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="L14" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="M14" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="N14" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="O14" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="P14" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="Q14" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="R14" s="0" t="str">
-        <v xml:space="preserve"> A-C</v>
+        <v xml:space="preserve"> A C</v>
       </c>
       <c r="S14" s="0" t="str">
-        <v xml:space="preserve"> A-C</v>
+        <v xml:space="preserve"> A C</v>
       </c>
       <c r="T14" s="0" t="str">
-        <v xml:space="preserve"> A-C</v>
+        <v xml:space="preserve"> A C</v>
       </c>
       <c r="U14" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -13652,58 +13673,58 @@
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="W14" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="X14" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="Y14" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="Z14" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="AA14" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="AB14" s="0" t="str">
-        <v xml:space="preserve"> A-C</v>
+        <v xml:space="preserve"> A C</v>
       </c>
       <c r="AC14" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="AD14" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="AE14" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="AF14" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="AG14" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="AH14" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="AI14" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="AJ14" s="0" t="str">
-        <v xml:space="preserve"> A-C</v>
+        <v xml:space="preserve"> A C</v>
       </c>
       <c r="AK14" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="AL14" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="AM14" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="AN14" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
     </row>
     <row r="15" spans="1:40" customFormat="false">
@@ -13711,7 +13732,7 @@
         <v>NOVICE formulaic</v>
       </c>
       <c r="B15" s="0" t="str">
-        <v xml:space="preserve"> A-C</v>
+        <v xml:space="preserve"> A C</v>
       </c>
       <c r="C15" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -13720,16 +13741,16 @@
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="E15" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="F15" s="0" t="str">
-        <v xml:space="preserve"> A-C</v>
+        <v xml:space="preserve"> A C</v>
       </c>
       <c r="G15" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="H15" s="0" t="str">
-        <v xml:space="preserve"> -B-</v>
+        <v xml:space="preserve">  B </v>
       </c>
       <c r="I15" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -13738,34 +13759,34 @@
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="K15" s="0" t="str">
-        <v xml:space="preserve"> A-C</v>
+        <v xml:space="preserve"> A C</v>
       </c>
       <c r="L15" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="M15" s="0" t="str">
-        <v xml:space="preserve"> A-C</v>
+        <v xml:space="preserve"> A C</v>
       </c>
       <c r="N15" s="0" t="str">
-        <v xml:space="preserve"> -B-</v>
+        <v xml:space="preserve">  B </v>
       </c>
       <c r="O15" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="P15" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="Q15" s="0" t="str">
-        <v xml:space="preserve"> A-C</v>
+        <v xml:space="preserve"> A C</v>
       </c>
       <c r="R15" s="0" t="str">
-        <v xml:space="preserve"> -B-</v>
+        <v xml:space="preserve">  B </v>
       </c>
       <c r="S15" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="T15" s="0" t="str">
-        <v xml:space="preserve"> -B-</v>
+        <v xml:space="preserve">  B </v>
       </c>
       <c r="U15" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -13777,55 +13798,55 @@
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="X15" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="Y15" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="Z15" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="AA15" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="AB15" s="0" t="str">
-        <v xml:space="preserve"> -B-</v>
+        <v xml:space="preserve">  B </v>
       </c>
       <c r="AC15" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="AD15" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="AE15" s="0" t="str">
-        <v xml:space="preserve"> -B-</v>
+        <v xml:space="preserve">  B </v>
       </c>
       <c r="AF15" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="AG15" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="AH15" s="0" t="str">
-        <v xml:space="preserve"> A-C</v>
+        <v xml:space="preserve"> A C</v>
       </c>
       <c r="AI15" s="0" t="str">
-        <v xml:space="preserve"> A-C</v>
+        <v xml:space="preserve"> A C</v>
       </c>
       <c r="AJ15" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="AK15" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="AL15" s="0" t="str">
-        <v xml:space="preserve"> -B-</v>
+        <v xml:space="preserve">  B </v>
       </c>
       <c r="AM15" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="AN15" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
     </row>
     <row r="16" spans="1:40" customFormat="false">
@@ -13836,16 +13857,16 @@
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="C16" s="0" t="str">
-        <v xml:space="preserve"> A-C</v>
+        <v xml:space="preserve"> A C</v>
       </c>
       <c r="D16" s="0" t="str">
-        <v xml:space="preserve"> A-C</v>
+        <v xml:space="preserve"> A C</v>
       </c>
       <c r="E16" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="F16" s="0" t="str">
-        <v xml:space="preserve"> A-C</v>
+        <v xml:space="preserve"> A C</v>
       </c>
       <c r="G16" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -13854,16 +13875,16 @@
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="I16" s="0" t="str">
-        <v xml:space="preserve"> A-C</v>
+        <v xml:space="preserve"> A C</v>
       </c>
       <c r="J16" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="K16" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="L16" s="0" t="str">
-        <v xml:space="preserve"> A-C</v>
+        <v xml:space="preserve"> A C</v>
       </c>
       <c r="M16" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -13887,7 +13908,7 @@
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="T16" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="U16" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -13899,13 +13920,13 @@
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="X16" s="0" t="str">
-        <v xml:space="preserve"> A-C</v>
+        <v xml:space="preserve"> A C</v>
       </c>
       <c r="Y16" s="0" t="str">
-        <v xml:space="preserve"> A-C</v>
+        <v xml:space="preserve"> A C</v>
       </c>
       <c r="Z16" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="AA16" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -13917,7 +13938,7 @@
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="AD16" s="0" t="str">
-        <v xml:space="preserve"> -B-</v>
+        <v xml:space="preserve">  B </v>
       </c>
       <c r="AE16" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -13929,22 +13950,22 @@
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="AH16" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="AI16" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="AJ16" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="AK16" s="0" t="str">
-        <v xml:space="preserve"> A-C</v>
+        <v xml:space="preserve"> A C</v>
       </c>
       <c r="AL16" s="0" t="str">
-        <v xml:space="preserve"> -B-</v>
+        <v xml:space="preserve">  B </v>
       </c>
       <c r="AM16" s="0" t="str">
-        <v xml:space="preserve"> A-C</v>
+        <v xml:space="preserve"> A C</v>
       </c>
       <c r="AN16" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -13967,7 +13988,7 @@
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="F17" s="0" t="str">
-        <v xml:space="preserve"> A-C</v>
+        <v xml:space="preserve"> A C</v>
       </c>
       <c r="G17" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -13985,7 +14006,7 @@
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="L17" s="0" t="str">
-        <v xml:space="preserve"> A-C</v>
+        <v xml:space="preserve"> A C</v>
       </c>
       <c r="M17" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -13997,7 +14018,7 @@
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="P17" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="Q17" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -14009,13 +14030,13 @@
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="T17" s="0" t="str">
-        <v xml:space="preserve"> A-C</v>
+        <v xml:space="preserve"> A C</v>
       </c>
       <c r="U17" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="V17" s="0" t="str">
-        <v xml:space="preserve"> -B-</v>
+        <v xml:space="preserve">  B </v>
       </c>
       <c r="W17" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -14024,7 +14045,7 @@
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="Y17" s="0" t="str">
-        <v xml:space="preserve"> A-C</v>
+        <v xml:space="preserve"> A C</v>
       </c>
       <c r="Z17" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -14039,7 +14060,7 @@
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="AD17" s="0" t="str">
-        <v xml:space="preserve"> A-C</v>
+        <v xml:space="preserve"> A C</v>
       </c>
       <c r="AE17" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -14057,13 +14078,13 @@
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="AJ17" s="0" t="str">
-        <v xml:space="preserve"> -B-</v>
+        <v xml:space="preserve">  B </v>
       </c>
       <c r="AK17" s="0" t="str">
-        <v xml:space="preserve"> -B-</v>
+        <v xml:space="preserve">  B </v>
       </c>
       <c r="AL17" s="0" t="str">
-        <v xml:space="preserve"> A-C</v>
+        <v xml:space="preserve"> A C</v>
       </c>
       <c r="AM17" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -14080,16 +14101,16 @@
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="C18" s="0" t="str">
-        <v xml:space="preserve"> A-C</v>
+        <v xml:space="preserve"> A C</v>
       </c>
       <c r="D18" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="E18" s="0" t="str">
-        <v xml:space="preserve"> -B-</v>
+        <v xml:space="preserve">  B </v>
       </c>
       <c r="F18" s="0" t="str">
-        <v xml:space="preserve"> A-C</v>
+        <v xml:space="preserve"> A C</v>
       </c>
       <c r="G18" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -14098,10 +14119,10 @@
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="I18" s="0" t="str">
-        <v xml:space="preserve"> -B-</v>
+        <v xml:space="preserve">  B </v>
       </c>
       <c r="J18" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="K18" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -14116,28 +14137,28 @@
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="O18" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="P18" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="Q18" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="R18" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="S18" s="0" t="str">
-        <v xml:space="preserve"> -B-</v>
+        <v xml:space="preserve">  B </v>
       </c>
       <c r="T18" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="U18" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="V18" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="W18" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -14146,7 +14167,7 @@
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="Y18" s="0" t="str">
-        <v xml:space="preserve"> -B-</v>
+        <v xml:space="preserve">  B </v>
       </c>
       <c r="Z18" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -14167,16 +14188,16 @@
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="AF18" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="AG18" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="AH18" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="AI18" s="0" t="str">
-        <v xml:space="preserve"> A-C</v>
+        <v xml:space="preserve"> A C</v>
       </c>
       <c r="AJ18" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -14191,7 +14212,7 @@
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="AN18" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
     </row>
     <row r="19" spans="1:40" customFormat="false">
@@ -14202,40 +14223,40 @@
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="C19" s="0" t="str">
-        <v xml:space="preserve"> A-C</v>
+        <v xml:space="preserve"> A C</v>
       </c>
       <c r="D19" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="E19" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="F19" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="G19" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="H19" s="0" t="str">
-        <v xml:space="preserve"> -B-</v>
+        <v xml:space="preserve">  B </v>
       </c>
       <c r="I19" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="J19" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="K19" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="L19" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="M19" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="N19" s="0" t="str">
-        <v xml:space="preserve"> A-C</v>
+        <v xml:space="preserve"> A C</v>
       </c>
       <c r="O19" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -14244,7 +14265,7 @@
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="Q19" s="0" t="str">
-        <v xml:space="preserve"> A-C</v>
+        <v xml:space="preserve"> A C</v>
       </c>
       <c r="R19" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -14262,13 +14283,13 @@
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="W19" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="X19" s="0" t="str">
-        <v xml:space="preserve"> A-C</v>
+        <v xml:space="preserve"> A C</v>
       </c>
       <c r="Y19" s="0" t="str">
-        <v xml:space="preserve"> -B-</v>
+        <v xml:space="preserve">  B </v>
       </c>
       <c r="Z19" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -14277,43 +14298,43 @@
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="AB19" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="AC19" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="AD19" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="AE19" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="AF19" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="AG19" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="AH19" s="0" t="str">
-        <v xml:space="preserve"> -B-</v>
+        <v xml:space="preserve">  B </v>
       </c>
       <c r="AI19" s="0" t="str">
-        <v xml:space="preserve"> A-C</v>
+        <v xml:space="preserve"> A C</v>
       </c>
       <c r="AJ19" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="AK19" s="0" t="str">
-        <v xml:space="preserve"> A-C</v>
+        <v xml:space="preserve"> A C</v>
       </c>
       <c r="AL19" s="0" t="str">
-        <v xml:space="preserve"> -B-</v>
+        <v xml:space="preserve">  B </v>
       </c>
       <c r="AM19" s="0" t="str">
-        <v xml:space="preserve"> A-C</v>
+        <v xml:space="preserve"> A C</v>
       </c>
       <c r="AN19" s="0" t="str">
-        <v xml:space="preserve"> -B-</v>
+        <v xml:space="preserve">  B </v>
       </c>
     </row>
     <row r="20" spans="1:40" customFormat="false">
@@ -14321,121 +14342,121 @@
         <v>NOVICE use facial expressions, gestures</v>
       </c>
       <c r="B20" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="C20" s="0" t="str">
-        <v xml:space="preserve"> -B-</v>
+        <v xml:space="preserve">  B </v>
       </c>
       <c r="D20" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="E20" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="F20" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="G20" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="H20" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="I20" s="0" t="str">
-        <v xml:space="preserve"> -B-</v>
+        <v xml:space="preserve">  B </v>
       </c>
       <c r="J20" s="0" t="str">
-        <v xml:space="preserve"> -B-</v>
+        <v xml:space="preserve">  B </v>
       </c>
       <c r="K20" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="L20" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="M20" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="N20" s="0" t="str">
-        <v xml:space="preserve"> -B-</v>
+        <v xml:space="preserve">  B </v>
       </c>
       <c r="O20" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="P20" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="Q20" s="0" t="str">
-        <v xml:space="preserve"> -B-</v>
+        <v xml:space="preserve">  B </v>
       </c>
       <c r="R20" s="0" t="str">
-        <v xml:space="preserve"> A-C</v>
+        <v xml:space="preserve"> A C</v>
       </c>
       <c r="S20" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="T20" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="U20" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="V20" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="W20" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="X20" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="Y20" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="Z20" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="AA20" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="AB20" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="AC20" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="AD20" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="AE20" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="AF20" s="0" t="str">
-        <v xml:space="preserve"> A-C</v>
+        <v xml:space="preserve"> A C</v>
       </c>
       <c r="AG20" s="0" t="str">
-        <v xml:space="preserve"> -B-</v>
+        <v xml:space="preserve">  B </v>
       </c>
       <c r="AH20" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="AI20" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="AJ20" s="0" t="str">
-        <v xml:space="preserve"> A-C</v>
+        <v xml:space="preserve"> A C</v>
       </c>
       <c r="AK20" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="AL20" s="0" t="str">
-        <v xml:space="preserve"> -B-</v>
+        <v xml:space="preserve">  B </v>
       </c>
       <c r="AM20" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="AN20" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
     </row>
     <row r="21" spans="1:40" customFormat="false">
@@ -14443,118 +14464,118 @@
         <v>NOVICE resort to first language</v>
       </c>
       <c r="B21" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="C21" s="0" t="str">
-        <v xml:space="preserve"> -B-</v>
+        <v xml:space="preserve">  B </v>
       </c>
       <c r="D21" s="0" t="str">
-        <v xml:space="preserve"> A-C</v>
+        <v xml:space="preserve"> A C</v>
       </c>
       <c r="E21" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="F21" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="G21" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="H21" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="I21" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="J21" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="K21" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="L21" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="M21" s="0" t="str">
-        <v xml:space="preserve"> -B-</v>
+        <v xml:space="preserve">  B </v>
       </c>
       <c r="N21" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="O21" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="P21" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="Q21" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="R21" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="S21" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="T21" s="0" t="str">
-        <v xml:space="preserve"> -B-</v>
+        <v xml:space="preserve">  B </v>
       </c>
       <c r="U21" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="V21" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="W21" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="X21" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="Y21" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="Z21" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="AA21" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="AB21" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="AC21" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="AD21" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="AE21" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="AF21" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="AG21" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="AH21" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="AI21" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="AJ21" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="AK21" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="AL21" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="AM21" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="AN21" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -14565,121 +14586,121 @@
         <v>NOVICE repeat/request repetition</v>
       </c>
       <c r="B22" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="C22" s="0" t="str">
-        <v xml:space="preserve"> -B-</v>
+        <v xml:space="preserve">  B </v>
       </c>
       <c r="D22" s="0" t="str">
-        <v xml:space="preserve"> A-C</v>
+        <v xml:space="preserve"> A C</v>
       </c>
       <c r="E22" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="F22" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="G22" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="H22" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="I22" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="J22" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="K22" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="L22" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="M22" s="0" t="str">
-        <v xml:space="preserve"> -B-</v>
+        <v xml:space="preserve">  B </v>
       </c>
       <c r="N22" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="O22" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="P22" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="Q22" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="R22" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="S22" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="T22" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="U22" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="V22" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="W22" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="X22" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="Y22" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="Z22" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="AA22" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="AB22" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="AC22" s="0" t="str">
-        <v xml:space="preserve"> A-C</v>
+        <v xml:space="preserve"> A C</v>
       </c>
       <c r="AD22" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="AE22" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="AF22" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="AG22" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="AH22" s="0" t="str">
-        <v xml:space="preserve"> -B-</v>
+        <v xml:space="preserve">  B </v>
       </c>
       <c r="AI22" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="AJ22" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="AK22" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="AL22" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="AM22" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="AN22" s="0" t="str">
-        <v xml:space="preserve"> -B-</v>
+        <v xml:space="preserve">  B </v>
       </c>
     </row>
     <row r="23" spans="1:40" customFormat="false">
@@ -14687,121 +14708,121 @@
         <v>NOVICE indicate lack of understanding</v>
       </c>
       <c r="B23" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="C23" s="0" t="str">
-        <v xml:space="preserve"> -B-</v>
+        <v xml:space="preserve">  B </v>
       </c>
       <c r="D23" s="0" t="str">
-        <v xml:space="preserve"> A-C</v>
+        <v xml:space="preserve"> A C</v>
       </c>
       <c r="E23" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="F23" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="G23" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="H23" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="I23" s="0" t="str">
-        <v xml:space="preserve"> A-C</v>
+        <v xml:space="preserve"> A C</v>
       </c>
       <c r="J23" s="0" t="str">
-        <v xml:space="preserve"> A-C</v>
+        <v xml:space="preserve"> A C</v>
       </c>
       <c r="K23" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="L23" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="M23" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="N23" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="O23" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="P23" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="Q23" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="R23" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="S23" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="T23" s="0" t="str">
-        <v xml:space="preserve"> -B-</v>
+        <v xml:space="preserve">  B </v>
       </c>
       <c r="U23" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="V23" s="0" t="str">
-        <v xml:space="preserve"> A-C</v>
+        <v xml:space="preserve"> A C</v>
       </c>
       <c r="W23" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="X23" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="Y23" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="Z23" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="AA23" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="AB23" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="AC23" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="AD23" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="AE23" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="AF23" s="0" t="str">
-        <v xml:space="preserve"> A-C</v>
+        <v xml:space="preserve"> A C</v>
       </c>
       <c r="AG23" s="0" t="str">
-        <v xml:space="preserve"> -B-</v>
+        <v xml:space="preserve">  B </v>
       </c>
       <c r="AH23" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="AI23" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="AJ23" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="AK23" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="AL23" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="AM23" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="AN23" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
     </row>
     <row r="24" spans="1:40" customFormat="false">
@@ -14812,19 +14833,19 @@
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="C24" s="0" t="str">
-        <v xml:space="preserve"> -B-</v>
+        <v xml:space="preserve">  B </v>
       </c>
       <c r="D24" s="0" t="str">
-        <v xml:space="preserve"> A-C</v>
+        <v xml:space="preserve"> A C</v>
       </c>
       <c r="E24" s="0" t="str">
-        <v xml:space="preserve"> A-C</v>
+        <v xml:space="preserve"> A C</v>
       </c>
       <c r="F24" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="G24" s="0" t="str">
-        <v xml:space="preserve"> -B-</v>
+        <v xml:space="preserve">  B </v>
       </c>
       <c r="H24" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -14833,52 +14854,52 @@
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="J24" s="0" t="str">
-        <v xml:space="preserve"> A-C</v>
+        <v xml:space="preserve"> A C</v>
       </c>
       <c r="K24" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="L24" s="0" t="str">
-        <v xml:space="preserve"> -B-</v>
+        <v xml:space="preserve">  B </v>
       </c>
       <c r="M24" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="N24" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="O24" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="P24" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="Q24" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="R24" s="0" t="str">
-        <v xml:space="preserve"> -B-</v>
+        <v xml:space="preserve">  B </v>
       </c>
       <c r="S24" s="0" t="str">
-        <v xml:space="preserve"> -B-</v>
+        <v xml:space="preserve">  B </v>
       </c>
       <c r="T24" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="U24" s="0" t="str">
-        <v xml:space="preserve"> A-C</v>
+        <v xml:space="preserve"> A C</v>
       </c>
       <c r="V24" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="W24" s="0" t="str">
-        <v xml:space="preserve"> -B-</v>
+        <v xml:space="preserve">  B </v>
       </c>
       <c r="X24" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="Y24" s="0" t="str">
-        <v xml:space="preserve"> A-C</v>
+        <v xml:space="preserve"> A C</v>
       </c>
       <c r="Z24" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -14893,37 +14914,37 @@
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="AD24" s="0" t="str">
-        <v xml:space="preserve"> A-C</v>
+        <v xml:space="preserve"> A C</v>
       </c>
       <c r="AE24" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="AF24" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="AG24" s="0" t="str">
-        <v xml:space="preserve"> A-C</v>
+        <v xml:space="preserve"> A C</v>
       </c>
       <c r="AH24" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="AI24" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="AJ24" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="AK24" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="AL24" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="AM24" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="AN24" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
     </row>
     <row r="25" spans="1:40" customFormat="false">
@@ -14931,22 +14952,22 @@
         <v>INTERMEDIATE self-correct or restate when not understood</v>
       </c>
       <c r="B25" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="C25" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="D25" s="0" t="str">
-        <v xml:space="preserve"> A-C</v>
+        <v xml:space="preserve"> A C</v>
       </c>
       <c r="E25" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="F25" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="G25" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="H25" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -14961,19 +14982,19 @@
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="L25" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="M25" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="N25" s="0" t="str">
-        <v xml:space="preserve"> -B-</v>
+        <v xml:space="preserve">  B </v>
       </c>
       <c r="O25" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="P25" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="Q25" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -14982,46 +15003,46 @@
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="S25" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="T25" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="U25" s="0" t="str">
-        <v xml:space="preserve"> A-C</v>
+        <v xml:space="preserve"> A C</v>
       </c>
       <c r="V25" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="W25" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="X25" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="Y25" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="Z25" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="AA25" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="AB25" s="0" t="str">
-        <v xml:space="preserve"> -B-</v>
+        <v xml:space="preserve">  B </v>
       </c>
       <c r="AC25" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="AD25" s="0" t="str">
-        <v xml:space="preserve"> -B-</v>
+        <v xml:space="preserve">  B </v>
       </c>
       <c r="AE25" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="AF25" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="AG25" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -15030,22 +15051,22 @@
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="AI25" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="AJ25" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="AK25" s="0" t="str">
-        <v xml:space="preserve"> A-C</v>
+        <v xml:space="preserve"> A C</v>
       </c>
       <c r="AL25" s="0" t="str">
-        <v xml:space="preserve"> -B-</v>
+        <v xml:space="preserve">  B </v>
       </c>
       <c r="AM25" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="AN25" s="0" t="str">
-        <v xml:space="preserve"> -B-</v>
+        <v xml:space="preserve">  B </v>
       </c>
     </row>
     <row r="26" spans="1:40" customFormat="false">
@@ -15053,10 +15074,10 @@
         <v>INTERMEDIATE circumlocute</v>
       </c>
       <c r="B26" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="C26" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="D26" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -15065,16 +15086,16 @@
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="F26" s="0" t="str">
-        <v xml:space="preserve"> A-C</v>
+        <v xml:space="preserve"> A C</v>
       </c>
       <c r="G26" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="H26" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="I26" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="J26" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -15083,10 +15104,10 @@
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="L26" s="0" t="str">
-        <v xml:space="preserve"> -B-</v>
+        <v xml:space="preserve">  B </v>
       </c>
       <c r="M26" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="N26" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -15095,37 +15116,37 @@
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="P26" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="Q26" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="R26" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="S26" s="0" t="str">
-        <v xml:space="preserve"> -B-</v>
+        <v xml:space="preserve">  B </v>
       </c>
       <c r="T26" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="U26" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="V26" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="W26" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="X26" s="0" t="str">
-        <v xml:space="preserve"> -B-</v>
+        <v xml:space="preserve">  B </v>
       </c>
       <c r="Y26" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="Z26" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="AA26" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -15143,16 +15164,16 @@
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="AF26" s="0" t="str">
-        <v xml:space="preserve"> -B-</v>
+        <v xml:space="preserve">  B </v>
       </c>
       <c r="AG26" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="AH26" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="AI26" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
       <c r="AJ26" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -15161,16 +15182,54 @@
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="AL26" s="0" t="str">
-        <v xml:space="preserve"> -B-</v>
+        <v xml:space="preserve">  B </v>
       </c>
       <c r="AM26" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="AN26" s="0" t="str">
-        <v xml:space="preserve"> ---</v>
+        <v xml:space="preserve">    </v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="C2" r:id="rId2"/>
+    <hyperlink ref="D2" r:id="rId3"/>
+    <hyperlink ref="E2" r:id="rId4"/>
+    <hyperlink ref="F2" r:id="rId5"/>
+    <hyperlink ref="G2" r:id="rId6"/>
+    <hyperlink ref="H2" r:id="rId7"/>
+    <hyperlink ref="I2" r:id="rId8"/>
+    <hyperlink ref="J2" r:id="rId9"/>
+    <hyperlink ref="K2" r:id="rId10"/>
+    <hyperlink ref="L2" r:id="rId11"/>
+    <hyperlink ref="M2" r:id="rId12"/>
+    <hyperlink ref="N2" r:id="rId13"/>
+    <hyperlink ref="O2" r:id="rId14"/>
+    <hyperlink ref="Q2" r:id="rId15"/>
+    <hyperlink ref="R2" r:id="rId16"/>
+    <hyperlink ref="S2" r:id="rId17"/>
+    <hyperlink ref="U2" r:id="rId18"/>
+    <hyperlink ref="V2" r:id="rId19"/>
+    <hyperlink ref="W2" r:id="rId20"/>
+    <hyperlink ref="X2" r:id="rId21"/>
+    <hyperlink ref="Y2" r:id="rId22"/>
+    <hyperlink ref="Z2" r:id="rId23"/>
+    <hyperlink ref="AB2" r:id="rId24"/>
+    <hyperlink ref="AC2" r:id="rId25"/>
+    <hyperlink ref="AD2" r:id="rId26"/>
+    <hyperlink ref="AE2" r:id="rId27"/>
+    <hyperlink ref="AF2" r:id="rId28"/>
+    <hyperlink ref="AG2" r:id="rId29"/>
+    <hyperlink ref="AH2" r:id="rId30"/>
+    <hyperlink ref="AI2" r:id="rId31"/>
+    <hyperlink ref="AJ2" r:id="rId32"/>
+    <hyperlink ref="AK2" r:id="rId33"/>
+    <hyperlink ref="AL2" r:id="rId34"/>
+    <hyperlink ref="AM2" r:id="rId35"/>
+    <hyperlink ref="AN2" r:id="rId36"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/speaking.xlsx
+++ b/speaking.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="306" count="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="302" count="302">
   <si>
     <t>Timestamp</t>
   </si>
@@ -929,18 +929,6 @@
   </si>
   <si>
     <t>Be able to have the courage to speak.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> A-C</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ABC</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ---</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -B-</t>
   </si>
 </sst>
 </file>
@@ -950,7 +938,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <name val="Arial"/>
       <color rgb="FF000000"/>
@@ -963,12 +951,6 @@
     <font>
       <name val="Arial"/>
       <color rgb="FF0000FF"/>
-      <sz val="10"/>
-      <u val="1"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <color theme="10"/>
       <sz val="10"/>
       <u val="1"/>
     </font>
@@ -990,19 +972,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1321,13 +1300,15 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" customWidth="1"/>
-    <col min="2" max="88" width="21.5703125" customWidth="1"/>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="21.5703125" customWidth="1"/>
+    <col min="6" max="6" width="17" customWidth="1"/>
+    <col min="7" max="88" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:88" customFormat="false" ht="15.75" customHeight="1">
@@ -12019,7 +12000,7 @@
   <dimension ref="B1:AN26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AN3" sqref="AN3"/>
+      <selection activeCell="A26" sqref="A1:AO26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.7109375" defaultRowHeight="12.75"/>
@@ -12266,7 +12247,10 @@
         <v>http://gecwestonpespanol.blogspot.com/p/speaking.html</v>
       </c>
     </row>
-    <row r="3" spans="2:40" customFormat="false">
+    <row r="3" spans="1:40" customFormat="false">
+      <c r="A3" s="0" t="str">
+        <v>NOVICE ask/respond to  predictable, formulaic questions</v>
+      </c>
       <c r="B3" s="0" t="str">
         <v>Spanish II 1st</v>
       </c>
@@ -12396,7 +12380,7 @@
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="D4" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
+        <v xml:space="preserve"> AB </v>
       </c>
       <c r="E4" s="0" t="str">
         <v xml:space="preserve">    </v>
@@ -12408,25 +12392,25 @@
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="H4" s="0" t="str">
-        <v xml:space="preserve">  B </v>
+        <v xml:space="preserve">  BC</v>
       </c>
       <c r="I4" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
+        <v xml:space="preserve"> AB </v>
       </c>
       <c r="J4" s="0" t="str">
         <v xml:space="preserve"> A C</v>
       </c>
       <c r="K4" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
+        <v xml:space="preserve"> AB </v>
       </c>
       <c r="L4" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
+        <v xml:space="preserve"> A  </v>
       </c>
       <c r="M4" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
+        <v xml:space="preserve"> AB </v>
       </c>
       <c r="N4" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
+        <v xml:space="preserve"> AB </v>
       </c>
       <c r="O4" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -12435,10 +12419,10 @@
         <v xml:space="preserve">    </v>
       </c>
       <c r="Q4" s="0" t="str">
-        <v xml:space="preserve">    </v>
+        <v xml:space="preserve">   C</v>
       </c>
       <c r="R4" s="0" t="str">
-        <v xml:space="preserve">    </v>
+        <v xml:space="preserve">   C</v>
       </c>
       <c r="S4" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -12447,7 +12431,7 @@
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="U4" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
+        <v xml:space="preserve"> AB </v>
       </c>
       <c r="V4" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -12462,7 +12446,7 @@
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="Z4" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
+        <v xml:space="preserve"> AB </v>
       </c>
       <c r="AA4" s="0" t="str">
         <v xml:space="preserve">    </v>
@@ -12495,16 +12479,16 @@
         <v xml:space="preserve">    </v>
       </c>
       <c r="AK4" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
+        <v xml:space="preserve"> A  </v>
       </c>
       <c r="AL4" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="AM4" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
+        <v xml:space="preserve"> A  </v>
       </c>
       <c r="AN4" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
+        <v xml:space="preserve"> A  </v>
       </c>
     </row>
     <row r="5" spans="1:40" customFormat="false">
@@ -12524,16 +12508,16 @@
         <v xml:space="preserve">    </v>
       </c>
       <c r="F5" s="0" t="str">
-        <v xml:space="preserve">    </v>
+        <v xml:space="preserve">   C</v>
       </c>
       <c r="G5" s="0" t="str">
-        <v xml:space="preserve">    </v>
+        <v xml:space="preserve">   C</v>
       </c>
       <c r="H5" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="I5" s="0" t="str">
-        <v xml:space="preserve">    </v>
+        <v xml:space="preserve">   C</v>
       </c>
       <c r="J5" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -12542,7 +12526,7 @@
         <v xml:space="preserve">    </v>
       </c>
       <c r="L5" s="0" t="str">
-        <v xml:space="preserve">    </v>
+        <v xml:space="preserve">   C</v>
       </c>
       <c r="M5" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -12557,13 +12541,13 @@
         <v xml:space="preserve">  B </v>
       </c>
       <c r="Q5" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
+        <v xml:space="preserve"> A  </v>
       </c>
       <c r="R5" s="0" t="str">
         <v xml:space="preserve">  B </v>
       </c>
       <c r="S5" s="0" t="str">
-        <v xml:space="preserve">  B </v>
+        <v xml:space="preserve">  BC</v>
       </c>
       <c r="T5" s="0" t="str">
         <v xml:space="preserve">    </v>
@@ -12578,13 +12562,13 @@
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="X5" s="0" t="str">
-        <v xml:space="preserve">    </v>
+        <v xml:space="preserve">   C</v>
       </c>
       <c r="Y5" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="Z5" s="0" t="str">
-        <v xml:space="preserve">    </v>
+        <v xml:space="preserve">   C</v>
       </c>
       <c r="AA5" s="0" t="str">
         <v xml:space="preserve"> A C</v>
@@ -12608,22 +12592,22 @@
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="AH5" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
+        <v xml:space="preserve"> AB </v>
       </c>
       <c r="AI5" s="0" t="str">
-        <v xml:space="preserve">  B </v>
+        <v xml:space="preserve">  BC</v>
       </c>
       <c r="AJ5" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
+        <v xml:space="preserve"> A  </v>
       </c>
       <c r="AK5" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
+        <v xml:space="preserve"> A  </v>
       </c>
       <c r="AL5" s="0" t="str">
-        <v xml:space="preserve">  B </v>
+        <v xml:space="preserve">  BC</v>
       </c>
       <c r="AM5" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
+        <v xml:space="preserve"> A  </v>
       </c>
       <c r="AN5" s="0" t="str">
         <v xml:space="preserve">    </v>
@@ -12634,13 +12618,13 @@
         <v>INTERMEDIATE ask, answer variety of questions</v>
       </c>
       <c r="B6" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
+        <v xml:space="preserve"> AB </v>
       </c>
       <c r="C6" s="0" t="str">
         <v xml:space="preserve"> A C</v>
       </c>
       <c r="D6" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
+        <v xml:space="preserve"> AB </v>
       </c>
       <c r="E6" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -12655,7 +12639,7 @@
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="I6" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
+        <v xml:space="preserve"> AB </v>
       </c>
       <c r="J6" s="0" t="str">
         <v xml:space="preserve"> A C</v>
@@ -12667,7 +12651,7 @@
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="M6" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
+        <v xml:space="preserve"> A  </v>
       </c>
       <c r="N6" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -12682,31 +12666,31 @@
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="R6" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
+        <v xml:space="preserve"> AB </v>
       </c>
       <c r="S6" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="T6" s="0" t="str">
-        <v xml:space="preserve">  B </v>
+        <v xml:space="preserve">  BC</v>
       </c>
       <c r="U6" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="V6" s="0" t="str">
-        <v xml:space="preserve">  B </v>
+        <v xml:space="preserve">  BC</v>
       </c>
       <c r="W6" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="X6" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
+        <v xml:space="preserve"> AB </v>
       </c>
       <c r="Y6" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="Z6" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
+        <v xml:space="preserve"> A  </v>
       </c>
       <c r="AA6" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -12721,13 +12705,13 @@
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="AE6" s="0" t="str">
-        <v xml:space="preserve">    </v>
+        <v xml:space="preserve">   C</v>
       </c>
       <c r="AF6" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="AG6" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
+        <v xml:space="preserve"> A  </v>
       </c>
       <c r="AH6" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -12739,7 +12723,7 @@
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="AK6" s="0" t="str">
-        <v xml:space="preserve">  B </v>
+        <v xml:space="preserve">  BC</v>
       </c>
       <c r="AL6" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -12748,7 +12732,7 @@
         <v xml:space="preserve"> A C</v>
       </c>
       <c r="AN6" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
+        <v xml:space="preserve"> AB </v>
       </c>
     </row>
     <row r="7" spans="1:40" customFormat="false">
@@ -12765,13 +12749,13 @@
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="E7" s="0" t="str">
-        <v xml:space="preserve">  B </v>
+        <v xml:space="preserve">  BC</v>
       </c>
       <c r="F7" s="0" t="str">
-        <v xml:space="preserve">    </v>
+        <v xml:space="preserve">   C</v>
       </c>
       <c r="G7" s="0" t="str">
-        <v xml:space="preserve">  B </v>
+        <v xml:space="preserve">  BC</v>
       </c>
       <c r="H7" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -12789,7 +12773,7 @@
         <v xml:space="preserve">  B </v>
       </c>
       <c r="M7" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
+        <v xml:space="preserve"> A  </v>
       </c>
       <c r="N7" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -12804,10 +12788,10 @@
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="R7" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
+        <v xml:space="preserve"> AB </v>
       </c>
       <c r="S7" s="0" t="str">
-        <v xml:space="preserve">  B </v>
+        <v xml:space="preserve">  BC</v>
       </c>
       <c r="T7" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -12816,19 +12800,19 @@
         <v xml:space="preserve"> A C</v>
       </c>
       <c r="V7" s="0" t="str">
-        <v xml:space="preserve">  B </v>
+        <v xml:space="preserve">  BC</v>
       </c>
       <c r="W7" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="X7" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
+        <v xml:space="preserve"> AB </v>
       </c>
       <c r="Y7" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="Z7" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
+        <v xml:space="preserve"> AB </v>
       </c>
       <c r="AA7" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -12852,7 +12836,7 @@
         <v xml:space="preserve"> A C</v>
       </c>
       <c r="AH7" s="0" t="str">
-        <v xml:space="preserve">    </v>
+        <v xml:space="preserve">   C</v>
       </c>
       <c r="AI7" s="0" t="str">
         <v xml:space="preserve"> A C</v>
@@ -12864,7 +12848,7 @@
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="AL7" s="0" t="str">
-        <v xml:space="preserve">  B </v>
+        <v xml:space="preserve">  BC</v>
       </c>
       <c r="AM7" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -12884,16 +12868,16 @@
         <v xml:space="preserve">    </v>
       </c>
       <c r="D8" s="0" t="str">
-        <v xml:space="preserve">  B </v>
+        <v xml:space="preserve">  BC</v>
       </c>
       <c r="E8" s="0" t="str">
         <v xml:space="preserve">    </v>
       </c>
       <c r="F8" s="0" t="str">
-        <v xml:space="preserve">    </v>
+        <v xml:space="preserve">   C</v>
       </c>
       <c r="G8" s="0" t="str">
-        <v xml:space="preserve">    </v>
+        <v xml:space="preserve">   C</v>
       </c>
       <c r="H8" s="0" t="str">
         <v xml:space="preserve"> A C</v>
@@ -12902,7 +12886,7 @@
         <v xml:space="preserve">  B </v>
       </c>
       <c r="J8" s="0" t="str">
-        <v xml:space="preserve">    </v>
+        <v xml:space="preserve">   C</v>
       </c>
       <c r="K8" s="0" t="str">
         <v xml:space="preserve">    </v>
@@ -12926,10 +12910,10 @@
         <v xml:space="preserve">  B </v>
       </c>
       <c r="R8" s="0" t="str">
-        <v xml:space="preserve">    </v>
+        <v xml:space="preserve">   C</v>
       </c>
       <c r="S8" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
+        <v xml:space="preserve"> A  </v>
       </c>
       <c r="T8" s="0" t="str">
         <v xml:space="preserve"> A C</v>
@@ -12944,7 +12928,7 @@
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="X8" s="0" t="str">
-        <v xml:space="preserve">    </v>
+        <v xml:space="preserve">   C</v>
       </c>
       <c r="Y8" s="0" t="str">
         <v xml:space="preserve"> A C</v>
@@ -12956,7 +12940,7 @@
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="AB8" s="0" t="str">
-        <v xml:space="preserve">  B </v>
+        <v xml:space="preserve">  BC</v>
       </c>
       <c r="AC8" s="0" t="str">
         <v xml:space="preserve">  B </v>
@@ -12974,7 +12958,7 @@
         <v xml:space="preserve">    </v>
       </c>
       <c r="AH8" s="0" t="str">
-        <v xml:space="preserve">    </v>
+        <v xml:space="preserve">   C</v>
       </c>
       <c r="AI8" s="0" t="str">
         <v xml:space="preserve">    </v>
@@ -12986,10 +12970,10 @@
         <v xml:space="preserve">  B </v>
       </c>
       <c r="AL8" s="0" t="str">
-        <v xml:space="preserve">    </v>
+        <v xml:space="preserve">   C</v>
       </c>
       <c r="AM8" s="0" t="str">
-        <v xml:space="preserve">  B </v>
+        <v xml:space="preserve">  BC</v>
       </c>
       <c r="AN8" s="0" t="str">
         <v xml:space="preserve">    </v>
@@ -13000,7 +12984,7 @@
         <v>NOVICE practiced words, phrases, sentences</v>
       </c>
       <c r="B9" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
+        <v xml:space="preserve"> AB </v>
       </c>
       <c r="C9" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -13036,7 +13020,7 @@
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="N9" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
+        <v xml:space="preserve"> AB </v>
       </c>
       <c r="O9" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -13045,16 +13029,16 @@
         <v xml:space="preserve">    </v>
       </c>
       <c r="Q9" s="0" t="str">
-        <v xml:space="preserve">    </v>
+        <v xml:space="preserve">   C</v>
       </c>
       <c r="R9" s="0" t="str">
-        <v xml:space="preserve">    </v>
+        <v xml:space="preserve">   C</v>
       </c>
       <c r="S9" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="T9" s="0" t="str">
-        <v xml:space="preserve">  B </v>
+        <v xml:space="preserve">  BC</v>
       </c>
       <c r="U9" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -13069,7 +13053,7 @@
         <v xml:space="preserve"> A C</v>
       </c>
       <c r="Y9" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
+        <v xml:space="preserve"> AB </v>
       </c>
       <c r="Z9" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -13084,7 +13068,7 @@
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="AD9" s="0" t="str">
-        <v xml:space="preserve">  B </v>
+        <v xml:space="preserve">  BC</v>
       </c>
       <c r="AE9" s="0" t="str">
         <v xml:space="preserve">  B </v>
@@ -13105,16 +13089,16 @@
         <v xml:space="preserve">    </v>
       </c>
       <c r="AK9" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
+        <v xml:space="preserve"> A  </v>
       </c>
       <c r="AL9" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="AM9" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
+        <v xml:space="preserve"> AB </v>
       </c>
       <c r="AN9" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
+        <v xml:space="preserve"> AB </v>
       </c>
     </row>
     <row r="10" spans="1:40" customFormat="false">
@@ -13122,28 +13106,28 @@
         <v>NOVICE formulaic/memorized questions</v>
       </c>
       <c r="B10" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
+        <v xml:space="preserve"> A  </v>
       </c>
       <c r="C10" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="D10" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
+        <v xml:space="preserve"> AB </v>
       </c>
       <c r="E10" s="0" t="str">
         <v xml:space="preserve">    </v>
       </c>
       <c r="F10" s="0" t="str">
-        <v xml:space="preserve">    </v>
+        <v xml:space="preserve">   C</v>
       </c>
       <c r="G10" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
+        <v xml:space="preserve"> AB </v>
       </c>
       <c r="H10" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="I10" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
+        <v xml:space="preserve"> AB </v>
       </c>
       <c r="J10" s="0" t="str">
         <v xml:space="preserve"> A C</v>
@@ -13152,22 +13136,22 @@
         <v xml:space="preserve">    </v>
       </c>
       <c r="L10" s="0" t="str">
-        <v xml:space="preserve">  B </v>
+        <v xml:space="preserve">  BC</v>
       </c>
       <c r="M10" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
+        <v xml:space="preserve"> AB </v>
       </c>
       <c r="N10" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
+        <v xml:space="preserve"> A  </v>
       </c>
       <c r="O10" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="P10" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
+        <v xml:space="preserve"> A  </v>
       </c>
       <c r="Q10" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
+        <v xml:space="preserve"> A  </v>
       </c>
       <c r="R10" s="0" t="str">
         <v xml:space="preserve">  B </v>
@@ -13197,10 +13181,10 @@
         <v xml:space="preserve">    </v>
       </c>
       <c r="AA10" s="0" t="str">
-        <v xml:space="preserve">    </v>
+        <v xml:space="preserve">   C</v>
       </c>
       <c r="AB10" s="0" t="str">
-        <v xml:space="preserve">  B </v>
+        <v xml:space="preserve">  BC</v>
       </c>
       <c r="AC10" s="0" t="str">
         <v xml:space="preserve">    </v>
@@ -13209,7 +13193,7 @@
         <v xml:space="preserve">  B </v>
       </c>
       <c r="AE10" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
+        <v xml:space="preserve"> A  </v>
       </c>
       <c r="AF10" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -13218,7 +13202,7 @@
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="AH10" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
+        <v xml:space="preserve"> A  </v>
       </c>
       <c r="AI10" s="0" t="str">
         <v xml:space="preserve">    </v>
@@ -13227,13 +13211,13 @@
         <v xml:space="preserve">    </v>
       </c>
       <c r="AK10" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
+        <v xml:space="preserve"> A  </v>
       </c>
       <c r="AL10" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
+        <v xml:space="preserve"> A  </v>
       </c>
       <c r="AM10" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
+        <v xml:space="preserve"> AB </v>
       </c>
       <c r="AN10" s="0" t="str">
         <v xml:space="preserve">    </v>
@@ -13244,7 +13228,7 @@
         <v>INTERMEDIATE strings of sentences</v>
       </c>
       <c r="B11" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
+        <v xml:space="preserve"> AB </v>
       </c>
       <c r="C11" s="0" t="str">
         <v xml:space="preserve">    </v>
@@ -13268,13 +13252,13 @@
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="J11" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
+        <v xml:space="preserve"> AB </v>
       </c>
       <c r="K11" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
+        <v xml:space="preserve"> AB </v>
       </c>
       <c r="L11" s="0" t="str">
-        <v xml:space="preserve">  B </v>
+        <v xml:space="preserve">  BC</v>
       </c>
       <c r="M11" s="0" t="str">
         <v xml:space="preserve"> A C</v>
@@ -13292,7 +13276,7 @@
         <v xml:space="preserve">  B </v>
       </c>
       <c r="R11" s="0" t="str">
-        <v xml:space="preserve">    </v>
+        <v xml:space="preserve">   C</v>
       </c>
       <c r="S11" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -13301,10 +13285,10 @@
         <v xml:space="preserve"> A C</v>
       </c>
       <c r="U11" s="0" t="str">
-        <v xml:space="preserve">    </v>
+        <v xml:space="preserve">   C</v>
       </c>
       <c r="V11" s="0" t="str">
-        <v xml:space="preserve">    </v>
+        <v xml:space="preserve">   C</v>
       </c>
       <c r="W11" s="0" t="str">
         <v xml:space="preserve">  B </v>
@@ -13349,10 +13333,10 @@
         <v xml:space="preserve">    </v>
       </c>
       <c r="AK11" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
+        <v xml:space="preserve"> AB </v>
       </c>
       <c r="AL11" s="0" t="str">
-        <v xml:space="preserve">    </v>
+        <v xml:space="preserve">   C</v>
       </c>
       <c r="AM11" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -13366,16 +13350,16 @@
         <v>INTERMEDIATE connected sentences</v>
       </c>
       <c r="B12" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
+        <v xml:space="preserve"> A  </v>
       </c>
       <c r="C12" s="0" t="str">
-        <v xml:space="preserve">    </v>
+        <v xml:space="preserve">   C</v>
       </c>
       <c r="D12" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="E12" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
+        <v xml:space="preserve"> AB </v>
       </c>
       <c r="F12" s="0" t="str">
         <v xml:space="preserve"> A C</v>
@@ -13390,13 +13374,13 @@
         <v xml:space="preserve">    </v>
       </c>
       <c r="J12" s="0" t="str">
-        <v xml:space="preserve">  B </v>
+        <v xml:space="preserve">  BC</v>
       </c>
       <c r="K12" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
+        <v xml:space="preserve"> AB </v>
       </c>
       <c r="L12" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
+        <v xml:space="preserve"> A  </v>
       </c>
       <c r="M12" s="0" t="str">
         <v xml:space="preserve"> A C</v>
@@ -13408,7 +13392,7 @@
         <v xml:space="preserve"> A C</v>
       </c>
       <c r="P12" s="0" t="str">
-        <v xml:space="preserve">  B </v>
+        <v xml:space="preserve">  BC</v>
       </c>
       <c r="Q12" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -13438,7 +13422,7 @@
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="Z12" s="0" t="str">
-        <v xml:space="preserve">    </v>
+        <v xml:space="preserve">   C</v>
       </c>
       <c r="AA12" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -13447,7 +13431,7 @@
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="AC12" s="0" t="str">
-        <v xml:space="preserve">  B </v>
+        <v xml:space="preserve">  BC</v>
       </c>
       <c r="AD12" s="0" t="str">
         <v xml:space="preserve">  B </v>
@@ -13459,7 +13443,7 @@
         <v xml:space="preserve">    </v>
       </c>
       <c r="AG12" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
+        <v xml:space="preserve"> A  </v>
       </c>
       <c r="AH12" s="0" t="str">
         <v xml:space="preserve">    </v>
@@ -13471,10 +13455,10 @@
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="AK12" s="0" t="str">
-        <v xml:space="preserve">    </v>
+        <v xml:space="preserve">   C</v>
       </c>
       <c r="AL12" s="0" t="str">
-        <v xml:space="preserve">  B </v>
+        <v xml:space="preserve">  BC</v>
       </c>
       <c r="AM12" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -13494,16 +13478,16 @@
         <v xml:space="preserve"> A C</v>
       </c>
       <c r="D13" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
+        <v xml:space="preserve"> AB </v>
       </c>
       <c r="E13" s="0" t="str">
-        <v xml:space="preserve">    </v>
+        <v xml:space="preserve">   C</v>
       </c>
       <c r="F13" s="0" t="str">
         <v xml:space="preserve"> A C</v>
       </c>
       <c r="G13" s="0" t="str">
-        <v xml:space="preserve">  B </v>
+        <v xml:space="preserve">  BC</v>
       </c>
       <c r="H13" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -13518,13 +13502,13 @@
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="L13" s="0" t="str">
-        <v xml:space="preserve">  B </v>
+        <v xml:space="preserve">  BC</v>
       </c>
       <c r="M13" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
+        <v xml:space="preserve"> AB </v>
       </c>
       <c r="N13" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
+        <v xml:space="preserve"> AB </v>
       </c>
       <c r="O13" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -13536,7 +13520,7 @@
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="R13" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
+        <v xml:space="preserve"> AB </v>
       </c>
       <c r="S13" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -13554,13 +13538,13 @@
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="X13" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
+        <v xml:space="preserve"> AB </v>
       </c>
       <c r="Y13" s="0" t="str">
         <v xml:space="preserve"> A C</v>
       </c>
       <c r="Z13" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
+        <v xml:space="preserve"> AB </v>
       </c>
       <c r="AA13" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -13578,10 +13562,10 @@
         <v xml:space="preserve"> A C</v>
       </c>
       <c r="AF13" s="0" t="str">
-        <v xml:space="preserve">  B </v>
+        <v xml:space="preserve">  BC</v>
       </c>
       <c r="AG13" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
+        <v xml:space="preserve"> A  </v>
       </c>
       <c r="AH13" s="0" t="str">
         <v xml:space="preserve">    </v>
@@ -13602,7 +13586,7 @@
         <v xml:space="preserve"> A C</v>
       </c>
       <c r="AN13" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
+        <v xml:space="preserve"> A  </v>
       </c>
     </row>
     <row r="14" spans="1:40" customFormat="false">
@@ -13622,7 +13606,7 @@
         <v xml:space="preserve">    </v>
       </c>
       <c r="F14" s="0" t="str">
-        <v xml:space="preserve">    </v>
+        <v xml:space="preserve">   C</v>
       </c>
       <c r="G14" s="0" t="str">
         <v xml:space="preserve">    </v>
@@ -13643,7 +13627,7 @@
         <v xml:space="preserve">    </v>
       </c>
       <c r="M14" s="0" t="str">
-        <v xml:space="preserve">    </v>
+        <v xml:space="preserve">   C</v>
       </c>
       <c r="N14" s="0" t="str">
         <v xml:space="preserve">    </v>
@@ -13658,13 +13642,13 @@
         <v xml:space="preserve">    </v>
       </c>
       <c r="R14" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
+        <v xml:space="preserve"> A  </v>
       </c>
       <c r="S14" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
+        <v xml:space="preserve"> A  </v>
       </c>
       <c r="T14" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
+        <v xml:space="preserve"> A  </v>
       </c>
       <c r="U14" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -13673,7 +13657,7 @@
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="W14" s="0" t="str">
-        <v xml:space="preserve">    </v>
+        <v xml:space="preserve">   C</v>
       </c>
       <c r="X14" s="0" t="str">
         <v xml:space="preserve">    </v>
@@ -13688,7 +13672,7 @@
         <v xml:space="preserve">    </v>
       </c>
       <c r="AB14" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
+        <v xml:space="preserve"> A  </v>
       </c>
       <c r="AC14" s="0" t="str">
         <v xml:space="preserve">    </v>
@@ -13712,16 +13696,16 @@
         <v xml:space="preserve">    </v>
       </c>
       <c r="AJ14" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
+        <v xml:space="preserve"> A  </v>
       </c>
       <c r="AK14" s="0" t="str">
         <v xml:space="preserve">    </v>
       </c>
       <c r="AL14" s="0" t="str">
-        <v xml:space="preserve">    </v>
+        <v xml:space="preserve">   C</v>
       </c>
       <c r="AM14" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
+        <v xml:space="preserve"> AB </v>
       </c>
       <c r="AN14" s="0" t="str">
         <v xml:space="preserve">    </v>
@@ -13732,7 +13716,7 @@
         <v>NOVICE formulaic</v>
       </c>
       <c r="B15" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
+        <v xml:space="preserve"> A  </v>
       </c>
       <c r="C15" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -13750,7 +13734,7 @@
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="H15" s="0" t="str">
-        <v xml:space="preserve">  B </v>
+        <v xml:space="preserve">  BC</v>
       </c>
       <c r="I15" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -13789,13 +13773,13 @@
         <v xml:space="preserve">  B </v>
       </c>
       <c r="U15" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
+        <v xml:space="preserve"> AB </v>
       </c>
       <c r="V15" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="W15" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
+        <v xml:space="preserve"> AB </v>
       </c>
       <c r="X15" s="0" t="str">
         <v xml:space="preserve">    </v>
@@ -13804,7 +13788,7 @@
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="Z15" s="0" t="str">
-        <v xml:space="preserve">    </v>
+        <v xml:space="preserve">   C</v>
       </c>
       <c r="AA15" s="0" t="str">
         <v xml:space="preserve">    </v>
@@ -13819,7 +13803,7 @@
         <v xml:space="preserve">    </v>
       </c>
       <c r="AE15" s="0" t="str">
-        <v xml:space="preserve">  B </v>
+        <v xml:space="preserve">  BC</v>
       </c>
       <c r="AF15" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -13828,10 +13812,10 @@
         <v xml:space="preserve">    </v>
       </c>
       <c r="AH15" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
+        <v xml:space="preserve"> A  </v>
       </c>
       <c r="AI15" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
+        <v xml:space="preserve"> A  </v>
       </c>
       <c r="AJ15" s="0" t="str">
         <v xml:space="preserve">    </v>
@@ -13840,7 +13824,7 @@
         <v xml:space="preserve">    </v>
       </c>
       <c r="AL15" s="0" t="str">
-        <v xml:space="preserve">  B </v>
+        <v xml:space="preserve">  BC</v>
       </c>
       <c r="AM15" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -13863,22 +13847,22 @@
         <v xml:space="preserve"> A C</v>
       </c>
       <c r="E16" s="0" t="str">
-        <v xml:space="preserve">    </v>
+        <v xml:space="preserve">   C</v>
       </c>
       <c r="F16" s="0" t="str">
         <v xml:space="preserve"> A C</v>
       </c>
       <c r="G16" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
+        <v xml:space="preserve"> AB </v>
       </c>
       <c r="H16" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
+        <v xml:space="preserve"> AB </v>
       </c>
       <c r="I16" s="0" t="str">
         <v xml:space="preserve"> A C</v>
       </c>
       <c r="J16" s="0" t="str">
-        <v xml:space="preserve">    </v>
+        <v xml:space="preserve">   C</v>
       </c>
       <c r="K16" s="0" t="str">
         <v xml:space="preserve">    </v>
@@ -13899,7 +13883,7 @@
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="Q16" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
+        <v xml:space="preserve"> AB </v>
       </c>
       <c r="R16" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -13911,19 +13895,19 @@
         <v xml:space="preserve">    </v>
       </c>
       <c r="U16" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
+        <v xml:space="preserve"> AB </v>
       </c>
       <c r="V16" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="W16" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
+        <v xml:space="preserve"> AB </v>
       </c>
       <c r="X16" s="0" t="str">
         <v xml:space="preserve"> A C</v>
       </c>
       <c r="Y16" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
+        <v xml:space="preserve"> A  </v>
       </c>
       <c r="Z16" s="0" t="str">
         <v xml:space="preserve">    </v>
@@ -13938,7 +13922,7 @@
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="AD16" s="0" t="str">
-        <v xml:space="preserve">  B </v>
+        <v xml:space="preserve">  BC</v>
       </c>
       <c r="AE16" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -13953,22 +13937,22 @@
         <v xml:space="preserve">    </v>
       </c>
       <c r="AI16" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
+        <v xml:space="preserve"> AB </v>
       </c>
       <c r="AJ16" s="0" t="str">
         <v xml:space="preserve">    </v>
       </c>
       <c r="AK16" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
+        <v xml:space="preserve"> A  </v>
       </c>
       <c r="AL16" s="0" t="str">
-        <v xml:space="preserve">  B </v>
+        <v xml:space="preserve">  BC</v>
       </c>
       <c r="AM16" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
+        <v xml:space="preserve"> A  </v>
       </c>
       <c r="AN16" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
+        <v xml:space="preserve"> AB </v>
       </c>
     </row>
     <row r="17" spans="1:40" customFormat="false">
@@ -14036,7 +14020,7 @@
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="V17" s="0" t="str">
-        <v xml:space="preserve">  B </v>
+        <v xml:space="preserve">  BC</v>
       </c>
       <c r="W17" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -14078,10 +14062,10 @@
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="AJ17" s="0" t="str">
-        <v xml:space="preserve">  B </v>
+        <v xml:space="preserve">  BC</v>
       </c>
       <c r="AK17" s="0" t="str">
-        <v xml:space="preserve">  B </v>
+        <v xml:space="preserve">  BC</v>
       </c>
       <c r="AL17" s="0" t="str">
         <v xml:space="preserve"> A C</v>
@@ -14090,7 +14074,7 @@
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="AN17" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
+        <v xml:space="preserve"> AB </v>
       </c>
     </row>
     <row r="18" spans="1:40" customFormat="false">
@@ -14101,7 +14085,7 @@
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="C18" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
+        <v xml:space="preserve"> A  </v>
       </c>
       <c r="D18" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -14119,10 +14103,10 @@
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="I18" s="0" t="str">
-        <v xml:space="preserve">  B </v>
+        <v xml:space="preserve">  BC</v>
       </c>
       <c r="J18" s="0" t="str">
-        <v xml:space="preserve">    </v>
+        <v xml:space="preserve">   C</v>
       </c>
       <c r="K18" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -14131,13 +14115,13 @@
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="M18" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
+        <v xml:space="preserve"> AB </v>
       </c>
       <c r="N18" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="O18" s="0" t="str">
-        <v xml:space="preserve">    </v>
+        <v xml:space="preserve">   C</v>
       </c>
       <c r="P18" s="0" t="str">
         <v xml:space="preserve">    </v>
@@ -14149,28 +14133,28 @@
         <v xml:space="preserve">    </v>
       </c>
       <c r="S18" s="0" t="str">
-        <v xml:space="preserve">  B </v>
+        <v xml:space="preserve">  BC</v>
       </c>
       <c r="T18" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
+        <v xml:space="preserve"> AB </v>
       </c>
       <c r="U18" s="0" t="str">
         <v xml:space="preserve">    </v>
       </c>
       <c r="V18" s="0" t="str">
-        <v xml:space="preserve">    </v>
+        <v xml:space="preserve">   C</v>
       </c>
       <c r="W18" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="X18" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
+        <v xml:space="preserve"> AB </v>
       </c>
       <c r="Y18" s="0" t="str">
-        <v xml:space="preserve">  B </v>
+        <v xml:space="preserve">  BC</v>
       </c>
       <c r="Z18" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
+        <v xml:space="preserve"> AB </v>
       </c>
       <c r="AA18" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -14191,13 +14175,13 @@
         <v xml:space="preserve">    </v>
       </c>
       <c r="AG18" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
+        <v xml:space="preserve"> AB </v>
       </c>
       <c r="AH18" s="0" t="str">
         <v xml:space="preserve">    </v>
       </c>
       <c r="AI18" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
+        <v xml:space="preserve"> A  </v>
       </c>
       <c r="AJ18" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -14223,22 +14207,22 @@
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="C19" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
+        <v xml:space="preserve"> A  </v>
       </c>
       <c r="D19" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
+        <v xml:space="preserve"> AB </v>
       </c>
       <c r="E19" s="0" t="str">
         <v xml:space="preserve">    </v>
       </c>
       <c r="F19" s="0" t="str">
-        <v xml:space="preserve">    </v>
+        <v xml:space="preserve">   C</v>
       </c>
       <c r="G19" s="0" t="str">
         <v xml:space="preserve">    </v>
       </c>
       <c r="H19" s="0" t="str">
-        <v xml:space="preserve">  B </v>
+        <v xml:space="preserve">  BC</v>
       </c>
       <c r="I19" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -14253,31 +14237,31 @@
         <v xml:space="preserve">    </v>
       </c>
       <c r="M19" s="0" t="str">
-        <v xml:space="preserve">    </v>
+        <v xml:space="preserve">   C</v>
       </c>
       <c r="N19" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
+        <v xml:space="preserve"> A  </v>
       </c>
       <c r="O19" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
+        <v xml:space="preserve"> AB </v>
       </c>
       <c r="P19" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="Q19" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
+        <v xml:space="preserve"> A  </v>
       </c>
       <c r="R19" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
+        <v xml:space="preserve"> AB </v>
       </c>
       <c r="S19" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
+        <v xml:space="preserve"> AB </v>
       </c>
       <c r="T19" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
+        <v xml:space="preserve"> AB </v>
       </c>
       <c r="U19" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
+        <v xml:space="preserve"> AB </v>
       </c>
       <c r="V19" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -14295,7 +14279,7 @@
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="AA19" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
+        <v xml:space="preserve"> AB </v>
       </c>
       <c r="AB19" s="0" t="str">
         <v xml:space="preserve">    </v>
@@ -14304,7 +14288,7 @@
         <v xml:space="preserve">    </v>
       </c>
       <c r="AD19" s="0" t="str">
-        <v xml:space="preserve">    </v>
+        <v xml:space="preserve">   C</v>
       </c>
       <c r="AE19" s="0" t="str">
         <v xml:space="preserve">    </v>
@@ -14325,13 +14309,13 @@
         <v xml:space="preserve">    </v>
       </c>
       <c r="AK19" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
+        <v xml:space="preserve"> A  </v>
       </c>
       <c r="AL19" s="0" t="str">
-        <v xml:space="preserve">  B </v>
+        <v xml:space="preserve">  BC</v>
       </c>
       <c r="AM19" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
+        <v xml:space="preserve"> A  </v>
       </c>
       <c r="AN19" s="0" t="str">
         <v xml:space="preserve">  B </v>
@@ -14348,19 +14332,19 @@
         <v xml:space="preserve">  B </v>
       </c>
       <c r="D20" s="0" t="str">
-        <v xml:space="preserve">    </v>
+        <v xml:space="preserve">   C</v>
       </c>
       <c r="E20" s="0" t="str">
         <v xml:space="preserve">    </v>
       </c>
       <c r="F20" s="0" t="str">
-        <v xml:space="preserve">    </v>
+        <v xml:space="preserve">   C</v>
       </c>
       <c r="G20" s="0" t="str">
         <v xml:space="preserve">    </v>
       </c>
       <c r="H20" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
+        <v xml:space="preserve"> AB </v>
       </c>
       <c r="I20" s="0" t="str">
         <v xml:space="preserve">  B </v>
@@ -14399,7 +14383,7 @@
         <v xml:space="preserve">    </v>
       </c>
       <c r="U20" s="0" t="str">
-        <v xml:space="preserve">    </v>
+        <v xml:space="preserve">   C</v>
       </c>
       <c r="V20" s="0" t="str">
         <v xml:space="preserve">    </v>
@@ -14417,7 +14401,7 @@
         <v xml:space="preserve">    </v>
       </c>
       <c r="AA20" s="0" t="str">
-        <v xml:space="preserve">    </v>
+        <v xml:space="preserve">   C</v>
       </c>
       <c r="AB20" s="0" t="str">
         <v xml:space="preserve">    </v>
@@ -14429,7 +14413,7 @@
         <v xml:space="preserve">    </v>
       </c>
       <c r="AE20" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
+        <v xml:space="preserve"> AB </v>
       </c>
       <c r="AF20" s="0" t="str">
         <v xml:space="preserve"> A C</v>
@@ -14438,7 +14422,7 @@
         <v xml:space="preserve">  B </v>
       </c>
       <c r="AH20" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
+        <v xml:space="preserve"> AB </v>
       </c>
       <c r="AI20" s="0" t="str">
         <v xml:space="preserve">    </v>
@@ -14450,7 +14434,7 @@
         <v xml:space="preserve">    </v>
       </c>
       <c r="AL20" s="0" t="str">
-        <v xml:space="preserve">  B </v>
+        <v xml:space="preserve">  BC</v>
       </c>
       <c r="AM20" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -14470,13 +14454,13 @@
         <v xml:space="preserve">  B </v>
       </c>
       <c r="D21" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
+        <v xml:space="preserve"> A  </v>
       </c>
       <c r="E21" s="0" t="str">
         <v xml:space="preserve">    </v>
       </c>
       <c r="F21" s="0" t="str">
-        <v xml:space="preserve">    </v>
+        <v xml:space="preserve">   C</v>
       </c>
       <c r="G21" s="0" t="str">
         <v xml:space="preserve">    </v>
@@ -14578,7 +14562,7 @@
         <v xml:space="preserve">    </v>
       </c>
       <c r="AN21" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
+        <v xml:space="preserve"> AB </v>
       </c>
     </row>
     <row r="22" spans="1:40" customFormat="false">
@@ -14592,13 +14576,13 @@
         <v xml:space="preserve">  B </v>
       </c>
       <c r="D22" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
+        <v xml:space="preserve"> A  </v>
       </c>
       <c r="E22" s="0" t="str">
         <v xml:space="preserve">    </v>
       </c>
       <c r="F22" s="0" t="str">
-        <v xml:space="preserve">    </v>
+        <v xml:space="preserve">   C</v>
       </c>
       <c r="G22" s="0" t="str">
         <v xml:space="preserve">    </v>
@@ -14610,7 +14594,7 @@
         <v xml:space="preserve">    </v>
       </c>
       <c r="J22" s="0" t="str">
-        <v xml:space="preserve">    </v>
+        <v xml:space="preserve">   C</v>
       </c>
       <c r="K22" s="0" t="str">
         <v xml:space="preserve">    </v>
@@ -14667,7 +14651,7 @@
         <v xml:space="preserve">    </v>
       </c>
       <c r="AC22" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
+        <v xml:space="preserve"> A  </v>
       </c>
       <c r="AD22" s="0" t="str">
         <v xml:space="preserve">    </v>
@@ -14676,7 +14660,7 @@
         <v xml:space="preserve">    </v>
       </c>
       <c r="AF22" s="0" t="str">
-        <v xml:space="preserve">    </v>
+        <v xml:space="preserve">   C</v>
       </c>
       <c r="AG22" s="0" t="str">
         <v xml:space="preserve">    </v>
@@ -14694,7 +14678,7 @@
         <v xml:space="preserve">    </v>
       </c>
       <c r="AL22" s="0" t="str">
-        <v xml:space="preserve">    </v>
+        <v xml:space="preserve">   C</v>
       </c>
       <c r="AM22" s="0" t="str">
         <v xml:space="preserve">    </v>
@@ -14714,13 +14698,13 @@
         <v xml:space="preserve">  B </v>
       </c>
       <c r="D23" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
+        <v xml:space="preserve"> A  </v>
       </c>
       <c r="E23" s="0" t="str">
         <v xml:space="preserve">    </v>
       </c>
       <c r="F23" s="0" t="str">
-        <v xml:space="preserve">    </v>
+        <v xml:space="preserve">   C</v>
       </c>
       <c r="G23" s="0" t="str">
         <v xml:space="preserve">    </v>
@@ -14729,10 +14713,10 @@
         <v xml:space="preserve">    </v>
       </c>
       <c r="I23" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
+        <v xml:space="preserve"> A  </v>
       </c>
       <c r="J23" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
+        <v xml:space="preserve"> A  </v>
       </c>
       <c r="K23" s="0" t="str">
         <v xml:space="preserve">    </v>
@@ -14741,7 +14725,7 @@
         <v xml:space="preserve">    </v>
       </c>
       <c r="M23" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
+        <v xml:space="preserve"> AB </v>
       </c>
       <c r="N23" s="0" t="str">
         <v xml:space="preserve">    </v>
@@ -14762,13 +14746,13 @@
         <v xml:space="preserve">    </v>
       </c>
       <c r="T23" s="0" t="str">
-        <v xml:space="preserve">  B </v>
+        <v xml:space="preserve">  BC</v>
       </c>
       <c r="U23" s="0" t="str">
         <v xml:space="preserve">    </v>
       </c>
       <c r="V23" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
+        <v xml:space="preserve"> A  </v>
       </c>
       <c r="W23" s="0" t="str">
         <v xml:space="preserve">    </v>
@@ -14798,7 +14782,7 @@
         <v xml:space="preserve">    </v>
       </c>
       <c r="AF23" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
+        <v xml:space="preserve"> A  </v>
       </c>
       <c r="AG23" s="0" t="str">
         <v xml:space="preserve">  B </v>
@@ -14830,28 +14814,28 @@
         <v>INTERMEDIATE ask questions, request clarification</v>
       </c>
       <c r="B24" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
+        <v xml:space="preserve"> AB </v>
       </c>
       <c r="C24" s="0" t="str">
         <v xml:space="preserve">  B </v>
       </c>
       <c r="D24" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
+        <v xml:space="preserve"> A  </v>
       </c>
       <c r="E24" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
+        <v xml:space="preserve"> A  </v>
       </c>
       <c r="F24" s="0" t="str">
-        <v xml:space="preserve">    </v>
+        <v xml:space="preserve">   C</v>
       </c>
       <c r="G24" s="0" t="str">
-        <v xml:space="preserve">  B </v>
+        <v xml:space="preserve">  BC</v>
       </c>
       <c r="H24" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="I24" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
+        <v xml:space="preserve"> AB </v>
       </c>
       <c r="J24" s="0" t="str">
         <v xml:space="preserve"> A C</v>
@@ -14860,13 +14844,13 @@
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="L24" s="0" t="str">
-        <v xml:space="preserve">  B </v>
+        <v xml:space="preserve">  BC</v>
       </c>
       <c r="M24" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
+        <v xml:space="preserve"> AB </v>
       </c>
       <c r="N24" s="0" t="str">
-        <v xml:space="preserve">    </v>
+        <v xml:space="preserve">   C</v>
       </c>
       <c r="O24" s="0" t="str">
         <v xml:space="preserve">    </v>
@@ -14884,7 +14868,7 @@
         <v xml:space="preserve">  B </v>
       </c>
       <c r="T24" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
+        <v xml:space="preserve"> AB </v>
       </c>
       <c r="U24" s="0" t="str">
         <v xml:space="preserve"> A C</v>
@@ -14893,7 +14877,7 @@
         <v xml:space="preserve">    </v>
       </c>
       <c r="W24" s="0" t="str">
-        <v xml:space="preserve">  B </v>
+        <v xml:space="preserve">  BC</v>
       </c>
       <c r="X24" s="0" t="str">
         <v xml:space="preserve">    </v>
@@ -14902,7 +14886,7 @@
         <v xml:space="preserve"> A C</v>
       </c>
       <c r="Z24" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
+        <v xml:space="preserve"> AB </v>
       </c>
       <c r="AA24" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -14923,10 +14907,10 @@
         <v xml:space="preserve">    </v>
       </c>
       <c r="AG24" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
+        <v xml:space="preserve"> A  </v>
       </c>
       <c r="AH24" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
+        <v xml:space="preserve"> AB </v>
       </c>
       <c r="AI24" s="0" t="str">
         <v xml:space="preserve">    </v>
@@ -14935,13 +14919,13 @@
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="AK24" s="0" t="str">
-        <v xml:space="preserve">    </v>
+        <v xml:space="preserve">   C</v>
       </c>
       <c r="AL24" s="0" t="str">
-        <v xml:space="preserve">    </v>
+        <v xml:space="preserve">   C</v>
       </c>
       <c r="AM24" s="0" t="str">
-        <v xml:space="preserve">    </v>
+        <v xml:space="preserve">   C</v>
       </c>
       <c r="AN24" s="0" t="str">
         <v xml:space="preserve">    </v>
@@ -14952,22 +14936,22 @@
         <v>INTERMEDIATE self-correct or restate when not understood</v>
       </c>
       <c r="B25" s="0" t="str">
-        <v xml:space="preserve">    </v>
+        <v xml:space="preserve">   C</v>
       </c>
       <c r="C25" s="0" t="str">
         <v xml:space="preserve">    </v>
       </c>
       <c r="D25" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
+        <v xml:space="preserve"> A  </v>
       </c>
       <c r="E25" s="0" t="str">
         <v xml:space="preserve">    </v>
       </c>
       <c r="F25" s="0" t="str">
-        <v xml:space="preserve">    </v>
+        <v xml:space="preserve">   C</v>
       </c>
       <c r="G25" s="0" t="str">
-        <v xml:space="preserve">    </v>
+        <v xml:space="preserve">   C</v>
       </c>
       <c r="H25" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -14985,19 +14969,19 @@
         <v xml:space="preserve">    </v>
       </c>
       <c r="M25" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
+        <v xml:space="preserve"> AB </v>
       </c>
       <c r="N25" s="0" t="str">
-        <v xml:space="preserve">  B </v>
+        <v xml:space="preserve">  BC</v>
       </c>
       <c r="O25" s="0" t="str">
-        <v xml:space="preserve">    </v>
+        <v xml:space="preserve">   C</v>
       </c>
       <c r="P25" s="0" t="str">
         <v xml:space="preserve">    </v>
       </c>
       <c r="Q25" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
+        <v xml:space="preserve"> AB </v>
       </c>
       <c r="R25" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -15021,22 +15005,22 @@
         <v xml:space="preserve">    </v>
       </c>
       <c r="Y25" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
+        <v xml:space="preserve"> AB </v>
       </c>
       <c r="Z25" s="0" t="str">
         <v xml:space="preserve">    </v>
       </c>
       <c r="AA25" s="0" t="str">
-        <v xml:space="preserve">    </v>
+        <v xml:space="preserve">   C</v>
       </c>
       <c r="AB25" s="0" t="str">
-        <v xml:space="preserve">  B </v>
+        <v xml:space="preserve">  BC</v>
       </c>
       <c r="AC25" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
+        <v xml:space="preserve"> AB </v>
       </c>
       <c r="AD25" s="0" t="str">
-        <v xml:space="preserve">  B </v>
+        <v xml:space="preserve">  BC</v>
       </c>
       <c r="AE25" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -15057,10 +15041,10 @@
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="AK25" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
+        <v xml:space="preserve"> A  </v>
       </c>
       <c r="AL25" s="0" t="str">
-        <v xml:space="preserve">  B </v>
+        <v xml:space="preserve">  BC</v>
       </c>
       <c r="AM25" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -15125,7 +15109,7 @@
         <v xml:space="preserve">    </v>
       </c>
       <c r="S26" s="0" t="str">
-        <v xml:space="preserve">  B </v>
+        <v xml:space="preserve">  BC</v>
       </c>
       <c r="T26" s="0" t="str">
         <v xml:space="preserve">    </v>
@@ -15137,7 +15121,7 @@
         <v xml:space="preserve">    </v>
       </c>
       <c r="W26" s="0" t="str">
-        <v xml:space="preserve">    </v>
+        <v xml:space="preserve">   C</v>
       </c>
       <c r="X26" s="0" t="str">
         <v xml:space="preserve">  B </v>
@@ -15146,7 +15130,7 @@
         <v xml:space="preserve">    </v>
       </c>
       <c r="Z26" s="0" t="str">
-        <v xml:space="preserve">    </v>
+        <v xml:space="preserve">   C</v>
       </c>
       <c r="AA26" s="0" t="str">
         <v xml:space="preserve"> ABC</v>
@@ -15164,7 +15148,7 @@
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="AF26" s="0" t="str">
-        <v xml:space="preserve">  B </v>
+        <v xml:space="preserve">  BC</v>
       </c>
       <c r="AG26" s="0" t="str">
         <v xml:space="preserve">    </v>
@@ -15182,54 +15166,16 @@
         <v xml:space="preserve"> ABC</v>
       </c>
       <c r="AL26" s="0" t="str">
-        <v xml:space="preserve">  B </v>
+        <v xml:space="preserve">  BC</v>
       </c>
       <c r="AM26" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
+        <v xml:space="preserve"> AB </v>
       </c>
       <c r="AN26" s="0" t="str">
         <v xml:space="preserve">    </v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="C2" r:id="rId2"/>
-    <hyperlink ref="D2" r:id="rId3"/>
-    <hyperlink ref="E2" r:id="rId4"/>
-    <hyperlink ref="F2" r:id="rId5"/>
-    <hyperlink ref="G2" r:id="rId6"/>
-    <hyperlink ref="H2" r:id="rId7"/>
-    <hyperlink ref="I2" r:id="rId8"/>
-    <hyperlink ref="J2" r:id="rId9"/>
-    <hyperlink ref="K2" r:id="rId10"/>
-    <hyperlink ref="L2" r:id="rId11"/>
-    <hyperlink ref="M2" r:id="rId12"/>
-    <hyperlink ref="N2" r:id="rId13"/>
-    <hyperlink ref="O2" r:id="rId14"/>
-    <hyperlink ref="Q2" r:id="rId15"/>
-    <hyperlink ref="R2" r:id="rId16"/>
-    <hyperlink ref="S2" r:id="rId17"/>
-    <hyperlink ref="U2" r:id="rId18"/>
-    <hyperlink ref="V2" r:id="rId19"/>
-    <hyperlink ref="W2" r:id="rId20"/>
-    <hyperlink ref="X2" r:id="rId21"/>
-    <hyperlink ref="Y2" r:id="rId22"/>
-    <hyperlink ref="Z2" r:id="rId23"/>
-    <hyperlink ref="AB2" r:id="rId24"/>
-    <hyperlink ref="AC2" r:id="rId25"/>
-    <hyperlink ref="AD2" r:id="rId26"/>
-    <hyperlink ref="AE2" r:id="rId27"/>
-    <hyperlink ref="AF2" r:id="rId28"/>
-    <hyperlink ref="AG2" r:id="rId29"/>
-    <hyperlink ref="AH2" r:id="rId30"/>
-    <hyperlink ref="AI2" r:id="rId31"/>
-    <hyperlink ref="AJ2" r:id="rId32"/>
-    <hyperlink ref="AK2" r:id="rId33"/>
-    <hyperlink ref="AL2" r:id="rId34"/>
-    <hyperlink ref="AM2" r:id="rId35"/>
-    <hyperlink ref="AN2" r:id="rId36"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/speaking.xlsx
+++ b/speaking.xlsx
@@ -1,29 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17766"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\csexton.HICKORYPD\Documents\GitHub\rubyspanishxlsx\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Form Responses 1" sheetId="1" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId5"/>
+    <sheet name="Form Responses 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Form Responses 1'!$A$1:$CJ$40</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="302" count="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4412" uniqueCount="310">
   <si>
     <t>Timestamp</t>
   </si>
@@ -929,30 +924,54 @@
   </si>
   <si>
     <t>Be able to have the courage to speak.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A C</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ABC</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AB </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  BC</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  B </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
   <fonts count="3">
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
-      <color rgb="FF000000"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
-      <sz val="10"/>
     </font>
     <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
       <name val="Arial"/>
-      <color rgb="FF0000FF"/>
-      <sz val="10"/>
-      <u val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -985,7 +1004,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16" count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1040,7 +1059,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1092,7 +1111,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1173,7 +1192,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -1199,7 +1218,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -1234,7 +1253,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="false">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1277,7 +1296,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -1286,14 +1305,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:CJ40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1311,7 +1330,7 @@
     <col min="7" max="88" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:88" customFormat="false" ht="15.75" customHeight="1">
+    <row r="1" spans="1:88" ht="15.75" customHeight="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1577,7 +1596,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:88" customFormat="false" ht="15.75" customHeight="1">
+    <row r="2" spans="1:88" ht="15.75" customHeight="1">
       <c r="A2" s="1">
         <v>42775.709293587963</v>
       </c>
@@ -1843,7 +1862,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:88" customFormat="false" ht="15.75" customHeight="1">
+    <row r="3" spans="1:88" ht="15.75" customHeight="1">
       <c r="A3" s="1">
         <v>42774.651042094905</v>
       </c>
@@ -2109,7 +2128,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:88" customFormat="false" ht="15.75" customHeight="1">
+    <row r="4" spans="1:88" ht="15.75" customHeight="1">
       <c r="A4" s="1">
         <v>42774.650523738426</v>
       </c>
@@ -2375,7 +2394,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:88" customFormat="false" ht="15.75" customHeight="1">
+    <row r="5" spans="1:88" ht="15.75" customHeight="1">
       <c r="A5" s="1">
         <v>42774.652556516201</v>
       </c>
@@ -2641,7 +2660,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:88" customFormat="false" ht="15.75" customHeight="1">
+    <row r="6" spans="1:88" ht="15.75" customHeight="1">
       <c r="A6" s="1">
         <v>42774.653896550924</v>
       </c>
@@ -2907,7 +2926,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:88" customFormat="false" ht="15.75" customHeight="1">
+    <row r="7" spans="1:88" ht="15.75" customHeight="1">
       <c r="A7" s="1">
         <v>42775.502814594904</v>
       </c>
@@ -3173,7 +3192,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:88" customFormat="false" ht="15.75" customHeight="1">
+    <row r="8" spans="1:88" ht="15.75" customHeight="1">
       <c r="A8" s="1">
         <v>42774.433026203704</v>
       </c>
@@ -3439,7 +3458,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:88" customFormat="false" ht="15.75" customHeight="1">
+    <row r="9" spans="1:88" ht="15.75" customHeight="1">
       <c r="A9" s="1">
         <v>42774.431579351847</v>
       </c>
@@ -3705,7 +3724,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="10" spans="1:88" customFormat="false" ht="15.75" customHeight="1">
+    <row r="10" spans="1:88" ht="15.75" customHeight="1">
       <c r="A10" s="1">
         <v>42774.652178321761</v>
       </c>
@@ -3971,7 +3990,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="11" spans="1:88" customFormat="false" ht="15.75" customHeight="1">
+    <row r="11" spans="1:88" ht="15.75" customHeight="1">
       <c r="A11" s="1">
         <v>42774.435710474536</v>
       </c>
@@ -4237,7 +4256,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="12" spans="1:88" customFormat="false" ht="15.75" customHeight="1">
+    <row r="12" spans="1:88" ht="15.75" customHeight="1">
       <c r="A12" s="1">
         <v>42774.652534039356</v>
       </c>
@@ -4503,7 +4522,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="13" spans="1:88" customFormat="false" ht="15.75" customHeight="1">
+    <row r="13" spans="1:88" ht="15.75" customHeight="1">
       <c r="A13" s="1">
         <v>42774.644888703704</v>
       </c>
@@ -4769,7 +4788,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="14" spans="1:88" customFormat="false" ht="15.75" customHeight="1">
+    <row r="14" spans="1:88" ht="15.75" customHeight="1">
       <c r="A14" s="1">
         <v>42774.656161921295</v>
       </c>
@@ -5035,7 +5054,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="15" spans="1:88" customFormat="false" ht="15.75" customHeight="1">
+    <row r="15" spans="1:88" ht="15.75" customHeight="1">
       <c r="A15" s="1">
         <v>42774.430878020838</v>
       </c>
@@ -5301,7 +5320,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="16" spans="1:88" customFormat="false" ht="15.75" customHeight="1">
+    <row r="16" spans="1:88" ht="15.75" customHeight="1">
       <c r="A16" s="1">
         <v>42774.434479872682</v>
       </c>
@@ -5567,7 +5586,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="17" spans="1:88" customFormat="false" ht="15.75" customHeight="1">
+    <row r="17" spans="1:88" ht="15.75" customHeight="1">
       <c r="A17" s="1">
         <v>42774.4337896875</v>
       </c>
@@ -5833,7 +5852,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="18" spans="1:88" customFormat="false" ht="15.75" customHeight="1">
+    <row r="18" spans="1:88" ht="15.75" customHeight="1">
       <c r="A18" s="1">
         <v>42775.84897619213</v>
       </c>
@@ -6099,7 +6118,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="19" spans="1:88" customFormat="false" ht="15.75" customHeight="1">
+    <row r="19" spans="1:88" ht="15.75" customHeight="1">
       <c r="A19" s="1">
         <v>42774.435684155091</v>
       </c>
@@ -6365,7 +6384,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="20" spans="1:88" customFormat="false" ht="15.75" customHeight="1">
+    <row r="20" spans="1:88" ht="15.75" customHeight="1">
       <c r="A20" s="1">
         <v>42774.896054467594</v>
       </c>
@@ -6631,7 +6650,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="21" spans="1:88" customFormat="false" ht="15.75" customHeight="1">
+    <row r="21" spans="1:88" ht="15.75" customHeight="1">
       <c r="A21" s="1">
         <v>42774.428690381945</v>
       </c>
@@ -6897,7 +6916,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="22" spans="1:88" customFormat="false" ht="15.75" customHeight="1">
+    <row r="22" spans="1:88" ht="15.75" customHeight="1">
       <c r="A22" s="1">
         <v>42774.432840856476</v>
       </c>
@@ -7163,7 +7182,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="23" spans="1:88" customFormat="false" ht="15.75" customHeight="1">
+    <row r="23" spans="1:88" ht="15.75" customHeight="1">
       <c r="A23" s="1">
         <v>42774.655336307871</v>
       </c>
@@ -7429,7 +7448,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="24" spans="1:88" customFormat="false" ht="15.75" customHeight="1">
+    <row r="24" spans="1:88" ht="15.75" customHeight="1">
       <c r="A24" s="1">
         <v>42774.655682997683</v>
       </c>
@@ -7695,7 +7714,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="25" spans="1:88" customFormat="false" ht="15.75" customHeight="1">
+    <row r="25" spans="1:88" ht="15.75" customHeight="1">
       <c r="A25" s="1">
         <v>42774.429644444448</v>
       </c>
@@ -7961,7 +7980,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="26" spans="1:88" customFormat="false" ht="15.75" customHeight="1">
+    <row r="26" spans="1:88" ht="15.75" customHeight="1">
       <c r="A26" s="1">
         <v>42774.432750127315</v>
       </c>
@@ -8227,7 +8246,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="27" spans="1:88" customFormat="false" ht="15.75" customHeight="1">
+    <row r="27" spans="1:88" ht="15.75" customHeight="1">
       <c r="A27" s="1">
         <v>42774.434694444441</v>
       </c>
@@ -8493,7 +8512,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="28" spans="1:88" customFormat="false" ht="15.75" customHeight="1">
+    <row r="28" spans="1:88" ht="15.75" customHeight="1">
       <c r="A28" s="1">
         <v>42774.656553958332</v>
       </c>
@@ -8759,7 +8778,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="29" spans="1:88" customFormat="false" ht="15.75" customHeight="1">
+    <row r="29" spans="1:88" ht="15.75" customHeight="1">
       <c r="A29" s="1">
         <v>42775.859371574072</v>
       </c>
@@ -9025,7 +9044,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="30" spans="1:88" customFormat="false" ht="15.75" customHeight="1">
+    <row r="30" spans="1:88" ht="15.75" customHeight="1">
       <c r="A30" s="1">
         <v>42774.430246319447</v>
       </c>
@@ -9291,7 +9310,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="31" spans="1:88" customFormat="false" ht="15.75" customHeight="1">
+    <row r="31" spans="1:88" ht="15.75" customHeight="1">
       <c r="A31" s="1">
         <v>42774.652473101851</v>
       </c>
@@ -9557,7 +9576,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="32" spans="1:88" customFormat="false" ht="15.75" customHeight="1">
+    <row r="32" spans="1:88" ht="15.75" customHeight="1">
       <c r="A32" s="1">
         <v>42774.436065706017</v>
       </c>
@@ -9823,7 +9842,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="33" spans="1:88" customFormat="false" ht="15.75" customHeight="1">
+    <row r="33" spans="1:88" ht="15.75" customHeight="1">
       <c r="A33" s="1">
         <v>42774.656680208333</v>
       </c>
@@ -10089,7 +10108,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="34" spans="1:88" customFormat="false" ht="15.75" customHeight="1">
+    <row r="34" spans="1:88" ht="15.75" customHeight="1">
       <c r="A34" s="1">
         <v>42774.434223865741</v>
       </c>
@@ -10355,7 +10374,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="35" spans="1:88" customFormat="false" ht="15.75" customHeight="1">
+    <row r="35" spans="1:88" ht="15.75" customHeight="1">
       <c r="A35" s="1">
         <v>42774.431040243056</v>
       </c>
@@ -10621,7 +10640,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="36" spans="1:88" customFormat="false" ht="15.75" customHeight="1">
+    <row r="36" spans="1:88" ht="15.75" customHeight="1">
       <c r="A36" s="1">
         <v>42774.659224513889</v>
       </c>
@@ -10887,7 +10906,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="37" spans="1:88" customFormat="false" ht="15.75" customHeight="1">
+    <row r="37" spans="1:88" ht="15.75" customHeight="1">
       <c r="A37" s="1">
         <v>42774.43202980324</v>
       </c>
@@ -11153,7 +11172,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="38" spans="1:88" customFormat="false" ht="15.75" customHeight="1">
+    <row r="38" spans="1:88" ht="15.75" customHeight="1">
       <c r="A38" s="1">
         <v>42774.434366805552</v>
       </c>
@@ -11419,7 +11438,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="39" spans="1:88" customFormat="false" ht="15.75" customHeight="1">
+    <row r="39" spans="1:88" ht="15.75" customHeight="1">
       <c r="A39" s="1">
         <v>42774.428849467593</v>
       </c>
@@ -11685,7 +11704,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="40" spans="1:88" customFormat="false" ht="12.75">
+    <row r="40" spans="1:88" ht="12.75">
       <c r="A40" s="1">
         <v>42774.656473368057</v>
       </c>
@@ -11996,11 +12015,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
-  <dimension ref="B1:AN26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AN26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A1:AO26"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.7109375" defaultRowHeight="12.75"/>
@@ -12009,3170 +12028,3167 @@
     <col min="2" max="2" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:40" customFormat="false">
-      <c r="B1" s="0" t="str">
-        <v>aaron.nesnow846@gaston.k12.nc.us</v>
-      </c>
-      <c r="C1" s="0" t="str">
-        <v>adison.costner856@gaston.k12.nc.us</v>
-      </c>
-      <c r="D1" s="0" t="str">
-        <v>alana.williams574@gaston.k12.nc.us</v>
-      </c>
-      <c r="E1" s="0" t="str">
-        <v>alanie.odell901@gaston.k12.nc.us</v>
-      </c>
-      <c r="F1" s="0" t="str">
-        <v>aleigha.letterman215@gaston.k12.nc.us</v>
-      </c>
-      <c r="G1" s="0" t="str">
-        <v>aleigha.letterman215@gaston.k12.nc.us</v>
-      </c>
-      <c r="H1" s="0" t="str">
-        <v>anna.kleffnerspencer042@gaston.k12.nc.us</v>
-      </c>
-      <c r="I1" s="0" t="str">
-        <v>caleb.costner942@gaston.k12.nc.us</v>
-      </c>
-      <c r="J1" s="0" t="str">
-        <v>dalton.harmon921@gaston.k12.nc.us</v>
-      </c>
-      <c r="K1" s="0" t="str">
-        <v>douglas.farley537@gaston.k12.nc.us</v>
-      </c>
-      <c r="L1" s="0" t="str">
-        <v>elizabeth.suarez717@gaston.k12.nc.us</v>
-      </c>
-      <c r="M1" s="0" t="str">
-        <v>grace.deaton440@gaston.k12.nc.us</v>
-      </c>
-      <c r="N1" s="0" t="str">
-        <v>hannah.berckman208@gaston.k12.nc.us</v>
-      </c>
-      <c r="O1" s="0" t="str">
-        <v>hannah.cribby469@gaston.k12.nc.us</v>
-      </c>
-      <c r="P1" s="0" t="str">
-        <v>haylee.franckewitz955@gaston.k12.nc.us</v>
-      </c>
-      <c r="Q1" s="0" t="str">
-        <v>james.abee815@gaston.k12.nc.us</v>
-      </c>
-      <c r="R1" s="0" t="str">
-        <v>james.abee815@gaston.k12.nc.us</v>
-      </c>
-      <c r="S1" s="0" t="str">
-        <v>james.lynn958@gaston.k12.nc.us</v>
-      </c>
-      <c r="T1" s="0" t="str">
-        <v>jared.godwin616@gaston.k12.nc.us</v>
-      </c>
-      <c r="U1" s="0" t="str">
-        <v>jessica.kirby006@gaston.k12.nc.us</v>
-      </c>
-      <c r="V1" s="0" t="str">
-        <v>jessica.payne425@gaston.k12.nc.us</v>
-      </c>
-      <c r="W1" s="0" t="str">
-        <v>kalynne.helms096@gaston.k12.nc.us</v>
-      </c>
-      <c r="X1" s="0" t="str">
-        <v>karmen.scruggs776@gaston.k12.nc.us</v>
-      </c>
-      <c r="Y1" s="0" t="str">
-        <v>kayla.shannon027@gaston.k12.nc.us</v>
-      </c>
-      <c r="Z1" s="0" t="str">
-        <v>kayla.williamson843@gaston.k12.nc.us</v>
-      </c>
-      <c r="AA1" s="0" t="str">
-        <v>kimberly.queen686@gaston.k12.nc.us</v>
-      </c>
-      <c r="AB1" s="0" t="str">
-        <v>kyra.rhyne012@gaston.k12.nc.us</v>
-      </c>
-      <c r="AC1" s="0" t="str">
-        <v>kyra.rhyne012@gaston.k12.nc.us</v>
-      </c>
-      <c r="AD1" s="0" t="str">
-        <v>laurie.ricardo512@gaston.k12.nc.us</v>
-      </c>
-      <c r="AE1" s="0" t="str">
-        <v>ling.zhang885@gaston.k12.nc.us</v>
-      </c>
-      <c r="AF1" s="0" t="str">
-        <v>noah.wollin244@gaston.k12.nc.us</v>
-      </c>
-      <c r="AG1" s="0" t="str">
-        <v>olyvia.knight064@gaston.k12.nc.us</v>
-      </c>
-      <c r="AH1" s="0" t="str">
-        <v>parth.patel358@gaston.k12.nc.us</v>
-      </c>
-      <c r="AI1" s="0" t="str">
-        <v>piper.colangelo050@gaston.k12.nc.us</v>
-      </c>
-      <c r="AJ1" s="0" t="str">
-        <v>riley.kiefer729@gaston.k12.nc.us</v>
-      </c>
-      <c r="AK1" s="0" t="str">
-        <v>sarah.macon201@gaston.k12.nc.us</v>
-      </c>
-      <c r="AL1" s="0" t="str">
-        <v>scott.johnson192@gaston.k12.nc.us</v>
-      </c>
-      <c r="AM1" s="0" t="str">
-        <v>tiffany.weresow255@gaston.k12.nc.us</v>
-      </c>
-      <c r="AN1" s="0" t="str">
-        <v>weston.peavy213@gaston.k12.nc.us</v>
+    <row r="1" spans="1:40">
+      <c r="B1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J1" t="s">
+        <v>104</v>
+      </c>
+      <c r="K1" t="s">
+        <v>111</v>
+      </c>
+      <c r="L1" t="s">
+        <v>118</v>
+      </c>
+      <c r="M1" t="s">
+        <v>125</v>
+      </c>
+      <c r="N1" t="s">
+        <v>132</v>
+      </c>
+      <c r="O1" t="s">
+        <v>139</v>
+      </c>
+      <c r="P1" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>150</v>
+      </c>
+      <c r="R1" t="s">
+        <v>150</v>
+      </c>
+      <c r="S1" t="s">
+        <v>162</v>
+      </c>
+      <c r="T1" t="s">
+        <v>169</v>
+      </c>
+      <c r="U1" t="s">
+        <v>175</v>
+      </c>
+      <c r="V1" t="s">
+        <v>180</v>
+      </c>
+      <c r="W1" t="s">
+        <v>187</v>
+      </c>
+      <c r="X1" t="s">
+        <v>193</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>200</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>207</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>214</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>221</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>221</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>231</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>238</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>245</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>251</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>257</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>264</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>270</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>277</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>283</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>289</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>295</v>
       </c>
     </row>
-    <row r="2" spans="2:40" customFormat="false">
-      <c r="B2" s="0" t="str">
-        <v>http://gecaaronnespanol.blogspot.com/p/speaking.html</v>
-      </c>
-      <c r="C2" s="0" t="str">
-        <v>http://gecadisonsespanol.blogspot.com/p/speaking.html</v>
-      </c>
-      <c r="D2" s="0" t="str">
-        <v>http://gecalanawespanol.blogspot.com/p/speaking.html</v>
-      </c>
-      <c r="E2" s="0" t="str">
-        <v>http://gecalanieoespanol.blogspot.com/p/speaking.html</v>
-      </c>
-      <c r="F2" s="0" t="str">
-        <v>http://gecaleighalespanol.blogspot.com/</v>
-      </c>
-      <c r="G2" s="0" t="str">
-        <v>http://gecaleighalespanol.blogspot.com/p/speaking.html?_sm_au_=iRV4H734DJR712BH</v>
-      </c>
-      <c r="H2" s="0" t="str">
-        <v>http://gecannaks.blogspot.com/p/speaking.html</v>
-      </c>
-      <c r="I2" s="0" t="str">
-        <v>http://geccalebcespanol.blogspot.com/p/speaking.html</v>
-      </c>
-      <c r="J2" s="0" t="str">
-        <v>http://gecdaltonhespanol.blogspot.com/p/speaking.html</v>
-      </c>
-      <c r="K2" s="0" t="str">
-        <v>http://gecdouglasfespanol.blogspot.com/p/speaking.html</v>
-      </c>
-      <c r="L2" s="0" t="str">
-        <v>http://gecelizabethsespanol.blogspot.com/p/speaking.html</v>
-      </c>
-      <c r="M2" s="0" t="str">
-        <v>http://gecgracedespanol.blogspot.com/p/speaking.html</v>
-      </c>
-      <c r="N2" s="0" t="str">
-        <v>http://gechannahbespanol.blogspot.com/p/speaking.html</v>
-      </c>
-      <c r="O2" s="0" t="str">
-        <v>http://gechannahcespanol.blogspot.com/p/speaking.html</v>
-      </c>
-      <c r="P2" s="0" t="str">
-        <v>notebook</v>
-      </c>
-      <c r="Q2" s="0" t="str">
-        <v xml:space="preserve">http://gecloganaespanol.blogspot.com/p/speaking.html </v>
-      </c>
-      <c r="R2" s="0" t="str">
-        <v>http://gecloganaespanol.blogspot.com/p/speaking.html</v>
-      </c>
-      <c r="S2" s="0" t="str">
-        <v>http://gecjameslespanol.blogspot.com/p/speaking.html</v>
-      </c>
-      <c r="T2" s="0" t="str">
-        <v>Clavo: fue</v>
-      </c>
-      <c r="U2" s="0" t="str">
-        <v>http://gecjessicakespanol.blogspot.com/</v>
-      </c>
-      <c r="V2" s="0" t="str">
-        <v>http://gecjessicapespanol.blogspot.com/2017/02/hablar-portfolio.html</v>
-      </c>
-      <c r="W2" s="0" t="str">
-        <v>http://geckalynnehespanol.blogspot.com/p/speaking.html</v>
-      </c>
-      <c r="X2" s="0" t="str">
-        <v>http://geckarmensespanol.blogspot.com/p/speaking.html</v>
-      </c>
-      <c r="Y2" s="0" t="str">
-        <v>https://geckshannon.blogspot.com/b/post-preview?token=ujT-H1oBAAA.cBZXbAHzfkhewsrLBQwjCzCTaf9-aCxkbnLXCIU4J90SukY8Z8vcHzRZ8qg1eH2_dcqow_gOF0bmtMAVSuDZNQ.x5nCMzkXswb3fjHitapT9A&amp;postId=5070485297239961755&amp;type=PAGE</v>
-      </c>
-      <c r="Z2" s="0" t="str">
-        <v>http://geckaylawespanol.blogspot.com/p/speaking.html</v>
-      </c>
-      <c r="AA2" s="0" t="str">
-        <v>paper</v>
-      </c>
-      <c r="AB2" s="0" t="str">
-        <v>http://geckyrarespanol.blogspot.com/p/speaking.html</v>
-      </c>
-      <c r="AC2" s="0" t="str">
-        <v>http://geckyrarespanol.blogspot.com/p/speaking.html</v>
-      </c>
-      <c r="AD2" s="0" t="str">
-        <v>http://geclaurier.blogspot.com/p/speaking.html</v>
-      </c>
-      <c r="AE2" s="0" t="str">
-        <v>http://geclingespanol.blogspot.com/p/speaking.html</v>
-      </c>
-      <c r="AF2" s="0" t="str">
-        <v>http://gecnoahwespanol.blogspot.com/p/speaking.html</v>
-      </c>
-      <c r="AG2" s="0" t="str">
-        <v>http://gecolyviakespanol.blogspot.com/p/speaking.html</v>
-      </c>
-      <c r="AH2" s="0" t="str">
-        <v>http://gecparthespanol.blogspot.com/p/speaking.html</v>
-      </c>
-      <c r="AI2" s="0" t="str">
-        <v>http://gecpipercespanol.blogspot.com/p/speaking.html</v>
-      </c>
-      <c r="AJ2" s="0" t="str">
-        <v>https://gecrileykespanol.blogspot.com/p/speaking.html</v>
-      </c>
-      <c r="AK2" s="0" t="str">
-        <v>http://gecsarahmespanol.blogspot.com/p/speaking.html</v>
-      </c>
-      <c r="AL2" s="0" t="str">
-        <v>http://gecchristopherjespanol.blogspot.com/p/speaking.html</v>
-      </c>
-      <c r="AM2" s="0" t="str">
-        <v>http://gectiffanywespanol.blogspot.com/p/speaking.html</v>
-      </c>
-      <c r="AN2" s="0" t="str">
-        <v>http://gecwestonpespanol.blogspot.com/p/speaking.html</v>
+    <row r="2" spans="1:40">
+      <c r="B2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K2" t="s">
+        <v>112</v>
+      </c>
+      <c r="L2" t="s">
+        <v>119</v>
+      </c>
+      <c r="M2" t="s">
+        <v>126</v>
+      </c>
+      <c r="N2" t="s">
+        <v>133</v>
+      </c>
+      <c r="O2" t="s">
+        <v>140</v>
+      </c>
+      <c r="P2" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>151</v>
+      </c>
+      <c r="R2" t="s">
+        <v>157</v>
+      </c>
+      <c r="S2" t="s">
+        <v>163</v>
+      </c>
+      <c r="T2" t="s">
+        <v>170</v>
+      </c>
+      <c r="U2" t="s">
+        <v>176</v>
+      </c>
+      <c r="V2" t="s">
+        <v>181</v>
+      </c>
+      <c r="W2" t="s">
+        <v>188</v>
+      </c>
+      <c r="X2" t="s">
+        <v>194</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>201</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>208</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>215</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>222</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>222</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>232</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>239</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>246</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>252</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>258</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>265</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>271</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>278</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>284</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>290</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>296</v>
       </c>
     </row>
-    <row r="3" spans="1:40" customFormat="false">
-      <c r="A3" s="0" t="str">
-        <v>NOVICE ask/respond to  predictable, formulaic questions</v>
-      </c>
-      <c r="B3" s="0" t="str">
-        <v>Spanish II 1st</v>
-      </c>
-      <c r="C3" s="0" t="str">
-        <v>Spanish II 4th</v>
-      </c>
-      <c r="D3" s="0" t="str">
-        <v>Spanish II 4th</v>
-      </c>
-      <c r="E3" s="0" t="str">
-        <v>Spanish II 4th</v>
-      </c>
-      <c r="F3" s="0" t="str">
-        <v>Spanish II 4th</v>
-      </c>
-      <c r="G3" s="0" t="str">
-        <v>Spanish II 4th</v>
-      </c>
-      <c r="H3" s="0" t="str">
-        <v>Spanish II 1st</v>
-      </c>
-      <c r="I3" s="0" t="str">
-        <v>Spanish II 1st</v>
-      </c>
-      <c r="J3" s="0" t="str">
-        <v>Spanish II 4th</v>
-      </c>
-      <c r="K3" s="0" t="str">
-        <v>Spanish II 1st</v>
-      </c>
-      <c r="L3" s="0" t="str">
-        <v>Spanish II 4th</v>
-      </c>
-      <c r="M3" s="0" t="str">
-        <v>Spanish II 4th</v>
-      </c>
-      <c r="N3" s="0" t="str">
-        <v>Spanish II 4th</v>
-      </c>
-      <c r="O3" s="0" t="str">
-        <v>Spanish II 1st</v>
-      </c>
-      <c r="P3" s="0" t="str">
-        <v>Spanish II 1st</v>
-      </c>
-      <c r="Q3" s="0" t="str">
-        <v>Spanish II 1st</v>
-      </c>
-      <c r="R3" s="0" t="str">
-        <v>Spanish II 1st</v>
-      </c>
-      <c r="S3" s="0" t="str">
-        <v>Spanish II 1st</v>
-      </c>
-      <c r="T3" s="0" t="str">
-        <v>Spanish II 1st</v>
-      </c>
-      <c r="U3" s="0" t="str">
-        <v>Spanish II 1st</v>
-      </c>
-      <c r="V3" s="0" t="str">
-        <v>Spanish II 1st</v>
-      </c>
-      <c r="W3" s="0" t="str">
-        <v>Spanish II 4th</v>
-      </c>
-      <c r="X3" s="0" t="str">
-        <v>Spanish II 4th</v>
-      </c>
-      <c r="Y3" s="0" t="str">
-        <v>Spanish II 1st</v>
-      </c>
-      <c r="Z3" s="0" t="str">
-        <v>Spanish II 1st</v>
-      </c>
-      <c r="AA3" s="0" t="str">
-        <v>Spanish II 1st</v>
-      </c>
-      <c r="AB3" s="0" t="str">
-        <v>Spanish II 4th</v>
-      </c>
-      <c r="AC3" s="0" t="str">
-        <v>Spanish II 4th</v>
-      </c>
-      <c r="AD3" s="0" t="str">
-        <v>Spanish II 1st</v>
-      </c>
-      <c r="AE3" s="0" t="str">
-        <v>Spanish II 4th</v>
-      </c>
-      <c r="AF3" s="0" t="str">
-        <v>Spanish II 1st</v>
-      </c>
-      <c r="AG3" s="0" t="str">
-        <v>Spanish II 4th</v>
-      </c>
-      <c r="AH3" s="0" t="str">
-        <v>Spanish II 1st</v>
-      </c>
-      <c r="AI3" s="0" t="str">
-        <v>Spanish II 1st</v>
-      </c>
-      <c r="AJ3" s="0" t="str">
-        <v>Spanish II 4th</v>
-      </c>
-      <c r="AK3" s="0" t="str">
-        <v>Spanish II 1st</v>
-      </c>
-      <c r="AL3" s="0" t="str">
-        <v>Spanish II 1st</v>
-      </c>
-      <c r="AM3" s="0" t="str">
-        <v>Spanish II 1st</v>
-      </c>
-      <c r="AN3" s="0" t="str">
-        <v>Spanish II 4th</v>
+    <row r="3" spans="1:40">
+      <c r="B3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="s">
+        <v>58</v>
+      </c>
+      <c r="N3" t="s">
+        <v>58</v>
+      </c>
+      <c r="O3" t="s">
+        <v>44</v>
+      </c>
+      <c r="P3" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>44</v>
+      </c>
+      <c r="R3" t="s">
+        <v>44</v>
+      </c>
+      <c r="S3" t="s">
+        <v>44</v>
+      </c>
+      <c r="T3" t="s">
+        <v>44</v>
+      </c>
+      <c r="U3" t="s">
+        <v>44</v>
+      </c>
+      <c r="V3" t="s">
+        <v>44</v>
+      </c>
+      <c r="W3" t="s">
+        <v>58</v>
+      </c>
+      <c r="X3" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:40" customFormat="false">
-      <c r="A4" s="0" t="str">
-        <v>NOVICE ask/respond to  predictable, formulaic questions</v>
-      </c>
-      <c r="B4" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
-      </c>
-      <c r="C4" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="D4" s="0" t="str">
-        <v xml:space="preserve"> AB </v>
-      </c>
-      <c r="E4" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="F4" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
-      </c>
-      <c r="G4" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="H4" s="0" t="str">
-        <v xml:space="preserve">  BC</v>
-      </c>
-      <c r="I4" s="0" t="str">
-        <v xml:space="preserve"> AB </v>
-      </c>
-      <c r="J4" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
-      </c>
-      <c r="K4" s="0" t="str">
-        <v xml:space="preserve"> AB </v>
-      </c>
-      <c r="L4" s="0" t="str">
-        <v xml:space="preserve"> A  </v>
-      </c>
-      <c r="M4" s="0" t="str">
-        <v xml:space="preserve"> AB </v>
-      </c>
-      <c r="N4" s="0" t="str">
-        <v xml:space="preserve"> AB </v>
-      </c>
-      <c r="O4" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="P4" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="Q4" s="0" t="str">
-        <v xml:space="preserve">   C</v>
-      </c>
-      <c r="R4" s="0" t="str">
-        <v xml:space="preserve">   C</v>
-      </c>
-      <c r="S4" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="T4" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="U4" s="0" t="str">
-        <v xml:space="preserve"> AB </v>
-      </c>
-      <c r="V4" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="W4" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="X4" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="Y4" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="Z4" s="0" t="str">
-        <v xml:space="preserve"> AB </v>
-      </c>
-      <c r="AA4" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="AB4" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
-      </c>
-      <c r="AC4" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
-      </c>
-      <c r="AD4" s="0" t="str">
-        <v xml:space="preserve">  B </v>
-      </c>
-      <c r="AE4" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="AF4" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="AG4" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="AH4" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="AI4" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="AJ4" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="AK4" s="0" t="str">
-        <v xml:space="preserve"> A  </v>
-      </c>
-      <c r="AL4" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="AM4" s="0" t="str">
-        <v xml:space="preserve"> A  </v>
-      </c>
-      <c r="AN4" s="0" t="str">
-        <v xml:space="preserve"> A  </v>
+    <row r="4" spans="1:40">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>302</v>
+      </c>
+      <c r="C4" t="s">
+        <v>303</v>
+      </c>
+      <c r="D4" t="s">
+        <v>304</v>
+      </c>
+      <c r="E4" t="s">
+        <v>305</v>
+      </c>
+      <c r="F4" t="s">
+        <v>302</v>
+      </c>
+      <c r="G4" t="s">
+        <v>303</v>
+      </c>
+      <c r="H4" t="s">
+        <v>306</v>
+      </c>
+      <c r="I4" t="s">
+        <v>304</v>
+      </c>
+      <c r="J4" t="s">
+        <v>302</v>
+      </c>
+      <c r="K4" t="s">
+        <v>304</v>
+      </c>
+      <c r="L4" t="s">
+        <v>307</v>
+      </c>
+      <c r="M4" t="s">
+        <v>304</v>
+      </c>
+      <c r="N4" t="s">
+        <v>304</v>
+      </c>
+      <c r="O4" t="s">
+        <v>303</v>
+      </c>
+      <c r="P4" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>308</v>
+      </c>
+      <c r="R4" t="s">
+        <v>308</v>
+      </c>
+      <c r="S4" t="s">
+        <v>303</v>
+      </c>
+      <c r="T4" t="s">
+        <v>303</v>
+      </c>
+      <c r="U4" t="s">
+        <v>304</v>
+      </c>
+      <c r="V4" t="s">
+        <v>303</v>
+      </c>
+      <c r="W4" t="s">
+        <v>303</v>
+      </c>
+      <c r="X4" t="s">
+        <v>305</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>303</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>304</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>305</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>302</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>302</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>309</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>303</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>303</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>305</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>303</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>303</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>305</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>307</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>303</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>307</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>307</v>
       </c>
     </row>
-    <row r="5" spans="1:40" customFormat="false">
-      <c r="A5" s="0" t="str">
-        <v>NOVICE list, name, identify</v>
-      </c>
-      <c r="B5" s="0" t="str">
-        <v xml:space="preserve">  B </v>
-      </c>
-      <c r="C5" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="D5" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="E5" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="F5" s="0" t="str">
-        <v xml:space="preserve">   C</v>
-      </c>
-      <c r="G5" s="0" t="str">
-        <v xml:space="preserve">   C</v>
-      </c>
-      <c r="H5" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="I5" s="0" t="str">
-        <v xml:space="preserve">   C</v>
-      </c>
-      <c r="J5" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="K5" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="L5" s="0" t="str">
-        <v xml:space="preserve">   C</v>
-      </c>
-      <c r="M5" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="N5" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="O5" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
-      </c>
-      <c r="P5" s="0" t="str">
-        <v xml:space="preserve">  B </v>
-      </c>
-      <c r="Q5" s="0" t="str">
-        <v xml:space="preserve"> A  </v>
-      </c>
-      <c r="R5" s="0" t="str">
-        <v xml:space="preserve">  B </v>
-      </c>
-      <c r="S5" s="0" t="str">
-        <v xml:space="preserve">  BC</v>
-      </c>
-      <c r="T5" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="U5" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="V5" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="W5" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="X5" s="0" t="str">
-        <v xml:space="preserve">   C</v>
-      </c>
-      <c r="Y5" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="Z5" s="0" t="str">
-        <v xml:space="preserve">   C</v>
-      </c>
-      <c r="AA5" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
-      </c>
-      <c r="AB5" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
-      </c>
-      <c r="AC5" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="AD5" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="AE5" s="0" t="str">
-        <v xml:space="preserve">  B </v>
-      </c>
-      <c r="AF5" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="AG5" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="AH5" s="0" t="str">
-        <v xml:space="preserve"> AB </v>
-      </c>
-      <c r="AI5" s="0" t="str">
-        <v xml:space="preserve">  BC</v>
-      </c>
-      <c r="AJ5" s="0" t="str">
-        <v xml:space="preserve"> A  </v>
-      </c>
-      <c r="AK5" s="0" t="str">
-        <v xml:space="preserve"> A  </v>
-      </c>
-      <c r="AL5" s="0" t="str">
-        <v xml:space="preserve">  BC</v>
-      </c>
-      <c r="AM5" s="0" t="str">
-        <v xml:space="preserve"> A  </v>
-      </c>
-      <c r="AN5" s="0" t="str">
-        <v xml:space="preserve">    </v>
+    <row r="5" spans="1:40">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>309</v>
+      </c>
+      <c r="C5" t="s">
+        <v>303</v>
+      </c>
+      <c r="D5" t="s">
+        <v>303</v>
+      </c>
+      <c r="E5" t="s">
+        <v>305</v>
+      </c>
+      <c r="F5" t="s">
+        <v>308</v>
+      </c>
+      <c r="G5" t="s">
+        <v>308</v>
+      </c>
+      <c r="H5" t="s">
+        <v>303</v>
+      </c>
+      <c r="I5" t="s">
+        <v>308</v>
+      </c>
+      <c r="J5" t="s">
+        <v>303</v>
+      </c>
+      <c r="K5" t="s">
+        <v>305</v>
+      </c>
+      <c r="L5" t="s">
+        <v>308</v>
+      </c>
+      <c r="M5" t="s">
+        <v>303</v>
+      </c>
+      <c r="N5" t="s">
+        <v>305</v>
+      </c>
+      <c r="O5" t="s">
+        <v>302</v>
+      </c>
+      <c r="P5" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>307</v>
+      </c>
+      <c r="R5" t="s">
+        <v>309</v>
+      </c>
+      <c r="S5" t="s">
+        <v>306</v>
+      </c>
+      <c r="T5" t="s">
+        <v>305</v>
+      </c>
+      <c r="U5" t="s">
+        <v>305</v>
+      </c>
+      <c r="V5" t="s">
+        <v>303</v>
+      </c>
+      <c r="W5" t="s">
+        <v>303</v>
+      </c>
+      <c r="X5" t="s">
+        <v>308</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>303</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>308</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>302</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>302</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>305</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>305</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>309</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>305</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>303</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>304</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>306</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>307</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>307</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>306</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>307</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>305</v>
       </c>
     </row>
-    <row r="6" spans="1:40" customFormat="false">
-      <c r="A6" s="0" t="str">
-        <v>INTERMEDIATE ask, answer variety of questions</v>
-      </c>
-      <c r="B6" s="0" t="str">
-        <v xml:space="preserve"> AB </v>
-      </c>
-      <c r="C6" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
-      </c>
-      <c r="D6" s="0" t="str">
-        <v xml:space="preserve"> AB </v>
-      </c>
-      <c r="E6" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="F6" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
-      </c>
-      <c r="G6" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="H6" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="I6" s="0" t="str">
-        <v xml:space="preserve"> AB </v>
-      </c>
-      <c r="J6" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
-      </c>
-      <c r="K6" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="L6" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="M6" s="0" t="str">
-        <v xml:space="preserve"> A  </v>
-      </c>
-      <c r="N6" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="O6" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="P6" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
-      </c>
-      <c r="Q6" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="R6" s="0" t="str">
-        <v xml:space="preserve"> AB </v>
-      </c>
-      <c r="S6" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="T6" s="0" t="str">
-        <v xml:space="preserve">  BC</v>
-      </c>
-      <c r="U6" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="V6" s="0" t="str">
-        <v xml:space="preserve">  BC</v>
-      </c>
-      <c r="W6" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="X6" s="0" t="str">
-        <v xml:space="preserve"> AB </v>
-      </c>
-      <c r="Y6" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="Z6" s="0" t="str">
-        <v xml:space="preserve"> A  </v>
-      </c>
-      <c r="AA6" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="AB6" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="AC6" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="AD6" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="AE6" s="0" t="str">
-        <v xml:space="preserve">   C</v>
-      </c>
-      <c r="AF6" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="AG6" s="0" t="str">
-        <v xml:space="preserve"> A  </v>
-      </c>
-      <c r="AH6" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="AI6" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="AJ6" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="AK6" s="0" t="str">
-        <v xml:space="preserve">  BC</v>
-      </c>
-      <c r="AL6" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="AM6" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
-      </c>
-      <c r="AN6" s="0" t="str">
-        <v xml:space="preserve"> AB </v>
+    <row r="6" spans="1:40">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>304</v>
+      </c>
+      <c r="C6" t="s">
+        <v>302</v>
+      </c>
+      <c r="D6" t="s">
+        <v>304</v>
+      </c>
+      <c r="E6" t="s">
+        <v>303</v>
+      </c>
+      <c r="F6" t="s">
+        <v>302</v>
+      </c>
+      <c r="G6" t="s">
+        <v>303</v>
+      </c>
+      <c r="H6" t="s">
+        <v>303</v>
+      </c>
+      <c r="I6" t="s">
+        <v>304</v>
+      </c>
+      <c r="J6" t="s">
+        <v>302</v>
+      </c>
+      <c r="K6" t="s">
+        <v>303</v>
+      </c>
+      <c r="L6" t="s">
+        <v>303</v>
+      </c>
+      <c r="M6" t="s">
+        <v>307</v>
+      </c>
+      <c r="N6" t="s">
+        <v>303</v>
+      </c>
+      <c r="O6" t="s">
+        <v>303</v>
+      </c>
+      <c r="P6" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>303</v>
+      </c>
+      <c r="R6" t="s">
+        <v>304</v>
+      </c>
+      <c r="S6" t="s">
+        <v>303</v>
+      </c>
+      <c r="T6" t="s">
+        <v>306</v>
+      </c>
+      <c r="U6" t="s">
+        <v>303</v>
+      </c>
+      <c r="V6" t="s">
+        <v>306</v>
+      </c>
+      <c r="W6" t="s">
+        <v>303</v>
+      </c>
+      <c r="X6" t="s">
+        <v>304</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>303</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>307</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>303</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>303</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>303</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>303</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>308</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>303</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>307</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>303</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>303</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>303</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>306</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>303</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>302</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>304</v>
       </c>
     </row>
-    <row r="7" spans="1:40" customFormat="false">
-      <c r="A7" s="0" t="str">
-        <v>INTERMEDIATE initiate, maintain, end conversation for basic needs/transactions</v>
-      </c>
-      <c r="B7" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="C7" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="D7" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="E7" s="0" t="str">
-        <v xml:space="preserve">  BC</v>
-      </c>
-      <c r="F7" s="0" t="str">
-        <v xml:space="preserve">   C</v>
-      </c>
-      <c r="G7" s="0" t="str">
-        <v xml:space="preserve">  BC</v>
-      </c>
-      <c r="H7" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="I7" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
-      </c>
-      <c r="J7" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="K7" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="L7" s="0" t="str">
-        <v xml:space="preserve">  B </v>
-      </c>
-      <c r="M7" s="0" t="str">
-        <v xml:space="preserve"> A  </v>
-      </c>
-      <c r="N7" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="O7" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="P7" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="Q7" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="R7" s="0" t="str">
-        <v xml:space="preserve"> AB </v>
-      </c>
-      <c r="S7" s="0" t="str">
-        <v xml:space="preserve">  BC</v>
-      </c>
-      <c r="T7" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="U7" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
-      </c>
-      <c r="V7" s="0" t="str">
-        <v xml:space="preserve">  BC</v>
-      </c>
-      <c r="W7" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="X7" s="0" t="str">
-        <v xml:space="preserve"> AB </v>
-      </c>
-      <c r="Y7" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="Z7" s="0" t="str">
-        <v xml:space="preserve"> AB </v>
-      </c>
-      <c r="AA7" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="AB7" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="AC7" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="AD7" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="AE7" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="AF7" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="AG7" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
-      </c>
-      <c r="AH7" s="0" t="str">
-        <v xml:space="preserve">   C</v>
-      </c>
-      <c r="AI7" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
-      </c>
-      <c r="AJ7" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="AK7" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="AL7" s="0" t="str">
-        <v xml:space="preserve">  BC</v>
-      </c>
-      <c r="AM7" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="AN7" s="0" t="str">
-        <v xml:space="preserve">  B </v>
+    <row r="7" spans="1:40">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>303</v>
+      </c>
+      <c r="C7" t="s">
+        <v>303</v>
+      </c>
+      <c r="D7" t="s">
+        <v>303</v>
+      </c>
+      <c r="E7" t="s">
+        <v>306</v>
+      </c>
+      <c r="F7" t="s">
+        <v>308</v>
+      </c>
+      <c r="G7" t="s">
+        <v>306</v>
+      </c>
+      <c r="H7" t="s">
+        <v>303</v>
+      </c>
+      <c r="I7" t="s">
+        <v>302</v>
+      </c>
+      <c r="J7" t="s">
+        <v>303</v>
+      </c>
+      <c r="K7" t="s">
+        <v>303</v>
+      </c>
+      <c r="L7" t="s">
+        <v>309</v>
+      </c>
+      <c r="M7" t="s">
+        <v>307</v>
+      </c>
+      <c r="N7" t="s">
+        <v>303</v>
+      </c>
+      <c r="O7" t="s">
+        <v>305</v>
+      </c>
+      <c r="P7" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>303</v>
+      </c>
+      <c r="R7" t="s">
+        <v>304</v>
+      </c>
+      <c r="S7" t="s">
+        <v>306</v>
+      </c>
+      <c r="T7" t="s">
+        <v>303</v>
+      </c>
+      <c r="U7" t="s">
+        <v>302</v>
+      </c>
+      <c r="V7" t="s">
+        <v>306</v>
+      </c>
+      <c r="W7" t="s">
+        <v>303</v>
+      </c>
+      <c r="X7" t="s">
+        <v>304</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>303</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>304</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>303</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>303</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>303</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>303</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>303</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>303</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>302</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>308</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>302</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>303</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>303</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>306</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>303</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>309</v>
       </c>
     </row>
-    <row r="8" spans="1:40" customFormat="false">
-      <c r="A8" s="0" t="str">
-        <v>INTERMEDIATE communicate beyond "here &amp; now</v>
-      </c>
-      <c r="B8" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
-      </c>
-      <c r="C8" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="D8" s="0" t="str">
-        <v xml:space="preserve">  BC</v>
-      </c>
-      <c r="E8" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="F8" s="0" t="str">
-        <v xml:space="preserve">   C</v>
-      </c>
-      <c r="G8" s="0" t="str">
-        <v xml:space="preserve">   C</v>
-      </c>
-      <c r="H8" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
-      </c>
-      <c r="I8" s="0" t="str">
-        <v xml:space="preserve">  B </v>
-      </c>
-      <c r="J8" s="0" t="str">
-        <v xml:space="preserve">   C</v>
-      </c>
-      <c r="K8" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="L8" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="M8" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="N8" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="O8" s="0" t="str">
-        <v xml:space="preserve">  B </v>
-      </c>
-      <c r="P8" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="Q8" s="0" t="str">
-        <v xml:space="preserve">  B </v>
-      </c>
-      <c r="R8" s="0" t="str">
-        <v xml:space="preserve">   C</v>
-      </c>
-      <c r="S8" s="0" t="str">
-        <v xml:space="preserve"> A  </v>
-      </c>
-      <c r="T8" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
-      </c>
-      <c r="U8" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="V8" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="W8" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="X8" s="0" t="str">
-        <v xml:space="preserve">   C</v>
-      </c>
-      <c r="Y8" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
-      </c>
-      <c r="Z8" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="AA8" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="AB8" s="0" t="str">
-        <v xml:space="preserve">  BC</v>
-      </c>
-      <c r="AC8" s="0" t="str">
-        <v xml:space="preserve">  B </v>
-      </c>
-      <c r="AD8" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
-      </c>
-      <c r="AE8" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="AF8" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="AG8" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="AH8" s="0" t="str">
-        <v xml:space="preserve">   C</v>
-      </c>
-      <c r="AI8" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="AJ8" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="AK8" s="0" t="str">
-        <v xml:space="preserve">  B </v>
-      </c>
-      <c r="AL8" s="0" t="str">
-        <v xml:space="preserve">   C</v>
-      </c>
-      <c r="AM8" s="0" t="str">
-        <v xml:space="preserve">  BC</v>
-      </c>
-      <c r="AN8" s="0" t="str">
-        <v xml:space="preserve">    </v>
+    <row r="8" spans="1:40">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>302</v>
+      </c>
+      <c r="C8" t="s">
+        <v>305</v>
+      </c>
+      <c r="D8" t="s">
+        <v>306</v>
+      </c>
+      <c r="E8" t="s">
+        <v>305</v>
+      </c>
+      <c r="F8" t="s">
+        <v>308</v>
+      </c>
+      <c r="G8" t="s">
+        <v>308</v>
+      </c>
+      <c r="H8" t="s">
+        <v>302</v>
+      </c>
+      <c r="I8" t="s">
+        <v>309</v>
+      </c>
+      <c r="J8" t="s">
+        <v>308</v>
+      </c>
+      <c r="K8" t="s">
+        <v>305</v>
+      </c>
+      <c r="L8" t="s">
+        <v>305</v>
+      </c>
+      <c r="M8" t="s">
+        <v>305</v>
+      </c>
+      <c r="N8" t="s">
+        <v>305</v>
+      </c>
+      <c r="O8" t="s">
+        <v>309</v>
+      </c>
+      <c r="P8" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>309</v>
+      </c>
+      <c r="R8" t="s">
+        <v>308</v>
+      </c>
+      <c r="S8" t="s">
+        <v>307</v>
+      </c>
+      <c r="T8" t="s">
+        <v>302</v>
+      </c>
+      <c r="U8" t="s">
+        <v>305</v>
+      </c>
+      <c r="V8" t="s">
+        <v>305</v>
+      </c>
+      <c r="W8" t="s">
+        <v>303</v>
+      </c>
+      <c r="X8" t="s">
+        <v>308</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>302</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>305</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>303</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>306</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>309</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>302</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>305</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>305</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>305</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>308</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>305</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>305</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>309</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>308</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>306</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>305</v>
       </c>
     </row>
-    <row r="9" spans="1:40" customFormat="false">
-      <c r="A9" s="0" t="str">
-        <v>NOVICE practiced words, phrases, sentences</v>
-      </c>
-      <c r="B9" s="0" t="str">
-        <v xml:space="preserve"> AB </v>
-      </c>
-      <c r="C9" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="D9" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="E9" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="F9" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
-      </c>
-      <c r="G9" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
-      </c>
-      <c r="H9" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="I9" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="J9" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="K9" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="L9" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
-      </c>
-      <c r="M9" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="N9" s="0" t="str">
-        <v xml:space="preserve"> AB </v>
-      </c>
-      <c r="O9" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="P9" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="Q9" s="0" t="str">
-        <v xml:space="preserve">   C</v>
-      </c>
-      <c r="R9" s="0" t="str">
-        <v xml:space="preserve">   C</v>
-      </c>
-      <c r="S9" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="T9" s="0" t="str">
-        <v xml:space="preserve">  BC</v>
-      </c>
-      <c r="U9" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="V9" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="W9" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="X9" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
-      </c>
-      <c r="Y9" s="0" t="str">
-        <v xml:space="preserve"> AB </v>
-      </c>
-      <c r="Z9" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="AA9" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="AB9" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="AC9" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="AD9" s="0" t="str">
-        <v xml:space="preserve">  BC</v>
-      </c>
-      <c r="AE9" s="0" t="str">
-        <v xml:space="preserve">  B </v>
-      </c>
-      <c r="AF9" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="AG9" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="AH9" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="AI9" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="AJ9" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="AK9" s="0" t="str">
-        <v xml:space="preserve"> A  </v>
-      </c>
-      <c r="AL9" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="AM9" s="0" t="str">
-        <v xml:space="preserve"> AB </v>
-      </c>
-      <c r="AN9" s="0" t="str">
-        <v xml:space="preserve"> AB </v>
+    <row r="9" spans="1:40">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>304</v>
+      </c>
+      <c r="C9" t="s">
+        <v>303</v>
+      </c>
+      <c r="D9" t="s">
+        <v>303</v>
+      </c>
+      <c r="E9" t="s">
+        <v>305</v>
+      </c>
+      <c r="F9" t="s">
+        <v>302</v>
+      </c>
+      <c r="G9" t="s">
+        <v>302</v>
+      </c>
+      <c r="H9" t="s">
+        <v>303</v>
+      </c>
+      <c r="I9" t="s">
+        <v>303</v>
+      </c>
+      <c r="J9" t="s">
+        <v>303</v>
+      </c>
+      <c r="K9" t="s">
+        <v>305</v>
+      </c>
+      <c r="L9" t="s">
+        <v>302</v>
+      </c>
+      <c r="M9" t="s">
+        <v>303</v>
+      </c>
+      <c r="N9" t="s">
+        <v>304</v>
+      </c>
+      <c r="O9" t="s">
+        <v>303</v>
+      </c>
+      <c r="P9" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>308</v>
+      </c>
+      <c r="R9" t="s">
+        <v>308</v>
+      </c>
+      <c r="S9" t="s">
+        <v>303</v>
+      </c>
+      <c r="T9" t="s">
+        <v>306</v>
+      </c>
+      <c r="U9" t="s">
+        <v>303</v>
+      </c>
+      <c r="V9" t="s">
+        <v>303</v>
+      </c>
+      <c r="W9" t="s">
+        <v>303</v>
+      </c>
+      <c r="X9" t="s">
+        <v>302</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>304</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>303</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>305</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>303</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>303</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>306</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>309</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>303</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>303</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>303</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>303</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>305</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>307</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>303</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>304</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>304</v>
       </c>
     </row>
-    <row r="10" spans="1:40" customFormat="false">
-      <c r="A10" s="0" t="str">
-        <v>NOVICE formulaic/memorized questions</v>
-      </c>
-      <c r="B10" s="0" t="str">
-        <v xml:space="preserve"> A  </v>
-      </c>
-      <c r="C10" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="D10" s="0" t="str">
-        <v xml:space="preserve"> AB </v>
-      </c>
-      <c r="E10" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="F10" s="0" t="str">
-        <v xml:space="preserve">   C</v>
-      </c>
-      <c r="G10" s="0" t="str">
-        <v xml:space="preserve"> AB </v>
-      </c>
-      <c r="H10" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="I10" s="0" t="str">
-        <v xml:space="preserve"> AB </v>
-      </c>
-      <c r="J10" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
-      </c>
-      <c r="K10" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="L10" s="0" t="str">
-        <v xml:space="preserve">  BC</v>
-      </c>
-      <c r="M10" s="0" t="str">
-        <v xml:space="preserve"> AB </v>
-      </c>
-      <c r="N10" s="0" t="str">
-        <v xml:space="preserve"> A  </v>
-      </c>
-      <c r="O10" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="P10" s="0" t="str">
-        <v xml:space="preserve"> A  </v>
-      </c>
-      <c r="Q10" s="0" t="str">
-        <v xml:space="preserve"> A  </v>
-      </c>
-      <c r="R10" s="0" t="str">
-        <v xml:space="preserve">  B </v>
-      </c>
-      <c r="S10" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="T10" s="0" t="str">
-        <v xml:space="preserve">  B </v>
-      </c>
-      <c r="U10" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="V10" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="W10" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="X10" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="Y10" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="Z10" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="AA10" s="0" t="str">
-        <v xml:space="preserve">   C</v>
-      </c>
-      <c r="AB10" s="0" t="str">
-        <v xml:space="preserve">  BC</v>
-      </c>
-      <c r="AC10" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="AD10" s="0" t="str">
-        <v xml:space="preserve">  B </v>
-      </c>
-      <c r="AE10" s="0" t="str">
-        <v xml:space="preserve"> A  </v>
-      </c>
-      <c r="AF10" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="AG10" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="AH10" s="0" t="str">
-        <v xml:space="preserve"> A  </v>
-      </c>
-      <c r="AI10" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="AJ10" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="AK10" s="0" t="str">
-        <v xml:space="preserve"> A  </v>
-      </c>
-      <c r="AL10" s="0" t="str">
-        <v xml:space="preserve"> A  </v>
-      </c>
-      <c r="AM10" s="0" t="str">
-        <v xml:space="preserve"> AB </v>
-      </c>
-      <c r="AN10" s="0" t="str">
-        <v xml:space="preserve">    </v>
+    <row r="10" spans="1:40">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>307</v>
+      </c>
+      <c r="C10" t="s">
+        <v>303</v>
+      </c>
+      <c r="D10" t="s">
+        <v>304</v>
+      </c>
+      <c r="E10" t="s">
+        <v>305</v>
+      </c>
+      <c r="F10" t="s">
+        <v>308</v>
+      </c>
+      <c r="G10" t="s">
+        <v>304</v>
+      </c>
+      <c r="H10" t="s">
+        <v>303</v>
+      </c>
+      <c r="I10" t="s">
+        <v>304</v>
+      </c>
+      <c r="J10" t="s">
+        <v>302</v>
+      </c>
+      <c r="K10" t="s">
+        <v>305</v>
+      </c>
+      <c r="L10" t="s">
+        <v>306</v>
+      </c>
+      <c r="M10" t="s">
+        <v>304</v>
+      </c>
+      <c r="N10" t="s">
+        <v>307</v>
+      </c>
+      <c r="O10" t="s">
+        <v>303</v>
+      </c>
+      <c r="P10" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>307</v>
+      </c>
+      <c r="R10" t="s">
+        <v>309</v>
+      </c>
+      <c r="S10" t="s">
+        <v>303</v>
+      </c>
+      <c r="T10" t="s">
+        <v>309</v>
+      </c>
+      <c r="U10" t="s">
+        <v>303</v>
+      </c>
+      <c r="V10" t="s">
+        <v>303</v>
+      </c>
+      <c r="W10" t="s">
+        <v>303</v>
+      </c>
+      <c r="X10" t="s">
+        <v>305</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>303</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>305</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>308</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>306</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>305</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>309</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>307</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>303</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>303</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>307</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>305</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>305</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>307</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>307</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>304</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>305</v>
       </c>
     </row>
-    <row r="11" spans="1:40" customFormat="false">
-      <c r="A11" s="0" t="str">
-        <v>INTERMEDIATE strings of sentences</v>
-      </c>
-      <c r="B11" s="0" t="str">
-        <v xml:space="preserve"> AB </v>
-      </c>
-      <c r="C11" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="D11" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="E11" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="F11" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
-      </c>
-      <c r="G11" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
-      </c>
-      <c r="H11" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
-      </c>
-      <c r="I11" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="J11" s="0" t="str">
-        <v xml:space="preserve"> AB </v>
-      </c>
-      <c r="K11" s="0" t="str">
-        <v xml:space="preserve"> AB </v>
-      </c>
-      <c r="L11" s="0" t="str">
-        <v xml:space="preserve">  BC</v>
-      </c>
-      <c r="M11" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
-      </c>
-      <c r="N11" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="O11" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
-      </c>
-      <c r="P11" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="Q11" s="0" t="str">
-        <v xml:space="preserve">  B </v>
-      </c>
-      <c r="R11" s="0" t="str">
-        <v xml:space="preserve">   C</v>
-      </c>
-      <c r="S11" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="T11" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
-      </c>
-      <c r="U11" s="0" t="str">
-        <v xml:space="preserve">   C</v>
-      </c>
-      <c r="V11" s="0" t="str">
-        <v xml:space="preserve">   C</v>
-      </c>
-      <c r="W11" s="0" t="str">
-        <v xml:space="preserve">  B </v>
-      </c>
-      <c r="X11" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="Y11" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="Z11" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
-      </c>
-      <c r="AA11" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="AB11" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="AC11" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="AD11" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="AE11" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="AF11" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
-      </c>
-      <c r="AG11" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="AH11" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="AI11" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="AJ11" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="AK11" s="0" t="str">
-        <v xml:space="preserve"> AB </v>
-      </c>
-      <c r="AL11" s="0" t="str">
-        <v xml:space="preserve">   C</v>
-      </c>
-      <c r="AM11" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="AN11" s="0" t="str">
-        <v xml:space="preserve">  B </v>
+    <row r="11" spans="1:40">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>304</v>
+      </c>
+      <c r="C11" t="s">
+        <v>305</v>
+      </c>
+      <c r="D11" t="s">
+        <v>303</v>
+      </c>
+      <c r="E11" t="s">
+        <v>303</v>
+      </c>
+      <c r="F11" t="s">
+        <v>302</v>
+      </c>
+      <c r="G11" t="s">
+        <v>302</v>
+      </c>
+      <c r="H11" t="s">
+        <v>302</v>
+      </c>
+      <c r="I11" t="s">
+        <v>303</v>
+      </c>
+      <c r="J11" t="s">
+        <v>304</v>
+      </c>
+      <c r="K11" t="s">
+        <v>304</v>
+      </c>
+      <c r="L11" t="s">
+        <v>306</v>
+      </c>
+      <c r="M11" t="s">
+        <v>302</v>
+      </c>
+      <c r="N11" t="s">
+        <v>303</v>
+      </c>
+      <c r="O11" t="s">
+        <v>302</v>
+      </c>
+      <c r="P11" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>309</v>
+      </c>
+      <c r="R11" t="s">
+        <v>308</v>
+      </c>
+      <c r="S11" t="s">
+        <v>303</v>
+      </c>
+      <c r="T11" t="s">
+        <v>302</v>
+      </c>
+      <c r="U11" t="s">
+        <v>308</v>
+      </c>
+      <c r="V11" t="s">
+        <v>308</v>
+      </c>
+      <c r="W11" t="s">
+        <v>309</v>
+      </c>
+      <c r="X11" t="s">
+        <v>303</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>303</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>302</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>303</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>303</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>303</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>303</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>303</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>302</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>303</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>303</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>303</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>305</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>304</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>308</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>303</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>309</v>
       </c>
     </row>
-    <row r="12" spans="1:40" customFormat="false">
-      <c r="A12" s="0" t="str">
-        <v>INTERMEDIATE connected sentences</v>
-      </c>
-      <c r="B12" s="0" t="str">
-        <v xml:space="preserve"> A  </v>
-      </c>
-      <c r="C12" s="0" t="str">
-        <v xml:space="preserve">   C</v>
-      </c>
-      <c r="D12" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="E12" s="0" t="str">
-        <v xml:space="preserve"> AB </v>
-      </c>
-      <c r="F12" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
-      </c>
-      <c r="G12" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
-      </c>
-      <c r="H12" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="I12" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="J12" s="0" t="str">
-        <v xml:space="preserve">  BC</v>
-      </c>
-      <c r="K12" s="0" t="str">
-        <v xml:space="preserve"> AB </v>
-      </c>
-      <c r="L12" s="0" t="str">
-        <v xml:space="preserve"> A  </v>
-      </c>
-      <c r="M12" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
-      </c>
-      <c r="N12" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="O12" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
-      </c>
-      <c r="P12" s="0" t="str">
-        <v xml:space="preserve">  BC</v>
-      </c>
-      <c r="Q12" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="R12" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="S12" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="T12" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="U12" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
-      </c>
-      <c r="V12" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
-      </c>
-      <c r="W12" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="X12" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="Y12" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="Z12" s="0" t="str">
-        <v xml:space="preserve">   C</v>
-      </c>
-      <c r="AA12" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="AB12" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="AC12" s="0" t="str">
-        <v xml:space="preserve">  BC</v>
-      </c>
-      <c r="AD12" s="0" t="str">
-        <v xml:space="preserve">  B </v>
-      </c>
-      <c r="AE12" s="0" t="str">
-        <v xml:space="preserve">  B </v>
-      </c>
-      <c r="AF12" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="AG12" s="0" t="str">
-        <v xml:space="preserve"> A  </v>
-      </c>
-      <c r="AH12" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="AI12" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="AJ12" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="AK12" s="0" t="str">
-        <v xml:space="preserve">   C</v>
-      </c>
-      <c r="AL12" s="0" t="str">
-        <v xml:space="preserve">  BC</v>
-      </c>
-      <c r="AM12" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="AN12" s="0" t="str">
-        <v xml:space="preserve">  B </v>
+    <row r="12" spans="1:40">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>307</v>
+      </c>
+      <c r="C12" t="s">
+        <v>308</v>
+      </c>
+      <c r="D12" t="s">
+        <v>303</v>
+      </c>
+      <c r="E12" t="s">
+        <v>304</v>
+      </c>
+      <c r="F12" t="s">
+        <v>302</v>
+      </c>
+      <c r="G12" t="s">
+        <v>302</v>
+      </c>
+      <c r="H12" t="s">
+        <v>303</v>
+      </c>
+      <c r="I12" t="s">
+        <v>305</v>
+      </c>
+      <c r="J12" t="s">
+        <v>306</v>
+      </c>
+      <c r="K12" t="s">
+        <v>304</v>
+      </c>
+      <c r="L12" t="s">
+        <v>307</v>
+      </c>
+      <c r="M12" t="s">
+        <v>302</v>
+      </c>
+      <c r="N12" t="s">
+        <v>305</v>
+      </c>
+      <c r="O12" t="s">
+        <v>302</v>
+      </c>
+      <c r="P12" t="s">
+        <v>306</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>303</v>
+      </c>
+      <c r="R12" t="s">
+        <v>303</v>
+      </c>
+      <c r="S12" t="s">
+        <v>305</v>
+      </c>
+      <c r="T12" t="s">
+        <v>305</v>
+      </c>
+      <c r="U12" t="s">
+        <v>302</v>
+      </c>
+      <c r="V12" t="s">
+        <v>302</v>
+      </c>
+      <c r="W12" t="s">
+        <v>303</v>
+      </c>
+      <c r="X12" t="s">
+        <v>303</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>303</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>308</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>303</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>303</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>306</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>309</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>309</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>305</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>307</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>305</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>305</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>303</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>308</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>306</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>303</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>309</v>
       </c>
     </row>
-    <row r="13" spans="1:40" customFormat="false">
-      <c r="A13" s="0" t="str">
-        <v>INTERMEDIATE ask questions to initiate/ sustain conversation</v>
-      </c>
-      <c r="B13" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="C13" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
-      </c>
-      <c r="D13" s="0" t="str">
-        <v xml:space="preserve"> AB </v>
-      </c>
-      <c r="E13" s="0" t="str">
-        <v xml:space="preserve">   C</v>
-      </c>
-      <c r="F13" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
-      </c>
-      <c r="G13" s="0" t="str">
-        <v xml:space="preserve">  BC</v>
-      </c>
-      <c r="H13" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="I13" s="0" t="str">
-        <v xml:space="preserve">  B </v>
-      </c>
-      <c r="J13" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
-      </c>
-      <c r="K13" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="L13" s="0" t="str">
-        <v xml:space="preserve">  BC</v>
-      </c>
-      <c r="M13" s="0" t="str">
-        <v xml:space="preserve"> AB </v>
-      </c>
-      <c r="N13" s="0" t="str">
-        <v xml:space="preserve"> AB </v>
-      </c>
-      <c r="O13" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="P13" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="Q13" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="R13" s="0" t="str">
-        <v xml:space="preserve"> AB </v>
-      </c>
-      <c r="S13" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="T13" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="U13" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="V13" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="W13" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="X13" s="0" t="str">
-        <v xml:space="preserve"> AB </v>
-      </c>
-      <c r="Y13" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
-      </c>
-      <c r="Z13" s="0" t="str">
-        <v xml:space="preserve"> AB </v>
-      </c>
-      <c r="AA13" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="AB13" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="AC13" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="AD13" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="AE13" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
-      </c>
-      <c r="AF13" s="0" t="str">
-        <v xml:space="preserve">  BC</v>
-      </c>
-      <c r="AG13" s="0" t="str">
-        <v xml:space="preserve"> A  </v>
-      </c>
-      <c r="AH13" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="AI13" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="AJ13" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="AK13" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="AL13" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="AM13" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
-      </c>
-      <c r="AN13" s="0" t="str">
-        <v xml:space="preserve"> A  </v>
+    <row r="13" spans="1:40">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>303</v>
+      </c>
+      <c r="C13" t="s">
+        <v>302</v>
+      </c>
+      <c r="D13" t="s">
+        <v>304</v>
+      </c>
+      <c r="E13" t="s">
+        <v>308</v>
+      </c>
+      <c r="F13" t="s">
+        <v>302</v>
+      </c>
+      <c r="G13" t="s">
+        <v>306</v>
+      </c>
+      <c r="H13" t="s">
+        <v>303</v>
+      </c>
+      <c r="I13" t="s">
+        <v>309</v>
+      </c>
+      <c r="J13" t="s">
+        <v>302</v>
+      </c>
+      <c r="K13" t="s">
+        <v>303</v>
+      </c>
+      <c r="L13" t="s">
+        <v>306</v>
+      </c>
+      <c r="M13" t="s">
+        <v>304</v>
+      </c>
+      <c r="N13" t="s">
+        <v>304</v>
+      </c>
+      <c r="O13" t="s">
+        <v>303</v>
+      </c>
+      <c r="P13" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>303</v>
+      </c>
+      <c r="R13" t="s">
+        <v>304</v>
+      </c>
+      <c r="S13" t="s">
+        <v>303</v>
+      </c>
+      <c r="T13" t="s">
+        <v>303</v>
+      </c>
+      <c r="U13" t="s">
+        <v>303</v>
+      </c>
+      <c r="V13" t="s">
+        <v>303</v>
+      </c>
+      <c r="W13" t="s">
+        <v>303</v>
+      </c>
+      <c r="X13" t="s">
+        <v>304</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>302</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>304</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>303</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>303</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>303</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>303</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>302</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>306</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>307</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>305</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>303</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>303</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>303</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>303</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>302</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>307</v>
       </c>
     </row>
-    <row r="14" spans="1:40" customFormat="false">
-      <c r="A14" s="0" t="str">
-        <v>NOVICE high-frequency</v>
-      </c>
-      <c r="B14" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="C14" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
-      </c>
-      <c r="D14" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
-      </c>
-      <c r="E14" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="F14" s="0" t="str">
-        <v xml:space="preserve">   C</v>
-      </c>
-      <c r="G14" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="H14" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="I14" s="0" t="str">
-        <v xml:space="preserve">  B </v>
-      </c>
-      <c r="J14" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="K14" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="L14" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="M14" s="0" t="str">
-        <v xml:space="preserve">   C</v>
-      </c>
-      <c r="N14" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="O14" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="P14" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="Q14" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="R14" s="0" t="str">
-        <v xml:space="preserve"> A  </v>
-      </c>
-      <c r="S14" s="0" t="str">
-        <v xml:space="preserve"> A  </v>
-      </c>
-      <c r="T14" s="0" t="str">
-        <v xml:space="preserve"> A  </v>
-      </c>
-      <c r="U14" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="V14" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="W14" s="0" t="str">
-        <v xml:space="preserve">   C</v>
-      </c>
-      <c r="X14" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="Y14" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="Z14" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="AA14" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="AB14" s="0" t="str">
-        <v xml:space="preserve"> A  </v>
-      </c>
-      <c r="AC14" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="AD14" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="AE14" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="AF14" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="AG14" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="AH14" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="AI14" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="AJ14" s="0" t="str">
-        <v xml:space="preserve"> A  </v>
-      </c>
-      <c r="AK14" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="AL14" s="0" t="str">
-        <v xml:space="preserve">   C</v>
-      </c>
-      <c r="AM14" s="0" t="str">
-        <v xml:space="preserve"> AB </v>
-      </c>
-      <c r="AN14" s="0" t="str">
-        <v xml:space="preserve">    </v>
+    <row r="14" spans="1:40">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>305</v>
+      </c>
+      <c r="C14" t="s">
+        <v>302</v>
+      </c>
+      <c r="D14" t="s">
+        <v>302</v>
+      </c>
+      <c r="E14" t="s">
+        <v>305</v>
+      </c>
+      <c r="F14" t="s">
+        <v>308</v>
+      </c>
+      <c r="G14" t="s">
+        <v>305</v>
+      </c>
+      <c r="H14" t="s">
+        <v>305</v>
+      </c>
+      <c r="I14" t="s">
+        <v>309</v>
+      </c>
+      <c r="J14" t="s">
+        <v>303</v>
+      </c>
+      <c r="K14" t="s">
+        <v>305</v>
+      </c>
+      <c r="L14" t="s">
+        <v>305</v>
+      </c>
+      <c r="M14" t="s">
+        <v>308</v>
+      </c>
+      <c r="N14" t="s">
+        <v>305</v>
+      </c>
+      <c r="O14" t="s">
+        <v>305</v>
+      </c>
+      <c r="P14" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>305</v>
+      </c>
+      <c r="R14" t="s">
+        <v>307</v>
+      </c>
+      <c r="S14" t="s">
+        <v>307</v>
+      </c>
+      <c r="T14" t="s">
+        <v>307</v>
+      </c>
+      <c r="U14" t="s">
+        <v>303</v>
+      </c>
+      <c r="V14" t="s">
+        <v>303</v>
+      </c>
+      <c r="W14" t="s">
+        <v>308</v>
+      </c>
+      <c r="X14" t="s">
+        <v>305</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>305</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>305</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>305</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>307</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>305</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>305</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>305</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>305</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>303</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>305</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>305</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>307</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>305</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>308</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>304</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>305</v>
       </c>
     </row>
-    <row r="15" spans="1:40" customFormat="false">
-      <c r="A15" s="0" t="str">
-        <v>NOVICE formulaic</v>
-      </c>
-      <c r="B15" s="0" t="str">
-        <v xml:space="preserve"> A  </v>
-      </c>
-      <c r="C15" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="D15" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="E15" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="F15" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
-      </c>
-      <c r="G15" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="H15" s="0" t="str">
-        <v xml:space="preserve">  BC</v>
-      </c>
-      <c r="I15" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="J15" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="K15" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
-      </c>
-      <c r="L15" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="M15" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
-      </c>
-      <c r="N15" s="0" t="str">
-        <v xml:space="preserve">  B </v>
-      </c>
-      <c r="O15" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="P15" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="Q15" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
-      </c>
-      <c r="R15" s="0" t="str">
-        <v xml:space="preserve">  B </v>
-      </c>
-      <c r="S15" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="T15" s="0" t="str">
-        <v xml:space="preserve">  B </v>
-      </c>
-      <c r="U15" s="0" t="str">
-        <v xml:space="preserve"> AB </v>
-      </c>
-      <c r="V15" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="W15" s="0" t="str">
-        <v xml:space="preserve"> AB </v>
-      </c>
-      <c r="X15" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="Y15" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="Z15" s="0" t="str">
-        <v xml:space="preserve">   C</v>
-      </c>
-      <c r="AA15" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="AB15" s="0" t="str">
-        <v xml:space="preserve">  B </v>
-      </c>
-      <c r="AC15" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="AD15" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="AE15" s="0" t="str">
-        <v xml:space="preserve">  BC</v>
-      </c>
-      <c r="AF15" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="AG15" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="AH15" s="0" t="str">
-        <v xml:space="preserve"> A  </v>
-      </c>
-      <c r="AI15" s="0" t="str">
-        <v xml:space="preserve"> A  </v>
-      </c>
-      <c r="AJ15" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="AK15" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="AL15" s="0" t="str">
-        <v xml:space="preserve">  BC</v>
-      </c>
-      <c r="AM15" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="AN15" s="0" t="str">
-        <v xml:space="preserve">    </v>
+    <row r="15" spans="1:40">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>307</v>
+      </c>
+      <c r="C15" t="s">
+        <v>303</v>
+      </c>
+      <c r="D15" t="s">
+        <v>303</v>
+      </c>
+      <c r="E15" t="s">
+        <v>305</v>
+      </c>
+      <c r="F15" t="s">
+        <v>302</v>
+      </c>
+      <c r="G15" t="s">
+        <v>303</v>
+      </c>
+      <c r="H15" t="s">
+        <v>306</v>
+      </c>
+      <c r="I15" t="s">
+        <v>303</v>
+      </c>
+      <c r="J15" t="s">
+        <v>303</v>
+      </c>
+      <c r="K15" t="s">
+        <v>302</v>
+      </c>
+      <c r="L15" t="s">
+        <v>303</v>
+      </c>
+      <c r="M15" t="s">
+        <v>302</v>
+      </c>
+      <c r="N15" t="s">
+        <v>309</v>
+      </c>
+      <c r="O15" t="s">
+        <v>305</v>
+      </c>
+      <c r="P15" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>302</v>
+      </c>
+      <c r="R15" t="s">
+        <v>309</v>
+      </c>
+      <c r="S15" t="s">
+        <v>303</v>
+      </c>
+      <c r="T15" t="s">
+        <v>309</v>
+      </c>
+      <c r="U15" t="s">
+        <v>304</v>
+      </c>
+      <c r="V15" t="s">
+        <v>303</v>
+      </c>
+      <c r="W15" t="s">
+        <v>304</v>
+      </c>
+      <c r="X15" t="s">
+        <v>305</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>303</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>308</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>305</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>309</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>305</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>305</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>306</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>303</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>305</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>307</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>307</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>305</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>305</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>306</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>303</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>305</v>
       </c>
     </row>
-    <row r="16" spans="1:40" customFormat="false">
-      <c r="A16" s="0" t="str">
-        <v>NOVICE practiced</v>
-      </c>
-      <c r="B16" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="C16" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
-      </c>
-      <c r="D16" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
-      </c>
-      <c r="E16" s="0" t="str">
-        <v xml:space="preserve">   C</v>
-      </c>
-      <c r="F16" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
-      </c>
-      <c r="G16" s="0" t="str">
-        <v xml:space="preserve"> AB </v>
-      </c>
-      <c r="H16" s="0" t="str">
-        <v xml:space="preserve"> AB </v>
-      </c>
-      <c r="I16" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
-      </c>
-      <c r="J16" s="0" t="str">
-        <v xml:space="preserve">   C</v>
-      </c>
-      <c r="K16" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="L16" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
-      </c>
-      <c r="M16" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="N16" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="O16" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="P16" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="Q16" s="0" t="str">
-        <v xml:space="preserve"> AB </v>
-      </c>
-      <c r="R16" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="S16" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="T16" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="U16" s="0" t="str">
-        <v xml:space="preserve"> AB </v>
-      </c>
-      <c r="V16" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="W16" s="0" t="str">
-        <v xml:space="preserve"> AB </v>
-      </c>
-      <c r="X16" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
-      </c>
-      <c r="Y16" s="0" t="str">
-        <v xml:space="preserve"> A  </v>
-      </c>
-      <c r="Z16" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="AA16" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="AB16" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="AC16" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="AD16" s="0" t="str">
-        <v xml:space="preserve">  BC</v>
-      </c>
-      <c r="AE16" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="AF16" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="AG16" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="AH16" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="AI16" s="0" t="str">
-        <v xml:space="preserve"> AB </v>
-      </c>
-      <c r="AJ16" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="AK16" s="0" t="str">
-        <v xml:space="preserve"> A  </v>
-      </c>
-      <c r="AL16" s="0" t="str">
-        <v xml:space="preserve">  BC</v>
-      </c>
-      <c r="AM16" s="0" t="str">
-        <v xml:space="preserve"> A  </v>
-      </c>
-      <c r="AN16" s="0" t="str">
-        <v xml:space="preserve"> AB </v>
+    <row r="16" spans="1:40">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>303</v>
+      </c>
+      <c r="C16" t="s">
+        <v>302</v>
+      </c>
+      <c r="D16" t="s">
+        <v>302</v>
+      </c>
+      <c r="E16" t="s">
+        <v>308</v>
+      </c>
+      <c r="F16" t="s">
+        <v>302</v>
+      </c>
+      <c r="G16" t="s">
+        <v>304</v>
+      </c>
+      <c r="H16" t="s">
+        <v>304</v>
+      </c>
+      <c r="I16" t="s">
+        <v>302</v>
+      </c>
+      <c r="J16" t="s">
+        <v>308</v>
+      </c>
+      <c r="K16" t="s">
+        <v>305</v>
+      </c>
+      <c r="L16" t="s">
+        <v>302</v>
+      </c>
+      <c r="M16" t="s">
+        <v>303</v>
+      </c>
+      <c r="N16" t="s">
+        <v>303</v>
+      </c>
+      <c r="O16" t="s">
+        <v>303</v>
+      </c>
+      <c r="P16" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>304</v>
+      </c>
+      <c r="R16" t="s">
+        <v>303</v>
+      </c>
+      <c r="S16" t="s">
+        <v>303</v>
+      </c>
+      <c r="T16" t="s">
+        <v>305</v>
+      </c>
+      <c r="U16" t="s">
+        <v>304</v>
+      </c>
+      <c r="V16" t="s">
+        <v>303</v>
+      </c>
+      <c r="W16" t="s">
+        <v>304</v>
+      </c>
+      <c r="X16" t="s">
+        <v>302</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>307</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>305</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>303</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>303</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>303</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>306</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>303</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>303</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>303</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>305</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>304</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>305</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>307</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>306</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>307</v>
+      </c>
+      <c r="AN16" t="s">
+        <v>304</v>
       </c>
     </row>
-    <row r="17" spans="1:40" customFormat="false">
-      <c r="A17" s="0" t="str">
-        <v>INTERMEDIATE familiar themes/topics</v>
-      </c>
-      <c r="B17" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="C17" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="D17" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="E17" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="F17" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
-      </c>
-      <c r="G17" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="H17" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="I17" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="J17" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="K17" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="L17" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
-      </c>
-      <c r="M17" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="N17" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="O17" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="P17" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="Q17" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="R17" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="S17" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="T17" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
-      </c>
-      <c r="U17" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="V17" s="0" t="str">
-        <v xml:space="preserve">  BC</v>
-      </c>
-      <c r="W17" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="X17" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="Y17" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
-      </c>
-      <c r="Z17" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="AA17" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="AB17" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="AC17" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="AD17" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
-      </c>
-      <c r="AE17" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="AF17" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="AG17" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="AH17" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="AI17" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="AJ17" s="0" t="str">
-        <v xml:space="preserve">  BC</v>
-      </c>
-      <c r="AK17" s="0" t="str">
-        <v xml:space="preserve">  BC</v>
-      </c>
-      <c r="AL17" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
-      </c>
-      <c r="AM17" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="AN17" s="0" t="str">
-        <v xml:space="preserve"> AB </v>
+    <row r="17" spans="1:40">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>303</v>
+      </c>
+      <c r="C17" t="s">
+        <v>303</v>
+      </c>
+      <c r="D17" t="s">
+        <v>303</v>
+      </c>
+      <c r="E17" t="s">
+        <v>303</v>
+      </c>
+      <c r="F17" t="s">
+        <v>302</v>
+      </c>
+      <c r="G17" t="s">
+        <v>303</v>
+      </c>
+      <c r="H17" t="s">
+        <v>303</v>
+      </c>
+      <c r="I17" t="s">
+        <v>303</v>
+      </c>
+      <c r="J17" t="s">
+        <v>303</v>
+      </c>
+      <c r="K17" t="s">
+        <v>303</v>
+      </c>
+      <c r="L17" t="s">
+        <v>302</v>
+      </c>
+      <c r="M17" t="s">
+        <v>303</v>
+      </c>
+      <c r="N17" t="s">
+        <v>303</v>
+      </c>
+      <c r="O17" t="s">
+        <v>303</v>
+      </c>
+      <c r="P17" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>303</v>
+      </c>
+      <c r="R17" t="s">
+        <v>303</v>
+      </c>
+      <c r="S17" t="s">
+        <v>303</v>
+      </c>
+      <c r="T17" t="s">
+        <v>302</v>
+      </c>
+      <c r="U17" t="s">
+        <v>303</v>
+      </c>
+      <c r="V17" t="s">
+        <v>306</v>
+      </c>
+      <c r="W17" t="s">
+        <v>303</v>
+      </c>
+      <c r="X17" t="s">
+        <v>303</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>302</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>303</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>303</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>303</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>303</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>302</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>303</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>303</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>303</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>303</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>303</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>306</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>306</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>302</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>303</v>
+      </c>
+      <c r="AN17" t="s">
+        <v>304</v>
       </c>
     </row>
-    <row r="18" spans="1:40" customFormat="false">
-      <c r="A18" s="0" t="str">
-        <v>INTERMEDIATE personalized</v>
-      </c>
-      <c r="B18" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="C18" s="0" t="str">
-        <v xml:space="preserve"> A  </v>
-      </c>
-      <c r="D18" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="E18" s="0" t="str">
-        <v xml:space="preserve">  B </v>
-      </c>
-      <c r="F18" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
-      </c>
-      <c r="G18" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="H18" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="I18" s="0" t="str">
-        <v xml:space="preserve">  BC</v>
-      </c>
-      <c r="J18" s="0" t="str">
-        <v xml:space="preserve">   C</v>
-      </c>
-      <c r="K18" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="L18" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="M18" s="0" t="str">
-        <v xml:space="preserve"> AB </v>
-      </c>
-      <c r="N18" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="O18" s="0" t="str">
-        <v xml:space="preserve">   C</v>
-      </c>
-      <c r="P18" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="Q18" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="R18" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="S18" s="0" t="str">
-        <v xml:space="preserve">  BC</v>
-      </c>
-      <c r="T18" s="0" t="str">
-        <v xml:space="preserve"> AB </v>
-      </c>
-      <c r="U18" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="V18" s="0" t="str">
-        <v xml:space="preserve">   C</v>
-      </c>
-      <c r="W18" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="X18" s="0" t="str">
-        <v xml:space="preserve"> AB </v>
-      </c>
-      <c r="Y18" s="0" t="str">
-        <v xml:space="preserve">  BC</v>
-      </c>
-      <c r="Z18" s="0" t="str">
-        <v xml:space="preserve"> AB </v>
-      </c>
-      <c r="AA18" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="AB18" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="AC18" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="AD18" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="AE18" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="AF18" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="AG18" s="0" t="str">
-        <v xml:space="preserve"> AB </v>
-      </c>
-      <c r="AH18" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="AI18" s="0" t="str">
-        <v xml:space="preserve"> A  </v>
-      </c>
-      <c r="AJ18" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="AK18" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="AL18" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="AM18" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="AN18" s="0" t="str">
-        <v xml:space="preserve">    </v>
+    <row r="18" spans="1:40">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>303</v>
+      </c>
+      <c r="C18" t="s">
+        <v>307</v>
+      </c>
+      <c r="D18" t="s">
+        <v>303</v>
+      </c>
+      <c r="E18" t="s">
+        <v>309</v>
+      </c>
+      <c r="F18" t="s">
+        <v>302</v>
+      </c>
+      <c r="G18" t="s">
+        <v>303</v>
+      </c>
+      <c r="H18" t="s">
+        <v>303</v>
+      </c>
+      <c r="I18" t="s">
+        <v>306</v>
+      </c>
+      <c r="J18" t="s">
+        <v>308</v>
+      </c>
+      <c r="K18" t="s">
+        <v>303</v>
+      </c>
+      <c r="L18" t="s">
+        <v>303</v>
+      </c>
+      <c r="M18" t="s">
+        <v>304</v>
+      </c>
+      <c r="N18" t="s">
+        <v>303</v>
+      </c>
+      <c r="O18" t="s">
+        <v>308</v>
+      </c>
+      <c r="P18" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>305</v>
+      </c>
+      <c r="R18" t="s">
+        <v>305</v>
+      </c>
+      <c r="S18" t="s">
+        <v>306</v>
+      </c>
+      <c r="T18" t="s">
+        <v>304</v>
+      </c>
+      <c r="U18" t="s">
+        <v>305</v>
+      </c>
+      <c r="V18" t="s">
+        <v>308</v>
+      </c>
+      <c r="W18" t="s">
+        <v>303</v>
+      </c>
+      <c r="X18" t="s">
+        <v>304</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>306</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>304</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>303</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>303</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>303</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>303</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>303</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>305</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>304</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>305</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>307</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>303</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>303</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>303</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>303</v>
+      </c>
+      <c r="AN18" t="s">
+        <v>305</v>
       </c>
     </row>
-    <row r="19" spans="1:40" customFormat="false">
-      <c r="A19" s="0" t="str">
-        <v>NOVICE imitate modeled words</v>
-      </c>
-      <c r="B19" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="C19" s="0" t="str">
-        <v xml:space="preserve"> A  </v>
-      </c>
-      <c r="D19" s="0" t="str">
-        <v xml:space="preserve"> AB </v>
-      </c>
-      <c r="E19" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="F19" s="0" t="str">
-        <v xml:space="preserve">   C</v>
-      </c>
-      <c r="G19" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="H19" s="0" t="str">
-        <v xml:space="preserve">  BC</v>
-      </c>
-      <c r="I19" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="J19" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="K19" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="L19" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="M19" s="0" t="str">
-        <v xml:space="preserve">   C</v>
-      </c>
-      <c r="N19" s="0" t="str">
-        <v xml:space="preserve"> A  </v>
-      </c>
-      <c r="O19" s="0" t="str">
-        <v xml:space="preserve"> AB </v>
-      </c>
-      <c r="P19" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="Q19" s="0" t="str">
-        <v xml:space="preserve"> A  </v>
-      </c>
-      <c r="R19" s="0" t="str">
-        <v xml:space="preserve"> AB </v>
-      </c>
-      <c r="S19" s="0" t="str">
-        <v xml:space="preserve"> AB </v>
-      </c>
-      <c r="T19" s="0" t="str">
-        <v xml:space="preserve"> AB </v>
-      </c>
-      <c r="U19" s="0" t="str">
-        <v xml:space="preserve"> AB </v>
-      </c>
-      <c r="V19" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="W19" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="X19" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
-      </c>
-      <c r="Y19" s="0" t="str">
-        <v xml:space="preserve">  B </v>
-      </c>
-      <c r="Z19" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="AA19" s="0" t="str">
-        <v xml:space="preserve"> AB </v>
-      </c>
-      <c r="AB19" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="AC19" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="AD19" s="0" t="str">
-        <v xml:space="preserve">   C</v>
-      </c>
-      <c r="AE19" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="AF19" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="AG19" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="AH19" s="0" t="str">
-        <v xml:space="preserve">  B </v>
-      </c>
-      <c r="AI19" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
-      </c>
-      <c r="AJ19" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="AK19" s="0" t="str">
-        <v xml:space="preserve"> A  </v>
-      </c>
-      <c r="AL19" s="0" t="str">
-        <v xml:space="preserve">  BC</v>
-      </c>
-      <c r="AM19" s="0" t="str">
-        <v xml:space="preserve"> A  </v>
-      </c>
-      <c r="AN19" s="0" t="str">
-        <v xml:space="preserve">  B </v>
+    <row r="19" spans="1:40">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>303</v>
+      </c>
+      <c r="C19" t="s">
+        <v>307</v>
+      </c>
+      <c r="D19" t="s">
+        <v>304</v>
+      </c>
+      <c r="E19" t="s">
+        <v>305</v>
+      </c>
+      <c r="F19" t="s">
+        <v>308</v>
+      </c>
+      <c r="G19" t="s">
+        <v>305</v>
+      </c>
+      <c r="H19" t="s">
+        <v>306</v>
+      </c>
+      <c r="I19" t="s">
+        <v>303</v>
+      </c>
+      <c r="J19" t="s">
+        <v>305</v>
+      </c>
+      <c r="K19" t="s">
+        <v>305</v>
+      </c>
+      <c r="L19" t="s">
+        <v>305</v>
+      </c>
+      <c r="M19" t="s">
+        <v>308</v>
+      </c>
+      <c r="N19" t="s">
+        <v>307</v>
+      </c>
+      <c r="O19" t="s">
+        <v>304</v>
+      </c>
+      <c r="P19" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>307</v>
+      </c>
+      <c r="R19" t="s">
+        <v>304</v>
+      </c>
+      <c r="S19" t="s">
+        <v>304</v>
+      </c>
+      <c r="T19" t="s">
+        <v>304</v>
+      </c>
+      <c r="U19" t="s">
+        <v>304</v>
+      </c>
+      <c r="V19" t="s">
+        <v>303</v>
+      </c>
+      <c r="W19" t="s">
+        <v>305</v>
+      </c>
+      <c r="X19" t="s">
+        <v>302</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>309</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>303</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>304</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>305</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>305</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>308</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>305</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>305</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>305</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>309</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>302</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>305</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>307</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>306</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>307</v>
+      </c>
+      <c r="AN19" t="s">
+        <v>309</v>
       </c>
     </row>
-    <row r="20" spans="1:40" customFormat="false">
-      <c r="A20" s="0" t="str">
-        <v>NOVICE use facial expressions, gestures</v>
-      </c>
-      <c r="B20" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="C20" s="0" t="str">
-        <v xml:space="preserve">  B </v>
-      </c>
-      <c r="D20" s="0" t="str">
-        <v xml:space="preserve">   C</v>
-      </c>
-      <c r="E20" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="F20" s="0" t="str">
-        <v xml:space="preserve">   C</v>
-      </c>
-      <c r="G20" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="H20" s="0" t="str">
-        <v xml:space="preserve"> AB </v>
-      </c>
-      <c r="I20" s="0" t="str">
-        <v xml:space="preserve">  B </v>
-      </c>
-      <c r="J20" s="0" t="str">
-        <v xml:space="preserve">  B </v>
-      </c>
-      <c r="K20" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="L20" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="M20" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="N20" s="0" t="str">
-        <v xml:space="preserve">  B </v>
-      </c>
-      <c r="O20" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="P20" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="Q20" s="0" t="str">
-        <v xml:space="preserve">  B </v>
-      </c>
-      <c r="R20" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
-      </c>
-      <c r="S20" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="T20" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="U20" s="0" t="str">
-        <v xml:space="preserve">   C</v>
-      </c>
-      <c r="V20" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="W20" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="X20" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="Y20" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="Z20" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="AA20" s="0" t="str">
-        <v xml:space="preserve">   C</v>
-      </c>
-      <c r="AB20" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="AC20" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="AD20" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="AE20" s="0" t="str">
-        <v xml:space="preserve"> AB </v>
-      </c>
-      <c r="AF20" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
-      </c>
-      <c r="AG20" s="0" t="str">
-        <v xml:space="preserve">  B </v>
-      </c>
-      <c r="AH20" s="0" t="str">
-        <v xml:space="preserve"> AB </v>
-      </c>
-      <c r="AI20" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="AJ20" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
-      </c>
-      <c r="AK20" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="AL20" s="0" t="str">
-        <v xml:space="preserve">  BC</v>
-      </c>
-      <c r="AM20" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="AN20" s="0" t="str">
-        <v xml:space="preserve">    </v>
+    <row r="20" spans="1:40">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
+        <v>305</v>
+      </c>
+      <c r="C20" t="s">
+        <v>309</v>
+      </c>
+      <c r="D20" t="s">
+        <v>308</v>
+      </c>
+      <c r="E20" t="s">
+        <v>305</v>
+      </c>
+      <c r="F20" t="s">
+        <v>308</v>
+      </c>
+      <c r="G20" t="s">
+        <v>305</v>
+      </c>
+      <c r="H20" t="s">
+        <v>304</v>
+      </c>
+      <c r="I20" t="s">
+        <v>309</v>
+      </c>
+      <c r="J20" t="s">
+        <v>309</v>
+      </c>
+      <c r="K20" t="s">
+        <v>305</v>
+      </c>
+      <c r="L20" t="s">
+        <v>305</v>
+      </c>
+      <c r="M20" t="s">
+        <v>305</v>
+      </c>
+      <c r="N20" t="s">
+        <v>309</v>
+      </c>
+      <c r="O20" t="s">
+        <v>305</v>
+      </c>
+      <c r="P20" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>309</v>
+      </c>
+      <c r="R20" t="s">
+        <v>302</v>
+      </c>
+      <c r="S20" t="s">
+        <v>305</v>
+      </c>
+      <c r="T20" t="s">
+        <v>305</v>
+      </c>
+      <c r="U20" t="s">
+        <v>308</v>
+      </c>
+      <c r="V20" t="s">
+        <v>305</v>
+      </c>
+      <c r="W20" t="s">
+        <v>305</v>
+      </c>
+      <c r="X20" t="s">
+        <v>305</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>305</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>305</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>308</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>305</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>305</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>305</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>304</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>302</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>309</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>304</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>305</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>302</v>
+      </c>
+      <c r="AK20" t="s">
+        <v>305</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>306</v>
+      </c>
+      <c r="AM20" t="s">
+        <v>303</v>
+      </c>
+      <c r="AN20" t="s">
+        <v>305</v>
       </c>
     </row>
-    <row r="21" spans="1:40" customFormat="false">
-      <c r="A21" s="0" t="str">
-        <v>NOVICE resort to first language</v>
-      </c>
-      <c r="B21" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="C21" s="0" t="str">
-        <v xml:space="preserve">  B </v>
-      </c>
-      <c r="D21" s="0" t="str">
-        <v xml:space="preserve"> A  </v>
-      </c>
-      <c r="E21" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="F21" s="0" t="str">
-        <v xml:space="preserve">   C</v>
-      </c>
-      <c r="G21" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="H21" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="I21" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="J21" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="K21" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="L21" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="M21" s="0" t="str">
-        <v xml:space="preserve">  B </v>
-      </c>
-      <c r="N21" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="O21" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="P21" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="Q21" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="R21" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="S21" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="T21" s="0" t="str">
-        <v xml:space="preserve">  B </v>
-      </c>
-      <c r="U21" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="V21" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="W21" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="X21" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="Y21" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="Z21" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="AA21" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="AB21" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="AC21" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="AD21" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="AE21" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="AF21" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="AG21" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="AH21" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="AI21" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="AJ21" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="AK21" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="AL21" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="AM21" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="AN21" s="0" t="str">
-        <v xml:space="preserve"> AB </v>
+    <row r="21" spans="1:40">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" t="s">
+        <v>305</v>
+      </c>
+      <c r="C21" t="s">
+        <v>309</v>
+      </c>
+      <c r="D21" t="s">
+        <v>307</v>
+      </c>
+      <c r="E21" t="s">
+        <v>305</v>
+      </c>
+      <c r="F21" t="s">
+        <v>308</v>
+      </c>
+      <c r="G21" t="s">
+        <v>305</v>
+      </c>
+      <c r="H21" t="s">
+        <v>305</v>
+      </c>
+      <c r="I21" t="s">
+        <v>305</v>
+      </c>
+      <c r="J21" t="s">
+        <v>305</v>
+      </c>
+      <c r="K21" t="s">
+        <v>305</v>
+      </c>
+      <c r="L21" t="s">
+        <v>305</v>
+      </c>
+      <c r="M21" t="s">
+        <v>309</v>
+      </c>
+      <c r="N21" t="s">
+        <v>305</v>
+      </c>
+      <c r="O21" t="s">
+        <v>305</v>
+      </c>
+      <c r="P21" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>305</v>
+      </c>
+      <c r="R21" t="s">
+        <v>305</v>
+      </c>
+      <c r="S21" t="s">
+        <v>305</v>
+      </c>
+      <c r="T21" t="s">
+        <v>309</v>
+      </c>
+      <c r="U21" t="s">
+        <v>305</v>
+      </c>
+      <c r="V21" t="s">
+        <v>305</v>
+      </c>
+      <c r="W21" t="s">
+        <v>305</v>
+      </c>
+      <c r="X21" t="s">
+        <v>305</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>305</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>305</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>305</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>305</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>305</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>305</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>305</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>305</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>305</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>305</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>305</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>305</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>305</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>305</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>305</v>
+      </c>
+      <c r="AN21" t="s">
+        <v>304</v>
       </c>
     </row>
-    <row r="22" spans="1:40" customFormat="false">
-      <c r="A22" s="0" t="str">
-        <v>NOVICE repeat/request repetition</v>
-      </c>
-      <c r="B22" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="C22" s="0" t="str">
-        <v xml:space="preserve">  B </v>
-      </c>
-      <c r="D22" s="0" t="str">
-        <v xml:space="preserve"> A  </v>
-      </c>
-      <c r="E22" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="F22" s="0" t="str">
-        <v xml:space="preserve">   C</v>
-      </c>
-      <c r="G22" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="H22" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="I22" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="J22" s="0" t="str">
-        <v xml:space="preserve">   C</v>
-      </c>
-      <c r="K22" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="L22" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="M22" s="0" t="str">
-        <v xml:space="preserve">  B </v>
-      </c>
-      <c r="N22" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="O22" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="P22" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="Q22" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="R22" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="S22" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="T22" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="U22" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="V22" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="W22" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="X22" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="Y22" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="Z22" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="AA22" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="AB22" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="AC22" s="0" t="str">
-        <v xml:space="preserve"> A  </v>
-      </c>
-      <c r="AD22" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="AE22" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="AF22" s="0" t="str">
-        <v xml:space="preserve">   C</v>
-      </c>
-      <c r="AG22" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="AH22" s="0" t="str">
-        <v xml:space="preserve">  B </v>
-      </c>
-      <c r="AI22" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="AJ22" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="AK22" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="AL22" s="0" t="str">
-        <v xml:space="preserve">   C</v>
-      </c>
-      <c r="AM22" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="AN22" s="0" t="str">
-        <v xml:space="preserve">  B </v>
+    <row r="22" spans="1:40">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>305</v>
+      </c>
+      <c r="C22" t="s">
+        <v>309</v>
+      </c>
+      <c r="D22" t="s">
+        <v>307</v>
+      </c>
+      <c r="E22" t="s">
+        <v>305</v>
+      </c>
+      <c r="F22" t="s">
+        <v>308</v>
+      </c>
+      <c r="G22" t="s">
+        <v>305</v>
+      </c>
+      <c r="H22" t="s">
+        <v>305</v>
+      </c>
+      <c r="I22" t="s">
+        <v>305</v>
+      </c>
+      <c r="J22" t="s">
+        <v>308</v>
+      </c>
+      <c r="K22" t="s">
+        <v>305</v>
+      </c>
+      <c r="L22" t="s">
+        <v>305</v>
+      </c>
+      <c r="M22" t="s">
+        <v>309</v>
+      </c>
+      <c r="N22" t="s">
+        <v>305</v>
+      </c>
+      <c r="O22" t="s">
+        <v>305</v>
+      </c>
+      <c r="P22" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>305</v>
+      </c>
+      <c r="R22" t="s">
+        <v>305</v>
+      </c>
+      <c r="S22" t="s">
+        <v>305</v>
+      </c>
+      <c r="T22" t="s">
+        <v>303</v>
+      </c>
+      <c r="U22" t="s">
+        <v>305</v>
+      </c>
+      <c r="V22" t="s">
+        <v>305</v>
+      </c>
+      <c r="W22" t="s">
+        <v>305</v>
+      </c>
+      <c r="X22" t="s">
+        <v>305</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>305</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>305</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>305</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>305</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>307</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>305</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>305</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>308</v>
+      </c>
+      <c r="AG22" t="s">
+        <v>305</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>309</v>
+      </c>
+      <c r="AI22" t="s">
+        <v>305</v>
+      </c>
+      <c r="AJ22" t="s">
+        <v>305</v>
+      </c>
+      <c r="AK22" t="s">
+        <v>305</v>
+      </c>
+      <c r="AL22" t="s">
+        <v>308</v>
+      </c>
+      <c r="AM22" t="s">
+        <v>305</v>
+      </c>
+      <c r="AN22" t="s">
+        <v>309</v>
       </c>
     </row>
-    <row r="23" spans="1:40" customFormat="false">
-      <c r="A23" s="0" t="str">
-        <v>NOVICE indicate lack of understanding</v>
-      </c>
-      <c r="B23" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="C23" s="0" t="str">
-        <v xml:space="preserve">  B </v>
-      </c>
-      <c r="D23" s="0" t="str">
-        <v xml:space="preserve"> A  </v>
-      </c>
-      <c r="E23" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="F23" s="0" t="str">
-        <v xml:space="preserve">   C</v>
-      </c>
-      <c r="G23" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="H23" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="I23" s="0" t="str">
-        <v xml:space="preserve"> A  </v>
-      </c>
-      <c r="J23" s="0" t="str">
-        <v xml:space="preserve"> A  </v>
-      </c>
-      <c r="K23" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="L23" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="M23" s="0" t="str">
-        <v xml:space="preserve"> AB </v>
-      </c>
-      <c r="N23" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="O23" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="P23" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="Q23" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="R23" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="S23" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="T23" s="0" t="str">
-        <v xml:space="preserve">  BC</v>
-      </c>
-      <c r="U23" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="V23" s="0" t="str">
-        <v xml:space="preserve"> A  </v>
-      </c>
-      <c r="W23" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="X23" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="Y23" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="Z23" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="AA23" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="AB23" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="AC23" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="AD23" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="AE23" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="AF23" s="0" t="str">
-        <v xml:space="preserve"> A  </v>
-      </c>
-      <c r="AG23" s="0" t="str">
-        <v xml:space="preserve">  B </v>
-      </c>
-      <c r="AH23" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="AI23" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="AJ23" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="AK23" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="AL23" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="AM23" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="AN23" s="0" t="str">
-        <v xml:space="preserve">    </v>
+    <row r="23" spans="1:40">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>305</v>
+      </c>
+      <c r="C23" t="s">
+        <v>309</v>
+      </c>
+      <c r="D23" t="s">
+        <v>307</v>
+      </c>
+      <c r="E23" t="s">
+        <v>305</v>
+      </c>
+      <c r="F23" t="s">
+        <v>308</v>
+      </c>
+      <c r="G23" t="s">
+        <v>305</v>
+      </c>
+      <c r="H23" t="s">
+        <v>305</v>
+      </c>
+      <c r="I23" t="s">
+        <v>307</v>
+      </c>
+      <c r="J23" t="s">
+        <v>307</v>
+      </c>
+      <c r="K23" t="s">
+        <v>305</v>
+      </c>
+      <c r="L23" t="s">
+        <v>305</v>
+      </c>
+      <c r="M23" t="s">
+        <v>304</v>
+      </c>
+      <c r="N23" t="s">
+        <v>305</v>
+      </c>
+      <c r="O23" t="s">
+        <v>305</v>
+      </c>
+      <c r="P23" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>305</v>
+      </c>
+      <c r="R23" t="s">
+        <v>305</v>
+      </c>
+      <c r="S23" t="s">
+        <v>305</v>
+      </c>
+      <c r="T23" t="s">
+        <v>306</v>
+      </c>
+      <c r="U23" t="s">
+        <v>305</v>
+      </c>
+      <c r="V23" t="s">
+        <v>307</v>
+      </c>
+      <c r="W23" t="s">
+        <v>305</v>
+      </c>
+      <c r="X23" t="s">
+        <v>305</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>305</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>305</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>305</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>305</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>305</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>305</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>305</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>307</v>
+      </c>
+      <c r="AG23" t="s">
+        <v>309</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>305</v>
+      </c>
+      <c r="AI23" t="s">
+        <v>305</v>
+      </c>
+      <c r="AJ23" t="s">
+        <v>305</v>
+      </c>
+      <c r="AK23" t="s">
+        <v>305</v>
+      </c>
+      <c r="AL23" t="s">
+        <v>305</v>
+      </c>
+      <c r="AM23" t="s">
+        <v>305</v>
+      </c>
+      <c r="AN23" t="s">
+        <v>305</v>
       </c>
     </row>
-    <row r="24" spans="1:40" customFormat="false">
-      <c r="A24" s="0" t="str">
-        <v>INTERMEDIATE ask questions, request clarification</v>
-      </c>
-      <c r="B24" s="0" t="str">
-        <v xml:space="preserve"> AB </v>
-      </c>
-      <c r="C24" s="0" t="str">
-        <v xml:space="preserve">  B </v>
-      </c>
-      <c r="D24" s="0" t="str">
-        <v xml:space="preserve"> A  </v>
-      </c>
-      <c r="E24" s="0" t="str">
-        <v xml:space="preserve"> A  </v>
-      </c>
-      <c r="F24" s="0" t="str">
-        <v xml:space="preserve">   C</v>
-      </c>
-      <c r="G24" s="0" t="str">
-        <v xml:space="preserve">  BC</v>
-      </c>
-      <c r="H24" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="I24" s="0" t="str">
-        <v xml:space="preserve"> AB </v>
-      </c>
-      <c r="J24" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
-      </c>
-      <c r="K24" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="L24" s="0" t="str">
-        <v xml:space="preserve">  BC</v>
-      </c>
-      <c r="M24" s="0" t="str">
-        <v xml:space="preserve"> AB </v>
-      </c>
-      <c r="N24" s="0" t="str">
-        <v xml:space="preserve">   C</v>
-      </c>
-      <c r="O24" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="P24" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="Q24" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="R24" s="0" t="str">
-        <v xml:space="preserve">  B </v>
-      </c>
-      <c r="S24" s="0" t="str">
-        <v xml:space="preserve">  B </v>
-      </c>
-      <c r="T24" s="0" t="str">
-        <v xml:space="preserve"> AB </v>
-      </c>
-      <c r="U24" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
-      </c>
-      <c r="V24" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="W24" s="0" t="str">
-        <v xml:space="preserve">  BC</v>
-      </c>
-      <c r="X24" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="Y24" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
-      </c>
-      <c r="Z24" s="0" t="str">
-        <v xml:space="preserve"> AB </v>
-      </c>
-      <c r="AA24" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="AB24" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="AC24" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="AD24" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
-      </c>
-      <c r="AE24" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="AF24" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="AG24" s="0" t="str">
-        <v xml:space="preserve"> A  </v>
-      </c>
-      <c r="AH24" s="0" t="str">
-        <v xml:space="preserve"> AB </v>
-      </c>
-      <c r="AI24" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="AJ24" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="AK24" s="0" t="str">
-        <v xml:space="preserve">   C</v>
-      </c>
-      <c r="AL24" s="0" t="str">
-        <v xml:space="preserve">   C</v>
-      </c>
-      <c r="AM24" s="0" t="str">
-        <v xml:space="preserve">   C</v>
-      </c>
-      <c r="AN24" s="0" t="str">
-        <v xml:space="preserve">    </v>
+    <row r="24" spans="1:40">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>304</v>
+      </c>
+      <c r="C24" t="s">
+        <v>309</v>
+      </c>
+      <c r="D24" t="s">
+        <v>307</v>
+      </c>
+      <c r="E24" t="s">
+        <v>307</v>
+      </c>
+      <c r="F24" t="s">
+        <v>308</v>
+      </c>
+      <c r="G24" t="s">
+        <v>306</v>
+      </c>
+      <c r="H24" t="s">
+        <v>303</v>
+      </c>
+      <c r="I24" t="s">
+        <v>304</v>
+      </c>
+      <c r="J24" t="s">
+        <v>302</v>
+      </c>
+      <c r="K24" t="s">
+        <v>303</v>
+      </c>
+      <c r="L24" t="s">
+        <v>306</v>
+      </c>
+      <c r="M24" t="s">
+        <v>304</v>
+      </c>
+      <c r="N24" t="s">
+        <v>308</v>
+      </c>
+      <c r="O24" t="s">
+        <v>305</v>
+      </c>
+      <c r="P24" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>303</v>
+      </c>
+      <c r="R24" t="s">
+        <v>309</v>
+      </c>
+      <c r="S24" t="s">
+        <v>309</v>
+      </c>
+      <c r="T24" t="s">
+        <v>304</v>
+      </c>
+      <c r="U24" t="s">
+        <v>302</v>
+      </c>
+      <c r="V24" t="s">
+        <v>305</v>
+      </c>
+      <c r="W24" t="s">
+        <v>306</v>
+      </c>
+      <c r="X24" t="s">
+        <v>305</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>302</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>304</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>303</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>303</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>303</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>302</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>305</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>305</v>
+      </c>
+      <c r="AG24" t="s">
+        <v>307</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>304</v>
+      </c>
+      <c r="AI24" t="s">
+        <v>305</v>
+      </c>
+      <c r="AJ24" t="s">
+        <v>303</v>
+      </c>
+      <c r="AK24" t="s">
+        <v>308</v>
+      </c>
+      <c r="AL24" t="s">
+        <v>308</v>
+      </c>
+      <c r="AM24" t="s">
+        <v>308</v>
+      </c>
+      <c r="AN24" t="s">
+        <v>305</v>
       </c>
     </row>
-    <row r="25" spans="1:40" customFormat="false">
-      <c r="A25" s="0" t="str">
-        <v>INTERMEDIATE self-correct or restate when not understood</v>
-      </c>
-      <c r="B25" s="0" t="str">
-        <v xml:space="preserve">   C</v>
-      </c>
-      <c r="C25" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="D25" s="0" t="str">
-        <v xml:space="preserve"> A  </v>
-      </c>
-      <c r="E25" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="F25" s="0" t="str">
-        <v xml:space="preserve">   C</v>
-      </c>
-      <c r="G25" s="0" t="str">
-        <v xml:space="preserve">   C</v>
-      </c>
-      <c r="H25" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="I25" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="J25" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="K25" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="L25" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="M25" s="0" t="str">
-        <v xml:space="preserve"> AB </v>
-      </c>
-      <c r="N25" s="0" t="str">
-        <v xml:space="preserve">  BC</v>
-      </c>
-      <c r="O25" s="0" t="str">
-        <v xml:space="preserve">   C</v>
-      </c>
-      <c r="P25" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="Q25" s="0" t="str">
-        <v xml:space="preserve"> AB </v>
-      </c>
-      <c r="R25" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="S25" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="T25" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="U25" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
-      </c>
-      <c r="V25" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="W25" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="X25" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="Y25" s="0" t="str">
-        <v xml:space="preserve"> AB </v>
-      </c>
-      <c r="Z25" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="AA25" s="0" t="str">
-        <v xml:space="preserve">   C</v>
-      </c>
-      <c r="AB25" s="0" t="str">
-        <v xml:space="preserve">  BC</v>
-      </c>
-      <c r="AC25" s="0" t="str">
-        <v xml:space="preserve"> AB </v>
-      </c>
-      <c r="AD25" s="0" t="str">
-        <v xml:space="preserve">  BC</v>
-      </c>
-      <c r="AE25" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="AF25" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="AG25" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="AH25" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="AI25" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="AJ25" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="AK25" s="0" t="str">
-        <v xml:space="preserve"> A  </v>
-      </c>
-      <c r="AL25" s="0" t="str">
-        <v xml:space="preserve">  BC</v>
-      </c>
-      <c r="AM25" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="AN25" s="0" t="str">
-        <v xml:space="preserve">  B </v>
+    <row r="25" spans="1:40">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" t="s">
+        <v>308</v>
+      </c>
+      <c r="C25" t="s">
+        <v>305</v>
+      </c>
+      <c r="D25" t="s">
+        <v>307</v>
+      </c>
+      <c r="E25" t="s">
+        <v>305</v>
+      </c>
+      <c r="F25" t="s">
+        <v>308</v>
+      </c>
+      <c r="G25" t="s">
+        <v>308</v>
+      </c>
+      <c r="H25" t="s">
+        <v>303</v>
+      </c>
+      <c r="I25" t="s">
+        <v>303</v>
+      </c>
+      <c r="J25" t="s">
+        <v>303</v>
+      </c>
+      <c r="K25" t="s">
+        <v>303</v>
+      </c>
+      <c r="L25" t="s">
+        <v>305</v>
+      </c>
+      <c r="M25" t="s">
+        <v>304</v>
+      </c>
+      <c r="N25" t="s">
+        <v>306</v>
+      </c>
+      <c r="O25" t="s">
+        <v>308</v>
+      </c>
+      <c r="P25" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>304</v>
+      </c>
+      <c r="R25" t="s">
+        <v>303</v>
+      </c>
+      <c r="S25" t="s">
+        <v>305</v>
+      </c>
+      <c r="T25" t="s">
+        <v>303</v>
+      </c>
+      <c r="U25" t="s">
+        <v>302</v>
+      </c>
+      <c r="V25" t="s">
+        <v>305</v>
+      </c>
+      <c r="W25" t="s">
+        <v>305</v>
+      </c>
+      <c r="X25" t="s">
+        <v>305</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>304</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>305</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>308</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>306</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>304</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>306</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>303</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>305</v>
+      </c>
+      <c r="AG25" t="s">
+        <v>303</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>303</v>
+      </c>
+      <c r="AI25" t="s">
+        <v>305</v>
+      </c>
+      <c r="AJ25" t="s">
+        <v>303</v>
+      </c>
+      <c r="AK25" t="s">
+        <v>307</v>
+      </c>
+      <c r="AL25" t="s">
+        <v>306</v>
+      </c>
+      <c r="AM25" t="s">
+        <v>303</v>
+      </c>
+      <c r="AN25" t="s">
+        <v>309</v>
       </c>
     </row>
-    <row r="26" spans="1:40" customFormat="false">
-      <c r="A26" s="0" t="str">
-        <v>INTERMEDIATE circumlocute</v>
-      </c>
-      <c r="B26" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="C26" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="D26" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="E26" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="F26" s="0" t="str">
-        <v xml:space="preserve"> A C</v>
-      </c>
-      <c r="G26" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="H26" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="I26" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="J26" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="K26" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="L26" s="0" t="str">
-        <v xml:space="preserve">  B </v>
-      </c>
-      <c r="M26" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="N26" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="O26" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="P26" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="Q26" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="R26" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="S26" s="0" t="str">
-        <v xml:space="preserve">  BC</v>
-      </c>
-      <c r="T26" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="U26" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="V26" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="W26" s="0" t="str">
-        <v xml:space="preserve">   C</v>
-      </c>
-      <c r="X26" s="0" t="str">
-        <v xml:space="preserve">  B </v>
-      </c>
-      <c r="Y26" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="Z26" s="0" t="str">
-        <v xml:space="preserve">   C</v>
-      </c>
-      <c r="AA26" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="AB26" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="AC26" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="AD26" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="AE26" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="AF26" s="0" t="str">
-        <v xml:space="preserve">  BC</v>
-      </c>
-      <c r="AG26" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="AH26" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="AI26" s="0" t="str">
-        <v xml:space="preserve">    </v>
-      </c>
-      <c r="AJ26" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="AK26" s="0" t="str">
-        <v xml:space="preserve"> ABC</v>
-      </c>
-      <c r="AL26" s="0" t="str">
-        <v xml:space="preserve">  BC</v>
-      </c>
-      <c r="AM26" s="0" t="str">
-        <v xml:space="preserve"> AB </v>
-      </c>
-      <c r="AN26" s="0" t="str">
-        <v xml:space="preserve">    </v>
+    <row r="26" spans="1:40">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" t="s">
+        <v>305</v>
+      </c>
+      <c r="C26" t="s">
+        <v>305</v>
+      </c>
+      <c r="D26" t="s">
+        <v>303</v>
+      </c>
+      <c r="E26" t="s">
+        <v>303</v>
+      </c>
+      <c r="F26" t="s">
+        <v>302</v>
+      </c>
+      <c r="G26" t="s">
+        <v>303</v>
+      </c>
+      <c r="H26" t="s">
+        <v>305</v>
+      </c>
+      <c r="I26" t="s">
+        <v>305</v>
+      </c>
+      <c r="J26" t="s">
+        <v>303</v>
+      </c>
+      <c r="K26" t="s">
+        <v>303</v>
+      </c>
+      <c r="L26" t="s">
+        <v>309</v>
+      </c>
+      <c r="M26" t="s">
+        <v>305</v>
+      </c>
+      <c r="N26" t="s">
+        <v>303</v>
+      </c>
+      <c r="O26" t="s">
+        <v>303</v>
+      </c>
+      <c r="P26" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>305</v>
+      </c>
+      <c r="R26" t="s">
+        <v>305</v>
+      </c>
+      <c r="S26" t="s">
+        <v>306</v>
+      </c>
+      <c r="T26" t="s">
+        <v>305</v>
+      </c>
+      <c r="U26" t="s">
+        <v>305</v>
+      </c>
+      <c r="V26" t="s">
+        <v>305</v>
+      </c>
+      <c r="W26" t="s">
+        <v>308</v>
+      </c>
+      <c r="X26" t="s">
+        <v>309</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>305</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>308</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>303</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>303</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>303</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>303</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>303</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>306</v>
+      </c>
+      <c r="AG26" t="s">
+        <v>305</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>305</v>
+      </c>
+      <c r="AI26" t="s">
+        <v>305</v>
+      </c>
+      <c r="AJ26" t="s">
+        <v>303</v>
+      </c>
+      <c r="AK26" t="s">
+        <v>303</v>
+      </c>
+      <c r="AL26" t="s">
+        <v>306</v>
+      </c>
+      <c r="AM26" t="s">
+        <v>304</v>
+      </c>
+      <c r="AN26" t="s">
+        <v>305</v>
       </c>
     </row>
   </sheetData>
